--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DF69B4-BA6B-4F6D-8C59-5EE27AE15E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8153AFF2-5DAD-4F3C-8F16-17FACF1A1B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D99C5CA-A8AB-49E9-89F6-6AFF25389932}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0A06FDFE-8553-42CD-A630-AECC62DB8D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,6 +54,12 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
@@ -84,6 +90,30 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
     <t>003540</t>
   </si>
   <si>
@@ -102,10 +132,16 @@
     <t>코리안리</t>
   </si>
   <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>005180</t>
+  </si>
+  <si>
+    <t>빙그레</t>
   </si>
   <si>
     <t>005380</t>
@@ -114,6 +150,12 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
     <t>005830</t>
   </si>
   <si>
@@ -138,6 +180,12 @@
     <t>DN오토모티브</t>
   </si>
   <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
     <t>009970</t>
   </si>
   <si>
@@ -168,6 +216,12 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>018670</t>
+  </si>
+  <si>
+    <t>SK가스</t>
+  </si>
+  <si>
     <t>023590</t>
   </si>
   <si>
@@ -180,6 +234,18 @@
     <t>기업은행</t>
   </si>
   <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
     <t>029780</t>
   </si>
   <si>
@@ -228,12 +294,24 @@
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
     <t>039490</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
     <t>051600</t>
   </si>
   <si>
@@ -246,18 +324,54 @@
     <t>신한지주</t>
   </si>
   <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>TKG휴켐스</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>지역난방공사</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>108320</t>
+  </si>
+  <si>
+    <t>LX세미콘</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -280,6 +394,36 @@
   </si>
   <si>
     <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>HS효성첨단소재</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
   </si>
   <si>
     <t>316140</t>
@@ -663,10 +807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615A63D2-C644-4587-8F23-A6A34D878DC6}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B16CF0C-0CA6-4D3B-8AE4-9A1BAF6BCADE}">
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -724,31 +868,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>18920</v>
+        <v>20350</v>
       </c>
       <c r="D2" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>13.54</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>16779.22</v>
       </c>
       <c r="I2">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -759,31 +903,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>98700</v>
+        <v>18920</v>
       </c>
       <c r="D3" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>10.33</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>5.8</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>47311.47</v>
       </c>
       <c r="I3">
-        <v>6.59</v>
+        <v>5.29</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -794,31 +938,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>428500</v>
+        <v>98700</v>
       </c>
       <c r="D4" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>19.09</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>17.12</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>18.03</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>141851.03</v>
       </c>
       <c r="I4">
-        <v>4.43</v>
+        <v>6.59</v>
       </c>
       <c r="J4">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -829,31 +973,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31050</v>
+        <v>428500</v>
       </c>
       <c r="D5" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>13.09</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>15.71</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>12.47</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>6.44</v>
+        <v>4.43</v>
       </c>
       <c r="J5">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -864,31 +1008,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>25700</v>
+        <v>31050</v>
       </c>
       <c r="D6" s="3">
-        <v>-3.2000000000000001E-2</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>7.12</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>14.97</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>12.61</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>4.67</v>
+        <v>6.44</v>
       </c>
       <c r="J6">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -899,31 +1043,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24000</v>
+        <v>25700</v>
       </c>
       <c r="D7" s="3">
-        <v>-6.1999999999999998E-3</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>1.27</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>4.21</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -934,31 +1078,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>77500</v>
+        <v>22300</v>
       </c>
       <c r="D8" s="3">
-        <v>2.92E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>6.94</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>6.21</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>39272.870000000003</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3.81</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -969,31 +1113,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>9990</v>
+        <v>21900</v>
       </c>
       <c r="D9" s="3">
-        <v>-6.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E9">
-        <v>9.44</v>
+        <v>7.03</v>
       </c>
       <c r="F9">
-        <v>11.1</v>
+        <v>6.41</v>
       </c>
       <c r="G9">
-        <v>9.86</v>
+        <v>5.26</v>
       </c>
       <c r="H9" s="4">
-        <v>18178.189999999999</v>
+        <v>38104.980000000003</v>
       </c>
       <c r="I9">
-        <v>5.16</v>
+        <v>3.65</v>
       </c>
       <c r="J9">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1004,31 +1148,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>67100</v>
+        <v>314000</v>
       </c>
       <c r="D10" s="3">
-        <v>1.3599999999999999E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E10">
-        <v>19.62</v>
+        <v>6.08</v>
       </c>
       <c r="F10">
-        <v>12.01</v>
+        <v>3.12</v>
       </c>
       <c r="G10">
-        <v>6.74</v>
+        <v>3.63</v>
       </c>
       <c r="H10" s="4">
-        <v>130022.16</v>
+        <v>738772.79</v>
       </c>
       <c r="I10">
-        <v>4.47</v>
+        <v>3.18</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1039,31 +1183,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>210000</v>
+        <v>21550</v>
       </c>
       <c r="D11" s="3">
-        <v>1.4500000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>12.43</v>
+        <v>13.17</v>
       </c>
       <c r="F11">
-        <v>11.52</v>
+        <v>10.87</v>
       </c>
       <c r="G11">
-        <v>11.82</v>
+        <v>15.53</v>
       </c>
       <c r="H11" s="4">
-        <v>411868.79</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I11">
-        <v>5.71</v>
+        <v>3.48</v>
       </c>
       <c r="J11">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1074,31 +1218,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>120200</v>
+        <v>24000</v>
       </c>
       <c r="D12" s="3">
-        <v>3.09E-2</v>
+        <v>-6.1999999999999998E-3</v>
       </c>
       <c r="E12">
-        <v>18.96</v>
+        <v>4.57</v>
       </c>
       <c r="F12">
-        <v>19.86</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G12">
-        <v>18.8</v>
+        <v>4.55</v>
       </c>
       <c r="H12" s="4">
-        <v>115980.87</v>
+        <v>38894.53</v>
       </c>
       <c r="I12">
-        <v>5.66</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1109,31 +1253,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>32150</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
+        <v>77500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.92E-2</v>
       </c>
       <c r="E13">
-        <v>17.420000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="F13">
-        <v>17.22</v>
+        <v>8.5</v>
       </c>
       <c r="G13">
-        <v>15.37</v>
+        <v>5.18</v>
       </c>
       <c r="H13" s="4">
-        <v>50552.95</v>
+        <v>174674.22</v>
       </c>
       <c r="I13">
-        <v>3.73</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1144,25 +1288,25 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>19170</v>
+        <v>9990</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>8.73</v>
+        <v>9.44</v>
       </c>
       <c r="F14">
-        <v>10.35</v>
+        <v>11.1</v>
       </c>
       <c r="G14">
-        <v>6.85</v>
+        <v>9.86</v>
       </c>
       <c r="H14" s="4">
-        <v>23121.599999999999</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I14">
-        <v>4.96</v>
+        <v>5.16</v>
       </c>
       <c r="J14">
         <v>96</v>
@@ -1179,31 +1323,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>21550</v>
+        <v>38050</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.6E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E15">
-        <v>19.78</v>
+        <v>1.53</v>
       </c>
       <c r="F15">
-        <v>17.25</v>
+        <v>4.8</v>
       </c>
       <c r="G15">
-        <v>23.29</v>
+        <v>5.27</v>
       </c>
       <c r="H15" s="4">
-        <v>31156.34</v>
+        <v>91911.37</v>
       </c>
       <c r="I15">
-        <v>4.6399999999999997</v>
+        <v>3.68</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1214,31 +1358,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>132000</v>
+        <v>83900</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E16">
-        <v>13.17</v>
+        <v>15.14</v>
       </c>
       <c r="F16">
-        <v>10.220000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="G16">
-        <v>18.010000000000002</v>
+        <v>11.28</v>
       </c>
       <c r="H16" s="4">
-        <v>201114.72</v>
+        <v>73760.240000000005</v>
       </c>
       <c r="I16">
-        <v>4.05</v>
+        <v>3.93</v>
       </c>
       <c r="J16">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1249,31 +1393,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>67600</v>
+        <v>210000</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.46E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E17">
-        <v>10.85</v>
+        <v>12.43</v>
       </c>
       <c r="F17">
-        <v>10.27</v>
+        <v>11.52</v>
       </c>
       <c r="G17">
-        <v>11.06</v>
+        <v>11.82</v>
       </c>
       <c r="H17" s="4">
-        <v>46509.73</v>
+        <v>411868.79</v>
       </c>
       <c r="I17">
-        <v>3.99</v>
+        <v>5.71</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1284,31 +1428,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>67700</v>
+        <v>262500</v>
       </c>
       <c r="D18" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E18">
-        <v>12.89</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>13.62</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G18">
-        <v>9.44</v>
+        <v>3.76</v>
       </c>
       <c r="H18" s="4">
-        <v>81376.7</v>
+        <v>701236.07</v>
       </c>
       <c r="I18">
-        <v>5.17</v>
+        <v>3.81</v>
       </c>
       <c r="J18">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K18">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1319,31 +1463,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56300</v>
+        <v>120200</v>
       </c>
       <c r="D19" s="3">
-        <v>1.8100000000000002E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="E19">
-        <v>10.83</v>
+        <v>18.96</v>
       </c>
       <c r="F19">
-        <v>12.4</v>
+        <v>19.86</v>
       </c>
       <c r="G19">
-        <v>9.48</v>
+        <v>18.8</v>
       </c>
       <c r="H19" s="4">
-        <v>55460.24</v>
+        <v>115980.87</v>
       </c>
       <c r="I19">
-        <v>6.29</v>
+        <v>5.66</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1354,31 +1498,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>85200</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1.2699999999999999E-2</v>
+        <v>32150</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>14.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F20">
-        <v>11.9</v>
+        <v>17.22</v>
       </c>
       <c r="G20">
-        <v>15.82</v>
+        <v>15.37</v>
       </c>
       <c r="H20" s="4">
-        <v>32483.7</v>
+        <v>50552.95</v>
       </c>
       <c r="I20">
-        <v>6.46</v>
+        <v>3.73</v>
       </c>
       <c r="J20">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1389,31 +1533,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>32900</v>
+        <v>19170</v>
       </c>
       <c r="D21" s="3">
-        <v>4.4400000000000002E-2</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>13.16</v>
+        <v>8.73</v>
       </c>
       <c r="F21">
-        <v>14.03</v>
+        <v>10.35</v>
       </c>
       <c r="G21">
-        <v>13.29</v>
+        <v>6.85</v>
       </c>
       <c r="H21" s="4">
-        <v>65635.929999999993</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I21">
-        <v>4.26</v>
+        <v>4.96</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1424,31 +1568,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>17290</v>
+        <v>21550</v>
       </c>
       <c r="D22" s="3">
-        <v>5.1999999999999998E-3</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E22">
-        <v>8.06</v>
+        <v>19.78</v>
       </c>
       <c r="F22">
-        <v>9.52</v>
+        <v>17.25</v>
       </c>
       <c r="G22">
-        <v>8.77</v>
+        <v>23.29</v>
       </c>
       <c r="H22" s="4">
-        <v>42663.82</v>
+        <v>31156.34</v>
       </c>
       <c r="I22">
-        <v>6.16</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J22">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1459,31 +1603,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>48300</v>
+        <v>45450</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.3299999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="E23">
+        <v>43.59</v>
+      </c>
+      <c r="F23">
+        <v>10.8</v>
+      </c>
+      <c r="G23">
+        <v>4.82</v>
+      </c>
+      <c r="H23" s="4">
+        <v>26759.11</v>
+      </c>
+      <c r="I23">
+        <v>18.77</v>
+      </c>
+      <c r="J23">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>8.75</v>
-      </c>
-      <c r="G23">
-        <v>7.9</v>
-      </c>
-      <c r="H23" s="4">
-        <v>75767.48</v>
-      </c>
-      <c r="I23">
-        <v>5.8</v>
-      </c>
-      <c r="J23">
-        <v>88</v>
-      </c>
       <c r="K23">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1494,31 +1638,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>20300</v>
+        <v>132000</v>
       </c>
       <c r="D24" s="3">
-        <v>-9.7999999999999997E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>15.12</v>
+        <v>13.17</v>
       </c>
       <c r="F24">
-        <v>7.98</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G24">
-        <v>15.58</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H24" s="4">
-        <v>14481.01</v>
+        <v>201114.72</v>
       </c>
       <c r="I24">
-        <v>6.06</v>
+        <v>4.05</v>
       </c>
       <c r="J24">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="K24">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1529,31 +1673,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>51800</v>
+        <v>67600</v>
       </c>
       <c r="D25" s="3">
-        <v>-1.9E-3</v>
+        <v>-1.46E-2</v>
       </c>
       <c r="E25">
-        <v>2.85</v>
+        <v>10.85</v>
       </c>
       <c r="F25">
-        <v>13.16</v>
+        <v>10.27</v>
       </c>
       <c r="G25">
-        <v>5.63</v>
+        <v>11.06</v>
       </c>
       <c r="H25" s="4">
-        <v>66926.62</v>
+        <v>46509.73</v>
       </c>
       <c r="I25">
-        <v>3.86</v>
+        <v>3.99</v>
       </c>
       <c r="J25">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1564,31 +1708,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>13220</v>
+        <v>67700</v>
       </c>
       <c r="D26" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E26">
-        <v>4.4000000000000004</v>
+        <v>12.89</v>
       </c>
       <c r="F26">
-        <v>7.75</v>
+        <v>13.62</v>
       </c>
       <c r="G26">
-        <v>6.75</v>
+        <v>9.44</v>
       </c>
       <c r="H26" s="4">
-        <v>19799.21</v>
+        <v>81376.7</v>
       </c>
       <c r="I26">
-        <v>4.92</v>
+        <v>5.17</v>
       </c>
       <c r="J26">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1599,31 +1743,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>127200</v>
+        <v>56300</v>
       </c>
       <c r="D27" s="3">
-        <v>2.1700000000000001E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E27">
-        <v>5.76</v>
+        <v>10.83</v>
       </c>
       <c r="F27">
-        <v>8.44</v>
+        <v>12.4</v>
       </c>
       <c r="G27">
-        <v>5.33</v>
+        <v>9.48</v>
       </c>
       <c r="H27" s="4">
-        <v>158106.71</v>
+        <v>55460.24</v>
       </c>
       <c r="I27">
-        <v>3.54</v>
+        <v>6.29</v>
       </c>
       <c r="J27">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1634,31 +1778,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>125500</v>
+        <v>85200</v>
       </c>
       <c r="D28" s="3">
-        <v>-8.0000000000000004E-4</v>
+        <v>-1.2699999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>12.66</v>
+        <v>14.42</v>
       </c>
       <c r="F28">
-        <v>11.17</v>
+        <v>11.9</v>
       </c>
       <c r="G28">
-        <v>11.14</v>
+        <v>15.82</v>
       </c>
       <c r="H28" s="4">
-        <v>81115.86</v>
+        <v>32483.7</v>
       </c>
       <c r="I28">
-        <v>4.3</v>
+        <v>6.46</v>
       </c>
       <c r="J28">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1669,31 +1813,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>18040</v>
+        <v>244000</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="E29">
-        <v>12.08</v>
+        <v>6.74</v>
       </c>
       <c r="F29">
-        <v>7.85</v>
+        <v>12.74</v>
       </c>
       <c r="G29">
-        <v>8.39</v>
+        <v>10.37</v>
       </c>
       <c r="H29" s="4">
-        <v>18381.900000000001</v>
+        <v>300046.02</v>
       </c>
       <c r="I29">
-        <v>6.49</v>
+        <v>3.28</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1704,31 +1848,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>38150</v>
+        <v>32900</v>
       </c>
       <c r="D30" s="3">
-        <v>9.2999999999999992E-3</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E30">
-        <v>11.21</v>
+        <v>13.16</v>
       </c>
       <c r="F30">
-        <v>13.43</v>
+        <v>14.03</v>
       </c>
       <c r="G30">
-        <v>6.4</v>
+        <v>13.29</v>
       </c>
       <c r="H30" s="4">
-        <v>121076.78</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I30">
-        <v>3.81</v>
+        <v>4.26</v>
       </c>
       <c r="J30">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1739,31 +1883,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>213500</v>
+        <v>17290</v>
       </c>
       <c r="D31" s="3">
-        <v>3.8899999999999997E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E31">
-        <v>15.98</v>
+        <v>8.06</v>
       </c>
       <c r="F31">
-        <v>16.78</v>
+        <v>9.52</v>
       </c>
       <c r="G31">
-        <v>12.25</v>
+        <v>8.77</v>
       </c>
       <c r="H31" s="4">
-        <v>212733.48</v>
+        <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>3.51</v>
+        <v>6.16</v>
       </c>
       <c r="J31">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1774,31 +1918,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>57700</v>
+        <v>27050</v>
       </c>
       <c r="D32" s="3">
-        <v>-2.1999999999999999E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E32">
-        <v>13.26</v>
+        <v>9.52</v>
       </c>
       <c r="F32">
-        <v>3.52</v>
+        <v>10.5</v>
       </c>
       <c r="G32">
-        <v>11.65</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="H32" s="4">
-        <v>27139.93</v>
+        <v>16694.21</v>
       </c>
       <c r="I32">
-        <v>4.28</v>
+        <v>3.29</v>
       </c>
       <c r="J32">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1809,31 +1953,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>59300</v>
+        <v>3910</v>
       </c>
       <c r="D33" s="3">
-        <v>-1.6999999999999999E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E33">
-        <v>8.11</v>
+        <v>5.17</v>
       </c>
       <c r="F33">
-        <v>10.55</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G33">
-        <v>8.66</v>
+        <v>9.08</v>
       </c>
       <c r="H33" s="4">
-        <v>113903.42</v>
+        <v>10523.01</v>
       </c>
       <c r="I33">
-        <v>3.64</v>
+        <v>3.07</v>
       </c>
       <c r="J33">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="K33">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1844,31 +1988,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>46400</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
+        <v>48300</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="E34">
-        <v>4.12</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>5.83</v>
+        <v>8.75</v>
       </c>
       <c r="G34">
-        <v>11.01</v>
+        <v>7.9</v>
       </c>
       <c r="H34" s="4">
-        <v>147806.45000000001</v>
+        <v>75767.48</v>
       </c>
       <c r="I34">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="J34">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1879,31 +2023,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>80000</v>
+        <v>20300</v>
       </c>
       <c r="D35" s="3">
-        <v>1.6500000000000001E-2</v>
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="E35">
-        <v>9.11</v>
+        <v>15.12</v>
       </c>
       <c r="F35">
-        <v>10.47</v>
+        <v>7.98</v>
       </c>
       <c r="G35">
-        <v>9.4</v>
+        <v>15.58</v>
       </c>
       <c r="H35" s="4">
-        <v>153124.29</v>
+        <v>14481.01</v>
       </c>
       <c r="I35">
-        <v>4.5</v>
+        <v>6.06</v>
       </c>
       <c r="J35">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K35">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -1914,31 +2058,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>11790</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
+        <v>51800</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1.9E-3</v>
       </c>
       <c r="E36">
-        <v>6.96</v>
+        <v>2.85</v>
       </c>
       <c r="F36">
-        <v>6.28</v>
+        <v>13.16</v>
       </c>
       <c r="G36">
-        <v>7.18</v>
+        <v>5.63</v>
       </c>
       <c r="H36" s="4">
-        <v>33008.75</v>
+        <v>66926.62</v>
       </c>
       <c r="I36">
-        <v>5.51</v>
+        <v>3.86</v>
       </c>
       <c r="J36">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1949,31 +2093,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>11780</v>
+        <v>13220</v>
       </c>
       <c r="D37" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E37">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F37">
-        <v>10.34</v>
+        <v>7.75</v>
       </c>
       <c r="G37">
-        <v>5.91</v>
+        <v>6.75</v>
       </c>
       <c r="H37" s="4">
-        <v>35883.14</v>
+        <v>19799.21</v>
       </c>
       <c r="I37">
-        <v>4.24</v>
+        <v>4.92</v>
       </c>
       <c r="J37">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -1984,31 +2128,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>39300</v>
+        <v>127200</v>
       </c>
       <c r="D38" s="3">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>10.79</v>
+        <v>5.76</v>
       </c>
       <c r="F38">
-        <v>11.5</v>
+        <v>8.44</v>
       </c>
       <c r="G38">
-        <v>8.93</v>
+        <v>5.33</v>
       </c>
       <c r="H38" s="4">
-        <v>90358.17</v>
+        <v>158106.71</v>
       </c>
       <c r="I38">
-        <v>5.09</v>
+        <v>3.54</v>
       </c>
       <c r="J38">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2019,31 +2163,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>21100</v>
+        <v>125500</v>
       </c>
       <c r="D39" s="3">
-        <v>-1.17E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="E39">
-        <v>12.8</v>
+        <v>12.66</v>
       </c>
       <c r="F39">
-        <v>11.61</v>
+        <v>11.17</v>
       </c>
       <c r="G39">
-        <v>12.93</v>
+        <v>11.14</v>
       </c>
       <c r="H39" s="4">
-        <v>29151.87</v>
+        <v>81115.86</v>
       </c>
       <c r="I39">
-        <v>4.72</v>
+        <v>4.3</v>
       </c>
       <c r="J39">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K39">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2054,30 +2198,870 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
+        <v>18040</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>12.08</v>
+      </c>
+      <c r="F40">
+        <v>7.85</v>
+      </c>
+      <c r="G40">
+        <v>8.39</v>
+      </c>
+      <c r="H40" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I40">
+        <v>6.49</v>
+      </c>
+      <c r="J40">
+        <v>29</v>
+      </c>
+      <c r="K40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>38150</v>
+      </c>
+      <c r="D41" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E41">
+        <v>11.21</v>
+      </c>
+      <c r="F41">
+        <v>13.43</v>
+      </c>
+      <c r="G41">
+        <v>6.4</v>
+      </c>
+      <c r="H41" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I41">
+        <v>3.81</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>55400</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E42">
+        <v>47.19</v>
+      </c>
+      <c r="F42">
+        <v>29.12</v>
+      </c>
+      <c r="G42">
+        <v>5.07</v>
+      </c>
+      <c r="H42" s="4">
+        <v>11547.13</v>
+      </c>
+      <c r="I42">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J42">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>213500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="E43">
+        <v>15.98</v>
+      </c>
+      <c r="F43">
+        <v>16.78</v>
+      </c>
+      <c r="G43">
+        <v>12.25</v>
+      </c>
+      <c r="H43" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I43">
+        <v>3.51</v>
+      </c>
+      <c r="J43">
+        <v>96</v>
+      </c>
+      <c r="K43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>49100</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="E44">
+        <v>8.14</v>
+      </c>
+      <c r="F44">
+        <v>12.3</v>
+      </c>
+      <c r="G44">
+        <v>12.43</v>
+      </c>
+      <c r="H44" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I44">
+        <v>3.16</v>
+      </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>57700</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="E45">
+        <v>13.26</v>
+      </c>
+      <c r="F45">
+        <v>3.52</v>
+      </c>
+      <c r="G45">
+        <v>11.65</v>
+      </c>
+      <c r="H45" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I45">
+        <v>4.28</v>
+      </c>
+      <c r="J45">
+        <v>88</v>
+      </c>
+      <c r="K45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>59300</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="E46">
+        <v>8.11</v>
+      </c>
+      <c r="F46">
+        <v>10.55</v>
+      </c>
+      <c r="G46">
+        <v>8.66</v>
+      </c>
+      <c r="H46" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I46">
+        <v>3.64</v>
+      </c>
+      <c r="J46">
+        <v>86</v>
+      </c>
+      <c r="K46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>16550</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E47">
+        <v>9.09</v>
+      </c>
+      <c r="F47">
+        <v>6.72</v>
+      </c>
+      <c r="G47">
+        <v>12.5</v>
+      </c>
+      <c r="H47" s="4">
+        <v>21975.55</v>
+      </c>
+      <c r="I47">
+        <v>6.04</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>131900</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E48">
+        <v>11.54</v>
+      </c>
+      <c r="F48">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G48">
+        <v>9.6</v>
+      </c>
+      <c r="H48" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I48">
+        <v>3.02</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>75500</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E49">
+        <v>9.65</v>
+      </c>
+      <c r="F49">
+        <v>39.6</v>
+      </c>
+      <c r="G49">
+        <v>3.24</v>
+      </c>
+      <c r="H49" s="4">
+        <v>211621.18</v>
+      </c>
+      <c r="I49">
+        <v>5.14</v>
+      </c>
+      <c r="J49">
+        <v>83</v>
+      </c>
+      <c r="K49">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>46400</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>4.12</v>
+      </c>
+      <c r="F50">
+        <v>5.83</v>
+      </c>
+      <c r="G50">
+        <v>11.01</v>
+      </c>
+      <c r="H50" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I50">
+        <v>5.82</v>
+      </c>
+      <c r="J50">
+        <v>59</v>
+      </c>
+      <c r="K50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>33850</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>4.3</v>
+      </c>
+      <c r="F51">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G51">
+        <v>8.75</v>
+      </c>
+      <c r="H51" s="4">
+        <v>34821.129999999997</v>
+      </c>
+      <c r="I51">
+        <v>3.55</v>
+      </c>
+      <c r="J51">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>9.11</v>
+      </c>
+      <c r="F52">
+        <v>10.47</v>
+      </c>
+      <c r="G52">
+        <v>9.4</v>
+      </c>
+      <c r="H52" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I52">
+        <v>4.5</v>
+      </c>
+      <c r="J52">
+        <v>96</v>
+      </c>
+      <c r="K52">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>63000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>12.69</v>
+      </c>
+      <c r="F53">
+        <v>16.75</v>
+      </c>
+      <c r="G53">
+        <v>16.63</v>
+      </c>
+      <c r="H53" s="4">
+        <v>66778.399999999994</v>
+      </c>
+      <c r="I53">
+        <v>3.81</v>
+      </c>
+      <c r="J53">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>34050</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.06</v>
+      </c>
+      <c r="F54">
+        <v>1.78</v>
+      </c>
+      <c r="G54">
+        <v>3.92</v>
+      </c>
+      <c r="H54" s="4">
+        <v>121115.98</v>
+      </c>
+      <c r="I54">
+        <v>3.82</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11790</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>6.96</v>
+      </c>
+      <c r="F55">
+        <v>6.28</v>
+      </c>
+      <c r="G55">
+        <v>7.18</v>
+      </c>
+      <c r="H55" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I55">
+        <v>5.51</v>
+      </c>
+      <c r="J55">
+        <v>91</v>
+      </c>
+      <c r="K55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11780</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E56">
+        <v>3.6</v>
+      </c>
+      <c r="F56">
+        <v>10.34</v>
+      </c>
+      <c r="G56">
+        <v>5.91</v>
+      </c>
+      <c r="H56" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I56">
+        <v>4.24</v>
+      </c>
+      <c r="J56">
+        <v>95</v>
+      </c>
+      <c r="K56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>39300</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="E57">
+        <v>10.79</v>
+      </c>
+      <c r="F57">
+        <v>11.5</v>
+      </c>
+      <c r="G57">
+        <v>8.93</v>
+      </c>
+      <c r="H57" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I57">
+        <v>5.09</v>
+      </c>
+      <c r="J57">
+        <v>39</v>
+      </c>
+      <c r="K57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>21100</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="E58">
+        <v>12.8</v>
+      </c>
+      <c r="F58">
+        <v>11.61</v>
+      </c>
+      <c r="G58">
+        <v>12.93</v>
+      </c>
+      <c r="H58" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I58">
+        <v>4.72</v>
+      </c>
+      <c r="J58">
+        <v>93</v>
+      </c>
+      <c r="K58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>52200</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="E59">
+        <v>8.77</v>
+      </c>
+      <c r="F59">
+        <v>6.58</v>
+      </c>
+      <c r="G59">
+        <v>13.11</v>
+      </c>
+      <c r="H59" s="4">
+        <v>71836.88</v>
+      </c>
+      <c r="I59">
+        <v>3.07</v>
+      </c>
+      <c r="J59">
+        <v>65</v>
+      </c>
+      <c r="K59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>125000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>17.29</v>
+      </c>
+      <c r="F60">
+        <v>4.62</v>
+      </c>
+      <c r="G60">
+        <v>19.45</v>
+      </c>
+      <c r="H60" s="4">
+        <v>65226.05</v>
+      </c>
+      <c r="I60">
+        <v>3.28</v>
+      </c>
+      <c r="J60">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>252500</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="E61">
+        <v>9.84</v>
+      </c>
+      <c r="F61">
+        <v>5.67</v>
+      </c>
+      <c r="G61">
+        <v>6.06</v>
+      </c>
+      <c r="H61" s="4">
+        <v>334709.95</v>
+      </c>
+      <c r="I61">
+        <v>3.96</v>
+      </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E62">
+        <v>5.46</v>
+      </c>
+      <c r="F62">
+        <v>0.94</v>
+      </c>
+      <c r="G62">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H62" s="4">
+        <v>226756.47</v>
+      </c>
+      <c r="I62">
+        <v>3.25</v>
+      </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17920</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="E63">
+        <v>11.13</v>
+      </c>
+      <c r="F63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G63">
+        <v>9.31</v>
+      </c>
+      <c r="H63" s="4">
+        <v>23973.89</v>
+      </c>
+      <c r="I63">
+        <v>5.58</v>
+      </c>
+      <c r="J63">
+        <v>54</v>
+      </c>
+      <c r="K63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
         <v>21350</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D64" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="E40">
+      <c r="E64">
         <v>9.39</v>
       </c>
-      <c r="F40">
+      <c r="F64">
         <v>7.27</v>
       </c>
-      <c r="G40">
+      <c r="G64">
         <v>9.73</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H64" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I40">
+      <c r="I64">
         <v>5.62</v>
       </c>
-      <c r="J40">
+      <c r="J64">
         <v>100</v>
       </c>
-      <c r="K40">
+      <c r="K64">
         <v>100</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96D48A7-9CF1-47C5-AE9B-F0DFC55C5E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870F98AC-5AB3-4872-9527-3EC83121E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6DF6D2A2-C2CB-458F-8A6D-4F00E0148A16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A0A90E9-B648-4960-8D74-C7B946A036B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,12 +90,6 @@
     <t>대신증권</t>
   </si>
   <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
     <t>003690</t>
   </si>
   <si>
@@ -120,36 +114,12 @@
     <t>DB손해보험</t>
   </si>
   <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
     <t>016360</t>
   </si>
   <si>
@@ -168,12 +138,6 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
     <t>024110</t>
   </si>
   <si>
@@ -204,42 +168,18 @@
     <t>LG유플러스</t>
   </si>
   <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
     <t>055550</t>
   </si>
   <si>
@@ -268,12 +208,6 @@
   </si>
   <si>
     <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -663,15 +597,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B2E4-4785-48F0-8AEE-6E0D3B6BCB9F}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452083D-17BE-4B7A-B18F-3830B46CA5AC}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -724,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>18920</v>
+        <v>18820</v>
       </c>
       <c r="D2" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>-5.3E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -742,13 +676,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.29</v>
+        <v>5.31</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -759,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>98700</v>
+        <v>95200</v>
       </c>
       <c r="D3" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>-3.5499999999999997E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -777,13 +711,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.59</v>
+        <v>6.83</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -794,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>428500</v>
+        <v>422000</v>
       </c>
       <c r="D4" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -812,13 +746,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.43</v>
+        <v>4.5</v>
       </c>
       <c r="J4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -829,10 +763,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31050</v>
+        <v>30900</v>
       </c>
       <c r="D5" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -847,7 +781,7 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -864,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>25700</v>
+        <v>24950</v>
       </c>
       <c r="D6" s="3">
-        <v>-3.2000000000000001E-2</v>
+        <v>-2.92E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -882,13 +816,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>4.67</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="J6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -899,10 +833,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="D7" s="3">
-        <v>-6.1999999999999998E-3</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -917,13 +851,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -934,31 +868,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>77500</v>
+        <v>10140</v>
       </c>
       <c r="D8" s="3">
-        <v>2.92E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>9.44</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>9.86</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5.08</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="K8">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -969,31 +903,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>9990</v>
+        <v>68400</v>
       </c>
       <c r="D9" s="3">
-        <v>-6.0000000000000001E-3</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>9.44</v>
+        <v>19.62</v>
       </c>
       <c r="F9">
-        <v>11.1</v>
+        <v>12.01</v>
       </c>
       <c r="G9">
-        <v>9.86</v>
+        <v>6.74</v>
       </c>
       <c r="H9" s="4">
-        <v>18178.189999999999</v>
+        <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>5.16</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1004,31 +938,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>67100</v>
+        <v>202000</v>
       </c>
       <c r="D10" s="3">
-        <v>1.3599999999999999E-2</v>
+        <v>-3.8100000000000002E-2</v>
       </c>
       <c r="E10">
-        <v>19.62</v>
+        <v>12.43</v>
       </c>
       <c r="F10">
-        <v>12.01</v>
+        <v>11.52</v>
       </c>
       <c r="G10">
-        <v>6.74</v>
+        <v>11.82</v>
       </c>
       <c r="H10" s="4">
-        <v>130022.16</v>
+        <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>4.47</v>
+        <v>5.94</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1039,31 +973,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>210000</v>
+        <v>119600</v>
       </c>
       <c r="D11" s="3">
-        <v>1.4500000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>12.43</v>
+        <v>18.96</v>
       </c>
       <c r="F11">
-        <v>11.52</v>
+        <v>19.86</v>
       </c>
       <c r="G11">
-        <v>11.82</v>
+        <v>18.8</v>
       </c>
       <c r="H11" s="4">
-        <v>411868.79</v>
+        <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.71</v>
+        <v>5.69</v>
       </c>
       <c r="J11">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1074,25 +1008,25 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>120200</v>
+        <v>19150</v>
       </c>
       <c r="D12" s="3">
-        <v>3.09E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="E12">
-        <v>18.96</v>
+        <v>8.73</v>
       </c>
       <c r="F12">
-        <v>19.86</v>
+        <v>10.35</v>
       </c>
       <c r="G12">
-        <v>18.8</v>
+        <v>6.85</v>
       </c>
       <c r="H12" s="4">
-        <v>115980.87</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>5.66</v>
+        <v>4.96</v>
       </c>
       <c r="J12">
         <v>96</v>
@@ -1109,31 +1043,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>32150</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
+        <v>68400</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.03E-2</v>
       </c>
       <c r="E13">
-        <v>17.420000000000002</v>
+        <v>12.89</v>
       </c>
       <c r="F13">
-        <v>17.22</v>
+        <v>13.62</v>
       </c>
       <c r="G13">
-        <v>15.37</v>
+        <v>9.44</v>
       </c>
       <c r="H13" s="4">
-        <v>50552.95</v>
+        <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>3.73</v>
+        <v>5.12</v>
       </c>
       <c r="J13">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="K13">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1144,31 +1078,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>19170</v>
+        <v>55600</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>-1.24E-2</v>
       </c>
       <c r="E14">
-        <v>8.73</v>
+        <v>10.83</v>
       </c>
       <c r="F14">
-        <v>10.35</v>
+        <v>12.4</v>
       </c>
       <c r="G14">
-        <v>6.85</v>
+        <v>9.48</v>
       </c>
       <c r="H14" s="4">
-        <v>23121.599999999999</v>
+        <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>4.96</v>
+        <v>6.37</v>
       </c>
       <c r="J14">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1179,31 +1113,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>21550</v>
+        <v>83500</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.6E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E15">
-        <v>19.78</v>
+        <v>14.42</v>
       </c>
       <c r="F15">
-        <v>17.25</v>
+        <v>11.9</v>
       </c>
       <c r="G15">
-        <v>23.29</v>
+        <v>15.82</v>
       </c>
       <c r="H15" s="4">
-        <v>31156.34</v>
+        <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>4.6399999999999997</v>
+        <v>6.59</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1214,31 +1148,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>132000</v>
+        <v>17250</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E16">
-        <v>13.17</v>
+        <v>8.06</v>
       </c>
       <c r="F16">
-        <v>10.220000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="G16">
-        <v>18.010000000000002</v>
+        <v>8.77</v>
       </c>
       <c r="H16" s="4">
-        <v>201114.72</v>
+        <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>4.05</v>
+        <v>6.17</v>
       </c>
       <c r="J16">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1249,31 +1183,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>67600</v>
+        <v>48800</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.46E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E17">
-        <v>10.85</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10.27</v>
+        <v>8.75</v>
       </c>
       <c r="G17">
-        <v>11.06</v>
+        <v>7.9</v>
       </c>
       <c r="H17" s="4">
-        <v>46509.73</v>
+        <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>3.99</v>
+        <v>5.74</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1284,31 +1218,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>67700</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>20300</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>12.89</v>
+        <v>15.12</v>
       </c>
       <c r="F18">
-        <v>13.62</v>
+        <v>7.98</v>
       </c>
       <c r="G18">
-        <v>9.44</v>
+        <v>15.58</v>
       </c>
       <c r="H18" s="4">
-        <v>81376.7</v>
+        <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>5.17</v>
+        <v>6.06</v>
       </c>
       <c r="J18">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1319,31 +1253,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56300</v>
+        <v>51200</v>
       </c>
       <c r="D19" s="3">
-        <v>1.8100000000000002E-2</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
       <c r="E19">
-        <v>10.83</v>
+        <v>2.85</v>
       </c>
       <c r="F19">
-        <v>12.4</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>9.48</v>
+        <v>5.63</v>
       </c>
       <c r="H19" s="4">
-        <v>55460.24</v>
+        <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>6.29</v>
+        <v>3.91</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1354,31 +1288,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>85200</v>
+        <v>13320</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.2699999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E20">
-        <v>14.42</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>11.9</v>
+        <v>7.75</v>
       </c>
       <c r="G20">
-        <v>15.82</v>
+        <v>6.75</v>
       </c>
       <c r="H20" s="4">
-        <v>32483.7</v>
+        <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>6.46</v>
+        <v>4.88</v>
       </c>
       <c r="J20">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1389,31 +1323,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>32900</v>
+        <v>122900</v>
       </c>
       <c r="D21" s="3">
-        <v>4.4400000000000002E-2</v>
+        <v>-2.07E-2</v>
       </c>
       <c r="E21">
-        <v>13.16</v>
+        <v>12.66</v>
       </c>
       <c r="F21">
-        <v>14.03</v>
+        <v>11.17</v>
       </c>
       <c r="G21">
-        <v>13.29</v>
+        <v>11.14</v>
       </c>
       <c r="H21" s="4">
-        <v>65635.929999999993</v>
+        <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.26</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1424,31 +1358,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>17290</v>
+        <v>38250</v>
       </c>
       <c r="D22" s="3">
-        <v>5.1999999999999998E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E22">
-        <v>8.06</v>
+        <v>11.21</v>
       </c>
       <c r="F22">
-        <v>9.52</v>
+        <v>13.43</v>
       </c>
       <c r="G22">
-        <v>8.77</v>
+        <v>6.4</v>
       </c>
       <c r="H22" s="4">
-        <v>42663.82</v>
+        <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>6.16</v>
+        <v>3.8</v>
       </c>
       <c r="J22">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1459,31 +1393,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>48300</v>
+        <v>59700</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.3299999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>8.11</v>
       </c>
       <c r="F23">
-        <v>8.75</v>
+        <v>10.55</v>
       </c>
       <c r="G23">
-        <v>7.9</v>
+        <v>8.66</v>
       </c>
       <c r="H23" s="4">
-        <v>75767.48</v>
+        <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>5.8</v>
+        <v>3.62</v>
       </c>
       <c r="J23">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1494,31 +1428,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>20300</v>
+        <v>46050</v>
       </c>
       <c r="D24" s="3">
-        <v>-9.7999999999999997E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="E24">
-        <v>15.12</v>
+        <v>4.12</v>
       </c>
       <c r="F24">
-        <v>7.98</v>
+        <v>5.83</v>
       </c>
       <c r="G24">
-        <v>15.58</v>
+        <v>11.01</v>
       </c>
       <c r="H24" s="4">
-        <v>14481.01</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>6.06</v>
+        <v>5.86</v>
       </c>
       <c r="J24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1529,31 +1463,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>51800</v>
+        <v>79300</v>
       </c>
       <c r="D25" s="3">
-        <v>-1.9E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="E25">
-        <v>2.85</v>
+        <v>9.11</v>
       </c>
       <c r="F25">
-        <v>13.16</v>
+        <v>10.47</v>
       </c>
       <c r="G25">
-        <v>5.63</v>
+        <v>9.4</v>
       </c>
       <c r="H25" s="4">
-        <v>66926.62</v>
+        <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>3.86</v>
+        <v>4.54</v>
       </c>
       <c r="J25">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1564,31 +1498,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>13220</v>
+        <v>11880</v>
       </c>
       <c r="D26" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E26">
-        <v>4.4000000000000004</v>
+        <v>6.96</v>
       </c>
       <c r="F26">
-        <v>7.75</v>
+        <v>6.28</v>
       </c>
       <c r="G26">
-        <v>6.75</v>
+        <v>7.18</v>
       </c>
       <c r="H26" s="4">
-        <v>19799.21</v>
+        <v>33008.75</v>
       </c>
       <c r="I26">
-        <v>4.92</v>
+        <v>5.47</v>
       </c>
       <c r="J26">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1599,31 +1533,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>127200</v>
+        <v>11770</v>
       </c>
       <c r="D27" s="3">
-        <v>2.1700000000000001E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="E27">
-        <v>5.76</v>
+        <v>3.6</v>
       </c>
       <c r="F27">
-        <v>8.44</v>
+        <v>10.34</v>
       </c>
       <c r="G27">
-        <v>5.33</v>
+        <v>5.91</v>
       </c>
       <c r="H27" s="4">
-        <v>158106.71</v>
+        <v>35883.14</v>
       </c>
       <c r="I27">
-        <v>3.54</v>
+        <v>4.25</v>
       </c>
       <c r="J27">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1634,31 +1568,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>125500</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-8.0000000000000004E-4</v>
+        <v>21100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>12.66</v>
+        <v>12.8</v>
       </c>
       <c r="F28">
-        <v>11.17</v>
+        <v>11.61</v>
       </c>
       <c r="G28">
-        <v>11.14</v>
+        <v>12.93</v>
       </c>
       <c r="H28" s="4">
-        <v>81115.86</v>
+        <v>29151.87</v>
       </c>
       <c r="I28">
-        <v>4.3</v>
+        <v>4.72</v>
       </c>
       <c r="J28">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1669,416 +1603,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>18040</v>
+        <v>21050</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.41E-2</v>
       </c>
       <c r="E29">
-        <v>12.08</v>
+        <v>9.39</v>
       </c>
       <c r="F29">
-        <v>7.85</v>
+        <v>7.27</v>
       </c>
       <c r="G29">
-        <v>8.39</v>
+        <v>9.73</v>
       </c>
       <c r="H29" s="4">
-        <v>18381.900000000001</v>
+        <v>45501.38</v>
       </c>
       <c r="I29">
-        <v>6.49</v>
+        <v>5.7</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2">
-        <v>38150</v>
-      </c>
-      <c r="D30" s="3">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="E30">
-        <v>11.21</v>
-      </c>
-      <c r="F30">
-        <v>13.43</v>
-      </c>
-      <c r="G30">
-        <v>6.4</v>
-      </c>
-      <c r="H30" s="4">
-        <v>121076.78</v>
-      </c>
-      <c r="I30">
-        <v>3.81</v>
-      </c>
-      <c r="J30">
-        <v>37</v>
-      </c>
-      <c r="K30">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
-        <v>213500</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="E31">
-        <v>15.98</v>
-      </c>
-      <c r="F31">
-        <v>16.78</v>
-      </c>
-      <c r="G31">
-        <v>12.25</v>
-      </c>
-      <c r="H31" s="4">
-        <v>212733.48</v>
-      </c>
-      <c r="I31">
-        <v>3.51</v>
-      </c>
-      <c r="J31">
-        <v>96</v>
-      </c>
-      <c r="K31">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2">
-        <v>57700</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="E32">
-        <v>13.26</v>
-      </c>
-      <c r="F32">
-        <v>3.52</v>
-      </c>
-      <c r="G32">
-        <v>11.65</v>
-      </c>
-      <c r="H32" s="4">
-        <v>27139.93</v>
-      </c>
-      <c r="I32">
-        <v>4.28</v>
-      </c>
-      <c r="J32">
-        <v>88</v>
-      </c>
-      <c r="K32">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2">
-        <v>59300</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-1.6999999999999999E-3</v>
-      </c>
-      <c r="E33">
-        <v>8.11</v>
-      </c>
-      <c r="F33">
-        <v>10.55</v>
-      </c>
-      <c r="G33">
-        <v>8.66</v>
-      </c>
-      <c r="H33" s="4">
-        <v>113903.42</v>
-      </c>
-      <c r="I33">
-        <v>3.64</v>
-      </c>
-      <c r="J33">
-        <v>86</v>
-      </c>
-      <c r="K33">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2">
-        <v>46400</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>4.12</v>
-      </c>
-      <c r="F34">
-        <v>5.83</v>
-      </c>
-      <c r="G34">
-        <v>11.01</v>
-      </c>
-      <c r="H34" s="4">
-        <v>147806.45000000001</v>
-      </c>
-      <c r="I34">
-        <v>5.82</v>
-      </c>
-      <c r="J34">
-        <v>59</v>
-      </c>
-      <c r="K34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E35">
-        <v>9.11</v>
-      </c>
-      <c r="F35">
-        <v>10.47</v>
-      </c>
-      <c r="G35">
-        <v>9.4</v>
-      </c>
-      <c r="H35" s="4">
-        <v>153124.29</v>
-      </c>
-      <c r="I35">
-        <v>4.5</v>
-      </c>
-      <c r="J35">
-        <v>96</v>
-      </c>
-      <c r="K35">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2">
-        <v>11790</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>6.96</v>
-      </c>
-      <c r="F36">
-        <v>6.28</v>
-      </c>
-      <c r="G36">
-        <v>7.18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>33008.75</v>
-      </c>
-      <c r="I36">
-        <v>5.51</v>
-      </c>
-      <c r="J36">
-        <v>91</v>
-      </c>
-      <c r="K36">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="2">
-        <v>11780</v>
-      </c>
-      <c r="D37" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E37">
-        <v>3.6</v>
-      </c>
-      <c r="F37">
-        <v>10.34</v>
-      </c>
-      <c r="G37">
-        <v>5.91</v>
-      </c>
-      <c r="H37" s="4">
-        <v>35883.14</v>
-      </c>
-      <c r="I37">
-        <v>4.24</v>
-      </c>
-      <c r="J37">
-        <v>95</v>
-      </c>
-      <c r="K37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2">
-        <v>39300</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>10.79</v>
-      </c>
-      <c r="F38">
-        <v>11.5</v>
-      </c>
-      <c r="G38">
-        <v>8.93</v>
-      </c>
-      <c r="H38" s="4">
-        <v>90358.17</v>
-      </c>
-      <c r="I38">
-        <v>5.09</v>
-      </c>
-      <c r="J38">
-        <v>39</v>
-      </c>
-      <c r="K38">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="2">
-        <v>21100</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-1.17E-2</v>
-      </c>
-      <c r="E39">
-        <v>12.8</v>
-      </c>
-      <c r="F39">
-        <v>11.61</v>
-      </c>
-      <c r="G39">
-        <v>12.93</v>
-      </c>
-      <c r="H39" s="4">
-        <v>29151.87</v>
-      </c>
-      <c r="I39">
-        <v>4.72</v>
-      </c>
-      <c r="J39">
-        <v>93</v>
-      </c>
-      <c r="K39">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2">
-        <v>21350</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E40">
-        <v>9.39</v>
-      </c>
-      <c r="F40">
-        <v>7.27</v>
-      </c>
-      <c r="G40">
-        <v>9.73</v>
-      </c>
-      <c r="H40" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I40">
-        <v>5.62</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870F98AC-5AB3-4872-9527-3EC83121E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B1E9D2-6CCE-4938-8AE3-99497095166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A0A90E9-B648-4960-8D74-C7B946A036B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C7498BA-988A-48E9-84BE-AAC5019CDF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>종목코드</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
   </si>
   <si>
     <t>138930</t>
@@ -265,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,9 +285,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452083D-17BE-4B7A-B18F-3830B46CA5AC}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647996F-3001-4425-997B-054E1B738737}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -658,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>18820</v>
+        <v>19270</v>
       </c>
       <c r="D2" s="3">
-        <v>-5.3E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -676,13 +681,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.31</v>
+        <v>5.19</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -693,10 +698,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>95200</v>
+        <v>97100</v>
       </c>
       <c r="D3" s="3">
-        <v>-3.5499999999999997E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -711,13 +716,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.83</v>
+        <v>6.69</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -728,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>422000</v>
+        <v>438000</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.52E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -746,13 +751,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.5</v>
+        <v>4.34</v>
       </c>
       <c r="J4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -763,10 +768,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.7999999999999996E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -781,13 +786,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.47</v>
+        <v>6.35</v>
       </c>
       <c r="J5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -798,10 +803,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>24950</v>
+        <v>26900</v>
       </c>
       <c r="D6" s="3">
-        <v>-2.92E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -816,13 +821,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>4.8099999999999996</v>
+        <v>4.46</v>
       </c>
       <c r="J6">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -833,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>23900</v>
+        <v>24950</v>
       </c>
       <c r="D7" s="3">
-        <v>-4.1999999999999997E-3</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -851,13 +856,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>5.0199999999999996</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="J7">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -868,10 +873,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10140</v>
+        <v>10240</v>
       </c>
       <c r="D8" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -886,13 +891,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -903,10 +908,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>68400</v>
+        <v>71400</v>
       </c>
       <c r="D9" s="3">
-        <v>1.9400000000000001E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -921,13 +926,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>4.3899999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="J9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -938,10 +943,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>202000</v>
+        <v>205500</v>
       </c>
       <c r="D10" s="3">
-        <v>-3.8100000000000002E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -956,13 +961,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.94</v>
+        <v>5.84</v>
       </c>
       <c r="J10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -973,10 +978,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>119600</v>
+        <v>121800</v>
       </c>
       <c r="D11" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -991,13 +996,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.69</v>
+        <v>5.58</v>
       </c>
       <c r="J11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1008,10 +1013,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>19150</v>
+        <v>20650</v>
       </c>
       <c r="D12" s="3">
-        <v>-1E-3</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1026,13 +1031,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.96</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1043,10 +1048,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>68400</v>
+        <v>75000</v>
       </c>
       <c r="D13" s="3">
-        <v>1.03E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1061,13 +1066,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>5.12</v>
+        <v>4.67</v>
       </c>
       <c r="J13">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1078,10 +1083,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>55600</v>
+        <v>57000</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.24E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1096,13 +1101,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.37</v>
+        <v>6.21</v>
       </c>
       <c r="J14">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1113,10 +1118,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83500</v>
+        <v>85700</v>
       </c>
       <c r="D15" s="3">
-        <v>-0.02</v>
+        <v>2.63E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1131,13 +1136,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.59</v>
+        <v>6.42</v>
       </c>
       <c r="J15">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1148,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>17250</v>
+        <v>17960</v>
       </c>
       <c r="D16" s="3">
-        <v>-2.3E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1166,13 +1171,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>6.17</v>
+        <v>5.93</v>
       </c>
       <c r="J16">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1183,10 +1188,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>48800</v>
+        <v>49150</v>
       </c>
       <c r="D17" s="3">
-        <v>1.04E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1201,13 +1206,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="J17">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1218,10 +1223,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20300</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
+        <v>20450</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1236,13 +1241,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.06</v>
+        <v>6.01</v>
       </c>
       <c r="J18">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1253,10 +1258,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>51200</v>
+        <v>52100</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.1599999999999999E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1271,13 +1276,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.91</v>
+        <v>3.84</v>
       </c>
       <c r="J19">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1288,10 +1293,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>13320</v>
+        <v>13750</v>
       </c>
       <c r="D20" s="3">
-        <v>7.6E-3</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1306,13 +1311,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.88</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J20">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1323,10 +1328,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>122900</v>
+        <v>124100</v>
       </c>
       <c r="D21" s="3">
-        <v>-2.07E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1341,13 +1346,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.3899999999999997</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J21">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1358,10 +1363,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>38250</v>
+        <v>38900</v>
       </c>
       <c r="D22" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1376,13 +1381,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="J22">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1393,10 +1398,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>59700</v>
+        <v>61300</v>
       </c>
       <c r="D23" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1411,13 +1416,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.62</v>
+        <v>3.52</v>
       </c>
       <c r="J23">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1428,10 +1433,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>46050</v>
+        <v>46450</v>
       </c>
       <c r="D24" s="3">
-        <v>-7.4999999999999997E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1446,13 +1451,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.86</v>
+        <v>5.81</v>
       </c>
       <c r="J24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1463,10 +1468,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>79300</v>
+        <v>81800</v>
       </c>
       <c r="D25" s="3">
-        <v>-8.8000000000000005E-3</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1481,13 +1486,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.54</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J25">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1498,31 +1503,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>11880</v>
+        <v>111500</v>
       </c>
       <c r="D26" s="3">
-        <v>7.6E-3</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="E26">
-        <v>6.96</v>
+        <v>8.86</v>
       </c>
       <c r="F26">
-        <v>6.28</v>
+        <v>11.69</v>
       </c>
       <c r="G26">
-        <v>7.18</v>
+        <v>8.51</v>
       </c>
       <c r="H26" s="4">
-        <v>33008.75</v>
+        <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>5.47</v>
+        <v>2.85</v>
       </c>
       <c r="J26">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K26">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1533,25 +1538,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>11770</v>
+        <v>12110</v>
       </c>
       <c r="D27" s="3">
-        <v>-8.0000000000000004E-4</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E27">
-        <v>3.6</v>
+        <v>6.96</v>
       </c>
       <c r="F27">
-        <v>10.34</v>
+        <v>6.28</v>
       </c>
       <c r="G27">
-        <v>5.91</v>
+        <v>7.18</v>
       </c>
       <c r="H27" s="4">
-        <v>35883.14</v>
+        <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.25</v>
+        <v>5.37</v>
       </c>
       <c r="J27">
         <v>95</v>
@@ -1568,31 +1573,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>21100</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
+        <v>12090</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.6E-2</v>
       </c>
       <c r="E28">
-        <v>12.8</v>
+        <v>3.6</v>
       </c>
       <c r="F28">
-        <v>11.61</v>
+        <v>10.34</v>
       </c>
       <c r="G28">
-        <v>12.93</v>
+        <v>5.91</v>
       </c>
       <c r="H28" s="4">
-        <v>29151.87</v>
+        <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>4.72</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J28">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1603,31 +1608,66 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21050</v>
+        <v>21550</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.41E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="E29">
+        <v>12.8</v>
+      </c>
+      <c r="F29">
+        <v>11.61</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="H29" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I29">
+        <v>4.62</v>
+      </c>
+      <c r="J29">
+        <v>96</v>
+      </c>
+      <c r="K29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2">
+        <v>22100</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="E30">
         <v>9.39</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>7.27</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>9.73</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I29">
-        <v>5.7</v>
-      </c>
-      <c r="J29">
-        <v>98</v>
-      </c>
-      <c r="K29">
-        <v>98</v>
+      <c r="I30">
+        <v>5.43</v>
+      </c>
+      <c r="J30">
+        <v>99</v>
+      </c>
+      <c r="K30">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B1E9D2-6CCE-4938-8AE3-99497095166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4CA909-0A9A-472E-BB29-4A4DD57E41FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C7498BA-988A-48E9-84BE-AAC5019CDF2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{27706E63-A774-4D8A-BA4D-CF77B3B223CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>종목코드</t>
   </si>
@@ -168,18 +168,36 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
@@ -198,12 +216,6 @@
     <t>하나금융지주</t>
   </si>
   <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
     <t>138930</t>
   </si>
   <si>
@@ -214,6 +226,12 @@
   </si>
   <si>
     <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -271,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +303,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,19 +621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647996F-3001-4425-997B-054E1B738737}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECC3047-917A-4314-8F2A-5C2A182A95A1}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -663,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>19270</v>
+        <v>19370</v>
       </c>
       <c r="D2" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -681,7 +702,7 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.19</v>
+        <v>5.16</v>
       </c>
       <c r="J2">
         <v>67</v>
@@ -698,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>97100</v>
+        <v>101100</v>
       </c>
       <c r="D3" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -716,13 +737,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.69</v>
+        <v>6.43</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -733,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>438000</v>
+        <v>440500</v>
       </c>
       <c r="D4" s="3">
-        <v>2.9399999999999999E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -751,13 +772,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.34</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,7 +792,7 @@
         <v>31500</v>
       </c>
       <c r="D5" s="3">
-        <v>9.5999999999999992E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -803,10 +824,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>26900</v>
+        <v>30100</v>
       </c>
       <c r="D6" s="3">
-        <v>7.5999999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -821,13 +842,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>4.46</v>
+        <v>3.99</v>
       </c>
       <c r="J6">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -838,10 +859,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24950</v>
+        <v>25300</v>
       </c>
       <c r="D7" s="3">
-        <v>1.6299999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -856,13 +877,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.8099999999999996</v>
+        <v>4.74</v>
       </c>
       <c r="J7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -873,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10240</v>
+        <v>10590</v>
       </c>
       <c r="D8" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -891,7 +912,7 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5.03</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J8">
         <v>99</v>
@@ -908,10 +929,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>71400</v>
+        <v>72500</v>
       </c>
       <c r="D9" s="3">
-        <v>4.6899999999999997E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -926,13 +947,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>4.2</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -943,10 +964,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>205500</v>
+        <v>217000</v>
       </c>
       <c r="D10" s="3">
-        <v>1.9900000000000001E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -961,13 +982,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.84</v>
+        <v>5.53</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -978,10 +999,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>121800</v>
+        <v>122200</v>
       </c>
       <c r="D11" s="3">
-        <v>2.2700000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -996,7 +1017,7 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="J11">
         <v>97</v>
@@ -1013,10 +1034,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20650</v>
+        <v>20700</v>
       </c>
       <c r="D12" s="3">
-        <v>6.3299999999999995E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1031,13 +1052,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.5999999999999996</v>
+        <v>4.59</v>
       </c>
       <c r="J12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1048,10 +1069,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>75000</v>
+        <v>77200</v>
       </c>
       <c r="D13" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1066,7 +1087,7 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.67</v>
+        <v>4.53</v>
       </c>
       <c r="J13">
         <v>97</v>
@@ -1083,10 +1104,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="D14" s="3">
-        <v>1.6E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1101,7 +1122,7 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.21</v>
+        <v>6.2</v>
       </c>
       <c r="J14">
         <v>78</v>
@@ -1118,10 +1139,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>85700</v>
+        <v>85300</v>
       </c>
       <c r="D15" s="3">
-        <v>2.63E-2</v>
+        <v>-1.61E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1136,7 +1157,7 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.42</v>
+        <v>6.45</v>
       </c>
       <c r="J15">
         <v>91</v>
@@ -1153,10 +1174,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>17960</v>
+        <v>18790</v>
       </c>
       <c r="D16" s="3">
-        <v>3.1E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1171,13 +1192,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="J16">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1188,10 +1209,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49150</v>
+        <v>49350</v>
       </c>
       <c r="D17" s="3">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1206,13 +1227,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.7</v>
+        <v>5.67</v>
       </c>
       <c r="J17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1223,10 +1244,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20450</v>
+        <v>20300</v>
       </c>
       <c r="D18" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1241,13 +1262,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1258,10 +1279,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>52100</v>
+        <v>52400</v>
       </c>
       <c r="D19" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1276,13 +1297,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="J19">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1293,10 +1314,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>13750</v>
+        <v>13790</v>
       </c>
       <c r="D20" s="3">
-        <v>2.3099999999999999E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1311,13 +1332,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.7300000000000004</v>
+        <v>4.71</v>
       </c>
       <c r="J20">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1328,31 +1349,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>124100</v>
+        <v>129000</v>
       </c>
       <c r="D21" s="3">
-        <v>3.2000000000000002E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>5.76</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>8.44</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>5.33</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>158106.71</v>
       </c>
       <c r="I21">
-        <v>4.3499999999999996</v>
+        <v>3.49</v>
       </c>
       <c r="J21">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1363,31 +1384,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>38900</v>
+        <v>125300</v>
       </c>
       <c r="D22" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>12.66</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>11.17</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>11.14</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>81115.86</v>
       </c>
       <c r="I22">
-        <v>3.74</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J22">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="K22">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1398,31 +1419,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>61300</v>
+        <v>18910</v>
       </c>
       <c r="D23" s="3">
-        <v>0.02</v>
+        <v>3.56E-2</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>12.08</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>7.85</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>8.39</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>18381.900000000001</v>
       </c>
       <c r="I23">
-        <v>3.52</v>
+        <v>6.19</v>
       </c>
       <c r="J23">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1433,31 +1454,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>46450</v>
+        <v>41900</v>
       </c>
       <c r="D24" s="3">
-        <v>8.6999999999999994E-3</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>11.21</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>13.43</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>6.4</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>121076.78</v>
       </c>
       <c r="I24">
-        <v>5.81</v>
+        <v>3.47</v>
       </c>
       <c r="J24">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1468,25 +1489,25 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>81800</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.5100000000000001E-2</v>
+        <v>236500</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>15.98</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>16.78</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>12.25</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>212733.48</v>
       </c>
       <c r="I25">
-        <v>4.4000000000000004</v>
+        <v>3.17</v>
       </c>
       <c r="J25">
         <v>98</v>
@@ -1503,31 +1524,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>111500</v>
+        <v>60600</v>
       </c>
       <c r="D26" s="3">
-        <v>3.6200000000000003E-2</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>8.11</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>10.55</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>8.66</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>113903.42</v>
       </c>
       <c r="I26">
-        <v>2.85</v>
+        <v>3.56</v>
       </c>
       <c r="J26">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1538,31 +1559,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12110</v>
+        <v>46750</v>
       </c>
       <c r="D27" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>4.12</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>5.83</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>11.01</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I27">
-        <v>5.37</v>
+        <v>5.78</v>
       </c>
       <c r="J27">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1573,31 +1594,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>12090</v>
+        <v>83200</v>
       </c>
       <c r="D28" s="3">
-        <v>1.6E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>9.11</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>10.47</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>9.4</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>153124.29</v>
       </c>
       <c r="I28">
-        <v>4.1399999999999997</v>
+        <v>4.33</v>
       </c>
       <c r="J28">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1608,31 +1629,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21550</v>
+        <v>12710</v>
       </c>
       <c r="D29" s="3">
-        <v>2.6200000000000001E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>6.96</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>6.28</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>7.18</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>33008.75</v>
       </c>
       <c r="I29">
-        <v>4.62</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="J29">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K29">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1643,31 +1664,136 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>22100</v>
+        <v>12580</v>
       </c>
       <c r="D30" s="3">
-        <v>3.5099999999999999E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="E30">
+        <v>3.6</v>
+      </c>
+      <c r="F30">
+        <v>10.34</v>
+      </c>
+      <c r="G30">
+        <v>5.91</v>
+      </c>
+      <c r="H30" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I30">
+        <v>3.97</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>40250</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>10.79</v>
+      </c>
+      <c r="F31">
+        <v>11.5</v>
+      </c>
+      <c r="G31">
+        <v>8.93</v>
+      </c>
+      <c r="H31" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I31">
+        <v>4.97</v>
+      </c>
+      <c r="J31">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>21100</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="E32">
+        <v>12.8</v>
+      </c>
+      <c r="F32">
+        <v>11.61</v>
+      </c>
+      <c r="G32">
+        <v>12.93</v>
+      </c>
+      <c r="H32" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I32">
+        <v>4.72</v>
+      </c>
+      <c r="J32">
+        <v>93</v>
+      </c>
+      <c r="K32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>22500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E33">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H33" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
-        <v>5.43</v>
-      </c>
-      <c r="J30">
-        <v>99</v>
-      </c>
-      <c r="K30">
-        <v>99</v>
+      <c r="I33">
+        <v>5.33</v>
+      </c>
+      <c r="J33">
+        <v>98</v>
+      </c>
+      <c r="K33">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4CA909-0A9A-472E-BB29-4A4DD57E41FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{143F7EF5-E9C6-498C-85B4-DB6705BB8B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{27706E63-A774-4D8A-BA4D-CF77B3B223CF}"/>
+    <workbookView xWindow="10620" yWindow="2472" windowWidth="9984" windowHeight="9420" xr2:uid="{26445E57-8B3A-4EAC-A072-65F219F34304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>종목코드</t>
   </si>
@@ -168,36 +168,18 @@
     <t>LG유플러스</t>
   </si>
   <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
     <t>055550</t>
   </si>
   <si>
@@ -226,12 +208,6 @@
   </si>
   <si>
     <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -621,19 +597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECC3047-917A-4314-8F2A-5C2A182A95A1}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF287629-C6E7-4B30-A230-96545D21517C}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -684,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>19370</v>
+        <v>18780</v>
       </c>
       <c r="D2" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>-1.9300000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -702,13 +676,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -719,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>101100</v>
+        <v>97700</v>
       </c>
       <c r="D3" s="3">
-        <v>4.3299999999999998E-2</v>
+        <v>-1.41E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -737,13 +711,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.43</v>
+        <v>6.65</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -754,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>440500</v>
+        <v>435000</v>
       </c>
       <c r="D4" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>-1.47E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -772,13 +746,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.3099999999999996</v>
+        <v>4.37</v>
       </c>
       <c r="J4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -789,10 +763,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31500</v>
+        <v>31000</v>
       </c>
       <c r="D5" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -807,13 +781,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -824,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>30100</v>
+        <v>31650</v>
       </c>
       <c r="D6" s="3">
-        <v>0.11899999999999999</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -842,13 +816,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.99</v>
+        <v>3.79</v>
       </c>
       <c r="J6">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -859,10 +833,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="D7" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -877,13 +851,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.74</v>
+        <v>4.92</v>
       </c>
       <c r="J7">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -894,10 +868,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10590</v>
+        <v>10290</v>
       </c>
       <c r="D8" s="3">
-        <v>2.6200000000000001E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -912,13 +886,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.8600000000000003</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -929,10 +903,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>72500</v>
+        <v>74100</v>
       </c>
       <c r="D9" s="3">
-        <v>8.3000000000000001E-3</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -947,13 +921,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>4.1399999999999997</v>
+        <v>4.05</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -964,10 +938,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>217000</v>
+        <v>205000</v>
       </c>
       <c r="D10" s="3">
-        <v>5.3400000000000003E-2</v>
+        <v>-2.1499999999999998E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -982,13 +956,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.53</v>
+        <v>5.85</v>
       </c>
       <c r="J10">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -999,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>122200</v>
+        <v>122300</v>
       </c>
       <c r="D11" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>-1.8499999999999999E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -1020,10 +994,10 @@
         <v>5.56</v>
       </c>
       <c r="J11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1034,10 +1008,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20700</v>
+        <v>19920</v>
       </c>
       <c r="D12" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>-2.35E-2</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1052,13 +1026,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.59</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1069,10 +1043,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>77200</v>
+        <v>74700</v>
       </c>
       <c r="D13" s="3">
-        <v>1.8499999999999999E-2</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1087,13 +1061,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.53</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J13">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1104,10 +1078,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57100</v>
+        <v>56200</v>
       </c>
       <c r="D14" s="3">
-        <v>5.3E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1122,13 +1096,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J14">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1139,10 +1113,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>85300</v>
+        <v>84100</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.61E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1157,13 +1131,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.45</v>
+        <v>6.54</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1174,10 +1148,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18790</v>
+        <v>18300</v>
       </c>
       <c r="D16" s="3">
-        <v>4.0399999999999998E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1192,13 +1166,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1209,10 +1183,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49350</v>
+        <v>49500</v>
       </c>
       <c r="D17" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1227,13 +1201,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="J17">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1244,10 +1218,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="D18" s="3">
-        <v>-7.3000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1262,13 +1236,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="J18">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1279,10 +1253,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="D19" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1297,13 +1271,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="J19">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K19">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1314,10 +1288,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>13790</v>
+        <v>14340</v>
       </c>
       <c r="D20" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1332,13 +1306,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.71</v>
+        <v>4.53</v>
       </c>
       <c r="J20">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1349,31 +1323,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>129000</v>
+        <v>123300</v>
       </c>
       <c r="D21" s="3">
-        <v>3.8999999999999998E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E21">
-        <v>5.76</v>
+        <v>12.66</v>
       </c>
       <c r="F21">
-        <v>8.44</v>
+        <v>11.17</v>
       </c>
       <c r="G21">
-        <v>5.33</v>
+        <v>11.14</v>
       </c>
       <c r="H21" s="4">
-        <v>158106.71</v>
+        <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>3.49</v>
+        <v>4.38</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1384,31 +1358,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>125300</v>
+        <v>39850</v>
       </c>
       <c r="D22" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>-2.5700000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>12.66</v>
+        <v>11.21</v>
       </c>
       <c r="F22">
-        <v>11.17</v>
+        <v>13.43</v>
       </c>
       <c r="G22">
-        <v>11.14</v>
+        <v>6.4</v>
       </c>
       <c r="H22" s="4">
-        <v>81115.86</v>
+        <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>4.3099999999999996</v>
+        <v>3.65</v>
       </c>
       <c r="J22">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1419,31 +1393,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>18910</v>
+        <v>60500</v>
       </c>
       <c r="D23" s="3">
-        <v>3.56E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E23">
-        <v>12.08</v>
+        <v>8.11</v>
       </c>
       <c r="F23">
-        <v>7.85</v>
+        <v>10.55</v>
       </c>
       <c r="G23">
-        <v>8.39</v>
+        <v>8.66</v>
       </c>
       <c r="H23" s="4">
-        <v>18381.900000000001</v>
+        <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>6.19</v>
+        <v>3.57</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="K23">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1454,31 +1428,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>41900</v>
+        <v>45950</v>
       </c>
       <c r="D24" s="3">
-        <v>6.2100000000000002E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="E24">
-        <v>11.21</v>
+        <v>4.12</v>
       </c>
       <c r="F24">
-        <v>13.43</v>
+        <v>5.83</v>
       </c>
       <c r="G24">
-        <v>6.4</v>
+        <v>11.01</v>
       </c>
       <c r="H24" s="4">
-        <v>121076.78</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>3.47</v>
+        <v>5.88</v>
       </c>
       <c r="J24">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1489,31 +1463,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>236500</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
+        <v>84200</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E25">
-        <v>15.98</v>
+        <v>9.11</v>
       </c>
       <c r="F25">
-        <v>16.78</v>
+        <v>10.47</v>
       </c>
       <c r="G25">
-        <v>12.25</v>
+        <v>9.4</v>
       </c>
       <c r="H25" s="4">
-        <v>212733.48</v>
+        <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>3.17</v>
+        <v>4.28</v>
       </c>
       <c r="J25">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1524,31 +1498,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>60600</v>
+        <v>12480</v>
       </c>
       <c r="D26" s="3">
-        <v>-6.6E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="E26">
-        <v>8.11</v>
+        <v>6.96</v>
       </c>
       <c r="F26">
-        <v>10.55</v>
+        <v>6.28</v>
       </c>
       <c r="G26">
-        <v>8.66</v>
+        <v>7.18</v>
       </c>
       <c r="H26" s="4">
-        <v>113903.42</v>
+        <v>33008.75</v>
       </c>
       <c r="I26">
-        <v>3.56</v>
+        <v>5.21</v>
       </c>
       <c r="J26">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K26">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1559,31 +1533,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>46750</v>
+        <v>12550</v>
       </c>
       <c r="D27" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="F27">
-        <v>5.83</v>
+        <v>10.34</v>
       </c>
       <c r="G27">
-        <v>11.01</v>
+        <v>5.91</v>
       </c>
       <c r="H27" s="4">
-        <v>147806.45000000001</v>
+        <v>35883.14</v>
       </c>
       <c r="I27">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="J27">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1594,31 +1568,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>83200</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.09E-2</v>
+        <v>20600</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>9.11</v>
+        <v>12.8</v>
       </c>
       <c r="F28">
-        <v>10.47</v>
+        <v>11.61</v>
       </c>
       <c r="G28">
-        <v>9.4</v>
+        <v>12.93</v>
       </c>
       <c r="H28" s="4">
-        <v>153124.29</v>
+        <v>29151.87</v>
       </c>
       <c r="I28">
-        <v>4.33</v>
+        <v>4.83</v>
       </c>
       <c r="J28">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1629,170 +1603,30 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>12710</v>
+        <v>22500</v>
       </c>
       <c r="D29" s="3">
-        <v>4.6100000000000002E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E29">
-        <v>6.96</v>
+        <v>9.39</v>
       </c>
       <c r="F29">
-        <v>6.28</v>
+        <v>7.27</v>
       </c>
       <c r="G29">
-        <v>7.18</v>
+        <v>9.73</v>
       </c>
       <c r="H29" s="4">
-        <v>33008.75</v>
+        <v>45501.38</v>
       </c>
       <c r="I29">
-        <v>5.1100000000000003</v>
+        <v>5.33</v>
       </c>
       <c r="J29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2">
-        <v>12580</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="E30">
-        <v>3.6</v>
-      </c>
-      <c r="F30">
-        <v>10.34</v>
-      </c>
-      <c r="G30">
-        <v>5.91</v>
-      </c>
-      <c r="H30" s="4">
-        <v>35883.14</v>
-      </c>
-      <c r="I30">
-        <v>3.97</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
-        <v>40250</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="E31">
-        <v>10.79</v>
-      </c>
-      <c r="F31">
-        <v>11.5</v>
-      </c>
-      <c r="G31">
-        <v>8.93</v>
-      </c>
-      <c r="H31" s="4">
-        <v>90358.17</v>
-      </c>
-      <c r="I31">
-        <v>4.97</v>
-      </c>
-      <c r="J31">
-        <v>41</v>
-      </c>
-      <c r="K31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2">
-        <v>21100</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-1.17E-2</v>
-      </c>
-      <c r="E32">
-        <v>12.8</v>
-      </c>
-      <c r="F32">
-        <v>11.61</v>
-      </c>
-      <c r="G32">
-        <v>12.93</v>
-      </c>
-      <c r="H32" s="4">
-        <v>29151.87</v>
-      </c>
-      <c r="I32">
-        <v>4.72</v>
-      </c>
-      <c r="J32">
-        <v>93</v>
-      </c>
-      <c r="K32">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2">
-        <v>22500</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.35E-2</v>
-      </c>
-      <c r="E33">
-        <v>9.39</v>
-      </c>
-      <c r="F33">
-        <v>7.27</v>
-      </c>
-      <c r="G33">
-        <v>9.73</v>
-      </c>
-      <c r="H33" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I33">
-        <v>5.33</v>
-      </c>
-      <c r="J33">
-        <v>98</v>
-      </c>
-      <c r="K33">
         <v>98</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{143F7EF5-E9C6-498C-85B4-DB6705BB8B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4F2101-13E0-4E08-832E-55C1F2BF0C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2472" windowWidth="9984" windowHeight="9420" xr2:uid="{26445E57-8B3A-4EAC-A072-65F219F34304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{89117B6A-A3B4-4692-A6FE-58B322B767C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>종목코드</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
   </si>
   <si>
     <t>138930</t>
@@ -597,8 +603,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF287629-C6E7-4B30-A230-96545D21517C}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8855E6-A53E-4137-B761-FB2B16DEAB7E}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>18780</v>
+        <v>19200</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.9300000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -676,13 +682,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.32</v>
+        <v>5.21</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -693,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>97700</v>
+        <v>96900</v>
       </c>
       <c r="D3" s="3">
-        <v>-1.41E-2</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -711,13 +717,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.65</v>
+        <v>6.71</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -728,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>435000</v>
+        <v>434000</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.47E-2</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -746,13 +752,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -763,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31000</v>
+        <v>31150</v>
       </c>
       <c r="D5" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -781,13 +787,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.45</v>
+        <v>6.42</v>
       </c>
       <c r="J5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -798,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31650</v>
+        <v>32900</v>
       </c>
       <c r="D6" s="3">
-        <v>2.5899999999999999E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -816,13 +822,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.79</v>
+        <v>3.65</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -835,8 +841,8 @@
       <c r="C7" s="2">
         <v>24400</v>
       </c>
-      <c r="D7" s="3">
-        <v>-4.1000000000000003E-3</v>
+      <c r="D7" s="5">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -868,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10290</v>
+        <v>10240</v>
       </c>
       <c r="D8" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -886,7 +892,7 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="J8">
         <v>94</v>
@@ -903,10 +909,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>74100</v>
+        <v>76300</v>
       </c>
       <c r="D9" s="3">
-        <v>2.7699999999999999E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -921,13 +927,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>4.05</v>
+        <v>3.93</v>
       </c>
       <c r="J9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -938,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>205000</v>
+        <v>203500</v>
       </c>
       <c r="D10" s="3">
-        <v>-2.1499999999999998E-2</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -956,13 +962,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -973,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>122300</v>
+        <v>123300</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.8499999999999999E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -991,13 +997,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.56</v>
+        <v>5.52</v>
       </c>
       <c r="J11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1008,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>19920</v>
+        <v>19990</v>
       </c>
       <c r="D12" s="3">
-        <v>-2.35E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1026,13 +1032,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.7699999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="J12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1043,10 +1049,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>74700</v>
+        <v>73600</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.32E-2</v>
+        <v>-1.47E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1061,13 +1067,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.6900000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="J13">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1078,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56200</v>
+        <v>56700</v>
       </c>
       <c r="D14" s="3">
-        <v>-8.8000000000000005E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1096,13 +1102,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.3</v>
+        <v>6.24</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1113,10 +1119,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>84100</v>
+        <v>86000</v>
       </c>
       <c r="D15" s="3">
-        <v>-2.1000000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1131,13 +1137,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.54</v>
+        <v>6.4</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1148,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18300</v>
+        <v>18260</v>
       </c>
       <c r="D16" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1166,7 +1172,7 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="J16">
         <v>94</v>
@@ -1183,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49500</v>
+        <v>49400</v>
       </c>
       <c r="D17" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1201,13 +1207,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="J17">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1218,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20200</v>
+        <v>20050</v>
       </c>
       <c r="D18" s="3">
-        <v>7.4999999999999997E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1236,13 +1242,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.09</v>
+        <v>6.13</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1253,10 +1259,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>54400</v>
+        <v>55700</v>
       </c>
       <c r="D19" s="3">
-        <v>3.8199999999999998E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1271,13 +1277,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.68</v>
+        <v>3.59</v>
       </c>
       <c r="J19">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1288,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14340</v>
+        <v>14300</v>
       </c>
       <c r="D20" s="3">
-        <v>2.8E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1306,7 +1312,7 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="J20">
         <v>72</v>
@@ -1323,10 +1329,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>123300</v>
+        <v>127700</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.2E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1341,13 +1347,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.38</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J21">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1358,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>39850</v>
+        <v>41650</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.5700000000000001E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1376,13 +1382,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="J22">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1393,10 +1399,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>60500</v>
+        <v>61400</v>
       </c>
       <c r="D23" s="3">
-        <v>1.34E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1411,13 +1417,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
       <c r="J23">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1428,10 +1434,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>45950</v>
+        <v>46650</v>
       </c>
       <c r="D24" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>1.52E-2</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1446,13 +1452,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="J24">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1463,10 +1469,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>84200</v>
+        <v>86300</v>
       </c>
       <c r="D25" s="3">
-        <v>8.3999999999999995E-3</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1481,13 +1487,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="J25">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1498,31 +1504,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>12480</v>
+        <v>110900</v>
       </c>
       <c r="D26" s="3">
-        <v>6.4999999999999997E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>6.96</v>
+        <v>8.86</v>
       </c>
       <c r="F26">
-        <v>6.28</v>
+        <v>11.69</v>
       </c>
       <c r="G26">
-        <v>7.18</v>
+        <v>8.51</v>
       </c>
       <c r="H26" s="4">
-        <v>33008.75</v>
+        <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>5.21</v>
+        <v>2.86</v>
       </c>
       <c r="J26">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1533,31 +1539,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12550</v>
+        <v>12450</v>
       </c>
       <c r="D27" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="E27">
-        <v>3.6</v>
+        <v>6.96</v>
       </c>
       <c r="F27">
-        <v>10.34</v>
+        <v>6.28</v>
       </c>
       <c r="G27">
-        <v>5.91</v>
+        <v>7.18</v>
       </c>
       <c r="H27" s="4">
-        <v>35883.14</v>
+        <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>3.98</v>
+        <v>5.22</v>
       </c>
       <c r="J27">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1568,31 +1574,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>20600</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
+        <v>12570</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>12.8</v>
+        <v>3.6</v>
       </c>
       <c r="F28">
-        <v>11.61</v>
+        <v>10.34</v>
       </c>
       <c r="G28">
-        <v>12.93</v>
+        <v>5.91</v>
       </c>
       <c r="H28" s="4">
-        <v>29151.87</v>
+        <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>4.83</v>
+        <v>3.98</v>
       </c>
       <c r="J28">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1603,31 +1609,66 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>22500</v>
+        <v>20550</v>
       </c>
       <c r="D29" s="3">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E29">
+        <v>12.8</v>
+      </c>
+      <c r="F29">
+        <v>11.61</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="H29" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I29">
+        <v>4.84</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2">
+        <v>22450</v>
+      </c>
+      <c r="D30" s="3">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>9.39</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>7.27</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>9.73</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I29">
-        <v>5.33</v>
-      </c>
-      <c r="J29">
-        <v>98</v>
-      </c>
-      <c r="K29">
-        <v>98</v>
+      <c r="I30">
+        <v>5.35</v>
+      </c>
+      <c r="J30">
+        <v>97</v>
+      </c>
+      <c r="K30">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4F2101-13E0-4E08-832E-55C1F2BF0C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A12B97F-06B6-4CE4-B482-2A1484DCD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{89117B6A-A3B4-4692-A6FE-58B322B767C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7412F00F-D69C-4C61-8B86-EF72443AE1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8855E6-A53E-4137-B761-FB2B16DEAB7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB41750-5AD5-4703-B53C-8866B9A90436}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -664,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>19200</v>
+        <v>19780</v>
       </c>
       <c r="D2" s="3">
-        <v>2.24E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -682,13 +684,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>5.21</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>96900</v>
+        <v>98700</v>
       </c>
       <c r="D3" s="3">
-        <v>-8.2000000000000007E-3</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -717,13 +719,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.71</v>
+        <v>6.59</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>434000</v>
+        <v>439500</v>
       </c>
       <c r="D4" s="3">
-        <v>-2.3E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -752,13 +754,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="J4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -769,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31150</v>
+        <v>32000</v>
       </c>
       <c r="D5" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -787,13 +789,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.42</v>
+        <v>6.25</v>
       </c>
       <c r="J5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>32900</v>
+        <v>30750</v>
       </c>
       <c r="D6" s="3">
-        <v>3.95E-2</v>
+        <v>-6.5299999999999997E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -822,13 +824,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J6">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24400</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
+        <v>25150</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -857,13 +859,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.92</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,7 +876,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10240</v>
+        <v>10190</v>
       </c>
       <c r="D8" s="3">
         <v>-4.8999999999999998E-3</v>
@@ -892,13 +894,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5.03</v>
+        <v>5.05</v>
       </c>
       <c r="J8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76300</v>
+        <v>78000</v>
       </c>
       <c r="D9" s="3">
-        <v>2.9700000000000001E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -927,13 +929,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.93</v>
+        <v>3.85</v>
       </c>
       <c r="J9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>203500</v>
+        <v>210000</v>
       </c>
       <c r="D10" s="3">
-        <v>-7.3000000000000001E-3</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -962,13 +964,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.9</v>
+        <v>5.71</v>
       </c>
       <c r="J10">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>123300</v>
+        <v>125800</v>
       </c>
       <c r="D11" s="3">
-        <v>8.2000000000000007E-3</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -997,13 +999,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.52</v>
+        <v>5.41</v>
       </c>
       <c r="J11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>19990</v>
+        <v>20100</v>
       </c>
       <c r="D12" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1032,13 +1034,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.75</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>73600</v>
+        <v>73400</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.47E-2</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1067,13 +1069,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.76</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J13">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,10 +1086,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56700</v>
+        <v>57500</v>
       </c>
       <c r="D14" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1102,13 +1104,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.24</v>
+        <v>6.16</v>
       </c>
       <c r="J14">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>86000</v>
+        <v>87300</v>
       </c>
       <c r="D15" s="3">
-        <v>2.2599999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1137,13 +1139,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J15">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18260</v>
+        <v>18470</v>
       </c>
       <c r="D16" s="3">
-        <v>-2.2000000000000001E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1172,13 +1174,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.83</v>
+        <v>5.77</v>
       </c>
       <c r="J16">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,10 +1191,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49400</v>
+        <v>50500</v>
       </c>
       <c r="D17" s="3">
-        <v>-2E-3</v>
+        <v>2.23E-2</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1207,13 +1209,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.67</v>
+        <v>5.54</v>
       </c>
       <c r="J17">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,10 +1226,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20050</v>
+        <v>20200</v>
       </c>
       <c r="D18" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1242,13 +1244,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.13</v>
+        <v>6.09</v>
       </c>
       <c r="J18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55700</v>
+        <v>57300</v>
       </c>
       <c r="D19" s="3">
-        <v>2.3900000000000001E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1277,13 +1279,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="J19">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,10 +1296,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14300</v>
+        <v>14380</v>
       </c>
       <c r="D20" s="3">
-        <v>-2.8E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1312,13 +1314,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.55</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J20">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,10 +1331,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>127700</v>
+        <v>127200</v>
       </c>
       <c r="D21" s="3">
-        <v>3.5700000000000003E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1347,13 +1349,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.2300000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="J21">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41650</v>
+        <v>41500</v>
       </c>
       <c r="D22" s="3">
-        <v>4.5199999999999997E-2</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1382,7 +1384,7 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="J22">
         <v>45</v>
@@ -1399,10 +1401,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>61400</v>
+        <v>62200</v>
       </c>
       <c r="D23" s="3">
-        <v>1.49E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1417,13 +1419,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
       <c r="J23">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K23">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,10 +1436,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>46650</v>
+        <v>48750</v>
       </c>
       <c r="D24" s="3">
-        <v>1.52E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1452,13 +1454,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.79</v>
+        <v>5.54</v>
       </c>
       <c r="J24">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>86300</v>
+        <v>88900</v>
       </c>
       <c r="D25" s="3">
-        <v>2.4899999999999999E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1487,13 +1489,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.17</v>
+        <v>4.05</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,10 +1506,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>110900</v>
+        <v>110800</v>
       </c>
       <c r="D26" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1539,10 +1541,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12450</v>
+        <v>12820</v>
       </c>
       <c r="D27" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1557,13 +1559,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="J27">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,10 +1576,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>12570</v>
+        <v>13000</v>
       </c>
       <c r="D28" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1592,13 +1594,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="J28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>20550</v>
+        <v>20650</v>
       </c>
       <c r="D29" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1627,13 +1629,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.84</v>
+        <v>4.82</v>
       </c>
       <c r="J29">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,8 +1648,8 @@
       <c r="C30" s="2">
         <v>22450</v>
       </c>
-      <c r="D30" s="3">
-        <v>-2.2000000000000001E-3</v>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1665,10 +1667,10 @@
         <v>5.35</v>
       </c>
       <c r="J30">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A12B97F-06B6-4CE4-B482-2A1484DCD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5CE94-5293-43B1-8367-0768007B6A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7412F00F-D69C-4C61-8B86-EF72443AE1D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2B5B7DC1-88B2-484E-8BDE-BED18A972708}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,12 +603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB41750-5AD5-4703-B53C-8866B9A90436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C95890F-87EF-43E7-AD1D-6FFAEB089DEE}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5CE94-5293-43B1-8367-0768007B6A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ACA1E09-6B11-4ECC-B1CD-46CF9736E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2B5B7DC1-88B2-484E-8BDE-BED18A972708}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C941C190-9220-495B-9F78-BCC0F1B70618}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="333">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,6 +54,24 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
@@ -66,16 +84,40 @@
     <t>기아</t>
   </si>
   <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
     <t>000810</t>
   </si>
   <si>
     <t>삼성화재</t>
   </si>
   <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>000990</t>
+  </si>
+  <si>
+    <t>DB하이텍</t>
+  </si>
+  <si>
+    <t>001040</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>001060</t>
+  </si>
+  <si>
+    <t>JW중외제약</t>
   </si>
   <si>
     <t>001430</t>
@@ -84,22 +126,124 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>002710</t>
+  </si>
+  <si>
+    <t>TCC스틸</t>
+  </si>
+  <si>
+    <t>002790</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽홀딩스</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>003030</t>
+  </si>
+  <si>
+    <t>세아제강지주</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>대웅</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>005180</t>
+  </si>
+  <si>
+    <t>빙그레</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>005290</t>
+  </si>
+  <si>
+    <t>동진쎄미켐</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
   </si>
   <si>
     <t>005380</t>
@@ -108,18 +252,186 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
     <t>005830</t>
   </si>
   <si>
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006040</t>
+  </si>
+  <si>
+    <t>동원산업</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>006360</t>
+  </si>
+  <si>
+    <t>GS건설</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>GS리테일</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>오뚜기</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>009450</t>
+  </si>
+  <si>
+    <t>경동나비엔</t>
+  </si>
+  <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>012630</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -138,12 +450,66 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>017960</t>
+  </si>
+  <si>
+    <t>한국카본</t>
+  </si>
+  <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>018670</t>
+  </si>
+  <si>
+    <t>SK가스</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>포스코DX</t>
+  </si>
+  <si>
     <t>024110</t>
   </si>
   <si>
     <t>기업은행</t>
   </si>
   <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>삼성E&amp;A</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
     <t>029780</t>
   </si>
   <si>
@@ -156,54 +522,300 @@
     <t>제일기획</t>
   </si>
   <si>
+    <t>030190</t>
+  </si>
+  <si>
+    <t>NICE평가정보</t>
+  </si>
+  <si>
     <t>030200</t>
   </si>
   <si>
     <t>KT</t>
   </si>
   <si>
+    <t>031980</t>
+  </si>
+  <si>
+    <t>피에스케이홀딩스</t>
+  </si>
+  <si>
     <t>032640</t>
   </si>
   <si>
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>033100</t>
+  </si>
+  <si>
+    <t>제룡전기</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>035900</t>
+  </si>
+  <si>
+    <t>JYP Ent.</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>036930</t>
+  </si>
+  <si>
+    <t>주성엔지니어링</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>HD현대인프라코어</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
+  </si>
+  <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
     <t>신한지주</t>
   </si>
   <si>
+    <t>058470</t>
+  </si>
+  <si>
+    <t>리노공업</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>064760</t>
+  </si>
+  <si>
+    <t>티씨케이</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>067160</t>
+  </si>
+  <si>
+    <t>SOOP</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>068760</t>
+  </si>
+  <si>
+    <t>셀트리온제약</t>
+  </si>
+  <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>TKG휴켐스</t>
+  </si>
+  <si>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>지역난방공사</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
     <t>105560</t>
   </si>
   <si>
     <t>KB금융</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>씨에스윈드</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>GKL</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -216,16 +828,202 @@
     <t>iM금융지주</t>
   </si>
   <si>
+    <t>140860</t>
+  </si>
+  <si>
+    <t>파크시스템스</t>
+  </si>
+  <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>덴티움</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
+  </si>
+  <si>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
     <t>175330</t>
   </si>
   <si>
     <t>JB금융지주</t>
   </si>
   <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>183300</t>
+  </si>
+  <si>
+    <t>코미코</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>더블유게임즈</t>
+  </si>
+  <si>
+    <t>192650</t>
+  </si>
+  <si>
+    <t>드림텍</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>코스맥스</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>HL만도</t>
+  </si>
+  <si>
+    <t>214150</t>
+  </si>
+  <si>
+    <t>클래시스</t>
+  </si>
+  <si>
+    <t>214450</t>
+  </si>
+  <si>
+    <t>파마리서치</t>
+  </si>
+  <si>
+    <t>215200</t>
+  </si>
+  <si>
+    <t>메가스터디교육</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>268280</t>
+  </si>
+  <si>
+    <t>미원에스씨</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>272290</t>
+  </si>
+  <si>
+    <t>이녹스첨단소재</t>
+  </si>
+  <si>
+    <t>280360</t>
+  </si>
+  <si>
+    <t>롯데웰푸드</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>285130</t>
+  </si>
+  <si>
+    <t>SK케미칼</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>HS효성첨단소재</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
+  </si>
+  <si>
+    <t>307950</t>
+  </si>
+  <si>
+    <t>현대오토에버</t>
+  </si>
+  <si>
     <t>316140</t>
   </si>
   <si>
     <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>319660</t>
+  </si>
+  <si>
+    <t>피에스케이</t>
+  </si>
+  <si>
+    <t>336570</t>
+  </si>
+  <si>
+    <t>원텍</t>
   </si>
 </sst>
 </file>
@@ -603,19 +1401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C95890F-87EF-43E7-AD1D-6FFAEB089DEE}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8556D13-C934-424E-8942-6EF91A86DA8B}">
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
@@ -664,31 +1464,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>19780</v>
+        <v>20900</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0200000000000001E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>13.54</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>16779.22</v>
       </c>
       <c r="I2">
-        <v>5.0599999999999996</v>
+        <v>3.35</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,31 +1499,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>98700</v>
+        <v>106300</v>
       </c>
       <c r="D3" s="3">
-        <v>1.8599999999999998E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>3.41</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>1.69</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>5.01</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>28112.080000000002</v>
       </c>
       <c r="I3">
-        <v>6.59</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,31 +1534,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>439500</v>
+        <v>90000</v>
       </c>
       <c r="D4" s="3">
-        <v>1.2699999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>6.58</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>3.63</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>5.98</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>185712.25</v>
       </c>
       <c r="I4">
-        <v>4.32</v>
+        <v>0.89</v>
       </c>
       <c r="J4">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -769,31 +1569,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>32000</v>
+        <v>20700</v>
       </c>
       <c r="D5" s="3">
-        <v>2.7300000000000001E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>10.33</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>5.8</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>47311.47</v>
       </c>
       <c r="I5">
-        <v>6.25</v>
+        <v>4.83</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,31 +1604,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>30750</v>
+        <v>99900</v>
       </c>
       <c r="D6" s="3">
-        <v>-6.5299999999999997E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>19.09</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>17.12</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>18.03</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>141851.03</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>6.51</v>
       </c>
       <c r="J6">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,25 +1639,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25150</v>
+        <v>279000</v>
       </c>
       <c r="D7" s="3">
-        <v>3.0700000000000002E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>31.06</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>41.75</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>6.34</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>114794.74</v>
       </c>
       <c r="I7">
-        <v>4.7699999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="J7">
         <v>91</v>
@@ -874,31 +1674,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10190</v>
+        <v>438500</v>
       </c>
       <c r="D8" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>13.09</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>15.71</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>12.47</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>333812.02</v>
       </c>
       <c r="I8">
-        <v>5.05</v>
+        <v>4.33</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,31 +1709,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>78000</v>
+        <v>95800</v>
       </c>
       <c r="D9" s="3">
-        <v>2.23E-2</v>
+        <v>-0.1195</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>7.19</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>3.32</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>106654.47</v>
       </c>
       <c r="I9">
-        <v>3.85</v>
+        <v>0.84</v>
       </c>
       <c r="J9">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,31 +1744,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>210000</v>
+        <v>45450</v>
       </c>
       <c r="D10" s="3">
-        <v>3.1899999999999998E-2</v>
+        <v>-2.6800000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>12.44</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>22.89</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>46869.37</v>
       </c>
       <c r="I10">
-        <v>5.71</v>
+        <v>2.71</v>
       </c>
       <c r="J10">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,31 +1779,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>125800</v>
+        <v>158500</v>
       </c>
       <c r="D11" s="3">
-        <v>2.0299999999999999E-2</v>
+        <v>-3.9399999999999998E-2</v>
       </c>
       <c r="E11">
-        <v>18.96</v>
+        <v>1.83</v>
       </c>
       <c r="F11">
-        <v>19.86</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G11">
-        <v>18.8</v>
+        <v>3.14</v>
       </c>
       <c r="H11" s="4">
-        <v>115980.87</v>
+        <v>156136.04999999999</v>
       </c>
       <c r="I11">
-        <v>5.41</v>
+        <v>1.89</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,31 +1814,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20100</v>
+        <v>22750</v>
       </c>
       <c r="D12" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>21.86</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>21.16</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>16.98</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>13971.64</v>
       </c>
       <c r="I12">
-        <v>4.7300000000000004</v>
+        <v>1.98</v>
       </c>
       <c r="J12">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,31 +1849,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>73400</v>
+        <v>31100</v>
       </c>
       <c r="D13" s="3">
-        <v>-2.7000000000000001E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>1.04</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>1.27</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>4.21</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>52692.43</v>
       </c>
       <c r="I13">
-        <v>4.7699999999999996</v>
+        <v>3.86</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,31 +1884,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57500</v>
+        <v>23150</v>
       </c>
       <c r="D14" s="3">
-        <v>1.41E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>6.94</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>6.21</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>39272.870000000003</v>
       </c>
       <c r="I14">
-        <v>6.16</v>
+        <v>3.67</v>
       </c>
       <c r="J14">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,31 +1919,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>87300</v>
+        <v>22900</v>
       </c>
       <c r="D15" s="3">
-        <v>1.5100000000000001E-2</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>7.03</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>6.41</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>5.26</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>38104.980000000003</v>
       </c>
       <c r="I15">
-        <v>6.3</v>
+        <v>3.49</v>
       </c>
       <c r="J15">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,31 +1954,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18470</v>
+        <v>320000</v>
       </c>
       <c r="D16" s="3">
-        <v>1.15E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>6.08</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>3.12</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>3.63</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>738772.79</v>
       </c>
       <c r="I16">
-        <v>5.77</v>
+        <v>3.13</v>
       </c>
       <c r="J16">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,31 +1989,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>50500</v>
+        <v>16840</v>
       </c>
       <c r="D17" s="3">
-        <v>2.23E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>0.15</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>7.09</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>9599.4</v>
       </c>
       <c r="I17">
-        <v>5.54</v>
+        <v>0.59</v>
       </c>
       <c r="J17">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,31 +2024,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20200</v>
+        <v>31850</v>
       </c>
       <c r="D18" s="3">
-        <v>7.4999999999999997E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>7.57</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>7.03</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>4.34</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>37119.57</v>
       </c>
       <c r="I18">
-        <v>6.09</v>
+        <v>1.04</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K18">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,31 +2059,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>57300</v>
+        <v>168700</v>
       </c>
       <c r="D19" s="3">
-        <v>2.87E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>12.99</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>12.99</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>17.53</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>89747.12</v>
       </c>
       <c r="I19">
-        <v>3.49</v>
+        <v>1.19</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,25 +2094,25 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14380</v>
+        <v>223500</v>
       </c>
       <c r="D20" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>2.25</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>9.16</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>13.33</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>494940.49</v>
       </c>
       <c r="I20">
-        <v>4.5199999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="J20">
         <v>73</v>
@@ -1329,31 +2129,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>127200</v>
+        <v>23100</v>
       </c>
       <c r="D21" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>-2.7400000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>5.99</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>10.42</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>12.16</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>18716.599999999999</v>
       </c>
       <c r="I21">
-        <v>4.25</v>
+        <v>0.87</v>
       </c>
       <c r="J21">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K21">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,31 +2164,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41500</v>
+        <v>1355000</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>46.11</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>27.7</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>119890.92</v>
       </c>
       <c r="I22">
-        <v>3.51</v>
+        <v>0.24</v>
       </c>
       <c r="J22">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K22">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,31 +2199,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>62200</v>
+        <v>1023000</v>
       </c>
       <c r="D23" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>-3.0300000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>5.45</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>7.63</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>3.82</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>3792078.51</v>
       </c>
       <c r="I23">
-        <v>3.47</v>
+        <v>0.17</v>
       </c>
       <c r="J23">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,31 +2234,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>48750</v>
+        <v>23350</v>
       </c>
       <c r="D24" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>13.17</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>10.87</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>15.53</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I24">
-        <v>5.54</v>
+        <v>3.21</v>
       </c>
       <c r="J24">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,31 +2269,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>88900</v>
+        <v>82100</v>
       </c>
       <c r="D25" s="3">
-        <v>3.0099999999999998E-2</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>2.16</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>8.5</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>5.18</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>174674.22</v>
       </c>
       <c r="I25">
-        <v>4.05</v>
+        <v>3.78</v>
       </c>
       <c r="J25">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,31 +2304,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>110800</v>
+        <v>40500</v>
       </c>
       <c r="D26" s="3">
-        <v>-8.9999999999999998E-4</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>1.53</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>4.8</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>5.27</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>91911.37</v>
       </c>
       <c r="I26">
-        <v>2.86</v>
+        <v>3.46</v>
       </c>
       <c r="J26">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,31 +2339,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12820</v>
+        <v>192300</v>
       </c>
       <c r="D27" s="3">
-        <v>2.9700000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>2.54</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>5.41</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>6.1</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>459712.86</v>
       </c>
       <c r="I27">
-        <v>5.07</v>
+        <v>2.34</v>
       </c>
       <c r="J27">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="K27">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,31 +2374,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13000</v>
+        <v>404500</v>
       </c>
       <c r="D28" s="3">
-        <v>3.4200000000000001E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>6.17</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>7.77</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>6.2</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>456560.89</v>
       </c>
       <c r="I28">
-        <v>3.85</v>
+        <v>1.24</v>
       </c>
       <c r="J28">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,31 +2409,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>20650</v>
+        <v>69600</v>
       </c>
       <c r="D29" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>12.22</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>12.78</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>8.36</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>109944.94</v>
       </c>
       <c r="I29">
-        <v>4.82</v>
+        <v>1.58</v>
       </c>
       <c r="J29">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="K29">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1644,31 +2444,4686 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
+        <v>89700</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E30">
+        <v>15.14</v>
+      </c>
+      <c r="F30">
+        <v>6.5</v>
+      </c>
+      <c r="G30">
+        <v>11.28</v>
+      </c>
+      <c r="H30" s="4">
+        <v>73760.240000000005</v>
+      </c>
+      <c r="I30">
+        <v>3.68</v>
+      </c>
+      <c r="J30">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16400</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E31">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>0.08</v>
+      </c>
+      <c r="H31" s="4">
+        <v>19840.59</v>
+      </c>
+      <c r="I31">
+        <v>3.05</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31800</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="F32">
+        <v>14.85</v>
+      </c>
+      <c r="G32">
+        <v>19.88</v>
+      </c>
+      <c r="H32" s="4">
+        <v>19885.900000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.63</v>
+      </c>
+      <c r="J32">
+        <v>36</v>
+      </c>
+      <c r="K32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>132100</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.99</v>
+      </c>
+      <c r="F33">
+        <v>1.89</v>
+      </c>
+      <c r="G33">
+        <v>8.24</v>
+      </c>
+      <c r="H33" s="4">
+        <v>146343.82</v>
+      </c>
+      <c r="I33">
+        <v>2.57</v>
+      </c>
+      <c r="J33">
+        <v>38</v>
+      </c>
+      <c r="K33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>213250</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E34">
+        <v>12.43</v>
+      </c>
+      <c r="F34">
+        <v>11.52</v>
+      </c>
+      <c r="G34">
+        <v>11.82</v>
+      </c>
+      <c r="H34" s="4">
+        <v>411868.79</v>
+      </c>
+      <c r="I34">
+        <v>5.63</v>
+      </c>
+      <c r="J34">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>287000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G35">
+        <v>3.76</v>
+      </c>
+      <c r="H35" s="4">
+        <v>701236.07</v>
+      </c>
+      <c r="I35">
+        <v>3.48</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>123600</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="E36">
+        <v>18.96</v>
+      </c>
+      <c r="F36">
+        <v>19.86</v>
+      </c>
+      <c r="G36">
+        <v>18.8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>115980.87</v>
+      </c>
+      <c r="I36">
+        <v>5.5</v>
+      </c>
+      <c r="J36">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32550</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E37">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="F37">
+        <v>17.22</v>
+      </c>
+      <c r="G37">
+        <v>15.37</v>
+      </c>
+      <c r="H37" s="4">
+        <v>50552.95</v>
+      </c>
+      <c r="I37">
+        <v>3.69</v>
+      </c>
+      <c r="J37">
+        <v>59</v>
+      </c>
+      <c r="K37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>60650</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E38">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F38">
+        <v>8.16</v>
+      </c>
+      <c r="G38">
+        <v>10.08</v>
+      </c>
+      <c r="H38" s="4">
+        <v>59026.51</v>
+      </c>
+      <c r="I38">
+        <v>2.38</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20100</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>8.73</v>
+      </c>
+      <c r="F39">
+        <v>10.35</v>
+      </c>
+      <c r="G39">
+        <v>6.85</v>
+      </c>
+      <c r="H39" s="4">
+        <v>23121.599999999999</v>
+      </c>
+      <c r="I39">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J39">
+        <v>92</v>
+      </c>
+      <c r="K39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>52800</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.74</v>
+      </c>
+      <c r="F40">
+        <v>9.32</v>
+      </c>
+      <c r="G40">
+        <v>6.63</v>
+      </c>
+      <c r="H40" s="4">
+        <v>71192.42</v>
+      </c>
+      <c r="I40">
+        <v>2.08</v>
+      </c>
+      <c r="J40">
+        <v>89</v>
+      </c>
+      <c r="K40">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>187000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.1137</v>
+      </c>
+      <c r="E41">
+        <v>5.09</v>
+      </c>
+      <c r="F41">
+        <v>7.34</v>
+      </c>
+      <c r="G41">
+        <v>11.63</v>
+      </c>
+      <c r="H41" s="4">
+        <v>154845.78</v>
+      </c>
+      <c r="I41">
+        <v>0.88</v>
+      </c>
+      <c r="J41">
+        <v>82</v>
+      </c>
+      <c r="K41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>21150</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.63</v>
+      </c>
+      <c r="F42">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.76</v>
+      </c>
+      <c r="H42" s="4">
+        <v>52771.03</v>
+      </c>
+      <c r="I42">
+        <v>1.42</v>
+      </c>
+      <c r="J42">
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21350</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+      <c r="E43">
+        <v>7.94</v>
+      </c>
+      <c r="F43">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G43">
+        <v>5.75</v>
+      </c>
+      <c r="H43" s="4">
+        <v>17214.37</v>
+      </c>
+      <c r="I43">
+        <v>1.17</v>
+      </c>
+      <c r="J43">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>17370</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.84</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="4">
+        <v>38078.410000000003</v>
+      </c>
+      <c r="I44">
+        <v>2.88</v>
+      </c>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>407500</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E45">
+        <v>6.85</v>
+      </c>
+      <c r="F45">
+        <v>6.54</v>
+      </c>
+      <c r="G45">
+        <v>10.64</v>
+      </c>
+      <c r="H45" s="4">
+        <v>591978.98</v>
+      </c>
+      <c r="I45">
+        <v>2.21</v>
+      </c>
+      <c r="J45">
+        <v>23</v>
+      </c>
+      <c r="K45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>23200</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>19.78</v>
+      </c>
+      <c r="F46">
+        <v>17.25</v>
+      </c>
+      <c r="G46">
+        <v>23.29</v>
+      </c>
+      <c r="H46" s="4">
+        <v>31156.34</v>
+      </c>
+      <c r="I46">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J46">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43700</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>7.3</v>
+      </c>
+      <c r="F47">
+        <v>11.86</v>
+      </c>
+      <c r="G47">
+        <v>10.77</v>
+      </c>
+      <c r="H47" s="4">
+        <v>12631</v>
+      </c>
+      <c r="I47">
+        <v>0.69</v>
+      </c>
+      <c r="J47">
+        <v>28</v>
+      </c>
+      <c r="K47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>134500</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E48">
+        <v>8.16</v>
+      </c>
+      <c r="F48">
+        <v>6.08</v>
+      </c>
+      <c r="G48">
+        <v>9.14</v>
+      </c>
+      <c r="H48" s="4">
+        <v>115453.7</v>
+      </c>
+      <c r="I48">
+        <v>1.34</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44950</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="E49">
+        <v>43.59</v>
+      </c>
+      <c r="F49">
+        <v>10.8</v>
+      </c>
+      <c r="G49">
+        <v>4.82</v>
+      </c>
+      <c r="H49" s="4">
+        <v>26759.11</v>
+      </c>
+      <c r="I49">
+        <v>18.98</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>72400</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="E50">
+        <v>19.43</v>
+      </c>
+      <c r="F50">
+        <v>21.29</v>
+      </c>
+      <c r="G50">
+        <v>15.2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>49563.94</v>
+      </c>
+      <c r="I50">
+        <v>0.9</v>
+      </c>
+      <c r="J50">
+        <v>53</v>
+      </c>
+      <c r="K50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>343000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-6.0299999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>11.16</v>
+      </c>
+      <c r="F51">
+        <v>17.64</v>
+      </c>
+      <c r="G51">
+        <v>3.73</v>
+      </c>
+      <c r="H51" s="4">
+        <v>160791.94</v>
+      </c>
+      <c r="I51">
+        <v>1.49</v>
+      </c>
+      <c r="J51">
+        <v>83</v>
+      </c>
+      <c r="K51">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>139700</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E52">
+        <v>13.17</v>
+      </c>
+      <c r="F52">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G52">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="H52" s="4">
+        <v>201114.72</v>
+      </c>
+      <c r="I52">
+        <v>3.83</v>
+      </c>
+      <c r="J52">
+        <v>97</v>
+      </c>
+      <c r="K52">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>284000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+      <c r="E53">
+        <v>13.44</v>
+      </c>
+      <c r="F53">
+        <v>15.22</v>
+      </c>
+      <c r="G53">
+        <v>10.67</v>
+      </c>
+      <c r="H53" s="4">
+        <v>61485.71</v>
+      </c>
+      <c r="I53">
+        <v>1.02</v>
+      </c>
+      <c r="J53">
+        <v>86</v>
+      </c>
+      <c r="K53">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>817000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E54">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F54">
+        <v>8.83</v>
+      </c>
+      <c r="G54">
+        <v>5.79</v>
+      </c>
+      <c r="H54" s="4">
+        <v>457097.14</v>
+      </c>
+      <c r="I54">
+        <v>2.14</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>152700</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E55">
+        <v>8.92</v>
+      </c>
+      <c r="F55">
+        <v>6.38</v>
+      </c>
+      <c r="G55">
+        <v>15.79</v>
+      </c>
+      <c r="H55" s="4">
+        <v>227100.85</v>
+      </c>
+      <c r="I55">
+        <v>1.37</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+      <c r="K55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>23350</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E56">
+        <v>15.35</v>
+      </c>
+      <c r="F56">
+        <v>10.6</v>
+      </c>
+      <c r="G56">
+        <v>28.31</v>
+      </c>
+      <c r="H56" s="4">
+        <v>31729.16</v>
+      </c>
+      <c r="I56">
+        <v>2.57</v>
+      </c>
+      <c r="J56">
+        <v>39</v>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>46900</v>
+      </c>
+      <c r="D57" s="3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E57">
+        <v>3.45</v>
+      </c>
+      <c r="F57">
+        <v>10.6</v>
+      </c>
+      <c r="G57">
+        <v>2.72</v>
+      </c>
+      <c r="H57" s="4">
+        <v>136218.23000000001</v>
+      </c>
+      <c r="I57">
+        <v>2.35</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>118500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="E58">
+        <v>5.88</v>
+      </c>
+      <c r="F58">
+        <v>8.24</v>
+      </c>
+      <c r="G58">
+        <v>10.87</v>
+      </c>
+      <c r="H58" s="4">
+        <v>207745.28</v>
+      </c>
+      <c r="I58">
+        <v>1.86</v>
+      </c>
+      <c r="J58">
+        <v>17</v>
+      </c>
+      <c r="K58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>296000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="E59">
+        <v>9.35</v>
+      </c>
+      <c r="F59">
+        <v>8.9</v>
+      </c>
+      <c r="G59">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H59" s="4">
+        <v>509344.58</v>
+      </c>
+      <c r="I59">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J59">
+        <v>49</v>
+      </c>
+      <c r="K59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>817000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>53.94</v>
+      </c>
+      <c r="F60">
+        <v>7.76</v>
+      </c>
+      <c r="G60">
+        <v>28.78</v>
+      </c>
+      <c r="H60" s="4">
+        <v>86675.520000000004</v>
+      </c>
+      <c r="I60">
+        <v>0.43</v>
+      </c>
+      <c r="J60">
+        <v>82</v>
+      </c>
+      <c r="K60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>22950</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-6.3299999999999995E-2</v>
+      </c>
+      <c r="E61">
+        <v>5.65</v>
+      </c>
+      <c r="F61">
+        <v>10.55</v>
+      </c>
+      <c r="G61">
+        <v>3.33</v>
+      </c>
+      <c r="H61" s="4">
+        <v>47758.78</v>
+      </c>
+      <c r="I61">
+        <v>1.53</v>
+      </c>
+      <c r="J61">
+        <v>88</v>
+      </c>
+      <c r="K61">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>70400</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E62">
+        <v>10.85</v>
+      </c>
+      <c r="F62">
+        <v>10.27</v>
+      </c>
+      <c r="G62">
+        <v>11.06</v>
+      </c>
+      <c r="H62" s="4">
+        <v>46509.73</v>
+      </c>
+      <c r="I62">
+        <v>3.84</v>
+      </c>
+      <c r="J62">
+        <v>39</v>
+      </c>
+      <c r="K62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>164400</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>13.48</v>
+      </c>
+      <c r="F63">
+        <v>14.82</v>
+      </c>
+      <c r="G63">
+        <v>15.98</v>
+      </c>
+      <c r="H63" s="4">
+        <v>90006.399999999994</v>
+      </c>
+      <c r="I63">
+        <v>1.28</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>32050</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E64">
+        <v>9.01</v>
+      </c>
+      <c r="F64">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G64">
+        <v>9.32</v>
+      </c>
+      <c r="H64" s="4">
+        <v>28302.22</v>
+      </c>
+      <c r="I64">
+        <v>1.87</v>
+      </c>
+      <c r="J64">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>72500</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="E65">
+        <v>12.89</v>
+      </c>
+      <c r="F65">
+        <v>13.62</v>
+      </c>
+      <c r="G65">
+        <v>9.44</v>
+      </c>
+      <c r="H65" s="4">
+        <v>81376.7</v>
+      </c>
+      <c r="I65">
+        <v>4.83</v>
+      </c>
+      <c r="J65">
+        <v>87</v>
+      </c>
+      <c r="K65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E66">
+        <v>10.83</v>
+      </c>
+      <c r="F66">
+        <v>12.4</v>
+      </c>
+      <c r="G66">
+        <v>9.48</v>
+      </c>
+      <c r="H66" s="4">
+        <v>55460.24</v>
+      </c>
+      <c r="I66">
+        <v>6.1</v>
+      </c>
+      <c r="J66">
+        <v>81</v>
+      </c>
+      <c r="K66">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>83500</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-4.3499999999999997E-2</v>
+      </c>
+      <c r="E67">
+        <v>14.42</v>
+      </c>
+      <c r="F67">
+        <v>11.9</v>
+      </c>
+      <c r="G67">
+        <v>15.82</v>
+      </c>
+      <c r="H67" s="4">
+        <v>32483.7</v>
+      </c>
+      <c r="I67">
+        <v>6.59</v>
+      </c>
+      <c r="J67">
+        <v>88</v>
+      </c>
+      <c r="K67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>25450</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-1.55E-2</v>
+      </c>
+      <c r="E68">
+        <v>4.38</v>
+      </c>
+      <c r="F68">
+        <v>18.16</v>
+      </c>
+      <c r="G68">
+        <v>2.12</v>
+      </c>
+      <c r="H68" s="4">
+        <v>9937.43</v>
+      </c>
+      <c r="I68">
+        <v>0.51</v>
+      </c>
+      <c r="J68">
+        <v>93</v>
+      </c>
+      <c r="K68">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>164900</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="E69">
+        <v>8.42</v>
+      </c>
+      <c r="F69">
+        <v>9.06</v>
+      </c>
+      <c r="G69">
+        <v>10.29</v>
+      </c>
+      <c r="H69" s="4">
+        <v>120847.71</v>
+      </c>
+      <c r="I69">
+        <v>1.76</v>
+      </c>
+      <c r="J69">
+        <v>46</v>
+      </c>
+      <c r="K69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>279000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E70">
+        <v>6.74</v>
+      </c>
+      <c r="F70">
+        <v>12.74</v>
+      </c>
+      <c r="G70">
+        <v>10.37</v>
+      </c>
+      <c r="H70" s="4">
+        <v>300046.02</v>
+      </c>
+      <c r="I70">
+        <v>2.87</v>
+      </c>
+      <c r="J70">
+        <v>98</v>
+      </c>
+      <c r="K70">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>102500</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="E71">
+        <v>19.38</v>
+      </c>
+      <c r="F71">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G71">
+        <v>20.04</v>
+      </c>
+      <c r="H71" s="4">
+        <v>43969.66</v>
+      </c>
+      <c r="I71">
+        <v>2.57</v>
+      </c>
+      <c r="J71">
+        <v>96</v>
+      </c>
+      <c r="K71">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>23700</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F72">
+        <v>16.29</v>
+      </c>
+      <c r="G72">
+        <v>16.95</v>
+      </c>
+      <c r="H72" s="4">
+        <v>3521.01</v>
+      </c>
+      <c r="I72">
+        <v>0.53</v>
+      </c>
+      <c r="J72">
+        <v>26</v>
+      </c>
+      <c r="K72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18460</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="E73">
+        <v>8.06</v>
+      </c>
+      <c r="F73">
+        <v>9.52</v>
+      </c>
+      <c r="G73">
+        <v>8.77</v>
+      </c>
+      <c r="H73" s="4">
+        <v>42663.82</v>
+      </c>
+      <c r="I73">
+        <v>5.77</v>
+      </c>
+      <c r="J73">
+        <v>95</v>
+      </c>
+      <c r="K73">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>30300</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E74">
+        <v>9.52</v>
+      </c>
+      <c r="F74">
+        <v>10.5</v>
+      </c>
+      <c r="G74">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H74" s="4">
+        <v>16694.21</v>
+      </c>
+      <c r="I74">
+        <v>2.94</v>
+      </c>
+      <c r="J74">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2">
+        <v>22900</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F75">
+        <v>14.14</v>
+      </c>
+      <c r="G75">
+        <v>24.14</v>
+      </c>
+      <c r="H75" s="4">
+        <v>21889.49</v>
+      </c>
+      <c r="I75">
+        <v>2.88</v>
+      </c>
+      <c r="J75">
+        <v>46</v>
+      </c>
+      <c r="K75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>162300</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+      <c r="E76">
+        <v>6.83</v>
+      </c>
+      <c r="F76">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G76">
+        <v>7.09</v>
+      </c>
+      <c r="H76" s="4">
+        <v>190073.45</v>
+      </c>
+      <c r="I76">
+        <v>1.6</v>
+      </c>
+      <c r="J76">
+        <v>84</v>
+      </c>
+      <c r="K76">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3795</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="E77">
+        <v>5.17</v>
+      </c>
+      <c r="F77">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G77">
+        <v>9.08</v>
+      </c>
+      <c r="H77" s="4">
+        <v>10523.01</v>
+      </c>
+      <c r="I77">
+        <v>3.16</v>
+      </c>
+      <c r="J77">
+        <v>13</v>
+      </c>
+      <c r="K77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>50600</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>8.75</v>
+      </c>
+      <c r="G78">
+        <v>7.9</v>
+      </c>
+      <c r="H78" s="4">
+        <v>75767.48</v>
+      </c>
+      <c r="I78">
+        <v>5.53</v>
+      </c>
+      <c r="J78">
+        <v>94</v>
+      </c>
+      <c r="K78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>20500</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E79">
+        <v>15.12</v>
+      </c>
+      <c r="F79">
+        <v>7.98</v>
+      </c>
+      <c r="G79">
+        <v>15.58</v>
+      </c>
+      <c r="H79" s="4">
+        <v>14481.01</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <v>40</v>
+      </c>
+      <c r="K79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>16830</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E80">
+        <v>19.48</v>
+      </c>
+      <c r="F80">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="G80">
+        <v>17.21</v>
+      </c>
+      <c r="H80" s="4">
+        <v>6940.08</v>
+      </c>
+      <c r="I80">
+        <v>2.73</v>
+      </c>
+      <c r="J80">
+        <v>39</v>
+      </c>
+      <c r="K80">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2">
+        <v>57100</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="E81">
+        <v>2.85</v>
+      </c>
+      <c r="F81">
+        <v>13.16</v>
+      </c>
+      <c r="G81">
+        <v>5.63</v>
+      </c>
+      <c r="H81" s="4">
+        <v>66926.62</v>
+      </c>
+      <c r="I81">
+        <v>3.5</v>
+      </c>
+      <c r="J81">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2">
+        <v>33950</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+      <c r="E82">
+        <v>24.8</v>
+      </c>
+      <c r="F82">
+        <v>14.49</v>
+      </c>
+      <c r="G82">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="H82" s="4">
+        <v>20020.86</v>
+      </c>
+      <c r="I82">
+        <v>2.06</v>
+      </c>
+      <c r="J82">
+        <v>35</v>
+      </c>
+      <c r="K82">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>14420</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E83">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F83">
+        <v>7.75</v>
+      </c>
+      <c r="G83">
+        <v>6.75</v>
+      </c>
+      <c r="H83" s="4">
+        <v>19799.21</v>
+      </c>
+      <c r="I83">
+        <v>4.51</v>
+      </c>
+      <c r="J83">
+        <v>73</v>
+      </c>
+      <c r="K83">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>126900</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-2.3800000000000002E-2</v>
+      </c>
+      <c r="E84">
+        <v>5.76</v>
+      </c>
+      <c r="F84">
+        <v>8.44</v>
+      </c>
+      <c r="G84">
+        <v>5.33</v>
+      </c>
+      <c r="H84" s="4">
+        <v>158106.71</v>
+      </c>
+      <c r="I84">
+        <v>3.55</v>
+      </c>
+      <c r="J84">
+        <v>91</v>
+      </c>
+      <c r="K84">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42250</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-3.5400000000000001E-2</v>
+      </c>
+      <c r="E85">
+        <v>49.72</v>
+      </c>
+      <c r="F85">
+        <v>30.06</v>
+      </c>
+      <c r="G85">
+        <v>42.19</v>
+      </c>
+      <c r="H85" s="4">
+        <v>12162.76</v>
+      </c>
+      <c r="I85">
+        <v>2.37</v>
+      </c>
+      <c r="J85">
+        <v>39</v>
+      </c>
+      <c r="K85">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2">
+        <v>130200</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E86">
+        <v>12.66</v>
+      </c>
+      <c r="F86">
+        <v>11.17</v>
+      </c>
+      <c r="G86">
+        <v>11.14</v>
+      </c>
+      <c r="H86" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I86">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>18930</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E87">
+        <v>12.08</v>
+      </c>
+      <c r="F87">
+        <v>7.85</v>
+      </c>
+      <c r="G87">
+        <v>8.39</v>
+      </c>
+      <c r="H87" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I87">
+        <v>6.18</v>
+      </c>
+      <c r="J87">
+        <v>34</v>
+      </c>
+      <c r="K87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2">
+        <v>252000</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-3.8199999999999998E-2</v>
+      </c>
+      <c r="E88">
+        <v>7.9</v>
+      </c>
+      <c r="F88">
+        <v>6.55</v>
+      </c>
+      <c r="G88">
+        <v>5.2</v>
+      </c>
+      <c r="H88" s="4">
+        <v>172550.7</v>
+      </c>
+      <c r="I88">
+        <v>0.45</v>
+      </c>
+      <c r="J88">
+        <v>32</v>
+      </c>
+      <c r="K88">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>58700</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-2.3300000000000001E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F89">
+        <v>6.7</v>
+      </c>
+      <c r="G89">
+        <v>1.31</v>
+      </c>
+      <c r="H89" s="4">
+        <v>23415.79</v>
+      </c>
+      <c r="I89">
+        <v>0.12</v>
+      </c>
+      <c r="J89">
+        <v>19</v>
+      </c>
+      <c r="K89">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="2">
+        <v>74300</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E90">
+        <v>22.41</v>
+      </c>
+      <c r="F90">
+        <v>54.89</v>
+      </c>
+      <c r="G90">
+        <v>25.82</v>
+      </c>
+      <c r="H90" s="4">
+        <v>15316.08</v>
+      </c>
+      <c r="I90">
+        <v>0.72</v>
+      </c>
+      <c r="J90">
+        <v>39</v>
+      </c>
+      <c r="K90">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41350</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="E91">
+        <v>11.21</v>
+      </c>
+      <c r="F91">
+        <v>13.43</v>
+      </c>
+      <c r="G91">
+        <v>6.4</v>
+      </c>
+      <c r="H91" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I91">
+        <v>3.52</v>
+      </c>
+      <c r="J91">
+        <v>45</v>
+      </c>
+      <c r="K91">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2">
+        <v>202500</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="E92">
+        <v>2.99</v>
+      </c>
+      <c r="F92">
+        <v>4.97</v>
+      </c>
+      <c r="G92">
+        <v>7.77</v>
+      </c>
+      <c r="H92" s="4">
+        <v>170798.55</v>
+      </c>
+      <c r="I92">
+        <v>0.72</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2">
+        <v>30800</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E93">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="F93">
+        <v>19.32</v>
+      </c>
+      <c r="G93">
+        <v>17.14</v>
+      </c>
+      <c r="H93" s="4">
+        <v>13347.02</v>
+      </c>
+      <c r="I93">
+        <v>0.93</v>
+      </c>
+      <c r="J93">
+        <v>66</v>
+      </c>
+      <c r="K93">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2">
+        <v>55500</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E94">
+        <v>47.19</v>
+      </c>
+      <c r="F94">
+        <v>29.12</v>
+      </c>
+      <c r="G94">
+        <v>5.07</v>
+      </c>
+      <c r="H94" s="4">
+        <v>11547.13</v>
+      </c>
+      <c r="I94">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J94">
+        <v>36</v>
+      </c>
+      <c r="K94">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2">
+        <v>222000</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-5.33E-2</v>
+      </c>
+      <c r="E95">
+        <v>15.98</v>
+      </c>
+      <c r="F95">
+        <v>16.78</v>
+      </c>
+      <c r="G95">
+        <v>12.25</v>
+      </c>
+      <c r="H95" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I95">
+        <v>3.38</v>
+      </c>
+      <c r="J95">
+        <v>89</v>
+      </c>
+      <c r="K95">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="2">
+        <v>13100</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E96">
+        <v>5.91</v>
+      </c>
+      <c r="F96">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G96">
+        <v>11.52</v>
+      </c>
+      <c r="H96" s="4">
+        <v>9830.6</v>
+      </c>
+      <c r="I96">
+        <v>0.53</v>
+      </c>
+      <c r="J96">
+        <v>79</v>
+      </c>
+      <c r="K96">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>93800</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="E97">
+        <v>27.43</v>
+      </c>
+      <c r="F97">
+        <v>41.22</v>
+      </c>
+      <c r="G97">
+        <v>36</v>
+      </c>
+      <c r="H97" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I97">
+        <v>0.77</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="2">
+        <v>49100</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="E98">
+        <v>8.14</v>
+      </c>
+      <c r="F98">
+        <v>12.3</v>
+      </c>
+      <c r="G98">
+        <v>12.43</v>
+      </c>
+      <c r="H98" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I98">
+        <v>3.16</v>
+      </c>
+      <c r="J98">
+        <v>43</v>
+      </c>
+      <c r="K98">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2">
+        <v>89300</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="E99">
+        <v>10.42</v>
+      </c>
+      <c r="F99">
+        <v>7.09</v>
+      </c>
+      <c r="G99">
+        <v>11.34</v>
+      </c>
+      <c r="H99" s="4">
+        <v>17308.830000000002</v>
+      </c>
+      <c r="I99">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J99">
+        <v>84</v>
+      </c>
+      <c r="K99">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2">
+        <v>57700</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="E100">
+        <v>13.26</v>
+      </c>
+      <c r="F100">
+        <v>3.52</v>
+      </c>
+      <c r="G100">
+        <v>11.65</v>
+      </c>
+      <c r="H100" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I100">
+        <v>4.28</v>
+      </c>
+      <c r="J100">
+        <v>80</v>
+      </c>
+      <c r="K100">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2">
+        <v>324000</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E101">
+        <v>3.44</v>
+      </c>
+      <c r="F101">
+        <v>7.02</v>
+      </c>
+      <c r="G101">
+        <v>3.5</v>
+      </c>
+      <c r="H101" s="4">
+        <v>321747.28999999998</v>
+      </c>
+      <c r="I101">
+        <v>1.08</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2">
+        <v>94800</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-4.6300000000000001E-2</v>
+      </c>
+      <c r="E102">
+        <v>10.4</v>
+      </c>
+      <c r="F102">
+        <v>44.75</v>
+      </c>
+      <c r="G102">
+        <v>6.6</v>
+      </c>
+      <c r="H102" s="4">
+        <v>15982.9</v>
+      </c>
+      <c r="I102">
+        <v>1.05</v>
+      </c>
+      <c r="J102">
+        <v>75</v>
+      </c>
+      <c r="K102">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2">
+        <v>61500</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-1.1299999999999999E-2</v>
+      </c>
+      <c r="E103">
+        <v>8.11</v>
+      </c>
+      <c r="F103">
+        <v>10.55</v>
+      </c>
+      <c r="G103">
+        <v>8.66</v>
+      </c>
+      <c r="H103" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I103">
+        <v>3.51</v>
+      </c>
+      <c r="J103">
+        <v>92</v>
+      </c>
+      <c r="K103">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2">
+        <v>48950</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-4.2099999999999999E-2</v>
+      </c>
+      <c r="E104">
+        <v>19.2</v>
+      </c>
+      <c r="F104">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G104">
+        <v>21.81</v>
+      </c>
+      <c r="H104" s="4">
+        <v>7988.48</v>
+      </c>
+      <c r="I104">
+        <v>1.23</v>
+      </c>
+      <c r="J104">
+        <v>68</v>
+      </c>
+      <c r="K104">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="2">
+        <v>202000</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E105">
+        <v>21.85</v>
+      </c>
+      <c r="F105">
+        <v>29.95</v>
+      </c>
+      <c r="G105">
+        <v>15.32</v>
+      </c>
+      <c r="H105" s="4">
+        <v>20022.23</v>
+      </c>
+      <c r="I105">
+        <v>0.1</v>
+      </c>
+      <c r="J105">
+        <v>91</v>
+      </c>
+      <c r="K105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="2">
+        <v>103500</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="E106">
+        <v>14.78</v>
+      </c>
+      <c r="F106">
+        <v>15.24</v>
+      </c>
+      <c r="G106">
+        <v>17.88</v>
+      </c>
+      <c r="H106" s="4">
+        <v>44480.68</v>
+      </c>
+      <c r="I106">
+        <v>1.36</v>
+      </c>
+      <c r="J106">
+        <v>20</v>
+      </c>
+      <c r="K106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>76100</v>
+      </c>
+      <c r="D107" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E107">
+        <v>1.81</v>
+      </c>
+      <c r="F107">
+        <v>14.87</v>
+      </c>
+      <c r="G107">
+        <v>4.04</v>
+      </c>
+      <c r="H107" s="4">
+        <v>121832.79</v>
+      </c>
+      <c r="I107">
+        <v>1.31</v>
+      </c>
+      <c r="J107">
+        <v>9</v>
+      </c>
+      <c r="K107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2">
+        <v>90900</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E108">
+        <v>30.21</v>
+      </c>
+      <c r="F108">
+        <v>27.79</v>
+      </c>
+      <c r="G108">
+        <v>28.25</v>
+      </c>
+      <c r="H108" s="4">
+        <v>38455.24</v>
+      </c>
+      <c r="I108">
+        <v>1.65</v>
+      </c>
+      <c r="J108">
+        <v>20</v>
+      </c>
+      <c r="K108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2">
+        <v>168700</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="E109">
+        <v>2.46</v>
+      </c>
+      <c r="F109">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G109">
+        <v>6.96</v>
+      </c>
+      <c r="H109" s="4">
+        <v>81251.899999999994</v>
+      </c>
+      <c r="I109">
+        <v>0.44</v>
+      </c>
+      <c r="J109">
+        <v>21</v>
+      </c>
+      <c r="K109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="2">
+        <v>54200</v>
+      </c>
+      <c r="D110" s="3">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="E110">
+        <v>5.68</v>
+      </c>
+      <c r="F110">
+        <v>7.33</v>
+      </c>
+      <c r="G110">
+        <v>6.34</v>
+      </c>
+      <c r="H110" s="4">
+        <v>9756.76</v>
+      </c>
+      <c r="I110">
+        <v>0.05</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="2">
+        <v>17060</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E111">
+        <v>9.09</v>
+      </c>
+      <c r="F111">
+        <v>6.72</v>
+      </c>
+      <c r="G111">
+        <v>12.5</v>
+      </c>
+      <c r="H111" s="4">
+        <v>21975.55</v>
+      </c>
+      <c r="I111">
+        <v>5.86</v>
+      </c>
+      <c r="J111">
+        <v>17</v>
+      </c>
+      <c r="K111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="2">
+        <v>145700</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E112">
+        <v>3.17</v>
+      </c>
+      <c r="F112">
+        <v>10.95</v>
+      </c>
+      <c r="G112">
+        <v>9.35</v>
+      </c>
+      <c r="H112" s="4">
+        <v>69657.210000000006</v>
+      </c>
+      <c r="I112">
+        <v>0.41</v>
+      </c>
+      <c r="J112">
+        <v>29</v>
+      </c>
+      <c r="K112">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="2">
+        <v>138300</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="E113">
+        <v>11.54</v>
+      </c>
+      <c r="F113">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G113">
+        <v>9.6</v>
+      </c>
+      <c r="H113" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I113">
+        <v>2.88</v>
+      </c>
+      <c r="J113">
+        <v>90</v>
+      </c>
+      <c r="K113">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2">
+        <v>81200</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="E114">
+        <v>9.65</v>
+      </c>
+      <c r="F114">
+        <v>39.6</v>
+      </c>
+      <c r="G114">
+        <v>3.24</v>
+      </c>
+      <c r="H114" s="4">
+        <v>211621.18</v>
+      </c>
+      <c r="I114">
+        <v>4.78</v>
+      </c>
+      <c r="J114">
+        <v>87</v>
+      </c>
+      <c r="K114">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="2">
+        <v>48800</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E115">
+        <v>4.12</v>
+      </c>
+      <c r="F115">
+        <v>5.83</v>
+      </c>
+      <c r="G115">
+        <v>11.01</v>
+      </c>
+      <c r="H115" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I115">
+        <v>5.53</v>
+      </c>
+      <c r="J115">
+        <v>68</v>
+      </c>
+      <c r="K115">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2">
+        <v>521000</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-3.1600000000000003E-2</v>
+      </c>
+      <c r="E116">
+        <v>19.59</v>
+      </c>
+      <c r="F116">
+        <v>27.47</v>
+      </c>
+      <c r="G116">
+        <v>17.23</v>
+      </c>
+      <c r="H116" s="4">
+        <v>56705.61</v>
+      </c>
+      <c r="I116">
+        <v>0.46</v>
+      </c>
+      <c r="J116">
+        <v>79</v>
+      </c>
+      <c r="K116">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="2">
+        <v>38600</v>
+      </c>
+      <c r="D117" s="3">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="E117">
+        <v>4.3</v>
+      </c>
+      <c r="F117">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G117">
+        <v>8.75</v>
+      </c>
+      <c r="H117" s="4">
+        <v>34821.129999999997</v>
+      </c>
+      <c r="I117">
+        <v>3.11</v>
+      </c>
+      <c r="J117">
+        <v>36</v>
+      </c>
+      <c r="K117">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="2">
+        <v>138300</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E118">
+        <v>13.24</v>
+      </c>
+      <c r="F118">
+        <v>17.97</v>
+      </c>
+      <c r="G118">
+        <v>15.51</v>
+      </c>
+      <c r="H118" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I118">
+        <v>2.68</v>
+      </c>
+      <c r="J118">
+        <v>87</v>
+      </c>
+      <c r="K118">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="2">
+        <v>85700</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="E119">
+        <v>9.11</v>
+      </c>
+      <c r="F119">
+        <v>10.47</v>
+      </c>
+      <c r="G119">
+        <v>9.4</v>
+      </c>
+      <c r="H119" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I119">
+        <v>4.2</v>
+      </c>
+      <c r="J119">
+        <v>92</v>
+      </c>
+      <c r="K119">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="2">
+        <v>136600</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E120">
+        <v>11.69</v>
+      </c>
+      <c r="F120">
+        <v>8.41</v>
+      </c>
+      <c r="G120">
+        <v>6.07</v>
+      </c>
+      <c r="H120" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I120">
+        <v>0.82</v>
+      </c>
+      <c r="J120">
+        <v>23</v>
+      </c>
+      <c r="K120">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="2">
+        <v>265000</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="E121">
+        <v>1.97</v>
+      </c>
+      <c r="F121">
+        <v>0.9</v>
+      </c>
+      <c r="G121">
+        <v>5.59</v>
+      </c>
+      <c r="H121" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I121">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J121">
+        <v>16</v>
+      </c>
+      <c r="K121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2">
+        <v>112900</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E122">
+        <v>8.86</v>
+      </c>
+      <c r="F122">
+        <v>11.69</v>
+      </c>
+      <c r="G122">
+        <v>8.51</v>
+      </c>
+      <c r="H122" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I122">
+        <v>2.81</v>
+      </c>
+      <c r="J122">
+        <v>98</v>
+      </c>
+      <c r="K122">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="2">
+        <v>62800</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="E123">
+        <v>12.32</v>
+      </c>
+      <c r="F123">
+        <v>9.67</v>
+      </c>
+      <c r="G123">
+        <v>18.72</v>
+      </c>
+      <c r="H123" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I123">
+        <v>2.23</v>
+      </c>
+      <c r="J123">
+        <v>89</v>
+      </c>
+      <c r="K123">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="2">
+        <v>47700</v>
+      </c>
+      <c r="D124" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E124">
+        <v>13.92</v>
+      </c>
+      <c r="F124">
+        <v>32.17</v>
+      </c>
+      <c r="G124">
+        <v>5.44</v>
+      </c>
+      <c r="H124" s="4">
+        <v>29720.77</v>
+      </c>
+      <c r="I124">
+        <v>2.1</v>
+      </c>
+      <c r="J124">
+        <v>23</v>
+      </c>
+      <c r="K124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="2">
+        <v>15400</v>
+      </c>
+      <c r="D125" s="3">
+        <v>4.19E-2</v>
+      </c>
+      <c r="E125">
+        <v>8.01</v>
+      </c>
+      <c r="F125">
+        <v>15.53</v>
+      </c>
+      <c r="G125">
+        <v>4.37</v>
+      </c>
+      <c r="H125" s="4">
+        <v>6725.81</v>
+      </c>
+      <c r="I125">
+        <v>1.83</v>
+      </c>
+      <c r="J125">
+        <v>47</v>
+      </c>
+      <c r="K125">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="2">
+        <v>46050</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E126">
+        <v>3.06</v>
+      </c>
+      <c r="F126">
+        <v>1.78</v>
+      </c>
+      <c r="G126">
+        <v>3.92</v>
+      </c>
+      <c r="H126" s="4">
+        <v>121115.98</v>
+      </c>
+      <c r="I126">
+        <v>2.82</v>
+      </c>
+      <c r="J126">
+        <v>23</v>
+      </c>
+      <c r="K126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="2">
+        <v>289000</v>
+      </c>
+      <c r="D127" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E127">
+        <v>11.89</v>
+      </c>
+      <c r="F127">
+        <v>15.5</v>
+      </c>
+      <c r="G127">
+        <v>12.6</v>
+      </c>
+      <c r="H127" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I127">
+        <v>0.43</v>
+      </c>
+      <c r="J127">
+        <v>39</v>
+      </c>
+      <c r="K127">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="2">
+        <v>115700</v>
+      </c>
+      <c r="D128" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E128">
+        <v>23.44</v>
+      </c>
+      <c r="F128">
+        <v>24.59</v>
+      </c>
+      <c r="G128">
+        <v>27.89</v>
+      </c>
+      <c r="H128" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I128">
+        <v>1.17</v>
+      </c>
+      <c r="J128">
+        <v>90</v>
+      </c>
+      <c r="K128">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="2">
+        <v>12860</v>
+      </c>
+      <c r="D129" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E129">
+        <v>6.96</v>
+      </c>
+      <c r="F129">
+        <v>6.28</v>
+      </c>
+      <c r="G129">
+        <v>7.18</v>
+      </c>
+      <c r="H129" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I129">
+        <v>5.05</v>
+      </c>
+      <c r="J129">
+        <v>98</v>
+      </c>
+      <c r="K129">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="2">
+        <v>13070</v>
+      </c>
+      <c r="D130" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E130">
+        <v>3.6</v>
+      </c>
+      <c r="F130">
+        <v>10.34</v>
+      </c>
+      <c r="G130">
+        <v>5.91</v>
+      </c>
+      <c r="H130" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I130">
+        <v>3.83</v>
+      </c>
+      <c r="J130">
+        <v>99</v>
+      </c>
+      <c r="K130">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="2">
+        <v>291000</v>
+      </c>
+      <c r="D131" s="3">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="E131">
+        <v>25.83</v>
+      </c>
+      <c r="F131">
+        <v>30.8</v>
+      </c>
+      <c r="G131">
+        <v>23.74</v>
+      </c>
+      <c r="H131" s="4">
+        <v>29011.61</v>
+      </c>
+      <c r="I131">
+        <v>0.17</v>
+      </c>
+      <c r="J131">
+        <v>98</v>
+      </c>
+      <c r="K131">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="2">
+        <v>63600</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E132">
+        <v>14.27</v>
+      </c>
+      <c r="F132">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G132">
+        <v>21.05</v>
+      </c>
+      <c r="H132" s="4">
+        <v>52443.47</v>
+      </c>
+      <c r="I132">
+        <v>0.94</v>
+      </c>
+      <c r="J132">
+        <v>20</v>
+      </c>
+      <c r="K132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="2">
+        <v>41400</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E133">
+        <v>10.79</v>
+      </c>
+      <c r="F133">
+        <v>11.5</v>
+      </c>
+      <c r="G133">
+        <v>8.93</v>
+      </c>
+      <c r="H133" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I133">
+        <v>4.83</v>
+      </c>
+      <c r="J133">
+        <v>43</v>
+      </c>
+      <c r="K133">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2">
+        <v>99400</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E134">
+        <v>12.5</v>
+      </c>
+      <c r="F134">
+        <v>6.7</v>
+      </c>
+      <c r="G134">
+        <v>3.34</v>
+      </c>
+      <c r="H134" s="4">
+        <v>33456.339999999997</v>
+      </c>
+      <c r="I134">
+        <v>0.72</v>
+      </c>
+      <c r="J134">
+        <v>92</v>
+      </c>
+      <c r="K134">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="2">
+        <v>21350</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3.39E-2</v>
+      </c>
+      <c r="E135">
+        <v>12.8</v>
+      </c>
+      <c r="F135">
+        <v>11.61</v>
+      </c>
+      <c r="G135">
+        <v>12.93</v>
+      </c>
+      <c r="H135" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I135">
+        <v>4.66</v>
+      </c>
+      <c r="J135">
+        <v>95</v>
+      </c>
+      <c r="K135">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="2">
+        <v>117100</v>
+      </c>
+      <c r="D136" s="3">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="E136">
+        <v>16.75</v>
+      </c>
+      <c r="F136">
+        <v>8.9</v>
+      </c>
+      <c r="G136">
+        <v>21.73</v>
+      </c>
+      <c r="H136" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I136">
+        <v>0.31</v>
+      </c>
+      <c r="J136">
+        <v>63</v>
+      </c>
+      <c r="K136">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="2">
+        <v>69000</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="E137">
+        <v>23.36</v>
+      </c>
+      <c r="F137">
+        <v>18.75</v>
+      </c>
+      <c r="G137">
+        <v>18.11</v>
+      </c>
+      <c r="H137" s="4">
+        <v>27078.44</v>
+      </c>
+      <c r="I137">
+        <v>1.45</v>
+      </c>
+      <c r="J137">
+        <v>56</v>
+      </c>
+      <c r="K137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="2">
+        <v>86900</v>
+      </c>
+      <c r="D138" s="3">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="E138">
+        <v>12.76</v>
+      </c>
+      <c r="F138">
+        <v>5.28</v>
+      </c>
+      <c r="G138">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H138" s="4">
+        <v>69277.95</v>
+      </c>
+      <c r="I138">
+        <v>1.27</v>
+      </c>
+      <c r="J138">
+        <v>14</v>
+      </c>
+      <c r="K138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D139" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E139">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F139">
+        <v>12.02</v>
+      </c>
+      <c r="G139">
+        <v>6.83</v>
+      </c>
+      <c r="H139" s="4">
+        <v>56007.39</v>
+      </c>
+      <c r="I139">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J139">
+        <v>64</v>
+      </c>
+      <c r="K139">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" s="2">
+        <v>5950</v>
+      </c>
+      <c r="D140" s="3">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="E140">
+        <v>0.95</v>
+      </c>
+      <c r="F140">
+        <v>1.46</v>
+      </c>
+      <c r="G140">
+        <v>7.31</v>
+      </c>
+      <c r="H140" s="4">
+        <v>5894.87</v>
+      </c>
+      <c r="I140">
+        <v>3.36</v>
+      </c>
+      <c r="J140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="2">
+        <v>265500</v>
+      </c>
+      <c r="D141" s="3">
+        <v>-4.1500000000000002E-2</v>
+      </c>
+      <c r="E141">
+        <v>20.53</v>
+      </c>
+      <c r="F141">
+        <v>7.14</v>
+      </c>
+      <c r="G141">
+        <v>12.1</v>
+      </c>
+      <c r="H141" s="4">
+        <v>38587.71</v>
+      </c>
+      <c r="I141">
+        <v>0.87</v>
+      </c>
+      <c r="J141">
+        <v>91</v>
+      </c>
+      <c r="K141">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="2">
+        <v>33850</v>
+      </c>
+      <c r="D142" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E142">
+        <v>5.47</v>
+      </c>
+      <c r="F142">
+        <v>4.53</v>
+      </c>
+      <c r="G142">
+        <v>5.48</v>
+      </c>
+      <c r="H142" s="4">
+        <v>51318.41</v>
+      </c>
+      <c r="I142">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J142">
+        <v>12</v>
+      </c>
+      <c r="K142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="2">
+        <v>62400</v>
+      </c>
+      <c r="D143" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E143">
+        <v>26.54</v>
+      </c>
+      <c r="F143">
+        <v>25.87</v>
+      </c>
+      <c r="G143">
+        <v>31.27</v>
+      </c>
+      <c r="H143" s="4">
+        <v>7150.69</v>
+      </c>
+      <c r="I143">
+        <v>0.41</v>
+      </c>
+      <c r="J143">
+        <v>81</v>
+      </c>
+      <c r="K143">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="2">
+        <v>472500</v>
+      </c>
+      <c r="D144" s="3">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="E144">
+        <v>18.93</v>
+      </c>
+      <c r="F144">
+        <v>26.22</v>
+      </c>
+      <c r="G144">
+        <v>17.05</v>
+      </c>
+      <c r="H144" s="4">
+        <v>48689.31</v>
+      </c>
+      <c r="I144">
+        <v>0.23</v>
+      </c>
+      <c r="J144">
+        <v>87</v>
+      </c>
+      <c r="K144">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" s="2">
+        <v>50100</v>
+      </c>
+      <c r="D145" s="3">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="E145">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F145">
+        <v>18.93</v>
+      </c>
+      <c r="G145">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="H145" s="4">
+        <v>42209.02</v>
+      </c>
+      <c r="I145">
+        <v>2.99</v>
+      </c>
+      <c r="J145">
+        <v>28</v>
+      </c>
+      <c r="K145">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="2">
+        <v>56800</v>
+      </c>
+      <c r="D146" s="3">
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="E146">
+        <v>8.77</v>
+      </c>
+      <c r="F146">
+        <v>6.58</v>
+      </c>
+      <c r="G146">
+        <v>13.11</v>
+      </c>
+      <c r="H146" s="4">
+        <v>71836.88</v>
+      </c>
+      <c r="I146">
+        <v>2.82</v>
+      </c>
+      <c r="J146">
+        <v>65</v>
+      </c>
+      <c r="K146">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="2">
+        <v>125600</v>
+      </c>
+      <c r="D147" s="3">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="E147">
+        <v>6.36</v>
+      </c>
+      <c r="F147">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G147">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H147" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I147">
+        <v>2.87</v>
+      </c>
+      <c r="J147">
+        <v>85</v>
+      </c>
+      <c r="K147">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="2">
+        <v>485500</v>
+      </c>
+      <c r="D148" s="3">
+        <v>-4.4299999999999999E-2</v>
+      </c>
+      <c r="E148">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F148">
+        <v>41.01</v>
+      </c>
+      <c r="G148">
+        <v>29.72</v>
+      </c>
+      <c r="H148" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I148">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J148">
+        <v>93</v>
+      </c>
+      <c r="K148">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="2">
+        <v>151400</v>
+      </c>
+      <c r="D149" s="3">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>16.05</v>
+      </c>
+      <c r="G149">
+        <v>12.44</v>
+      </c>
+      <c r="H149" s="4">
+        <v>86463.38</v>
+      </c>
+      <c r="I149">
+        <v>1.65</v>
+      </c>
+      <c r="J149">
+        <v>44</v>
+      </c>
+      <c r="K149">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="2">
+        <v>118100</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E150">
+        <v>16.57</v>
+      </c>
+      <c r="F150">
+        <v>11.93</v>
+      </c>
+      <c r="G150">
+        <v>15.65</v>
+      </c>
+      <c r="H150" s="4">
+        <v>89245.59</v>
+      </c>
+      <c r="I150">
+        <v>2.12</v>
+      </c>
+      <c r="J150">
+        <v>45</v>
+      </c>
+      <c r="K150">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" s="2">
+        <v>55700</v>
+      </c>
+      <c r="D151" s="3">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="E151">
+        <v>19.62</v>
+      </c>
+      <c r="F151">
+        <v>5.18</v>
+      </c>
+      <c r="G151">
+        <v>10.95</v>
+      </c>
+      <c r="H151" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I151">
+        <v>0.63</v>
+      </c>
+      <c r="J151">
+        <v>77</v>
+      </c>
+      <c r="K151">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="2">
+        <v>22650</v>
+      </c>
+      <c r="D152" s="3">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="E152">
+        <v>16.27</v>
+      </c>
+      <c r="F152">
+        <v>17.22</v>
+      </c>
+      <c r="G152">
+        <v>16.46</v>
+      </c>
+      <c r="H152" s="4">
+        <v>25489.200000000001</v>
+      </c>
+      <c r="I152">
+        <v>1.55</v>
+      </c>
+      <c r="J152">
+        <v>11</v>
+      </c>
+      <c r="K152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" s="2">
+        <v>123900</v>
+      </c>
+      <c r="D153" s="3">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E153">
+        <v>4.04</v>
+      </c>
+      <c r="F153">
+        <v>4.42</v>
+      </c>
+      <c r="G153">
+        <v>3.46</v>
+      </c>
+      <c r="H153" s="4">
+        <v>229728.26</v>
+      </c>
+      <c r="I153">
+        <v>2.66</v>
+      </c>
+      <c r="J153">
+        <v>28</v>
+      </c>
+      <c r="K153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="2">
+        <v>129400</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E154">
+        <v>17.29</v>
+      </c>
+      <c r="F154">
+        <v>4.62</v>
+      </c>
+      <c r="G154">
+        <v>19.45</v>
+      </c>
+      <c r="H154" s="4">
+        <v>65325.84</v>
+      </c>
+      <c r="I154">
+        <v>3.17</v>
+      </c>
+      <c r="J154">
+        <v>26</v>
+      </c>
+      <c r="K154">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" s="2">
+        <v>72300</v>
+      </c>
+      <c r="D155" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E155">
+        <v>0.41</v>
+      </c>
+      <c r="F155">
+        <v>3.62</v>
+      </c>
+      <c r="G155">
+        <v>3.8</v>
+      </c>
+      <c r="H155" s="4">
+        <v>114859.11</v>
+      </c>
+      <c r="I155">
+        <v>1.59</v>
+      </c>
+      <c r="J155">
+        <v>14</v>
+      </c>
+      <c r="K155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="2">
+        <v>274000</v>
+      </c>
+      <c r="D156" s="3">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E156">
+        <v>9.84</v>
+      </c>
+      <c r="F156">
+        <v>5.67</v>
+      </c>
+      <c r="G156">
+        <v>6.06</v>
+      </c>
+      <c r="H156" s="4">
+        <v>334709.95</v>
+      </c>
+      <c r="I156">
+        <v>3.65</v>
+      </c>
+      <c r="J156">
+        <v>20</v>
+      </c>
+      <c r="K156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="2">
+        <v>940000</v>
+      </c>
+      <c r="D157" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E157">
+        <v>14.9</v>
+      </c>
+      <c r="F157">
+        <v>21.1</v>
+      </c>
+      <c r="G157">
+        <v>9.09</v>
+      </c>
+      <c r="H157" s="4">
+        <v>210765.09</v>
+      </c>
+      <c r="I157">
+        <v>0.53</v>
+      </c>
+      <c r="J157">
+        <v>100</v>
+      </c>
+      <c r="K157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" s="2">
+        <v>229000</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E158">
+        <v>5.46</v>
+      </c>
+      <c r="F158">
+        <v>0.94</v>
+      </c>
+      <c r="G158">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H158" s="4">
+        <v>226756.47</v>
+      </c>
+      <c r="I158">
+        <v>2.84</v>
+      </c>
+      <c r="J158">
+        <v>14</v>
+      </c>
+      <c r="K158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="2">
+        <v>18990</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E159">
+        <v>11.13</v>
+      </c>
+      <c r="F159">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G159">
+        <v>9.31</v>
+      </c>
+      <c r="H159" s="4">
+        <v>23973.89</v>
+      </c>
+      <c r="I159">
+        <v>5.27</v>
+      </c>
+      <c r="J159">
+        <v>59</v>
+      </c>
+      <c r="K159">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="2">
+        <v>171700</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E160">
+        <v>10.4</v>
+      </c>
+      <c r="F160">
+        <v>4.63</v>
+      </c>
+      <c r="G160">
+        <v>9.14</v>
+      </c>
+      <c r="H160" s="4">
+        <v>61347.82</v>
+      </c>
+      <c r="I160">
+        <v>1.04</v>
+      </c>
+      <c r="J160">
+        <v>60</v>
+      </c>
+      <c r="K160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="2">
         <v>22450</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D161" s="5">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E161">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F161">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G161">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H161" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
+      <c r="I161">
         <v>5.35</v>
       </c>
-      <c r="J30">
+      <c r="J161">
         <v>96</v>
       </c>
-      <c r="K30">
+      <c r="K161">
         <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="2">
+        <v>19160</v>
+      </c>
+      <c r="D162" s="3">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="E162">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F162">
+        <v>16.78</v>
+      </c>
+      <c r="G162">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="H162" s="4">
+        <v>16554.88</v>
+      </c>
+      <c r="I162">
+        <v>2.09</v>
+      </c>
+      <c r="J162">
+        <v>26</v>
+      </c>
+      <c r="K162">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="2">
+        <v>11090</v>
+      </c>
+      <c r="D163" s="3">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="E163">
+        <v>25.76</v>
+      </c>
+      <c r="F163">
+        <v>36.51</v>
+      </c>
+      <c r="G163">
+        <v>35.93</v>
+      </c>
+      <c r="H163" s="4">
+        <v>1503.21</v>
+      </c>
+      <c r="I163">
+        <v>0.45</v>
+      </c>
+      <c r="J163">
+        <v>69</v>
+      </c>
+      <c r="K163">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30963DD0-566D-44E3-B60F-47A12237D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9840F3-01B4-44A3-BE41-277DDDF310DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{23E4B045-7019-4C6D-B5B8-DF2310A22EE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DDCC0D93-F394-432D-9FE8-8334D3CE9BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="283">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,6 +54,24 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
@@ -66,16 +84,28 @@
     <t>기아</t>
   </si>
   <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
     <t>000810</t>
   </si>
   <si>
     <t>삼성화재</t>
   </si>
   <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>001040</t>
+  </si>
+  <si>
+    <t>CJ</t>
   </si>
   <si>
     <t>001430</t>
@@ -84,22 +114,112 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>002710</t>
+  </si>
+  <si>
+    <t>TCC스틸</t>
+  </si>
+  <si>
+    <t>002790</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽홀딩스</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>003030</t>
+  </si>
+  <si>
+    <t>세아제강지주</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>대웅</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
   </si>
   <si>
     <t>005380</t>
@@ -108,18 +228,180 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
     <t>005830</t>
   </si>
   <si>
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006040</t>
+  </si>
+  <si>
+    <t>동원산업</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>006360</t>
+  </si>
+  <si>
+    <t>GS건설</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>GS리테일</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>오뚜기</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>012630</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -138,12 +420,60 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>017960</t>
+  </si>
+  <si>
+    <t>한국카본</t>
+  </si>
+  <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>포스코DX</t>
+  </si>
+  <si>
     <t>024110</t>
   </si>
   <si>
     <t>기업은행</t>
   </si>
   <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>삼성E&amp;A</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
     <t>029780</t>
   </si>
   <si>
@@ -168,42 +498,234 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>HD현대인프라코어</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
+  </si>
+  <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
     <t>신한지주</t>
   </si>
   <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>TKG휴켐스</t>
+  </si>
+  <si>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>지역난방공사</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
     <t>105560</t>
   </si>
   <si>
     <t>KB금융</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>씨에스윈드</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>GKL</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -216,10 +738,136 @@
     <t>iM금융지주</t>
   </si>
   <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>덴티움</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
+  </si>
+  <si>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
     <t>175330</t>
   </si>
   <si>
     <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>더블유게임즈</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>코스맥스</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>HL만도</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>268280</t>
+  </si>
+  <si>
+    <t>미원에스씨</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>280360</t>
+  </si>
+  <si>
+    <t>롯데웰푸드</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>285130</t>
+  </si>
+  <si>
+    <t>SK케미칼</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>HS효성첨단소재</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
   </si>
   <si>
     <t>316140</t>
@@ -603,19 +1251,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E772BAD9-6F9E-499E-B005-8C22E7E3615C}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE4D8B-5BB3-46DA-BB2C-DE0130FF18B6}">
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
@@ -664,31 +1314,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="D2" s="3">
-        <v>4.65E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>13.54</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>16779.22</v>
       </c>
       <c r="I2">
-        <v>4.83</v>
+        <v>3.35</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,31 +1349,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>100000</v>
+        <v>106600</v>
       </c>
       <c r="D3" s="3">
-        <v>1.32E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>3.41</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>1.69</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>5.01</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>28112.080000000002</v>
       </c>
       <c r="I3">
-        <v>6.5</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,31 +1384,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>439500</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
+        <v>90400</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>6.58</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>3.63</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>5.98</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>185712.25</v>
       </c>
       <c r="I4">
-        <v>4.32</v>
+        <v>0.88</v>
       </c>
       <c r="J4">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -769,31 +1419,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31400</v>
+        <v>20700</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>10.33</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>5.8</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>47311.47</v>
       </c>
       <c r="I5">
-        <v>6.37</v>
+        <v>4.83</v>
       </c>
       <c r="J5">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,31 +1454,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31100</v>
+        <v>100000</v>
       </c>
       <c r="D6" s="3">
-        <v>1.14E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>19.09</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>17.12</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>18.03</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>141851.03</v>
       </c>
       <c r="I6">
-        <v>3.86</v>
+        <v>6.5</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,31 +1489,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24850</v>
+        <v>279000</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>31.06</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>41.75</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>6.34</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>114794.74</v>
       </c>
       <c r="I7">
-        <v>4.83</v>
+        <v>0.79</v>
       </c>
       <c r="J7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,31 +1524,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10200</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1E-3</v>
+        <v>439500</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>13.09</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>15.71</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>12.47</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>333812.02</v>
       </c>
       <c r="I8">
-        <v>5.05</v>
+        <v>4.32</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,31 +1559,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76900</v>
+        <v>95800</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.41E-2</v>
+        <v>-0.1195</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>7.19</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>3.32</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>106654.47</v>
       </c>
       <c r="I9">
-        <v>3.9</v>
+        <v>0.84</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,31 +1594,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>213500</v>
+        <v>158300</v>
       </c>
       <c r="D10" s="3">
-        <v>1.67E-2</v>
+        <v>-4.0599999999999997E-2</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>1.83</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>3.14</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>156136.04999999999</v>
       </c>
       <c r="I10">
-        <v>5.62</v>
+        <v>1.9</v>
       </c>
       <c r="J10">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,31 +1629,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>123700</v>
+        <v>31100</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.67E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E11">
-        <v>18.96</v>
+        <v>1.04</v>
       </c>
       <c r="F11">
-        <v>19.86</v>
+        <v>1.27</v>
       </c>
       <c r="G11">
-        <v>18.8</v>
+        <v>4.21</v>
       </c>
       <c r="H11" s="4">
-        <v>115980.87</v>
+        <v>52692.43</v>
       </c>
       <c r="I11">
-        <v>5.5</v>
+        <v>3.86</v>
       </c>
       <c r="J11">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,31 +1664,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20100</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
+        <v>23150</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>6.94</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>6.21</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>39272.870000000003</v>
       </c>
       <c r="I12">
-        <v>4.7300000000000004</v>
+        <v>3.67</v>
       </c>
       <c r="J12">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,31 +1699,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72500</v>
+        <v>23000</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.23E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>7.03</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>6.41</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>5.26</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>38104.980000000003</v>
       </c>
       <c r="I13">
-        <v>4.83</v>
+        <v>3.48</v>
       </c>
       <c r="J13">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,31 +1734,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57900</v>
+        <v>323000</v>
       </c>
       <c r="D14" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>6.08</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>3.12</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>3.63</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>738772.79</v>
       </c>
       <c r="I14">
-        <v>6.11</v>
+        <v>3.1</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,31 +1769,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83700</v>
+        <v>16880</v>
       </c>
       <c r="D15" s="3">
-        <v>-4.1200000000000001E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>0.15</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>7.09</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>9599.4</v>
       </c>
       <c r="I15">
-        <v>6.57</v>
+        <v>0.59</v>
       </c>
       <c r="J15">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="K15">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,31 +1804,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18530</v>
+        <v>32000</v>
       </c>
       <c r="D16" s="3">
-        <v>3.2000000000000002E-3</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>7.57</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>7.03</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>4.34</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>37119.57</v>
       </c>
       <c r="I16">
-        <v>5.75</v>
+        <v>1.03</v>
       </c>
       <c r="J16">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K16">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,31 +1839,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>50800</v>
+        <v>168800</v>
       </c>
       <c r="D17" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>12.99</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>12.99</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>17.53</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>89747.12</v>
       </c>
       <c r="I17">
-        <v>5.51</v>
+        <v>1.18</v>
       </c>
       <c r="J17">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,31 +1874,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20550</v>
+        <v>224500</v>
       </c>
       <c r="D18" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>2.25</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>9.16</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>13.33</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>494940.49</v>
       </c>
       <c r="I18">
-        <v>5.99</v>
+        <v>0.8</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,31 +1909,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56800</v>
+        <v>23200</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.6999999999999994E-3</v>
+        <v>-2.3199999999999998E-2</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>5.99</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>10.42</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>12.16</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>18716.599999999999</v>
       </c>
       <c r="I19">
-        <v>3.52</v>
+        <v>0.86</v>
       </c>
       <c r="J19">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,31 +1944,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14450</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>1362000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>46.11</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>27.7</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>119890.92</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>0.24</v>
       </c>
       <c r="J20">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,31 +1979,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>130200</v>
+        <v>1032000</v>
       </c>
       <c r="D21" s="3">
-        <v>2.3599999999999999E-2</v>
+        <v>-2.18E-2</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>5.45</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>7.63</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>3.82</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>3792078.51</v>
       </c>
       <c r="I21">
-        <v>4.1500000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,31 +2014,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41450</v>
+        <v>23400</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>2.18E-2</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>13.17</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>10.87</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>15.53</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I22">
-        <v>3.51</v>
+        <v>3.21</v>
       </c>
       <c r="J22">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,31 +2049,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>61700</v>
+        <v>82200</v>
       </c>
       <c r="D23" s="3">
-        <v>-8.0000000000000002E-3</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>2.16</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>8.5</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>5.18</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>174674.22</v>
       </c>
       <c r="I23">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="J23">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,31 +2084,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>48800</v>
+        <v>40700</v>
       </c>
       <c r="D24" s="3">
-        <v>1E-3</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>1.53</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>4.8</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>5.27</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>91911.37</v>
       </c>
       <c r="I24">
-        <v>5.53</v>
+        <v>3.44</v>
       </c>
       <c r="J24">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="K24">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,31 +2119,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>85800</v>
+        <v>192900</v>
       </c>
       <c r="D25" s="3">
-        <v>-3.49E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>2.54</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>5.41</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>459712.86</v>
       </c>
       <c r="I25">
-        <v>4.2</v>
+        <v>2.33</v>
       </c>
       <c r="J25">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,31 +2154,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>113500</v>
+        <v>404500</v>
       </c>
       <c r="D26" s="3">
-        <v>2.4400000000000002E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>6.17</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>7.77</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>6.2</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>456560.89</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="J26">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,31 +2189,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12880</v>
+        <v>69600</v>
       </c>
       <c r="D27" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>12.22</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>12.78</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>8.36</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>109944.94</v>
       </c>
       <c r="I27">
-        <v>5.05</v>
+        <v>1.58</v>
       </c>
       <c r="J27">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,31 +2224,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13130</v>
+        <v>16430</v>
       </c>
       <c r="D28" s="3">
-        <v>0.01</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>1.2</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>0.08</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>19840.59</v>
       </c>
       <c r="I28">
-        <v>3.81</v>
+        <v>3.04</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,31 +2259,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21450</v>
+        <v>132200</v>
       </c>
       <c r="D29" s="3">
-        <v>3.8699999999999998E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>3.99</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>8.24</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>146343.82</v>
       </c>
       <c r="I29">
-        <v>4.6399999999999997</v>
+        <v>2.57</v>
       </c>
       <c r="J29">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1644,30 +2294,3810 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
+        <v>213500</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="E30">
+        <v>12.43</v>
+      </c>
+      <c r="F30">
+        <v>11.52</v>
+      </c>
+      <c r="G30">
+        <v>11.82</v>
+      </c>
+      <c r="H30" s="4">
+        <v>411868.79</v>
+      </c>
+      <c r="I30">
+        <v>5.62</v>
+      </c>
+      <c r="J30">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>288000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G31">
+        <v>3.76</v>
+      </c>
+      <c r="H31" s="4">
+        <v>701236.07</v>
+      </c>
+      <c r="I31">
+        <v>3.47</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>123700</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="E32">
+        <v>18.96</v>
+      </c>
+      <c r="F32">
+        <v>19.86</v>
+      </c>
+      <c r="G32">
+        <v>18.8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>115980.87</v>
+      </c>
+      <c r="I32">
+        <v>5.5</v>
+      </c>
+      <c r="J32">
+        <v>93</v>
+      </c>
+      <c r="K32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="F33">
+        <v>17.22</v>
+      </c>
+      <c r="G33">
+        <v>15.37</v>
+      </c>
+      <c r="H33" s="4">
+        <v>50552.95</v>
+      </c>
+      <c r="I33">
+        <v>3.69</v>
+      </c>
+      <c r="J33">
+        <v>58</v>
+      </c>
+      <c r="K33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>60800</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F34">
+        <v>8.16</v>
+      </c>
+      <c r="G34">
+        <v>10.08</v>
+      </c>
+      <c r="H34" s="4">
+        <v>59026.51</v>
+      </c>
+      <c r="I34">
+        <v>2.38</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20100</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>8.73</v>
+      </c>
+      <c r="F35">
+        <v>10.35</v>
+      </c>
+      <c r="G35">
+        <v>6.85</v>
+      </c>
+      <c r="H35" s="4">
+        <v>23121.599999999999</v>
+      </c>
+      <c r="I35">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J35">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>52700</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.74</v>
+      </c>
+      <c r="F36">
+        <v>9.32</v>
+      </c>
+      <c r="G36">
+        <v>6.63</v>
+      </c>
+      <c r="H36" s="4">
+        <v>71192.42</v>
+      </c>
+      <c r="I36">
+        <v>2.09</v>
+      </c>
+      <c r="J36">
+        <v>89</v>
+      </c>
+      <c r="K36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>186500</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-0.11609999999999999</v>
+      </c>
+      <c r="E37">
+        <v>5.09</v>
+      </c>
+      <c r="F37">
+        <v>7.34</v>
+      </c>
+      <c r="G37">
+        <v>11.63</v>
+      </c>
+      <c r="H37" s="4">
+        <v>154845.78</v>
+      </c>
+      <c r="I37">
+        <v>0.88</v>
+      </c>
+      <c r="J37">
+        <v>82</v>
+      </c>
+      <c r="K37">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>21100</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E38">
+        <v>5.63</v>
+      </c>
+      <c r="F38">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.76</v>
+      </c>
+      <c r="H38" s="4">
+        <v>52771.03</v>
+      </c>
+      <c r="I38">
+        <v>1.42</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>21300</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>7.94</v>
+      </c>
+      <c r="F39">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G39">
+        <v>5.75</v>
+      </c>
+      <c r="H39" s="4">
+        <v>17214.37</v>
+      </c>
+      <c r="I39">
+        <v>1.17</v>
+      </c>
+      <c r="J39">
+        <v>79</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>17320</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.84</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="4">
+        <v>38078.410000000003</v>
+      </c>
+      <c r="I40">
+        <v>2.89</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>408500</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.85</v>
+      </c>
+      <c r="F41">
+        <v>6.54</v>
+      </c>
+      <c r="G41">
+        <v>10.64</v>
+      </c>
+      <c r="H41" s="4">
+        <v>591978.98</v>
+      </c>
+      <c r="I41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J41">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23200</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>19.78</v>
+      </c>
+      <c r="F42">
+        <v>17.25</v>
+      </c>
+      <c r="G42">
+        <v>23.29</v>
+      </c>
+      <c r="H42" s="4">
+        <v>31156.34</v>
+      </c>
+      <c r="I42">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J42">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43650</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="E43">
+        <v>7.3</v>
+      </c>
+      <c r="F43">
+        <v>11.86</v>
+      </c>
+      <c r="G43">
+        <v>10.77</v>
+      </c>
+      <c r="H43" s="4">
+        <v>12631</v>
+      </c>
+      <c r="I43">
+        <v>0.69</v>
+      </c>
+      <c r="J43">
+        <v>28</v>
+      </c>
+      <c r="K43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>134500</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E44">
+        <v>8.16</v>
+      </c>
+      <c r="F44">
+        <v>6.08</v>
+      </c>
+      <c r="G44">
+        <v>9.14</v>
+      </c>
+      <c r="H44" s="4">
+        <v>115453.7</v>
+      </c>
+      <c r="I44">
+        <v>1.34</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="E45">
+        <v>43.59</v>
+      </c>
+      <c r="F45">
+        <v>10.8</v>
+      </c>
+      <c r="G45">
+        <v>4.82</v>
+      </c>
+      <c r="H45" s="4">
+        <v>26759.11</v>
+      </c>
+      <c r="I45">
+        <v>18.96</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>344000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-5.7500000000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>11.16</v>
+      </c>
+      <c r="F46">
+        <v>17.64</v>
+      </c>
+      <c r="G46">
+        <v>3.73</v>
+      </c>
+      <c r="H46" s="4">
+        <v>160791.94</v>
+      </c>
+      <c r="I46">
+        <v>1.48</v>
+      </c>
+      <c r="J46">
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>140100</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="E47">
+        <v>13.17</v>
+      </c>
+      <c r="F47">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G47">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="H47" s="4">
+        <v>201114.72</v>
+      </c>
+      <c r="I47">
+        <v>3.82</v>
+      </c>
+      <c r="J47">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>284000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+      <c r="E48">
+        <v>13.44</v>
+      </c>
+      <c r="F48">
+        <v>15.22</v>
+      </c>
+      <c r="G48">
+        <v>10.67</v>
+      </c>
+      <c r="H48" s="4">
+        <v>61485.71</v>
+      </c>
+      <c r="I48">
+        <v>1.02</v>
+      </c>
+      <c r="J48">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>820000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F49">
+        <v>8.83</v>
+      </c>
+      <c r="G49">
+        <v>5.79</v>
+      </c>
+      <c r="H49" s="4">
+        <v>457097.14</v>
+      </c>
+      <c r="I49">
+        <v>2.13</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>152900</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E50">
+        <v>8.92</v>
+      </c>
+      <c r="F50">
+        <v>6.38</v>
+      </c>
+      <c r="G50">
+        <v>15.79</v>
+      </c>
+      <c r="H50" s="4">
+        <v>227100.85</v>
+      </c>
+      <c r="I50">
+        <v>1.37</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>23350</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E51">
+        <v>15.35</v>
+      </c>
+      <c r="F51">
+        <v>10.6</v>
+      </c>
+      <c r="G51">
+        <v>28.31</v>
+      </c>
+      <c r="H51" s="4">
+        <v>31729.16</v>
+      </c>
+      <c r="I51">
+        <v>2.57</v>
+      </c>
+      <c r="J51">
+        <v>39</v>
+      </c>
+      <c r="K51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>46900</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E52">
+        <v>3.45</v>
+      </c>
+      <c r="F52">
+        <v>10.6</v>
+      </c>
+      <c r="G52">
+        <v>2.72</v>
+      </c>
+      <c r="H52" s="4">
+        <v>136218.23000000001</v>
+      </c>
+      <c r="I52">
+        <v>2.35</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="K52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>118600</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.88</v>
+      </c>
+      <c r="F53">
+        <v>8.24</v>
+      </c>
+      <c r="G53">
+        <v>10.87</v>
+      </c>
+      <c r="H53" s="4">
+        <v>207745.28</v>
+      </c>
+      <c r="I53">
+        <v>1.85</v>
+      </c>
+      <c r="J53">
+        <v>17</v>
+      </c>
+      <c r="K53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>297000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="E54">
+        <v>9.35</v>
+      </c>
+      <c r="F54">
+        <v>8.9</v>
+      </c>
+      <c r="G54">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H54" s="4">
+        <v>509344.58</v>
+      </c>
+      <c r="I54">
+        <v>2.02</v>
+      </c>
+      <c r="J54">
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>819000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-2.3800000000000002E-2</v>
+      </c>
+      <c r="E55">
+        <v>53.94</v>
+      </c>
+      <c r="F55">
+        <v>7.76</v>
+      </c>
+      <c r="G55">
+        <v>28.78</v>
+      </c>
+      <c r="H55" s="4">
+        <v>86675.520000000004</v>
+      </c>
+      <c r="I55">
+        <v>0.43</v>
+      </c>
+      <c r="J55">
+        <v>83</v>
+      </c>
+      <c r="K55">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>22900</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-6.5299999999999997E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.65</v>
+      </c>
+      <c r="F56">
+        <v>10.55</v>
+      </c>
+      <c r="G56">
+        <v>3.33</v>
+      </c>
+      <c r="H56" s="4">
+        <v>47758.78</v>
+      </c>
+      <c r="I56">
+        <v>1.53</v>
+      </c>
+      <c r="J56">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>70600</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E57">
+        <v>10.85</v>
+      </c>
+      <c r="F57">
+        <v>10.27</v>
+      </c>
+      <c r="G57">
+        <v>11.06</v>
+      </c>
+      <c r="H57" s="4">
+        <v>46509.73</v>
+      </c>
+      <c r="I57">
+        <v>3.82</v>
+      </c>
+      <c r="J57">
+        <v>40</v>
+      </c>
+      <c r="K57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>164500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E58">
+        <v>13.48</v>
+      </c>
+      <c r="F58">
+        <v>14.82</v>
+      </c>
+      <c r="G58">
+        <v>15.98</v>
+      </c>
+      <c r="H58" s="4">
+        <v>90006.399999999994</v>
+      </c>
+      <c r="I58">
+        <v>1.28</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>32200</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E59">
+        <v>9.01</v>
+      </c>
+      <c r="F59">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G59">
+        <v>9.32</v>
+      </c>
+      <c r="H59" s="4">
+        <v>28302.22</v>
+      </c>
+      <c r="I59">
+        <v>1.86</v>
+      </c>
+      <c r="J59">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>72500</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="E60">
+        <v>12.89</v>
+      </c>
+      <c r="F60">
+        <v>13.62</v>
+      </c>
+      <c r="G60">
+        <v>9.44</v>
+      </c>
+      <c r="H60" s="4">
+        <v>81376.7</v>
+      </c>
+      <c r="I60">
+        <v>4.83</v>
+      </c>
+      <c r="J60">
+        <v>87</v>
+      </c>
+      <c r="K60">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>57900</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>10.83</v>
+      </c>
+      <c r="F61">
+        <v>12.4</v>
+      </c>
+      <c r="G61">
+        <v>9.48</v>
+      </c>
+      <c r="H61" s="4">
+        <v>55460.24</v>
+      </c>
+      <c r="I61">
+        <v>6.11</v>
+      </c>
+      <c r="J61">
+        <v>80</v>
+      </c>
+      <c r="K61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>83700</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-4.1200000000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>14.42</v>
+      </c>
+      <c r="F62">
+        <v>11.9</v>
+      </c>
+      <c r="G62">
+        <v>15.82</v>
+      </c>
+      <c r="H62" s="4">
+        <v>32483.7</v>
+      </c>
+      <c r="I62">
+        <v>6.57</v>
+      </c>
+      <c r="J62">
+        <v>88</v>
+      </c>
+      <c r="K62">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>25550</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>4.38</v>
+      </c>
+      <c r="F63">
+        <v>18.16</v>
+      </c>
+      <c r="G63">
+        <v>2.12</v>
+      </c>
+      <c r="H63" s="4">
+        <v>9937.43</v>
+      </c>
+      <c r="I63">
+        <v>0.51</v>
+      </c>
+      <c r="J63">
+        <v>93</v>
+      </c>
+      <c r="K63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>165000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-2.0199999999999999E-2</v>
+      </c>
+      <c r="E64">
+        <v>8.42</v>
+      </c>
+      <c r="F64">
+        <v>9.06</v>
+      </c>
+      <c r="G64">
+        <v>10.29</v>
+      </c>
+      <c r="H64" s="4">
+        <v>120847.71</v>
+      </c>
+      <c r="I64">
+        <v>1.76</v>
+      </c>
+      <c r="J64">
+        <v>46</v>
+      </c>
+      <c r="K64">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>101900</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4.19E-2</v>
+      </c>
+      <c r="E65">
+        <v>19.38</v>
+      </c>
+      <c r="F65">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G65">
+        <v>20.04</v>
+      </c>
+      <c r="H65" s="4">
+        <v>43969.66</v>
+      </c>
+      <c r="I65">
+        <v>2.58</v>
+      </c>
+      <c r="J65">
+        <v>95</v>
+      </c>
+      <c r="K65">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>23600</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="E66">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F66">
+        <v>16.29</v>
+      </c>
+      <c r="G66">
+        <v>16.95</v>
+      </c>
+      <c r="H66" s="4">
+        <v>3521.01</v>
+      </c>
+      <c r="I66">
+        <v>0.53</v>
+      </c>
+      <c r="J66">
+        <v>26</v>
+      </c>
+      <c r="K66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>18530</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E67">
+        <v>8.06</v>
+      </c>
+      <c r="F67">
+        <v>9.52</v>
+      </c>
+      <c r="G67">
+        <v>8.77</v>
+      </c>
+      <c r="H67" s="4">
+        <v>42663.82</v>
+      </c>
+      <c r="I67">
+        <v>5.75</v>
+      </c>
+      <c r="J67">
+        <v>96</v>
+      </c>
+      <c r="K67">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>30400</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="E68">
+        <v>9.52</v>
+      </c>
+      <c r="F68">
+        <v>10.5</v>
+      </c>
+      <c r="G68">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H68" s="4">
+        <v>16694.21</v>
+      </c>
+      <c r="I68">
+        <v>2.93</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22900</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F69">
+        <v>14.14</v>
+      </c>
+      <c r="G69">
+        <v>24.14</v>
+      </c>
+      <c r="H69" s="4">
+        <v>21889.49</v>
+      </c>
+      <c r="I69">
+        <v>2.88</v>
+      </c>
+      <c r="J69">
+        <v>46</v>
+      </c>
+      <c r="K69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>162200</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="E70">
+        <v>6.83</v>
+      </c>
+      <c r="F70">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G70">
+        <v>7.09</v>
+      </c>
+      <c r="H70" s="4">
+        <v>190073.45</v>
+      </c>
+      <c r="I70">
+        <v>1.6</v>
+      </c>
+      <c r="J70">
+        <v>84</v>
+      </c>
+      <c r="K70">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="E71">
+        <v>5.17</v>
+      </c>
+      <c r="F71">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G71">
+        <v>9.08</v>
+      </c>
+      <c r="H71" s="4">
+        <v>10523.01</v>
+      </c>
+      <c r="I71">
+        <v>3.16</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>50800</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>8.75</v>
+      </c>
+      <c r="G72">
+        <v>7.9</v>
+      </c>
+      <c r="H72" s="4">
+        <v>75767.48</v>
+      </c>
+      <c r="I72">
+        <v>5.51</v>
+      </c>
+      <c r="J72">
+        <v>95</v>
+      </c>
+      <c r="K72">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>20550</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <v>15.12</v>
+      </c>
+      <c r="F73">
+        <v>7.98</v>
+      </c>
+      <c r="G73">
+        <v>15.58</v>
+      </c>
+      <c r="H73" s="4">
+        <v>14481.01</v>
+      </c>
+      <c r="I73">
+        <v>5.99</v>
+      </c>
+      <c r="J73">
+        <v>40</v>
+      </c>
+      <c r="K73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>56800</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="E74">
+        <v>2.85</v>
+      </c>
+      <c r="F74">
+        <v>13.16</v>
+      </c>
+      <c r="G74">
+        <v>5.63</v>
+      </c>
+      <c r="H74" s="4">
+        <v>66926.62</v>
+      </c>
+      <c r="I74">
+        <v>3.52</v>
+      </c>
+      <c r="J74">
+        <v>98</v>
+      </c>
+      <c r="K74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14450</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F75">
+        <v>7.75</v>
+      </c>
+      <c r="G75">
+        <v>6.75</v>
+      </c>
+      <c r="H75" s="4">
+        <v>19799.21</v>
+      </c>
+      <c r="I75">
+        <v>4.5</v>
+      </c>
+      <c r="J75">
+        <v>74</v>
+      </c>
+      <c r="K75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>127400</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E76">
+        <v>5.76</v>
+      </c>
+      <c r="F76">
+        <v>8.44</v>
+      </c>
+      <c r="G76">
+        <v>5.33</v>
+      </c>
+      <c r="H76" s="4">
+        <v>158106.71</v>
+      </c>
+      <c r="I76">
+        <v>3.53</v>
+      </c>
+      <c r="J76">
+        <v>91</v>
+      </c>
+      <c r="K76">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>130200</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E77">
+        <v>12.66</v>
+      </c>
+      <c r="F77">
+        <v>11.17</v>
+      </c>
+      <c r="G77">
+        <v>11.14</v>
+      </c>
+      <c r="H77" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I77">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18920</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E78">
+        <v>12.08</v>
+      </c>
+      <c r="F78">
+        <v>7.85</v>
+      </c>
+      <c r="G78">
+        <v>8.39</v>
+      </c>
+      <c r="H78" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I78">
+        <v>6.18</v>
+      </c>
+      <c r="J78">
+        <v>34</v>
+      </c>
+      <c r="K78">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>252000</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-3.8199999999999998E-2</v>
+      </c>
+      <c r="E79">
+        <v>7.9</v>
+      </c>
+      <c r="F79">
+        <v>6.55</v>
+      </c>
+      <c r="G79">
+        <v>5.2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>172550.7</v>
+      </c>
+      <c r="I79">
+        <v>0.45</v>
+      </c>
+      <c r="J79">
+        <v>32</v>
+      </c>
+      <c r="K79">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>58700</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-2.3300000000000001E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F80">
+        <v>6.7</v>
+      </c>
+      <c r="G80">
+        <v>1.31</v>
+      </c>
+      <c r="H80" s="4">
+        <v>23415.79</v>
+      </c>
+      <c r="I80">
+        <v>0.12</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41450</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="E81">
+        <v>11.21</v>
+      </c>
+      <c r="F81">
+        <v>13.43</v>
+      </c>
+      <c r="G81">
+        <v>6.4</v>
+      </c>
+      <c r="H81" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I81">
+        <v>3.51</v>
+      </c>
+      <c r="J81">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2">
+        <v>201500</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="E82">
+        <v>2.99</v>
+      </c>
+      <c r="F82">
+        <v>4.97</v>
+      </c>
+      <c r="G82">
+        <v>7.77</v>
+      </c>
+      <c r="H82" s="4">
+        <v>170798.55</v>
+      </c>
+      <c r="I82">
+        <v>0.72</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>55200</v>
+      </c>
+      <c r="D83" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E83">
+        <v>47.19</v>
+      </c>
+      <c r="F83">
+        <v>29.12</v>
+      </c>
+      <c r="G83">
+        <v>5.07</v>
+      </c>
+      <c r="H83" s="4">
+        <v>11547.13</v>
+      </c>
+      <c r="I83">
+        <v>4.17</v>
+      </c>
+      <c r="J83">
+        <v>35</v>
+      </c>
+      <c r="K83">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>223000</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="E84">
+        <v>15.98</v>
+      </c>
+      <c r="F84">
+        <v>16.78</v>
+      </c>
+      <c r="G84">
+        <v>12.25</v>
+      </c>
+      <c r="H84" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I84">
+        <v>3.36</v>
+      </c>
+      <c r="J84">
+        <v>89</v>
+      </c>
+      <c r="K84">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2">
+        <v>13190</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="E85">
+        <v>5.91</v>
+      </c>
+      <c r="F85">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G85">
+        <v>11.52</v>
+      </c>
+      <c r="H85" s="4">
+        <v>9830.6</v>
+      </c>
+      <c r="I85">
+        <v>0.53</v>
+      </c>
+      <c r="J85">
+        <v>80</v>
+      </c>
+      <c r="K85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2">
+        <v>93900</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>27.43</v>
+      </c>
+      <c r="F86">
+        <v>41.22</v>
+      </c>
+      <c r="G86">
+        <v>36</v>
+      </c>
+      <c r="H86" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I86">
+        <v>0.77</v>
+      </c>
+      <c r="J86">
+        <v>47</v>
+      </c>
+      <c r="K86">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>49050</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="E87">
+        <v>8.14</v>
+      </c>
+      <c r="F87">
+        <v>12.3</v>
+      </c>
+      <c r="G87">
+        <v>12.43</v>
+      </c>
+      <c r="H87" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I87">
+        <v>3.16</v>
+      </c>
+      <c r="J87">
+        <v>43</v>
+      </c>
+      <c r="K87">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2">
+        <v>89400</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="E88">
+        <v>10.42</v>
+      </c>
+      <c r="F88">
+        <v>7.09</v>
+      </c>
+      <c r="G88">
+        <v>11.34</v>
+      </c>
+      <c r="H88" s="4">
+        <v>17308.830000000002</v>
+      </c>
+      <c r="I88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J88">
+        <v>85</v>
+      </c>
+      <c r="K88">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>57900</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="E89">
+        <v>13.26</v>
+      </c>
+      <c r="F89">
+        <v>3.52</v>
+      </c>
+      <c r="G89">
+        <v>11.65</v>
+      </c>
+      <c r="H89" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I89">
+        <v>4.26</v>
+      </c>
+      <c r="J89">
+        <v>81</v>
+      </c>
+      <c r="K89">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="2">
+        <v>324000</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E90">
+        <v>3.44</v>
+      </c>
+      <c r="F90">
+        <v>7.02</v>
+      </c>
+      <c r="G90">
+        <v>3.5</v>
+      </c>
+      <c r="H90" s="4">
+        <v>321747.28999999998</v>
+      </c>
+      <c r="I90">
+        <v>1.08</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2">
+        <v>95200</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="E91">
+        <v>10.4</v>
+      </c>
+      <c r="F91">
+        <v>44.75</v>
+      </c>
+      <c r="G91">
+        <v>6.6</v>
+      </c>
+      <c r="H91" s="4">
+        <v>15982.9</v>
+      </c>
+      <c r="I91">
+        <v>1.05</v>
+      </c>
+      <c r="J91">
+        <v>75</v>
+      </c>
+      <c r="K91">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2">
+        <v>61700</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E92">
+        <v>8.11</v>
+      </c>
+      <c r="F92">
+        <v>10.55</v>
+      </c>
+      <c r="G92">
+        <v>8.66</v>
+      </c>
+      <c r="H92" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I92">
+        <v>3.5</v>
+      </c>
+      <c r="J92">
+        <v>92</v>
+      </c>
+      <c r="K92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2">
+        <v>203000</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E93">
+        <v>21.85</v>
+      </c>
+      <c r="F93">
+        <v>29.95</v>
+      </c>
+      <c r="G93">
+        <v>15.32</v>
+      </c>
+      <c r="H93" s="4">
+        <v>20022.23</v>
+      </c>
+      <c r="I93">
+        <v>0.1</v>
+      </c>
+      <c r="J93">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2">
+        <v>76200</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E94">
+        <v>1.81</v>
+      </c>
+      <c r="F94">
+        <v>14.87</v>
+      </c>
+      <c r="G94">
+        <v>4.04</v>
+      </c>
+      <c r="H94" s="4">
+        <v>121832.79</v>
+      </c>
+      <c r="I94">
+        <v>1.31</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2">
+        <v>168900</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E95">
+        <v>2.46</v>
+      </c>
+      <c r="F95">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G95">
+        <v>6.96</v>
+      </c>
+      <c r="H95" s="4">
+        <v>81251.899999999994</v>
+      </c>
+      <c r="I95">
+        <v>0.44</v>
+      </c>
+      <c r="J95">
+        <v>22</v>
+      </c>
+      <c r="K95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="2">
+        <v>17030</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>9.09</v>
+      </c>
+      <c r="F96">
+        <v>6.72</v>
+      </c>
+      <c r="G96">
+        <v>12.5</v>
+      </c>
+      <c r="H96" s="4">
+        <v>21975.55</v>
+      </c>
+      <c r="I96">
+        <v>5.87</v>
+      </c>
+      <c r="J96">
+        <v>17</v>
+      </c>
+      <c r="K96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>145300</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E97">
+        <v>3.17</v>
+      </c>
+      <c r="F97">
+        <v>10.95</v>
+      </c>
+      <c r="G97">
+        <v>9.35</v>
+      </c>
+      <c r="H97" s="4">
+        <v>69657.210000000006</v>
+      </c>
+      <c r="I97">
+        <v>0.41</v>
+      </c>
+      <c r="J97">
+        <v>29</v>
+      </c>
+      <c r="K97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="2">
+        <v>138700</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="E98">
+        <v>11.54</v>
+      </c>
+      <c r="F98">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G98">
+        <v>9.6</v>
+      </c>
+      <c r="H98" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I98">
+        <v>2.87</v>
+      </c>
+      <c r="J98">
+        <v>90</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2">
+        <v>81400</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="E99">
+        <v>9.65</v>
+      </c>
+      <c r="F99">
+        <v>39.6</v>
+      </c>
+      <c r="G99">
+        <v>3.24</v>
+      </c>
+      <c r="H99" s="4">
+        <v>211621.18</v>
+      </c>
+      <c r="I99">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J99">
+        <v>87</v>
+      </c>
+      <c r="K99">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2">
+        <v>48800</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E100">
+        <v>4.12</v>
+      </c>
+      <c r="F100">
+        <v>5.83</v>
+      </c>
+      <c r="G100">
+        <v>11.01</v>
+      </c>
+      <c r="H100" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I100">
+        <v>5.53</v>
+      </c>
+      <c r="J100">
+        <v>68</v>
+      </c>
+      <c r="K100">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2">
+        <v>523000</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="E101">
+        <v>19.59</v>
+      </c>
+      <c r="F101">
+        <v>27.47</v>
+      </c>
+      <c r="G101">
+        <v>17.23</v>
+      </c>
+      <c r="H101" s="4">
+        <v>56705.61</v>
+      </c>
+      <c r="I101">
+        <v>0.46</v>
+      </c>
+      <c r="J101">
+        <v>80</v>
+      </c>
+      <c r="K101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2">
+        <v>38800</v>
+      </c>
+      <c r="D102" s="3">
+        <v>6.59E-2</v>
+      </c>
+      <c r="E102">
+        <v>4.3</v>
+      </c>
+      <c r="F102">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G102">
+        <v>8.75</v>
+      </c>
+      <c r="H102" s="4">
+        <v>34821.129999999997</v>
+      </c>
+      <c r="I102">
+        <v>3.09</v>
+      </c>
+      <c r="J102">
+        <v>37</v>
+      </c>
+      <c r="K102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2">
+        <v>138500</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1.54E-2</v>
+      </c>
+      <c r="E103">
+        <v>13.24</v>
+      </c>
+      <c r="F103">
+        <v>17.97</v>
+      </c>
+      <c r="G103">
+        <v>15.51</v>
+      </c>
+      <c r="H103" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I103">
+        <v>2.67</v>
+      </c>
+      <c r="J103">
+        <v>87</v>
+      </c>
+      <c r="K103">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2">
+        <v>85800</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-3.49E-2</v>
+      </c>
+      <c r="E104">
+        <v>9.11</v>
+      </c>
+      <c r="F104">
+        <v>10.47</v>
+      </c>
+      <c r="G104">
+        <v>9.4</v>
+      </c>
+      <c r="H104" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I104">
+        <v>4.2</v>
+      </c>
+      <c r="J104">
+        <v>92</v>
+      </c>
+      <c r="K104">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="2">
+        <v>136600</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E105">
+        <v>11.69</v>
+      </c>
+      <c r="F105">
+        <v>8.41</v>
+      </c>
+      <c r="G105">
+        <v>6.07</v>
+      </c>
+      <c r="H105" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.82</v>
+      </c>
+      <c r="J105">
+        <v>23</v>
+      </c>
+      <c r="K105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="2">
+        <v>266500</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="E106">
+        <v>1.97</v>
+      </c>
+      <c r="F106">
+        <v>0.9</v>
+      </c>
+      <c r="G106">
+        <v>5.59</v>
+      </c>
+      <c r="H106" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I106">
+        <v>2.25</v>
+      </c>
+      <c r="J106">
+        <v>17</v>
+      </c>
+      <c r="K106">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>113500</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E107">
+        <v>8.86</v>
+      </c>
+      <c r="F107">
+        <v>11.69</v>
+      </c>
+      <c r="G107">
+        <v>8.51</v>
+      </c>
+      <c r="H107" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I107">
+        <v>2.8</v>
+      </c>
+      <c r="J107">
+        <v>98</v>
+      </c>
+      <c r="K107">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2">
+        <v>62900</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-1.72E-2</v>
+      </c>
+      <c r="E108">
+        <v>12.32</v>
+      </c>
+      <c r="F108">
+        <v>9.67</v>
+      </c>
+      <c r="G108">
+        <v>18.72</v>
+      </c>
+      <c r="H108" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I108">
+        <v>2.23</v>
+      </c>
+      <c r="J108">
+        <v>89</v>
+      </c>
+      <c r="K108">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2">
+        <v>47700</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E109">
+        <v>13.92</v>
+      </c>
+      <c r="F109">
+        <v>32.17</v>
+      </c>
+      <c r="G109">
+        <v>5.44</v>
+      </c>
+      <c r="H109" s="4">
+        <v>29720.77</v>
+      </c>
+      <c r="I109">
+        <v>2.1</v>
+      </c>
+      <c r="J109">
+        <v>23</v>
+      </c>
+      <c r="K109">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="2">
+        <v>15410</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="E110">
+        <v>8.01</v>
+      </c>
+      <c r="F110">
+        <v>15.53</v>
+      </c>
+      <c r="G110">
+        <v>4.37</v>
+      </c>
+      <c r="H110" s="4">
+        <v>6725.81</v>
+      </c>
+      <c r="I110">
+        <v>1.83</v>
+      </c>
+      <c r="J110">
+        <v>47</v>
+      </c>
+      <c r="K110">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="2">
+        <v>46050</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E111">
+        <v>3.06</v>
+      </c>
+      <c r="F111">
+        <v>1.78</v>
+      </c>
+      <c r="G111">
+        <v>3.92</v>
+      </c>
+      <c r="H111" s="4">
+        <v>121115.98</v>
+      </c>
+      <c r="I111">
+        <v>2.82</v>
+      </c>
+      <c r="J111">
+        <v>23</v>
+      </c>
+      <c r="K111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="2">
+        <v>289000</v>
+      </c>
+      <c r="D112" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E112">
+        <v>11.89</v>
+      </c>
+      <c r="F112">
+        <v>15.5</v>
+      </c>
+      <c r="G112">
+        <v>12.6</v>
+      </c>
+      <c r="H112" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I112">
+        <v>0.43</v>
+      </c>
+      <c r="J112">
+        <v>39</v>
+      </c>
+      <c r="K112">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="2">
+        <v>115800</v>
+      </c>
+      <c r="D113" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E113">
+        <v>23.44</v>
+      </c>
+      <c r="F113">
+        <v>24.59</v>
+      </c>
+      <c r="G113">
+        <v>27.89</v>
+      </c>
+      <c r="H113" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I113">
+        <v>1.17</v>
+      </c>
+      <c r="J113">
+        <v>90</v>
+      </c>
+      <c r="K113">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2">
+        <v>12880</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E114">
+        <v>6.96</v>
+      </c>
+      <c r="F114">
+        <v>6.28</v>
+      </c>
+      <c r="G114">
+        <v>7.18</v>
+      </c>
+      <c r="H114" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I114">
+        <v>5.05</v>
+      </c>
+      <c r="J114">
+        <v>98</v>
+      </c>
+      <c r="K114">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="2">
+        <v>13130</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E115">
+        <v>3.6</v>
+      </c>
+      <c r="F115">
+        <v>10.34</v>
+      </c>
+      <c r="G115">
+        <v>5.91</v>
+      </c>
+      <c r="H115" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I115">
+        <v>3.81</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+      <c r="K115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2">
+        <v>63800</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="E116">
+        <v>14.27</v>
+      </c>
+      <c r="F116">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G116">
+        <v>21.05</v>
+      </c>
+      <c r="H116" s="4">
+        <v>52443.47</v>
+      </c>
+      <c r="I116">
+        <v>0.94</v>
+      </c>
+      <c r="J116">
+        <v>20</v>
+      </c>
+      <c r="K116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="2">
+        <v>41450</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="E117">
+        <v>10.79</v>
+      </c>
+      <c r="F117">
+        <v>11.5</v>
+      </c>
+      <c r="G117">
+        <v>8.93</v>
+      </c>
+      <c r="H117" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I117">
+        <v>4.83</v>
+      </c>
+      <c r="J117">
+        <v>43</v>
+      </c>
+      <c r="K117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="2">
+        <v>99500</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E118">
+        <v>12.5</v>
+      </c>
+      <c r="F118">
+        <v>6.7</v>
+      </c>
+      <c r="G118">
+        <v>3.34</v>
+      </c>
+      <c r="H118" s="4">
+        <v>33456.339999999997</v>
+      </c>
+      <c r="I118">
+        <v>0.72</v>
+      </c>
+      <c r="J118">
+        <v>93</v>
+      </c>
+      <c r="K118">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="2">
+        <v>21450</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E119">
+        <v>12.8</v>
+      </c>
+      <c r="F119">
+        <v>11.61</v>
+      </c>
+      <c r="G119">
+        <v>12.93</v>
+      </c>
+      <c r="H119" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I119">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J119">
+        <v>95</v>
+      </c>
+      <c r="K119">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="2">
+        <v>117000</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="E120">
+        <v>16.75</v>
+      </c>
+      <c r="F120">
+        <v>8.9</v>
+      </c>
+      <c r="G120">
+        <v>21.73</v>
+      </c>
+      <c r="H120" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I120">
+        <v>0.31</v>
+      </c>
+      <c r="J120">
+        <v>63</v>
+      </c>
+      <c r="K120">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="2">
+        <v>86800</v>
+      </c>
+      <c r="D121" s="3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="E121">
+        <v>12.76</v>
+      </c>
+      <c r="F121">
+        <v>5.28</v>
+      </c>
+      <c r="G121">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H121" s="4">
+        <v>69277.95</v>
+      </c>
+      <c r="I121">
+        <v>1.27</v>
+      </c>
+      <c r="J121">
+        <v>14</v>
+      </c>
+      <c r="K121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D122" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E122">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F122">
+        <v>12.02</v>
+      </c>
+      <c r="G122">
+        <v>6.83</v>
+      </c>
+      <c r="H122" s="4">
+        <v>56007.39</v>
+      </c>
+      <c r="I122">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J122">
+        <v>64</v>
+      </c>
+      <c r="K122">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="2">
+        <v>265000</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+      <c r="E123">
+        <v>20.53</v>
+      </c>
+      <c r="F123">
+        <v>7.14</v>
+      </c>
+      <c r="G123">
+        <v>12.1</v>
+      </c>
+      <c r="H123" s="4">
+        <v>38587.71</v>
+      </c>
+      <c r="I123">
+        <v>0.87</v>
+      </c>
+      <c r="J123">
+        <v>91</v>
+      </c>
+      <c r="K123">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="2">
+        <v>33900</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E124">
+        <v>5.47</v>
+      </c>
+      <c r="F124">
+        <v>4.53</v>
+      </c>
+      <c r="G124">
+        <v>5.48</v>
+      </c>
+      <c r="H124" s="4">
+        <v>51318.41</v>
+      </c>
+      <c r="I124">
+        <v>2.06</v>
+      </c>
+      <c r="J124">
+        <v>12</v>
+      </c>
+      <c r="K124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="2">
+        <v>56800</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="E125">
+        <v>8.77</v>
+      </c>
+      <c r="F125">
+        <v>6.58</v>
+      </c>
+      <c r="G125">
+        <v>13.11</v>
+      </c>
+      <c r="H125" s="4">
+        <v>71836.88</v>
+      </c>
+      <c r="I125">
+        <v>2.82</v>
+      </c>
+      <c r="J125">
+        <v>65</v>
+      </c>
+      <c r="K125">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="2">
+        <v>125400</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="E126">
+        <v>6.36</v>
+      </c>
+      <c r="F126">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G126">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H126" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I126">
+        <v>2.87</v>
+      </c>
+      <c r="J126">
+        <v>85</v>
+      </c>
+      <c r="K126">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="2">
+        <v>487500</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-4.0399999999999998E-2</v>
+      </c>
+      <c r="E127">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F127">
+        <v>41.01</v>
+      </c>
+      <c r="G127">
+        <v>29.72</v>
+      </c>
+      <c r="H127" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I127">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J127">
+        <v>94</v>
+      </c>
+      <c r="K127">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="2">
+        <v>151400</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>16.05</v>
+      </c>
+      <c r="G128">
+        <v>12.44</v>
+      </c>
+      <c r="H128" s="4">
+        <v>86463.38</v>
+      </c>
+      <c r="I128">
+        <v>1.65</v>
+      </c>
+      <c r="J128">
+        <v>44</v>
+      </c>
+      <c r="K128">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="2">
+        <v>118500</v>
+      </c>
+      <c r="D129" s="3">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="E129">
+        <v>16.57</v>
+      </c>
+      <c r="F129">
+        <v>11.93</v>
+      </c>
+      <c r="G129">
+        <v>15.65</v>
+      </c>
+      <c r="H129" s="4">
+        <v>89245.59</v>
+      </c>
+      <c r="I129">
+        <v>2.11</v>
+      </c>
+      <c r="J129">
+        <v>45</v>
+      </c>
+      <c r="K129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="2">
+        <v>55800</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-4.2900000000000001E-2</v>
+      </c>
+      <c r="E130">
+        <v>19.62</v>
+      </c>
+      <c r="F130">
+        <v>5.18</v>
+      </c>
+      <c r="G130">
+        <v>10.95</v>
+      </c>
+      <c r="H130" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I130">
+        <v>0.63</v>
+      </c>
+      <c r="J130">
+        <v>77</v>
+      </c>
+      <c r="K130">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="2">
+        <v>124000</v>
+      </c>
+      <c r="D131" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="E131">
+        <v>4.04</v>
+      </c>
+      <c r="F131">
+        <v>4.42</v>
+      </c>
+      <c r="G131">
+        <v>3.46</v>
+      </c>
+      <c r="H131" s="4">
+        <v>229728.26</v>
+      </c>
+      <c r="I131">
+        <v>2.66</v>
+      </c>
+      <c r="J131">
+        <v>28</v>
+      </c>
+      <c r="K131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="2">
+        <v>129800</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="E132">
+        <v>17.29</v>
+      </c>
+      <c r="F132">
+        <v>4.62</v>
+      </c>
+      <c r="G132">
+        <v>19.45</v>
+      </c>
+      <c r="H132" s="4">
+        <v>65325.84</v>
+      </c>
+      <c r="I132">
+        <v>3.16</v>
+      </c>
+      <c r="J132">
+        <v>26</v>
+      </c>
+      <c r="K132">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="2">
+        <v>72300</v>
+      </c>
+      <c r="D133" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E133">
+        <v>0.41</v>
+      </c>
+      <c r="F133">
+        <v>3.62</v>
+      </c>
+      <c r="G133">
+        <v>3.8</v>
+      </c>
+      <c r="H133" s="4">
+        <v>114859.11</v>
+      </c>
+      <c r="I133">
+        <v>1.59</v>
+      </c>
+      <c r="J133">
+        <v>14</v>
+      </c>
+      <c r="K133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2">
+        <v>274000</v>
+      </c>
+      <c r="D134" s="3">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E134">
+        <v>9.84</v>
+      </c>
+      <c r="F134">
+        <v>5.67</v>
+      </c>
+      <c r="G134">
+        <v>6.06</v>
+      </c>
+      <c r="H134" s="4">
+        <v>334709.95</v>
+      </c>
+      <c r="I134">
+        <v>3.65</v>
+      </c>
+      <c r="J134">
+        <v>20</v>
+      </c>
+      <c r="K134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="2">
+        <v>938000</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="E135">
+        <v>14.9</v>
+      </c>
+      <c r="F135">
+        <v>21.1</v>
+      </c>
+      <c r="G135">
+        <v>9.09</v>
+      </c>
+      <c r="H135" s="4">
+        <v>210765.09</v>
+      </c>
+      <c r="I135">
+        <v>0.53</v>
+      </c>
+      <c r="J135">
+        <v>99</v>
+      </c>
+      <c r="K135">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="2">
+        <v>229500</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="E136">
+        <v>5.46</v>
+      </c>
+      <c r="F136">
+        <v>0.94</v>
+      </c>
+      <c r="G136">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H136" s="4">
+        <v>226756.47</v>
+      </c>
+      <c r="I136">
+        <v>2.83</v>
+      </c>
+      <c r="J136">
+        <v>14</v>
+      </c>
+      <c r="K136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="2">
+        <v>19030</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E137">
+        <v>11.13</v>
+      </c>
+      <c r="F137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G137">
+        <v>9.31</v>
+      </c>
+      <c r="H137" s="4">
+        <v>23973.89</v>
+      </c>
+      <c r="I137">
+        <v>5.25</v>
+      </c>
+      <c r="J137">
+        <v>59</v>
+      </c>
+      <c r="K137">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="2">
         <v>22600</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D138" s="3">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E30">
+      <c r="E138">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F138">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G138">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H138" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
+      <c r="I138">
         <v>5.31</v>
       </c>
-      <c r="J30">
+      <c r="J138">
         <v>97</v>
       </c>
-      <c r="K30">
+      <c r="K138">
         <v>97</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354CA7CF-8A0D-445D-9515-D4B958CA4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B07359B-889E-4234-A8B4-695DCA7BBD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8EB4076F-732E-498B-828A-D40F90DBC993}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C049E348-C612-4810-AF1F-5D143B886A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,118 +54,178 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
-    <t>002380</t>
-  </si>
-  <si>
-    <t>KCC</t>
-  </si>
-  <si>
-    <t>004000</t>
-  </si>
-  <si>
-    <t>롯데정밀화학</t>
-  </si>
-  <si>
-    <t>005290</t>
-  </si>
-  <si>
-    <t>동진쎄미켐</t>
-  </si>
-  <si>
-    <t>006120</t>
-  </si>
-  <si>
-    <t>SK디스커버리</t>
-  </si>
-  <si>
-    <t>011780</t>
-  </si>
-  <si>
-    <t>금호석유화학</t>
-  </si>
-  <si>
-    <t>014680</t>
-  </si>
-  <si>
-    <t>한솔케미칼</t>
-  </si>
-  <si>
-    <t>014830</t>
-  </si>
-  <si>
-    <t>유니드</t>
-  </si>
-  <si>
-    <t>017940</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>017960</t>
-  </si>
-  <si>
-    <t>한국카본</t>
-  </si>
-  <si>
-    <t>018670</t>
-  </si>
-  <si>
-    <t>SK가스</t>
-  </si>
-  <si>
-    <t>036830</t>
-  </si>
-  <si>
-    <t>솔브레인홀딩스</t>
-  </si>
-  <si>
-    <t>069260</t>
-  </si>
-  <si>
-    <t>TKG휴켐스</t>
-  </si>
-  <si>
-    <t>120110</t>
-  </si>
-  <si>
-    <t>코오롱인더</t>
-  </si>
-  <si>
-    <t>178920</t>
-  </si>
-  <si>
-    <t>PI첨단소재</t>
-  </si>
-  <si>
-    <t>267250</t>
-  </si>
-  <si>
-    <t>HD현대</t>
-  </si>
-  <si>
-    <t>281740</t>
-  </si>
-  <si>
-    <t>레이크머티리얼즈</t>
-  </si>
-  <si>
-    <t>285130</t>
-  </si>
-  <si>
-    <t>SK케미칼</t>
-  </si>
-  <si>
-    <t>298020</t>
-  </si>
-  <si>
-    <t>효성티앤씨</t>
-  </si>
-  <si>
-    <t>298050</t>
-  </si>
-  <si>
-    <t>HS효성첨단소재</t>
+    <t>000240</t>
+  </si>
+  <si>
+    <t>한국앤컴퍼니</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>001120</t>
+  </si>
+  <si>
+    <t>LX인터내셔널</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>003540</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>효성</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>DB손해보험</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>현대엘리베이터</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>316140</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
   </si>
 </sst>
 </file>
@@ -543,15 +603,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541093E-9AE1-420A-8566-3E678FDDCFCA}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67DA74D-457A-4C01-81A9-B7A79893805C}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -604,31 +664,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>323000</v>
+        <v>20700</v>
       </c>
       <c r="D2" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>4.65E-2</v>
       </c>
       <c r="E2">
-        <v>6.08</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F2">
-        <v>3.12</v>
+        <v>10.33</v>
       </c>
       <c r="G2">
-        <v>3.63</v>
+        <v>5.8</v>
       </c>
       <c r="H2" s="4">
-        <v>738772.79</v>
+        <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>4.83</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -639,31 +699,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>40700</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="3">
-        <v>1.8800000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E3">
-        <v>1.53</v>
+        <v>19.09</v>
       </c>
       <c r="F3">
-        <v>4.8</v>
+        <v>17.12</v>
       </c>
       <c r="G3">
-        <v>5.27</v>
+        <v>18.03</v>
       </c>
       <c r="H3" s="4">
-        <v>91911.37</v>
+        <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>3.44</v>
+        <v>6.5</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -674,31 +734,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>31850</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1.55E-2</v>
+        <v>439500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>17.170000000000002</v>
+        <v>13.09</v>
       </c>
       <c r="F4">
-        <v>14.85</v>
+        <v>15.71</v>
       </c>
       <c r="G4">
-        <v>19.88</v>
+        <v>12.47</v>
       </c>
       <c r="H4" s="4">
-        <v>19885.900000000001</v>
+        <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>0.63</v>
+        <v>4.32</v>
       </c>
       <c r="J4">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -709,31 +769,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>60300</v>
+        <v>31400</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.58E-2</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.88</v>
+        <v>7.12</v>
       </c>
       <c r="F5">
-        <v>6.56</v>
+        <v>14.97</v>
       </c>
       <c r="G5">
-        <v>7.95</v>
+        <v>12.61</v>
       </c>
       <c r="H5" s="4">
-        <v>145500.82</v>
+        <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>2.82</v>
+        <v>6.37</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -744,31 +804,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>118600</v>
+        <v>31100</v>
       </c>
       <c r="D6" s="3">
-        <v>3.85E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E6">
-        <v>5.88</v>
+        <v>1.04</v>
       </c>
       <c r="F6">
-        <v>8.24</v>
+        <v>1.27</v>
       </c>
       <c r="G6">
-        <v>10.87</v>
+        <v>4.21</v>
       </c>
       <c r="H6" s="4">
-        <v>207745.28</v>
+        <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>1.85</v>
+        <v>3.86</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -779,31 +839,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>164500</v>
+        <v>24850</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>13.48</v>
+        <v>4.57</v>
       </c>
       <c r="F7">
-        <v>14.82</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G7">
-        <v>15.98</v>
+        <v>4.55</v>
       </c>
       <c r="H7" s="4">
-        <v>90006.399999999994</v>
+        <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>1.28</v>
+        <v>4.83</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -814,31 +874,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>95500</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
+        <v>10200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>7.96</v>
+        <v>9.44</v>
       </c>
       <c r="F8">
-        <v>8.77</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>7.62</v>
+        <v>9.86</v>
       </c>
       <c r="H8" s="4">
-        <v>151792.60999999999</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>1.88</v>
+        <v>5.05</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -849,31 +909,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>84700</v>
+        <v>76900</v>
       </c>
       <c r="D9" s="3">
-        <v>1.5599999999999999E-2</v>
+        <v>-1.41E-2</v>
       </c>
       <c r="E9">
-        <v>3.82</v>
+        <v>19.62</v>
       </c>
       <c r="F9">
-        <v>13.65</v>
+        <v>12.01</v>
       </c>
       <c r="G9">
-        <v>9.34</v>
+        <v>6.74</v>
       </c>
       <c r="H9" s="4">
-        <v>251772.79</v>
+        <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>4.07</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -884,31 +944,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>25550</v>
+        <v>213500</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.1599999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E10">
-        <v>4.38</v>
+        <v>12.43</v>
       </c>
       <c r="F10">
-        <v>18.16</v>
+        <v>11.52</v>
       </c>
       <c r="G10">
-        <v>2.12</v>
+        <v>11.82</v>
       </c>
       <c r="H10" s="4">
-        <v>9937.43</v>
+        <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>0.51</v>
+        <v>5.62</v>
       </c>
       <c r="J10">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -919,31 +979,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>280500</v>
+        <v>123700</v>
       </c>
       <c r="D11" s="3">
-        <v>2.1899999999999999E-2</v>
+        <v>-1.67E-2</v>
       </c>
       <c r="E11">
-        <v>6.74</v>
+        <v>18.96</v>
       </c>
       <c r="F11">
-        <v>12.74</v>
+        <v>19.86</v>
       </c>
       <c r="G11">
-        <v>10.37</v>
+        <v>18.8</v>
       </c>
       <c r="H11" s="4">
-        <v>300046.02</v>
+        <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="J11">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -954,31 +1014,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>41150</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7.3000000000000001E-3</v>
+        <v>20100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4.62</v>
+        <v>8.73</v>
       </c>
       <c r="F12">
-        <v>3.54</v>
+        <v>10.35</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>6.85</v>
       </c>
       <c r="H12" s="4">
-        <v>63361.86</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>0.53</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J12">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -989,31 +1049,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>17030</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
+        <v>72500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.23E-2</v>
       </c>
       <c r="E13">
-        <v>9.09</v>
+        <v>12.89</v>
       </c>
       <c r="F13">
-        <v>6.72</v>
+        <v>13.62</v>
       </c>
       <c r="G13">
-        <v>12.5</v>
+        <v>9.44</v>
       </c>
       <c r="H13" s="4">
-        <v>21975.55</v>
+        <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>5.87</v>
+        <v>4.83</v>
       </c>
       <c r="J13">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1024,31 +1084,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>46050</v>
+        <v>57900</v>
       </c>
       <c r="D14" s="3">
-        <v>2.1100000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E14">
-        <v>3.06</v>
+        <v>10.83</v>
       </c>
       <c r="F14">
-        <v>1.78</v>
+        <v>12.4</v>
       </c>
       <c r="G14">
-        <v>3.92</v>
+        <v>9.48</v>
       </c>
       <c r="H14" s="4">
-        <v>121115.98</v>
+        <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>2.82</v>
+        <v>6.11</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1059,31 +1119,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>18240</v>
+        <v>83700</v>
       </c>
       <c r="D15" s="3">
-        <v>8.3000000000000001E-3</v>
+        <v>-4.1200000000000001E-2</v>
       </c>
       <c r="E15">
-        <v>7.16</v>
+        <v>14.42</v>
       </c>
       <c r="F15">
-        <v>7.21</v>
+        <v>11.9</v>
       </c>
       <c r="G15">
-        <v>6.77</v>
+        <v>15.82</v>
       </c>
       <c r="H15" s="4">
-        <v>11363.58</v>
+        <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>1.92</v>
+        <v>6.57</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1094,31 +1154,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>125400</v>
+        <v>18530</v>
       </c>
       <c r="D16" s="3">
-        <v>-3.9100000000000003E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E16">
-        <v>6.36</v>
+        <v>8.06</v>
       </c>
       <c r="F16">
-        <v>9.7799999999999994</v>
+        <v>9.52</v>
       </c>
       <c r="G16">
-        <v>10.119999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="H16" s="4">
-        <v>123365.06</v>
+        <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>2.87</v>
+        <v>5.75</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K16">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1129,31 +1189,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>11900</v>
+        <v>50800</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.24E-2</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>17.38</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>5.48</v>
+        <v>8.75</v>
       </c>
       <c r="G17">
-        <v>26.49</v>
+        <v>7.9</v>
       </c>
       <c r="H17" s="4">
-        <v>1959.34</v>
+        <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>0.42</v>
+        <v>5.51</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="K17">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1164,31 +1224,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>72300</v>
+        <v>20550</v>
       </c>
       <c r="D18" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>0.41</v>
+        <v>15.12</v>
       </c>
       <c r="F18">
-        <v>3.62</v>
+        <v>7.98</v>
       </c>
       <c r="G18">
-        <v>3.8</v>
+        <v>15.58</v>
       </c>
       <c r="H18" s="4">
-        <v>114859.11</v>
+        <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>1.59</v>
+        <v>5.99</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1199,31 +1259,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>274000</v>
+        <v>56800</v>
       </c>
       <c r="D19" s="3">
-        <v>6.8199999999999997E-2</v>
+        <v>-8.6999999999999994E-3</v>
       </c>
       <c r="E19">
-        <v>9.84</v>
+        <v>2.85</v>
       </c>
       <c r="F19">
-        <v>5.67</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>6.06</v>
+        <v>5.63</v>
       </c>
       <c r="H19" s="4">
-        <v>334709.95</v>
+        <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.65</v>
+        <v>3.52</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1234,31 +1294,381 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>229500</v>
+        <v>14450</v>
       </c>
       <c r="D20" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E20">
-        <v>5.46</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>0.94</v>
+        <v>7.75</v>
       </c>
       <c r="G20">
-        <v>10.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="H20" s="4">
-        <v>226756.47</v>
+        <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>2.83</v>
+        <v>4.5</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>14</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2">
+        <v>130200</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>12.66</v>
+      </c>
+      <c r="F21">
+        <v>11.17</v>
+      </c>
+      <c r="G21">
+        <v>11.14</v>
+      </c>
+      <c r="H21" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I21">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41450</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="E22">
+        <v>11.21</v>
+      </c>
+      <c r="F22">
+        <v>13.43</v>
+      </c>
+      <c r="G22">
+        <v>6.4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I22">
+        <v>3.51</v>
+      </c>
+      <c r="J22">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2">
+        <v>61700</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E23">
+        <v>8.11</v>
+      </c>
+      <c r="F23">
+        <v>10.55</v>
+      </c>
+      <c r="G23">
+        <v>8.66</v>
+      </c>
+      <c r="H23" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I23">
+        <v>3.5</v>
+      </c>
+      <c r="J23">
+        <v>92</v>
+      </c>
+      <c r="K23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
+        <v>48800</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E24">
+        <v>4.12</v>
+      </c>
+      <c r="F24">
+        <v>5.83</v>
+      </c>
+      <c r="G24">
+        <v>11.01</v>
+      </c>
+      <c r="H24" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I24">
+        <v>5.53</v>
+      </c>
+      <c r="J24">
+        <v>68</v>
+      </c>
+      <c r="K24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>85800</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-3.49E-2</v>
+      </c>
+      <c r="E25">
+        <v>9.11</v>
+      </c>
+      <c r="F25">
+        <v>10.47</v>
+      </c>
+      <c r="G25">
+        <v>9.4</v>
+      </c>
+      <c r="H25" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I25">
+        <v>4.2</v>
+      </c>
+      <c r="J25">
+        <v>92</v>
+      </c>
+      <c r="K25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2">
+        <v>113500</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>8.86</v>
+      </c>
+      <c r="F26">
+        <v>11.69</v>
+      </c>
+      <c r="G26">
+        <v>8.51</v>
+      </c>
+      <c r="H26" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I26">
+        <v>2.8</v>
+      </c>
+      <c r="J26">
+        <v>98</v>
+      </c>
+      <c r="K26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12880</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E27">
+        <v>6.96</v>
+      </c>
+      <c r="F27">
+        <v>6.28</v>
+      </c>
+      <c r="G27">
+        <v>7.18</v>
+      </c>
+      <c r="H27" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I27">
+        <v>5.05</v>
+      </c>
+      <c r="J27">
+        <v>98</v>
+      </c>
+      <c r="K27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>13130</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>3.6</v>
+      </c>
+      <c r="F28">
+        <v>10.34</v>
+      </c>
+      <c r="G28">
+        <v>5.91</v>
+      </c>
+      <c r="H28" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I28">
+        <v>3.81</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21450</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E29">
+        <v>12.8</v>
+      </c>
+      <c r="F29">
+        <v>11.61</v>
+      </c>
+      <c r="G29">
+        <v>12.93</v>
+      </c>
+      <c r="H29" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I29">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J29">
+        <v>95</v>
+      </c>
+      <c r="K29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2">
+        <v>22600</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>9.39</v>
+      </c>
+      <c r="F30">
+        <v>7.27</v>
+      </c>
+      <c r="G30">
+        <v>9.73</v>
+      </c>
+      <c r="H30" s="4">
+        <v>45501.38</v>
+      </c>
+      <c r="I30">
+        <v>5.31</v>
+      </c>
+      <c r="J30">
+        <v>97</v>
+      </c>
+      <c r="K30">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B07359B-889E-4234-A8B4-695DCA7BBD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5FA8F3-008E-4D55-9758-34F18D73BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C049E348-C612-4810-AF1F-5D143B886A06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1385A8E4-904C-4704-8FF4-9F406DABDB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,6 +90,18 @@
     <t>대신증권</t>
   </si>
   <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
     <t>003690</t>
   </si>
   <si>
@@ -114,12 +126,36 @@
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -138,6 +174,18 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
     <t>024110</t>
   </si>
   <si>
@@ -168,18 +216,42 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
@@ -192,6 +264,12 @@
     <t>GS</t>
   </si>
   <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
@@ -204,6 +282,12 @@
     <t>KB금융</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -214,6 +298,12 @@
   </si>
   <si>
     <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -603,15 +693,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67DA74D-457A-4C01-81A9-B7A79893805C}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21085144-D35D-47DC-9C67-2265219B8F5C}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -664,10 +756,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>20700</v>
+        <v>21150</v>
       </c>
       <c r="D2" s="3">
-        <v>4.65E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -682,13 +774,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.83</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K2">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>100000</v>
+        <v>100100</v>
       </c>
       <c r="D3" s="3">
-        <v>1.32E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -717,7 +809,7 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="J3">
         <v>64</v>
@@ -734,10 +826,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>439500</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
+        <v>439000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -752,7 +844,7 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="J4">
         <v>91</v>
@@ -769,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31400</v>
+        <v>30750</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>-2.07E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -787,13 +879,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.37</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="D6" s="3">
-        <v>1.14E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -822,13 +914,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.86</v>
+        <v>3.77</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24850</v>
+        <v>25200</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -857,13 +949,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.83</v>
+        <v>4.76</v>
       </c>
       <c r="J7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,31 +966,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10200</v>
+        <v>83200</v>
       </c>
       <c r="D8" s="3">
-        <v>1E-3</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>2.16</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>5.18</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>174674.22</v>
       </c>
       <c r="I8">
-        <v>5.05</v>
+        <v>3.73</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,31 +1001,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76900</v>
+        <v>50600</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.41E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>12.89</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>9.02</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>7.9</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>26158.58</v>
       </c>
       <c r="I9">
-        <v>3.9</v>
+        <v>2.57</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,31 +1036,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>213500</v>
+        <v>10160</v>
       </c>
       <c r="D10" s="3">
-        <v>1.67E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>11.1</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>9.86</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I10">
-        <v>5.62</v>
+        <v>5.07</v>
       </c>
       <c r="J10">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,31 +1071,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>123700</v>
+        <v>75700</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.67E-2</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>18.96</v>
+        <v>19.62</v>
       </c>
       <c r="F11">
-        <v>19.86</v>
+        <v>12.01</v>
       </c>
       <c r="G11">
-        <v>18.8</v>
+        <v>6.74</v>
       </c>
       <c r="H11" s="4">
-        <v>115980.87</v>
+        <v>130022.16</v>
       </c>
       <c r="I11">
-        <v>5.5</v>
+        <v>3.96</v>
       </c>
       <c r="J11">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,31 +1106,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20100</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
+        <v>214500</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>12.43</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>11.52</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>11.82</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>411868.79</v>
       </c>
       <c r="I12">
-        <v>4.7300000000000004</v>
+        <v>5.59</v>
       </c>
       <c r="J12">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,31 +1141,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72500</v>
+        <v>123500</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.23E-2</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>18.96</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>19.86</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>18.8</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>115980.87</v>
       </c>
       <c r="I13">
-        <v>4.83</v>
+        <v>5.51</v>
       </c>
       <c r="J13">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,31 +1176,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57900</v>
+        <v>32900</v>
       </c>
       <c r="D14" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>17.22</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>15.37</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>50552.95</v>
       </c>
       <c r="I14">
-        <v>6.11</v>
+        <v>3.65</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,31 +1211,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83700</v>
+        <v>20300</v>
       </c>
       <c r="D15" s="3">
-        <v>-4.1200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>8.73</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>10.35</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>6.85</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I15">
-        <v>6.57</v>
+        <v>4.68</v>
       </c>
       <c r="J15">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K15">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,25 +1246,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18530</v>
+        <v>23700</v>
       </c>
       <c r="D16" s="3">
-        <v>3.2000000000000002E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>19.78</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>17.25</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>23.29</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>31156.34</v>
       </c>
       <c r="I16">
-        <v>5.75</v>
+        <v>4.22</v>
       </c>
       <c r="J16">
         <v>96</v>
@@ -1189,31 +1281,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>50800</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>140100</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>13.17</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>201114.72</v>
       </c>
       <c r="I17">
-        <v>5.51</v>
+        <v>3.82</v>
       </c>
       <c r="J17">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,31 +1316,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20550</v>
+        <v>70300</v>
       </c>
       <c r="D18" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>10.85</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>10.27</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>11.06</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>46509.73</v>
       </c>
       <c r="I18">
-        <v>5.99</v>
+        <v>3.84</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,31 +1351,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56800</v>
+        <v>72600</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.6999999999999994E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>12.89</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>13.62</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>9.44</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>81376.7</v>
       </c>
       <c r="I19">
-        <v>3.52</v>
+        <v>4.82</v>
       </c>
       <c r="J19">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,31 +1386,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14450</v>
+        <v>57800</v>
       </c>
       <c r="D20" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>10.83</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>12.4</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>9.48</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>55460.24</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>6.12</v>
       </c>
       <c r="J20">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,31 +1421,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>130200</v>
+        <v>83800</v>
       </c>
       <c r="D21" s="3">
-        <v>2.3599999999999999E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>14.42</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>11.9</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>15.82</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>32483.7</v>
       </c>
       <c r="I21">
-        <v>4.1500000000000004</v>
+        <v>6.56</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,31 +1456,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41450</v>
+        <v>99400</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>-2.4500000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>19.38</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>20.04</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>43969.66</v>
       </c>
       <c r="I22">
-        <v>3.51</v>
+        <v>2.65</v>
       </c>
       <c r="J22">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="K22">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,31 +1491,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>61700</v>
+        <v>37050</v>
       </c>
       <c r="D23" s="3">
-        <v>-8.0000000000000002E-3</v>
+        <v>-9.4000000000000004E-3</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>13.16</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>14.03</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>13.29</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I23">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="J23">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K23">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,31 +1526,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>48800</v>
+        <v>18880</v>
       </c>
       <c r="D24" s="3">
-        <v>1E-3</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>8.06</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>9.52</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>8.77</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>42663.82</v>
       </c>
       <c r="I24">
-        <v>5.53</v>
+        <v>5.64</v>
       </c>
       <c r="J24">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K24">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,31 +1561,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>85800</v>
+        <v>51200</v>
       </c>
       <c r="D25" s="3">
-        <v>-3.49E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>8.75</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>75767.48</v>
       </c>
       <c r="I25">
-        <v>4.2</v>
+        <v>5.47</v>
       </c>
       <c r="J25">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,31 +1596,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>113500</v>
+        <v>20500</v>
       </c>
       <c r="D26" s="3">
-        <v>2.4400000000000002E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>15.12</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>7.98</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>15.58</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>14481.01</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,31 +1631,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>12880</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>56800</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>2.85</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>13.16</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>5.63</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>66926.62</v>
       </c>
       <c r="I27">
-        <v>5.05</v>
+        <v>3.52</v>
       </c>
       <c r="J27">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,31 +1666,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13130</v>
+        <v>14550</v>
       </c>
       <c r="D28" s="3">
-        <v>0.01</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>7.75</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>6.75</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>19799.21</v>
       </c>
       <c r="I28">
-        <v>3.81</v>
+        <v>4.47</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,31 +1701,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21450</v>
+        <v>126900</v>
       </c>
       <c r="D29" s="3">
-        <v>3.8699999999999998E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>5.76</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>8.44</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>5.33</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>158106.71</v>
       </c>
       <c r="I29">
-        <v>4.6399999999999997</v>
+        <v>3.55</v>
       </c>
       <c r="J29">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1644,31 +1736,556 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>22600</v>
+        <v>128500</v>
       </c>
       <c r="D30" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E30">
+        <v>12.66</v>
+      </c>
+      <c r="F30">
+        <v>11.17</v>
+      </c>
+      <c r="G30">
+        <v>11.14</v>
+      </c>
+      <c r="H30" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I30">
+        <v>4.2</v>
+      </c>
+      <c r="J30">
+        <v>96</v>
+      </c>
+      <c r="K30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E31">
+        <v>12.08</v>
+      </c>
+      <c r="F31">
+        <v>7.85</v>
+      </c>
+      <c r="G31">
+        <v>8.39</v>
+      </c>
+      <c r="H31" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I31">
+        <v>6.16</v>
+      </c>
+      <c r="J31">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44100</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="E32">
+        <v>11.21</v>
+      </c>
+      <c r="F32">
+        <v>13.43</v>
+      </c>
+      <c r="G32">
+        <v>6.4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I32">
+        <v>3.3</v>
+      </c>
+      <c r="J32">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>221000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E33">
+        <v>15.98</v>
+      </c>
+      <c r="F33">
+        <v>16.78</v>
+      </c>
+      <c r="G33">
+        <v>12.25</v>
+      </c>
+      <c r="H33" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I33">
+        <v>3.39</v>
+      </c>
+      <c r="J33">
+        <v>88</v>
+      </c>
+      <c r="K33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>56600</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>13.26</v>
+      </c>
+      <c r="F34">
+        <v>3.52</v>
+      </c>
+      <c r="G34">
+        <v>11.65</v>
+      </c>
+      <c r="H34" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I34">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J34">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>63400</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.76E-2</v>
+      </c>
+      <c r="E35">
+        <v>8.11</v>
+      </c>
+      <c r="F35">
+        <v>10.55</v>
+      </c>
+      <c r="G35">
+        <v>8.66</v>
+      </c>
+      <c r="H35" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I35">
+        <v>3.41</v>
+      </c>
+      <c r="J35">
+        <v>97</v>
+      </c>
+      <c r="K35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>49350</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>4.12</v>
+      </c>
+      <c r="F36">
+        <v>5.83</v>
+      </c>
+      <c r="G36">
+        <v>11.01</v>
+      </c>
+      <c r="H36" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I36">
+        <v>5.47</v>
+      </c>
+      <c r="J36">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>138300</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="E37">
+        <v>13.24</v>
+      </c>
+      <c r="F37">
+        <v>17.97</v>
+      </c>
+      <c r="G37">
+        <v>15.51</v>
+      </c>
+      <c r="H37" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I37">
+        <v>2.68</v>
+      </c>
+      <c r="J37">
+        <v>87</v>
+      </c>
+      <c r="K37">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>87200</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.11</v>
+      </c>
+      <c r="F38">
+        <v>10.47</v>
+      </c>
+      <c r="G38">
+        <v>9.4</v>
+      </c>
+      <c r="H38" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I38">
+        <v>4.13</v>
+      </c>
+      <c r="J38">
+        <v>94</v>
+      </c>
+      <c r="K38">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>114900</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E39">
+        <v>8.86</v>
+      </c>
+      <c r="F39">
+        <v>11.69</v>
+      </c>
+      <c r="G39">
+        <v>8.51</v>
+      </c>
+      <c r="H39" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I39">
+        <v>2.76</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>61300</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-2.5399999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>12.32</v>
+      </c>
+      <c r="F40">
+        <v>9.67</v>
+      </c>
+      <c r="G40">
+        <v>18.72</v>
+      </c>
+      <c r="H40" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I40">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J40">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>13130</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.96</v>
+      </c>
+      <c r="F41">
+        <v>6.28</v>
+      </c>
+      <c r="G41">
+        <v>7.18</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I41">
+        <v>4.95</v>
+      </c>
+      <c r="J41">
+        <v>99</v>
+      </c>
+      <c r="K41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13250</v>
+      </c>
+      <c r="D42" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E42">
+        <v>3.6</v>
+      </c>
+      <c r="F42">
+        <v>10.34</v>
+      </c>
+      <c r="G42">
+        <v>5.91</v>
+      </c>
+      <c r="H42" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I42">
+        <v>3.77</v>
+      </c>
+      <c r="J42">
+        <v>97</v>
+      </c>
+      <c r="K42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>10.79</v>
+      </c>
+      <c r="F43">
+        <v>11.5</v>
+      </c>
+      <c r="G43">
+        <v>8.93</v>
+      </c>
+      <c r="H43" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I43">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="K43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>21700</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E44">
+        <v>12.8</v>
+      </c>
+      <c r="F44">
+        <v>11.61</v>
+      </c>
+      <c r="G44">
+        <v>12.93</v>
+      </c>
+      <c r="H44" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I44">
+        <v>4.59</v>
+      </c>
+      <c r="J44">
+        <v>97</v>
+      </c>
+      <c r="K44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>22950</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E45">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F45">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G45">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H45" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
-        <v>5.31</v>
-      </c>
-      <c r="J30">
-        <v>97</v>
-      </c>
-      <c r="K30">
-        <v>97</v>
+      <c r="I45">
+        <v>5.23</v>
+      </c>
+      <c r="J45">
+        <v>99</v>
+      </c>
+      <c r="K45">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5FA8F3-008E-4D55-9758-34F18D73BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58709475-8610-4A5F-87C7-91F48EF6E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1385A8E4-904C-4704-8FF4-9F406DABDB2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{39F17478-D731-442C-95F5-AFF89ED84106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,18 +90,6 @@
     <t>대신증권</t>
   </si>
   <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
     <t>003690</t>
   </si>
   <si>
@@ -126,36 +114,12 @@
     <t>DB손해보험</t>
   </si>
   <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
     <t>016360</t>
   </si>
   <si>
@@ -174,18 +138,6 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
     <t>024110</t>
   </si>
   <si>
@@ -216,42 +168,18 @@
     <t>LG유플러스</t>
   </si>
   <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
     <t>055550</t>
   </si>
   <si>
@@ -264,12 +192,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>086280</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
     <t>086790</t>
   </si>
   <si>
@@ -282,12 +204,6 @@
     <t>KB금융</t>
   </si>
   <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
     <t>138930</t>
   </si>
   <si>
@@ -298,12 +214,6 @@
   </si>
   <si>
     <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -693,17 +603,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21085144-D35D-47DC-9C67-2265219B8F5C}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07AA4C2-4A5C-485A-83C4-389B5F800EF0}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -756,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>21150</v>
+        <v>21000</v>
       </c>
       <c r="D2" s="3">
-        <v>2.1700000000000001E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -774,13 +682,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.7300000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="J2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -826,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>439000</v>
+        <v>441000</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -844,13 +752,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.33</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -861,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30750</v>
+        <v>31000</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.07E-2</v>
+        <v>-1.2699999999999999E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -879,7 +787,7 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -896,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31800</v>
+        <v>31750</v>
       </c>
       <c r="D6" s="3">
-        <v>2.2499999999999999E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -914,7 +822,7 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="J6">
         <v>83</v>
@@ -931,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25200</v>
+        <v>25550</v>
       </c>
       <c r="D7" s="3">
-        <v>1.41E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -949,13 +857,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.76</v>
+        <v>4.7</v>
       </c>
       <c r="J7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -966,31 +874,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>83200</v>
+        <v>10240</v>
       </c>
       <c r="D8" s="3">
-        <v>1.2200000000000001E-2</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>9.44</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>9.86</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>3.73</v>
+        <v>5.03</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1001,31 +909,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>50600</v>
+        <v>75800</v>
       </c>
       <c r="D9" s="3">
-        <v>-6.3E-2</v>
+        <v>-1.43E-2</v>
       </c>
       <c r="E9">
-        <v>12.89</v>
+        <v>19.62</v>
       </c>
       <c r="F9">
-        <v>9.02</v>
+        <v>12.01</v>
       </c>
       <c r="G9">
-        <v>7.9</v>
+        <v>6.74</v>
       </c>
       <c r="H9" s="4">
-        <v>26158.58</v>
+        <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>2.57</v>
+        <v>3.96</v>
       </c>
       <c r="J9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1036,31 +944,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>10160</v>
+        <v>214500</v>
       </c>
       <c r="D10" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E10">
-        <v>9.44</v>
+        <v>12.43</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>11.52</v>
       </c>
       <c r="G10">
-        <v>9.86</v>
+        <v>11.82</v>
       </c>
       <c r="H10" s="4">
-        <v>18178.189999999999</v>
+        <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.07</v>
+        <v>5.59</v>
       </c>
       <c r="J10">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1071,31 +979,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>75700</v>
+        <v>123400</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.5599999999999999E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="E11">
-        <v>19.62</v>
+        <v>18.96</v>
       </c>
       <c r="F11">
-        <v>12.01</v>
+        <v>19.86</v>
       </c>
       <c r="G11">
-        <v>6.74</v>
+        <v>18.8</v>
       </c>
       <c r="H11" s="4">
-        <v>130022.16</v>
+        <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>3.96</v>
+        <v>5.51</v>
       </c>
       <c r="J11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1106,31 +1014,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>214500</v>
+        <v>20400</v>
       </c>
       <c r="D12" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E12">
-        <v>12.43</v>
+        <v>8.73</v>
       </c>
       <c r="F12">
-        <v>11.52</v>
+        <v>10.35</v>
       </c>
       <c r="G12">
-        <v>11.82</v>
+        <v>6.85</v>
       </c>
       <c r="H12" s="4">
-        <v>411868.79</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>5.59</v>
+        <v>4.66</v>
       </c>
       <c r="J12">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K12">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1141,31 +1049,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>123500</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>72500</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>18.96</v>
+        <v>12.89</v>
       </c>
       <c r="F13">
-        <v>19.86</v>
+        <v>13.62</v>
       </c>
       <c r="G13">
-        <v>18.8</v>
+        <v>9.44</v>
       </c>
       <c r="H13" s="4">
-        <v>115980.87</v>
+        <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>5.51</v>
+        <v>4.83</v>
       </c>
       <c r="J13">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1176,31 +1084,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>32900</v>
+        <v>57600</v>
       </c>
       <c r="D14" s="3">
-        <v>1.23E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="E14">
-        <v>17.420000000000002</v>
+        <v>10.83</v>
       </c>
       <c r="F14">
-        <v>17.22</v>
+        <v>12.4</v>
       </c>
       <c r="G14">
-        <v>15.37</v>
+        <v>9.48</v>
       </c>
       <c r="H14" s="4">
-        <v>50552.95</v>
+        <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>3.65</v>
+        <v>6.15</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1211,31 +1119,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>20300</v>
+        <v>84400</v>
       </c>
       <c r="D15" s="3">
-        <v>0.01</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E15">
-        <v>8.73</v>
+        <v>14.42</v>
       </c>
       <c r="F15">
-        <v>10.35</v>
+        <v>11.9</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>15.82</v>
       </c>
       <c r="H15" s="4">
-        <v>23121.599999999999</v>
+        <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>4.68</v>
+        <v>6.52</v>
       </c>
       <c r="J15">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1246,31 +1154,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>23700</v>
+        <v>18930</v>
       </c>
       <c r="D16" s="3">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="E16">
-        <v>19.78</v>
+        <v>8.06</v>
       </c>
       <c r="F16">
-        <v>17.25</v>
+        <v>9.52</v>
       </c>
       <c r="G16">
-        <v>23.29</v>
+        <v>8.77</v>
       </c>
       <c r="H16" s="4">
-        <v>31156.34</v>
+        <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>4.22</v>
+        <v>5.63</v>
       </c>
       <c r="J16">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K16">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1281,31 +1189,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>140100</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
+        <v>51500</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.38E-2</v>
       </c>
       <c r="E17">
-        <v>13.17</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10.220000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="G17">
-        <v>18.010000000000002</v>
+        <v>7.9</v>
       </c>
       <c r="H17" s="4">
-        <v>201114.72</v>
+        <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>3.82</v>
+        <v>5.44</v>
       </c>
       <c r="J17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1316,31 +1224,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>70300</v>
+        <v>20600</v>
       </c>
       <c r="D18" s="3">
-        <v>-4.1999999999999997E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E18">
-        <v>10.85</v>
+        <v>15.12</v>
       </c>
       <c r="F18">
-        <v>10.27</v>
+        <v>7.98</v>
       </c>
       <c r="G18">
-        <v>11.06</v>
+        <v>15.58</v>
       </c>
       <c r="H18" s="4">
-        <v>46509.73</v>
+        <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>3.84</v>
+        <v>5.97</v>
       </c>
       <c r="J18">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1351,31 +1259,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>72600</v>
+        <v>56500</v>
       </c>
       <c r="D19" s="3">
-        <v>1.4E-3</v>
+        <v>-5.3E-3</v>
       </c>
       <c r="E19">
-        <v>12.89</v>
+        <v>2.85</v>
       </c>
       <c r="F19">
-        <v>13.62</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>9.44</v>
+        <v>5.63</v>
       </c>
       <c r="H19" s="4">
-        <v>81376.7</v>
+        <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>4.82</v>
+        <v>3.54</v>
       </c>
       <c r="J19">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K19">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1386,31 +1294,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>57800</v>
+        <v>14600</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.6999999999999999E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E20">
-        <v>10.83</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>12.4</v>
+        <v>7.75</v>
       </c>
       <c r="G20">
-        <v>9.48</v>
+        <v>6.75</v>
       </c>
       <c r="H20" s="4">
-        <v>55460.24</v>
+        <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>6.12</v>
+        <v>4.45</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1421,31 +1329,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>83800</v>
+        <v>128400</v>
       </c>
       <c r="D21" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>-1.38E-2</v>
       </c>
       <c r="E21">
-        <v>14.42</v>
+        <v>12.66</v>
       </c>
       <c r="F21">
-        <v>11.9</v>
+        <v>11.17</v>
       </c>
       <c r="G21">
-        <v>15.82</v>
+        <v>11.14</v>
       </c>
       <c r="H21" s="4">
-        <v>32483.7</v>
+        <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>6.56</v>
+        <v>4.21</v>
       </c>
       <c r="J21">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1456,31 +1364,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>99400</v>
+        <v>43800</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.4500000000000001E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="E22">
-        <v>19.38</v>
+        <v>11.21</v>
       </c>
       <c r="F22">
-        <v>17.489999999999998</v>
+        <v>13.43</v>
       </c>
       <c r="G22">
-        <v>20.04</v>
+        <v>6.4</v>
       </c>
       <c r="H22" s="4">
-        <v>43969.66</v>
+        <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>2.65</v>
+        <v>3.32</v>
       </c>
       <c r="J22">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1491,31 +1399,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>37050</v>
+        <v>63700</v>
       </c>
       <c r="D23" s="3">
-        <v>-9.4000000000000004E-3</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E23">
-        <v>13.16</v>
+        <v>8.11</v>
       </c>
       <c r="F23">
-        <v>14.03</v>
+        <v>10.55</v>
       </c>
       <c r="G23">
-        <v>13.29</v>
+        <v>8.66</v>
       </c>
       <c r="H23" s="4">
-        <v>65635.929999999993</v>
+        <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="J23">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1526,31 +1434,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>18880</v>
+        <v>49550</v>
       </c>
       <c r="D24" s="3">
-        <v>1.89E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E24">
-        <v>8.06</v>
+        <v>4.12</v>
       </c>
       <c r="F24">
-        <v>9.52</v>
+        <v>5.83</v>
       </c>
       <c r="G24">
-        <v>8.77</v>
+        <v>11.01</v>
       </c>
       <c r="H24" s="4">
-        <v>42663.82</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.64</v>
+        <v>5.45</v>
       </c>
       <c r="J24">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1561,31 +1469,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>51200</v>
+        <v>87500</v>
       </c>
       <c r="D25" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>9.11</v>
       </c>
       <c r="F25">
-        <v>8.75</v>
+        <v>10.47</v>
       </c>
       <c r="G25">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="H25" s="4">
-        <v>75767.48</v>
+        <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>5.47</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J25">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1596,31 +1504,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>20500</v>
+        <v>116900</v>
       </c>
       <c r="D26" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E26">
-        <v>15.12</v>
+        <v>8.86</v>
       </c>
       <c r="F26">
-        <v>7.98</v>
+        <v>11.69</v>
       </c>
       <c r="G26">
-        <v>15.58</v>
+        <v>8.51</v>
       </c>
       <c r="H26" s="4">
-        <v>14481.01</v>
+        <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>2.72</v>
       </c>
       <c r="J26">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1631,31 +1539,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>56800</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
+        <v>13160</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>2.85</v>
+        <v>6.96</v>
       </c>
       <c r="F27">
-        <v>13.16</v>
+        <v>6.28</v>
       </c>
       <c r="G27">
-        <v>5.63</v>
+        <v>7.18</v>
       </c>
       <c r="H27" s="4">
-        <v>66926.62</v>
+        <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>3.52</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J27">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1666,31 +1574,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14550</v>
+        <v>13300</v>
       </c>
       <c r="D28" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E28">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="F28">
-        <v>7.75</v>
+        <v>10.34</v>
       </c>
       <c r="G28">
-        <v>6.75</v>
+        <v>5.91</v>
       </c>
       <c r="H28" s="4">
-        <v>19799.21</v>
+        <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>4.47</v>
+        <v>3.76</v>
       </c>
       <c r="J28">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1701,31 +1609,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>126900</v>
+        <v>21650</v>
       </c>
       <c r="D29" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E29">
-        <v>5.76</v>
+        <v>12.8</v>
       </c>
       <c r="F29">
-        <v>8.44</v>
+        <v>11.61</v>
       </c>
       <c r="G29">
-        <v>5.33</v>
+        <v>12.93</v>
       </c>
       <c r="H29" s="4">
-        <v>158106.71</v>
+        <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>3.55</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J29">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1736,556 +1644,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>128500</v>
+        <v>23050</v>
       </c>
       <c r="D30" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E30">
-        <v>12.66</v>
+        <v>9.39</v>
       </c>
       <c r="F30">
-        <v>11.17</v>
+        <v>7.27</v>
       </c>
       <c r="G30">
-        <v>11.14</v>
+        <v>9.73</v>
       </c>
       <c r="H30" s="4">
-        <v>81115.86</v>
+        <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.2</v>
+        <v>5.21</v>
       </c>
       <c r="J30">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K30">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
-        <v>19000</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="E31">
-        <v>12.08</v>
-      </c>
-      <c r="F31">
-        <v>7.85</v>
-      </c>
-      <c r="G31">
-        <v>8.39</v>
-      </c>
-      <c r="H31" s="4">
-        <v>18381.900000000001</v>
-      </c>
-      <c r="I31">
-        <v>6.16</v>
-      </c>
-      <c r="J31">
-        <v>35</v>
-      </c>
-      <c r="K31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D32" s="3">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="E32">
-        <v>11.21</v>
-      </c>
-      <c r="F32">
-        <v>13.43</v>
-      </c>
-      <c r="G32">
-        <v>6.4</v>
-      </c>
-      <c r="H32" s="4">
-        <v>121076.78</v>
-      </c>
-      <c r="I32">
-        <v>3.3</v>
-      </c>
-      <c r="J32">
-        <v>51</v>
-      </c>
-      <c r="K32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2">
-        <v>221000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E33">
-        <v>15.98</v>
-      </c>
-      <c r="F33">
-        <v>16.78</v>
-      </c>
-      <c r="G33">
-        <v>12.25</v>
-      </c>
-      <c r="H33" s="4">
-        <v>212733.48</v>
-      </c>
-      <c r="I33">
-        <v>3.39</v>
-      </c>
-      <c r="J33">
-        <v>88</v>
-      </c>
-      <c r="K33">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2">
-        <v>56600</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="E34">
-        <v>13.26</v>
-      </c>
-      <c r="F34">
-        <v>3.52</v>
-      </c>
-      <c r="G34">
-        <v>11.65</v>
-      </c>
-      <c r="H34" s="4">
-        <v>27139.93</v>
-      </c>
-      <c r="I34">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="J34">
-        <v>77</v>
-      </c>
-      <c r="K34">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="2">
-        <v>63400</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2.76E-2</v>
-      </c>
-      <c r="E35">
-        <v>8.11</v>
-      </c>
-      <c r="F35">
-        <v>10.55</v>
-      </c>
-      <c r="G35">
-        <v>8.66</v>
-      </c>
-      <c r="H35" s="4">
-        <v>113903.42</v>
-      </c>
-      <c r="I35">
-        <v>3.41</v>
-      </c>
-      <c r="J35">
-        <v>97</v>
-      </c>
-      <c r="K35">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2">
-        <v>49350</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="E36">
-        <v>4.12</v>
-      </c>
-      <c r="F36">
-        <v>5.83</v>
-      </c>
-      <c r="G36">
-        <v>11.01</v>
-      </c>
-      <c r="H36" s="4">
-        <v>147806.45000000001</v>
-      </c>
-      <c r="I36">
-        <v>5.47</v>
-      </c>
-      <c r="J36">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="2">
-        <v>138300</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-1.4E-3</v>
-      </c>
-      <c r="E37">
-        <v>13.24</v>
-      </c>
-      <c r="F37">
-        <v>17.97</v>
-      </c>
-      <c r="G37">
-        <v>15.51</v>
-      </c>
-      <c r="H37" s="4">
-        <v>119232.22</v>
-      </c>
-      <c r="I37">
-        <v>2.68</v>
-      </c>
-      <c r="J37">
-        <v>87</v>
-      </c>
-      <c r="K37">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2">
-        <v>87200</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>9.11</v>
-      </c>
-      <c r="F38">
-        <v>10.47</v>
-      </c>
-      <c r="G38">
-        <v>9.4</v>
-      </c>
-      <c r="H38" s="4">
-        <v>153124.29</v>
-      </c>
-      <c r="I38">
-        <v>4.13</v>
-      </c>
-      <c r="J38">
-        <v>94</v>
-      </c>
-      <c r="K38">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="2">
-        <v>114900</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.23E-2</v>
-      </c>
-      <c r="E39">
-        <v>8.86</v>
-      </c>
-      <c r="F39">
-        <v>11.69</v>
-      </c>
-      <c r="G39">
-        <v>8.51</v>
-      </c>
-      <c r="H39" s="4">
-        <v>152301.9</v>
-      </c>
-      <c r="I39">
-        <v>2.76</v>
-      </c>
-      <c r="J39">
         <v>100</v>
-      </c>
-      <c r="K39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2">
-        <v>61300</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-2.5399999999999999E-2</v>
-      </c>
-      <c r="E40">
-        <v>12.32</v>
-      </c>
-      <c r="F40">
-        <v>9.67</v>
-      </c>
-      <c r="G40">
-        <v>18.72</v>
-      </c>
-      <c r="H40" s="4">
-        <v>84441.54</v>
-      </c>
-      <c r="I40">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J40">
-        <v>85</v>
-      </c>
-      <c r="K40">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="2">
-        <v>13130</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="E41">
-        <v>6.96</v>
-      </c>
-      <c r="F41">
-        <v>6.28</v>
-      </c>
-      <c r="G41">
-        <v>7.18</v>
-      </c>
-      <c r="H41" s="4">
-        <v>33008.75</v>
-      </c>
-      <c r="I41">
-        <v>4.95</v>
-      </c>
-      <c r="J41">
-        <v>99</v>
-      </c>
-      <c r="K41">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="2">
-        <v>13250</v>
-      </c>
-      <c r="D42" s="3">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E42">
-        <v>3.6</v>
-      </c>
-      <c r="F42">
-        <v>10.34</v>
-      </c>
-      <c r="G42">
-        <v>5.91</v>
-      </c>
-      <c r="H42" s="4">
-        <v>35883.14</v>
-      </c>
-      <c r="I42">
-        <v>3.77</v>
-      </c>
-      <c r="J42">
-        <v>97</v>
-      </c>
-      <c r="K42">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2">
-        <v>43100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="E43">
-        <v>10.79</v>
-      </c>
-      <c r="F43">
-        <v>11.5</v>
-      </c>
-      <c r="G43">
-        <v>8.93</v>
-      </c>
-      <c r="H43" s="4">
-        <v>90358.17</v>
-      </c>
-      <c r="I43">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="J43">
-        <v>47</v>
-      </c>
-      <c r="K43">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="2">
-        <v>21700</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1.17E-2</v>
-      </c>
-      <c r="E44">
-        <v>12.8</v>
-      </c>
-      <c r="F44">
-        <v>11.61</v>
-      </c>
-      <c r="G44">
-        <v>12.93</v>
-      </c>
-      <c r="H44" s="4">
-        <v>29151.87</v>
-      </c>
-      <c r="I44">
-        <v>4.59</v>
-      </c>
-      <c r="J44">
-        <v>97</v>
-      </c>
-      <c r="K44">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2">
-        <v>22950</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1.55E-2</v>
-      </c>
-      <c r="E45">
-        <v>9.39</v>
-      </c>
-      <c r="F45">
-        <v>7.27</v>
-      </c>
-      <c r="G45">
-        <v>9.73</v>
-      </c>
-      <c r="H45" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I45">
-        <v>5.23</v>
-      </c>
-      <c r="J45">
-        <v>99</v>
-      </c>
-      <c r="K45">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58709475-8610-4A5F-87C7-91F48EF6E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09010833-2F15-46C4-A159-71775B0623FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{39F17478-D731-442C-95F5-AFF89ED84106}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{184164D4-2B7A-4B34-9C7A-05B53D533D58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07AA4C2-4A5C-485A-83C4-389B5F800EF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D6672-DD54-4A40-8CC8-B264BDFAAC09}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -664,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>21000</v>
+        <v>24100</v>
       </c>
       <c r="D2" s="3">
-        <v>1.4500000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -682,13 +684,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.76</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>100100</v>
+        <v>100800</v>
       </c>
       <c r="D3" s="3">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -717,7 +719,7 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.49</v>
+        <v>6.45</v>
       </c>
       <c r="J3">
         <v>64</v>
@@ -734,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>441000</v>
+        <v>473000</v>
       </c>
       <c r="D4" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -752,13 +754,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.3099999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J4">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K4">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -769,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31000</v>
+        <v>31900</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.2699999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -787,13 +789,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.45</v>
+        <v>6.27</v>
       </c>
       <c r="J5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31750</v>
+        <v>31000</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0899999999999998E-2</v>
+        <v>-1.12E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -822,13 +824,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="J6">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25550</v>
+        <v>31250</v>
       </c>
       <c r="D7" s="3">
-        <v>2.8199999999999999E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -857,13 +859,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.7</v>
+        <v>3.84</v>
       </c>
       <c r="J7">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10240</v>
+        <v>11150</v>
       </c>
       <c r="D8" s="3">
-        <v>3.8999999999999998E-3</v>
+        <v>-1.6799999999999999E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -892,13 +894,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5.03</v>
+        <v>4.62</v>
       </c>
       <c r="J8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>75800</v>
+        <v>76000</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.43E-2</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -927,13 +929,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="J9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>214500</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>208000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -962,13 +964,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.59</v>
+        <v>5.77</v>
       </c>
       <c r="J10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>123400</v>
+        <v>138800</v>
       </c>
       <c r="D11" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -997,13 +999,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.51</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20400</v>
+        <v>22650</v>
       </c>
       <c r="D12" s="3">
-        <v>1.49E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1032,13 +1034,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.66</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J12">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72500</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
+        <v>77300</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1067,13 +1069,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.83</v>
+        <v>4.53</v>
       </c>
       <c r="J13">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K13">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,10 +1086,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>57600</v>
+        <v>55700</v>
       </c>
       <c r="D14" s="3">
-        <v>-5.1999999999999998E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1102,13 +1104,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.15</v>
+        <v>6.36</v>
       </c>
       <c r="J14">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>84400</v>
+        <v>87400</v>
       </c>
       <c r="D15" s="3">
-        <v>8.3999999999999995E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1137,13 +1139,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.52</v>
+        <v>6.29</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18930</v>
+        <v>21000</v>
       </c>
       <c r="D16" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1172,7 +1174,7 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.63</v>
+        <v>5.07</v>
       </c>
       <c r="J16">
         <v>99</v>
@@ -1189,10 +1191,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>51500</v>
+        <v>56600</v>
       </c>
       <c r="D17" s="3">
-        <v>1.38E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1207,13 +1209,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.44</v>
+        <v>4.95</v>
       </c>
       <c r="J17">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,10 +1226,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20600</v>
+        <v>21650</v>
       </c>
       <c r="D18" s="3">
-        <v>2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1242,13 +1244,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>5.97</v>
+        <v>5.68</v>
       </c>
       <c r="J18">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56500</v>
+        <v>58100</v>
       </c>
       <c r="D19" s="3">
-        <v>-5.3E-3</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1277,7 +1279,7 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="J19">
         <v>97</v>
@@ -1294,10 +1296,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14600</v>
+        <v>14990</v>
       </c>
       <c r="D20" s="3">
-        <v>1.04E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1312,13 +1314,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
       <c r="J20">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,10 +1331,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>128400</v>
+        <v>136400</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.38E-2</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1347,13 +1349,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.21</v>
+        <v>3.96</v>
       </c>
       <c r="J21">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>43800</v>
+        <v>45500</v>
       </c>
       <c r="D22" s="3">
-        <v>5.67E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1382,13 +1384,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,10 +1401,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>63700</v>
+        <v>69300</v>
       </c>
       <c r="D23" s="3">
-        <v>3.2399999999999998E-2</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1417,13 +1419,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="J23">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K23">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,10 +1436,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>49550</v>
+        <v>52100</v>
       </c>
       <c r="D24" s="3">
-        <v>1.54E-2</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1452,13 +1454,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="J24">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>87500</v>
+        <v>93200</v>
       </c>
       <c r="D25" s="3">
-        <v>1.9800000000000002E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1487,13 +1489,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.1100000000000003</v>
+        <v>3.86</v>
       </c>
       <c r="J25">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,10 +1506,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>116900</v>
+        <v>117300</v>
       </c>
       <c r="D26" s="3">
-        <v>0.03</v>
+        <v>4.3E-3</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1522,13 +1524,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,10 +1541,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>13160</v>
+        <v>15310</v>
       </c>
       <c r="D27" s="3">
-        <v>2.1700000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1557,13 +1559,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.9400000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="J27">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K27">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,10 +1576,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13300</v>
+        <v>14980</v>
       </c>
       <c r="D28" s="3">
-        <v>1.29E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1592,13 +1594,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.76</v>
+        <v>3.34</v>
       </c>
       <c r="J28">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21650</v>
+        <v>25350</v>
       </c>
       <c r="D29" s="3">
-        <v>9.2999999999999992E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1627,7 +1629,7 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.5999999999999996</v>
+        <v>3.93</v>
       </c>
       <c r="J29">
         <v>96</v>
@@ -1644,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>23050</v>
+        <v>25850</v>
       </c>
       <c r="D30" s="3">
-        <v>1.9900000000000001E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1662,13 +1664,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>5.21</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09010833-2F15-46C4-A159-71775B0623FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9286C6-A417-441C-8B9D-CF31147DC4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{184164D4-2B7A-4B34-9C7A-05B53D533D58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D5E3C7F-E3DE-4E3A-A832-0CBCCAD5B488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D6672-DD54-4A40-8CC8-B264BDFAAC09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED276E-8BD6-4536-BC87-4F1935140941}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24100</v>
+        <v>25450</v>
       </c>
       <c r="D2" s="3">
-        <v>1.9E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -684,13 +684,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.1500000000000004</v>
+        <v>3.93</v>
       </c>
       <c r="J2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K2">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -701,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>100800</v>
+        <v>104500</v>
       </c>
       <c r="D3" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -719,13 +719,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.45</v>
+        <v>6.22</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -736,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>473000</v>
+        <v>461500</v>
       </c>
       <c r="D4" s="3">
-        <v>4.1999999999999997E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -754,13 +754,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.0199999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="J4">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K4">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31900</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.4999999999999998E-3</v>
+        <v>33550</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -789,13 +789,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.27</v>
+        <v>5.96</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -806,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31000</v>
+        <v>34400</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.12E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -824,13 +824,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -841,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>31250</v>
+        <v>27650</v>
       </c>
       <c r="D7" s="3">
-        <v>4.3400000000000001E-2</v>
+        <v>-2.98E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -859,13 +859,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>3.84</v>
+        <v>4.34</v>
       </c>
       <c r="J7">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -876,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>11150</v>
+        <v>11010</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.6799999999999999E-2</v>
+        <v>-1.17E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -894,13 +894,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="J8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -911,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76000</v>
+        <v>77200</v>
       </c>
       <c r="D9" s="3">
-        <v>-6.4999999999999997E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -929,13 +929,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="J9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>208000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
+        <v>218500</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -964,13 +964,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.77</v>
+        <v>5.49</v>
       </c>
       <c r="J10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -981,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>138800</v>
+        <v>133800</v>
       </c>
       <c r="D11" s="3">
-        <v>1.54E-2</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -999,13 +999,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>4.9000000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1016,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>22650</v>
+        <v>20900</v>
       </c>
       <c r="D12" s="3">
-        <v>1.5699999999999999E-2</v>
+        <v>-2.5600000000000001E-2</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1034,13 +1034,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.1900000000000004</v>
+        <v>4.55</v>
       </c>
       <c r="J12">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1051,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>77300</v>
+        <v>72100</v>
       </c>
       <c r="D13" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1069,13 +1069,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.53</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J13">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1086,10 +1086,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>55700</v>
+        <v>56300</v>
       </c>
       <c r="D14" s="3">
-        <v>7.1999999999999998E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1104,13 +1104,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.36</v>
+        <v>6.29</v>
       </c>
       <c r="J14">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>87400</v>
+        <v>83900</v>
       </c>
       <c r="D15" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>-2.3300000000000001E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1139,13 +1139,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.29</v>
+        <v>6.56</v>
       </c>
       <c r="J15">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>21000</v>
+        <v>20250</v>
       </c>
       <c r="D16" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1174,13 +1174,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.07</v>
+        <v>5.26</v>
       </c>
       <c r="J16">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1191,10 +1191,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>56600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.0699999999999999E-2</v>
+        <v>53000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1209,13 +1209,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>4.95</v>
+        <v>5.28</v>
       </c>
       <c r="J17">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1229,7 +1229,7 @@
         <v>21650</v>
       </c>
       <c r="D18" s="3">
-        <v>-2.3E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1261,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>58100</v>
+        <v>56600</v>
       </c>
       <c r="D19" s="3">
-        <v>3.3799999999999997E-2</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1279,13 +1279,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="J19">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,10 +1296,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14990</v>
+        <v>14880</v>
       </c>
       <c r="D20" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1314,13 +1314,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="J20">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,10 +1331,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>136400</v>
+        <v>135000</v>
       </c>
       <c r="D21" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1349,13 +1349,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K21">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="D22" s="3">
-        <v>-4.4000000000000003E-3</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1401,10 +1401,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="D23" s="3">
-        <v>-8.6E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1419,13 +1419,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="J23">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1436,10 +1436,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>52100</v>
+        <v>51700</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.3299999999999999E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1454,13 +1454,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="J24">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>93200</v>
+        <v>90500</v>
       </c>
       <c r="D25" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1489,13 +1489,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>3.86</v>
+        <v>3.98</v>
       </c>
       <c r="J25">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,10 +1506,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>117300</v>
+        <v>115000</v>
       </c>
       <c r="D26" s="3">
-        <v>4.3E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1524,13 +1524,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="J26">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,10 +1541,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>15310</v>
+        <v>15290</v>
       </c>
       <c r="D27" s="3">
-        <v>1.5299999999999999E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1562,10 +1562,10 @@
         <v>4.25</v>
       </c>
       <c r="J27">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K27">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1576,10 +1576,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14980</v>
+        <v>14610</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1594,13 +1594,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="J28">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>25350</v>
+        <v>24300</v>
       </c>
       <c r="D29" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1629,13 +1629,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="J29">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>25850</v>
+        <v>25300</v>
       </c>
       <c r="D30" s="3">
-        <v>2.58E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1664,13 +1664,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.6399999999999997</v>
+        <v>4.74</v>
       </c>
       <c r="J30">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9286C6-A417-441C-8B9D-CF31147DC4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C84A5B-E870-467E-AF16-18ED48EDE2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D5E3C7F-E3DE-4E3A-A832-0CBCCAD5B488}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{585E422C-3DA5-4552-8FA8-3BA88CF95EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,10 +54,10 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
-    <t>000240</t>
-  </si>
-  <si>
-    <t>한국앤컴퍼니</t>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
   </si>
   <si>
     <t>000270</t>
@@ -66,40 +66,34 @@
     <t>기아</t>
   </si>
   <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
     <t>000810</t>
   </si>
   <si>
     <t>삼성화재</t>
   </si>
   <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
-  </si>
-  <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
   </si>
   <si>
     <t>005380</t>
@@ -108,18 +102,90 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
     <t>005830</t>
   </si>
   <si>
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -132,10 +198,16 @@
     <t>SK텔레콤</t>
   </si>
   <si>
-    <t>017800</t>
-  </si>
-  <si>
-    <t>현대엘리베이터</t>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
   </si>
   <si>
     <t>024110</t>
@@ -144,18 +216,24 @@
     <t>기업은행</t>
   </si>
   <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>삼성E&amp;A</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
     <t>029780</t>
   </si>
   <si>
     <t>삼성카드</t>
   </si>
   <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
     <t>030200</t>
   </si>
   <si>
@@ -168,16 +246,64 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
   </si>
   <si>
     <t>055550</t>
@@ -186,40 +312,148 @@
     <t>신한지주</t>
   </si>
   <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
     <t>105560</t>
   </si>
   <si>
     <t>KB금융</t>
   </si>
   <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
     <t>BNK금융지주</t>
   </si>
   <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
   </si>
   <si>
     <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>307950</t>
+  </si>
+  <si>
+    <t>현대오토에버</t>
   </si>
   <si>
     <t>316140</t>
@@ -603,18 +837,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED276E-8BD6-4536-BC87-4F1935140941}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B567C6-989D-4F78-8DCD-710101423951}">
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -666,31 +900,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>25450</v>
+        <v>125200</v>
       </c>
       <c r="D2" s="3">
-        <v>2.8299999999999999E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>3.41</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>1.69</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>5.01</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>28112.080000000002</v>
       </c>
       <c r="I2">
-        <v>3.93</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="K2">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -701,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104500</v>
+        <v>106100</v>
       </c>
       <c r="D3" s="3">
-        <v>6.8500000000000005E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -719,13 +953,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.22</v>
+        <v>6.13</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -736,31 +970,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>461500</v>
+        <v>269000</v>
       </c>
       <c r="D4" s="3">
-        <v>-3.2000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>31.06</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>41.75</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>6.34</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>4.12</v>
+        <v>0.82</v>
       </c>
       <c r="J4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,31 +1005,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>33550</v>
+        <v>463000</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>13.09</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>15.71</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>12.47</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>5.96</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -806,31 +1040,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>34400</v>
+        <v>1345000</v>
       </c>
       <c r="D6" s="3">
-        <v>1.5E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>46.11</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>27.7</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>119890.92</v>
       </c>
       <c r="I6">
-        <v>3.49</v>
+        <v>0.25</v>
       </c>
       <c r="J6">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -841,31 +1075,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27650</v>
+        <v>25250</v>
       </c>
       <c r="D7" s="3">
-        <v>-2.98E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>13.17</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>10.87</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>15.53</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I7">
-        <v>4.34</v>
+        <v>2.97</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -876,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>11010</v>
+        <v>80100</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.17E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>2.16</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>5.18</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>174674.22</v>
       </c>
       <c r="I8">
-        <v>4.68</v>
+        <v>3.87</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -911,31 +1145,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>77200</v>
+        <v>222000</v>
       </c>
       <c r="D9" s="3">
-        <v>-2.5999999999999999E-3</v>
+        <v>7.51E-2</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>12.43</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>11.52</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>11.82</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>411868.79</v>
       </c>
       <c r="I9">
-        <v>3.89</v>
+        <v>5.41</v>
       </c>
       <c r="J9">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,31 +1180,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>218500</v>
+        <v>335000</v>
       </c>
       <c r="D10" s="3">
-        <v>5.8099999999999999E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>3.76</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>701236.07</v>
       </c>
       <c r="I10">
-        <v>5.49</v>
+        <v>2.99</v>
       </c>
       <c r="J10">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1016,31 +1250,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20900</v>
+        <v>66400</v>
       </c>
       <c r="D12" s="3">
-        <v>-2.5600000000000001E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>8.16</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>10.08</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>59026.51</v>
       </c>
       <c r="I12">
-        <v>4.55</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J12">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1051,31 +1285,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72100</v>
+        <v>21100</v>
       </c>
       <c r="D13" s="3">
-        <v>-9.5999999999999992E-3</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>8.73</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>10.35</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>6.85</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I13">
-        <v>4.8499999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1086,31 +1320,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56300</v>
+        <v>176600</v>
       </c>
       <c r="D14" s="3">
-        <v>-3.5000000000000001E-3</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>5.09</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>7.34</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>11.63</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>154845.78</v>
       </c>
       <c r="I14">
-        <v>6.29</v>
+        <v>0.93</v>
       </c>
       <c r="J14">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,31 +1355,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83900</v>
+        <v>20150</v>
       </c>
       <c r="D15" s="3">
-        <v>-2.3300000000000001E-2</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>7.94</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>5.75</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>17214.37</v>
       </c>
       <c r="I15">
-        <v>6.56</v>
+        <v>1.24</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,31 +1390,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>20250</v>
+        <v>135900</v>
       </c>
       <c r="D16" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>8.16</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>6.08</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>9.14</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>115453.7</v>
       </c>
       <c r="I16">
-        <v>5.26</v>
+        <v>1.32</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1191,31 +1425,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>53000</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
+        <v>334500</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>11.16</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>17.64</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>3.73</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>160791.94</v>
       </c>
       <c r="I17">
-        <v>5.28</v>
+        <v>1.52</v>
       </c>
       <c r="J17">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1226,31 +1460,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>21650</v>
+        <v>280000</v>
       </c>
       <c r="D18" s="3">
-        <v>2.3E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>13.44</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>15.22</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>10.67</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>61485.71</v>
       </c>
       <c r="I18">
-        <v>5.68</v>
+        <v>1.04</v>
       </c>
       <c r="J18">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1261,31 +1495,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56600</v>
+        <v>826000</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.2200000000000001E-2</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>8.83</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>5.79</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>457097.14</v>
       </c>
       <c r="I19">
-        <v>3.53</v>
+        <v>2.12</v>
       </c>
       <c r="J19">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,31 +1530,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14880</v>
+        <v>154000</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.5900000000000001E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>8.92</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>6.38</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>15.79</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>227100.85</v>
       </c>
       <c r="I20">
-        <v>4.37</v>
+        <v>1.36</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,31 +1565,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>135000</v>
+        <v>24700</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.0999999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>15.35</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>10.6</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>28.31</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>31729.16</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J21">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,31 +1600,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>45400</v>
+        <v>299000</v>
       </c>
       <c r="D22" s="3">
-        <v>3.8899999999999997E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>9.35</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>8.9</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>509344.58</v>
       </c>
       <c r="I22">
-        <v>3.2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J22">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1401,25 +1635,25 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>68400</v>
+        <v>910000</v>
       </c>
       <c r="D23" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>53.94</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>7.76</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>28.78</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>85274.69</v>
       </c>
       <c r="I23">
-        <v>3.16</v>
+        <v>0.38</v>
       </c>
       <c r="J23">
         <v>92</v>
@@ -1436,31 +1670,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51700</v>
+        <v>72500</v>
       </c>
       <c r="D24" s="3">
-        <v>1.9E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>12.89</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>13.62</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>9.44</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>81376.7</v>
       </c>
       <c r="I24">
-        <v>5.22</v>
+        <v>4.83</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,31 +1705,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>90500</v>
+        <v>56100</v>
       </c>
       <c r="D25" s="3">
-        <v>-7.7000000000000002E-3</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>10.83</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>12.4</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>55460.24</v>
       </c>
       <c r="I25">
-        <v>3.98</v>
+        <v>6.31</v>
       </c>
       <c r="J25">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,31 +1740,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>115000</v>
+        <v>173900</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>-2.41E-2</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>8.42</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>9.06</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>10.29</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>120847.71</v>
       </c>
       <c r="I26">
-        <v>2.76</v>
+        <v>1.67</v>
       </c>
       <c r="J26">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,31 +1775,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>15290</v>
+        <v>109000</v>
       </c>
       <c r="D27" s="3">
-        <v>-8.3999999999999995E-3</v>
+        <v>1.21E-2</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>19.38</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>20.04</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>43969.66</v>
       </c>
       <c r="I27">
-        <v>4.25</v>
+        <v>2.41</v>
       </c>
       <c r="J27">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1576,31 +1810,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14610</v>
+        <v>20100</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>8.06</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>9.52</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>8.77</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>42663.82</v>
       </c>
       <c r="I28">
-        <v>3.42</v>
+        <v>5.3</v>
       </c>
       <c r="J28">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,31 +1845,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>24300</v>
+        <v>24950</v>
       </c>
       <c r="D29" s="3">
-        <v>-8.2000000000000007E-3</v>
+        <v>-1.38E-2</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>14.14</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>24.14</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>21889.49</v>
       </c>
       <c r="I29">
-        <v>4.09</v>
+        <v>2.65</v>
       </c>
       <c r="J29">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,31 +1880,1396 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>25300</v>
+        <v>170000</v>
       </c>
       <c r="D30" s="3">
-        <v>1.4E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E30">
+        <v>6.83</v>
+      </c>
+      <c r="F30">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G30">
+        <v>7.09</v>
+      </c>
+      <c r="H30" s="4">
+        <v>190073.45</v>
+      </c>
+      <c r="I30">
+        <v>1.53</v>
+      </c>
+      <c r="J30">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>53400</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>8.75</v>
+      </c>
+      <c r="G31">
+        <v>7.9</v>
+      </c>
+      <c r="H31" s="4">
+        <v>75767.48</v>
+      </c>
+      <c r="I31">
+        <v>5.24</v>
+      </c>
+      <c r="J31">
+        <v>80</v>
+      </c>
+      <c r="K31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>56400</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.5699999999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.85</v>
+      </c>
+      <c r="F32">
+        <v>13.16</v>
+      </c>
+      <c r="G32">
+        <v>5.63</v>
+      </c>
+      <c r="H32" s="4">
+        <v>66926.62</v>
+      </c>
+      <c r="I32">
+        <v>3.55</v>
+      </c>
+      <c r="J32">
+        <v>92</v>
+      </c>
+      <c r="K32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>14920</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="E33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F33">
+        <v>7.75</v>
+      </c>
+      <c r="G33">
+        <v>6.75</v>
+      </c>
+      <c r="H33" s="4">
+        <v>19799.21</v>
+      </c>
+      <c r="I33">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J33">
+        <v>81</v>
+      </c>
+      <c r="K33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>129100</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>5.76</v>
+      </c>
+      <c r="F34">
+        <v>8.44</v>
+      </c>
+      <c r="G34">
+        <v>5.33</v>
+      </c>
+      <c r="H34" s="4">
+        <v>158106.71</v>
+      </c>
+      <c r="I34">
+        <v>3.49</v>
+      </c>
+      <c r="J34">
+        <v>82</v>
+      </c>
+      <c r="K34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>134900</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="E35">
+        <v>12.66</v>
+      </c>
+      <c r="F35">
+        <v>11.17</v>
+      </c>
+      <c r="G35">
+        <v>11.14</v>
+      </c>
+      <c r="H35" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>19940</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E36">
+        <v>12.08</v>
+      </c>
+      <c r="F36">
+        <v>7.85</v>
+      </c>
+      <c r="G36">
+        <v>8.39</v>
+      </c>
+      <c r="H36" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I36">
+        <v>5.87</v>
+      </c>
+      <c r="J36">
+        <v>41</v>
+      </c>
+      <c r="K36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>231500</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="E37">
+        <v>7.9</v>
+      </c>
+      <c r="F37">
+        <v>6.55</v>
+      </c>
+      <c r="G37">
+        <v>5.2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>172550.7</v>
+      </c>
+      <c r="I37">
+        <v>0.49</v>
+      </c>
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-2.6499999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F38">
+        <v>6.7</v>
+      </c>
+      <c r="G38">
+        <v>1.31</v>
+      </c>
+      <c r="H38" s="4">
+        <v>23415.79</v>
+      </c>
+      <c r="I38">
+        <v>0.12</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>198700</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-3.3099999999999997E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.99</v>
+      </c>
+      <c r="F39">
+        <v>4.97</v>
+      </c>
+      <c r="G39">
+        <v>7.77</v>
+      </c>
+      <c r="H39" s="4">
+        <v>170798.55</v>
+      </c>
+      <c r="I39">
+        <v>0.73</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>86100</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="E40">
+        <v>27.43</v>
+      </c>
+      <c r="F40">
+        <v>41.22</v>
+      </c>
+      <c r="G40">
+        <v>36</v>
+      </c>
+      <c r="H40" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I40">
+        <v>0.84</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>55700</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="E41">
+        <v>8.14</v>
+      </c>
+      <c r="F41">
+        <v>12.3</v>
+      </c>
+      <c r="G41">
+        <v>12.43</v>
+      </c>
+      <c r="H41" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I41">
+        <v>2.78</v>
+      </c>
+      <c r="J41">
+        <v>51</v>
+      </c>
+      <c r="K41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>92200</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E42">
+        <v>10.42</v>
+      </c>
+      <c r="F42">
+        <v>7.09</v>
+      </c>
+      <c r="G42">
+        <v>11.34</v>
+      </c>
+      <c r="H42" s="4">
+        <v>17308.830000000002</v>
+      </c>
+      <c r="I42">
+        <v>0.54</v>
+      </c>
+      <c r="J42">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>331500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E43">
+        <v>3.44</v>
+      </c>
+      <c r="F43">
+        <v>7.02</v>
+      </c>
+      <c r="G43">
+        <v>3.5</v>
+      </c>
+      <c r="H43" s="4">
+        <v>321747.28999999998</v>
+      </c>
+      <c r="I43">
+        <v>1.06</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>68100</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="E44">
+        <v>8.11</v>
+      </c>
+      <c r="F44">
+        <v>10.55</v>
+      </c>
+      <c r="G44">
+        <v>8.66</v>
+      </c>
+      <c r="H44" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I44">
+        <v>3.17</v>
+      </c>
+      <c r="J44">
+        <v>91</v>
+      </c>
+      <c r="K44">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>192500</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E45">
+        <v>21.85</v>
+      </c>
+      <c r="F45">
+        <v>29.95</v>
+      </c>
+      <c r="G45">
+        <v>15.32</v>
+      </c>
+      <c r="H45" s="4">
+        <v>20022.23</v>
+      </c>
+      <c r="I45">
+        <v>0.1</v>
+      </c>
+      <c r="J45">
+        <v>86</v>
+      </c>
+      <c r="K45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>79100</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.81</v>
+      </c>
+      <c r="F46">
+        <v>14.87</v>
+      </c>
+      <c r="G46">
+        <v>4.04</v>
+      </c>
+      <c r="H46" s="4">
+        <v>121832.79</v>
+      </c>
+      <c r="I46">
+        <v>1.26</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>179800</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="E47">
+        <v>2.46</v>
+      </c>
+      <c r="F47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G47">
+        <v>6.96</v>
+      </c>
+      <c r="H47" s="4">
+        <v>81251.899999999994</v>
+      </c>
+      <c r="I47">
+        <v>0.42</v>
+      </c>
+      <c r="J47">
+        <v>26</v>
+      </c>
+      <c r="K47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>149900</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="E48">
+        <v>11.54</v>
+      </c>
+      <c r="F48">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G48">
+        <v>9.6</v>
+      </c>
+      <c r="H48" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I48">
+        <v>2.66</v>
+      </c>
+      <c r="J48">
+        <v>88</v>
+      </c>
+      <c r="K48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>51700</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E49">
+        <v>4.12</v>
+      </c>
+      <c r="F49">
+        <v>5.83</v>
+      </c>
+      <c r="G49">
+        <v>11.01</v>
+      </c>
+      <c r="H49" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I49">
+        <v>5.22</v>
+      </c>
+      <c r="J49">
+        <v>79</v>
+      </c>
+      <c r="K49">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>593000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E50">
+        <v>19.59</v>
+      </c>
+      <c r="F50">
+        <v>27.47</v>
+      </c>
+      <c r="G50">
+        <v>17.23</v>
+      </c>
+      <c r="H50" s="4">
+        <v>56705.61</v>
+      </c>
+      <c r="I50">
+        <v>0.4</v>
+      </c>
+      <c r="J50">
+        <v>91</v>
+      </c>
+      <c r="K50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>143000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="E51">
+        <v>13.24</v>
+      </c>
+      <c r="F51">
+        <v>17.97</v>
+      </c>
+      <c r="G51">
+        <v>15.51</v>
+      </c>
+      <c r="H51" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I51">
+        <v>2.59</v>
+      </c>
+      <c r="J51">
+        <v>92</v>
+      </c>
+      <c r="K51">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>90800</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="E52">
+        <v>9.11</v>
+      </c>
+      <c r="F52">
+        <v>10.47</v>
+      </c>
+      <c r="G52">
+        <v>9.4</v>
+      </c>
+      <c r="H52" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I52">
+        <v>3.96</v>
+      </c>
+      <c r="J52">
+        <v>91</v>
+      </c>
+      <c r="K52">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>134600</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="E53">
+        <v>11.69</v>
+      </c>
+      <c r="F53">
+        <v>8.41</v>
+      </c>
+      <c r="G53">
+        <v>6.07</v>
+      </c>
+      <c r="H53" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I53">
+        <v>0.84</v>
+      </c>
+      <c r="J53">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>252500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E54">
+        <v>1.97</v>
+      </c>
+      <c r="F54">
+        <v>0.9</v>
+      </c>
+      <c r="G54">
+        <v>5.59</v>
+      </c>
+      <c r="H54" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I54">
+        <v>2.38</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>115300</v>
+      </c>
+      <c r="D55" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E55">
+        <v>8.86</v>
+      </c>
+      <c r="F55">
+        <v>11.69</v>
+      </c>
+      <c r="G55">
+        <v>8.51</v>
+      </c>
+      <c r="H55" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I55">
+        <v>2.75</v>
+      </c>
+      <c r="J55">
+        <v>92</v>
+      </c>
+      <c r="K55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>287500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E56">
+        <v>11.89</v>
+      </c>
+      <c r="F56">
+        <v>15.5</v>
+      </c>
+      <c r="G56">
+        <v>12.6</v>
+      </c>
+      <c r="H56" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I56">
+        <v>0.43</v>
+      </c>
+      <c r="J56">
+        <v>39</v>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>116800</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="E57">
+        <v>23.44</v>
+      </c>
+      <c r="F57">
+        <v>24.59</v>
+      </c>
+      <c r="G57">
+        <v>27.89</v>
+      </c>
+      <c r="H57" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I57">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J57">
+        <v>91</v>
+      </c>
+      <c r="K57">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>15460</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E58">
+        <v>6.96</v>
+      </c>
+      <c r="F58">
+        <v>6.28</v>
+      </c>
+      <c r="G58">
+        <v>7.18</v>
+      </c>
+      <c r="H58" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I58">
+        <v>4.2</v>
+      </c>
+      <c r="J58">
+        <v>95</v>
+      </c>
+      <c r="K58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>47150</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E59">
+        <v>10.79</v>
+      </c>
+      <c r="F59">
+        <v>11.5</v>
+      </c>
+      <c r="G59">
+        <v>8.93</v>
+      </c>
+      <c r="H59" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I59">
+        <v>4.24</v>
+      </c>
+      <c r="J59">
+        <v>58</v>
+      </c>
+      <c r="K59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>24150</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="E60">
+        <v>12.8</v>
+      </c>
+      <c r="F60">
+        <v>11.61</v>
+      </c>
+      <c r="G60">
+        <v>12.93</v>
+      </c>
+      <c r="H60" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I60">
+        <v>4.12</v>
+      </c>
+      <c r="J60">
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>115900</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="E61">
+        <v>16.75</v>
+      </c>
+      <c r="F61">
+        <v>8.9</v>
+      </c>
+      <c r="G61">
+        <v>21.73</v>
+      </c>
+      <c r="H61" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I61">
+        <v>0.31</v>
+      </c>
+      <c r="J61">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>57000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E62">
+        <v>8.77</v>
+      </c>
+      <c r="F62">
+        <v>6.58</v>
+      </c>
+      <c r="G62">
+        <v>13.11</v>
+      </c>
+      <c r="H62" s="4">
+        <v>71836.88</v>
+      </c>
+      <c r="I62">
+        <v>2.81</v>
+      </c>
+      <c r="J62">
+        <v>65</v>
+      </c>
+      <c r="K62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>136300</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E63">
+        <v>6.36</v>
+      </c>
+      <c r="F63">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G63">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H63" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I63">
+        <v>2.64</v>
+      </c>
+      <c r="J63">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>479500</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.46E-2</v>
+      </c>
+      <c r="E64">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F64">
+        <v>41.01</v>
+      </c>
+      <c r="G64">
+        <v>29.72</v>
+      </c>
+      <c r="H64" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I64">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J64">
+        <v>92</v>
+      </c>
+      <c r="K64">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>112700</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="E65">
+        <v>16.57</v>
+      </c>
+      <c r="F65">
+        <v>11.93</v>
+      </c>
+      <c r="G65">
+        <v>15.65</v>
+      </c>
+      <c r="H65" s="4">
+        <v>89245.59</v>
+      </c>
+      <c r="I65">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J65">
+        <v>39</v>
+      </c>
+      <c r="K65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>54900</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="E66">
+        <v>19.62</v>
+      </c>
+      <c r="F66">
+        <v>5.18</v>
+      </c>
+      <c r="G66">
+        <v>10.95</v>
+      </c>
+      <c r="H66" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I66">
+        <v>0.64</v>
+      </c>
+      <c r="J66">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1059000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E67">
+        <v>14.9</v>
+      </c>
+      <c r="F67">
+        <v>21.1</v>
+      </c>
+      <c r="G67">
+        <v>9.09</v>
+      </c>
+      <c r="H67" s="4">
+        <v>210765.09</v>
+      </c>
+      <c r="I67">
+        <v>0.47</v>
+      </c>
+      <c r="J67">
+        <v>97</v>
+      </c>
+      <c r="K67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>159200</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E68">
+        <v>10.4</v>
+      </c>
+      <c r="F68">
+        <v>4.63</v>
+      </c>
+      <c r="G68">
+        <v>9.14</v>
+      </c>
+      <c r="H68" s="4">
+        <v>61347.82</v>
+      </c>
+      <c r="I68">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J68">
+        <v>54</v>
+      </c>
+      <c r="K68">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>25150</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E69">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F69">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G69">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H69" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
-        <v>4.74</v>
-      </c>
-      <c r="J30">
-        <v>91</v>
-      </c>
-      <c r="K30">
-        <v>91</v>
+      <c r="I69">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J69">
+        <v>90</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B377C083-81E4-4856-9AB6-38D299B81B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E8A171-0C1C-43F1-A016-576A21744C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B1D62587-8F9F-4E67-A3CE-1EBB032E8FD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D160CA2D-77D6-4922-8B4E-3358D7924B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,12 +603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A4DAC7-843F-4D25-9E8C-58D447F08D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1071C25-14D5-4260-B21C-A1D59B5B88D9}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -666,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>25550</v>
+        <v>24050</v>
       </c>
       <c r="D2" s="3">
-        <v>3.2300000000000002E-2</v>
+        <v>-4.9399999999999999E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -684,13 +682,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>3.91</v>
+        <v>4.16</v>
       </c>
       <c r="J2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K2">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -701,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>106100</v>
+        <v>104100</v>
       </c>
       <c r="D3" s="3">
-        <v>8.4900000000000003E-2</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -719,13 +717,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.13</v>
+        <v>6.24</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -736,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>463000</v>
+        <v>456000</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -754,13 +752,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.0999999999999996</v>
+        <v>4.17</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>34100</v>
+        <v>33550</v>
       </c>
       <c r="D5" s="3">
-        <v>1.6400000000000001E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -789,13 +787,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>5.87</v>
+        <v>5.96</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -806,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>34250</v>
+        <v>33400</v>
       </c>
       <c r="D6" s="3">
-        <v>-2.8999999999999998E-3</v>
+        <v>-1.6199999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -824,13 +822,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="J6">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -841,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27550</v>
+        <v>27150</v>
       </c>
       <c r="D7" s="3">
-        <v>-3.3300000000000003E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -859,13 +857,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.3600000000000003</v>
+        <v>4.42</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -876,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>11010</v>
+        <v>11030</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.17E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -894,7 +892,7 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="J8">
         <v>91</v>
@@ -911,10 +909,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>78100</v>
+        <v>76800</v>
       </c>
       <c r="D9" s="3">
-        <v>8.9999999999999993E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -929,13 +927,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.84</v>
+        <v>3.91</v>
       </c>
       <c r="J9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>222000</v>
+        <v>216500</v>
       </c>
       <c r="D10" s="3">
-        <v>7.51E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -964,13 +962,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.41</v>
+        <v>5.54</v>
       </c>
       <c r="J10">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -981,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>133800</v>
+        <v>134200</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.2500000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -999,7 +997,7 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="J11">
         <v>87</v>
@@ -1016,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>21100</v>
+        <v>20700</v>
       </c>
       <c r="D12" s="3">
-        <v>-1.6299999999999999E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1034,13 +1032,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="J12">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1051,10 +1049,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72500</v>
+        <v>72400</v>
       </c>
       <c r="D13" s="3">
-        <v>-4.1000000000000003E-3</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1086,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-7.1000000000000004E-3</v>
+        <v>55500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1104,13 +1102,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.31</v>
+        <v>6.38</v>
       </c>
       <c r="J14">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,10 +1119,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83300</v>
+        <v>81900</v>
       </c>
       <c r="D15" s="3">
-        <v>-3.0300000000000001E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1139,13 +1137,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.6</v>
+        <v>6.72</v>
       </c>
       <c r="J15">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>20100</v>
+        <v>19850</v>
       </c>
       <c r="D16" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1174,13 +1172,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.3</v>
+        <v>5.37</v>
       </c>
       <c r="J16">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1191,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>53400</v>
+        <v>52600</v>
       </c>
       <c r="D17" s="3">
-        <v>7.4999999999999997E-3</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1209,13 +1207,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1226,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>21600</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
+        <v>21150</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1244,13 +1242,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>5.69</v>
+        <v>5.82</v>
       </c>
       <c r="J18">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1261,10 +1259,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>56400</v>
+        <v>55900</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.5699999999999999E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1279,13 +1277,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="J19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14920</v>
+        <v>14670</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.32E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1314,13 +1312,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.3600000000000003</v>
+        <v>4.43</v>
       </c>
       <c r="J20">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,10 +1329,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>134900</v>
+        <v>132500</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.17E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1349,13 +1347,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="J21">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>45750</v>
+        <v>45250</v>
       </c>
       <c r="D22" s="3">
-        <v>4.6899999999999997E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1384,13 +1382,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="J22">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1401,10 +1399,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>68100</v>
+        <v>71200</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.5E-3</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1419,13 +1417,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="J23">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1436,10 +1434,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51700</v>
+        <v>51300</v>
       </c>
       <c r="D24" s="3">
-        <v>1.9E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1454,13 +1452,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.22</v>
+        <v>5.26</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,10 +1469,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>90800</v>
+        <v>92500</v>
       </c>
       <c r="D25" s="3">
-        <v>-4.4000000000000003E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1489,13 +1487,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>3.96</v>
+        <v>3.89</v>
       </c>
       <c r="J25">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,10 +1504,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>115300</v>
+        <v>118800</v>
       </c>
       <c r="D26" s="3">
-        <v>6.1000000000000004E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1524,13 +1522,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J26">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,10 +1539,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>15460</v>
+        <v>15180</v>
       </c>
       <c r="D27" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1559,13 +1557,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="J27">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1576,10 +1574,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14690</v>
+        <v>14540</v>
       </c>
       <c r="D28" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1594,13 +1592,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="J28">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,10 +1609,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>24150</v>
+        <v>23750</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.43E-2</v>
+        <v>-2.46E-2</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1629,13 +1627,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.12</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J29">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,10 +1644,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>25150</v>
+        <v>25550</v>
       </c>
       <c r="D30" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1664,13 +1662,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.7699999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="J30">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E8A171-0C1C-43F1-A016-576A21744C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56BE3EE-D257-439B-8EDC-8E16782703EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D160CA2D-77D6-4922-8B4E-3358D7924B37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E0C88FC6-3883-4C70-942F-4F5714E43C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,6 +90,12 @@
     <t>대신증권</t>
   </si>
   <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
     <t>003690</t>
   </si>
   <si>
@@ -178,6 +184,12 @@
   </si>
   <si>
     <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
   </si>
   <si>
     <t>055550</t>
@@ -603,10 +615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1071C25-14D5-4260-B21C-A1D59B5B88D9}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C91B1DC-2D8D-4F0A-9787-DDA57E91B2D4}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -874,31 +888,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>11030</v>
+        <v>52300</v>
       </c>
       <c r="D8" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>12.89</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>9.02</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>7.9</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>26158.58</v>
       </c>
       <c r="I8">
-        <v>4.67</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,31 +923,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76800</v>
+        <v>11030</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>9.44</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>11.1</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>9.86</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I9">
-        <v>3.91</v>
+        <v>4.67</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,31 +958,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>216500</v>
+        <v>76800</v>
       </c>
       <c r="D10" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>19.62</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>12.01</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>6.74</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>130022.16</v>
       </c>
       <c r="I10">
-        <v>5.54</v>
+        <v>3.91</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,31 +993,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>134200</v>
+        <v>216500</v>
       </c>
       <c r="D11" s="3">
-        <v>1.67E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>18.96</v>
+        <v>12.43</v>
       </c>
       <c r="F11">
-        <v>19.86</v>
+        <v>11.52</v>
       </c>
       <c r="G11">
-        <v>18.8</v>
+        <v>11.82</v>
       </c>
       <c r="H11" s="4">
-        <v>115980.87</v>
+        <v>411868.79</v>
       </c>
       <c r="I11">
-        <v>5.07</v>
+        <v>5.54</v>
       </c>
       <c r="J11">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,31 +1028,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20700</v>
+        <v>134200</v>
       </c>
       <c r="D12" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>18.96</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>19.86</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>18.8</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>115980.87</v>
       </c>
       <c r="I12">
-        <v>4.59</v>
+        <v>5.07</v>
       </c>
       <c r="J12">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,31 +1063,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72400</v>
+        <v>20700</v>
       </c>
       <c r="D13" s="3">
-        <v>1.12E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>8.73</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>10.35</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>6.85</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I13">
-        <v>4.83</v>
+        <v>4.59</v>
       </c>
       <c r="J13">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,31 +1098,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
+        <v>72400</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.12E-2</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>12.89</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>13.62</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>9.44</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>81376.7</v>
       </c>
       <c r="I14">
-        <v>6.38</v>
+        <v>4.83</v>
       </c>
       <c r="J14">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,31 +1133,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>81900</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>55500</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>10.83</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>9.48</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>55460.24</v>
       </c>
       <c r="I15">
-        <v>6.72</v>
+        <v>6.38</v>
       </c>
       <c r="J15">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,31 +1168,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19850</v>
+        <v>81900</v>
       </c>
       <c r="D16" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>14.42</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>11.9</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>15.82</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>32483.7</v>
       </c>
       <c r="I16">
-        <v>5.37</v>
+        <v>6.72</v>
       </c>
       <c r="J16">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,31 +1203,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>52600</v>
+        <v>19850</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>8.06</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>9.52</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>8.77</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>42663.82</v>
       </c>
       <c r="I17">
-        <v>5.32</v>
+        <v>5.37</v>
       </c>
       <c r="J17">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,31 +1238,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>21150</v>
+        <v>52600</v>
       </c>
       <c r="D18" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>8.75</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>7.9</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>75767.48</v>
       </c>
       <c r="I18">
-        <v>5.82</v>
+        <v>5.32</v>
       </c>
       <c r="J18">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="K18">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,31 +1273,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55900</v>
+        <v>21150</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>15.12</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>7.98</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>15.58</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>14481.01</v>
       </c>
       <c r="I19">
-        <v>3.58</v>
+        <v>5.82</v>
       </c>
       <c r="J19">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,31 +1308,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14670</v>
+        <v>55900</v>
       </c>
       <c r="D20" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>2.85</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>13.16</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>5.63</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>66926.62</v>
       </c>
       <c r="I20">
-        <v>4.43</v>
+        <v>3.58</v>
       </c>
       <c r="J20">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K20">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,31 +1343,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>132500</v>
+        <v>14670</v>
       </c>
       <c r="D21" s="3">
-        <v>7.6E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>7.75</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>6.75</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>19799.21</v>
       </c>
       <c r="I21">
-        <v>4.08</v>
+        <v>4.43</v>
       </c>
       <c r="J21">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,31 +1378,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>45250</v>
+        <v>132500</v>
       </c>
       <c r="D22" s="3">
-        <v>1.34E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>12.66</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>11.17</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>11.14</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>81115.86</v>
       </c>
       <c r="I22">
-        <v>3.22</v>
+        <v>4.08</v>
       </c>
       <c r="J22">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,31 +1413,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>71200</v>
+        <v>45250</v>
       </c>
       <c r="D23" s="3">
-        <v>2.7400000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>11.21</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>13.43</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>6.4</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>121076.78</v>
       </c>
       <c r="I23">
-        <v>3.03</v>
+        <v>3.22</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,31 +1448,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51300</v>
+        <v>221500</v>
       </c>
       <c r="D24" s="3">
-        <v>2E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>15.98</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>16.78</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>12.25</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>212733.48</v>
       </c>
       <c r="I24">
-        <v>5.26</v>
+        <v>3.39</v>
       </c>
       <c r="J24">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,31 +1483,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>92500</v>
+        <v>71200</v>
       </c>
       <c r="D25" s="3">
-        <v>1.6500000000000001E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>8.11</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>10.55</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>8.66</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>113903.42</v>
       </c>
       <c r="I25">
-        <v>3.89</v>
+        <v>3.03</v>
       </c>
       <c r="J25">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,31 +1518,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>118800</v>
+        <v>51300</v>
       </c>
       <c r="D26" s="3">
-        <v>1.37E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>4.12</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>5.83</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>11.01</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I26">
-        <v>2.67</v>
+        <v>5.26</v>
       </c>
       <c r="J26">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,31 +1553,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>15180</v>
+        <v>92500</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.8100000000000002E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>9.11</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>10.47</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>9.4</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>153124.29</v>
       </c>
       <c r="I27">
-        <v>4.28</v>
+        <v>3.89</v>
       </c>
       <c r="J27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,31 +1588,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14540</v>
+        <v>118800</v>
       </c>
       <c r="D28" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>8.86</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>11.69</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>8.51</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>152301.9</v>
       </c>
       <c r="I28">
-        <v>3.44</v>
+        <v>2.67</v>
       </c>
       <c r="J28">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,31 +1623,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>23750</v>
+        <v>15180</v>
       </c>
       <c r="D29" s="3">
-        <v>-2.46E-2</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>6.96</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>6.28</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>7.18</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>33008.75</v>
       </c>
       <c r="I29">
-        <v>4.1900000000000004</v>
+        <v>4.28</v>
       </c>
       <c r="J29">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K29">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1644,30 +1658,100 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
+        <v>14540</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E30">
+        <v>3.6</v>
+      </c>
+      <c r="F30">
+        <v>10.34</v>
+      </c>
+      <c r="G30">
+        <v>5.91</v>
+      </c>
+      <c r="H30" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I30">
+        <v>3.44</v>
+      </c>
+      <c r="J30">
+        <v>90</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>23750</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="E31">
+        <v>12.8</v>
+      </c>
+      <c r="F31">
+        <v>11.61</v>
+      </c>
+      <c r="G31">
+        <v>12.93</v>
+      </c>
+      <c r="H31" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I31">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J31">
+        <v>89</v>
+      </c>
+      <c r="K31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
         <v>25550</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D32" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H32" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <v>4.7</v>
       </c>
-      <c r="J30">
+      <c r="J32">
         <v>92</v>
       </c>
-      <c r="K30">
+      <c r="K32">
         <v>92</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56BE3EE-D257-439B-8EDC-8E16782703EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CFF1E0-3132-4882-B0F2-43D30A15B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E0C88FC6-3883-4C70-942F-4F5714E43C15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4451548A-02BA-4D66-B754-B785C55F37E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,6 +90,12 @@
     <t>대신증권</t>
   </si>
   <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
     <t>003570</t>
   </si>
   <si>
@@ -120,12 +126,36 @@
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -144,6 +174,18 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
     <t>024110</t>
   </si>
   <si>
@@ -174,12 +216,24 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
@@ -192,6 +246,12 @@
     <t>키움증권</t>
   </si>
   <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
@@ -204,6 +264,12 @@
     <t>GS</t>
   </si>
   <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
@@ -216,6 +282,12 @@
     <t>KB금융</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -226,6 +298,12 @@
   </si>
   <si>
     <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -615,17 +693,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C91B1DC-2D8D-4F0A-9787-DDA57E91B2D4}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02944E-6CA1-46DA-B7E4-B72224F3E22E}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -888,31 +964,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>52300</v>
+        <v>79400</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.32E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>12.89</v>
+        <v>2.16</v>
       </c>
       <c r="F8">
-        <v>9.02</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>7.9</v>
+        <v>5.18</v>
       </c>
       <c r="H8" s="4">
-        <v>26158.58</v>
+        <v>174674.22</v>
       </c>
       <c r="I8">
-        <v>2.4900000000000002</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -923,31 +999,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>11030</v>
+        <v>52300</v>
       </c>
       <c r="D9" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E9">
-        <v>9.44</v>
+        <v>12.89</v>
       </c>
       <c r="F9">
-        <v>11.1</v>
+        <v>9.02</v>
       </c>
       <c r="G9">
-        <v>9.86</v>
+        <v>7.9</v>
       </c>
       <c r="H9" s="4">
-        <v>18178.189999999999</v>
+        <v>26158.58</v>
       </c>
       <c r="I9">
-        <v>4.67</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K9">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -958,31 +1034,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>76800</v>
+        <v>11030</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>19.62</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>12.01</v>
+        <v>11.1</v>
       </c>
       <c r="G10">
-        <v>6.74</v>
+        <v>9.86</v>
       </c>
       <c r="H10" s="4">
-        <v>130022.16</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I10">
-        <v>3.91</v>
+        <v>4.67</v>
       </c>
       <c r="J10">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -993,31 +1069,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>216500</v>
+        <v>76800</v>
       </c>
       <c r="D11" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="E11">
-        <v>12.43</v>
+        <v>19.62</v>
       </c>
       <c r="F11">
-        <v>11.52</v>
+        <v>12.01</v>
       </c>
       <c r="G11">
-        <v>11.82</v>
+        <v>6.74</v>
       </c>
       <c r="H11" s="4">
-        <v>411868.79</v>
+        <v>130022.16</v>
       </c>
       <c r="I11">
-        <v>5.54</v>
+        <v>3.91</v>
       </c>
       <c r="J11">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1028,31 +1104,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>134200</v>
+        <v>216500</v>
       </c>
       <c r="D12" s="3">
-        <v>1.67E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>18.96</v>
+        <v>12.43</v>
       </c>
       <c r="F12">
-        <v>19.86</v>
+        <v>11.52</v>
       </c>
       <c r="G12">
-        <v>18.8</v>
+        <v>11.82</v>
       </c>
       <c r="H12" s="4">
-        <v>115980.87</v>
+        <v>411868.79</v>
       </c>
       <c r="I12">
-        <v>5.07</v>
+        <v>5.54</v>
       </c>
       <c r="J12">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1063,31 +1139,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>20700</v>
+        <v>134200</v>
       </c>
       <c r="D13" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E13">
-        <v>8.73</v>
+        <v>18.96</v>
       </c>
       <c r="F13">
-        <v>10.35</v>
+        <v>19.86</v>
       </c>
       <c r="G13">
-        <v>6.85</v>
+        <v>18.8</v>
       </c>
       <c r="H13" s="4">
-        <v>23121.599999999999</v>
+        <v>115980.87</v>
       </c>
       <c r="I13">
-        <v>4.59</v>
+        <v>5.07</v>
       </c>
       <c r="J13">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1098,31 +1174,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>72400</v>
+        <v>34150</v>
       </c>
       <c r="D14" s="3">
-        <v>1.12E-2</v>
+        <v>-3.5299999999999998E-2</v>
       </c>
       <c r="E14">
-        <v>12.89</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F14">
-        <v>13.62</v>
+        <v>17.22</v>
       </c>
       <c r="G14">
-        <v>9.44</v>
+        <v>15.37</v>
       </c>
       <c r="H14" s="4">
-        <v>81376.7</v>
+        <v>50552.95</v>
       </c>
       <c r="I14">
-        <v>4.83</v>
+        <v>3.51</v>
       </c>
       <c r="J14">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1133,31 +1209,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
+        <v>20700</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E15">
-        <v>10.83</v>
+        <v>8.73</v>
       </c>
       <c r="F15">
-        <v>12.4</v>
+        <v>10.35</v>
       </c>
       <c r="G15">
-        <v>9.48</v>
+        <v>6.85</v>
       </c>
       <c r="H15" s="4">
-        <v>55460.24</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I15">
-        <v>6.38</v>
+        <v>4.59</v>
       </c>
       <c r="J15">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1168,31 +1244,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>81900</v>
+        <v>31100</v>
       </c>
       <c r="D16" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>14.42</v>
+        <v>19.78</v>
       </c>
       <c r="F16">
-        <v>11.9</v>
+        <v>17.25</v>
       </c>
       <c r="G16">
-        <v>15.82</v>
+        <v>23.29</v>
       </c>
       <c r="H16" s="4">
-        <v>32483.7</v>
+        <v>31156.34</v>
       </c>
       <c r="I16">
-        <v>6.72</v>
+        <v>3.22</v>
       </c>
       <c r="J16">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1203,31 +1279,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>19850</v>
+        <v>133900</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>8.06</v>
+        <v>13.17</v>
       </c>
       <c r="F17">
-        <v>9.52</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G17">
-        <v>8.77</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H17" s="4">
-        <v>42663.82</v>
+        <v>201114.72</v>
       </c>
       <c r="I17">
-        <v>5.37</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1238,31 +1314,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>52600</v>
+        <v>70900</v>
       </c>
       <c r="D18" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10.85</v>
       </c>
       <c r="F18">
-        <v>8.75</v>
+        <v>10.27</v>
       </c>
       <c r="G18">
-        <v>7.9</v>
+        <v>11.06</v>
       </c>
       <c r="H18" s="4">
-        <v>75767.48</v>
+        <v>46509.73</v>
       </c>
       <c r="I18">
-        <v>5.32</v>
+        <v>3.81</v>
       </c>
       <c r="J18">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1273,31 +1349,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>21150</v>
+        <v>72400</v>
       </c>
       <c r="D19" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E19">
-        <v>15.12</v>
+        <v>12.89</v>
       </c>
       <c r="F19">
-        <v>7.98</v>
+        <v>13.62</v>
       </c>
       <c r="G19">
-        <v>15.58</v>
+        <v>9.44</v>
       </c>
       <c r="H19" s="4">
-        <v>14481.01</v>
+        <v>81376.7</v>
       </c>
       <c r="I19">
-        <v>5.82</v>
+        <v>4.83</v>
       </c>
       <c r="J19">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1308,31 +1384,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>55900</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>55500</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.85</v>
+        <v>10.83</v>
       </c>
       <c r="F20">
-        <v>13.16</v>
+        <v>12.4</v>
       </c>
       <c r="G20">
-        <v>5.63</v>
+        <v>9.48</v>
       </c>
       <c r="H20" s="4">
-        <v>66926.62</v>
+        <v>55460.24</v>
       </c>
       <c r="I20">
-        <v>3.58</v>
+        <v>6.38</v>
       </c>
       <c r="J20">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1343,31 +1419,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>14670</v>
+        <v>81900</v>
       </c>
       <c r="D21" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>4.4000000000000004</v>
+        <v>14.42</v>
       </c>
       <c r="F21">
-        <v>7.75</v>
+        <v>11.9</v>
       </c>
       <c r="G21">
-        <v>6.75</v>
+        <v>15.82</v>
       </c>
       <c r="H21" s="4">
-        <v>19799.21</v>
+        <v>32483.7</v>
       </c>
       <c r="I21">
-        <v>4.43</v>
+        <v>6.72</v>
       </c>
       <c r="J21">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1378,31 +1454,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>132500</v>
+        <v>107300</v>
       </c>
       <c r="D22" s="3">
-        <v>7.6E-3</v>
+        <v>-1.38E-2</v>
       </c>
       <c r="E22">
-        <v>12.66</v>
+        <v>19.38</v>
       </c>
       <c r="F22">
-        <v>11.17</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G22">
-        <v>11.14</v>
+        <v>20.04</v>
       </c>
       <c r="H22" s="4">
-        <v>81115.86</v>
+        <v>43969.66</v>
       </c>
       <c r="I22">
-        <v>4.08</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J22">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1413,31 +1489,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>45250</v>
+        <v>36050</v>
       </c>
       <c r="D23" s="3">
-        <v>1.34E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E23">
-        <v>11.21</v>
+        <v>13.16</v>
       </c>
       <c r="F23">
-        <v>13.43</v>
+        <v>14.03</v>
       </c>
       <c r="G23">
-        <v>6.4</v>
+        <v>13.29</v>
       </c>
       <c r="H23" s="4">
-        <v>121076.78</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I23">
-        <v>3.22</v>
+        <v>3.88</v>
       </c>
       <c r="J23">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1448,31 +1524,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>221500</v>
+        <v>19850</v>
       </c>
       <c r="D24" s="3">
-        <v>4.4999999999999997E-3</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>15.98</v>
+        <v>8.06</v>
       </c>
       <c r="F24">
-        <v>16.78</v>
+        <v>9.52</v>
       </c>
       <c r="G24">
-        <v>12.25</v>
+        <v>8.77</v>
       </c>
       <c r="H24" s="4">
-        <v>212733.48</v>
+        <v>42663.82</v>
       </c>
       <c r="I24">
-        <v>3.39</v>
+        <v>5.37</v>
       </c>
       <c r="J24">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1483,31 +1559,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>71200</v>
+        <v>52600</v>
       </c>
       <c r="D25" s="3">
-        <v>2.7400000000000001E-2</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>8.11</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>10.55</v>
+        <v>8.75</v>
       </c>
       <c r="G25">
-        <v>8.66</v>
+        <v>7.9</v>
       </c>
       <c r="H25" s="4">
-        <v>113903.42</v>
+        <v>75767.48</v>
       </c>
       <c r="I25">
-        <v>3.03</v>
+        <v>5.32</v>
       </c>
       <c r="J25">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1518,31 +1594,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>51300</v>
+        <v>21150</v>
       </c>
       <c r="D26" s="3">
-        <v>2E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="E26">
-        <v>4.12</v>
+        <v>15.12</v>
       </c>
       <c r="F26">
-        <v>5.83</v>
+        <v>7.98</v>
       </c>
       <c r="G26">
-        <v>11.01</v>
+        <v>15.58</v>
       </c>
       <c r="H26" s="4">
-        <v>147806.45000000001</v>
+        <v>14481.01</v>
       </c>
       <c r="I26">
-        <v>5.26</v>
+        <v>5.82</v>
       </c>
       <c r="J26">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1553,31 +1629,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>92500</v>
+        <v>55900</v>
       </c>
       <c r="D27" s="3">
-        <v>1.6500000000000001E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E27">
-        <v>9.11</v>
+        <v>2.85</v>
       </c>
       <c r="F27">
-        <v>10.47</v>
+        <v>13.16</v>
       </c>
       <c r="G27">
-        <v>9.4</v>
+        <v>5.63</v>
       </c>
       <c r="H27" s="4">
-        <v>153124.29</v>
+        <v>66926.62</v>
       </c>
       <c r="I27">
-        <v>3.89</v>
+        <v>3.58</v>
       </c>
       <c r="J27">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1588,31 +1664,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>118800</v>
+        <v>14670</v>
       </c>
       <c r="D28" s="3">
-        <v>1.37E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E28">
-        <v>8.86</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F28">
-        <v>11.69</v>
+        <v>7.75</v>
       </c>
       <c r="G28">
-        <v>8.51</v>
+        <v>6.75</v>
       </c>
       <c r="H28" s="4">
-        <v>152301.9</v>
+        <v>19799.21</v>
       </c>
       <c r="I28">
-        <v>2.67</v>
+        <v>4.43</v>
       </c>
       <c r="J28">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1623,31 +1699,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>15180</v>
+        <v>128500</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.8100000000000002E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E29">
-        <v>6.96</v>
+        <v>5.76</v>
       </c>
       <c r="F29">
-        <v>6.28</v>
+        <v>8.44</v>
       </c>
       <c r="G29">
-        <v>7.18</v>
+        <v>5.33</v>
       </c>
       <c r="H29" s="4">
-        <v>33008.75</v>
+        <v>158106.71</v>
       </c>
       <c r="I29">
-        <v>4.28</v>
+        <v>3.5</v>
       </c>
       <c r="J29">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1658,31 +1734,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>14540</v>
+        <v>132500</v>
       </c>
       <c r="D30" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E30">
-        <v>3.6</v>
+        <v>12.66</v>
       </c>
       <c r="F30">
-        <v>10.34</v>
+        <v>11.17</v>
       </c>
       <c r="G30">
-        <v>5.91</v>
+        <v>11.14</v>
       </c>
       <c r="H30" s="4">
-        <v>35883.14</v>
+        <v>81115.86</v>
       </c>
       <c r="I30">
-        <v>3.44</v>
+        <v>4.08</v>
       </c>
       <c r="J30">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1693,31 +1769,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>23750</v>
+        <v>19480</v>
       </c>
       <c r="D31" s="3">
-        <v>-2.46E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E31">
-        <v>12.8</v>
+        <v>12.08</v>
       </c>
       <c r="F31">
-        <v>11.61</v>
+        <v>7.85</v>
       </c>
       <c r="G31">
-        <v>12.93</v>
+        <v>8.39</v>
       </c>
       <c r="H31" s="4">
-        <v>29151.87</v>
+        <v>18381.900000000001</v>
       </c>
       <c r="I31">
-        <v>4.1900000000000004</v>
+        <v>6.01</v>
       </c>
       <c r="J31">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1728,30 +1804,485 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
+        <v>45250</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E32">
+        <v>11.21</v>
+      </c>
+      <c r="F32">
+        <v>13.43</v>
+      </c>
+      <c r="G32">
+        <v>6.4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I32">
+        <v>3.22</v>
+      </c>
+      <c r="J32">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>221500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E33">
+        <v>15.98</v>
+      </c>
+      <c r="F33">
+        <v>16.78</v>
+      </c>
+      <c r="G33">
+        <v>12.25</v>
+      </c>
+      <c r="H33" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I33">
+        <v>3.39</v>
+      </c>
+      <c r="J33">
+        <v>87</v>
+      </c>
+      <c r="K33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>51300</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E34">
+        <v>13.26</v>
+      </c>
+      <c r="F34">
+        <v>3.52</v>
+      </c>
+      <c r="G34">
+        <v>11.65</v>
+      </c>
+      <c r="H34" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I34">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="J34">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>71200</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>8.11</v>
+      </c>
+      <c r="F35">
+        <v>10.55</v>
+      </c>
+      <c r="G35">
+        <v>8.66</v>
+      </c>
+      <c r="H35" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I35">
+        <v>3.03</v>
+      </c>
+      <c r="J35">
+        <v>95</v>
+      </c>
+      <c r="K35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>51300</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E36">
+        <v>4.12</v>
+      </c>
+      <c r="F36">
+        <v>5.83</v>
+      </c>
+      <c r="G36">
+        <v>11.01</v>
+      </c>
+      <c r="H36" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I36">
+        <v>5.26</v>
+      </c>
+      <c r="J36">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>147800</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="E37">
+        <v>13.24</v>
+      </c>
+      <c r="F37">
+        <v>17.97</v>
+      </c>
+      <c r="G37">
+        <v>15.51</v>
+      </c>
+      <c r="H37" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I37">
+        <v>2.5</v>
+      </c>
+      <c r="J37">
+        <v>97</v>
+      </c>
+      <c r="K37">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>92500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.11</v>
+      </c>
+      <c r="F38">
+        <v>10.47</v>
+      </c>
+      <c r="G38">
+        <v>9.4</v>
+      </c>
+      <c r="H38" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I38">
+        <v>3.89</v>
+      </c>
+      <c r="J38">
+        <v>93</v>
+      </c>
+      <c r="K38">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>118800</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E39">
+        <v>8.86</v>
+      </c>
+      <c r="F39">
+        <v>11.69</v>
+      </c>
+      <c r="G39">
+        <v>8.51</v>
+      </c>
+      <c r="H39" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I39">
+        <v>2.67</v>
+      </c>
+      <c r="J39">
+        <v>91</v>
+      </c>
+      <c r="K39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>59200</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>12.32</v>
+      </c>
+      <c r="F40">
+        <v>9.67</v>
+      </c>
+      <c r="G40">
+        <v>18.72</v>
+      </c>
+      <c r="H40" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I40">
+        <v>2.36</v>
+      </c>
+      <c r="J40">
+        <v>81</v>
+      </c>
+      <c r="K40">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>15180</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.96</v>
+      </c>
+      <c r="F41">
+        <v>6.28</v>
+      </c>
+      <c r="G41">
+        <v>7.18</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I41">
+        <v>4.28</v>
+      </c>
+      <c r="J41">
+        <v>92</v>
+      </c>
+      <c r="K41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>14540</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E42">
+        <v>3.6</v>
+      </c>
+      <c r="F42">
+        <v>10.34</v>
+      </c>
+      <c r="G42">
+        <v>5.91</v>
+      </c>
+      <c r="H42" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I42">
+        <v>3.44</v>
+      </c>
+      <c r="J42">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>46100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-2.5399999999999999E-2</v>
+      </c>
+      <c r="E43">
+        <v>10.79</v>
+      </c>
+      <c r="F43">
+        <v>11.5</v>
+      </c>
+      <c r="G43">
+        <v>8.93</v>
+      </c>
+      <c r="H43" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I43">
+        <v>4.34</v>
+      </c>
+      <c r="J43">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>23750</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="E44">
+        <v>12.8</v>
+      </c>
+      <c r="F44">
+        <v>11.61</v>
+      </c>
+      <c r="G44">
+        <v>12.93</v>
+      </c>
+      <c r="H44" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I44">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J44">
+        <v>89</v>
+      </c>
+      <c r="K44">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
         <v>25550</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D45" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="E32">
+      <c r="E45">
         <v>9.39</v>
       </c>
-      <c r="F32">
+      <c r="F45">
         <v>7.27</v>
       </c>
-      <c r="G32">
+      <c r="G45">
         <v>9.73</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H45" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I32">
+      <c r="I45">
         <v>4.7</v>
       </c>
-      <c r="J32">
+      <c r="J45">
         <v>92</v>
       </c>
-      <c r="K32">
+      <c r="K45">
         <v>92</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CFF1E0-3132-4882-B0F2-43D30A15B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98AC588-9497-44BB-86F1-B17B7C9704F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4451548A-02BA-4D66-B754-B785C55F37E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0C355553-08C2-4534-BA49-0BD78FAE6D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,18 +90,6 @@
     <t>대신증권</t>
   </si>
   <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
     <t>003690</t>
   </si>
   <si>
@@ -126,36 +114,12 @@
     <t>DB손해보험</t>
   </si>
   <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
     <t>016360</t>
   </si>
   <si>
@@ -174,18 +138,6 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
     <t>024110</t>
   </si>
   <si>
@@ -216,42 +168,18 @@
     <t>LG유플러스</t>
   </si>
   <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
     <t>033780</t>
   </si>
   <si>
     <t>KT&amp;G</t>
   </si>
   <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
     <t>055550</t>
   </si>
   <si>
@@ -264,12 +192,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>086280</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
     <t>086790</t>
   </si>
   <si>
@@ -282,12 +204,6 @@
     <t>KB금융</t>
   </si>
   <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
     <t>138930</t>
   </si>
   <si>
@@ -298,12 +214,6 @@
   </si>
   <si>
     <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -693,15 +603,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02944E-6CA1-46DA-B7E4-B72224F3E22E}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39C7B4-19D5-4FDF-A60F-CA86C7F01503}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -964,31 +876,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>79400</v>
+        <v>11030</v>
       </c>
       <c r="D8" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>9.44</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>9.86</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>3.9</v>
+        <v>4.67</v>
       </c>
       <c r="J8">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -999,31 +911,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>52300</v>
+        <v>76800</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.32E-2</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="E9">
-        <v>12.89</v>
+        <v>19.62</v>
       </c>
       <c r="F9">
-        <v>9.02</v>
+        <v>12.01</v>
       </c>
       <c r="G9">
-        <v>7.9</v>
+        <v>6.74</v>
       </c>
       <c r="H9" s="4">
-        <v>26158.58</v>
+        <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>2.4900000000000002</v>
+        <v>3.91</v>
       </c>
       <c r="J9">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1034,31 +946,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>11030</v>
+        <v>216500</v>
       </c>
       <c r="D10" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>9.44</v>
+        <v>12.43</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>11.52</v>
       </c>
       <c r="G10">
-        <v>9.86</v>
+        <v>11.82</v>
       </c>
       <c r="H10" s="4">
-        <v>18178.189999999999</v>
+        <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>4.67</v>
+        <v>5.54</v>
       </c>
       <c r="J10">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1069,31 +981,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>76800</v>
+        <v>134200</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E11">
-        <v>19.62</v>
+        <v>18.96</v>
       </c>
       <c r="F11">
-        <v>12.01</v>
+        <v>19.86</v>
       </c>
       <c r="G11">
-        <v>6.74</v>
+        <v>18.8</v>
       </c>
       <c r="H11" s="4">
-        <v>130022.16</v>
+        <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>3.91</v>
+        <v>5.07</v>
       </c>
       <c r="J11">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1104,31 +1016,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>216500</v>
+        <v>20700</v>
       </c>
       <c r="D12" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E12">
-        <v>12.43</v>
+        <v>8.73</v>
       </c>
       <c r="F12">
-        <v>11.52</v>
+        <v>10.35</v>
       </c>
       <c r="G12">
-        <v>11.82</v>
+        <v>6.85</v>
       </c>
       <c r="H12" s="4">
-        <v>411868.79</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>5.54</v>
+        <v>4.59</v>
       </c>
       <c r="J12">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1139,31 +1051,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>134200</v>
+        <v>72400</v>
       </c>
       <c r="D13" s="3">
-        <v>1.67E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E13">
-        <v>18.96</v>
+        <v>12.89</v>
       </c>
       <c r="F13">
-        <v>19.86</v>
+        <v>13.62</v>
       </c>
       <c r="G13">
-        <v>18.8</v>
+        <v>9.44</v>
       </c>
       <c r="H13" s="4">
-        <v>115980.87</v>
+        <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>5.07</v>
+        <v>4.83</v>
       </c>
       <c r="J13">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1174,31 +1086,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>34150</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-3.5299999999999998E-2</v>
+        <v>55500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>17.420000000000002</v>
+        <v>10.83</v>
       </c>
       <c r="F14">
-        <v>17.22</v>
+        <v>12.4</v>
       </c>
       <c r="G14">
-        <v>15.37</v>
+        <v>9.48</v>
       </c>
       <c r="H14" s="4">
-        <v>50552.95</v>
+        <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>3.51</v>
+        <v>6.38</v>
       </c>
       <c r="J14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1209,31 +1121,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>20700</v>
+        <v>81900</v>
       </c>
       <c r="D15" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E15">
-        <v>8.73</v>
+        <v>14.42</v>
       </c>
       <c r="F15">
-        <v>10.35</v>
+        <v>11.9</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>15.82</v>
       </c>
       <c r="H15" s="4">
-        <v>23121.599999999999</v>
+        <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>4.59</v>
+        <v>6.72</v>
       </c>
       <c r="J15">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1244,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>31100</v>
+        <v>19850</v>
       </c>
       <c r="D16" s="3">
-        <v>5.0700000000000002E-2</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>19.78</v>
+        <v>8.06</v>
       </c>
       <c r="F16">
-        <v>17.25</v>
+        <v>9.52</v>
       </c>
       <c r="G16">
-        <v>23.29</v>
+        <v>8.77</v>
       </c>
       <c r="H16" s="4">
-        <v>31156.34</v>
+        <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>3.22</v>
+        <v>5.37</v>
       </c>
       <c r="J16">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1279,31 +1191,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>133900</v>
+        <v>52600</v>
       </c>
       <c r="D17" s="3">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E17">
-        <v>13.17</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10.220000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="G17">
-        <v>18.010000000000002</v>
+        <v>7.9</v>
       </c>
       <c r="H17" s="4">
-        <v>201114.72</v>
+        <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="J17">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1314,31 +1226,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>70900</v>
+        <v>21150</v>
       </c>
       <c r="D18" s="3">
-        <v>2.8E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="E18">
-        <v>10.85</v>
+        <v>15.12</v>
       </c>
       <c r="F18">
-        <v>10.27</v>
+        <v>7.98</v>
       </c>
       <c r="G18">
-        <v>11.06</v>
+        <v>15.58</v>
       </c>
       <c r="H18" s="4">
-        <v>46509.73</v>
+        <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>3.81</v>
+        <v>5.82</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1349,31 +1261,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>72400</v>
+        <v>55900</v>
       </c>
       <c r="D19" s="3">
-        <v>1.12E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E19">
-        <v>12.89</v>
+        <v>2.85</v>
       </c>
       <c r="F19">
-        <v>13.62</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>9.44</v>
+        <v>5.63</v>
       </c>
       <c r="H19" s="4">
-        <v>81376.7</v>
+        <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>4.83</v>
+        <v>3.58</v>
       </c>
       <c r="J19">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1384,31 +1296,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
+        <v>14670</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E20">
-        <v>10.83</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>12.4</v>
+        <v>7.75</v>
       </c>
       <c r="G20">
-        <v>9.48</v>
+        <v>6.75</v>
       </c>
       <c r="H20" s="4">
-        <v>55460.24</v>
+        <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>6.38</v>
+        <v>4.43</v>
       </c>
       <c r="J20">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1419,31 +1331,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>81900</v>
+        <v>132500</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E21">
-        <v>14.42</v>
+        <v>12.66</v>
       </c>
       <c r="F21">
-        <v>11.9</v>
+        <v>11.17</v>
       </c>
       <c r="G21">
-        <v>15.82</v>
+        <v>11.14</v>
       </c>
       <c r="H21" s="4">
-        <v>32483.7</v>
+        <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>6.72</v>
+        <v>4.08</v>
       </c>
       <c r="J21">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1454,31 +1366,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>107300</v>
+        <v>45250</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.38E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E22">
-        <v>19.38</v>
+        <v>11.21</v>
       </c>
       <c r="F22">
-        <v>17.489999999999998</v>
+        <v>13.43</v>
       </c>
       <c r="G22">
-        <v>20.04</v>
+        <v>6.4</v>
       </c>
       <c r="H22" s="4">
-        <v>43969.66</v>
+        <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>2.4500000000000002</v>
+        <v>3.22</v>
       </c>
       <c r="J22">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1489,31 +1401,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>36050</v>
+        <v>71200</v>
       </c>
       <c r="D23" s="3">
-        <v>0.03</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>13.16</v>
+        <v>8.11</v>
       </c>
       <c r="F23">
-        <v>14.03</v>
+        <v>10.55</v>
       </c>
       <c r="G23">
-        <v>13.29</v>
+        <v>8.66</v>
       </c>
       <c r="H23" s="4">
-        <v>65635.929999999993</v>
+        <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.88</v>
+        <v>3.03</v>
       </c>
       <c r="J23">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1524,31 +1436,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>19850</v>
+        <v>51300</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E24">
-        <v>8.06</v>
+        <v>4.12</v>
       </c>
       <c r="F24">
-        <v>9.52</v>
+        <v>5.83</v>
       </c>
       <c r="G24">
-        <v>8.77</v>
+        <v>11.01</v>
       </c>
       <c r="H24" s="4">
-        <v>42663.82</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.37</v>
+        <v>5.26</v>
       </c>
       <c r="J24">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1559,31 +1471,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>52600</v>
+        <v>92500</v>
       </c>
       <c r="D25" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>9.11</v>
       </c>
       <c r="F25">
-        <v>8.75</v>
+        <v>10.47</v>
       </c>
       <c r="G25">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="H25" s="4">
-        <v>75767.48</v>
+        <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>5.32</v>
+        <v>3.89</v>
       </c>
       <c r="J25">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1594,31 +1506,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>21150</v>
+        <v>118800</v>
       </c>
       <c r="D26" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E26">
-        <v>15.12</v>
+        <v>8.86</v>
       </c>
       <c r="F26">
-        <v>7.98</v>
+        <v>11.69</v>
       </c>
       <c r="G26">
-        <v>15.58</v>
+        <v>8.51</v>
       </c>
       <c r="H26" s="4">
-        <v>14481.01</v>
+        <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>5.82</v>
+        <v>2.67</v>
       </c>
       <c r="J26">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1629,31 +1541,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>55900</v>
+        <v>15180</v>
       </c>
       <c r="D27" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
       <c r="E27">
-        <v>2.85</v>
+        <v>6.96</v>
       </c>
       <c r="F27">
-        <v>13.16</v>
+        <v>6.28</v>
       </c>
       <c r="G27">
-        <v>5.63</v>
+        <v>7.18</v>
       </c>
       <c r="H27" s="4">
-        <v>66926.62</v>
+        <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>3.58</v>
+        <v>4.28</v>
       </c>
       <c r="J27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1664,31 +1576,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14670</v>
+        <v>14540</v>
       </c>
       <c r="D28" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E28">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="F28">
-        <v>7.75</v>
+        <v>10.34</v>
       </c>
       <c r="G28">
-        <v>6.75</v>
+        <v>5.91</v>
       </c>
       <c r="H28" s="4">
-        <v>19799.21</v>
+        <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>4.43</v>
+        <v>3.44</v>
       </c>
       <c r="J28">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1699,31 +1611,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>128500</v>
+        <v>23750</v>
       </c>
       <c r="D29" s="3">
-        <v>2.3E-3</v>
+        <v>-2.46E-2</v>
       </c>
       <c r="E29">
-        <v>5.76</v>
+        <v>12.8</v>
       </c>
       <c r="F29">
-        <v>8.44</v>
+        <v>11.61</v>
       </c>
       <c r="G29">
-        <v>5.33</v>
+        <v>12.93</v>
       </c>
       <c r="H29" s="4">
-        <v>158106.71</v>
+        <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>3.5</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J29">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1734,555 +1646,30 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>132500</v>
+        <v>25550</v>
       </c>
       <c r="D30" s="3">
-        <v>7.6E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E30">
-        <v>12.66</v>
+        <v>9.39</v>
       </c>
       <c r="F30">
-        <v>11.17</v>
+        <v>7.27</v>
       </c>
       <c r="G30">
-        <v>11.14</v>
+        <v>9.73</v>
       </c>
       <c r="H30" s="4">
-        <v>81115.86</v>
+        <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.08</v>
+        <v>4.7</v>
       </c>
       <c r="J30">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2">
-        <v>19480</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-4.1000000000000003E-3</v>
-      </c>
-      <c r="E31">
-        <v>12.08</v>
-      </c>
-      <c r="F31">
-        <v>7.85</v>
-      </c>
-      <c r="G31">
-        <v>8.39</v>
-      </c>
-      <c r="H31" s="4">
-        <v>18381.900000000001</v>
-      </c>
-      <c r="I31">
-        <v>6.01</v>
-      </c>
-      <c r="J31">
-        <v>38</v>
-      </c>
-      <c r="K31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45250</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.34E-2</v>
-      </c>
-      <c r="E32">
-        <v>11.21</v>
-      </c>
-      <c r="F32">
-        <v>13.43</v>
-      </c>
-      <c r="G32">
-        <v>6.4</v>
-      </c>
-      <c r="H32" s="4">
-        <v>121076.78</v>
-      </c>
-      <c r="I32">
-        <v>3.22</v>
-      </c>
-      <c r="J32">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2">
-        <v>221500</v>
-      </c>
-      <c r="D33" s="3">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="E33">
-        <v>15.98</v>
-      </c>
-      <c r="F33">
-        <v>16.78</v>
-      </c>
-      <c r="G33">
-        <v>12.25</v>
-      </c>
-      <c r="H33" s="4">
-        <v>212733.48</v>
-      </c>
-      <c r="I33">
-        <v>3.39</v>
-      </c>
-      <c r="J33">
-        <v>87</v>
-      </c>
-      <c r="K33">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2">
-        <v>51300</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="E34">
-        <v>13.26</v>
-      </c>
-      <c r="F34">
-        <v>3.52</v>
-      </c>
-      <c r="G34">
-        <v>11.65</v>
-      </c>
-      <c r="H34" s="4">
-        <v>27139.93</v>
-      </c>
-      <c r="I34">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="J34">
-        <v>64</v>
-      </c>
-      <c r="K34">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="2">
-        <v>71200</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="E35">
-        <v>8.11</v>
-      </c>
-      <c r="F35">
-        <v>10.55</v>
-      </c>
-      <c r="G35">
-        <v>8.66</v>
-      </c>
-      <c r="H35" s="4">
-        <v>113903.42</v>
-      </c>
-      <c r="I35">
-        <v>3.03</v>
-      </c>
-      <c r="J35">
-        <v>95</v>
-      </c>
-      <c r="K35">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2">
-        <v>51300</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="E36">
-        <v>4.12</v>
-      </c>
-      <c r="F36">
-        <v>5.83</v>
-      </c>
-      <c r="G36">
-        <v>11.01</v>
-      </c>
-      <c r="H36" s="4">
-        <v>147806.45000000001</v>
-      </c>
-      <c r="I36">
-        <v>5.26</v>
-      </c>
-      <c r="J36">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="2">
-        <v>147800</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="E37">
-        <v>13.24</v>
-      </c>
-      <c r="F37">
-        <v>17.97</v>
-      </c>
-      <c r="G37">
-        <v>15.51</v>
-      </c>
-      <c r="H37" s="4">
-        <v>119232.22</v>
-      </c>
-      <c r="I37">
-        <v>2.5</v>
-      </c>
-      <c r="J37">
-        <v>97</v>
-      </c>
-      <c r="K37">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2">
-        <v>92500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E38">
-        <v>9.11</v>
-      </c>
-      <c r="F38">
-        <v>10.47</v>
-      </c>
-      <c r="G38">
-        <v>9.4</v>
-      </c>
-      <c r="H38" s="4">
-        <v>153124.29</v>
-      </c>
-      <c r="I38">
-        <v>3.89</v>
-      </c>
-      <c r="J38">
-        <v>93</v>
-      </c>
-      <c r="K38">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="2">
-        <v>118800</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E39">
-        <v>8.86</v>
-      </c>
-      <c r="F39">
-        <v>11.69</v>
-      </c>
-      <c r="G39">
-        <v>8.51</v>
-      </c>
-      <c r="H39" s="4">
-        <v>152301.9</v>
-      </c>
-      <c r="I39">
-        <v>2.67</v>
-      </c>
-      <c r="J39">
-        <v>91</v>
-      </c>
-      <c r="K39">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2">
-        <v>59200</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="E40">
-        <v>12.32</v>
-      </c>
-      <c r="F40">
-        <v>9.67</v>
-      </c>
-      <c r="G40">
-        <v>18.72</v>
-      </c>
-      <c r="H40" s="4">
-        <v>84441.54</v>
-      </c>
-      <c r="I40">
-        <v>2.36</v>
-      </c>
-      <c r="J40">
-        <v>81</v>
-      </c>
-      <c r="K40">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="2">
-        <v>15180</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-1.8100000000000002E-2</v>
-      </c>
-      <c r="E41">
-        <v>6.96</v>
-      </c>
-      <c r="F41">
-        <v>6.28</v>
-      </c>
-      <c r="G41">
-        <v>7.18</v>
-      </c>
-      <c r="H41" s="4">
-        <v>33008.75</v>
-      </c>
-      <c r="I41">
-        <v>4.28</v>
-      </c>
-      <c r="J41">
-        <v>92</v>
-      </c>
-      <c r="K41">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="2">
-        <v>14540</v>
-      </c>
-      <c r="D42" s="3">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E42">
-        <v>3.6</v>
-      </c>
-      <c r="F42">
-        <v>10.34</v>
-      </c>
-      <c r="G42">
-        <v>5.91</v>
-      </c>
-      <c r="H42" s="4">
-        <v>35883.14</v>
-      </c>
-      <c r="I42">
-        <v>3.44</v>
-      </c>
-      <c r="J42">
-        <v>90</v>
-      </c>
-      <c r="K42">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2">
-        <v>46100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-2.5399999999999999E-2</v>
-      </c>
-      <c r="E43">
-        <v>10.79</v>
-      </c>
-      <c r="F43">
-        <v>11.5</v>
-      </c>
-      <c r="G43">
-        <v>8.93</v>
-      </c>
-      <c r="H43" s="4">
-        <v>90358.17</v>
-      </c>
-      <c r="I43">
-        <v>4.34</v>
-      </c>
-      <c r="J43">
-        <v>55</v>
-      </c>
-      <c r="K43">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="2">
-        <v>23750</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-2.46E-2</v>
-      </c>
-      <c r="E44">
-        <v>12.8</v>
-      </c>
-      <c r="F44">
-        <v>11.61</v>
-      </c>
-      <c r="G44">
-        <v>12.93</v>
-      </c>
-      <c r="H44" s="4">
-        <v>29151.87</v>
-      </c>
-      <c r="I44">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="J44">
-        <v>89</v>
-      </c>
-      <c r="K44">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2">
-        <v>25550</v>
-      </c>
-      <c r="D45" s="3">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="E45">
-        <v>9.39</v>
-      </c>
-      <c r="F45">
-        <v>7.27</v>
-      </c>
-      <c r="G45">
-        <v>9.73</v>
-      </c>
-      <c r="H45" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I45">
-        <v>4.7</v>
-      </c>
-      <c r="J45">
-        <v>92</v>
-      </c>
-      <c r="K45">
         <v>92</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98AC588-9497-44BB-86F1-B17B7C9704F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C7ACC5-0E4C-4405-ABAD-15E4437F9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0C355553-08C2-4534-BA49-0BD78FAE6D32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C5DDB3ED-3FBC-4DC6-82C7-4F7293E2B90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,12 +603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39C7B4-19D5-4FDF-A60F-CA86C7F01503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D87BD-BCF7-4CD3-ADBC-78DC38518D71}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -666,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24050</v>
+        <v>23250</v>
       </c>
       <c r="D2" s="3">
-        <v>-4.9399999999999999E-2</v>
+        <v>-2.92E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -684,13 +682,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.16</v>
+        <v>4.3</v>
       </c>
       <c r="J2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -701,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104100</v>
+        <v>106000</v>
       </c>
       <c r="D3" s="3">
-        <v>-8.6E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -719,13 +717,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.24</v>
+        <v>6.13</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -736,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>456000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
+        <v>439000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -754,13 +752,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.17</v>
+        <v>4.33</v>
       </c>
       <c r="J4">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>33550</v>
+        <v>32200</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.5E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -789,13 +787,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>5.96</v>
+        <v>6.21</v>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -806,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>33400</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.6199999999999999E-2</v>
+        <v>32700</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -824,13 +822,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="J6">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -841,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27150</v>
+        <v>25650</v>
       </c>
       <c r="D7" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -859,13 +857,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="J7">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -876,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>11030</v>
+        <v>10610</v>
       </c>
       <c r="D8" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -894,13 +892,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.67</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -911,10 +909,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>76800</v>
+        <v>83500</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -929,13 +927,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>216500</v>
+        <v>217000</v>
       </c>
       <c r="D10" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -964,7 +962,7 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="J10">
         <v>53</v>
@@ -981,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>134200</v>
+        <v>130200</v>
       </c>
       <c r="D11" s="3">
-        <v>1.67E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -999,13 +997,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.07</v>
+        <v>5.22</v>
       </c>
       <c r="J11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1016,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20700</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>20100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1034,13 +1032,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.59</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J12">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1051,10 +1049,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72400</v>
+        <v>70700</v>
       </c>
       <c r="D13" s="3">
-        <v>1.12E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1069,13 +1067,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.83</v>
+        <v>4.95</v>
       </c>
       <c r="J13">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1086,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
+        <v>54900</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1104,13 +1102,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="J14">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,10 +1119,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>81900</v>
+        <v>81500</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1139,13 +1137,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.72</v>
+        <v>6.75</v>
       </c>
       <c r="J15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19850</v>
+        <v>19270</v>
       </c>
       <c r="D16" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1174,13 +1172,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.37</v>
+        <v>5.53</v>
       </c>
       <c r="J16">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1191,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>52600</v>
+        <v>49700</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1209,13 +1207,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.32</v>
+        <v>5.63</v>
       </c>
       <c r="J17">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1226,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>21150</v>
+        <v>20250</v>
       </c>
       <c r="D18" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1244,13 +1242,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>5.82</v>
+        <v>6.07</v>
       </c>
       <c r="J18">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1261,10 +1259,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55900</v>
+        <v>54500</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>-1.4500000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1279,13 +1277,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
       <c r="J19">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14670</v>
+        <v>14260</v>
       </c>
       <c r="D20" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1314,13 +1312,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.43</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="J20">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,10 +1329,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>132500</v>
+        <v>130800</v>
       </c>
       <c r="D21" s="3">
-        <v>7.6E-3</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1349,13 +1347,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
       <c r="J21">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>45250</v>
+        <v>43750</v>
       </c>
       <c r="D22" s="3">
-        <v>1.34E-2</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1384,13 +1382,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="J22">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1401,10 +1399,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="D23" s="3">
-        <v>2.7400000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1419,13 +1417,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1436,10 +1434,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51300</v>
+        <v>49450</v>
       </c>
       <c r="D24" s="3">
-        <v>2E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1454,13 +1452,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="J24">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,10 +1469,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>92500</v>
+        <v>85600</v>
       </c>
       <c r="D25" s="3">
-        <v>1.6500000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1489,13 +1487,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>3.89</v>
+        <v>4.21</v>
       </c>
       <c r="J25">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,10 +1504,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>118800</v>
+        <v>111200</v>
       </c>
       <c r="D26" s="3">
-        <v>1.37E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1524,13 +1522,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="J26">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K26">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,10 +1539,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>15180</v>
+        <v>14470</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.8100000000000002E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1559,13 +1557,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.28</v>
+        <v>4.49</v>
       </c>
       <c r="J27">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1576,10 +1574,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14540</v>
+        <v>13850</v>
       </c>
       <c r="D28" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>3.44E-2</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1594,13 +1592,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="J28">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K28">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,10 +1609,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>23750</v>
+        <v>23150</v>
       </c>
       <c r="D29" s="3">
-        <v>-2.46E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1629,13 +1627,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.1900000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="J29">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,10 +1644,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>25550</v>
+        <v>24700</v>
       </c>
       <c r="D30" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1664,13 +1662,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.7</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J30">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C7ACC5-0E4C-4405-ABAD-15E4437F9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2017176B-699F-4761-BB70-BDB8C46C7068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C5DDB3ED-3FBC-4DC6-82C7-4F7293E2B90C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A82CDA7-6751-4ACB-90AB-FC320582ACE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D87BD-BCF7-4CD3-ADBC-78DC38518D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C120B-8F76-4C5F-B1A5-532C2BF11B39}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -664,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23250</v>
+        <v>24150</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.92E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -682,13 +682,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.3</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K2">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>106000</v>
+        <v>102300</v>
       </c>
       <c r="D3" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>-7.3400000000000007E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -717,13 +717,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.13</v>
+        <v>6.35</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>439000</v>
+        <v>440500</v>
       </c>
       <c r="D4" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -752,7 +752,7 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.33</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J4">
         <v>76</v>
@@ -769,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>32200</v>
+        <v>32150</v>
       </c>
       <c r="D5" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -787,13 +787,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="J5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>32700</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
+        <v>31350</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -822,13 +822,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="J6">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25650</v>
+        <v>25550</v>
       </c>
       <c r="D7" s="3">
         <v>3.8999999999999998E-3</v>
@@ -857,7 +857,7 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="J7">
         <v>71</v>
@@ -874,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10610</v>
+        <v>10660</v>
       </c>
       <c r="D8" s="3">
-        <v>1.14E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -892,13 +892,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.8499999999999996</v>
+        <v>4.83</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,10 +909,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="D9" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -927,13 +927,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="J9">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>217000</v>
+        <v>213000</v>
       </c>
       <c r="D10" s="3">
-        <v>-6.8999999999999999E-3</v>
+        <v>-4.48E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -962,13 +962,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.53</v>
+        <v>5.63</v>
       </c>
       <c r="J10">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>130200</v>
+        <v>128000</v>
       </c>
       <c r="D11" s="3">
-        <v>1.4800000000000001E-2</v>
+        <v>-1.3899999999999999E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -997,13 +997,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.22</v>
+        <v>5.31</v>
       </c>
       <c r="J11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20100</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
+        <v>20200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.01</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1032,7 +1032,7 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.7300000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="J12">
         <v>78</v>
@@ -1049,10 +1049,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>70700</v>
+        <v>70800</v>
       </c>
       <c r="D13" s="3">
-        <v>7.1000000000000004E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1067,13 +1067,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.95</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="D14" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1102,13 +1102,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.45</v>
+        <v>6.31</v>
       </c>
       <c r="J14">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,10 +1119,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>81500</v>
+        <v>85300</v>
       </c>
       <c r="D15" s="3">
-        <v>6.1999999999999998E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1137,13 +1137,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.75</v>
+        <v>6.45</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19270</v>
+        <v>19420</v>
       </c>
       <c r="D16" s="3">
-        <v>1.4200000000000001E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1172,13 +1172,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.53</v>
+        <v>5.48</v>
       </c>
       <c r="J16">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49700</v>
+        <v>49800</v>
       </c>
       <c r="D17" s="3">
-        <v>1.6400000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="J17">
         <v>69</v>
@@ -1224,10 +1224,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20250</v>
+        <v>19880</v>
       </c>
       <c r="D18" s="3">
-        <v>0.01</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1242,13 +1242,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.07</v>
+        <v>6.19</v>
       </c>
       <c r="J18">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,10 +1259,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>54500</v>
+        <v>55200</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.4500000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1277,13 +1277,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.67</v>
+        <v>3.62</v>
       </c>
       <c r="J19">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14260</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>14630</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1312,13 +1312,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.5599999999999996</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J20">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,10 +1329,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>130800</v>
+        <v>130700</v>
       </c>
       <c r="D21" s="3">
-        <v>-6.7999999999999996E-3</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1364,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>43750</v>
+        <v>42950</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.9099999999999999E-2</v>
+        <v>-3.4799999999999998E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1382,13 +1382,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,10 +1399,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="D23" s="3">
-        <v>2.53E-2</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1417,13 +1417,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="J23">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,7 +1434,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>49450</v>
+        <v>49300</v>
       </c>
       <c r="D24" s="3">
         <v>-8.9999999999999993E-3</v>
@@ -1452,7 +1452,7 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="J24">
         <v>70</v>
@@ -1469,10 +1469,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>85600</v>
+        <v>85400</v>
       </c>
       <c r="D25" s="3">
-        <v>1.54E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1487,13 +1487,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="J25">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,10 +1504,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>111200</v>
+        <v>110900</v>
       </c>
       <c r="D26" s="3">
-        <v>6.3E-3</v>
+        <v>-1.6799999999999999E-2</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1522,7 +1522,7 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="J26">
         <v>83</v>
@@ -1539,10 +1539,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>14470</v>
+        <v>14590</v>
       </c>
       <c r="D27" s="3">
-        <v>2.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1557,13 +1557,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="J27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,10 +1574,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13850</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3.44E-2</v>
+        <v>13870</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1592,13 +1592,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="J28">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,10 +1609,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>23150</v>
+        <v>23100</v>
       </c>
       <c r="D29" s="3">
-        <v>2.6599999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1627,7 +1627,7 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.3</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J29">
         <v>86</v>
@@ -1647,7 +1647,7 @@
         <v>24700</v>
       </c>
       <c r="D30" s="3">
-        <v>2E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E30">
         <v>9.39</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2017176B-699F-4761-BB70-BDB8C46C7068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3DF4698-DFCF-4447-A4E6-72AA18950D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A82CDA7-6751-4ACB-90AB-FC320582ACE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E136CD5A-F1F8-4D2E-BCF4-9E8DCA620284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,9 +285,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C120B-8F76-4C5F-B1A5-532C2BF11B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305AD991-0011-462C-B2BE-1218F6E96FFF}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -664,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24150</v>
+        <v>22950</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>-4.9700000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -682,13 +679,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.1399999999999997</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -699,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>102300</v>
+        <v>100800</v>
       </c>
       <c r="D3" s="3">
-        <v>-7.3400000000000007E-2</v>
+        <v>-1.47E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -717,13 +714,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="J3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -734,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>440500</v>
+        <v>418500</v>
       </c>
       <c r="D4" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>-4.99E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -752,13 +749,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.3099999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -769,10 +766,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>32150</v>
+        <v>29600</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-7.9299999999999995E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -787,13 +784,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.22</v>
+        <v>6.76</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -804,10 +801,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>31350</v>
+        <v>30750</v>
       </c>
       <c r="D6" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -822,13 +819,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="J6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -839,10 +836,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25550</v>
+        <v>23650</v>
       </c>
       <c r="D7" s="3">
-        <v>3.8999999999999998E-3</v>
+        <v>-7.4399999999999994E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -857,13 +854,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.7</v>
+        <v>5.07</v>
       </c>
       <c r="J7">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,10 +871,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10660</v>
+        <v>10290</v>
       </c>
       <c r="D8" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>-3.4700000000000002E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -892,13 +889,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.83</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,10 +906,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>87000</v>
+        <v>83500</v>
       </c>
       <c r="D9" s="3">
-        <v>-3.3999999999999998E-3</v>
+        <v>-4.02E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -927,13 +924,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="J9">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,10 +941,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>213000</v>
+        <v>210000</v>
       </c>
       <c r="D10" s="3">
-        <v>-4.48E-2</v>
+        <v>-1.41E-2</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -962,13 +959,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="J10">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -979,10 +976,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>128000</v>
+        <v>122500</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.3899999999999999E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -997,13 +994,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.31</v>
+        <v>5.55</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K11">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,10 +1011,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>20200</v>
+        <v>18660</v>
       </c>
       <c r="D12" s="3">
-        <v>0.01</v>
+        <v>-7.6200000000000004E-2</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1032,13 +1029,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.7</v>
+        <v>5.09</v>
       </c>
       <c r="J12">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1049,10 +1046,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>70800</v>
+        <v>66900</v>
       </c>
       <c r="D13" s="3">
-        <v>-2.8E-3</v>
+        <v>-5.5100000000000003E-2</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1067,13 +1064,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.9400000000000004</v>
+        <v>5.23</v>
       </c>
       <c r="J13">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,10 +1081,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56100</v>
+        <v>55500</v>
       </c>
       <c r="D14" s="3">
-        <v>1.8E-3</v>
+        <v>-1.0699999999999999E-2</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1102,13 +1099,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.31</v>
+        <v>6.38</v>
       </c>
       <c r="J14">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,10 +1116,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>85300</v>
+        <v>83800</v>
       </c>
       <c r="D15" s="3">
-        <v>5.4399999999999997E-2</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1137,13 +1134,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.45</v>
+        <v>6.56</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1154,10 +1151,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19420</v>
+        <v>18650</v>
       </c>
       <c r="D16" s="3">
-        <v>-4.1000000000000003E-3</v>
+        <v>-3.9600000000000003E-2</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1172,13 +1169,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.48</v>
+        <v>5.71</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,10 +1186,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>49800</v>
+        <v>48950</v>
       </c>
       <c r="D17" s="3">
-        <v>1E-3</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1207,13 +1204,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.62</v>
+        <v>5.72</v>
       </c>
       <c r="J17">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1224,10 +1221,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19880</v>
+        <v>19570</v>
       </c>
       <c r="D18" s="3">
-        <v>-8.5000000000000006E-3</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1242,13 +1239,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="J18">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1259,10 +1256,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55200</v>
+        <v>54000</v>
       </c>
       <c r="D19" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>-2.1700000000000001E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1277,13 +1274,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="J19">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1294,10 +1291,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14630</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
+        <v>14470</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1.09E-2</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1312,13 +1309,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.4400000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="J20">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,10 +1326,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>130700</v>
+        <v>129100</v>
       </c>
       <c r="D21" s="3">
-        <v>-6.1000000000000004E-3</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1347,13 +1344,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1364,10 +1361,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>42950</v>
+        <v>41300</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.4799999999999998E-2</v>
+        <v>-3.8399999999999997E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1382,13 +1379,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="J22">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1399,10 +1396,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>68000</v>
+        <v>65100</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.3100000000000001E-2</v>
+        <v>-4.2599999999999999E-2</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1417,13 +1414,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="J23">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1434,10 +1431,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>49300</v>
+        <v>46800</v>
       </c>
       <c r="D24" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>-5.0700000000000002E-2</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1452,13 +1449,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.48</v>
+        <v>5.77</v>
       </c>
       <c r="J24">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,10 +1466,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>85400</v>
+        <v>82300</v>
       </c>
       <c r="D25" s="3">
-        <v>-7.0000000000000001E-3</v>
+        <v>-3.6299999999999999E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1487,13 +1484,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.22</v>
+        <v>4.37</v>
       </c>
       <c r="J25">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1504,10 +1501,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>110900</v>
+        <v>106000</v>
       </c>
       <c r="D26" s="3">
-        <v>-1.6799999999999999E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1522,13 +1519,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="J26">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1539,10 +1536,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>14590</v>
+        <v>13810</v>
       </c>
       <c r="D27" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>-5.3499999999999999E-2</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1557,13 +1554,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.46</v>
+        <v>4.71</v>
       </c>
       <c r="J27">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1574,10 +1571,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13870</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
+        <v>13450</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-3.0300000000000001E-2</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1592,13 +1589,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="J28">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1609,10 +1606,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>23100</v>
+        <v>21750</v>
       </c>
       <c r="D29" s="3">
-        <v>-1.7000000000000001E-2</v>
+        <v>-5.8400000000000001E-2</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1627,13 +1624,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.3099999999999996</v>
+        <v>4.57</v>
       </c>
       <c r="J29">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1644,10 +1641,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="D30" s="3">
-        <v>-1.2E-2</v>
+        <v>-4.4499999999999998E-2</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1662,13 +1659,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.8600000000000003</v>
+        <v>5.08</v>
       </c>
       <c r="J30">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3DF4698-DFCF-4447-A4E6-72AA18950D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9B81A3-E5BB-4B53-88AE-874C1201DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E136CD5A-F1F8-4D2E-BCF4-9E8DCA620284}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2B298FE4-8D80-42BE-8DE8-CAC9EB1EE0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +285,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305AD991-0011-462C-B2BE-1218F6E96FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9ABA79-66FB-41D5-83AA-AE632D7E07A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -661,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>22950</v>
+        <v>23750</v>
       </c>
       <c r="D2" s="3">
-        <v>-4.9700000000000001E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -679,13 +684,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.3600000000000003</v>
+        <v>4.21</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K2">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -696,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>100800</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-1.47E-2</v>
+        <v>101800</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -714,13 +719,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.45</v>
+        <v>6.39</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -731,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>418500</v>
+        <v>443000</v>
       </c>
       <c r="D4" s="3">
-        <v>-4.99E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -749,13 +754,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.54</v>
+        <v>4.29</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -766,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>29600</v>
+        <v>30350</v>
       </c>
       <c r="D5" s="3">
-        <v>-7.9299999999999995E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -784,13 +789,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.76</v>
+        <v>6.59</v>
       </c>
       <c r="J5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -801,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>30750</v>
+        <v>29650</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.9099999999999999E-2</v>
+        <v>-2.7900000000000001E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -819,13 +824,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J6">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -836,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>23650</v>
+        <v>25100</v>
       </c>
       <c r="D7" s="3">
-        <v>-7.4399999999999994E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -854,13 +859,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>5.07</v>
+        <v>4.78</v>
       </c>
       <c r="J7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -871,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10290</v>
+        <v>10760</v>
       </c>
       <c r="D8" s="3">
-        <v>-3.4700000000000002E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -889,13 +894,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4.79</v>
       </c>
       <c r="J8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -906,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>83500</v>
+        <v>87500</v>
       </c>
       <c r="D9" s="3">
-        <v>-4.02E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -924,13 +929,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="J9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -941,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>210000</v>
+        <v>212500</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.41E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -959,13 +964,13 @@
         <v>411868.79</v>
       </c>
       <c r="I10">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -976,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>122500</v>
+        <v>129400</v>
       </c>
       <c r="D11" s="3">
-        <v>-4.2999999999999997E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -994,13 +999,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.55</v>
+        <v>5.26</v>
       </c>
       <c r="J11">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1011,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>18660</v>
+        <v>19600</v>
       </c>
       <c r="D12" s="3">
-        <v>-7.6200000000000004E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1029,13 +1034,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>5.09</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1046,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>66900</v>
+        <v>70600</v>
       </c>
       <c r="D13" s="3">
-        <v>-5.5100000000000003E-2</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1064,13 +1069,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>5.23</v>
+        <v>4.96</v>
       </c>
       <c r="J13">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1084,7 +1089,7 @@
         <v>55500</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.0699999999999999E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1116,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>83800</v>
+        <v>82700</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1134,13 +1139,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.56</v>
+        <v>6.65</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1151,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>18650</v>
+        <v>19370</v>
       </c>
       <c r="D16" s="3">
-        <v>-3.9600000000000003E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1169,13 +1174,13 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.71</v>
+        <v>5.5</v>
       </c>
       <c r="J16">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1186,10 +1191,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>48950</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-1.7100000000000001E-2</v>
+        <v>50400</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1204,13 +1209,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.72</v>
+        <v>5.56</v>
       </c>
       <c r="J17">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1221,10 +1226,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19570</v>
+        <v>20050</v>
       </c>
       <c r="D18" s="3">
-        <v>-1.5599999999999999E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1239,13 +1244,13 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.29</v>
+        <v>6.13</v>
       </c>
       <c r="J18">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1256,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>54000</v>
+        <v>54300</v>
       </c>
       <c r="D19" s="3">
-        <v>-2.1700000000000001E-2</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1274,13 +1279,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="J19">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1291,10 +1296,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14470</v>
+        <v>14560</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.09E-2</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1309,13 +1314,13 @@
         <v>19799.21</v>
       </c>
       <c r="I20">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="J20">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1326,10 +1331,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>129100</v>
+        <v>138500</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.2200000000000001E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1344,13 +1349,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>4.18</v>
+        <v>3.9</v>
       </c>
       <c r="J21">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K21">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1361,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41300</v>
+        <v>42300</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.8399999999999997E-2</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1379,13 +1384,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="J22">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1396,10 +1401,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>65100</v>
+        <v>69200</v>
       </c>
       <c r="D23" s="3">
-        <v>-4.2599999999999999E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1414,13 +1419,13 @@
         <v>113903.42</v>
       </c>
       <c r="I23">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="J23">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1431,10 +1436,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>46800</v>
+        <v>48200</v>
       </c>
       <c r="D24" s="3">
-        <v>-5.0700000000000002E-2</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="E24">
         <v>4.12</v>
@@ -1449,13 +1454,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.77</v>
+        <v>5.6</v>
       </c>
       <c r="J24">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1466,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>82300</v>
+        <v>85800</v>
       </c>
       <c r="D25" s="3">
-        <v>-3.6299999999999999E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1484,13 +1489,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.37</v>
+        <v>4.2</v>
       </c>
       <c r="J25">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1501,10 +1506,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>106000</v>
+        <v>115000</v>
       </c>
       <c r="D26" s="3">
-        <v>-4.4200000000000003E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1519,13 +1524,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="J26">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1536,10 +1541,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>13810</v>
+        <v>14620</v>
       </c>
       <c r="D27" s="3">
-        <v>-5.3499999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1554,13 +1559,13 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.71</v>
+        <v>4.45</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K27">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1571,10 +1576,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13450</v>
+        <v>14050</v>
       </c>
       <c r="D28" s="3">
-        <v>-3.0300000000000001E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1589,13 +1594,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.72</v>
+        <v>3.56</v>
       </c>
       <c r="J28">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K28">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1606,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>21750</v>
+        <v>22500</v>
       </c>
       <c r="D29" s="3">
-        <v>-5.8400000000000001E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1624,13 +1629,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.57</v>
+        <v>4.42</v>
       </c>
       <c r="J29">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1641,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>23600</v>
+        <v>25350</v>
       </c>
       <c r="D30" s="3">
-        <v>-4.4499999999999998E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1659,13 +1664,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>5.08</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J30">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9B81A3-E5BB-4B53-88AE-874C1201DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0F4483-3B01-4A6C-9CD2-BA0B4611675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2B298FE4-8D80-42BE-8DE8-CAC9EB1EE0E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9E9D625-2005-47DC-8B27-691AEE325356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9ABA79-66FB-41D5-83AA-AE632D7E07A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D03B87-9594-476D-AE92-4A4D282F3C85}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23750</v>
+        <v>24150</v>
       </c>
       <c r="D2" s="3">
-        <v>-8.3999999999999995E-3</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -684,13 +684,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.21</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -701,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>101800</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
+        <v>101900</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -719,7 +719,7 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="J3">
         <v>65</v>
@@ -736,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>443000</v>
+        <v>433500</v>
       </c>
       <c r="D4" s="3">
-        <v>1.26E-2</v>
+        <v>-2.1399999999999999E-2</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -754,13 +754,13 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.29</v>
+        <v>4.38</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -771,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30350</v>
+        <v>30200</v>
       </c>
       <c r="D5" s="3">
-        <v>1.17E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -789,13 +789,13 @@
         <v>70348.56</v>
       </c>
       <c r="I5">
-        <v>6.59</v>
+        <v>6.62</v>
       </c>
       <c r="J5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -806,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29650</v>
+        <v>29250</v>
       </c>
       <c r="D6" s="3">
-        <v>-2.7900000000000001E-2</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -824,13 +824,13 @@
         <v>52692.43</v>
       </c>
       <c r="I6">
-        <v>4.05</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -841,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="D7" s="3">
-        <v>1.01E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <v>4.57</v>
@@ -859,13 +859,13 @@
         <v>38894.53</v>
       </c>
       <c r="I7">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="J7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -876,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10760</v>
+        <v>10880</v>
       </c>
       <c r="D8" s="3">
-        <v>1.32E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E8">
         <v>9.44</v>
@@ -894,13 +894,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I8">
-        <v>4.79</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -911,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>87500</v>
+        <v>88000</v>
       </c>
       <c r="D9" s="3">
-        <v>1.3899999999999999E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E9">
         <v>19.62</v>
@@ -929,13 +929,13 @@
         <v>130022.16</v>
       </c>
       <c r="I9">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="J9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -948,8 +948,8 @@
       <c r="C10" s="2">
         <v>212500</v>
       </c>
-      <c r="D10" s="3">
-        <v>9.4999999999999998E-3</v>
+      <c r="D10" s="5">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>12.43</v>
@@ -981,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>129400</v>
+        <v>127600</v>
       </c>
       <c r="D11" s="3">
-        <v>9.4000000000000004E-3</v>
+        <v>-1.3899999999999999E-2</v>
       </c>
       <c r="E11">
         <v>18.96</v>
@@ -999,13 +999,13 @@
         <v>115980.87</v>
       </c>
       <c r="I11">
-        <v>5.26</v>
+        <v>5.33</v>
       </c>
       <c r="J11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1016,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="D12" s="3">
-        <v>1.5E-3</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="E12">
         <v>8.73</v>
@@ -1034,7 +1034,7 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I12">
-        <v>4.8499999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="J12">
         <v>74</v>
@@ -1051,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>70600</v>
+        <v>70000</v>
       </c>
       <c r="D13" s="3">
-        <v>-2.8E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E13">
         <v>12.89</v>
@@ -1069,13 +1069,13 @@
         <v>81376.7</v>
       </c>
       <c r="I13">
-        <v>4.96</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1086,10 +1086,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>55500</v>
+        <v>56100</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.4200000000000001E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E14">
         <v>10.83</v>
@@ -1104,13 +1104,13 @@
         <v>55460.24</v>
       </c>
       <c r="I14">
-        <v>6.38</v>
+        <v>6.31</v>
       </c>
       <c r="J14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,10 +1121,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>82700</v>
+        <v>85500</v>
       </c>
       <c r="D15" s="3">
-        <v>1.2200000000000001E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="E15">
         <v>14.42</v>
@@ -1139,13 +1139,13 @@
         <v>32483.7</v>
       </c>
       <c r="I15">
-        <v>6.65</v>
+        <v>6.43</v>
       </c>
       <c r="J15">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19370</v>
+        <v>19400</v>
       </c>
       <c r="D16" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E16">
         <v>8.06</v>
@@ -1174,7 +1174,7 @@
         <v>42663.82</v>
       </c>
       <c r="I16">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="J16">
         <v>79</v>
@@ -1191,10 +1191,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>50400</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
+        <v>50700</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1209,13 +1209,13 @@
         <v>75767.48</v>
       </c>
       <c r="I17">
-        <v>5.56</v>
+        <v>5.52</v>
       </c>
       <c r="J17">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1226,10 +1226,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20050</v>
+        <v>20100</v>
       </c>
       <c r="D18" s="3">
-        <v>1.06E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E18">
         <v>15.12</v>
@@ -1244,7 +1244,7 @@
         <v>14481.01</v>
       </c>
       <c r="I18">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="J18">
         <v>36</v>
@@ -1261,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.8E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E19">
         <v>2.85</v>
@@ -1279,13 +1279,13 @@
         <v>66926.62</v>
       </c>
       <c r="I19">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="J19">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,10 +1296,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14560</v>
+        <v>14590</v>
       </c>
       <c r="D20" s="3">
-        <v>-8.2000000000000007E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E20">
         <v>4.4000000000000004</v>
@@ -1317,10 +1317,10 @@
         <v>4.46</v>
       </c>
       <c r="J20">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,10 +1331,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>138500</v>
+        <v>147200</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.4200000000000001E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="E21">
         <v>12.66</v>
@@ -1349,13 +1349,13 @@
         <v>81115.86</v>
       </c>
       <c r="I21">
-        <v>3.9</v>
+        <v>3.67</v>
       </c>
       <c r="J21">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>42300</v>
+        <v>41300</v>
       </c>
       <c r="D22" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>-2.3599999999999999E-2</v>
       </c>
       <c r="E22">
         <v>11.21</v>
@@ -1384,13 +1384,13 @@
         <v>121076.78</v>
       </c>
       <c r="I22">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1403,8 +1403,8 @@
       <c r="C23" s="2">
         <v>69200</v>
       </c>
-      <c r="D23" s="3">
-        <v>7.3000000000000001E-3</v>
+      <c r="D23" s="5">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>8.11</v>
@@ -1436,7 +1436,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>48200</v>
+        <v>48050</v>
       </c>
       <c r="D24" s="3">
         <v>-3.0999999999999999E-3</v>
@@ -1454,13 +1454,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I24">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="J24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>85800</v>
+        <v>84900</v>
       </c>
       <c r="D25" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="E25">
         <v>9.11</v>
@@ -1489,13 +1489,13 @@
         <v>153124.29</v>
       </c>
       <c r="I25">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="J25">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,10 +1506,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>115000</v>
+        <v>113500</v>
       </c>
       <c r="D26" s="3">
-        <v>-5.1999999999999998E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E26">
         <v>8.86</v>
@@ -1524,13 +1524,13 @@
         <v>152301.9</v>
       </c>
       <c r="I26">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J26">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,10 +1541,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>14620</v>
+        <v>14660</v>
       </c>
       <c r="D27" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="E27">
         <v>6.96</v>
@@ -1559,7 +1559,7 @@
         <v>33008.75</v>
       </c>
       <c r="I27">
-        <v>4.45</v>
+        <v>4.43</v>
       </c>
       <c r="J27">
         <v>87</v>
@@ -1576,10 +1576,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14050</v>
+        <v>13910</v>
       </c>
       <c r="D28" s="3">
-        <v>8.6E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="E28">
         <v>3.6</v>
@@ -1594,13 +1594,13 @@
         <v>35883.14</v>
       </c>
       <c r="I28">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="J28">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>22500</v>
+        <v>22050</v>
       </c>
       <c r="D29" s="3">
-        <v>-4.4000000000000003E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="E29">
         <v>12.8</v>
@@ -1629,13 +1629,13 @@
         <v>29151.87</v>
       </c>
       <c r="I29">
-        <v>4.42</v>
+        <v>4.51</v>
       </c>
       <c r="J29">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>25350</v>
+        <v>25200</v>
       </c>
       <c r="D30" s="3">
-        <v>1.2E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="E30">
         <v>9.39</v>
@@ -1664,13 +1664,13 @@
         <v>45501.38</v>
       </c>
       <c r="I30">
-        <v>4.7300000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="J30">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0F4483-3B01-4A6C-9CD2-BA0B4611675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{975EF0AB-1FDC-488F-B933-251689B503DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9E9D625-2005-47DC-8B27-691AEE325356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CF3CF44C-4584-4C4C-83FA-8BA3163EF94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>종목코드</t>
   </si>
@@ -90,6 +90,18 @@
     <t>대신증권</t>
   </si>
   <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
     <t>003690</t>
   </si>
   <si>
@@ -114,12 +126,36 @@
     <t>DB손해보험</t>
   </si>
   <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -138,6 +174,18 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
     <t>024110</t>
   </si>
   <si>
@@ -168,6 +216,12 @@
     <t>LG유플러스</t>
   </si>
   <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
@@ -180,6 +234,18 @@
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
@@ -192,6 +258,12 @@
     <t>GS</t>
   </si>
   <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
@@ -204,6 +276,12 @@
     <t>KB금융</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -214,6 +292,12 @@
   </si>
   <si>
     <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
   </si>
   <si>
     <t>175330</t>
@@ -603,17 +687,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D03B87-9594-476D-AE92-4A4D282F3C85}">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B755238-9C32-44B2-905B-AC6BDDF03958}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -876,31 +960,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10880</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.12E-2</v>
+        <v>77000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9.44</v>
+        <v>2.16</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>9.86</v>
+        <v>5.18</v>
       </c>
       <c r="H8" s="4">
-        <v>18178.189999999999</v>
+        <v>174674.22</v>
       </c>
       <c r="I8">
-        <v>4.7300000000000004</v>
+        <v>4.03</v>
       </c>
       <c r="J8">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -911,31 +995,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>88000</v>
+        <v>52200</v>
       </c>
       <c r="D9" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>-4.2200000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>19.62</v>
+        <v>12.89</v>
       </c>
       <c r="F9">
-        <v>12.01</v>
+        <v>9.02</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>7.9</v>
       </c>
       <c r="H9" s="4">
-        <v>130022.16</v>
+        <v>26158.58</v>
       </c>
       <c r="I9">
-        <v>3.41</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -946,31 +1030,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>212500</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
+        <v>10880</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.12E-2</v>
       </c>
       <c r="E10">
-        <v>12.43</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>11.52</v>
+        <v>11.1</v>
       </c>
       <c r="G10">
-        <v>11.82</v>
+        <v>9.86</v>
       </c>
       <c r="H10" s="4">
-        <v>411868.79</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I10">
-        <v>5.65</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -981,31 +1065,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>127600</v>
+        <v>88000</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.3899999999999999E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E11">
-        <v>18.96</v>
+        <v>19.62</v>
       </c>
       <c r="F11">
-        <v>19.86</v>
+        <v>12.01</v>
       </c>
       <c r="G11">
-        <v>18.8</v>
+        <v>6.74</v>
       </c>
       <c r="H11" s="4">
-        <v>115980.87</v>
+        <v>130022.16</v>
       </c>
       <c r="I11">
-        <v>5.33</v>
+        <v>3.41</v>
       </c>
       <c r="J11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1016,31 +1100,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>19500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-5.1000000000000004E-3</v>
+        <v>212500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8.73</v>
+        <v>12.43</v>
       </c>
       <c r="F12">
-        <v>10.35</v>
+        <v>11.52</v>
       </c>
       <c r="G12">
-        <v>6.85</v>
+        <v>11.82</v>
       </c>
       <c r="H12" s="4">
-        <v>23121.599999999999</v>
+        <v>411868.79</v>
       </c>
       <c r="I12">
-        <v>4.87</v>
+        <v>5.65</v>
       </c>
       <c r="J12">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1051,31 +1135,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>70000</v>
+        <v>127600</v>
       </c>
       <c r="D13" s="3">
-        <v>-8.5000000000000006E-3</v>
+        <v>-1.3899999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>12.89</v>
+        <v>18.96</v>
       </c>
       <c r="F13">
-        <v>13.62</v>
+        <v>19.86</v>
       </c>
       <c r="G13">
-        <v>9.44</v>
+        <v>18.8</v>
       </c>
       <c r="H13" s="4">
-        <v>81376.7</v>
+        <v>115980.87</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>5.33</v>
       </c>
       <c r="J13">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1086,31 +1170,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>56100</v>
+        <v>33400</v>
       </c>
       <c r="D14" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>10.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>17.22</v>
       </c>
       <c r="G14">
-        <v>9.48</v>
+        <v>15.37</v>
       </c>
       <c r="H14" s="4">
-        <v>55460.24</v>
+        <v>50552.95</v>
       </c>
       <c r="I14">
-        <v>6.31</v>
+        <v>3.59</v>
       </c>
       <c r="J14">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1121,31 +1205,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>85500</v>
+        <v>19500</v>
       </c>
       <c r="D15" s="3">
-        <v>3.39E-2</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>8.73</v>
       </c>
       <c r="F15">
-        <v>11.9</v>
+        <v>10.35</v>
       </c>
       <c r="G15">
-        <v>15.82</v>
+        <v>6.85</v>
       </c>
       <c r="H15" s="4">
-        <v>32483.7</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I15">
-        <v>6.43</v>
+        <v>4.87</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1156,31 +1240,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19400</v>
+        <v>25650</v>
       </c>
       <c r="D16" s="3">
-        <v>1.5E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="E16">
-        <v>8.06</v>
+        <v>19.78</v>
       </c>
       <c r="F16">
-        <v>9.52</v>
+        <v>17.25</v>
       </c>
       <c r="G16">
-        <v>8.77</v>
+        <v>23.29</v>
       </c>
       <c r="H16" s="4">
-        <v>42663.82</v>
+        <v>31156.34</v>
       </c>
       <c r="I16">
-        <v>5.49</v>
+        <v>3.9</v>
       </c>
       <c r="J16">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1191,31 +1275,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>50700</v>
+        <v>132300</v>
       </c>
       <c r="D17" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>-2.6499999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>13.17</v>
       </c>
       <c r="F17">
-        <v>8.75</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G17">
-        <v>7.9</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H17" s="4">
-        <v>75767.48</v>
+        <v>201114.72</v>
       </c>
       <c r="I17">
-        <v>5.52</v>
+        <v>4.04</v>
       </c>
       <c r="J17">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1226,31 +1310,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>20100</v>
+        <v>74300</v>
       </c>
       <c r="D18" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E18">
-        <v>15.12</v>
+        <v>10.85</v>
       </c>
       <c r="F18">
-        <v>7.98</v>
+        <v>10.27</v>
       </c>
       <c r="G18">
-        <v>15.58</v>
+        <v>11.06</v>
       </c>
       <c r="H18" s="4">
-        <v>14481.01</v>
+        <v>46509.73</v>
       </c>
       <c r="I18">
-        <v>6.12</v>
+        <v>3.63</v>
       </c>
       <c r="J18">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1261,31 +1345,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>53700</v>
+        <v>70000</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.0999999999999999E-2</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E19">
-        <v>2.85</v>
+        <v>12.89</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>13.62</v>
       </c>
       <c r="G19">
-        <v>5.63</v>
+        <v>9.44</v>
       </c>
       <c r="H19" s="4">
-        <v>66926.62</v>
+        <v>81376.7</v>
       </c>
       <c r="I19">
-        <v>3.72</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K19">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1296,31 +1380,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>14590</v>
+        <v>56100</v>
       </c>
       <c r="D20" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>10.83</v>
       </c>
       <c r="F20">
-        <v>7.75</v>
+        <v>12.4</v>
       </c>
       <c r="G20">
-        <v>6.75</v>
+        <v>9.48</v>
       </c>
       <c r="H20" s="4">
-        <v>19799.21</v>
+        <v>55460.24</v>
       </c>
       <c r="I20">
-        <v>4.46</v>
+        <v>6.31</v>
       </c>
       <c r="J20">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1331,31 +1415,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>147200</v>
+        <v>85500</v>
       </c>
       <c r="D21" s="3">
-        <v>6.2799999999999995E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="E21">
-        <v>12.66</v>
+        <v>14.42</v>
       </c>
       <c r="F21">
-        <v>11.17</v>
+        <v>11.9</v>
       </c>
       <c r="G21">
-        <v>11.14</v>
+        <v>15.82</v>
       </c>
       <c r="H21" s="4">
-        <v>81115.86</v>
+        <v>32483.7</v>
       </c>
       <c r="I21">
-        <v>3.67</v>
+        <v>6.43</v>
       </c>
       <c r="J21">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,31 +1450,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>41300</v>
+        <v>105500</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.3599999999999999E-2</v>
+        <v>-2.8500000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>11.21</v>
+        <v>19.38</v>
       </c>
       <c r="F22">
-        <v>13.43</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G22">
-        <v>6.4</v>
+        <v>20.04</v>
       </c>
       <c r="H22" s="4">
-        <v>121076.78</v>
+        <v>43969.66</v>
       </c>
       <c r="I22">
-        <v>3.52</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J22">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="K22">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1401,31 +1485,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>69200</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
+        <v>33200</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1.34E-2</v>
       </c>
       <c r="E23">
-        <v>8.11</v>
+        <v>13.16</v>
       </c>
       <c r="F23">
-        <v>10.55</v>
+        <v>14.03</v>
       </c>
       <c r="G23">
-        <v>8.66</v>
+        <v>13.29</v>
       </c>
       <c r="H23" s="4">
-        <v>113903.42</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I23">
-        <v>3.12</v>
+        <v>4.22</v>
       </c>
       <c r="J23">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1436,31 +1520,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>48050</v>
+        <v>19400</v>
       </c>
       <c r="D24" s="3">
-        <v>-3.0999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E24">
-        <v>4.12</v>
+        <v>8.06</v>
       </c>
       <c r="F24">
-        <v>5.83</v>
+        <v>9.52</v>
       </c>
       <c r="G24">
-        <v>11.01</v>
+        <v>8.77</v>
       </c>
       <c r="H24" s="4">
-        <v>147806.45000000001</v>
+        <v>42663.82</v>
       </c>
       <c r="I24">
-        <v>5.62</v>
+        <v>5.49</v>
       </c>
       <c r="J24">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1471,31 +1555,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>84900</v>
+        <v>50700</v>
       </c>
       <c r="D25" s="3">
-        <v>-1.0500000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>9.11</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>10.47</v>
+        <v>8.75</v>
       </c>
       <c r="G25">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="H25" s="4">
-        <v>153124.29</v>
+        <v>75767.48</v>
       </c>
       <c r="I25">
-        <v>4.24</v>
+        <v>5.52</v>
       </c>
       <c r="J25">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1506,31 +1590,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>113500</v>
+        <v>20100</v>
       </c>
       <c r="D26" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>8.86</v>
+        <v>15.12</v>
       </c>
       <c r="F26">
-        <v>11.69</v>
+        <v>7.98</v>
       </c>
       <c r="G26">
-        <v>8.51</v>
+        <v>15.58</v>
       </c>
       <c r="H26" s="4">
-        <v>152301.9</v>
+        <v>14481.01</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>6.12</v>
       </c>
       <c r="J26">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1541,31 +1625,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>14660</v>
+        <v>53700</v>
       </c>
       <c r="D27" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>6.96</v>
+        <v>2.85</v>
       </c>
       <c r="F27">
-        <v>6.28</v>
+        <v>13.16</v>
       </c>
       <c r="G27">
-        <v>7.18</v>
+        <v>5.63</v>
       </c>
       <c r="H27" s="4">
-        <v>33008.75</v>
+        <v>66926.62</v>
       </c>
       <c r="I27">
-        <v>4.43</v>
+        <v>3.72</v>
       </c>
       <c r="J27">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1576,31 +1660,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>13910</v>
+        <v>14590</v>
       </c>
       <c r="D28" s="3">
-        <v>-0.01</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F28">
-        <v>10.34</v>
+        <v>7.75</v>
       </c>
       <c r="G28">
-        <v>5.91</v>
+        <v>6.75</v>
       </c>
       <c r="H28" s="4">
-        <v>35883.14</v>
+        <v>19799.21</v>
       </c>
       <c r="I28">
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="J28">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1611,31 +1695,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>22050</v>
+        <v>123400</v>
       </c>
       <c r="D29" s="3">
-        <v>-0.02</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E29">
-        <v>12.8</v>
+        <v>5.76</v>
       </c>
       <c r="F29">
-        <v>11.61</v>
+        <v>8.44</v>
       </c>
       <c r="G29">
-        <v>12.93</v>
+        <v>5.33</v>
       </c>
       <c r="H29" s="4">
-        <v>29151.87</v>
+        <v>158106.71</v>
       </c>
       <c r="I29">
-        <v>4.51</v>
+        <v>3.65</v>
       </c>
       <c r="J29">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1646,30 +1730,520 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
+        <v>147200</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="E30">
+        <v>12.66</v>
+      </c>
+      <c r="F30">
+        <v>11.17</v>
+      </c>
+      <c r="G30">
+        <v>11.14</v>
+      </c>
+      <c r="H30" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I30">
+        <v>3.67</v>
+      </c>
+      <c r="J30">
+        <v>97</v>
+      </c>
+      <c r="K30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41300</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>11.21</v>
+      </c>
+      <c r="F31">
+        <v>13.43</v>
+      </c>
+      <c r="G31">
+        <v>6.4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I31">
+        <v>3.52</v>
+      </c>
+      <c r="J31">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>206500</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="E32">
+        <v>15.98</v>
+      </c>
+      <c r="F32">
+        <v>16.78</v>
+      </c>
+      <c r="G32">
+        <v>12.25</v>
+      </c>
+      <c r="H32" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I32">
+        <v>3.63</v>
+      </c>
+      <c r="J32">
+        <v>79</v>
+      </c>
+      <c r="K32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>52400</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="E33">
+        <v>13.26</v>
+      </c>
+      <c r="F33">
+        <v>3.52</v>
+      </c>
+      <c r="G33">
+        <v>11.65</v>
+      </c>
+      <c r="H33" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I33">
+        <v>4.71</v>
+      </c>
+      <c r="J33">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>69200</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>8.11</v>
+      </c>
+      <c r="F34">
+        <v>10.55</v>
+      </c>
+      <c r="G34">
+        <v>8.66</v>
+      </c>
+      <c r="H34" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I34">
+        <v>3.12</v>
+      </c>
+      <c r="J34">
+        <v>91</v>
+      </c>
+      <c r="K34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>48050</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E35">
+        <v>4.12</v>
+      </c>
+      <c r="F35">
+        <v>5.83</v>
+      </c>
+      <c r="G35">
+        <v>11.01</v>
+      </c>
+      <c r="H35" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I35">
+        <v>5.62</v>
+      </c>
+      <c r="J35">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>168000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E36">
+        <v>13.24</v>
+      </c>
+      <c r="F36">
+        <v>17.97</v>
+      </c>
+      <c r="G36">
+        <v>15.51</v>
+      </c>
+      <c r="H36" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J36">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>84900</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>9.11</v>
+      </c>
+      <c r="F37">
+        <v>10.47</v>
+      </c>
+      <c r="G37">
+        <v>9.4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I37">
+        <v>4.24</v>
+      </c>
+      <c r="J37">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>113500</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>8.86</v>
+      </c>
+      <c r="F38">
+        <v>11.69</v>
+      </c>
+      <c r="G38">
+        <v>8.51</v>
+      </c>
+      <c r="H38" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I38">
+        <v>2.8</v>
+      </c>
+      <c r="J38">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>58900</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="E39">
+        <v>12.32</v>
+      </c>
+      <c r="F39">
+        <v>9.67</v>
+      </c>
+      <c r="G39">
+        <v>18.72</v>
+      </c>
+      <c r="H39" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I39">
+        <v>2.38</v>
+      </c>
+      <c r="J39">
+        <v>79</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14660</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>6.96</v>
+      </c>
+      <c r="F40">
+        <v>6.28</v>
+      </c>
+      <c r="G40">
+        <v>7.18</v>
+      </c>
+      <c r="H40" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I40">
+        <v>4.43</v>
+      </c>
+      <c r="J40">
+        <v>87</v>
+      </c>
+      <c r="K40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>13910</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="E41">
+        <v>3.6</v>
+      </c>
+      <c r="F41">
+        <v>10.34</v>
+      </c>
+      <c r="G41">
+        <v>5.91</v>
+      </c>
+      <c r="H41" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I41">
+        <v>3.59</v>
+      </c>
+      <c r="J41">
+        <v>84</v>
+      </c>
+      <c r="K41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44550</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="E42">
+        <v>10.79</v>
+      </c>
+      <c r="F42">
+        <v>11.5</v>
+      </c>
+      <c r="G42">
+        <v>8.93</v>
+      </c>
+      <c r="H42" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I42">
+        <v>4.49</v>
+      </c>
+      <c r="J42">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>22050</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="E43">
+        <v>12.8</v>
+      </c>
+      <c r="F43">
+        <v>11.61</v>
+      </c>
+      <c r="G43">
+        <v>12.93</v>
+      </c>
+      <c r="H43" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I43">
+        <v>4.51</v>
+      </c>
+      <c r="J43">
+        <v>81</v>
+      </c>
+      <c r="K43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
         <v>25200</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D44" s="3">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="E30">
+      <c r="E44">
         <v>9.39</v>
       </c>
-      <c r="F30">
+      <c r="F44">
         <v>7.27</v>
       </c>
-      <c r="G30">
+      <c r="G44">
         <v>9.73</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H44" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I30">
+      <c r="I44">
         <v>4.76</v>
       </c>
-      <c r="J30">
+      <c r="J44">
         <v>90</v>
       </c>
-      <c r="K30">
+      <c r="K44">
         <v>90</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{975EF0AB-1FDC-488F-B933-251689B503DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A59A9DE-1102-47DA-B15D-485F20E9E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CF3CF44C-4584-4C4C-83FA-8BA3163EF94F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{059A8757-44E4-494C-882E-4539EAB860E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,22 +54,196 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>효성</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>현대엘리베이터</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
     <t>한국앤컴퍼니</t>
   </si>
   <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>214320</t>
+  </si>
+  <si>
+    <t>이노션</t>
+  </si>
+  <si>
+    <t>316140</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>003540</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
     <t>000270</t>
   </si>
   <si>
     <t>기아</t>
   </si>
   <si>
-    <t>000810</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
   </si>
   <si>
     <t>001120</t>
@@ -78,16 +252,10 @@
     <t>LX인터내셔널</t>
   </si>
   <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
   </si>
   <si>
     <t>003550</t>
@@ -96,28 +264,46 @@
     <t>LG</t>
   </si>
   <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
-  </si>
-  <si>
-    <t>005380</t>
-  </si>
-  <si>
-    <t>현대차</t>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
   </si>
   <si>
     <t>005830</t>
@@ -126,190 +312,10 @@
     <t>DB손해보험</t>
   </si>
   <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
-    <t>016360</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>017800</t>
-  </si>
-  <si>
-    <t>현대엘리베이터</t>
-  </si>
-  <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
-    <t>024110</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>029780</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>033780</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
-    <t>055550</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>086280</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
     <t>138930</t>
   </si>
   <si>
     <t>BNK금융지주</t>
-  </si>
-  <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
-  </si>
-  <si>
-    <t>175330</t>
-  </si>
-  <si>
-    <t>JB금융지주</t>
-  </si>
-  <si>
-    <t>316140</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
   </si>
 </sst>
 </file>
@@ -687,11 +693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B755238-9C32-44B2-905B-AC6BDDF03958}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2F2355-33E9-4DB2-8E45-F32B11713E5B}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -750,31 +756,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24150</v>
+        <v>86800</v>
       </c>
       <c r="D2" s="3">
-        <v>1.6799999999999999E-2</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>19.62</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>12.01</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>6.74</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>130022.16</v>
       </c>
       <c r="I2">
-        <v>4.1399999999999997</v>
+        <v>3.46</v>
       </c>
       <c r="J2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -785,31 +791,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>101900</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1E-3</v>
+        <v>212500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>12.43</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>11.52</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>11.82</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>411868.79</v>
       </c>
       <c r="I3">
-        <v>6.38</v>
+        <v>5.65</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -820,31 +826,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>433500</v>
+        <v>84400</v>
       </c>
       <c r="D4" s="3">
-        <v>-2.1399999999999999E-2</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>14.42</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>11.9</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>15.82</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>32483.7</v>
       </c>
       <c r="I4">
-        <v>4.38</v>
+        <v>6.52</v>
       </c>
       <c r="J4">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K4">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -855,31 +861,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30200</v>
+        <v>163300</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>13.24</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>17.97</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>15.51</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>119232.22</v>
       </c>
       <c r="I5">
-        <v>6.62</v>
+        <v>2.27</v>
       </c>
       <c r="J5">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -890,31 +896,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29250</v>
+        <v>53700</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.35E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>13.26</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>3.52</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>11.65</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>27139.93</v>
       </c>
       <c r="I6">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J6">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -925,31 +931,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>25200</v>
+        <v>44500</v>
       </c>
       <c r="D7" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>10.79</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>11.5</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>8.93</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>90358.17</v>
       </c>
       <c r="I7">
-        <v>4.76</v>
+        <v>4.49</v>
       </c>
       <c r="J7">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -960,31 +966,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>77000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
+        <v>23550</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-2.4799999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>10.33</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>5.8</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>47311.47</v>
       </c>
       <c r="I8">
-        <v>4.03</v>
+        <v>4.25</v>
       </c>
       <c r="J8">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -995,31 +1001,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>52200</v>
+        <v>40850</v>
       </c>
       <c r="D9" s="3">
-        <v>-4.2200000000000001E-2</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E9">
-        <v>12.89</v>
+        <v>11.21</v>
       </c>
       <c r="F9">
-        <v>9.02</v>
+        <v>13.43</v>
       </c>
       <c r="G9">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="H9" s="4">
-        <v>26158.58</v>
+        <v>121076.78</v>
       </c>
       <c r="I9">
-        <v>2.4900000000000002</v>
+        <v>3.56</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1030,31 +1036,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>10880</v>
+        <v>84400</v>
       </c>
       <c r="D10" s="3">
-        <v>1.12E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>9.44</v>
+        <v>9.11</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>10.47</v>
       </c>
       <c r="G10">
-        <v>9.86</v>
+        <v>9.4</v>
       </c>
       <c r="H10" s="4">
-        <v>18178.189999999999</v>
+        <v>153124.29</v>
       </c>
       <c r="I10">
-        <v>4.7300000000000004</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J10">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1065,31 +1071,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>88000</v>
+        <v>203500</v>
       </c>
       <c r="D11" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>-1.4500000000000001E-2</v>
       </c>
       <c r="E11">
-        <v>19.62</v>
+        <v>15.98</v>
       </c>
       <c r="F11">
-        <v>12.01</v>
+        <v>16.78</v>
       </c>
       <c r="G11">
-        <v>6.74</v>
+        <v>12.25</v>
       </c>
       <c r="H11" s="4">
-        <v>130022.16</v>
+        <v>212733.48</v>
       </c>
       <c r="I11">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K11">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1100,31 +1106,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>212500</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
+        <v>107400</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>12.43</v>
+        <v>19.38</v>
       </c>
       <c r="F12">
-        <v>11.52</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G12">
-        <v>11.82</v>
+        <v>20.04</v>
       </c>
       <c r="H12" s="4">
-        <v>411868.79</v>
+        <v>43969.66</v>
       </c>
       <c r="I12">
-        <v>5.65</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J12">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1135,31 +1141,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>127600</v>
+        <v>10790</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.3899999999999999E-2</v>
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>18.96</v>
+        <v>9.44</v>
       </c>
       <c r="F13">
-        <v>19.86</v>
+        <v>11.1</v>
       </c>
       <c r="G13">
-        <v>18.8</v>
+        <v>9.86</v>
       </c>
       <c r="H13" s="4">
-        <v>115980.87</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I13">
-        <v>5.33</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J13">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1170,31 +1176,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>33400</v>
+        <v>19950</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="E14">
-        <v>17.420000000000002</v>
+        <v>15.12</v>
       </c>
       <c r="F14">
-        <v>17.22</v>
+        <v>7.98</v>
       </c>
       <c r="G14">
-        <v>15.37</v>
+        <v>15.58</v>
       </c>
       <c r="H14" s="4">
-        <v>50552.95</v>
+        <v>14481.01</v>
       </c>
       <c r="I14">
-        <v>3.59</v>
+        <v>6.17</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1205,31 +1211,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>19500</v>
+        <v>19290</v>
       </c>
       <c r="D15" s="3">
-        <v>-5.1000000000000004E-3</v>
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="E15">
-        <v>8.73</v>
+        <v>10.48</v>
       </c>
       <c r="F15">
-        <v>10.35</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>10.17</v>
       </c>
       <c r="H15" s="4">
-        <v>23121.599999999999</v>
+        <v>24686.55</v>
       </c>
       <c r="I15">
-        <v>4.87</v>
+        <v>6.09</v>
       </c>
       <c r="J15">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="K15">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1240,31 +1246,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>25650</v>
+        <v>24950</v>
       </c>
       <c r="D16" s="3">
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="E16">
-        <v>19.78</v>
+        <v>9.39</v>
       </c>
       <c r="F16">
-        <v>17.25</v>
+        <v>7.27</v>
       </c>
       <c r="G16">
-        <v>23.29</v>
+        <v>9.73</v>
       </c>
       <c r="H16" s="4">
-        <v>31156.34</v>
+        <v>45501.38</v>
       </c>
       <c r="I16">
-        <v>3.9</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="J16">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1275,10 +1281,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>132300</v>
+        <v>129500</v>
       </c>
       <c r="D17" s="3">
-        <v>-2.6499999999999999E-2</v>
+        <v>-2.12E-2</v>
       </c>
       <c r="E17">
         <v>13.17</v>
@@ -1293,13 +1299,13 @@
         <v>201114.72</v>
       </c>
       <c r="I17">
-        <v>4.04</v>
+        <v>4.13</v>
       </c>
       <c r="J17">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1310,31 +1316,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>74300</v>
+        <v>58200</v>
       </c>
       <c r="D18" s="3">
-        <v>9.4999999999999998E-3</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E18">
-        <v>10.85</v>
+        <v>12.32</v>
       </c>
       <c r="F18">
-        <v>10.27</v>
+        <v>9.67</v>
       </c>
       <c r="G18">
-        <v>11.06</v>
+        <v>18.72</v>
       </c>
       <c r="H18" s="4">
-        <v>46509.73</v>
+        <v>84441.54</v>
       </c>
       <c r="I18">
-        <v>3.63</v>
+        <v>2.41</v>
       </c>
       <c r="J18">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1345,31 +1351,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>70000</v>
+        <v>74600</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.5000000000000006E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>12.89</v>
+        <v>10.85</v>
       </c>
       <c r="F19">
-        <v>13.62</v>
+        <v>10.27</v>
       </c>
       <c r="G19">
-        <v>9.44</v>
+        <v>11.06</v>
       </c>
       <c r="H19" s="4">
-        <v>81376.7</v>
+        <v>46509.73</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3.62</v>
       </c>
       <c r="J19">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1380,31 +1386,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>56100</v>
+        <v>33100</v>
       </c>
       <c r="D20" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E20">
-        <v>10.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F20">
-        <v>12.4</v>
+        <v>17.22</v>
       </c>
       <c r="G20">
-        <v>9.48</v>
+        <v>15.37</v>
       </c>
       <c r="H20" s="4">
-        <v>55460.24</v>
+        <v>50552.95</v>
       </c>
       <c r="I20">
-        <v>6.31</v>
+        <v>3.63</v>
       </c>
       <c r="J20">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1415,25 +1421,25 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>85500</v>
+        <v>69400</v>
       </c>
       <c r="D21" s="3">
-        <v>3.39E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E21">
-        <v>14.42</v>
+        <v>8.11</v>
       </c>
       <c r="F21">
-        <v>11.9</v>
+        <v>10.55</v>
       </c>
       <c r="G21">
-        <v>15.82</v>
+        <v>8.66</v>
       </c>
       <c r="H21" s="4">
-        <v>32483.7</v>
+        <v>113903.42</v>
       </c>
       <c r="I21">
-        <v>6.43</v>
+        <v>3.11</v>
       </c>
       <c r="J21">
         <v>91</v>
@@ -1450,31 +1456,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>105500</v>
+        <v>28900</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.8500000000000001E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E22">
-        <v>19.38</v>
+        <v>1.04</v>
       </c>
       <c r="F22">
-        <v>17.489999999999998</v>
+        <v>1.27</v>
       </c>
       <c r="G22">
-        <v>20.04</v>
+        <v>4.21</v>
       </c>
       <c r="H22" s="4">
-        <v>43969.66</v>
+        <v>52692.43</v>
       </c>
       <c r="I22">
-        <v>2.4900000000000002</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J22">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1485,31 +1491,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>33200</v>
+        <v>438500</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.34E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E23">
-        <v>13.16</v>
+        <v>13.09</v>
       </c>
       <c r="F23">
-        <v>14.03</v>
+        <v>15.71</v>
       </c>
       <c r="G23">
-        <v>13.29</v>
+        <v>12.47</v>
       </c>
       <c r="H23" s="4">
-        <v>65635.929999999993</v>
+        <v>333812.02</v>
       </c>
       <c r="I23">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="J23">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1520,31 +1526,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>19400</v>
+        <v>50400</v>
       </c>
       <c r="D24" s="3">
-        <v>1.5E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>9.52</v>
+        <v>8.75</v>
       </c>
       <c r="G24">
-        <v>8.77</v>
+        <v>7.9</v>
       </c>
       <c r="H24" s="4">
-        <v>42663.82</v>
+        <v>75767.48</v>
       </c>
       <c r="I24">
-        <v>5.49</v>
+        <v>5.56</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1555,31 +1561,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>50700</v>
+        <v>67800</v>
       </c>
       <c r="D25" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>-3.1399999999999997E-2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>12.89</v>
       </c>
       <c r="F25">
-        <v>8.75</v>
+        <v>13.62</v>
       </c>
       <c r="G25">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H25" s="4">
-        <v>75767.48</v>
+        <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.52</v>
+        <v>5.16</v>
       </c>
       <c r="J25">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1590,31 +1596,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>20100</v>
+        <v>123600</v>
       </c>
       <c r="D26" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>15.12</v>
+        <v>5.76</v>
       </c>
       <c r="F26">
-        <v>7.98</v>
+        <v>8.44</v>
       </c>
       <c r="G26">
-        <v>15.58</v>
+        <v>5.33</v>
       </c>
       <c r="H26" s="4">
-        <v>14481.01</v>
+        <v>158106.71</v>
       </c>
       <c r="I26">
-        <v>6.12</v>
+        <v>3.64</v>
       </c>
       <c r="J26">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1625,31 +1631,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>53700</v>
+        <v>24900</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.0999999999999999E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>2.85</v>
+        <v>4.57</v>
       </c>
       <c r="F27">
-        <v>13.16</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G27">
-        <v>5.63</v>
+        <v>4.55</v>
       </c>
       <c r="H27" s="4">
-        <v>66926.62</v>
+        <v>38894.53</v>
       </c>
       <c r="I27">
-        <v>3.72</v>
+        <v>4.82</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1660,31 +1666,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14590</v>
+        <v>32750</v>
       </c>
       <c r="D28" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>4.4000000000000004</v>
+        <v>13.16</v>
       </c>
       <c r="F28">
-        <v>7.75</v>
+        <v>14.03</v>
       </c>
       <c r="G28">
-        <v>6.75</v>
+        <v>13.29</v>
       </c>
       <c r="H28" s="4">
-        <v>19799.21</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I28">
-        <v>4.46</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J28">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1695,31 +1701,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>123400</v>
+        <v>19270</v>
       </c>
       <c r="D29" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="E29">
-        <v>5.76</v>
+        <v>8.06</v>
       </c>
       <c r="F29">
-        <v>8.44</v>
+        <v>9.52</v>
       </c>
       <c r="G29">
-        <v>5.33</v>
+        <v>8.77</v>
       </c>
       <c r="H29" s="4">
-        <v>158106.71</v>
+        <v>42663.82</v>
       </c>
       <c r="I29">
-        <v>3.65</v>
+        <v>5.53</v>
       </c>
       <c r="J29">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1730,31 +1736,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>147200</v>
+        <v>101600</v>
       </c>
       <c r="D30" s="3">
-        <v>6.2799999999999995E-2</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E30">
-        <v>12.66</v>
+        <v>19.09</v>
       </c>
       <c r="F30">
-        <v>11.17</v>
+        <v>17.12</v>
       </c>
       <c r="G30">
-        <v>11.14</v>
+        <v>18.03</v>
       </c>
       <c r="H30" s="4">
-        <v>81115.86</v>
+        <v>141851.03</v>
       </c>
       <c r="I30">
-        <v>3.67</v>
+        <v>6.4</v>
       </c>
       <c r="J30">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1765,31 +1771,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>41300</v>
+        <v>53100</v>
       </c>
       <c r="D31" s="3">
-        <v>-2.3599999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="E31">
-        <v>11.21</v>
+        <v>12.89</v>
       </c>
       <c r="F31">
-        <v>13.43</v>
+        <v>9.02</v>
       </c>
       <c r="G31">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="H31" s="4">
-        <v>121076.78</v>
+        <v>26158.58</v>
       </c>
       <c r="I31">
-        <v>3.52</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J31">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="K31">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1800,31 +1806,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>206500</v>
+        <v>55900</v>
       </c>
       <c r="D32" s="3">
-        <v>-1.43E-2</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>15.98</v>
+        <v>10.83</v>
       </c>
       <c r="F32">
-        <v>16.78</v>
+        <v>12.4</v>
       </c>
       <c r="G32">
-        <v>12.25</v>
+        <v>9.48</v>
       </c>
       <c r="H32" s="4">
-        <v>212733.48</v>
+        <v>55460.24</v>
       </c>
       <c r="I32">
-        <v>3.63</v>
+        <v>6.33</v>
       </c>
       <c r="J32">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1835,31 +1841,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>52400</v>
+        <v>19110</v>
       </c>
       <c r="D33" s="3">
-        <v>-2.06E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E33">
-        <v>13.26</v>
+        <v>8.73</v>
       </c>
       <c r="F33">
-        <v>3.52</v>
+        <v>10.35</v>
       </c>
       <c r="G33">
-        <v>11.65</v>
+        <v>6.85</v>
       </c>
       <c r="H33" s="4">
-        <v>27139.93</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I33">
-        <v>4.71</v>
+        <v>4.97</v>
       </c>
       <c r="J33">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1870,31 +1876,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>69200</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
+        <v>29650</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.8200000000000001E-2</v>
       </c>
       <c r="E34">
-        <v>8.11</v>
+        <v>7.12</v>
       </c>
       <c r="F34">
-        <v>10.55</v>
+        <v>14.97</v>
       </c>
       <c r="G34">
-        <v>8.66</v>
+        <v>12.61</v>
       </c>
       <c r="H34" s="4">
-        <v>113903.42</v>
+        <v>70348.56</v>
       </c>
       <c r="I34">
-        <v>3.12</v>
+        <v>6.75</v>
       </c>
       <c r="J34">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1905,31 +1911,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>48050</v>
+        <v>14780</v>
       </c>
       <c r="D35" s="3">
-        <v>-3.0999999999999999E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E35">
-        <v>4.12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F35">
-        <v>5.83</v>
+        <v>7.75</v>
       </c>
       <c r="G35">
-        <v>11.01</v>
+        <v>6.75</v>
       </c>
       <c r="H35" s="4">
-        <v>147806.45000000001</v>
+        <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>5.62</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J35">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -1940,31 +1946,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>168000</v>
+        <v>76000</v>
       </c>
       <c r="D36" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>13.24</v>
+        <v>2.16</v>
       </c>
       <c r="F36">
-        <v>17.97</v>
+        <v>8.5</v>
       </c>
       <c r="G36">
-        <v>15.51</v>
+        <v>5.18</v>
       </c>
       <c r="H36" s="4">
-        <v>119232.22</v>
+        <v>174674.22</v>
       </c>
       <c r="I36">
-        <v>2.2000000000000002</v>
+        <v>4.08</v>
       </c>
       <c r="J36">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="K36">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1975,31 +1981,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>84900</v>
+        <v>140100</v>
       </c>
       <c r="D37" s="3">
-        <v>-1.0500000000000001E-2</v>
+        <v>-4.82E-2</v>
       </c>
       <c r="E37">
-        <v>9.11</v>
+        <v>12.66</v>
       </c>
       <c r="F37">
-        <v>10.47</v>
+        <v>11.17</v>
       </c>
       <c r="G37">
-        <v>9.4</v>
+        <v>11.14</v>
       </c>
       <c r="H37" s="4">
-        <v>153124.29</v>
+        <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>4.24</v>
+        <v>3.85</v>
       </c>
       <c r="J37">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2010,31 +2016,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>113500</v>
+        <v>54100</v>
       </c>
       <c r="D38" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E38">
-        <v>8.86</v>
+        <v>2.85</v>
       </c>
       <c r="F38">
-        <v>11.69</v>
+        <v>13.16</v>
       </c>
       <c r="G38">
-        <v>8.51</v>
+        <v>5.63</v>
       </c>
       <c r="H38" s="4">
-        <v>152301.9</v>
+        <v>66926.62</v>
       </c>
       <c r="I38">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="J38">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2045,31 +2051,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>58900</v>
+        <v>112700</v>
       </c>
       <c r="D39" s="3">
-        <v>-5.1000000000000004E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E39">
-        <v>12.32</v>
+        <v>8.86</v>
       </c>
       <c r="F39">
-        <v>9.67</v>
+        <v>11.69</v>
       </c>
       <c r="G39">
-        <v>18.72</v>
+        <v>8.51</v>
       </c>
       <c r="H39" s="4">
-        <v>84441.54</v>
+        <v>152301.9</v>
       </c>
       <c r="I39">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="J39">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2080,31 +2086,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>14660</v>
+        <v>22000</v>
       </c>
       <c r="D40" s="3">
-        <v>2.7000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E40">
-        <v>6.96</v>
+        <v>12.8</v>
       </c>
       <c r="F40">
-        <v>6.28</v>
+        <v>11.61</v>
       </c>
       <c r="G40">
-        <v>7.18</v>
+        <v>12.93</v>
       </c>
       <c r="H40" s="4">
-        <v>33008.75</v>
+        <v>29151.87</v>
       </c>
       <c r="I40">
-        <v>4.43</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J40">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2115,10 +2121,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>13910</v>
+        <v>13960</v>
       </c>
       <c r="D41" s="3">
-        <v>-0.01</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E41">
         <v>3.6</v>
@@ -2133,7 +2139,7 @@
         <v>35883.14</v>
       </c>
       <c r="I41">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="J41">
         <v>84</v>
@@ -2150,31 +2156,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>44550</v>
+        <v>47100</v>
       </c>
       <c r="D42" s="3">
-        <v>-3.3999999999999998E-3</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E42">
-        <v>10.79</v>
+        <v>4.12</v>
       </c>
       <c r="F42">
-        <v>11.5</v>
+        <v>5.83</v>
       </c>
       <c r="G42">
-        <v>8.93</v>
+        <v>11.01</v>
       </c>
       <c r="H42" s="4">
-        <v>90358.17</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I42">
-        <v>4.49</v>
+        <v>5.73</v>
       </c>
       <c r="J42">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2185,31 +2191,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>22050</v>
+        <v>25450</v>
       </c>
       <c r="D43" s="3">
-        <v>-0.02</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E43">
-        <v>12.8</v>
+        <v>19.78</v>
       </c>
       <c r="F43">
-        <v>11.61</v>
+        <v>17.25</v>
       </c>
       <c r="G43">
-        <v>12.93</v>
+        <v>23.29</v>
       </c>
       <c r="H43" s="4">
-        <v>29151.87</v>
+        <v>31156.34</v>
       </c>
       <c r="I43">
-        <v>4.51</v>
+        <v>3.93</v>
       </c>
       <c r="J43">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2220,31 +2226,66 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>25200</v>
+        <v>125200</v>
       </c>
       <c r="D44" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E44">
-        <v>9.39</v>
+        <v>18.96</v>
       </c>
       <c r="F44">
-        <v>7.27</v>
+        <v>19.86</v>
       </c>
       <c r="G44">
-        <v>9.73</v>
+        <v>18.8</v>
       </c>
       <c r="H44" s="4">
-        <v>45501.38</v>
+        <v>115980.87</v>
       </c>
       <c r="I44">
-        <v>4.76</v>
+        <v>5.43</v>
       </c>
       <c r="J44">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>90</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14500</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="E45">
+        <v>6.96</v>
+      </c>
+      <c r="F45">
+        <v>6.28</v>
+      </c>
+      <c r="G45">
+        <v>7.18</v>
+      </c>
+      <c r="H45" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I45">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J45">
+        <v>86</v>
+      </c>
+      <c r="K45">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A59A9DE-1102-47DA-B15D-485F20E9E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD8E083-849E-497A-A16B-AAC584AA059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{059A8757-44E4-494C-882E-4539EAB860E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7F455B74-5048-4AB4-B926-96BBDB484D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="285">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,10 +54,172 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
+    <t>000240</t>
+  </si>
+  <si>
+    <t>한국앤컴퍼니</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>001040</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>002710</t>
+  </si>
+  <si>
+    <t>TCC스틸</t>
+  </si>
+  <si>
+    <t>002790</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽홀딩스</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>003030</t>
+  </si>
+  <si>
+    <t>세아제강지주</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>대웅</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
   </si>
   <si>
     <t>005380</t>
@@ -66,22 +228,526 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>DB손해보험</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>006040</t>
+  </si>
+  <si>
+    <t>동원산업</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>006360</t>
+  </si>
+  <si>
+    <t>GS건설</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>GS리테일</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>오뚜기</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>012630</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
     <t>017800</t>
   </si>
   <si>
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>017960</t>
+  </si>
+  <si>
+    <t>한국카본</t>
+  </si>
+  <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>포스코DX</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>삼성E&amp;A</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>HD현대인프라코어</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
+  </si>
+  <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>TKG휴켐스</t>
+  </si>
+  <si>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>지역난방공사</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
     <t>086280</t>
   </si>
   <si>
     <t>현대글로비스</t>
   </si>
   <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
+    <t>103140</t>
+  </si>
+  <si>
+    <t>풍산</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>씨에스윈드</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>GKL</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>덴티움</t>
   </si>
   <si>
     <t>161390</t>
@@ -90,232 +756,130 @@
     <t>한국타이어앤테크놀로</t>
   </si>
   <si>
-    <t>000240</t>
-  </si>
-  <si>
-    <t>한국앤컴퍼니</t>
-  </si>
-  <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
-    <t>214320</t>
-  </si>
-  <si>
-    <t>이노션</t>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>더블유게임즈</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>코스맥스</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>HL만도</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>268280</t>
+  </si>
+  <si>
+    <t>미원에스씨</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>280360</t>
+  </si>
+  <si>
+    <t>롯데웰푸드</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>285130</t>
+  </si>
+  <si>
+    <t>SK케미칼</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>HS효성첨단소재</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
+  </si>
+  <si>
+    <t>307950</t>
+  </si>
+  <si>
+    <t>현대오토에버</t>
   </si>
   <si>
     <t>316140</t>
   </si>
   <si>
     <t>우리금융지주</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
-    <t>055550</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>000810</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
-  </si>
-  <si>
-    <t>029780</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>016360</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
-    <t>024110</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>033780</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>175330</t>
-  </si>
-  <si>
-    <t>JB금융지주</t>
-  </si>
-  <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>005830</t>
-  </si>
-  <si>
-    <t>DB손해보험</t>
-  </si>
-  <si>
-    <t>138930</t>
-  </si>
-  <si>
-    <t>BNK금융지주</t>
   </si>
 </sst>
 </file>
@@ -693,21 +1257,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2F2355-33E9-4DB2-8E45-F32B11713E5B}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF849B2-5A38-4177-9746-075CA0BFF00C}">
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
@@ -756,31 +1318,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>86800</v>
+        <v>19890</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>19.62</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F2">
-        <v>12.01</v>
+        <v>13.54</v>
       </c>
       <c r="G2">
-        <v>6.74</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="4">
-        <v>130022.16</v>
+        <v>16779.22</v>
       </c>
       <c r="I2">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -791,31 +1353,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>212500</v>
+        <v>112000</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.43</v>
+        <v>3.41</v>
       </c>
       <c r="F3">
-        <v>11.52</v>
+        <v>1.69</v>
       </c>
       <c r="G3">
-        <v>11.82</v>
+        <v>5.01</v>
       </c>
       <c r="H3" s="4">
-        <v>411868.79</v>
+        <v>28112.080000000002</v>
       </c>
       <c r="I3">
-        <v>5.65</v>
+        <v>0.45</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -826,31 +1388,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>84400</v>
+        <v>84600</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.29E-2</v>
+        <v>-2.98E-2</v>
       </c>
       <c r="E4">
-        <v>14.42</v>
+        <v>6.58</v>
       </c>
       <c r="F4">
-        <v>11.9</v>
+        <v>3.63</v>
       </c>
       <c r="G4">
-        <v>15.82</v>
+        <v>5.98</v>
       </c>
       <c r="H4" s="4">
-        <v>32483.7</v>
+        <v>185712.25</v>
       </c>
       <c r="I4">
-        <v>6.52</v>
+        <v>0.95</v>
       </c>
       <c r="J4">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -861,31 +1423,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>163300</v>
+        <v>23550</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.8000000000000001E-2</v>
+        <v>-2.4799999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>13.24</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F5">
-        <v>17.97</v>
+        <v>10.33</v>
       </c>
       <c r="G5">
-        <v>15.51</v>
+        <v>5.8</v>
       </c>
       <c r="H5" s="4">
-        <v>119232.22</v>
+        <v>47311.47</v>
       </c>
       <c r="I5">
-        <v>2.27</v>
+        <v>4.25</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -896,31 +1458,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>53700</v>
+        <v>101600</v>
       </c>
       <c r="D6" s="3">
-        <v>2.4799999999999999E-2</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E6">
-        <v>13.26</v>
+        <v>19.09</v>
       </c>
       <c r="F6">
-        <v>3.52</v>
+        <v>17.12</v>
       </c>
       <c r="G6">
-        <v>11.65</v>
+        <v>18.03</v>
       </c>
       <c r="H6" s="4">
-        <v>27139.93</v>
+        <v>141851.03</v>
       </c>
       <c r="I6">
-        <v>4.5999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -931,31 +1493,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>44500</v>
+        <v>267000</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>10.79</v>
+        <v>31.06</v>
       </c>
       <c r="F7">
-        <v>11.5</v>
+        <v>41.75</v>
       </c>
       <c r="G7">
-        <v>8.93</v>
+        <v>6.34</v>
       </c>
       <c r="H7" s="4">
-        <v>90358.17</v>
+        <v>114794.74</v>
       </c>
       <c r="I7">
-        <v>4.49</v>
+        <v>0.83</v>
       </c>
       <c r="J7">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -966,31 +1528,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>23550</v>
+        <v>438500</v>
       </c>
       <c r="D8" s="3">
-        <v>-2.4799999999999999E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E8">
-        <v>8.2799999999999994</v>
+        <v>13.09</v>
       </c>
       <c r="F8">
-        <v>10.33</v>
+        <v>15.71</v>
       </c>
       <c r="G8">
-        <v>5.8</v>
+        <v>12.47</v>
       </c>
       <c r="H8" s="4">
-        <v>47311.47</v>
+        <v>333812.02</v>
       </c>
       <c r="I8">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="J8">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1001,31 +1563,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>40850</v>
+        <v>83600</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.09E-2</v>
+        <v>-3.6900000000000002E-2</v>
       </c>
       <c r="E9">
-        <v>11.21</v>
+        <v>7.19</v>
       </c>
       <c r="F9">
-        <v>13.43</v>
+        <v>3.32</v>
       </c>
       <c r="G9">
-        <v>6.4</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H9" s="4">
-        <v>121076.78</v>
+        <v>106654.47</v>
       </c>
       <c r="I9">
-        <v>3.56</v>
+        <v>0.96</v>
       </c>
       <c r="J9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1036,31 +1598,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>84400</v>
+        <v>160200</v>
       </c>
       <c r="D10" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-3.3799999999999997E-2</v>
       </c>
       <c r="E10">
-        <v>9.11</v>
+        <v>1.83</v>
       </c>
       <c r="F10">
-        <v>10.47</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G10">
-        <v>9.4</v>
+        <v>3.14</v>
       </c>
       <c r="H10" s="4">
-        <v>153124.29</v>
+        <v>156136.04999999999</v>
       </c>
       <c r="I10">
-        <v>4.2699999999999996</v>
+        <v>1.87</v>
       </c>
       <c r="J10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1071,31 +1633,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>203500</v>
+        <v>28900</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.4500000000000001E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E11">
-        <v>15.98</v>
+        <v>1.04</v>
       </c>
       <c r="F11">
-        <v>16.78</v>
+        <v>1.27</v>
       </c>
       <c r="G11">
-        <v>12.25</v>
+        <v>4.21</v>
       </c>
       <c r="H11" s="4">
-        <v>212733.48</v>
+        <v>52692.43</v>
       </c>
       <c r="I11">
-        <v>3.69</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J11">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1106,31 +1668,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>107400</v>
+        <v>23700</v>
       </c>
       <c r="D12" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="E12">
-        <v>19.38</v>
+        <v>6.94</v>
       </c>
       <c r="F12">
-        <v>17.489999999999998</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>20.04</v>
+        <v>6.21</v>
       </c>
       <c r="H12" s="4">
-        <v>43969.66</v>
+        <v>39272.870000000003</v>
       </c>
       <c r="I12">
-        <v>2.4500000000000002</v>
+        <v>3.59</v>
       </c>
       <c r="J12">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1141,31 +1703,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>10790</v>
+        <v>20550</v>
       </c>
       <c r="D13" s="3">
-        <v>-8.3000000000000001E-3</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>9.44</v>
+        <v>7.03</v>
       </c>
       <c r="F13">
-        <v>11.1</v>
+        <v>6.41</v>
       </c>
       <c r="G13">
-        <v>9.86</v>
+        <v>5.26</v>
       </c>
       <c r="H13" s="4">
-        <v>18178.189999999999</v>
+        <v>38104.980000000003</v>
       </c>
       <c r="I13">
-        <v>4.7699999999999996</v>
+        <v>3.89</v>
       </c>
       <c r="J13">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1176,31 +1738,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>19950</v>
+        <v>379000</v>
       </c>
       <c r="D14" s="3">
-        <v>-7.4999999999999997E-3</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
       <c r="E14">
-        <v>15.12</v>
+        <v>6.08</v>
       </c>
       <c r="F14">
-        <v>7.98</v>
+        <v>3.12</v>
       </c>
       <c r="G14">
-        <v>15.58</v>
+        <v>3.63</v>
       </c>
       <c r="H14" s="4">
-        <v>14481.01</v>
+        <v>738772.79</v>
       </c>
       <c r="I14">
-        <v>6.17</v>
+        <v>2.64</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1211,31 +1773,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>19290</v>
+        <v>20250</v>
       </c>
       <c r="D15" s="3">
-        <v>-9.7999999999999997E-3</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="E15">
-        <v>10.48</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0.15</v>
       </c>
       <c r="G15">
-        <v>10.17</v>
+        <v>7.09</v>
       </c>
       <c r="H15" s="4">
-        <v>24686.55</v>
+        <v>9599.4</v>
       </c>
       <c r="I15">
-        <v>6.09</v>
+        <v>0.49</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K15">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1246,31 +1808,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>24950</v>
+        <v>28150</v>
       </c>
       <c r="D16" s="3">
-        <v>-9.9000000000000008E-3</v>
+        <v>-2.93E-2</v>
       </c>
       <c r="E16">
-        <v>9.39</v>
+        <v>7.57</v>
       </c>
       <c r="F16">
-        <v>7.27</v>
+        <v>7.03</v>
       </c>
       <c r="G16">
-        <v>9.73</v>
+        <v>4.34</v>
       </c>
       <c r="H16" s="4">
-        <v>45501.38</v>
+        <v>37119.57</v>
       </c>
       <c r="I16">
-        <v>4.8099999999999996</v>
+        <v>1.17</v>
       </c>
       <c r="J16">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1281,31 +1843,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>129500</v>
+        <v>160700</v>
       </c>
       <c r="D17" s="3">
-        <v>-2.12E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E17">
-        <v>13.17</v>
+        <v>12.99</v>
       </c>
       <c r="F17">
-        <v>10.220000000000001</v>
+        <v>12.99</v>
       </c>
       <c r="G17">
-        <v>18.010000000000002</v>
+        <v>17.53</v>
       </c>
       <c r="H17" s="4">
-        <v>201114.72</v>
+        <v>89747.12</v>
       </c>
       <c r="I17">
-        <v>4.13</v>
+        <v>1.24</v>
       </c>
       <c r="J17">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1316,31 +1878,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>58200</v>
+        <v>191900</v>
       </c>
       <c r="D18" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-2.5399999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>12.32</v>
+        <v>2.25</v>
       </c>
       <c r="F18">
-        <v>9.67</v>
+        <v>9.16</v>
       </c>
       <c r="G18">
-        <v>18.72</v>
+        <v>13.33</v>
       </c>
       <c r="H18" s="4">
-        <v>84441.54</v>
+        <v>494940.49</v>
       </c>
       <c r="I18">
-        <v>2.41</v>
+        <v>0.94</v>
       </c>
       <c r="J18">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1351,31 +1913,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>74600</v>
+        <v>22100</v>
       </c>
       <c r="D19" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E19">
-        <v>10.85</v>
+        <v>5.99</v>
       </c>
       <c r="F19">
-        <v>10.27</v>
+        <v>10.42</v>
       </c>
       <c r="G19">
-        <v>11.06</v>
+        <v>12.16</v>
       </c>
       <c r="H19" s="4">
-        <v>46509.73</v>
+        <v>18716.599999999999</v>
       </c>
       <c r="I19">
-        <v>3.62</v>
+        <v>0.9</v>
       </c>
       <c r="J19">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="K19">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1386,31 +1948,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>33100</v>
+        <v>1502000</v>
       </c>
       <c r="D20" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E20">
-        <v>17.420000000000002</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F20">
-        <v>17.22</v>
+        <v>46.11</v>
       </c>
       <c r="G20">
-        <v>15.37</v>
+        <v>27.7</v>
       </c>
       <c r="H20" s="4">
-        <v>50552.95</v>
+        <v>119890.92</v>
       </c>
       <c r="I20">
-        <v>3.63</v>
+        <v>0.22</v>
       </c>
       <c r="J20">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="K20">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1421,31 +1983,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>69400</v>
+        <v>973000</v>
       </c>
       <c r="D21" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>8.11</v>
+        <v>5.45</v>
       </c>
       <c r="F21">
-        <v>10.55</v>
+        <v>7.63</v>
       </c>
       <c r="G21">
-        <v>8.66</v>
+        <v>3.82</v>
       </c>
       <c r="H21" s="4">
-        <v>113903.42</v>
+        <v>3792078.51</v>
       </c>
       <c r="I21">
-        <v>3.11</v>
+        <v>0.18</v>
       </c>
       <c r="J21">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1456,31 +2018,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>28900</v>
+        <v>23950</v>
       </c>
       <c r="D22" s="3">
-        <v>-1.2E-2</v>
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>1.04</v>
+        <v>13.17</v>
       </c>
       <c r="F22">
-        <v>1.27</v>
+        <v>10.87</v>
       </c>
       <c r="G22">
-        <v>4.21</v>
+        <v>15.53</v>
       </c>
       <c r="H22" s="4">
-        <v>52692.43</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I22">
-        <v>4.1500000000000004</v>
+        <v>3.13</v>
       </c>
       <c r="J22">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1491,31 +2053,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>438500</v>
+        <v>76000</v>
       </c>
       <c r="D23" s="3">
-        <v>1.15E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>13.09</v>
+        <v>2.16</v>
       </c>
       <c r="F23">
-        <v>15.71</v>
+        <v>8.5</v>
       </c>
       <c r="G23">
-        <v>12.47</v>
+        <v>5.18</v>
       </c>
       <c r="H23" s="4">
-        <v>333812.02</v>
+        <v>174674.22</v>
       </c>
       <c r="I23">
-        <v>4.33</v>
+        <v>4.08</v>
       </c>
       <c r="J23">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K23">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1526,31 +2088,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>50400</v>
+        <v>43050</v>
       </c>
       <c r="D24" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>1.53</v>
       </c>
       <c r="F24">
-        <v>8.75</v>
+        <v>4.8</v>
       </c>
       <c r="G24">
-        <v>7.9</v>
+        <v>5.27</v>
       </c>
       <c r="H24" s="4">
-        <v>75767.48</v>
+        <v>91911.37</v>
       </c>
       <c r="I24">
-        <v>5.56</v>
+        <v>3.25</v>
       </c>
       <c r="J24">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1561,31 +2123,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67800</v>
+        <v>165300</v>
       </c>
       <c r="D25" s="3">
-        <v>-3.1399999999999997E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="E25">
-        <v>12.89</v>
+        <v>2.54</v>
       </c>
       <c r="F25">
-        <v>13.62</v>
+        <v>5.41</v>
       </c>
       <c r="G25">
-        <v>9.44</v>
+        <v>6.1</v>
       </c>
       <c r="H25" s="4">
-        <v>81376.7</v>
+        <v>459712.86</v>
       </c>
       <c r="I25">
-        <v>5.16</v>
+        <v>2.72</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="K25">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1596,31 +2158,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>123600</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>383500</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5.76</v>
+        <v>6.17</v>
       </c>
       <c r="F26">
-        <v>8.44</v>
+        <v>7.77</v>
       </c>
       <c r="G26">
-        <v>5.33</v>
+        <v>6.2</v>
       </c>
       <c r="H26" s="4">
-        <v>158106.71</v>
+        <v>456560.89</v>
       </c>
       <c r="I26">
-        <v>3.64</v>
+        <v>1.3</v>
       </c>
       <c r="J26">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1631,31 +2193,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>24900</v>
+        <v>65600</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>4.57</v>
+        <v>12.22</v>
       </c>
       <c r="F27">
-        <v>9.2899999999999991</v>
+        <v>12.78</v>
       </c>
       <c r="G27">
-        <v>4.55</v>
+        <v>8.36</v>
       </c>
       <c r="H27" s="4">
-        <v>38894.53</v>
+        <v>109944.94</v>
       </c>
       <c r="I27">
-        <v>4.82</v>
+        <v>1.68</v>
       </c>
       <c r="J27">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="K27">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1666,31 +2228,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>32750</v>
+        <v>15650</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>-6.3E-3</v>
       </c>
       <c r="E28">
-        <v>13.16</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F28">
-        <v>14.03</v>
+        <v>1.2</v>
       </c>
       <c r="G28">
-        <v>13.29</v>
+        <v>0.08</v>
       </c>
       <c r="H28" s="4">
-        <v>65635.929999999993</v>
+        <v>19840.59</v>
       </c>
       <c r="I28">
-        <v>4.2699999999999996</v>
+        <v>3.19</v>
       </c>
       <c r="J28">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1701,31 +2263,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>19270</v>
+        <v>126100</v>
       </c>
       <c r="D29" s="3">
-        <v>-6.7000000000000002E-3</v>
+        <v>-2.93E-2</v>
       </c>
       <c r="E29">
-        <v>8.06</v>
+        <v>3.99</v>
       </c>
       <c r="F29">
-        <v>9.52</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>8.77</v>
+        <v>8.24</v>
       </c>
       <c r="H29" s="4">
-        <v>42663.82</v>
+        <v>146343.82</v>
       </c>
       <c r="I29">
-        <v>5.53</v>
+        <v>2.7</v>
       </c>
       <c r="J29">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1736,31 +2298,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>101600</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-2.8999999999999998E-3</v>
+        <v>212500</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>19.09</v>
+        <v>12.43</v>
       </c>
       <c r="F30">
-        <v>17.12</v>
+        <v>11.52</v>
       </c>
       <c r="G30">
-        <v>18.03</v>
+        <v>11.82</v>
       </c>
       <c r="H30" s="4">
-        <v>141851.03</v>
+        <v>411868.79</v>
       </c>
       <c r="I30">
-        <v>6.4</v>
+        <v>5.65</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1771,31 +2333,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>53100</v>
+        <v>306500</v>
       </c>
       <c r="D31" s="3">
-        <v>1.72E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="E31">
-        <v>12.89</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>9.02</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G31">
-        <v>7.9</v>
+        <v>3.76</v>
       </c>
       <c r="H31" s="4">
-        <v>26158.58</v>
+        <v>701236.07</v>
       </c>
       <c r="I31">
-        <v>2.4500000000000002</v>
+        <v>3.26</v>
       </c>
       <c r="J31">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K31">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1806,31 +2368,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>55900</v>
+        <v>125200</v>
       </c>
       <c r="D32" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E32">
-        <v>10.83</v>
+        <v>18.96</v>
       </c>
       <c r="F32">
-        <v>12.4</v>
+        <v>19.86</v>
       </c>
       <c r="G32">
-        <v>9.48</v>
+        <v>18.8</v>
       </c>
       <c r="H32" s="4">
-        <v>55460.24</v>
+        <v>115980.87</v>
       </c>
       <c r="I32">
-        <v>6.33</v>
+        <v>5.43</v>
       </c>
       <c r="J32">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1841,31 +2403,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19110</v>
+        <v>33100</v>
       </c>
       <c r="D33" s="3">
-        <v>-0.02</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E33">
-        <v>8.73</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F33">
-        <v>10.35</v>
+        <v>17.22</v>
       </c>
       <c r="G33">
-        <v>6.85</v>
+        <v>15.37</v>
       </c>
       <c r="H33" s="4">
-        <v>23121.599999999999</v>
+        <v>50552.95</v>
       </c>
       <c r="I33">
-        <v>4.97</v>
+        <v>3.63</v>
       </c>
       <c r="J33">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1876,31 +2438,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>29650</v>
+        <v>71000</v>
       </c>
       <c r="D34" s="3">
-        <v>-1.8200000000000001E-2</v>
+        <v>-1.11E-2</v>
       </c>
       <c r="E34">
-        <v>7.12</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F34">
-        <v>14.97</v>
+        <v>8.16</v>
       </c>
       <c r="G34">
-        <v>12.61</v>
+        <v>10.08</v>
       </c>
       <c r="H34" s="4">
-        <v>70348.56</v>
+        <v>59026.51</v>
       </c>
       <c r="I34">
-        <v>6.75</v>
+        <v>2.04</v>
       </c>
       <c r="J34">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1911,31 +2473,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14780</v>
+        <v>19110</v>
       </c>
       <c r="D35" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E35">
-        <v>4.4000000000000004</v>
+        <v>8.73</v>
       </c>
       <c r="F35">
-        <v>7.75</v>
+        <v>10.35</v>
       </c>
       <c r="G35">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="H35" s="4">
-        <v>19799.21</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I35">
-        <v>4.4000000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="J35">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -1946,31 +2508,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>76000</v>
+        <v>46950</v>
       </c>
       <c r="D36" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="F36">
-        <v>8.5</v>
+        <v>9.32</v>
       </c>
       <c r="G36">
-        <v>5.18</v>
+        <v>6.63</v>
       </c>
       <c r="H36" s="4">
-        <v>174674.22</v>
+        <v>71192.42</v>
       </c>
       <c r="I36">
-        <v>4.08</v>
+        <v>2.34</v>
       </c>
       <c r="J36">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1981,31 +2543,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>140100</v>
+        <v>171200</v>
       </c>
       <c r="D37" s="3">
-        <v>-4.82E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E37">
-        <v>12.66</v>
+        <v>5.09</v>
       </c>
       <c r="F37">
-        <v>11.17</v>
+        <v>7.34</v>
       </c>
       <c r="G37">
-        <v>11.14</v>
+        <v>11.63</v>
       </c>
       <c r="H37" s="4">
-        <v>81115.86</v>
+        <v>154845.78</v>
       </c>
       <c r="I37">
-        <v>3.85</v>
+        <v>0.96</v>
       </c>
       <c r="J37">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2016,31 +2578,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>54100</v>
+        <v>19060</v>
       </c>
       <c r="D38" s="3">
-        <v>7.4000000000000003E-3</v>
+        <v>-2.1600000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>2.85</v>
+        <v>5.63</v>
       </c>
       <c r="F38">
-        <v>13.16</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G38">
-        <v>5.63</v>
+        <v>0.76</v>
       </c>
       <c r="H38" s="4">
-        <v>66926.62</v>
+        <v>52771.03</v>
       </c>
       <c r="I38">
-        <v>3.7</v>
+        <v>1.57</v>
       </c>
       <c r="J38">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="K38">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2051,31 +2613,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>112700</v>
+        <v>18360</v>
       </c>
       <c r="D39" s="3">
-        <v>-7.0000000000000001E-3</v>
+        <v>-2.86E-2</v>
       </c>
       <c r="E39">
-        <v>8.86</v>
+        <v>7.94</v>
       </c>
       <c r="F39">
-        <v>11.69</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G39">
-        <v>8.51</v>
+        <v>5.75</v>
       </c>
       <c r="H39" s="4">
-        <v>152301.9</v>
+        <v>17214.37</v>
       </c>
       <c r="I39">
-        <v>2.82</v>
+        <v>1.36</v>
       </c>
       <c r="J39">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2086,31 +2648,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>22000</v>
+        <v>17030</v>
       </c>
       <c r="D40" s="3">
-        <v>-2.3E-3</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="E40">
-        <v>12.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F40">
-        <v>11.61</v>
+        <v>0.84</v>
       </c>
       <c r="G40">
-        <v>12.93</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="4">
-        <v>29151.87</v>
+        <v>38078.410000000003</v>
       </c>
       <c r="I40">
-        <v>4.5199999999999996</v>
+        <v>2.94</v>
       </c>
       <c r="J40">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="K40">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2121,31 +2683,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>13960</v>
+        <v>396000</v>
       </c>
       <c r="D41" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="E41">
-        <v>3.6</v>
+        <v>6.85</v>
       </c>
       <c r="F41">
-        <v>10.34</v>
+        <v>6.54</v>
       </c>
       <c r="G41">
-        <v>5.91</v>
+        <v>10.64</v>
       </c>
       <c r="H41" s="4">
-        <v>35883.14</v>
+        <v>591978.98</v>
       </c>
       <c r="I41">
-        <v>3.58</v>
+        <v>2.27</v>
       </c>
       <c r="J41">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K41">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2156,31 +2718,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>47100</v>
+        <v>25450</v>
       </c>
       <c r="D42" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E42">
-        <v>4.12</v>
+        <v>19.78</v>
       </c>
       <c r="F42">
-        <v>5.83</v>
+        <v>17.25</v>
       </c>
       <c r="G42">
-        <v>11.01</v>
+        <v>23.29</v>
       </c>
       <c r="H42" s="4">
-        <v>147806.45000000001</v>
+        <v>31156.34</v>
       </c>
       <c r="I42">
-        <v>5.73</v>
+        <v>3.93</v>
       </c>
       <c r="J42">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2191,31 +2753,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>25450</v>
+        <v>42300</v>
       </c>
       <c r="D43" s="3">
-        <v>-7.7999999999999996E-3</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="E43">
-        <v>19.78</v>
+        <v>7.3</v>
       </c>
       <c r="F43">
-        <v>17.25</v>
+        <v>11.86</v>
       </c>
       <c r="G43">
-        <v>23.29</v>
+        <v>10.77</v>
       </c>
       <c r="H43" s="4">
-        <v>31156.34</v>
+        <v>12631</v>
       </c>
       <c r="I43">
-        <v>3.93</v>
+        <v>0.71</v>
       </c>
       <c r="J43">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K43">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2226,31 +2788,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>125200</v>
+        <v>159800</v>
       </c>
       <c r="D44" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="E44">
-        <v>18.96</v>
+        <v>8.16</v>
       </c>
       <c r="F44">
-        <v>19.86</v>
+        <v>6.08</v>
       </c>
       <c r="G44">
-        <v>18.8</v>
+        <v>9.14</v>
       </c>
       <c r="H44" s="4">
-        <v>115980.87</v>
+        <v>115453.7</v>
       </c>
       <c r="I44">
-        <v>5.43</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J44">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2261,31 +2823,3321 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
+        <v>45250</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="E45">
+        <v>43.59</v>
+      </c>
+      <c r="F45">
+        <v>10.8</v>
+      </c>
+      <c r="G45">
+        <v>4.82</v>
+      </c>
+      <c r="H45" s="4">
+        <v>26759.11</v>
+      </c>
+      <c r="I45">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>363500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="E46">
+        <v>11.16</v>
+      </c>
+      <c r="F46">
+        <v>17.64</v>
+      </c>
+      <c r="G46">
+        <v>3.73</v>
+      </c>
+      <c r="H46" s="4">
+        <v>160791.94</v>
+      </c>
+      <c r="I46">
+        <v>1.4</v>
+      </c>
+      <c r="J46">
+        <v>89</v>
+      </c>
+      <c r="K46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>129500</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="E47">
+        <v>13.17</v>
+      </c>
+      <c r="F47">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G47">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="H47" s="4">
+        <v>201114.72</v>
+      </c>
+      <c r="I47">
+        <v>4.13</v>
+      </c>
+      <c r="J47">
+        <v>86</v>
+      </c>
+      <c r="K47">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>313000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E48">
+        <v>13.44</v>
+      </c>
+      <c r="F48">
+        <v>15.22</v>
+      </c>
+      <c r="G48">
+        <v>10.67</v>
+      </c>
+      <c r="H48" s="4">
+        <v>61485.71</v>
+      </c>
+      <c r="I48">
+        <v>0.93</v>
+      </c>
+      <c r="J48">
+        <v>93</v>
+      </c>
+      <c r="K48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>796000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E49">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F49">
+        <v>8.83</v>
+      </c>
+      <c r="G49">
+        <v>5.79</v>
+      </c>
+      <c r="H49" s="4">
+        <v>457097.14</v>
+      </c>
+      <c r="I49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>164900</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="E50">
+        <v>8.92</v>
+      </c>
+      <c r="F50">
+        <v>6.38</v>
+      </c>
+      <c r="G50">
+        <v>15.79</v>
+      </c>
+      <c r="H50" s="4">
+        <v>227100.85</v>
+      </c>
+      <c r="I50">
+        <v>1.27</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>22550</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>15.35</v>
+      </c>
+      <c r="F51">
+        <v>10.6</v>
+      </c>
+      <c r="G51">
+        <v>28.31</v>
+      </c>
+      <c r="H51" s="4">
+        <v>31729.16</v>
+      </c>
+      <c r="I51">
+        <v>2.66</v>
+      </c>
+      <c r="J51">
+        <v>37</v>
+      </c>
+      <c r="K51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>48800</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="E52">
+        <v>3.45</v>
+      </c>
+      <c r="F52">
+        <v>10.6</v>
+      </c>
+      <c r="G52">
+        <v>2.72</v>
+      </c>
+      <c r="H52" s="4">
+        <v>136218.23000000001</v>
+      </c>
+      <c r="I52">
+        <v>2.25</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>108600</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-1.6299999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.88</v>
+      </c>
+      <c r="F53">
+        <v>8.24</v>
+      </c>
+      <c r="G53">
+        <v>10.87</v>
+      </c>
+      <c r="H53" s="4">
+        <v>207745.28</v>
+      </c>
+      <c r="I53">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>293500</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-8.3999999999999995E-3</v>
+      </c>
+      <c r="E54">
+        <v>9.35</v>
+      </c>
+      <c r="F54">
+        <v>8.9</v>
+      </c>
+      <c r="G54">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H54" s="4">
+        <v>509344.58</v>
+      </c>
+      <c r="I54">
+        <v>2.04</v>
+      </c>
+      <c r="J54">
+        <v>48</v>
+      </c>
+      <c r="K54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>880000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>53.94</v>
+      </c>
+      <c r="F55">
+        <v>7.76</v>
+      </c>
+      <c r="G55">
+        <v>28.78</v>
+      </c>
+      <c r="H55" s="4">
+        <v>85274.69</v>
+      </c>
+      <c r="I55">
+        <v>0.4</v>
+      </c>
+      <c r="J55">
+        <v>85</v>
+      </c>
+      <c r="K55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>24300</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.65</v>
+      </c>
+      <c r="F56">
+        <v>10.55</v>
+      </c>
+      <c r="G56">
+        <v>3.33</v>
+      </c>
+      <c r="H56" s="4">
+        <v>47758.78</v>
+      </c>
+      <c r="I56">
+        <v>1.44</v>
+      </c>
+      <c r="J56">
+        <v>95</v>
+      </c>
+      <c r="K56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>74600</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>10.85</v>
+      </c>
+      <c r="F57">
+        <v>10.27</v>
+      </c>
+      <c r="G57">
+        <v>11.06</v>
+      </c>
+      <c r="H57" s="4">
+        <v>46509.73</v>
+      </c>
+      <c r="I57">
+        <v>3.62</v>
+      </c>
+      <c r="J57">
+        <v>63</v>
+      </c>
+      <c r="K57">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>176700</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="E58">
+        <v>13.48</v>
+      </c>
+      <c r="F58">
+        <v>14.82</v>
+      </c>
+      <c r="G58">
+        <v>15.98</v>
+      </c>
+      <c r="H58" s="4">
+        <v>90006.399999999994</v>
+      </c>
+      <c r="I58">
+        <v>1.19</v>
+      </c>
+      <c r="J58">
+        <v>29</v>
+      </c>
+      <c r="K58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>30700</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E59">
+        <v>9.01</v>
+      </c>
+      <c r="F59">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G59">
+        <v>9.32</v>
+      </c>
+      <c r="H59" s="4">
+        <v>28302.22</v>
+      </c>
+      <c r="I59">
+        <v>1.95</v>
+      </c>
+      <c r="J59">
+        <v>18</v>
+      </c>
+      <c r="K59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>67800</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+      <c r="E60">
+        <v>12.89</v>
+      </c>
+      <c r="F60">
+        <v>13.62</v>
+      </c>
+      <c r="G60">
+        <v>9.44</v>
+      </c>
+      <c r="H60" s="4">
+        <v>81376.7</v>
+      </c>
+      <c r="I60">
+        <v>5.16</v>
+      </c>
+      <c r="J60">
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>55900</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="E61">
+        <v>10.83</v>
+      </c>
+      <c r="F61">
+        <v>12.4</v>
+      </c>
+      <c r="G61">
+        <v>9.48</v>
+      </c>
+      <c r="H61" s="4">
+        <v>55460.24</v>
+      </c>
+      <c r="I61">
+        <v>6.33</v>
+      </c>
+      <c r="J61">
+        <v>73</v>
+      </c>
+      <c r="K61">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>84400</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="E62">
+        <v>14.42</v>
+      </c>
+      <c r="F62">
+        <v>11.9</v>
+      </c>
+      <c r="G62">
+        <v>15.82</v>
+      </c>
+      <c r="H62" s="4">
+        <v>32483.7</v>
+      </c>
+      <c r="I62">
+        <v>6.52</v>
+      </c>
+      <c r="J62">
+        <v>89</v>
+      </c>
+      <c r="K62">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>31600</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="E63">
+        <v>4.38</v>
+      </c>
+      <c r="F63">
+        <v>18.16</v>
+      </c>
+      <c r="G63">
+        <v>2.12</v>
+      </c>
+      <c r="H63" s="4">
+        <v>9937.43</v>
+      </c>
+      <c r="I63">
+        <v>0.41</v>
+      </c>
+      <c r="J63">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>153700</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E64">
+        <v>8.42</v>
+      </c>
+      <c r="F64">
+        <v>9.06</v>
+      </c>
+      <c r="G64">
+        <v>10.29</v>
+      </c>
+      <c r="H64" s="4">
+        <v>120847.71</v>
+      </c>
+      <c r="I64">
+        <v>1.89</v>
+      </c>
+      <c r="J64">
+        <v>37</v>
+      </c>
+      <c r="K64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>107400</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E65">
+        <v>19.38</v>
+      </c>
+      <c r="F65">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G65">
+        <v>20.04</v>
+      </c>
+      <c r="H65" s="4">
+        <v>43969.66</v>
+      </c>
+      <c r="I65">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J65">
+        <v>90</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>24950</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E66">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F66">
+        <v>16.29</v>
+      </c>
+      <c r="G66">
+        <v>16.95</v>
+      </c>
+      <c r="H66" s="4">
+        <v>3521.01</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>28</v>
+      </c>
+      <c r="K66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>19270</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="E67">
+        <v>8.06</v>
+      </c>
+      <c r="F67">
+        <v>9.52</v>
+      </c>
+      <c r="G67">
+        <v>8.77</v>
+      </c>
+      <c r="H67" s="4">
+        <v>42663.82</v>
+      </c>
+      <c r="I67">
+        <v>5.53</v>
+      </c>
+      <c r="J67">
+        <v>79</v>
+      </c>
+      <c r="K67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>28650</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="E68">
+        <v>9.52</v>
+      </c>
+      <c r="F68">
+        <v>10.5</v>
+      </c>
+      <c r="G68">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H68" s="4">
+        <v>16694.21</v>
+      </c>
+      <c r="I68">
+        <v>3.11</v>
+      </c>
+      <c r="J68">
+        <v>44</v>
+      </c>
+      <c r="K68">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>27150</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E69">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F69">
+        <v>14.14</v>
+      </c>
+      <c r="G69">
+        <v>24.14</v>
+      </c>
+      <c r="H69" s="4">
+        <v>21889.49</v>
+      </c>
+      <c r="I69">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J69">
+        <v>62</v>
+      </c>
+      <c r="K69">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>162700</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="E70">
+        <v>6.83</v>
+      </c>
+      <c r="F70">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G70">
+        <v>7.09</v>
+      </c>
+      <c r="H70" s="4">
+        <v>190073.45</v>
+      </c>
+      <c r="I70">
+        <v>1.6</v>
+      </c>
+      <c r="J70">
+        <v>71</v>
+      </c>
+      <c r="K70">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4125</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E71">
+        <v>5.17</v>
+      </c>
+      <c r="F71">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G71">
+        <v>9.08</v>
+      </c>
+      <c r="H71" s="4">
+        <v>10523.01</v>
+      </c>
+      <c r="I71">
+        <v>2.91</v>
+      </c>
+      <c r="J71">
+        <v>19</v>
+      </c>
+      <c r="K71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>50400</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>8.75</v>
+      </c>
+      <c r="G72">
+        <v>7.9</v>
+      </c>
+      <c r="H72" s="4">
+        <v>75767.48</v>
+      </c>
+      <c r="I72">
+        <v>5.56</v>
+      </c>
+      <c r="J72">
+        <v>71</v>
+      </c>
+      <c r="K72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>19950</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="E73">
+        <v>15.12</v>
+      </c>
+      <c r="F73">
+        <v>7.98</v>
+      </c>
+      <c r="G73">
+        <v>15.58</v>
+      </c>
+      <c r="H73" s="4">
+        <v>14481.01</v>
+      </c>
+      <c r="I73">
+        <v>6.17</v>
+      </c>
+      <c r="J73">
+        <v>35</v>
+      </c>
+      <c r="K73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>54100</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E74">
+        <v>2.85</v>
+      </c>
+      <c r="F74">
+        <v>13.16</v>
+      </c>
+      <c r="G74">
+        <v>5.63</v>
+      </c>
+      <c r="H74" s="4">
+        <v>66926.62</v>
+      </c>
+      <c r="I74">
+        <v>3.7</v>
+      </c>
+      <c r="J74">
+        <v>86</v>
+      </c>
+      <c r="K74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14780</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F75">
+        <v>7.75</v>
+      </c>
+      <c r="G75">
+        <v>6.75</v>
+      </c>
+      <c r="H75" s="4">
+        <v>19799.21</v>
+      </c>
+      <c r="I75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J75">
+        <v>79</v>
+      </c>
+      <c r="K75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>123600</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>5.76</v>
+      </c>
+      <c r="F76">
+        <v>8.44</v>
+      </c>
+      <c r="G76">
+        <v>5.33</v>
+      </c>
+      <c r="H76" s="4">
+        <v>158106.71</v>
+      </c>
+      <c r="I76">
+        <v>3.64</v>
+      </c>
+      <c r="J76">
+        <v>74</v>
+      </c>
+      <c r="K76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>140100</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-4.82E-2</v>
+      </c>
+      <c r="E77">
+        <v>12.66</v>
+      </c>
+      <c r="F77">
+        <v>11.17</v>
+      </c>
+      <c r="G77">
+        <v>11.14</v>
+      </c>
+      <c r="H77" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I77">
+        <v>3.85</v>
+      </c>
+      <c r="J77">
+        <v>87</v>
+      </c>
+      <c r="K77">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18570</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="E78">
+        <v>12.08</v>
+      </c>
+      <c r="F78">
+        <v>7.85</v>
+      </c>
+      <c r="G78">
+        <v>8.39</v>
+      </c>
+      <c r="H78" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I78">
+        <v>6.3</v>
+      </c>
+      <c r="J78">
+        <v>32</v>
+      </c>
+      <c r="K78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>223000</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="E79">
+        <v>7.9</v>
+      </c>
+      <c r="F79">
+        <v>6.55</v>
+      </c>
+      <c r="G79">
+        <v>5.2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>172550.7</v>
+      </c>
+      <c r="I79">
+        <v>0.51</v>
+      </c>
+      <c r="J79">
+        <v>23</v>
+      </c>
+      <c r="K79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>64200</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E80">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F80">
+        <v>6.7</v>
+      </c>
+      <c r="G80">
+        <v>1.31</v>
+      </c>
+      <c r="H80" s="4">
+        <v>23415.79</v>
+      </c>
+      <c r="I80">
+        <v>0.11</v>
+      </c>
+      <c r="J80">
+        <v>23</v>
+      </c>
+      <c r="K80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2">
+        <v>40850</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="E81">
+        <v>11.21</v>
+      </c>
+      <c r="F81">
+        <v>13.43</v>
+      </c>
+      <c r="G81">
+        <v>6.4</v>
+      </c>
+      <c r="H81" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I81">
+        <v>3.56</v>
+      </c>
+      <c r="J81">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2">
+        <v>202500</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E82">
+        <v>2.99</v>
+      </c>
+      <c r="F82">
+        <v>4.97</v>
+      </c>
+      <c r="G82">
+        <v>7.77</v>
+      </c>
+      <c r="H82" s="4">
+        <v>170798.55</v>
+      </c>
+      <c r="I82">
+        <v>0.72</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>54600</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E83">
+        <v>47.19</v>
+      </c>
+      <c r="F83">
+        <v>29.12</v>
+      </c>
+      <c r="G83">
+        <v>5.07</v>
+      </c>
+      <c r="H83" s="4">
+        <v>11547.13</v>
+      </c>
+      <c r="I83">
+        <v>4.21</v>
+      </c>
+      <c r="J83">
+        <v>34</v>
+      </c>
+      <c r="K83">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>203500</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="E84">
+        <v>15.98</v>
+      </c>
+      <c r="F84">
+        <v>16.78</v>
+      </c>
+      <c r="G84">
+        <v>12.25</v>
+      </c>
+      <c r="H84" s="4">
+        <v>212733.48</v>
+      </c>
+      <c r="I84">
+        <v>3.69</v>
+      </c>
+      <c r="J84">
+        <v>77</v>
+      </c>
+      <c r="K84">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2">
+        <v>17300</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E85">
+        <v>5.91</v>
+      </c>
+      <c r="F85">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G85">
+        <v>11.52</v>
+      </c>
+      <c r="H85" s="4">
+        <v>9830.6</v>
+      </c>
+      <c r="I85">
+        <v>0.4</v>
+      </c>
+      <c r="J85">
+        <v>97</v>
+      </c>
+      <c r="K85">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2">
+        <v>90600</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E86">
+        <v>27.43</v>
+      </c>
+      <c r="F86">
+        <v>41.22</v>
+      </c>
+      <c r="G86">
+        <v>36</v>
+      </c>
+      <c r="H86" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I86">
+        <v>0.79</v>
+      </c>
+      <c r="J86">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>49550</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E87">
+        <v>8.14</v>
+      </c>
+      <c r="F87">
+        <v>12.3</v>
+      </c>
+      <c r="G87">
+        <v>12.43</v>
+      </c>
+      <c r="H87" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I87">
+        <v>3.13</v>
+      </c>
+      <c r="J87">
+        <v>44</v>
+      </c>
+      <c r="K87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2">
+        <v>90200</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="E88">
+        <v>10.42</v>
+      </c>
+      <c r="F88">
+        <v>7.09</v>
+      </c>
+      <c r="G88">
+        <v>11.34</v>
+      </c>
+      <c r="H88" s="4">
+        <v>17308.830000000002</v>
+      </c>
+      <c r="I88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J88">
+        <v>83</v>
+      </c>
+      <c r="K88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>53700</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E89">
+        <v>13.26</v>
+      </c>
+      <c r="F89">
+        <v>3.52</v>
+      </c>
+      <c r="G89">
+        <v>11.65</v>
+      </c>
+      <c r="H89" s="4">
+        <v>27139.93</v>
+      </c>
+      <c r="I89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J89">
+        <v>70</v>
+      </c>
+      <c r="K89">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="2">
+        <v>297500</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="E90">
+        <v>3.44</v>
+      </c>
+      <c r="F90">
+        <v>7.02</v>
+      </c>
+      <c r="G90">
+        <v>3.5</v>
+      </c>
+      <c r="H90" s="4">
+        <v>321747.28999999998</v>
+      </c>
+      <c r="I90">
+        <v>1.18</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2">
+        <v>99700</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="E91">
+        <v>10.4</v>
+      </c>
+      <c r="F91">
+        <v>44.75</v>
+      </c>
+      <c r="G91">
+        <v>6.6</v>
+      </c>
+      <c r="H91" s="4">
+        <v>15982.9</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>79</v>
+      </c>
+      <c r="K91">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2">
+        <v>69400</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E92">
+        <v>8.11</v>
+      </c>
+      <c r="F92">
+        <v>10.55</v>
+      </c>
+      <c r="G92">
+        <v>8.66</v>
+      </c>
+      <c r="H92" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I92">
+        <v>3.11</v>
+      </c>
+      <c r="J92">
+        <v>91</v>
+      </c>
+      <c r="K92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2">
+        <v>181100</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="E93">
+        <v>21.85</v>
+      </c>
+      <c r="F93">
+        <v>29.95</v>
+      </c>
+      <c r="G93">
+        <v>15.32</v>
+      </c>
+      <c r="H93" s="4">
+        <v>20022.23</v>
+      </c>
+      <c r="I93">
+        <v>0.11</v>
+      </c>
+      <c r="J93">
+        <v>81</v>
+      </c>
+      <c r="K93">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2">
+        <v>76600</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="E94">
+        <v>1.81</v>
+      </c>
+      <c r="F94">
+        <v>14.87</v>
+      </c>
+      <c r="G94">
+        <v>4.04</v>
+      </c>
+      <c r="H94" s="4">
+        <v>121832.79</v>
+      </c>
+      <c r="I94">
+        <v>1.31</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2">
+        <v>173000</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="E95">
+        <v>2.46</v>
+      </c>
+      <c r="F95">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G95">
+        <v>6.96</v>
+      </c>
+      <c r="H95" s="4">
+        <v>81251.899999999994</v>
+      </c>
+      <c r="I95">
+        <v>0.43</v>
+      </c>
+      <c r="J95">
+        <v>23</v>
+      </c>
+      <c r="K95">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="2">
+        <v>18110</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E96">
+        <v>9.09</v>
+      </c>
+      <c r="F96">
+        <v>6.72</v>
+      </c>
+      <c r="G96">
+        <v>12.5</v>
+      </c>
+      <c r="H96" s="4">
+        <v>21975.55</v>
+      </c>
+      <c r="I96">
+        <v>5.52</v>
+      </c>
+      <c r="J96">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>132300</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>3.17</v>
+      </c>
+      <c r="F97">
+        <v>10.95</v>
+      </c>
+      <c r="G97">
+        <v>9.35</v>
+      </c>
+      <c r="H97" s="4">
+        <v>69657.210000000006</v>
+      </c>
+      <c r="I97">
+        <v>0.45</v>
+      </c>
+      <c r="J97">
+        <v>22</v>
+      </c>
+      <c r="K97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="2">
+        <v>135900</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="E98">
+        <v>11.54</v>
+      </c>
+      <c r="F98">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G98">
+        <v>9.6</v>
+      </c>
+      <c r="H98" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I98">
+        <v>2.93</v>
+      </c>
+      <c r="J98">
+        <v>76</v>
+      </c>
+      <c r="K98">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2">
+        <v>80700</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="E99">
+        <v>9.65</v>
+      </c>
+      <c r="F99">
+        <v>39.6</v>
+      </c>
+      <c r="G99">
+        <v>3.24</v>
+      </c>
+      <c r="H99" s="4">
+        <v>211621.18</v>
+      </c>
+      <c r="I99">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="J99">
+        <v>80</v>
+      </c>
+      <c r="K99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2">
+        <v>47100</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="E100">
+        <v>4.12</v>
+      </c>
+      <c r="F100">
+        <v>5.83</v>
+      </c>
+      <c r="G100">
+        <v>11.01</v>
+      </c>
+      <c r="H100" s="4">
+        <v>147806.45000000001</v>
+      </c>
+      <c r="I100">
+        <v>5.73</v>
+      </c>
+      <c r="J100">
+        <v>62</v>
+      </c>
+      <c r="K100">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2">
+        <v>503000</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="E101">
+        <v>19.59</v>
+      </c>
+      <c r="F101">
+        <v>27.47</v>
+      </c>
+      <c r="G101">
+        <v>17.23</v>
+      </c>
+      <c r="H101" s="4">
+        <v>56705.61</v>
+      </c>
+      <c r="I101">
+        <v>0.48</v>
+      </c>
+      <c r="J101">
+        <v>76</v>
+      </c>
+      <c r="K101">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2">
+        <v>37100</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="E102">
+        <v>4.3</v>
+      </c>
+      <c r="F102">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G102">
+        <v>8.75</v>
+      </c>
+      <c r="H102" s="4">
+        <v>34821.129999999997</v>
+      </c>
+      <c r="I102">
+        <v>3.23</v>
+      </c>
+      <c r="J102">
+        <v>32</v>
+      </c>
+      <c r="K102">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2">
+        <v>163300</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="E103">
+        <v>13.24</v>
+      </c>
+      <c r="F103">
+        <v>17.97</v>
+      </c>
+      <c r="G103">
+        <v>15.51</v>
+      </c>
+      <c r="H103" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I103">
+        <v>2.27</v>
+      </c>
+      <c r="J103">
+        <v>94</v>
+      </c>
+      <c r="K103">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2">
+        <v>84400</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="E104">
+        <v>9.11</v>
+      </c>
+      <c r="F104">
+        <v>10.47</v>
+      </c>
+      <c r="G104">
+        <v>9.4</v>
+      </c>
+      <c r="H104" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I104">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J104">
+        <v>82</v>
+      </c>
+      <c r="K104">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="2">
+        <v>126600</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="E105">
+        <v>11.69</v>
+      </c>
+      <c r="F105">
+        <v>8.41</v>
+      </c>
+      <c r="G105">
+        <v>6.07</v>
+      </c>
+      <c r="H105" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I105">
+        <v>0.89</v>
+      </c>
+      <c r="J105">
+        <v>19</v>
+      </c>
+      <c r="K105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="2">
+        <v>250000</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="E106">
+        <v>1.97</v>
+      </c>
+      <c r="F106">
+        <v>0.9</v>
+      </c>
+      <c r="G106">
+        <v>5.59</v>
+      </c>
+      <c r="H106" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I106">
+        <v>2.4</v>
+      </c>
+      <c r="J106">
+        <v>11</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>120400</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="E107">
+        <v>11.33</v>
+      </c>
+      <c r="F107">
+        <v>7.61</v>
+      </c>
+      <c r="G107">
+        <v>9.83</v>
+      </c>
+      <c r="H107" s="4">
+        <v>78257.240000000005</v>
+      </c>
+      <c r="I107">
+        <v>2.16</v>
+      </c>
+      <c r="J107">
+        <v>65</v>
+      </c>
+      <c r="K107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2">
+        <v>112700</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E108">
+        <v>8.86</v>
+      </c>
+      <c r="F108">
+        <v>11.69</v>
+      </c>
+      <c r="G108">
+        <v>8.51</v>
+      </c>
+      <c r="H108" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I108">
+        <v>2.82</v>
+      </c>
+      <c r="J108">
+        <v>85</v>
+      </c>
+      <c r="K108">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2">
+        <v>58200</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>12.32</v>
+      </c>
+      <c r="F109">
+        <v>9.67</v>
+      </c>
+      <c r="G109">
+        <v>18.72</v>
+      </c>
+      <c r="H109" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I109">
+        <v>2.41</v>
+      </c>
+      <c r="J109">
+        <v>77</v>
+      </c>
+      <c r="K109">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="2">
+        <v>46450</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="E110">
+        <v>13.92</v>
+      </c>
+      <c r="F110">
+        <v>32.17</v>
+      </c>
+      <c r="G110">
+        <v>5.44</v>
+      </c>
+      <c r="H110" s="4">
+        <v>29720.77</v>
+      </c>
+      <c r="I110">
+        <v>2.15</v>
+      </c>
+      <c r="J110">
+        <v>21</v>
+      </c>
+      <c r="K110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="2">
+        <v>16910</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="E111">
+        <v>8.01</v>
+      </c>
+      <c r="F111">
+        <v>15.53</v>
+      </c>
+      <c r="G111">
+        <v>4.37</v>
+      </c>
+      <c r="H111" s="4">
+        <v>6725.81</v>
+      </c>
+      <c r="I111">
+        <v>1.67</v>
+      </c>
+      <c r="J111">
+        <v>61</v>
+      </c>
+      <c r="K111">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="2">
+        <v>36250</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-9.9400000000000002E-2</v>
+      </c>
+      <c r="E112">
+        <v>3.06</v>
+      </c>
+      <c r="F112">
+        <v>1.78</v>
+      </c>
+      <c r="G112">
+        <v>3.92</v>
+      </c>
+      <c r="H112" s="4">
+        <v>121115.98</v>
+      </c>
+      <c r="I112">
+        <v>3.59</v>
+      </c>
+      <c r="J112">
+        <v>12</v>
+      </c>
+      <c r="K112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="2">
+        <v>279000</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>11.89</v>
+      </c>
+      <c r="F113">
+        <v>15.5</v>
+      </c>
+      <c r="G113">
+        <v>12.6</v>
+      </c>
+      <c r="H113" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I113">
+        <v>0.45</v>
+      </c>
+      <c r="J113">
+        <v>34</v>
+      </c>
+      <c r="K113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2">
+        <v>111600</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1.3299999999999999E-2</v>
+      </c>
+      <c r="E114">
+        <v>23.44</v>
+      </c>
+      <c r="F114">
+        <v>24.59</v>
+      </c>
+      <c r="G114">
+        <v>27.89</v>
+      </c>
+      <c r="H114" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I114">
+        <v>1.21</v>
+      </c>
+      <c r="J114">
+        <v>87</v>
+      </c>
+      <c r="K114">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="2">
         <v>14500</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D115" s="3">
         <v>-1.09E-2</v>
       </c>
-      <c r="E45">
+      <c r="E115">
         <v>6.96</v>
       </c>
-      <c r="F45">
+      <c r="F115">
         <v>6.28</v>
       </c>
-      <c r="G45">
+      <c r="G115">
         <v>7.18</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H115" s="4">
         <v>33008.75</v>
       </c>
-      <c r="I45">
+      <c r="I115">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J45">
+      <c r="J115">
         <v>86</v>
       </c>
-      <c r="K45">
+      <c r="K115">
         <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2">
+        <v>13960</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E116">
+        <v>3.6</v>
+      </c>
+      <c r="F116">
+        <v>10.34</v>
+      </c>
+      <c r="G116">
+        <v>5.91</v>
+      </c>
+      <c r="H116" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I116">
+        <v>3.58</v>
+      </c>
+      <c r="J116">
+        <v>84</v>
+      </c>
+      <c r="K116">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="2">
+        <v>62100</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E117">
+        <v>14.27</v>
+      </c>
+      <c r="F117">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G117">
+        <v>21.05</v>
+      </c>
+      <c r="H117" s="4">
+        <v>52443.47</v>
+      </c>
+      <c r="I117">
+        <v>0.97</v>
+      </c>
+      <c r="J117">
+        <v>19</v>
+      </c>
+      <c r="K117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44500</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E118">
+        <v>10.79</v>
+      </c>
+      <c r="F118">
+        <v>11.5</v>
+      </c>
+      <c r="G118">
+        <v>8.93</v>
+      </c>
+      <c r="H118" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I118">
+        <v>4.49</v>
+      </c>
+      <c r="J118">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="2">
+        <v>80600</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-9.3399999999999997E-2</v>
+      </c>
+      <c r="E119">
+        <v>12.5</v>
+      </c>
+      <c r="F119">
+        <v>6.7</v>
+      </c>
+      <c r="G119">
+        <v>3.34</v>
+      </c>
+      <c r="H119" s="4">
+        <v>33456.339999999997</v>
+      </c>
+      <c r="I119">
+        <v>0.89</v>
+      </c>
+      <c r="J119">
+        <v>62</v>
+      </c>
+      <c r="K119">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="2">
+        <v>22000</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E120">
+        <v>12.8</v>
+      </c>
+      <c r="F120">
+        <v>11.61</v>
+      </c>
+      <c r="G120">
+        <v>12.93</v>
+      </c>
+      <c r="H120" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I120">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J120">
+        <v>81</v>
+      </c>
+      <c r="K120">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="2">
+        <v>119500</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="E121">
+        <v>16.75</v>
+      </c>
+      <c r="F121">
+        <v>8.9</v>
+      </c>
+      <c r="G121">
+        <v>21.73</v>
+      </c>
+      <c r="H121" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I121">
+        <v>0.3</v>
+      </c>
+      <c r="J121">
+        <v>65</v>
+      </c>
+      <c r="K121">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2">
+        <v>82400</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="E122">
+        <v>12.76</v>
+      </c>
+      <c r="F122">
+        <v>5.28</v>
+      </c>
+      <c r="G122">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H122" s="4">
+        <v>69277.95</v>
+      </c>
+      <c r="I122">
+        <v>1.33</v>
+      </c>
+      <c r="J122">
+        <v>12</v>
+      </c>
+      <c r="K122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="2">
+        <v>53500</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-4.1200000000000001E-2</v>
+      </c>
+      <c r="E123">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F123">
+        <v>12.02</v>
+      </c>
+      <c r="G123">
+        <v>6.83</v>
+      </c>
+      <c r="H123" s="4">
+        <v>56007.39</v>
+      </c>
+      <c r="I123">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J123">
+        <v>54</v>
+      </c>
+      <c r="K123">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="2">
+        <v>236500</v>
+      </c>
+      <c r="D124" s="3">
+        <v>-9.2100000000000001E-2</v>
+      </c>
+      <c r="E124">
+        <v>20.53</v>
+      </c>
+      <c r="F124">
+        <v>7.14</v>
+      </c>
+      <c r="G124">
+        <v>12.1</v>
+      </c>
+      <c r="H124" s="4">
+        <v>38587.71</v>
+      </c>
+      <c r="I124">
+        <v>0.97</v>
+      </c>
+      <c r="J124">
+        <v>79</v>
+      </c>
+      <c r="K124">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="2">
+        <v>34700</v>
+      </c>
+      <c r="D125" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="E125">
+        <v>5.47</v>
+      </c>
+      <c r="F125">
+        <v>4.53</v>
+      </c>
+      <c r="G125">
+        <v>5.48</v>
+      </c>
+      <c r="H125" s="4">
+        <v>51318.41</v>
+      </c>
+      <c r="I125">
+        <v>2.02</v>
+      </c>
+      <c r="J125">
+        <v>9</v>
+      </c>
+      <c r="K125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="2">
+        <v>56700</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="E126">
+        <v>8.77</v>
+      </c>
+      <c r="F126">
+        <v>6.58</v>
+      </c>
+      <c r="G126">
+        <v>13.11</v>
+      </c>
+      <c r="H126" s="4">
+        <v>71836.88</v>
+      </c>
+      <c r="I126">
+        <v>2.82</v>
+      </c>
+      <c r="J126">
+        <v>64</v>
+      </c>
+      <c r="K126">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="2">
+        <v>133900</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E127">
+        <v>6.36</v>
+      </c>
+      <c r="F127">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G127">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H127" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I127">
+        <v>2.69</v>
+      </c>
+      <c r="J127">
+        <v>83</v>
+      </c>
+      <c r="K127">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="2">
+        <v>497500</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="E128">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F128">
+        <v>41.01</v>
+      </c>
+      <c r="G128">
+        <v>29.72</v>
+      </c>
+      <c r="H128" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I128">
+        <v>1.08</v>
+      </c>
+      <c r="J128">
+        <v>96</v>
+      </c>
+      <c r="K128">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="2">
+        <v>143100</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>16.05</v>
+      </c>
+      <c r="G129">
+        <v>12.44</v>
+      </c>
+      <c r="H129" s="4">
+        <v>86463.38</v>
+      </c>
+      <c r="I129">
+        <v>1.75</v>
+      </c>
+      <c r="J129">
+        <v>37</v>
+      </c>
+      <c r="K129">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="2">
+        <v>109500</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-2.23E-2</v>
+      </c>
+      <c r="E130">
+        <v>16.57</v>
+      </c>
+      <c r="F130">
+        <v>11.93</v>
+      </c>
+      <c r="G130">
+        <v>15.65</v>
+      </c>
+      <c r="H130" s="4">
+        <v>89245.59</v>
+      </c>
+      <c r="I130">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J130">
+        <v>41</v>
+      </c>
+      <c r="K130">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="2">
+        <v>51700</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="E131">
+        <v>19.62</v>
+      </c>
+      <c r="F131">
+        <v>5.18</v>
+      </c>
+      <c r="G131">
+        <v>10.95</v>
+      </c>
+      <c r="H131" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I131">
+        <v>0.68</v>
+      </c>
+      <c r="J131">
+        <v>70</v>
+      </c>
+      <c r="K131">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="2">
+        <v>117600</v>
+      </c>
+      <c r="D132" s="3">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="E132">
+        <v>4.04</v>
+      </c>
+      <c r="F132">
+        <v>4.42</v>
+      </c>
+      <c r="G132">
+        <v>3.46</v>
+      </c>
+      <c r="H132" s="4">
+        <v>229728.26</v>
+      </c>
+      <c r="I132">
+        <v>2.81</v>
+      </c>
+      <c r="J132">
+        <v>23</v>
+      </c>
+      <c r="K132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="2">
+        <v>121300</v>
+      </c>
+      <c r="D133" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E133">
+        <v>17.29</v>
+      </c>
+      <c r="F133">
+        <v>4.62</v>
+      </c>
+      <c r="G133">
+        <v>19.45</v>
+      </c>
+      <c r="H133" s="4">
+        <v>65325.84</v>
+      </c>
+      <c r="I133">
+        <v>3.38</v>
+      </c>
+      <c r="J133">
+        <v>19</v>
+      </c>
+      <c r="K133">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2">
+        <v>66200</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E134">
+        <v>0.41</v>
+      </c>
+      <c r="F134">
+        <v>3.62</v>
+      </c>
+      <c r="G134">
+        <v>3.8</v>
+      </c>
+      <c r="H134" s="4">
+        <v>114859.11</v>
+      </c>
+      <c r="I134">
+        <v>1.74</v>
+      </c>
+      <c r="J134">
+        <v>12</v>
+      </c>
+      <c r="K134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="2">
+        <v>229000</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="E135">
+        <v>9.84</v>
+      </c>
+      <c r="F135">
+        <v>5.67</v>
+      </c>
+      <c r="G135">
+        <v>6.06</v>
+      </c>
+      <c r="H135" s="4">
+        <v>334709.95</v>
+      </c>
+      <c r="I135">
+        <v>4.37</v>
+      </c>
+      <c r="J135">
+        <v>15</v>
+      </c>
+      <c r="K135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="2">
+        <v>185300</v>
+      </c>
+      <c r="D136" s="3">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="E136">
+        <v>5.46</v>
+      </c>
+      <c r="F136">
+        <v>0.94</v>
+      </c>
+      <c r="G136">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H136" s="4">
+        <v>226756.47</v>
+      </c>
+      <c r="I136">
+        <v>3.51</v>
+      </c>
+      <c r="J136">
+        <v>9</v>
+      </c>
+      <c r="K136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="2">
+        <v>20450</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-3.0800000000000001E-2</v>
+      </c>
+      <c r="E137">
+        <v>11.13</v>
+      </c>
+      <c r="F137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G137">
+        <v>9.31</v>
+      </c>
+      <c r="H137" s="4">
+        <v>23973.89</v>
+      </c>
+      <c r="I137">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J137">
+        <v>67</v>
+      </c>
+      <c r="K137">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="2">
+        <v>152400</v>
+      </c>
+      <c r="D138" s="3">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E138">
+        <v>10.4</v>
+      </c>
+      <c r="F138">
+        <v>4.63</v>
+      </c>
+      <c r="G138">
+        <v>9.14</v>
+      </c>
+      <c r="H138" s="4">
+        <v>61347.82</v>
+      </c>
+      <c r="I138">
+        <v>1.17</v>
+      </c>
+      <c r="J138">
+        <v>50</v>
+      </c>
+      <c r="K138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="2">
+        <v>24950</v>
+      </c>
+      <c r="D139" s="3">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="E139">
+        <v>9.39</v>
+      </c>
+      <c r="F139">
+        <v>7.27</v>
+      </c>
+      <c r="G139">
+        <v>9.73</v>
+      </c>
+      <c r="H139" s="4">
+        <v>45501.38</v>
+      </c>
+      <c r="I139">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="J139">
+        <v>89</v>
+      </c>
+      <c r="K139">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A4F049-842E-4A9F-A24B-E3C5B1DC7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDF1221-EE43-4920-B810-C648EE2E53EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8C03FE9D-B1D5-4861-B38C-938A5CD597B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2A211BA5-4ECE-41C9-A8F8-7DF06CE9845B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>종목코드</t>
   </si>
@@ -66,6 +66,12 @@
     <t>기아</t>
   </si>
   <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
     <t>000810</t>
   </si>
   <si>
@@ -84,6 +90,12 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
     <t>003540</t>
   </si>
   <si>
@@ -132,24 +144,48 @@
     <t>에스엘</t>
   </si>
   <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
     <t>005940</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>007340</t>
   </si>
   <si>
     <t>DN오토모티브</t>
   </si>
   <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
     <t>009970</t>
   </si>
   <si>
     <t>영원무역홀딩스</t>
   </si>
   <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
     <t>012750</t>
   </si>
   <si>
@@ -174,6 +210,12 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
     <t>021240</t>
   </si>
   <si>
@@ -246,12 +288,24 @@
     <t>한전KPS</t>
   </si>
   <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
     <t>055550</t>
   </si>
   <si>
     <t>신한지주</t>
   </si>
   <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
@@ -270,6 +324,12 @@
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
     <t>105560</t>
   </si>
   <si>
@@ -282,6 +342,12 @@
     <t>영원무역</t>
   </si>
   <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -310,6 +376,12 @@
   </si>
   <si>
     <t>이노션</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
   </si>
   <si>
     <t>316140</t>
@@ -693,16 +765,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFB4CF8-BA59-4190-B1B1-019DEC9C2088}">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3720AD51-A1B7-4D9F-9AAC-56346EF298D6}">
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -824,31 +898,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>438500</v>
+        <v>267000</v>
       </c>
       <c r="D4" s="3">
-        <v>1.15E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>31.06</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>41.75</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>6.34</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>4.33</v>
+        <v>0.83</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -859,31 +933,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>29650</v>
+        <v>438500</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.8200000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>13.09</v>
       </c>
       <c r="F5">
-        <v>14.97</v>
+        <v>15.71</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>12.47</v>
       </c>
       <c r="H5" s="4">
-        <v>70348.56</v>
+        <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>6.75</v>
+        <v>4.33</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -894,31 +968,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>28900</v>
+        <v>29650</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.2E-2</v>
+        <v>-1.8200000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>7.12</v>
       </c>
       <c r="F6">
-        <v>1.27</v>
+        <v>14.97</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>12.61</v>
       </c>
       <c r="H6" s="4">
-        <v>52692.43</v>
+        <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>4.1500000000000004</v>
+        <v>6.75</v>
       </c>
       <c r="J6">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -929,31 +1003,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>24900</v>
+        <v>28900</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E7">
-        <v>4.57</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
-        <v>9.2899999999999991</v>
+        <v>1.27</v>
       </c>
       <c r="G7">
-        <v>4.55</v>
+        <v>4.21</v>
       </c>
       <c r="H7" s="4">
-        <v>38894.53</v>
+        <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>4.82</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -964,31 +1038,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>76000</v>
+        <v>1502000</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E8">
-        <v>2.16</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>46.11</v>
       </c>
       <c r="G8">
-        <v>5.18</v>
+        <v>27.7</v>
       </c>
       <c r="H8" s="4">
-        <v>174674.22</v>
+        <v>119890.92</v>
       </c>
       <c r="I8">
-        <v>4.08</v>
+        <v>0.22</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="K8">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -999,31 +1073,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>53100</v>
+        <v>24900</v>
       </c>
       <c r="D9" s="3">
-        <v>1.72E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>12.89</v>
+        <v>4.57</v>
       </c>
       <c r="F9">
-        <v>9.02</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G9">
-        <v>7.9</v>
+        <v>4.55</v>
       </c>
       <c r="H9" s="4">
-        <v>26158.58</v>
+        <v>38894.53</v>
       </c>
       <c r="I9">
-        <v>2.4500000000000002</v>
+        <v>4.82</v>
       </c>
       <c r="J9">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1034,31 +1108,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>10790</v>
+        <v>76000</v>
       </c>
       <c r="D10" s="3">
-        <v>-8.3000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>9.44</v>
+        <v>2.16</v>
       </c>
       <c r="F10">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="G10">
-        <v>9.86</v>
+        <v>5.18</v>
       </c>
       <c r="H10" s="4">
-        <v>18178.189999999999</v>
+        <v>174674.22</v>
       </c>
       <c r="I10">
-        <v>4.7699999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="J10">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1069,31 +1143,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>86800</v>
+        <v>53100</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="E11">
-        <v>19.62</v>
+        <v>12.89</v>
       </c>
       <c r="F11">
-        <v>12.01</v>
+        <v>9.02</v>
       </c>
       <c r="G11">
-        <v>6.74</v>
+        <v>7.9</v>
       </c>
       <c r="H11" s="4">
-        <v>130022.16</v>
+        <v>26158.58</v>
       </c>
       <c r="I11">
-        <v>3.46</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J11">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1104,31 +1178,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>212500</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
+        <v>10790</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>12.43</v>
+        <v>9.44</v>
       </c>
       <c r="F12">
-        <v>11.52</v>
+        <v>11.1</v>
       </c>
       <c r="G12">
-        <v>11.82</v>
+        <v>9.86</v>
       </c>
       <c r="H12" s="4">
-        <v>411868.79</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I12">
-        <v>5.65</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J12">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K12">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1139,31 +1213,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>125200</v>
+        <v>86800</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>18.96</v>
+        <v>19.62</v>
       </c>
       <c r="F13">
-        <v>19.86</v>
+        <v>12.01</v>
       </c>
       <c r="G13">
-        <v>18.8</v>
+        <v>6.74</v>
       </c>
       <c r="H13" s="4">
-        <v>115980.87</v>
+        <v>130022.16</v>
       </c>
       <c r="I13">
-        <v>5.43</v>
+        <v>3.46</v>
       </c>
       <c r="J13">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1174,31 +1248,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>33100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>212500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>17.420000000000002</v>
+        <v>12.43</v>
       </c>
       <c r="F14">
-        <v>17.22</v>
+        <v>11.52</v>
       </c>
       <c r="G14">
-        <v>15.37</v>
+        <v>11.82</v>
       </c>
       <c r="H14" s="4">
-        <v>50552.95</v>
+        <v>411868.79</v>
       </c>
       <c r="I14">
-        <v>3.63</v>
+        <v>5.65</v>
       </c>
       <c r="J14">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1209,31 +1283,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>19110</v>
+        <v>125200</v>
       </c>
       <c r="D15" s="3">
-        <v>-0.02</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E15">
-        <v>8.73</v>
+        <v>18.96</v>
       </c>
       <c r="F15">
-        <v>10.35</v>
+        <v>19.86</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>18.8</v>
       </c>
       <c r="H15" s="4">
-        <v>23121.599999999999</v>
+        <v>115980.87</v>
       </c>
       <c r="I15">
-        <v>4.97</v>
+        <v>5.43</v>
       </c>
       <c r="J15">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1244,31 +1318,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>25450</v>
+        <v>33100</v>
       </c>
       <c r="D16" s="3">
-        <v>-7.7999999999999996E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E16">
-        <v>19.78</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F16">
-        <v>17.25</v>
+        <v>17.22</v>
       </c>
       <c r="G16">
-        <v>23.29</v>
+        <v>15.37</v>
       </c>
       <c r="H16" s="4">
-        <v>31156.34</v>
+        <v>50552.95</v>
       </c>
       <c r="I16">
-        <v>3.93</v>
+        <v>3.63</v>
       </c>
       <c r="J16">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1279,31 +1353,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>129500</v>
+        <v>71000</v>
       </c>
       <c r="D17" s="3">
-        <v>-2.12E-2</v>
+        <v>-1.11E-2</v>
       </c>
       <c r="E17">
-        <v>13.17</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F17">
-        <v>10.220000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="G17">
-        <v>18.010000000000002</v>
+        <v>10.08</v>
       </c>
       <c r="H17" s="4">
-        <v>201114.72</v>
+        <v>59026.51</v>
       </c>
       <c r="I17">
-        <v>4.13</v>
+        <v>2.04</v>
       </c>
       <c r="J17">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1314,31 +1388,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>74600</v>
+        <v>19110</v>
       </c>
       <c r="D18" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="E18">
-        <v>10.85</v>
+        <v>8.73</v>
       </c>
       <c r="F18">
-        <v>10.27</v>
+        <v>10.35</v>
       </c>
       <c r="G18">
-        <v>11.06</v>
+        <v>6.85</v>
       </c>
       <c r="H18" s="4">
-        <v>46509.73</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I18">
-        <v>3.62</v>
+        <v>4.97</v>
       </c>
       <c r="J18">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1349,31 +1423,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>67800</v>
+        <v>18360</v>
       </c>
       <c r="D19" s="3">
-        <v>-3.1399999999999997E-2</v>
+        <v>-2.86E-2</v>
       </c>
       <c r="E19">
-        <v>12.89</v>
+        <v>7.94</v>
       </c>
       <c r="F19">
-        <v>13.62</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G19">
-        <v>9.44</v>
+        <v>5.75</v>
       </c>
       <c r="H19" s="4">
-        <v>81376.7</v>
+        <v>17214.37</v>
       </c>
       <c r="I19">
-        <v>5.16</v>
+        <v>1.36</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1384,31 +1458,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>55900</v>
+        <v>25450</v>
       </c>
       <c r="D20" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E20">
-        <v>10.83</v>
+        <v>19.78</v>
       </c>
       <c r="F20">
-        <v>12.4</v>
+        <v>17.25</v>
       </c>
       <c r="G20">
-        <v>9.48</v>
+        <v>23.29</v>
       </c>
       <c r="H20" s="4">
-        <v>55460.24</v>
+        <v>31156.34</v>
       </c>
       <c r="I20">
-        <v>6.33</v>
+        <v>3.93</v>
       </c>
       <c r="J20">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1419,25 +1493,25 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>84400</v>
+        <v>363500</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.29E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="E21">
-        <v>14.42</v>
+        <v>11.16</v>
       </c>
       <c r="F21">
-        <v>11.9</v>
+        <v>17.64</v>
       </c>
       <c r="G21">
-        <v>15.82</v>
+        <v>3.73</v>
       </c>
       <c r="H21" s="4">
-        <v>32483.7</v>
+        <v>160791.94</v>
       </c>
       <c r="I21">
-        <v>6.52</v>
+        <v>1.4</v>
       </c>
       <c r="J21">
         <v>89</v>
@@ -1454,31 +1528,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>107400</v>
+        <v>129500</v>
       </c>
       <c r="D22" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>-2.12E-2</v>
       </c>
       <c r="E22">
-        <v>19.38</v>
+        <v>13.17</v>
       </c>
       <c r="F22">
-        <v>17.489999999999998</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G22">
-        <v>20.04</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H22" s="4">
-        <v>43969.66</v>
+        <v>201114.72</v>
       </c>
       <c r="I22">
-        <v>2.4500000000000002</v>
+        <v>4.13</v>
       </c>
       <c r="J22">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K22">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1489,31 +1563,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>32750</v>
+        <v>880000</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>13.16</v>
+        <v>53.94</v>
       </c>
       <c r="F23">
-        <v>14.03</v>
+        <v>7.76</v>
       </c>
       <c r="G23">
-        <v>13.29</v>
+        <v>28.78</v>
       </c>
       <c r="H23" s="4">
-        <v>65635.929999999993</v>
+        <v>85274.69</v>
       </c>
       <c r="I23">
-        <v>4.2699999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1524,31 +1598,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>19270</v>
+        <v>74600</v>
       </c>
       <c r="D24" s="3">
-        <v>-6.7000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>8.06</v>
+        <v>10.85</v>
       </c>
       <c r="F24">
-        <v>9.52</v>
+        <v>10.27</v>
       </c>
       <c r="G24">
-        <v>8.77</v>
+        <v>11.06</v>
       </c>
       <c r="H24" s="4">
-        <v>42663.82</v>
+        <v>46509.73</v>
       </c>
       <c r="I24">
-        <v>5.53</v>
+        <v>3.62</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1559,31 +1633,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>50400</v>
+        <v>67800</v>
       </c>
       <c r="D25" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-3.1399999999999997E-2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>12.89</v>
       </c>
       <c r="F25">
-        <v>8.75</v>
+        <v>13.62</v>
       </c>
       <c r="G25">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H25" s="4">
-        <v>75767.48</v>
+        <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.56</v>
+        <v>5.16</v>
       </c>
       <c r="J25">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1594,31 +1668,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>19950</v>
+        <v>55900</v>
       </c>
       <c r="D26" s="3">
-        <v>-7.4999999999999997E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E26">
-        <v>15.12</v>
+        <v>10.83</v>
       </c>
       <c r="F26">
-        <v>7.98</v>
+        <v>12.4</v>
       </c>
       <c r="G26">
-        <v>15.58</v>
+        <v>9.48</v>
       </c>
       <c r="H26" s="4">
-        <v>14481.01</v>
+        <v>55460.24</v>
       </c>
       <c r="I26">
-        <v>6.17</v>
+        <v>6.33</v>
       </c>
       <c r="J26">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1629,31 +1703,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>54100</v>
+        <v>84400</v>
       </c>
       <c r="D27" s="3">
-        <v>7.4000000000000003E-3</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="E27">
-        <v>2.85</v>
+        <v>14.42</v>
       </c>
       <c r="F27">
-        <v>13.16</v>
+        <v>11.9</v>
       </c>
       <c r="G27">
-        <v>5.63</v>
+        <v>15.82</v>
       </c>
       <c r="H27" s="4">
-        <v>66926.62</v>
+        <v>32483.7</v>
       </c>
       <c r="I27">
-        <v>3.7</v>
+        <v>6.52</v>
       </c>
       <c r="J27">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1664,31 +1738,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>14780</v>
+        <v>153700</v>
       </c>
       <c r="D28" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="E28">
-        <v>4.4000000000000004</v>
+        <v>8.42</v>
       </c>
       <c r="F28">
-        <v>7.75</v>
+        <v>9.06</v>
       </c>
       <c r="G28">
-        <v>6.75</v>
+        <v>10.29</v>
       </c>
       <c r="H28" s="4">
-        <v>19799.21</v>
+        <v>120847.71</v>
       </c>
       <c r="I28">
-        <v>4.4000000000000004</v>
+        <v>1.89</v>
       </c>
       <c r="J28">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1699,31 +1773,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>123600</v>
+        <v>107400</v>
       </c>
       <c r="D29" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E29">
-        <v>5.76</v>
+        <v>19.38</v>
       </c>
       <c r="F29">
-        <v>8.44</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G29">
-        <v>5.33</v>
+        <v>20.04</v>
       </c>
       <c r="H29" s="4">
-        <v>158106.71</v>
+        <v>43969.66</v>
       </c>
       <c r="I29">
-        <v>3.64</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J29">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1734,31 +1808,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>140100</v>
+        <v>32750</v>
       </c>
       <c r="D30" s="3">
-        <v>-4.82E-2</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="E30">
-        <v>12.66</v>
+        <v>13.16</v>
       </c>
       <c r="F30">
-        <v>11.17</v>
+        <v>14.03</v>
       </c>
       <c r="G30">
-        <v>11.14</v>
+        <v>13.29</v>
       </c>
       <c r="H30" s="4">
-        <v>81115.86</v>
+        <v>65635.929999999993</v>
       </c>
       <c r="I30">
-        <v>3.85</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J30">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1769,31 +1843,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>40850</v>
+        <v>19270</v>
       </c>
       <c r="D31" s="3">
-        <v>-1.09E-2</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="E31">
-        <v>11.21</v>
+        <v>8.06</v>
       </c>
       <c r="F31">
-        <v>13.43</v>
+        <v>9.52</v>
       </c>
       <c r="G31">
-        <v>6.4</v>
+        <v>8.77</v>
       </c>
       <c r="H31" s="4">
-        <v>121076.78</v>
+        <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>3.56</v>
+        <v>5.53</v>
       </c>
       <c r="J31">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1804,31 +1878,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>203500</v>
+        <v>50400</v>
       </c>
       <c r="D32" s="3">
-        <v>-1.4500000000000001E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>15.98</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>16.78</v>
+        <v>8.75</v>
       </c>
       <c r="G32">
-        <v>12.25</v>
+        <v>7.9</v>
       </c>
       <c r="H32" s="4">
-        <v>212733.48</v>
+        <v>75767.48</v>
       </c>
       <c r="I32">
-        <v>3.69</v>
+        <v>5.56</v>
       </c>
       <c r="J32">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1839,31 +1913,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>53700</v>
+        <v>19950</v>
       </c>
       <c r="D33" s="3">
-        <v>2.4799999999999999E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="E33">
-        <v>13.26</v>
+        <v>15.12</v>
       </c>
       <c r="F33">
-        <v>3.52</v>
+        <v>7.98</v>
       </c>
       <c r="G33">
-        <v>11.65</v>
+        <v>15.58</v>
       </c>
       <c r="H33" s="4">
-        <v>27139.93</v>
+        <v>14481.01</v>
       </c>
       <c r="I33">
-        <v>4.5999999999999996</v>
+        <v>6.17</v>
       </c>
       <c r="J33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K33">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1874,31 +1948,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>69400</v>
+        <v>54100</v>
       </c>
       <c r="D34" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E34">
-        <v>8.11</v>
+        <v>2.85</v>
       </c>
       <c r="F34">
-        <v>10.55</v>
+        <v>13.16</v>
       </c>
       <c r="G34">
-        <v>8.66</v>
+        <v>5.63</v>
       </c>
       <c r="H34" s="4">
-        <v>113903.42</v>
+        <v>66926.62</v>
       </c>
       <c r="I34">
-        <v>3.11</v>
+        <v>3.7</v>
       </c>
       <c r="J34">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1909,31 +1983,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>47100</v>
+        <v>14780</v>
       </c>
       <c r="D35" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E35">
-        <v>4.12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F35">
-        <v>5.83</v>
+        <v>7.75</v>
       </c>
       <c r="G35">
-        <v>11.01</v>
+        <v>6.75</v>
       </c>
       <c r="H35" s="4">
-        <v>147806.45000000001</v>
+        <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>5.73</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J35">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -1944,31 +2018,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>163300</v>
+        <v>123600</v>
       </c>
       <c r="D36" s="3">
-        <v>-2.8000000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E36">
-        <v>13.24</v>
+        <v>5.76</v>
       </c>
       <c r="F36">
-        <v>17.97</v>
+        <v>8.44</v>
       </c>
       <c r="G36">
-        <v>15.51</v>
+        <v>5.33</v>
       </c>
       <c r="H36" s="4">
-        <v>119232.22</v>
+        <v>158106.71</v>
       </c>
       <c r="I36">
-        <v>2.27</v>
+        <v>3.64</v>
       </c>
       <c r="J36">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K36">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1979,31 +2053,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>84400</v>
+        <v>140100</v>
       </c>
       <c r="D37" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-4.82E-2</v>
       </c>
       <c r="E37">
-        <v>9.11</v>
+        <v>12.66</v>
       </c>
       <c r="F37">
-        <v>10.47</v>
+        <v>11.17</v>
       </c>
       <c r="G37">
-        <v>9.4</v>
+        <v>11.14</v>
       </c>
       <c r="H37" s="4">
-        <v>153124.29</v>
+        <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>4.2699999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="J37">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2014,31 +2088,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>112700</v>
+        <v>40850</v>
       </c>
       <c r="D38" s="3">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E38">
-        <v>8.86</v>
+        <v>11.21</v>
       </c>
       <c r="F38">
-        <v>11.69</v>
+        <v>13.43</v>
       </c>
       <c r="G38">
-        <v>8.51</v>
+        <v>6.4</v>
       </c>
       <c r="H38" s="4">
-        <v>152301.9</v>
+        <v>121076.78</v>
       </c>
       <c r="I38">
-        <v>2.82</v>
+        <v>3.56</v>
       </c>
       <c r="J38">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2049,25 +2123,25 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>58200</v>
+        <v>203500</v>
       </c>
       <c r="D39" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-1.4500000000000001E-2</v>
       </c>
       <c r="E39">
-        <v>12.32</v>
+        <v>15.98</v>
       </c>
       <c r="F39">
-        <v>9.67</v>
+        <v>16.78</v>
       </c>
       <c r="G39">
-        <v>18.72</v>
+        <v>12.25</v>
       </c>
       <c r="H39" s="4">
-        <v>84441.54</v>
+        <v>212733.48</v>
       </c>
       <c r="I39">
-        <v>2.41</v>
+        <v>3.69</v>
       </c>
       <c r="J39">
         <v>77</v>
@@ -2084,31 +2158,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>14500</v>
+        <v>53700</v>
       </c>
       <c r="D40" s="3">
-        <v>-1.09E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>6.96</v>
+        <v>13.26</v>
       </c>
       <c r="F40">
-        <v>6.28</v>
+        <v>3.52</v>
       </c>
       <c r="G40">
-        <v>7.18</v>
+        <v>11.65</v>
       </c>
       <c r="H40" s="4">
-        <v>33008.75</v>
+        <v>27139.93</v>
       </c>
       <c r="I40">
-        <v>4.4800000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J40">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2119,31 +2193,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>13960</v>
+        <v>99700</v>
       </c>
       <c r="D41" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="E41">
-        <v>3.6</v>
+        <v>10.4</v>
       </c>
       <c r="F41">
-        <v>10.34</v>
+        <v>44.75</v>
       </c>
       <c r="G41">
-        <v>5.91</v>
+        <v>6.6</v>
       </c>
       <c r="H41" s="4">
-        <v>35883.14</v>
+        <v>15982.9</v>
       </c>
       <c r="I41">
-        <v>3.58</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2154,31 +2228,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>44500</v>
+        <v>69400</v>
       </c>
       <c r="D42" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E42">
-        <v>10.79</v>
+        <v>8.11</v>
       </c>
       <c r="F42">
-        <v>11.5</v>
+        <v>10.55</v>
       </c>
       <c r="G42">
-        <v>8.93</v>
+        <v>8.66</v>
       </c>
       <c r="H42" s="4">
-        <v>90358.17</v>
+        <v>113903.42</v>
       </c>
       <c r="I42">
-        <v>4.49</v>
+        <v>3.11</v>
       </c>
       <c r="J42">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2189,31 +2263,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>22000</v>
+        <v>135900</v>
       </c>
       <c r="D43" s="3">
-        <v>-2.3E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E43">
-        <v>12.8</v>
+        <v>11.54</v>
       </c>
       <c r="F43">
-        <v>11.61</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="G43">
-        <v>12.93</v>
+        <v>9.6</v>
       </c>
       <c r="H43" s="4">
-        <v>29151.87</v>
+        <v>161615.43</v>
       </c>
       <c r="I43">
-        <v>4.5199999999999996</v>
+        <v>2.93</v>
       </c>
       <c r="J43">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2224,31 +2298,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>19290</v>
+        <v>47100</v>
       </c>
       <c r="D44" s="3">
-        <v>-9.7999999999999997E-3</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E44">
-        <v>10.48</v>
+        <v>4.12</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>5.83</v>
       </c>
       <c r="G44">
-        <v>10.17</v>
+        <v>11.01</v>
       </c>
       <c r="H44" s="4">
-        <v>24686.55</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I44">
-        <v>6.09</v>
+        <v>5.73</v>
       </c>
       <c r="J44">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2259,30 +2333,450 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
+        <v>163300</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>13.24</v>
+      </c>
+      <c r="F45">
+        <v>17.97</v>
+      </c>
+      <c r="G45">
+        <v>15.51</v>
+      </c>
+      <c r="H45" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I45">
+        <v>2.27</v>
+      </c>
+      <c r="J45">
+        <v>94</v>
+      </c>
+      <c r="K45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>84400</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="E46">
+        <v>9.11</v>
+      </c>
+      <c r="F46">
+        <v>10.47</v>
+      </c>
+      <c r="G46">
+        <v>9.4</v>
+      </c>
+      <c r="H46" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I46">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J46">
+        <v>82</v>
+      </c>
+      <c r="K46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>250000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="E47">
+        <v>1.97</v>
+      </c>
+      <c r="F47">
+        <v>0.9</v>
+      </c>
+      <c r="G47">
+        <v>5.59</v>
+      </c>
+      <c r="H47" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I47">
+        <v>2.4</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2">
+        <v>112700</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E48">
+        <v>8.86</v>
+      </c>
+      <c r="F48">
+        <v>11.69</v>
+      </c>
+      <c r="G48">
+        <v>8.51</v>
+      </c>
+      <c r="H48" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I48">
+        <v>2.82</v>
+      </c>
+      <c r="J48">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>58200</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E49">
+        <v>12.32</v>
+      </c>
+      <c r="F49">
+        <v>9.67</v>
+      </c>
+      <c r="G49">
+        <v>18.72</v>
+      </c>
+      <c r="H49" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I49">
+        <v>2.41</v>
+      </c>
+      <c r="J49">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2">
+        <v>111600</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1.3299999999999999E-2</v>
+      </c>
+      <c r="E50">
+        <v>23.44</v>
+      </c>
+      <c r="F50">
+        <v>24.59</v>
+      </c>
+      <c r="G50">
+        <v>27.89</v>
+      </c>
+      <c r="H50" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I50">
+        <v>1.21</v>
+      </c>
+      <c r="J50">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>14500</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="E51">
+        <v>6.96</v>
+      </c>
+      <c r="F51">
+        <v>6.28</v>
+      </c>
+      <c r="G51">
+        <v>7.18</v>
+      </c>
+      <c r="H51" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I51">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J51">
+        <v>86</v>
+      </c>
+      <c r="K51">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13960</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E52">
+        <v>3.6</v>
+      </c>
+      <c r="F52">
+        <v>10.34</v>
+      </c>
+      <c r="G52">
+        <v>5.91</v>
+      </c>
+      <c r="H52" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I52">
+        <v>3.58</v>
+      </c>
+      <c r="J52">
+        <v>84</v>
+      </c>
+      <c r="K52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44500</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="E53">
+        <v>10.79</v>
+      </c>
+      <c r="F53">
+        <v>11.5</v>
+      </c>
+      <c r="G53">
+        <v>8.93</v>
+      </c>
+      <c r="H53" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I53">
+        <v>4.49</v>
+      </c>
+      <c r="J53">
+        <v>45</v>
+      </c>
+      <c r="K53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>22000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E54">
+        <v>12.8</v>
+      </c>
+      <c r="F54">
+        <v>11.61</v>
+      </c>
+      <c r="G54">
+        <v>12.93</v>
+      </c>
+      <c r="H54" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I54">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J54">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2">
+        <v>19290</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="E55">
+        <v>10.48</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>10.17</v>
+      </c>
+      <c r="H55" s="4">
+        <v>24686.55</v>
+      </c>
+      <c r="I55">
+        <v>6.09</v>
+      </c>
+      <c r="J55">
+        <v>16</v>
+      </c>
+      <c r="K55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>497500</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F56">
+        <v>41.01</v>
+      </c>
+      <c r="G56">
+        <v>29.72</v>
+      </c>
+      <c r="H56" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I56">
+        <v>1.08</v>
+      </c>
+      <c r="J56">
+        <v>96</v>
+      </c>
+      <c r="K56">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
         <v>24950</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D57" s="3">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="E45">
+      <c r="E57">
         <v>9.39</v>
       </c>
-      <c r="F45">
+      <c r="F57">
         <v>7.27</v>
       </c>
-      <c r="G45">
+      <c r="G57">
         <v>9.73</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H57" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I45">
+      <c r="I57">
         <v>4.8099999999999996</v>
       </c>
-      <c r="J45">
+      <c r="J57">
         <v>89</v>
       </c>
-      <c r="K45">
+      <c r="K57">
         <v>89</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDF1221-EE43-4920-B810-C648EE2E53EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1E4E9F-7C41-4B1F-912B-1BE9F7ECC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2A211BA5-4ECE-41C9-A8F8-7DF06CE9845B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D20EFE48-EF26-4149-BFD8-A8E8DC405139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>종목코드</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
   </si>
   <si>
     <t>036460</t>
@@ -433,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,9 +453,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3720AD51-A1B7-4D9F-9AAC-56346EF298D6}">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F563E2D-C87F-4970-9DE7-9935E34E7E25}">
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -828,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23550</v>
+        <v>24150</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.4799999999999999E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -846,13 +849,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.25</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="J2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -863,10 +866,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>101600</v>
+        <v>102200</v>
       </c>
       <c r="D3" s="3">
-        <v>-2.8999999999999998E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -881,13 +884,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -898,10 +901,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>267000</v>
+        <v>272750</v>
       </c>
       <c r="D4" s="3">
-        <v>4.0899999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -916,13 +919,13 @@
         <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -933,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>438500</v>
+        <v>441000</v>
       </c>
       <c r="D5" s="3">
-        <v>1.15E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -951,7 +954,7 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.33</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J5">
         <v>76</v>
@@ -968,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29650</v>
+        <v>29750</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.8200000000000001E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="E6">
         <v>7.12</v>
@@ -986,7 +989,7 @@
         <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>6.75</v>
+        <v>6.72</v>
       </c>
       <c r="J6">
         <v>43</v>
@@ -1003,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>28900</v>
+        <v>28450</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.2E-2</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E7">
         <v>1.04</v>
@@ -1021,13 +1024,13 @@
         <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>4.1500000000000004</v>
+        <v>4.22</v>
       </c>
       <c r="J7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1038,10 +1041,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1502000</v>
+        <v>1491000</v>
       </c>
       <c r="D8" s="3">
-        <v>3.2300000000000002E-2</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="E8">
         <v>39.369999999999997</v>
@@ -1059,10 +1062,10 @@
         <v>0.22</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1073,10 +1076,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>24900</v>
+        <v>26200</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="E9">
         <v>4.57</v>
@@ -1091,13 +1094,13 @@
         <v>38894.53</v>
       </c>
       <c r="I9">
-        <v>4.82</v>
+        <v>4.58</v>
       </c>
       <c r="J9">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1108,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>76000</v>
+        <v>75400</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="E10">
         <v>2.16</v>
@@ -1126,13 +1129,13 @@
         <v>174674.22</v>
       </c>
       <c r="I10">
-        <v>4.08</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1143,10 +1146,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>53100</v>
+        <v>52100</v>
       </c>
       <c r="D11" s="3">
-        <v>1.72E-2</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E11">
         <v>12.89</v>
@@ -1161,13 +1164,13 @@
         <v>26158.58</v>
       </c>
       <c r="I11">
-        <v>2.4500000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1178,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>10790</v>
+        <v>10860</v>
       </c>
       <c r="D12" s="3">
-        <v>-8.3000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="E12">
         <v>9.44</v>
@@ -1196,13 +1199,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I12">
-        <v>4.7699999999999996</v>
+        <v>4.74</v>
       </c>
       <c r="J12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1213,10 +1216,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>86800</v>
+        <v>87500</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E13">
         <v>19.62</v>
@@ -1231,13 +1234,13 @@
         <v>130022.16</v>
       </c>
       <c r="I13">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1248,10 +1251,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>212500</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
+        <v>213500</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E14">
         <v>12.43</v>
@@ -1266,7 +1269,7 @@
         <v>411868.79</v>
       </c>
       <c r="I14">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="J14">
         <v>42</v>
@@ -1283,10 +1286,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>125200</v>
+        <v>127700</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E15">
         <v>18.96</v>
@@ -1301,13 +1304,13 @@
         <v>115980.87</v>
       </c>
       <c r="I15">
-        <v>5.43</v>
+        <v>5.32</v>
       </c>
       <c r="J15">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1318,10 +1321,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>33100</v>
+        <v>33000</v>
       </c>
       <c r="D16" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E16">
         <v>17.420000000000002</v>
@@ -1336,7 +1339,7 @@
         <v>50552.95</v>
       </c>
       <c r="I16">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="J16">
         <v>59</v>
@@ -1353,10 +1356,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>71000</v>
+        <v>72100</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.11E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E17">
         <v>9.0299999999999994</v>
@@ -1371,13 +1374,13 @@
         <v>59026.51</v>
       </c>
       <c r="I17">
-        <v>2.04</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1388,10 +1391,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19110</v>
+        <v>19720</v>
       </c>
       <c r="D18" s="3">
-        <v>-0.02</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="E18">
         <v>8.73</v>
@@ -1406,13 +1409,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I18">
-        <v>4.97</v>
+        <v>4.82</v>
       </c>
       <c r="J18">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1423,10 +1426,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>18360</v>
+        <v>19070</v>
       </c>
       <c r="D19" s="3">
-        <v>-2.86E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="E19">
         <v>7.94</v>
@@ -1441,13 +1444,13 @@
         <v>17214.37</v>
       </c>
       <c r="I19">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="J19">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1458,10 +1461,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>25450</v>
+        <v>25800</v>
       </c>
       <c r="D20" s="3">
-        <v>-7.7999999999999996E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E20">
         <v>19.78</v>
@@ -1476,13 +1479,13 @@
         <v>31156.34</v>
       </c>
       <c r="I20">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="J20">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1493,10 +1496,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>363500</v>
+        <v>365000</v>
       </c>
       <c r="D21" s="3">
-        <v>-4.1000000000000003E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="E21">
         <v>11.16</v>
@@ -1514,10 +1517,10 @@
         <v>1.4</v>
       </c>
       <c r="J21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1528,10 +1531,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>129500</v>
+        <v>129600</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.12E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E22">
         <v>13.17</v>
@@ -1563,10 +1566,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>880000</v>
+        <v>861000</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>-2.1600000000000001E-2</v>
       </c>
       <c r="E23">
         <v>53.94</v>
@@ -1581,13 +1584,13 @@
         <v>85274.69</v>
       </c>
       <c r="I23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="J23">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K23">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1598,10 +1601,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>74600</v>
+        <v>75200</v>
       </c>
       <c r="D24" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E24">
         <v>10.85</v>
@@ -1616,13 +1619,13 @@
         <v>46509.73</v>
       </c>
       <c r="I24">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="J24">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1633,10 +1636,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67800</v>
+        <v>69600</v>
       </c>
       <c r="D25" s="3">
-        <v>-3.1399999999999997E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="E25">
         <v>12.89</v>
@@ -1651,13 +1654,13 @@
         <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.16</v>
+        <v>5.03</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1668,10 +1671,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>55900</v>
+        <v>56100</v>
       </c>
       <c r="D26" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E26">
         <v>10.83</v>
@@ -1686,7 +1689,7 @@
         <v>55460.24</v>
       </c>
       <c r="I26">
-        <v>6.33</v>
+        <v>6.31</v>
       </c>
       <c r="J26">
         <v>73</v>
@@ -1703,10 +1706,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>84400</v>
+        <v>84200</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.29E-2</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="E27">
         <v>14.42</v>
@@ -1721,7 +1724,7 @@
         <v>32483.7</v>
       </c>
       <c r="I27">
-        <v>6.52</v>
+        <v>6.53</v>
       </c>
       <c r="J27">
         <v>89</v>
@@ -1738,10 +1741,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>153700</v>
+        <v>153000</v>
       </c>
       <c r="D28" s="3">
-        <v>-5.1999999999999998E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E28">
         <v>8.42</v>
@@ -1756,7 +1759,7 @@
         <v>120847.71</v>
       </c>
       <c r="I28">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J28">
         <v>37</v>
@@ -1773,10 +1776,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>107400</v>
+        <v>108200</v>
       </c>
       <c r="D29" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E29">
         <v>19.38</v>
@@ -1791,13 +1794,13 @@
         <v>43969.66</v>
       </c>
       <c r="I29">
-        <v>2.4500000000000002</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J29">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1808,10 +1811,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>32750</v>
+        <v>33700</v>
       </c>
       <c r="D30" s="3">
-        <v>-1.3599999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E30">
         <v>13.16</v>
@@ -1826,13 +1829,13 @@
         <v>65635.929999999993</v>
       </c>
       <c r="I30">
-        <v>4.2699999999999996</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1843,10 +1846,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19270</v>
+        <v>19580</v>
       </c>
       <c r="D31" s="3">
-        <v>-6.7000000000000002E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="E31">
         <v>8.06</v>
@@ -1861,13 +1864,13 @@
         <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>5.53</v>
+        <v>5.44</v>
       </c>
       <c r="J31">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1878,10 +1881,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="D32" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1896,7 +1899,7 @@
         <v>75767.48</v>
       </c>
       <c r="I32">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="J32">
         <v>71</v>
@@ -1913,10 +1916,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19950</v>
+        <v>19960</v>
       </c>
       <c r="D33" s="3">
-        <v>-7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E33">
         <v>15.12</v>
@@ -1931,7 +1934,7 @@
         <v>14481.01</v>
       </c>
       <c r="I33">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="J33">
         <v>35</v>
@@ -1948,10 +1951,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>54100</v>
+        <v>54600</v>
       </c>
       <c r="D34" s="3">
-        <v>7.4000000000000003E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="E34">
         <v>2.85</v>
@@ -1966,13 +1969,13 @@
         <v>66926.62</v>
       </c>
       <c r="I34">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="J34">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1983,10 +1986,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14780</v>
+        <v>14930</v>
       </c>
       <c r="D35" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E35">
         <v>4.4000000000000004</v>
@@ -2001,13 +2004,13 @@
         <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J35">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2018,10 +2021,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>123600</v>
+        <v>125000</v>
       </c>
       <c r="D36" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E36">
         <v>5.76</v>
@@ -2036,13 +2039,13 @@
         <v>158106.71</v>
       </c>
       <c r="I36">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="J36">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2053,10 +2056,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>140100</v>
+        <v>141400</v>
       </c>
       <c r="D37" s="3">
-        <v>-4.82E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E37">
         <v>12.66</v>
@@ -2071,13 +2074,13 @@
         <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>3.85</v>
+        <v>3.82</v>
       </c>
       <c r="J37">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2088,31 +2091,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>40850</v>
+        <v>18580</v>
       </c>
       <c r="D38" s="3">
-        <v>-1.09E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E38">
-        <v>11.21</v>
+        <v>12.08</v>
       </c>
       <c r="F38">
-        <v>13.43</v>
+        <v>7.85</v>
       </c>
       <c r="G38">
-        <v>6.4</v>
+        <v>8.39</v>
       </c>
       <c r="H38" s="4">
-        <v>121076.78</v>
+        <v>18381.900000000001</v>
       </c>
       <c r="I38">
-        <v>3.56</v>
+        <v>6.3</v>
       </c>
       <c r="J38">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K38">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2123,31 +2126,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>203500</v>
+        <v>40650</v>
       </c>
       <c r="D39" s="3">
-        <v>-1.4500000000000001E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E39">
-        <v>15.98</v>
+        <v>11.21</v>
       </c>
       <c r="F39">
-        <v>16.78</v>
+        <v>13.43</v>
       </c>
       <c r="G39">
-        <v>12.25</v>
+        <v>6.4</v>
       </c>
       <c r="H39" s="4">
-        <v>212733.48</v>
+        <v>121076.78</v>
       </c>
       <c r="I39">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="J39">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2158,31 +2161,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>53700</v>
+        <v>216000</v>
       </c>
       <c r="D40" s="3">
-        <v>2.4799999999999999E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="E40">
-        <v>13.26</v>
+        <v>15.98</v>
       </c>
       <c r="F40">
-        <v>3.52</v>
+        <v>16.78</v>
       </c>
       <c r="G40">
-        <v>11.65</v>
+        <v>12.25</v>
       </c>
       <c r="H40" s="4">
-        <v>27139.93</v>
+        <v>212733.48</v>
       </c>
       <c r="I40">
-        <v>4.5999999999999996</v>
+        <v>3.47</v>
       </c>
       <c r="J40">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2193,31 +2196,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>99700</v>
+        <v>53500</v>
       </c>
       <c r="D41" s="3">
-        <v>4.1799999999999997E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E41">
-        <v>10.4</v>
+        <v>13.26</v>
       </c>
       <c r="F41">
-        <v>44.75</v>
+        <v>3.52</v>
       </c>
       <c r="G41">
-        <v>6.6</v>
+        <v>11.65</v>
       </c>
       <c r="H41" s="4">
-        <v>15982.9</v>
+        <v>27139.93</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J41">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2228,31 +2231,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>69400</v>
+        <v>98150</v>
       </c>
       <c r="D42" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>-1.55E-2</v>
       </c>
       <c r="E42">
-        <v>8.11</v>
+        <v>10.4</v>
       </c>
       <c r="F42">
-        <v>10.55</v>
+        <v>44.75</v>
       </c>
       <c r="G42">
-        <v>8.66</v>
+        <v>6.6</v>
       </c>
       <c r="H42" s="4">
-        <v>113903.42</v>
+        <v>15982.9</v>
       </c>
       <c r="I42">
-        <v>3.11</v>
+        <v>1.02</v>
       </c>
       <c r="J42">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2263,31 +2266,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>135900</v>
+        <v>70600</v>
       </c>
       <c r="D43" s="3">
-        <v>-2.8999999999999998E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="E43">
-        <v>11.54</v>
+        <v>8.11</v>
       </c>
       <c r="F43">
-        <v>18.760000000000002</v>
+        <v>10.55</v>
       </c>
       <c r="G43">
-        <v>9.6</v>
+        <v>8.66</v>
       </c>
       <c r="H43" s="4">
-        <v>161615.43</v>
+        <v>113903.42</v>
       </c>
       <c r="I43">
-        <v>2.93</v>
+        <v>3.06</v>
       </c>
       <c r="J43">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="K43">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2298,31 +2301,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>47100</v>
+        <v>141700</v>
       </c>
       <c r="D44" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E44">
-        <v>4.12</v>
+        <v>11.54</v>
       </c>
       <c r="F44">
-        <v>5.83</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="G44">
-        <v>11.01</v>
+        <v>9.6</v>
       </c>
       <c r="H44" s="4">
-        <v>147806.45000000001</v>
+        <v>161615.43</v>
       </c>
       <c r="I44">
-        <v>5.73</v>
+        <v>2.81</v>
       </c>
       <c r="J44">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2333,31 +2336,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>163300</v>
+        <v>47300</v>
       </c>
       <c r="D45" s="3">
-        <v>-2.8000000000000001E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="E45">
-        <v>13.24</v>
+        <v>4.12</v>
       </c>
       <c r="F45">
-        <v>17.97</v>
+        <v>5.83</v>
       </c>
       <c r="G45">
-        <v>15.51</v>
+        <v>11.01</v>
       </c>
       <c r="H45" s="4">
-        <v>119232.22</v>
+        <v>147806.45000000001</v>
       </c>
       <c r="I45">
-        <v>2.27</v>
+        <v>5.71</v>
       </c>
       <c r="J45">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2368,31 +2371,31 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>84400</v>
+        <v>171700</v>
       </c>
       <c r="D46" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="E46">
-        <v>9.11</v>
+        <v>13.24</v>
       </c>
       <c r="F46">
-        <v>10.47</v>
+        <v>17.97</v>
       </c>
       <c r="G46">
-        <v>9.4</v>
+        <v>15.51</v>
       </c>
       <c r="H46" s="4">
-        <v>153124.29</v>
+        <v>119232.22</v>
       </c>
       <c r="I46">
-        <v>4.2699999999999996</v>
+        <v>2.15</v>
       </c>
       <c r="J46">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K46">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2403,31 +2406,31 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>250000</v>
+        <v>86700</v>
       </c>
       <c r="D47" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="E47">
-        <v>1.97</v>
+        <v>9.11</v>
       </c>
       <c r="F47">
-        <v>0.9</v>
+        <v>10.47</v>
       </c>
       <c r="G47">
-        <v>5.59</v>
+        <v>9.4</v>
       </c>
       <c r="H47" s="4">
-        <v>484489.5</v>
+        <v>153124.29</v>
       </c>
       <c r="I47">
-        <v>2.4</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2438,31 +2441,31 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>112700</v>
+        <v>251500</v>
       </c>
       <c r="D48" s="3">
-        <v>-7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E48">
-        <v>8.86</v>
+        <v>1.97</v>
       </c>
       <c r="F48">
-        <v>11.69</v>
+        <v>0.9</v>
       </c>
       <c r="G48">
-        <v>8.51</v>
+        <v>5.59</v>
       </c>
       <c r="H48" s="4">
-        <v>152301.9</v>
+        <v>484489.5</v>
       </c>
       <c r="I48">
-        <v>2.82</v>
+        <v>2.39</v>
       </c>
       <c r="J48">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K48">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2473,31 +2476,31 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>58200</v>
+        <v>116100</v>
       </c>
       <c r="D49" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="E49">
-        <v>12.32</v>
+        <v>8.86</v>
       </c>
       <c r="F49">
-        <v>9.67</v>
+        <v>11.69</v>
       </c>
       <c r="G49">
-        <v>18.72</v>
+        <v>8.51</v>
       </c>
       <c r="H49" s="4">
-        <v>84441.54</v>
+        <v>152301.9</v>
       </c>
       <c r="I49">
-        <v>2.41</v>
+        <v>2.73</v>
       </c>
       <c r="J49">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K49">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2508,31 +2511,31 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>111600</v>
+        <v>58600</v>
       </c>
       <c r="D50" s="3">
-        <v>-1.3299999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E50">
-        <v>23.44</v>
+        <v>12.32</v>
       </c>
       <c r="F50">
-        <v>24.59</v>
+        <v>9.67</v>
       </c>
       <c r="G50">
-        <v>27.89</v>
+        <v>18.72</v>
       </c>
       <c r="H50" s="4">
-        <v>55646.89</v>
+        <v>84441.54</v>
       </c>
       <c r="I50">
-        <v>1.21</v>
+        <v>2.39</v>
       </c>
       <c r="J50">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2543,31 +2546,31 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>14500</v>
+        <v>112900</v>
       </c>
       <c r="D51" s="3">
-        <v>-1.09E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>6.96</v>
+        <v>23.44</v>
       </c>
       <c r="F51">
-        <v>6.28</v>
+        <v>24.59</v>
       </c>
       <c r="G51">
-        <v>7.18</v>
+        <v>27.89</v>
       </c>
       <c r="H51" s="4">
-        <v>33008.75</v>
+        <v>55646.89</v>
       </c>
       <c r="I51">
-        <v>4.4800000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="J51">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2578,31 +2581,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>13960</v>
+        <v>14840</v>
       </c>
       <c r="D52" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E52">
-        <v>3.6</v>
+        <v>6.96</v>
       </c>
       <c r="F52">
-        <v>10.34</v>
+        <v>6.28</v>
       </c>
       <c r="G52">
-        <v>5.91</v>
+        <v>7.18</v>
       </c>
       <c r="H52" s="4">
-        <v>35883.14</v>
+        <v>33008.75</v>
       </c>
       <c r="I52">
-        <v>3.58</v>
+        <v>4.38</v>
       </c>
       <c r="J52">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2613,31 +2616,31 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>44500</v>
+        <v>14380</v>
       </c>
       <c r="D53" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E53">
-        <v>10.79</v>
+        <v>3.6</v>
       </c>
       <c r="F53">
-        <v>11.5</v>
+        <v>10.34</v>
       </c>
       <c r="G53">
-        <v>8.93</v>
+        <v>5.91</v>
       </c>
       <c r="H53" s="4">
-        <v>90358.17</v>
+        <v>35883.14</v>
       </c>
       <c r="I53">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="J53">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2648,31 +2651,31 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>22000</v>
+        <v>44950</v>
       </c>
       <c r="D54" s="3">
-        <v>-2.3E-3</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E54">
-        <v>12.8</v>
+        <v>10.79</v>
       </c>
       <c r="F54">
-        <v>11.61</v>
+        <v>11.5</v>
       </c>
       <c r="G54">
-        <v>12.93</v>
+        <v>8.93</v>
       </c>
       <c r="H54" s="4">
-        <v>29151.87</v>
+        <v>90358.17</v>
       </c>
       <c r="I54">
-        <v>4.5199999999999996</v>
+        <v>4.45</v>
       </c>
       <c r="J54">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2683,31 +2686,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>19290</v>
+        <v>22250</v>
       </c>
       <c r="D55" s="3">
-        <v>-9.7999999999999997E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E55">
-        <v>10.48</v>
+        <v>12.8</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>11.61</v>
       </c>
       <c r="G55">
-        <v>10.17</v>
+        <v>12.93</v>
       </c>
       <c r="H55" s="4">
-        <v>24686.55</v>
+        <v>29151.87</v>
       </c>
       <c r="I55">
-        <v>6.09</v>
+        <v>4.47</v>
       </c>
       <c r="J55">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2718,31 +2721,31 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>497500</v>
+        <v>19240</v>
       </c>
       <c r="D56" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E56">
-        <v>39.340000000000003</v>
+        <v>10.48</v>
       </c>
       <c r="F56">
-        <v>41.01</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>29.72</v>
+        <v>10.17</v>
       </c>
       <c r="H56" s="4">
-        <v>42149.47</v>
+        <v>24686.55</v>
       </c>
       <c r="I56">
-        <v>1.08</v>
+        <v>6.11</v>
       </c>
       <c r="J56">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="K56">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2753,31 +2756,66 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>24950</v>
+        <v>494500</v>
       </c>
       <c r="D57" s="3">
-        <v>-9.9000000000000008E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E57">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F57">
+        <v>41.01</v>
+      </c>
+      <c r="G57">
+        <v>29.72</v>
+      </c>
+      <c r="H57" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I57">
+        <v>1.08</v>
+      </c>
+      <c r="J57">
+        <v>95</v>
+      </c>
+      <c r="K57">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2">
+        <v>25300</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E58">
         <v>9.39</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>7.27</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>9.73</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I57">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="J57">
-        <v>89</v>
-      </c>
-      <c r="K57">
-        <v>89</v>
+      <c r="I58">
+        <v>4.74</v>
+      </c>
+      <c r="J58">
+        <v>91</v>
+      </c>
+      <c r="K58">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1E4E9F-7C41-4B1F-912B-1BE9F7ECC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7564475-8127-4D9A-8A04-35AFC87DF549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D20EFE48-EF26-4149-BFD8-A8E8DC405139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{55EBEDA3-135D-464D-9925-52B1808C8EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +453,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,19 +771,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F563E2D-C87F-4970-9DE7-9935E34E7E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99321F6C-35ED-439F-9F7C-C6C31B183D6B}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -831,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24150</v>
+        <v>21850</v>
       </c>
       <c r="D2" s="3">
-        <v>2.5499999999999998E-2</v>
+        <v>-8.1900000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -849,13 +850,13 @@
         <v>47311.47</v>
       </c>
       <c r="I2">
-        <v>4.1399999999999997</v>
+        <v>4.58</v>
       </c>
       <c r="J2">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -866,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>102200</v>
+        <v>103700</v>
       </c>
       <c r="D3" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -884,13 +885,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.36</v>
+        <v>6.27</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -901,10 +902,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>272750</v>
+        <v>276500</v>
       </c>
       <c r="D4" s="3">
-        <v>2.1499999999999998E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -919,13 +920,13 @@
         <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -971,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29750</v>
+        <v>29650</v>
       </c>
       <c r="D6" s="3">
-        <v>3.3999999999999998E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E6">
         <v>7.12</v>
@@ -989,7 +990,7 @@
         <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>6.72</v>
+        <v>6.75</v>
       </c>
       <c r="J6">
         <v>43</v>
@@ -1006,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>28450</v>
+        <v>27950</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.5599999999999999E-2</v>
+        <v>-1.5800000000000002E-2</v>
       </c>
       <c r="E7">
         <v>1.04</v>
@@ -1024,13 +1025,13 @@
         <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>4.22</v>
+        <v>4.29</v>
       </c>
       <c r="J7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1041,10 +1042,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1491000</v>
+        <v>1380000</v>
       </c>
       <c r="D8" s="3">
-        <v>-7.3000000000000001E-3</v>
+        <v>-2.1299999999999999E-2</v>
       </c>
       <c r="E8">
         <v>39.369999999999997</v>
@@ -1059,13 +1060,13 @@
         <v>119890.92</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="J8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1076,10 +1077,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>26200</v>
+        <v>25200</v>
       </c>
       <c r="D9" s="3">
-        <v>5.2200000000000003E-2</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="E9">
         <v>4.57</v>
@@ -1094,13 +1095,13 @@
         <v>38894.53</v>
       </c>
       <c r="I9">
-        <v>4.58</v>
+        <v>4.76</v>
       </c>
       <c r="J9">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1111,10 +1112,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>75400</v>
+        <v>74700</v>
       </c>
       <c r="D10" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>2.16</v>
@@ -1129,13 +1130,13 @@
         <v>174674.22</v>
       </c>
       <c r="I10">
-        <v>4.1100000000000003</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1146,10 +1147,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>52100</v>
+        <v>57200</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="E11">
         <v>12.89</v>
@@ -1164,13 +1165,13 @@
         <v>26158.58</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="J11">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1181,10 +1182,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>10860</v>
+        <v>10970</v>
       </c>
       <c r="D12" s="3">
-        <v>6.4999999999999997E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E12">
         <v>9.44</v>
@@ -1199,13 +1200,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I12">
-        <v>4.74</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1216,10 +1217,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>87500</v>
+        <v>88600</v>
       </c>
       <c r="D13" s="3">
-        <v>8.0999999999999996E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E13">
         <v>19.62</v>
@@ -1234,13 +1235,13 @@
         <v>130022.16</v>
       </c>
       <c r="I13">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="J13">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1251,10 +1252,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>213500</v>
+        <v>217500</v>
       </c>
       <c r="D14" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E14">
         <v>12.43</v>
@@ -1269,13 +1270,13 @@
         <v>411868.79</v>
       </c>
       <c r="I14">
-        <v>5.62</v>
+        <v>5.52</v>
       </c>
       <c r="J14">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1286,10 +1287,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>127700</v>
+        <v>128900</v>
       </c>
       <c r="D15" s="3">
-        <v>0.02</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E15">
         <v>18.96</v>
@@ -1304,13 +1305,13 @@
         <v>115980.87</v>
       </c>
       <c r="I15">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="J15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1321,10 +1322,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>33000</v>
+        <v>32950</v>
       </c>
       <c r="D16" s="3">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.49E-2</v>
       </c>
       <c r="E16">
         <v>17.420000000000002</v>
@@ -1356,10 +1357,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>72100</v>
+        <v>71600</v>
       </c>
       <c r="D17" s="3">
-        <v>1.55E-2</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="E17">
         <v>9.0299999999999994</v>
@@ -1374,13 +1375,13 @@
         <v>59026.51</v>
       </c>
       <c r="I17">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="J17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1391,10 +1392,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19720</v>
+        <v>19340</v>
       </c>
       <c r="D18" s="3">
-        <v>3.1899999999999998E-2</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E18">
         <v>8.73</v>
@@ -1409,13 +1410,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I18">
-        <v>4.82</v>
+        <v>4.91</v>
       </c>
       <c r="J18">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1426,10 +1427,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>19070</v>
+        <v>18810</v>
       </c>
       <c r="D19" s="3">
-        <v>3.8699999999999998E-2</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="E19">
         <v>7.94</v>
@@ -1444,13 +1445,13 @@
         <v>17214.37</v>
       </c>
       <c r="I19">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="J19">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1461,10 +1462,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>25800</v>
+        <v>24850</v>
       </c>
       <c r="D20" s="3">
-        <v>1.38E-2</v>
+        <v>-2.7400000000000001E-2</v>
       </c>
       <c r="E20">
         <v>19.78</v>
@@ -1479,13 +1480,13 @@
         <v>31156.34</v>
       </c>
       <c r="I20">
-        <v>3.88</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J20">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1496,10 +1497,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>365000</v>
+        <v>378500</v>
       </c>
       <c r="D21" s="3">
-        <v>4.1000000000000003E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E21">
         <v>11.16</v>
@@ -1514,13 +1515,13 @@
         <v>160791.94</v>
       </c>
       <c r="I21">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="J21">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1531,10 +1532,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>129600</v>
+        <v>128100</v>
       </c>
       <c r="D22" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E22">
         <v>13.17</v>
@@ -1549,13 +1550,13 @@
         <v>201114.72</v>
       </c>
       <c r="I22">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="J22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1566,10 +1567,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>861000</v>
+        <v>883000</v>
       </c>
       <c r="D23" s="3">
-        <v>-2.1600000000000001E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E23">
         <v>53.94</v>
@@ -1584,13 +1585,13 @@
         <v>85274.69</v>
       </c>
       <c r="I23">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1601,10 +1602,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>75200</v>
+        <v>75700</v>
       </c>
       <c r="D24" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E24">
         <v>10.85</v>
@@ -1619,13 +1620,13 @@
         <v>46509.73</v>
       </c>
       <c r="I24">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="J24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1636,10 +1637,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>69600</v>
+        <v>68800</v>
       </c>
       <c r="D25" s="3">
-        <v>2.6499999999999999E-2</v>
+        <v>-4.3E-3</v>
       </c>
       <c r="E25">
         <v>12.89</v>
@@ -1654,13 +1655,13 @@
         <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="J25">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1706,10 +1707,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>84200</v>
+        <v>81600</v>
       </c>
       <c r="D27" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="E27">
         <v>14.42</v>
@@ -1724,13 +1725,13 @@
         <v>32483.7</v>
       </c>
       <c r="I27">
-        <v>6.53</v>
+        <v>6.74</v>
       </c>
       <c r="J27">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1741,10 +1742,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>153000</v>
+        <v>151400</v>
       </c>
       <c r="D28" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E28">
         <v>8.42</v>
@@ -1759,13 +1760,13 @@
         <v>120847.71</v>
       </c>
       <c r="I28">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1776,10 +1777,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="D29" s="3">
-        <v>7.4000000000000003E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E29">
         <v>19.38</v>
@@ -1794,13 +1795,13 @@
         <v>43969.66</v>
       </c>
       <c r="I29">
-        <v>2.4300000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J29">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1811,10 +1812,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="D30" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E30">
         <v>13.16</v>
@@ -1829,13 +1830,13 @@
         <v>65635.929999999993</v>
       </c>
       <c r="I30">
-        <v>4.1500000000000004</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J30">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1846,10 +1847,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19580</v>
+        <v>19460</v>
       </c>
       <c r="D31" s="3">
-        <v>1.61E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="E31">
         <v>8.06</v>
@@ -1864,13 +1865,13 @@
         <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="J31">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1881,10 +1882,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="D32" s="3">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1899,13 +1900,13 @@
         <v>75767.48</v>
       </c>
       <c r="I32">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="J32">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1916,10 +1917,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19960</v>
+        <v>19900</v>
       </c>
       <c r="D33" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E33">
         <v>15.12</v>
@@ -1934,13 +1935,13 @@
         <v>14481.01</v>
       </c>
       <c r="I33">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="J33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1951,10 +1952,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="D34" s="3">
-        <v>9.1999999999999998E-3</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="E34">
         <v>2.85</v>
@@ -1969,13 +1970,13 @@
         <v>66926.62</v>
       </c>
       <c r="I34">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="J34">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1986,10 +1987,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14930</v>
+        <v>14910</v>
       </c>
       <c r="D35" s="3">
-        <v>1.01E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E35">
         <v>4.4000000000000004</v>
@@ -2004,7 +2005,7 @@
         <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>4.3499999999999996</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J35">
         <v>81</v>
@@ -2021,10 +2022,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>125000</v>
+        <v>128500</v>
       </c>
       <c r="D36" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="E36">
         <v>5.76</v>
@@ -2039,13 +2040,13 @@
         <v>158106.71</v>
       </c>
       <c r="I36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J36">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2056,10 +2057,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>141400</v>
+        <v>133700</v>
       </c>
       <c r="D37" s="3">
-        <v>9.2999999999999992E-3</v>
+        <v>-2.8299999999999999E-2</v>
       </c>
       <c r="E37">
         <v>12.66</v>
@@ -2074,13 +2075,13 @@
         <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>3.82</v>
+        <v>4.04</v>
       </c>
       <c r="J37">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2091,10 +2092,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>18580</v>
+        <v>18170</v>
       </c>
       <c r="D38" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E38">
         <v>12.08</v>
@@ -2109,13 +2110,13 @@
         <v>18381.900000000001</v>
       </c>
       <c r="I38">
-        <v>6.3</v>
+        <v>6.44</v>
       </c>
       <c r="J38">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K38">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2126,10 +2127,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>40650</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>40250</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
       </c>
       <c r="E39">
         <v>11.21</v>
@@ -2144,13 +2145,13 @@
         <v>121076.78</v>
       </c>
       <c r="I39">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2161,10 +2162,10 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>216000</v>
+        <v>210500</v>
       </c>
       <c r="D40" s="3">
-        <v>6.1400000000000003E-2</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
       <c r="E40">
         <v>15.98</v>
@@ -2179,13 +2180,13 @@
         <v>212733.48</v>
       </c>
       <c r="I40">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="J40">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2196,10 +2197,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>53500</v>
+        <v>53300</v>
       </c>
       <c r="D41" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="E41">
         <v>13.26</v>
@@ -2214,7 +2215,7 @@
         <v>27139.93</v>
       </c>
       <c r="I41">
-        <v>4.6100000000000003</v>
+        <v>4.63</v>
       </c>
       <c r="J41">
         <v>69</v>
@@ -2231,10 +2232,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>98150</v>
+        <v>98100</v>
       </c>
       <c r="D42" s="3">
-        <v>-1.55E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E42">
         <v>10.4</v>
@@ -2266,10 +2267,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>70600</v>
+        <v>69100</v>
       </c>
       <c r="D43" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>-4.3E-3</v>
       </c>
       <c r="E43">
         <v>8.11</v>
@@ -2284,13 +2285,13 @@
         <v>113903.42</v>
       </c>
       <c r="I43">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="J43">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2301,10 +2302,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>141700</v>
+        <v>137500</v>
       </c>
       <c r="D44" s="3">
-        <v>4.2700000000000002E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="E44">
         <v>11.54</v>
@@ -2319,13 +2320,13 @@
         <v>161615.43</v>
       </c>
       <c r="I44">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="J44">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K44">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2336,10 +2337,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>47300</v>
+        <v>45900</v>
       </c>
       <c r="D45" s="3">
-        <v>4.1999999999999997E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E45">
         <v>4.12</v>
@@ -2354,13 +2355,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I45">
-        <v>5.71</v>
+        <v>5.88</v>
       </c>
       <c r="J45">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2371,10 +2372,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>171700</v>
+        <v>177300</v>
       </c>
       <c r="D46" s="3">
-        <v>5.1400000000000001E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="E46">
         <v>13.24</v>
@@ -2389,13 +2390,13 @@
         <v>119232.22</v>
       </c>
       <c r="I46">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="J46">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2406,10 +2407,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>86700</v>
+        <v>86300</v>
       </c>
       <c r="D47" s="3">
-        <v>2.7300000000000001E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E47">
         <v>9.11</v>
@@ -2424,7 +2425,7 @@
         <v>153124.29</v>
       </c>
       <c r="I47">
-        <v>4.1500000000000004</v>
+        <v>4.17</v>
       </c>
       <c r="J47">
         <v>85</v>
@@ -2441,10 +2442,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>251500</v>
+        <v>236000</v>
       </c>
       <c r="D48" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E48">
         <v>1.97</v>
@@ -2459,13 +2460,13 @@
         <v>484489.5</v>
       </c>
       <c r="I48">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="J48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K48">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2476,10 +2477,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>116100</v>
+        <v>113200</v>
       </c>
       <c r="D49" s="3">
-        <v>3.0200000000000001E-2</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="E49">
         <v>8.86</v>
@@ -2494,13 +2495,13 @@
         <v>152301.9</v>
       </c>
       <c r="I49">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="J49">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2511,7 +2512,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="D50" s="3">
         <v>6.8999999999999999E-3</v>
@@ -2529,13 +2530,13 @@
         <v>84441.54</v>
       </c>
       <c r="I50">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="J50">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2546,10 +2547,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>112900</v>
+        <v>120800</v>
       </c>
       <c r="D51" s="3">
-        <v>1.1599999999999999E-2</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="E51">
         <v>23.44</v>
@@ -2564,13 +2565,13 @@
         <v>55646.89</v>
       </c>
       <c r="I51">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J51">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2581,10 +2582,10 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>14840</v>
+        <v>14650</v>
       </c>
       <c r="D52" s="3">
-        <v>2.3400000000000001E-2</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E52">
         <v>6.96</v>
@@ -2599,13 +2600,13 @@
         <v>33008.75</v>
       </c>
       <c r="I52">
-        <v>4.38</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J52">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2616,10 +2617,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>14380</v>
+        <v>14300</v>
       </c>
       <c r="D53" s="3">
-        <v>3.0099999999999998E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E53">
         <v>3.6</v>
@@ -2634,13 +2635,13 @@
         <v>35883.14</v>
       </c>
       <c r="I53">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="J53">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2651,10 +2652,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>44950</v>
+        <v>39750</v>
       </c>
       <c r="D54" s="3">
-        <v>1.01E-2</v>
+        <v>-0.1244</v>
       </c>
       <c r="E54">
         <v>10.79</v>
@@ -2669,13 +2670,13 @@
         <v>90358.17</v>
       </c>
       <c r="I54">
-        <v>4.45</v>
+        <v>5.03</v>
       </c>
       <c r="J54">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K54">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2686,10 +2687,10 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>22250</v>
+        <v>22200</v>
       </c>
       <c r="D55" s="3">
-        <v>1.14E-2</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="E55">
         <v>12.8</v>
@@ -2704,7 +2705,7 @@
         <v>29151.87</v>
       </c>
       <c r="I55">
-        <v>4.47</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J55">
         <v>82</v>
@@ -2721,10 +2722,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>19240</v>
+        <v>18910</v>
       </c>
       <c r="D56" s="3">
-        <v>-2.5999999999999999E-3</v>
+        <v>-6.3E-3</v>
       </c>
       <c r="E56">
         <v>10.48</v>
@@ -2739,13 +2740,13 @@
         <v>24686.55</v>
       </c>
       <c r="I56">
-        <v>6.11</v>
+        <v>6.21</v>
       </c>
       <c r="J56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K56">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2756,10 +2757,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>494500</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-6.0000000000000001E-3</v>
+        <v>487500</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
       </c>
       <c r="E57">
         <v>39.340000000000003</v>
@@ -2774,13 +2775,13 @@
         <v>42149.47</v>
       </c>
       <c r="I57">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J57">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2791,10 +2792,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>25300</v>
+        <v>25450</v>
       </c>
       <c r="D58" s="3">
-        <v>1.4E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E58">
         <v>9.39</v>
@@ -2809,7 +2810,7 @@
         <v>45501.38</v>
       </c>
       <c r="I58">
-        <v>4.74</v>
+        <v>4.72</v>
       </c>
       <c r="J58">
         <v>91</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7564475-8127-4D9A-8A04-35AFC87DF549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A4AB68-9D23-42A8-BD5E-5FBD02F728A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{55EBEDA3-135D-464D-9925-52B1808C8EF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E5FAE26-DF3A-4268-AC48-144F7E3F86E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,13 +449,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,17 +768,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99321F6C-35ED-439F-9F7C-C6C31B183D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD6661C-D005-467A-AC54-6B09C118004B}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -835,7 +834,7 @@
         <v>21850</v>
       </c>
       <c r="D2" s="3">
-        <v>-8.1900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -867,10 +866,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>103700</v>
+        <v>105100</v>
       </c>
       <c r="D3" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -885,13 +884,13 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.27</v>
+        <v>6.18</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -902,10 +901,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>276500</v>
+        <v>255500</v>
       </c>
       <c r="D4" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -920,13 +919,13 @@
         <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="J4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -937,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>441000</v>
+        <v>439500</v>
       </c>
       <c r="D5" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -955,7 +954,7 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.3099999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="J5">
         <v>76</v>
@@ -972,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29650</v>
+        <v>29200</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>7.12</v>
@@ -990,13 +989,13 @@
         <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1007,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27950</v>
+        <v>26950</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.5800000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1.04</v>
@@ -1025,13 +1024,13 @@
         <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>4.29</v>
+        <v>4.45</v>
       </c>
       <c r="J7">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1042,10 +1041,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1380000</v>
+        <v>1353000</v>
       </c>
       <c r="D8" s="3">
-        <v>-2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>39.369999999999997</v>
@@ -1063,10 +1062,10 @@
         <v>0.24</v>
       </c>
       <c r="J8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1077,10 +1076,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>25200</v>
+        <v>24600</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.18E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>4.57</v>
@@ -1095,13 +1094,13 @@
         <v>38894.53</v>
       </c>
       <c r="I9">
-        <v>4.76</v>
+        <v>4.88</v>
       </c>
       <c r="J9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1112,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>74700</v>
+        <v>73200</v>
       </c>
       <c r="D10" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>2.16</v>
@@ -1130,13 +1129,13 @@
         <v>174674.22</v>
       </c>
       <c r="I10">
-        <v>4.1500000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1147,10 +1146,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>57200</v>
+        <v>55700</v>
       </c>
       <c r="D11" s="3">
-        <v>3.6200000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>12.89</v>
@@ -1165,13 +1164,13 @@
         <v>26158.58</v>
       </c>
       <c r="I11">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="J11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K11">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1182,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>10970</v>
+        <v>10630</v>
       </c>
       <c r="D12" s="3">
-        <v>-8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>9.44</v>
@@ -1200,13 +1199,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I12">
-        <v>4.6900000000000004</v>
+        <v>4.84</v>
       </c>
       <c r="J12">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1217,10 +1216,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>88600</v>
+        <v>84000</v>
       </c>
       <c r="D13" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>19.62</v>
@@ -1235,13 +1234,13 @@
         <v>130022.16</v>
       </c>
       <c r="I13">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="J13">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1252,10 +1251,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>217500</v>
+        <v>220500</v>
       </c>
       <c r="D14" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>12.43</v>
@@ -1270,13 +1269,13 @@
         <v>411868.79</v>
       </c>
       <c r="I14">
-        <v>5.52</v>
+        <v>5.44</v>
       </c>
       <c r="J14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1287,10 +1286,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>128900</v>
+        <v>130200</v>
       </c>
       <c r="D15" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>18.96</v>
@@ -1305,13 +1304,13 @@
         <v>115980.87</v>
       </c>
       <c r="I15">
-        <v>5.28</v>
+        <v>5.22</v>
       </c>
       <c r="J15">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1322,10 +1321,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>32950</v>
+        <v>33750</v>
       </c>
       <c r="D16" s="3">
-        <v>-1.49E-2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>17.420000000000002</v>
@@ -1340,13 +1339,13 @@
         <v>50552.95</v>
       </c>
       <c r="I16">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="J16">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1357,10 +1356,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>71600</v>
+        <v>70500</v>
       </c>
       <c r="D17" s="3">
-        <v>-4.1999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>9.0299999999999994</v>
@@ -1375,13 +1374,13 @@
         <v>59026.51</v>
       </c>
       <c r="I17">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J17">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1392,10 +1391,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19340</v>
+        <v>18810</v>
       </c>
       <c r="D18" s="3">
-        <v>-8.2000000000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>8.73</v>
@@ -1410,13 +1409,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I18">
-        <v>4.91</v>
+        <v>5.05</v>
       </c>
       <c r="J18">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1427,10 +1426,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>18810</v>
+        <v>17790</v>
       </c>
       <c r="D19" s="3">
-        <v>-3.2000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>7.94</v>
@@ -1445,13 +1444,13 @@
         <v>17214.37</v>
       </c>
       <c r="I19">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="J19">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1462,10 +1461,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>24850</v>
+        <v>23750</v>
       </c>
       <c r="D20" s="3">
-        <v>-2.7400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>19.78</v>
@@ -1480,13 +1479,13 @@
         <v>31156.34</v>
       </c>
       <c r="I20">
-        <v>4.0199999999999996</v>
+        <v>4.21</v>
       </c>
       <c r="J20">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1497,10 +1496,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>378500</v>
+        <v>349500</v>
       </c>
       <c r="D21" s="3">
-        <v>-2.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>11.16</v>
@@ -1515,13 +1514,13 @@
         <v>160791.94</v>
       </c>
       <c r="I21">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="J21">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1532,10 +1531,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>128100</v>
+        <v>122300</v>
       </c>
       <c r="D22" s="3">
-        <v>7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>13.17</v>
@@ -1550,13 +1549,13 @@
         <v>201114.72</v>
       </c>
       <c r="I22">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="J22">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K22">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1567,10 +1566,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>883000</v>
+        <v>816000</v>
       </c>
       <c r="D23" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>53.94</v>
@@ -1585,13 +1584,13 @@
         <v>85274.69</v>
       </c>
       <c r="I23">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="J23">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1602,10 +1601,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>75700</v>
+        <v>76900</v>
       </c>
       <c r="D24" s="3">
-        <v>1.34E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>10.85</v>
@@ -1620,13 +1619,13 @@
         <v>46509.73</v>
       </c>
       <c r="I24">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="J24">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1637,10 +1636,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="D25" s="3">
-        <v>-4.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>12.89</v>
@@ -1655,13 +1654,13 @@
         <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.09</v>
+        <v>5.2</v>
       </c>
       <c r="J25">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1672,10 +1671,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>56100</v>
+        <v>55900</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>10.83</v>
@@ -1690,7 +1689,7 @@
         <v>55460.24</v>
       </c>
       <c r="I26">
-        <v>6.31</v>
+        <v>6.33</v>
       </c>
       <c r="J26">
         <v>73</v>
@@ -1707,10 +1706,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>81600</v>
+        <v>79500</v>
       </c>
       <c r="D27" s="3">
-        <v>-1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>14.42</v>
@@ -1725,13 +1724,13 @@
         <v>32483.7</v>
       </c>
       <c r="I27">
-        <v>6.74</v>
+        <v>6.92</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1742,10 +1741,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>151400</v>
+        <v>147700</v>
       </c>
       <c r="D28" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>8.42</v>
@@ -1760,13 +1759,13 @@
         <v>120847.71</v>
       </c>
       <c r="I28">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="J28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K28">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1777,10 +1776,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>104800</v>
+        <v>104100</v>
       </c>
       <c r="D29" s="3">
-        <v>-8.5000000000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>19.38</v>
@@ -1795,13 +1794,13 @@
         <v>43969.66</v>
       </c>
       <c r="I29">
-        <v>2.5099999999999998</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1812,10 +1811,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>33400</v>
+        <v>31550</v>
       </c>
       <c r="D30" s="3">
-        <v>-6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>13.16</v>
@@ -1830,13 +1829,13 @@
         <v>65635.929999999993</v>
       </c>
       <c r="I30">
-        <v>4.1900000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J30">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1847,10 +1846,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19460</v>
+        <v>19270</v>
       </c>
       <c r="D31" s="3">
-        <v>-1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>8.06</v>
@@ -1865,13 +1864,13 @@
         <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>5.47</v>
+        <v>5.53</v>
       </c>
       <c r="J31">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1882,10 +1881,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>50600</v>
+        <v>49900</v>
       </c>
       <c r="D32" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1900,13 +1899,13 @@
         <v>75767.48</v>
       </c>
       <c r="I32">
-        <v>5.53</v>
+        <v>5.61</v>
       </c>
       <c r="J32">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1917,10 +1916,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19900</v>
+        <v>19740</v>
       </c>
       <c r="D33" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>15.12</v>
@@ -1935,13 +1934,13 @@
         <v>14481.01</v>
       </c>
       <c r="I33">
-        <v>6.18</v>
+        <v>6.23</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1955,7 +1954,7 @@
         <v>55700</v>
       </c>
       <c r="D34" s="3">
-        <v>2.9600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>2.85</v>
@@ -1987,10 +1986,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14910</v>
+        <v>15010</v>
       </c>
       <c r="D35" s="3">
-        <v>8.8000000000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>4.4000000000000004</v>
@@ -2005,13 +2004,13 @@
         <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>4.3600000000000003</v>
+        <v>4.33</v>
       </c>
       <c r="J35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2022,10 +2021,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>128500</v>
+        <v>129800</v>
       </c>
       <c r="D36" s="3">
-        <v>2.5499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>5.76</v>
@@ -2040,13 +2039,13 @@
         <v>158106.71</v>
       </c>
       <c r="I36">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="J36">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2057,10 +2056,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>133700</v>
+        <v>136500</v>
       </c>
       <c r="D37" s="3">
-        <v>-2.8299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>12.66</v>
@@ -2075,13 +2074,13 @@
         <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="J37">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2092,10 +2091,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>18170</v>
+        <v>18140</v>
       </c>
       <c r="D38" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>12.08</v>
@@ -2110,13 +2109,13 @@
         <v>18381.900000000001</v>
       </c>
       <c r="I38">
-        <v>6.44</v>
+        <v>6.45</v>
       </c>
       <c r="J38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2127,9 +2126,9 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>40250</v>
-      </c>
-      <c r="D39" s="5">
+        <v>39300</v>
+      </c>
+      <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39">
@@ -2145,13 +2144,13 @@
         <v>121076.78</v>
       </c>
       <c r="I39">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="J39">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2162,31 +2161,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>210500</v>
+        <v>195900</v>
       </c>
       <c r="D40" s="3">
-        <v>-7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>15.98</v>
       </c>
       <c r="F40">
-        <v>16.78</v>
+        <v>18.79</v>
       </c>
       <c r="G40">
         <v>12.25</v>
       </c>
       <c r="H40" s="4">
-        <v>212733.48</v>
+        <v>224185.76</v>
       </c>
       <c r="I40">
-        <v>3.56</v>
+        <v>3.83</v>
       </c>
       <c r="J40">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2197,10 +2196,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>53300</v>
+        <v>48750</v>
       </c>
       <c r="D41" s="3">
-        <v>-1.9E-3</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>13.26</v>
@@ -2215,13 +2214,13 @@
         <v>27139.93</v>
       </c>
       <c r="I41">
-        <v>4.63</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="J41">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2232,10 +2231,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>98100</v>
+        <v>87000</v>
       </c>
       <c r="D42" s="3">
-        <v>1.8700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>10.4</v>
@@ -2250,13 +2249,13 @@
         <v>15982.9</v>
       </c>
       <c r="I42">
-        <v>1.02</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J42">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2267,10 +2266,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>69100</v>
+        <v>66900</v>
       </c>
       <c r="D43" s="3">
-        <v>-4.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>8.11</v>
@@ -2285,13 +2284,13 @@
         <v>113903.42</v>
       </c>
       <c r="I43">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="J43">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2302,10 +2301,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>137500</v>
+        <v>126800</v>
       </c>
       <c r="D44" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>11.54</v>
@@ -2320,13 +2319,13 @@
         <v>161615.43</v>
       </c>
       <c r="I44">
-        <v>2.89</v>
+        <v>3.14</v>
       </c>
       <c r="J44">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2337,10 +2336,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>45900</v>
+        <v>43650</v>
       </c>
       <c r="D45" s="3">
-        <v>-1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>4.12</v>
@@ -2355,13 +2354,13 @@
         <v>147806.45000000001</v>
       </c>
       <c r="I45">
-        <v>5.88</v>
+        <v>6.19</v>
       </c>
       <c r="J45">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2372,10 +2371,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>177300</v>
+        <v>172500</v>
       </c>
       <c r="D46" s="3">
-        <v>2.01E-2</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>13.24</v>
@@ -2390,13 +2389,13 @@
         <v>119232.22</v>
       </c>
       <c r="I46">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="J46">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2407,10 +2406,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>86300</v>
+        <v>82700</v>
       </c>
       <c r="D47" s="3">
-        <v>1.17E-2</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>9.11</v>
@@ -2425,13 +2424,13 @@
         <v>153124.29</v>
       </c>
       <c r="I47">
-        <v>4.17</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J47">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2442,10 +2441,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>236000</v>
+        <v>231000</v>
       </c>
       <c r="D48" s="3">
-        <v>1.29E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1.97</v>
@@ -2460,13 +2459,13 @@
         <v>484489.5</v>
       </c>
       <c r="I48">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2477,10 +2476,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>113200</v>
+        <v>109500</v>
       </c>
       <c r="D49" s="3">
-        <v>-1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>8.86</v>
@@ -2495,13 +2494,13 @@
         <v>152301.9</v>
       </c>
       <c r="I49">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J49">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2512,10 +2511,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>58000</v>
+        <v>57700</v>
       </c>
       <c r="D50" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>12.32</v>
@@ -2530,7 +2529,7 @@
         <v>84441.54</v>
       </c>
       <c r="I50">
-        <v>2.41</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J50">
         <v>76</v>
@@ -2547,10 +2546,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>120800</v>
+        <v>119000</v>
       </c>
       <c r="D51" s="3">
-        <v>6.1499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>23.44</v>
@@ -2565,13 +2564,13 @@
         <v>55646.89</v>
       </c>
       <c r="I51">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J51">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K51">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2582,10 +2581,10 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>14650</v>
+        <v>14480</v>
       </c>
       <c r="D52" s="3">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>6.96</v>
@@ -2600,13 +2599,13 @@
         <v>33008.75</v>
       </c>
       <c r="I52">
-        <v>4.4400000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="J52">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2617,10 +2616,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>14300</v>
+        <v>14090</v>
       </c>
       <c r="D53" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>3.6</v>
@@ -2635,13 +2634,13 @@
         <v>35883.14</v>
       </c>
       <c r="I53">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J53">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2652,10 +2651,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>39750</v>
+        <v>39550</v>
       </c>
       <c r="D54" s="3">
-        <v>-0.1244</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>10.79</v>
@@ -2670,13 +2669,13 @@
         <v>90358.17</v>
       </c>
       <c r="I54">
-        <v>5.03</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="J54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K54">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2687,10 +2686,10 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>22200</v>
+        <v>22800</v>
       </c>
       <c r="D55" s="3">
-        <v>-1.3299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>12.8</v>
@@ -2705,13 +2704,13 @@
         <v>29151.87</v>
       </c>
       <c r="I55">
-        <v>4.4800000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J55">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2722,10 +2721,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>18910</v>
+        <v>18760</v>
       </c>
       <c r="D56" s="3">
-        <v>-6.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>10.48</v>
@@ -2740,13 +2739,13 @@
         <v>24686.55</v>
       </c>
       <c r="I56">
-        <v>6.21</v>
+        <v>6.26</v>
       </c>
       <c r="J56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K56">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2757,9 +2756,9 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>487500</v>
-      </c>
-      <c r="D57" s="5">
+        <v>446500</v>
+      </c>
+      <c r="D57" s="3">
         <v>0</v>
       </c>
       <c r="E57">
@@ -2775,13 +2774,13 @@
         <v>42149.47</v>
       </c>
       <c r="I57">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J57">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2792,10 +2791,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>25450</v>
+        <v>24800</v>
       </c>
       <c r="D58" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>9.39</v>
@@ -2810,13 +2809,13 @@
         <v>45501.38</v>
       </c>
       <c r="I58">
-        <v>4.72</v>
+        <v>4.84</v>
       </c>
       <c r="J58">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A4AB68-9D23-42A8-BD5E-5FBD02F728A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EDCB02-6E40-45C4-A7A1-132969BF78F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E5FAE26-DF3A-4268-AC48-144F7E3F86E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{76C08D6F-CFC2-404F-9981-02247AF617D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,10 +449,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD6661C-D005-467A-AC54-6B09C118004B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB86C6-0B8E-400E-813F-C3A65E3F97A0}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -780,7 +783,7 @@
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -831,31 +834,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>21850</v>
+        <v>21300</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>-2.52E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
       </c>
       <c r="F2">
-        <v>10.33</v>
+        <v>7.78</v>
       </c>
       <c r="G2">
         <v>5.8</v>
       </c>
       <c r="H2" s="4">
-        <v>47311.47</v>
+        <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.58</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -866,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>105100</v>
+        <v>104800</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -884,7 +887,7 @@
         <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="J3">
         <v>68</v>
@@ -901,10 +904,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>255500</v>
+        <v>251000</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -919,13 +922,13 @@
         <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="J4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -936,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>439500</v>
+        <v>443000</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -954,13 +957,13 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.32</v>
+        <v>4.29</v>
       </c>
       <c r="J5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -971,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E6">
         <v>7.12</v>
@@ -989,13 +992,13 @@
         <v>70348.56</v>
       </c>
       <c r="I6">
-        <v>6.85</v>
+        <v>6.73</v>
       </c>
       <c r="J6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1006,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>26950</v>
+        <v>27300</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E7">
         <v>1.04</v>
@@ -1024,13 +1027,13 @@
         <v>52692.43</v>
       </c>
       <c r="I7">
-        <v>4.45</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1041,31 +1044,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1353000</v>
+        <v>1438000</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E8">
         <v>39.369999999999997</v>
       </c>
       <c r="F8">
-        <v>46.11</v>
+        <v>40.79</v>
       </c>
       <c r="G8">
         <v>27.7</v>
       </c>
       <c r="H8" s="4">
-        <v>119890.92</v>
+        <v>131565.21</v>
       </c>
       <c r="I8">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1076,10 +1079,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>24600</v>
+        <v>24750</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
       <c r="E9">
         <v>4.57</v>
@@ -1094,13 +1097,13 @@
         <v>38894.53</v>
       </c>
       <c r="I9">
-        <v>4.88</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1111,10 +1114,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>73200</v>
+        <v>72100</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>2.16</v>
@@ -1129,13 +1132,13 @@
         <v>174674.22</v>
       </c>
       <c r="I10">
-        <v>4.2300000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="J10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1146,31 +1149,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>55700</v>
+        <v>59700</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="E11">
         <v>12.89</v>
       </c>
       <c r="F11">
-        <v>9.02</v>
+        <v>11.42</v>
       </c>
       <c r="G11">
         <v>7.9</v>
       </c>
       <c r="H11" s="4">
-        <v>26158.58</v>
+        <v>26995.84</v>
       </c>
       <c r="I11">
-        <v>2.33</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J11">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1184,7 +1187,7 @@
         <v>10630</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E12">
         <v>9.44</v>
@@ -1219,7 +1222,7 @@
         <v>84000</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E13">
         <v>19.62</v>
@@ -1251,10 +1254,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>220500</v>
+        <v>220000</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="E14">
         <v>12.43</v>
@@ -1269,7 +1272,7 @@
         <v>411868.79</v>
       </c>
       <c r="I14">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="J14">
         <v>47</v>
@@ -1286,10 +1289,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>130200</v>
+        <v>131300</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1.47E-2</v>
       </c>
       <c r="E15">
         <v>18.96</v>
@@ -1304,13 +1307,13 @@
         <v>115980.87</v>
       </c>
       <c r="I15">
-        <v>5.22</v>
+        <v>5.18</v>
       </c>
       <c r="J15">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1321,9 +1324,9 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>33750</v>
-      </c>
-      <c r="D16" s="3">
+        <v>33800</v>
+      </c>
+      <c r="D16" s="5">
         <v>0</v>
       </c>
       <c r="E16">
@@ -1339,7 +1342,7 @@
         <v>50552.95</v>
       </c>
       <c r="I16">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="J16">
         <v>61</v>
@@ -1356,31 +1359,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>70500</v>
+        <v>71400</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E17">
         <v>9.0299999999999994</v>
       </c>
       <c r="F17">
-        <v>8.16</v>
+        <v>6.64</v>
       </c>
       <c r="G17">
         <v>10.08</v>
       </c>
       <c r="H17" s="4">
-        <v>59026.51</v>
+        <v>58114.39</v>
       </c>
       <c r="I17">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1391,10 +1394,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>18810</v>
+        <v>19120</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1.43E-2</v>
       </c>
       <c r="E18">
         <v>8.73</v>
@@ -1409,13 +1412,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I18">
-        <v>5.05</v>
+        <v>4.97</v>
       </c>
       <c r="J18">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1429,7 +1432,7 @@
         <v>17790</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="E19">
         <v>7.94</v>
@@ -1461,31 +1464,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>23750</v>
+        <v>25000</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E20">
         <v>19.78</v>
       </c>
       <c r="F20">
-        <v>17.25</v>
+        <v>13.61</v>
       </c>
       <c r="G20">
         <v>23.29</v>
       </c>
       <c r="H20" s="4">
-        <v>31156.34</v>
+        <v>31476.26</v>
       </c>
       <c r="I20">
-        <v>4.21</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1496,31 +1499,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>349500</v>
+        <v>360500</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E21">
         <v>11.16</v>
       </c>
       <c r="F21">
-        <v>17.64</v>
+        <v>14.75</v>
       </c>
       <c r="G21">
         <v>3.73</v>
       </c>
       <c r="H21" s="4">
-        <v>160791.94</v>
+        <v>169623.88</v>
       </c>
       <c r="I21">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="J21">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1531,10 +1534,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>122300</v>
+        <v>121300</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E22">
         <v>13.17</v>
@@ -1549,7 +1552,7 @@
         <v>201114.72</v>
       </c>
       <c r="I22">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="J22">
         <v>79</v>
@@ -1566,31 +1569,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>816000</v>
+        <v>891000</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>6.83E-2</v>
       </c>
       <c r="E23">
         <v>53.94</v>
       </c>
       <c r="F23">
-        <v>7.76</v>
+        <v>10.83</v>
       </c>
       <c r="G23">
         <v>28.78</v>
       </c>
       <c r="H23" s="4">
-        <v>85274.69</v>
+        <v>116255.06</v>
       </c>
       <c r="I23">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="J23">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K23">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1601,31 +1604,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>76900</v>
+        <v>77400</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E24">
         <v>10.85</v>
       </c>
       <c r="F24">
-        <v>10.27</v>
+        <v>11.33</v>
       </c>
       <c r="G24">
         <v>11.06</v>
       </c>
       <c r="H24" s="4">
-        <v>46509.73</v>
+        <v>47834.19</v>
       </c>
       <c r="I24">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="J24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1636,10 +1639,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E25">
         <v>12.89</v>
@@ -1654,13 +1657,13 @@
         <v>81376.7</v>
       </c>
       <c r="I25">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="J25">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1671,31 +1674,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>55900</v>
-      </c>
-      <c r="D26" s="3">
+        <v>55500</v>
+      </c>
+      <c r="D26" s="5">
         <v>0</v>
       </c>
       <c r="E26">
         <v>10.83</v>
       </c>
       <c r="F26">
-        <v>12.4</v>
+        <v>7.71</v>
       </c>
       <c r="G26">
         <v>9.48</v>
       </c>
       <c r="H26" s="4">
-        <v>55460.24</v>
+        <v>55591.17</v>
       </c>
       <c r="I26">
-        <v>6.33</v>
+        <v>6.38</v>
       </c>
       <c r="J26">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1706,9 +1709,9 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>79500</v>
-      </c>
-      <c r="D27" s="3">
+        <v>79100</v>
+      </c>
+      <c r="D27" s="5">
         <v>0</v>
       </c>
       <c r="E27">
@@ -1724,7 +1727,7 @@
         <v>32483.7</v>
       </c>
       <c r="I27">
-        <v>6.92</v>
+        <v>6.95</v>
       </c>
       <c r="J27">
         <v>82</v>
@@ -1744,7 +1747,7 @@
         <v>147700</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E28">
         <v>8.42</v>
@@ -1776,10 +1779,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>104100</v>
+        <v>105000</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E29">
         <v>19.38</v>
@@ -1794,13 +1797,13 @@
         <v>43969.66</v>
       </c>
       <c r="I29">
-        <v>2.5299999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="J29">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1811,25 +1814,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>31550</v>
+        <v>31600</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E30">
         <v>13.16</v>
       </c>
       <c r="F30">
-        <v>14.03</v>
+        <v>16.53</v>
       </c>
       <c r="G30">
         <v>13.29</v>
       </c>
       <c r="H30" s="4">
-        <v>65635.929999999993</v>
+        <v>70038.45</v>
       </c>
       <c r="I30">
-        <v>4.4400000000000004</v>
+        <v>4.43</v>
       </c>
       <c r="J30">
         <v>59</v>
@@ -1846,10 +1849,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19270</v>
+        <v>19160</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="E31">
         <v>8.06</v>
@@ -1864,13 +1867,13 @@
         <v>42663.82</v>
       </c>
       <c r="I31">
-        <v>5.53</v>
+        <v>5.56</v>
       </c>
       <c r="J31">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1881,10 +1884,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>49900</v>
+        <v>50300</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -1899,13 +1902,13 @@
         <v>75767.48</v>
       </c>
       <c r="I32">
-        <v>5.61</v>
+        <v>5.57</v>
       </c>
       <c r="J32">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1916,9 +1919,9 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19740</v>
-      </c>
-      <c r="D33" s="3">
+        <v>19570</v>
+      </c>
+      <c r="D33" s="5">
         <v>0</v>
       </c>
       <c r="E33">
@@ -1934,13 +1937,13 @@
         <v>14481.01</v>
       </c>
       <c r="I33">
-        <v>6.23</v>
+        <v>6.29</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K33">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1951,10 +1954,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>55700</v>
+        <v>55000</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E34">
         <v>2.85</v>
@@ -1969,13 +1972,13 @@
         <v>66926.62</v>
       </c>
       <c r="I34">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="J34">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1986,10 +1989,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>15010</v>
+        <v>14960</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E35">
         <v>4.4000000000000004</v>
@@ -2004,13 +2007,13 @@
         <v>19799.21</v>
       </c>
       <c r="I35">
-        <v>4.33</v>
+        <v>4.34</v>
       </c>
       <c r="J35">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2021,9 +2024,9 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>129800</v>
-      </c>
-      <c r="D36" s="3">
+        <v>139400</v>
+      </c>
+      <c r="D36" s="5">
         <v>0</v>
       </c>
       <c r="E36">
@@ -2039,13 +2042,13 @@
         <v>158106.71</v>
       </c>
       <c r="I36">
-        <v>3.47</v>
+        <v>3.23</v>
       </c>
       <c r="J36">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2056,10 +2059,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>136500</v>
+        <v>136900</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="E37">
         <v>12.66</v>
@@ -2074,13 +2077,13 @@
         <v>81115.86</v>
       </c>
       <c r="I37">
-        <v>3.96</v>
+        <v>3.94</v>
       </c>
       <c r="J37">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2091,10 +2094,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>18140</v>
+        <v>17990</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E38">
         <v>12.08</v>
@@ -2109,7 +2112,7 @@
         <v>18381.900000000001</v>
       </c>
       <c r="I38">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="J38">
         <v>29</v>
@@ -2126,10 +2129,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>39300</v>
+        <v>40200</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E39">
         <v>11.21</v>
@@ -2144,13 +2147,13 @@
         <v>121076.78</v>
       </c>
       <c r="I39">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="J39">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2161,10 +2164,10 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>195900</v>
+        <v>199200</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E40">
         <v>15.98</v>
@@ -2179,13 +2182,13 @@
         <v>224185.76</v>
       </c>
       <c r="I40">
-        <v>3.83</v>
+        <v>3.77</v>
       </c>
       <c r="J40">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2196,31 +2199,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>48750</v>
+        <v>51200</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>-2.4799999999999999E-2</v>
       </c>
       <c r="E41">
         <v>13.26</v>
       </c>
       <c r="F41">
-        <v>3.52</v>
+        <v>9.59</v>
       </c>
       <c r="G41">
         <v>11.65</v>
       </c>
       <c r="H41" s="4">
-        <v>27139.93</v>
+        <v>28057.11</v>
       </c>
       <c r="I41">
-        <v>5.0599999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="J41">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2231,10 +2234,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>87000</v>
+        <v>99900</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E42">
         <v>10.4</v>
@@ -2249,13 +2252,13 @@
         <v>15982.9</v>
       </c>
       <c r="I42">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2266,10 +2269,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>66900</v>
+        <v>66700</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E43">
         <v>8.11</v>
@@ -2284,13 +2287,13 @@
         <v>113903.42</v>
       </c>
       <c r="I43">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="J43">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2301,10 +2304,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>126800</v>
+        <v>127200</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1.52E-2</v>
       </c>
       <c r="E44">
         <v>11.54</v>
@@ -2319,13 +2322,13 @@
         <v>161615.43</v>
       </c>
       <c r="I44">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="J44">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2336,31 +2339,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>43650</v>
+        <v>44100</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E45">
         <v>4.12</v>
       </c>
       <c r="F45">
-        <v>5.83</v>
+        <v>3.45</v>
       </c>
       <c r="G45">
         <v>11.01</v>
       </c>
       <c r="H45" s="4">
-        <v>147806.45000000001</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I45">
-        <v>6.19</v>
+        <v>6.12</v>
       </c>
       <c r="J45">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2371,10 +2374,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>172500</v>
+        <v>169100</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
       <c r="E46">
         <v>13.24</v>
@@ -2389,13 +2392,13 @@
         <v>119232.22</v>
       </c>
       <c r="I46">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="J46">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2406,10 +2409,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>82700</v>
+        <v>82300</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E47">
         <v>9.11</v>
@@ -2424,7 +2427,7 @@
         <v>153124.29</v>
       </c>
       <c r="I47">
-        <v>4.3499999999999996</v>
+        <v>4.37</v>
       </c>
       <c r="J47">
         <v>79</v>
@@ -2441,10 +2444,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>231000</v>
+        <v>230000</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E48">
         <v>1.97</v>
@@ -2459,7 +2462,7 @@
         <v>484489.5</v>
       </c>
       <c r="I48">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -2476,10 +2479,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>109500</v>
+        <v>108400</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E49">
         <v>8.86</v>
@@ -2494,13 +2497,13 @@
         <v>152301.9</v>
       </c>
       <c r="I49">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="J49">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2511,10 +2514,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>57700</v>
+        <v>56600</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E50">
         <v>12.32</v>
@@ -2529,13 +2532,13 @@
         <v>84441.54</v>
       </c>
       <c r="I50">
-        <v>2.4300000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J50">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2546,10 +2549,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>119000</v>
+        <v>129000</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E51">
         <v>23.44</v>
@@ -2564,13 +2567,13 @@
         <v>55646.89</v>
       </c>
       <c r="I51">
-        <v>1.1299999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="J51">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2581,10 +2584,10 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>14480</v>
+        <v>14330</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="E52">
         <v>6.96</v>
@@ -2599,13 +2602,13 @@
         <v>33008.75</v>
       </c>
       <c r="I52">
-        <v>4.49</v>
+        <v>4.54</v>
       </c>
       <c r="J52">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2616,10 +2619,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>14090</v>
+        <v>13930</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E53">
         <v>3.6</v>
@@ -2634,13 +2637,13 @@
         <v>35883.14</v>
       </c>
       <c r="I53">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="J53">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2651,10 +2654,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>39550</v>
+        <v>40100</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E54">
         <v>10.79</v>
@@ -2669,13 +2672,13 @@
         <v>90358.17</v>
       </c>
       <c r="I54">
-        <v>5.0599999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="J54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K54">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2686,10 +2689,10 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>22800</v>
+        <v>22750</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E55">
         <v>12.8</v>
@@ -2704,7 +2707,7 @@
         <v>29151.87</v>
       </c>
       <c r="I55">
-        <v>4.3600000000000003</v>
+        <v>4.37</v>
       </c>
       <c r="J55">
         <v>84</v>
@@ -2721,10 +2724,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>18760</v>
+        <v>18620</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E56">
         <v>10.48</v>
@@ -2739,13 +2742,13 @@
         <v>24686.55</v>
       </c>
       <c r="I56">
-        <v>6.26</v>
+        <v>6.31</v>
       </c>
       <c r="J56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2756,10 +2759,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>446500</v>
+        <v>490000</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="E57">
         <v>39.340000000000003</v>
@@ -2774,13 +2777,13 @@
         <v>42149.47</v>
       </c>
       <c r="I57">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J57">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2791,10 +2794,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E58">
         <v>9.39</v>
@@ -2809,7 +2812,7 @@
         <v>45501.38</v>
       </c>
       <c r="I58">
-        <v>4.84</v>
+        <v>4.82</v>
       </c>
       <c r="J58">
         <v>88</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EDCB02-6E40-45C4-A7A1-132969BF78F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA088F7-3153-490E-AF71-A7C6C4CF4EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{76C08D6F-CFC2-404F-9981-02247AF617D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6BBB064-0136-4095-B7C1-AA60ACC783B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="335">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,6 +54,24 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
@@ -78,10 +96,28 @@
     <t>삼성화재</t>
   </si>
   <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>000990</t>
+  </si>
+  <si>
+    <t>DB하이텍</t>
+  </si>
+  <si>
+    <t>001040</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>001060</t>
+  </si>
+  <si>
+    <t>JW중외제약</t>
   </si>
   <si>
     <t>001430</t>
@@ -90,16 +126,70 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>002710</t>
+  </si>
+  <si>
+    <t>TCC스틸</t>
+  </si>
+  <si>
+    <t>002790</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽홀딩스</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>003030</t>
+  </si>
+  <si>
+    <t>세아제강지주</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>대웅</t>
+  </si>
+  <si>
     <t>003230</t>
   </si>
   <si>
     <t>삼양식품</t>
   </si>
   <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
   </si>
   <si>
     <t>003550</t>
@@ -108,22 +198,52 @@
     <t>LG</t>
   </si>
   <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>005180</t>
+  </si>
+  <si>
+    <t>빙그레</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>005290</t>
+  </si>
+  <si>
+    <t>동진쎄미켐</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
   </si>
   <si>
     <t>005380</t>
@@ -132,6 +252,12 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
     <t>005830</t>
   </si>
   <si>
@@ -156,18 +282,66 @@
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006040</t>
+  </si>
+  <si>
+    <t>동원산업</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
     <t>006800</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>GS리테일</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>오뚜기</t>
+  </si>
+  <si>
     <t>007340</t>
   </si>
   <si>
     <t>DN오토모티브</t>
   </si>
   <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>009450</t>
+  </si>
+  <si>
+    <t>경동나비엔</t>
+  </si>
+  <si>
     <t>009540</t>
   </si>
   <si>
@@ -180,18 +354,78 @@
     <t>영원무역홀딩스</t>
   </si>
   <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
     <t>012450</t>
   </si>
   <si>
     <t>한화에어로스페이스</t>
   </si>
   <si>
+    <t>012630</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
     <t>012750</t>
   </si>
   <si>
     <t>에스원</t>
   </si>
   <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -210,22 +444,34 @@
     <t>현대엘리베이터</t>
   </si>
   <si>
+    <t>017960</t>
+  </si>
+  <si>
+    <t>한국카본</t>
+  </si>
+  <si>
     <t>018260</t>
   </si>
   <si>
     <t>삼성에스디에스</t>
   </si>
   <si>
+    <t>018670</t>
+  </si>
+  <si>
+    <t>SK가스</t>
+  </si>
+  <si>
     <t>021240</t>
   </si>
   <si>
     <t>코웨이</t>
   </si>
   <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>포스코DX</t>
   </si>
   <si>
     <t>024110</t>
@@ -234,6 +480,30 @@
     <t>기업은행</t>
   </si>
   <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>삼성E&amp;A</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
     <t>029780</t>
   </si>
   <si>
@@ -246,12 +516,24 @@
     <t>제일기획</t>
   </si>
   <si>
+    <t>030190</t>
+  </si>
+  <si>
+    <t>NICE평가정보</t>
+  </si>
+  <si>
     <t>030200</t>
   </si>
   <si>
     <t>KT</t>
   </si>
   <si>
+    <t>031980</t>
+  </si>
+  <si>
+    <t>피에스케이홀딩스</t>
+  </si>
+  <si>
     <t>032640</t>
   </si>
   <si>
@@ -264,6 +546,12 @@
     <t>삼성생명</t>
   </si>
   <si>
+    <t>033100</t>
+  </si>
+  <si>
+    <t>제룡전기</t>
+  </si>
+  <si>
     <t>033780</t>
   </si>
   <si>
@@ -276,24 +564,90 @@
     <t>강원랜드</t>
   </si>
   <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>035900</t>
+  </si>
+  <si>
+    <t>JYP Ent.</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
     <t>한국가스공사</t>
   </si>
   <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>엔씨소프트</t>
+  </si>
+  <si>
+    <t>036930</t>
+  </si>
+  <si>
+    <t>주성엔지니어링</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
     <t>039490</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>HD현대인프라코어</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
     <t>051600</t>
   </si>
   <si>
     <t>한전KPS</t>
   </si>
   <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
+  </si>
+  <si>
     <t>052690</t>
   </si>
   <si>
@@ -306,18 +660,90 @@
     <t>신한지주</t>
   </si>
   <si>
+    <t>058470</t>
+  </si>
+  <si>
+    <t>리노공업</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>064760</t>
+  </si>
+  <si>
+    <t>티씨케이</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>067160</t>
+  </si>
+  <si>
+    <t>SOOP</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>068760</t>
+  </si>
+  <si>
+    <t>셀트리온제약</t>
+  </si>
+  <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>TKG휴켐스</t>
+  </si>
+  <si>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
+  </si>
+  <si>
     <t>071050</t>
   </si>
   <si>
     <t>한국금융지주</t>
   </si>
   <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>지역난방공사</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
     <t>086280</t>
   </si>
   <si>
@@ -330,12 +756,24 @@
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
     <t>097950</t>
   </si>
   <si>
     <t>CJ제일제당</t>
   </si>
   <si>
+    <t>103140</t>
+  </si>
+  <si>
+    <t>풍산</t>
+  </si>
+  <si>
     <t>105560</t>
   </si>
   <si>
@@ -348,6 +786,30 @@
     <t>영원무역</t>
   </si>
   <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>씨에스윈드</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>GKL</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
     <t>138040</t>
   </si>
   <si>
@@ -366,22 +828,106 @@
     <t>iM금융지주</t>
   </si>
   <si>
+    <t>140860</t>
+  </si>
+  <si>
+    <t>파크시스템스</t>
+  </si>
+  <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>덴티움</t>
+  </si>
+  <si>
     <t>161390</t>
   </si>
   <si>
     <t>한국타이어앤테크놀로</t>
   </si>
   <si>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
     <t>175330</t>
   </si>
   <si>
     <t>JB금융지주</t>
   </si>
   <si>
-    <t>214320</t>
-  </si>
-  <si>
-    <t>이노션</t>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>183300</t>
+  </si>
+  <si>
+    <t>코미코</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>더블유게임즈</t>
+  </si>
+  <si>
+    <t>192650</t>
+  </si>
+  <si>
+    <t>드림텍</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>코스맥스</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>HL만도</t>
+  </si>
+  <si>
+    <t>214150</t>
+  </si>
+  <si>
+    <t>클래시스</t>
+  </si>
+  <si>
+    <t>214450</t>
+  </si>
+  <si>
+    <t>파마리서치</t>
+  </si>
+  <si>
+    <t>215200</t>
+  </si>
+  <si>
+    <t>메가스터디교육</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
   </si>
   <si>
     <t>267260</t>
@@ -390,10 +936,100 @@
     <t>HD현대일렉트릭</t>
   </si>
   <si>
+    <t>268280</t>
+  </si>
+  <si>
+    <t>미원에스씨</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>272290</t>
+  </si>
+  <si>
+    <t>이녹스첨단소재</t>
+  </si>
+  <si>
+    <t>280360</t>
+  </si>
+  <si>
+    <t>롯데웰푸드</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>285130</t>
+  </si>
+  <si>
+    <t>SK케미칼</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>HS효성첨단소재</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
+  </si>
+  <si>
+    <t>307950</t>
+  </si>
+  <si>
+    <t>현대오토에버</t>
+  </si>
+  <si>
     <t>316140</t>
   </si>
   <si>
     <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>319660</t>
+  </si>
+  <si>
+    <t>피에스케이</t>
+  </si>
+  <si>
+    <t>336570</t>
+  </si>
+  <si>
+    <t>원텍</t>
+  </si>
+  <si>
+    <t>357780</t>
+  </si>
+  <si>
+    <t>솔브레인</t>
   </si>
 </sst>
 </file>
@@ -771,12 +1407,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB86C6-0B8E-400E-813F-C3A65E3F97A0}">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01BA038-6736-4D2C-AA8F-35DFE1A3652C}">
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -785,7 +1419,7 @@
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
@@ -834,31 +1468,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>21300</v>
+        <v>19100</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.52E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F2">
-        <v>7.78</v>
+        <v>12.51</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H2" s="4">
-        <v>46238.98</v>
+        <v>17164.689999999999</v>
       </c>
       <c r="I2">
-        <v>4.6900000000000004</v>
+        <v>3.66</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -869,31 +1503,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104800</v>
+        <v>115000</v>
       </c>
       <c r="D3" s="3">
-        <v>8.6999999999999994E-3</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>3.41</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>1.69</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>5.01</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>28112.080000000002</v>
       </c>
       <c r="I3">
-        <v>6.2</v>
+        <v>0.43</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -904,31 +1538,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>251000</v>
+        <v>82300</v>
       </c>
       <c r="D4" s="3">
-        <v>2.4500000000000001E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="E4">
-        <v>31.06</v>
+        <v>6.58</v>
       </c>
       <c r="F4">
-        <v>41.75</v>
+        <v>3.63</v>
       </c>
       <c r="G4">
-        <v>6.34</v>
+        <v>5.98</v>
       </c>
       <c r="H4" s="4">
-        <v>114794.74</v>
+        <v>185712.25</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -939,31 +1573,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>443000</v>
+        <v>21300</v>
       </c>
       <c r="D5" s="3">
-        <v>2.3E-3</v>
+        <v>-2.52E-2</v>
       </c>
       <c r="E5">
-        <v>13.09</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F5">
-        <v>15.71</v>
+        <v>7.78</v>
       </c>
       <c r="G5">
-        <v>12.47</v>
+        <v>5.8</v>
       </c>
       <c r="H5" s="4">
-        <v>333812.02</v>
+        <v>46238.98</v>
       </c>
       <c r="I5">
-        <v>4.29</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J5">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -974,31 +1608,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29700</v>
+        <v>104800</v>
       </c>
       <c r="D6" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E6">
-        <v>7.12</v>
+        <v>19.09</v>
       </c>
       <c r="F6">
-        <v>14.97</v>
+        <v>17.12</v>
       </c>
       <c r="G6">
-        <v>12.61</v>
+        <v>18.03</v>
       </c>
       <c r="H6" s="4">
-        <v>70348.56</v>
+        <v>141851.03</v>
       </c>
       <c r="I6">
-        <v>6.73</v>
+        <v>6.2</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1009,31 +1643,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27300</v>
+        <v>251000</v>
       </c>
       <c r="D7" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>1.04</v>
+        <v>31.06</v>
       </c>
       <c r="F7">
-        <v>1.27</v>
+        <v>41.75</v>
       </c>
       <c r="G7">
-        <v>4.21</v>
+        <v>6.34</v>
       </c>
       <c r="H7" s="4">
-        <v>52692.43</v>
+        <v>114794.74</v>
       </c>
       <c r="I7">
-        <v>4.4000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="J7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1044,31 +1678,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1438000</v>
+        <v>443000</v>
       </c>
       <c r="D8" s="3">
-        <v>3.7499999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E8">
-        <v>39.369999999999997</v>
+        <v>13.09</v>
       </c>
       <c r="F8">
-        <v>40.79</v>
+        <v>15.71</v>
       </c>
       <c r="G8">
-        <v>27.7</v>
+        <v>12.47</v>
       </c>
       <c r="H8" s="4">
-        <v>131565.21</v>
+        <v>333812.02</v>
       </c>
       <c r="I8">
-        <v>0.23</v>
+        <v>4.29</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1079,31 +1713,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>24750</v>
+        <v>80900</v>
       </c>
       <c r="D9" s="3">
-        <v>-2E-3</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>4.57</v>
+        <v>7.19</v>
       </c>
       <c r="F9">
-        <v>9.2899999999999991</v>
+        <v>3.32</v>
       </c>
       <c r="G9">
-        <v>4.55</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H9" s="4">
-        <v>38894.53</v>
+        <v>106654.47</v>
       </c>
       <c r="I9">
-        <v>4.8499999999999996</v>
+        <v>0.99</v>
       </c>
       <c r="J9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1114,31 +1748,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>72100</v>
+        <v>43150</v>
       </c>
       <c r="D10" s="3">
-        <v>-6.8999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E10">
-        <v>2.16</v>
+        <v>12.44</v>
       </c>
       <c r="F10">
-        <v>8.5</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="G10">
-        <v>5.18</v>
+        <v>22.89</v>
       </c>
       <c r="H10" s="4">
-        <v>174674.22</v>
+        <v>46869.37</v>
       </c>
       <c r="I10">
-        <v>4.3</v>
+        <v>2.85</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1149,31 +1783,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>59700</v>
+        <v>149200</v>
       </c>
       <c r="D11" s="3">
-        <v>4.0099999999999997E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E11">
-        <v>12.89</v>
+        <v>1.83</v>
       </c>
       <c r="F11">
-        <v>11.42</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G11">
-        <v>7.9</v>
+        <v>3.14</v>
       </c>
       <c r="H11" s="4">
-        <v>26995.84</v>
+        <v>156136.04999999999</v>
       </c>
       <c r="I11">
-        <v>2.1800000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J11">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1184,31 +1818,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>10630</v>
+        <v>21700</v>
       </c>
       <c r="D12" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E12">
-        <v>9.44</v>
+        <v>21.86</v>
       </c>
       <c r="F12">
-        <v>11.1</v>
+        <v>21.16</v>
       </c>
       <c r="G12">
-        <v>9.86</v>
+        <v>16.98</v>
       </c>
       <c r="H12" s="4">
-        <v>18178.189999999999</v>
+        <v>13971.64</v>
       </c>
       <c r="I12">
-        <v>4.84</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J12">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1219,31 +1853,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>84000</v>
+        <v>27300</v>
       </c>
       <c r="D13" s="3">
-        <v>2.8199999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>19.62</v>
+        <v>1.04</v>
       </c>
       <c r="F13">
-        <v>12.01</v>
+        <v>1.27</v>
       </c>
       <c r="G13">
-        <v>6.74</v>
+        <v>4.21</v>
       </c>
       <c r="H13" s="4">
-        <v>130022.16</v>
+        <v>52692.43</v>
       </c>
       <c r="I13">
-        <v>3.57</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J13">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1254,31 +1888,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>220000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-6.7999999999999996E-3</v>
+        <v>21750</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>12.43</v>
+        <v>6.94</v>
       </c>
       <c r="F14">
-        <v>11.52</v>
+        <v>6.53</v>
       </c>
       <c r="G14">
-        <v>11.82</v>
+        <v>6.21</v>
       </c>
       <c r="H14" s="4">
-        <v>411868.79</v>
+        <v>39034.339999999997</v>
       </c>
       <c r="I14">
-        <v>5.45</v>
+        <v>3.91</v>
       </c>
       <c r="J14">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1289,31 +1923,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>131300</v>
+        <v>19830</v>
       </c>
       <c r="D15" s="3">
-        <v>1.47E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="E15">
-        <v>18.96</v>
+        <v>7.03</v>
       </c>
       <c r="F15">
-        <v>19.86</v>
+        <v>6.41</v>
       </c>
       <c r="G15">
-        <v>18.8</v>
+        <v>5.26</v>
       </c>
       <c r="H15" s="4">
-        <v>115980.87</v>
+        <v>38104.980000000003</v>
       </c>
       <c r="I15">
-        <v>5.18</v>
+        <v>4.03</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1324,31 +1958,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>33800</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
+        <v>367500</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.24E-2</v>
       </c>
       <c r="E16">
-        <v>17.420000000000002</v>
+        <v>6.08</v>
       </c>
       <c r="F16">
-        <v>17.22</v>
+        <v>3.12</v>
       </c>
       <c r="G16">
-        <v>15.37</v>
+        <v>3.63</v>
       </c>
       <c r="H16" s="4">
-        <v>50552.95</v>
+        <v>738772.79</v>
       </c>
       <c r="I16">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="J16">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1359,31 +1993,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>71400</v>
+        <v>17710</v>
       </c>
       <c r="D17" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>-1.01E-2</v>
       </c>
       <c r="E17">
-        <v>9.0299999999999994</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F17">
-        <v>6.64</v>
+        <v>1.97</v>
       </c>
       <c r="G17">
-        <v>10.08</v>
+        <v>7.09</v>
       </c>
       <c r="H17" s="4">
-        <v>58114.39</v>
+        <v>9545.25</v>
       </c>
       <c r="I17">
-        <v>2.0299999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J17">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1394,31 +2028,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19120</v>
+        <v>26800</v>
       </c>
       <c r="D18" s="3">
-        <v>1.43E-2</v>
+        <v>-2.7199999999999998E-2</v>
       </c>
       <c r="E18">
-        <v>8.73</v>
+        <v>7.57</v>
       </c>
       <c r="F18">
-        <v>10.35</v>
+        <v>7.03</v>
       </c>
       <c r="G18">
-        <v>6.85</v>
+        <v>4.34</v>
       </c>
       <c r="H18" s="4">
-        <v>23121.599999999999</v>
+        <v>37119.57</v>
       </c>
       <c r="I18">
-        <v>4.97</v>
+        <v>1.23</v>
       </c>
       <c r="J18">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1429,31 +2063,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>17790</v>
+        <v>148400</v>
       </c>
       <c r="D19" s="3">
-        <v>-5.5999999999999999E-3</v>
+        <v>-2.0500000000000001E-2</v>
       </c>
       <c r="E19">
-        <v>7.94</v>
+        <v>12.99</v>
       </c>
       <c r="F19">
-        <v>8.5299999999999994</v>
+        <v>12.99</v>
       </c>
       <c r="G19">
-        <v>5.75</v>
+        <v>17.53</v>
       </c>
       <c r="H19" s="4">
-        <v>17214.37</v>
+        <v>89747.12</v>
       </c>
       <c r="I19">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="J19">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1464,31 +2098,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>186000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>19.78</v>
+        <v>2.25</v>
       </c>
       <c r="F20">
-        <v>13.61</v>
+        <v>9.16</v>
       </c>
       <c r="G20">
-        <v>23.29</v>
+        <v>13.33</v>
       </c>
       <c r="H20" s="4">
-        <v>31476.26</v>
+        <v>494940.49</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0.97</v>
       </c>
       <c r="J20">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1499,31 +2133,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>360500</v>
+        <v>21150</v>
       </c>
       <c r="D21" s="3">
-        <v>1.41E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E21">
-        <v>11.16</v>
+        <v>5.99</v>
       </c>
       <c r="F21">
-        <v>14.75</v>
+        <v>10.42</v>
       </c>
       <c r="G21">
-        <v>3.73</v>
+        <v>12.16</v>
       </c>
       <c r="H21" s="4">
-        <v>169623.88</v>
+        <v>18716.599999999999</v>
       </c>
       <c r="I21">
-        <v>1.41</v>
+        <v>0.95</v>
       </c>
       <c r="J21">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1534,31 +2168,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>121300</v>
+        <v>1438000</v>
       </c>
       <c r="D22" s="3">
-        <v>3.3E-3</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>13.17</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F22">
-        <v>10.220000000000001</v>
+        <v>40.79</v>
       </c>
       <c r="G22">
-        <v>18.010000000000002</v>
+        <v>27.7</v>
       </c>
       <c r="H22" s="4">
-        <v>201114.72</v>
+        <v>131565.21</v>
       </c>
       <c r="I22">
-        <v>4.41</v>
+        <v>0.23</v>
       </c>
       <c r="J22">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K22">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1569,31 +2203,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>891000</v>
+        <v>904000</v>
       </c>
       <c r="D23" s="3">
-        <v>6.83E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E23">
-        <v>53.94</v>
+        <v>5.45</v>
       </c>
       <c r="F23">
-        <v>10.83</v>
+        <v>7.63</v>
       </c>
       <c r="G23">
-        <v>28.78</v>
+        <v>3.82</v>
       </c>
       <c r="H23" s="4">
-        <v>116255.06</v>
+        <v>3792078.51</v>
       </c>
       <c r="I23">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="J23">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1604,31 +2238,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>77400</v>
+        <v>24850</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>10.85</v>
+        <v>13.17</v>
       </c>
       <c r="F24">
-        <v>11.33</v>
+        <v>10.87</v>
       </c>
       <c r="G24">
-        <v>11.06</v>
+        <v>15.53</v>
       </c>
       <c r="H24" s="4">
-        <v>47834.19</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I24">
-        <v>3.49</v>
+        <v>3.02</v>
       </c>
       <c r="J24">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1639,31 +2273,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67100</v>
+        <v>72100</v>
       </c>
       <c r="D25" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>12.89</v>
+        <v>2.16</v>
       </c>
       <c r="F25">
-        <v>13.62</v>
+        <v>8.5</v>
       </c>
       <c r="G25">
-        <v>9.44</v>
+        <v>5.18</v>
       </c>
       <c r="H25" s="4">
-        <v>81376.7</v>
+        <v>174674.22</v>
       </c>
       <c r="I25">
-        <v>5.22</v>
+        <v>4.3</v>
       </c>
       <c r="J25">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="K25">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1674,31 +2308,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
+        <v>40600</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-1.9300000000000001E-2</v>
       </c>
       <c r="E26">
-        <v>10.83</v>
+        <v>1.53</v>
       </c>
       <c r="F26">
-        <v>7.71</v>
+        <v>3.7</v>
       </c>
       <c r="G26">
-        <v>9.48</v>
+        <v>5.27</v>
       </c>
       <c r="H26" s="4">
-        <v>55591.17</v>
+        <v>92510.33</v>
       </c>
       <c r="I26">
-        <v>6.38</v>
+        <v>3.45</v>
       </c>
       <c r="J26">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="K26">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1709,31 +2343,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>79100</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
+        <v>165400</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E27">
-        <v>14.42</v>
+        <v>2.54</v>
       </c>
       <c r="F27">
-        <v>11.9</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G27">
-        <v>15.82</v>
+        <v>6.1</v>
       </c>
       <c r="H27" s="4">
-        <v>32483.7</v>
+        <v>473072.35</v>
       </c>
       <c r="I27">
-        <v>6.95</v>
+        <v>2.72</v>
       </c>
       <c r="J27">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1744,31 +2378,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>147700</v>
+        <v>384000</v>
       </c>
       <c r="D28" s="3">
-        <v>6.7999999999999996E-3</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="E28">
-        <v>8.42</v>
+        <v>6.17</v>
       </c>
       <c r="F28">
-        <v>9.06</v>
+        <v>6.65</v>
       </c>
       <c r="G28">
-        <v>10.29</v>
+        <v>6.2</v>
       </c>
       <c r="H28" s="4">
-        <v>120847.71</v>
+        <v>450815.96</v>
       </c>
       <c r="I28">
-        <v>1.96</v>
+        <v>1.3</v>
       </c>
       <c r="J28">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1779,31 +2413,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>105000</v>
+        <v>62700</v>
       </c>
       <c r="D29" s="3">
-        <v>7.7000000000000002E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E29">
-        <v>19.38</v>
+        <v>12.22</v>
       </c>
       <c r="F29">
-        <v>17.489999999999998</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="G29">
-        <v>20.04</v>
+        <v>8.36</v>
       </c>
       <c r="H29" s="4">
-        <v>43969.66</v>
+        <v>111695.28</v>
       </c>
       <c r="I29">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="J29">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="K29">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1814,31 +2448,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>31600</v>
+        <v>69200</v>
       </c>
       <c r="D30" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="E30">
-        <v>13.16</v>
+        <v>15.14</v>
       </c>
       <c r="F30">
-        <v>16.53</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G30">
-        <v>13.29</v>
+        <v>11.28</v>
       </c>
       <c r="H30" s="4">
-        <v>70038.45</v>
+        <v>77961.67</v>
       </c>
       <c r="I30">
-        <v>4.43</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J30">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1849,31 +2483,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19160</v>
+        <v>15060</v>
       </c>
       <c r="D31" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>8.06</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F31">
-        <v>9.52</v>
+        <v>1.2</v>
       </c>
       <c r="G31">
-        <v>8.77</v>
+        <v>0.08</v>
       </c>
       <c r="H31" s="4">
-        <v>42663.82</v>
+        <v>19840.59</v>
       </c>
       <c r="I31">
-        <v>5.56</v>
+        <v>3.32</v>
       </c>
       <c r="J31">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1884,31 +2518,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>50300</v>
+        <v>29750</v>
       </c>
       <c r="D32" s="3">
-        <v>1.11E-2</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="F32">
-        <v>8.75</v>
+        <v>14.85</v>
       </c>
       <c r="G32">
-        <v>7.9</v>
+        <v>19.88</v>
       </c>
       <c r="H32" s="4">
-        <v>75767.48</v>
+        <v>19885.900000000001</v>
       </c>
       <c r="I32">
-        <v>5.57</v>
+        <v>0.67</v>
       </c>
       <c r="J32">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1919,31 +2553,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19570</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
+        <v>120000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>15.12</v>
+        <v>3.99</v>
       </c>
       <c r="F33">
-        <v>7.98</v>
+        <v>4.26</v>
       </c>
       <c r="G33">
-        <v>15.58</v>
+        <v>8.24</v>
       </c>
       <c r="H33" s="4">
-        <v>14481.01</v>
+        <v>147945.78</v>
       </c>
       <c r="I33">
-        <v>6.29</v>
+        <v>2.83</v>
       </c>
       <c r="J33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K33">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1954,31 +2588,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>55000</v>
+        <v>220000</v>
       </c>
       <c r="D34" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="E34">
-        <v>2.85</v>
+        <v>12.43</v>
       </c>
       <c r="F34">
-        <v>13.16</v>
+        <v>11.52</v>
       </c>
       <c r="G34">
-        <v>5.63</v>
+        <v>11.82</v>
       </c>
       <c r="H34" s="4">
-        <v>66926.62</v>
+        <v>411868.79</v>
       </c>
       <c r="I34">
-        <v>3.64</v>
+        <v>5.45</v>
       </c>
       <c r="J34">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1989,31 +2623,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14960</v>
+        <v>300000</v>
       </c>
       <c r="D35" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>7.75</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G35">
-        <v>6.75</v>
+        <v>3.76</v>
       </c>
       <c r="H35" s="4">
-        <v>19799.21</v>
+        <v>701236.07</v>
       </c>
       <c r="I35">
-        <v>4.34</v>
+        <v>3.33</v>
       </c>
       <c r="J35">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2024,31 +2658,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>139400</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
+        <v>131300</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.47E-2</v>
       </c>
       <c r="E36">
-        <v>5.76</v>
+        <v>18.96</v>
       </c>
       <c r="F36">
-        <v>8.44</v>
+        <v>19.86</v>
       </c>
       <c r="G36">
-        <v>5.33</v>
+        <v>18.8</v>
       </c>
       <c r="H36" s="4">
-        <v>158106.71</v>
+        <v>115980.87</v>
       </c>
       <c r="I36">
-        <v>3.23</v>
+        <v>5.18</v>
       </c>
       <c r="J36">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2059,31 +2693,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>136900</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-1.5E-3</v>
+        <v>33800</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>12.66</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F37">
-        <v>11.17</v>
+        <v>17.22</v>
       </c>
       <c r="G37">
-        <v>11.14</v>
+        <v>15.37</v>
       </c>
       <c r="H37" s="4">
-        <v>81115.86</v>
+        <v>50552.95</v>
       </c>
       <c r="I37">
-        <v>3.94</v>
+        <v>3.55</v>
       </c>
       <c r="J37">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2094,31 +2728,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>17990</v>
+        <v>71400</v>
       </c>
       <c r="D38" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>12.08</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F38">
-        <v>7.85</v>
+        <v>6.64</v>
       </c>
       <c r="G38">
-        <v>8.39</v>
+        <v>10.08</v>
       </c>
       <c r="H38" s="4">
-        <v>18381.900000000001</v>
+        <v>58114.39</v>
       </c>
       <c r="I38">
-        <v>6.5</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J38">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2129,31 +2763,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>40200</v>
+        <v>19120</v>
       </c>
       <c r="D39" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.43E-2</v>
       </c>
       <c r="E39">
-        <v>11.21</v>
+        <v>8.73</v>
       </c>
       <c r="F39">
-        <v>13.43</v>
+        <v>10.35</v>
       </c>
       <c r="G39">
-        <v>6.4</v>
+        <v>6.85</v>
       </c>
       <c r="H39" s="4">
-        <v>121076.78</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I39">
-        <v>3.62</v>
+        <v>4.97</v>
       </c>
       <c r="J39">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2164,31 +2798,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>199200</v>
+        <v>42700</v>
       </c>
       <c r="D40" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>-1.95E-2</v>
       </c>
       <c r="E40">
-        <v>15.98</v>
+        <v>2.74</v>
       </c>
       <c r="F40">
-        <v>18.79</v>
+        <v>9.32</v>
       </c>
       <c r="G40">
-        <v>12.25</v>
+        <v>6.63</v>
       </c>
       <c r="H40" s="4">
-        <v>224185.76</v>
+        <v>71192.42</v>
       </c>
       <c r="I40">
-        <v>3.77</v>
+        <v>2.58</v>
       </c>
       <c r="J40">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2199,31 +2833,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>51200</v>
+        <v>160400</v>
       </c>
       <c r="D41" s="3">
-        <v>-2.4799999999999999E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="E41">
-        <v>13.26</v>
+        <v>5.09</v>
       </c>
       <c r="F41">
-        <v>9.59</v>
+        <v>7.34</v>
       </c>
       <c r="G41">
-        <v>11.65</v>
+        <v>11.63</v>
       </c>
       <c r="H41" s="4">
-        <v>28057.11</v>
+        <v>154845.78</v>
       </c>
       <c r="I41">
-        <v>4.82</v>
+        <v>1.03</v>
       </c>
       <c r="J41">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2234,31 +2868,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>99900</v>
+        <v>17790</v>
       </c>
       <c r="D42" s="3">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>10.4</v>
+        <v>7.94</v>
       </c>
       <c r="F42">
-        <v>44.75</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G42">
-        <v>6.6</v>
+        <v>5.75</v>
       </c>
       <c r="H42" s="4">
-        <v>15982.9</v>
+        <v>17214.37</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="J42">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2269,31 +2903,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>66700</v>
+        <v>16430</v>
       </c>
       <c r="D43" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>-1.38E-2</v>
       </c>
       <c r="E43">
-        <v>8.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F43">
-        <v>10.55</v>
+        <v>1.38</v>
       </c>
       <c r="G43">
-        <v>8.66</v>
+        <v>0.5</v>
       </c>
       <c r="H43" s="4">
-        <v>113903.42</v>
+        <v>38420.68</v>
       </c>
       <c r="I43">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="J43">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="K43">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2304,31 +2938,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>127200</v>
+        <v>382500</v>
       </c>
       <c r="D44" s="3">
-        <v>1.52E-2</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E44">
-        <v>11.54</v>
+        <v>6.85</v>
       </c>
       <c r="F44">
-        <v>18.760000000000002</v>
+        <v>6.33</v>
       </c>
       <c r="G44">
-        <v>9.6</v>
+        <v>10.64</v>
       </c>
       <c r="H44" s="4">
-        <v>161615.43</v>
+        <v>596350.81000000006</v>
       </c>
       <c r="I44">
-        <v>3.13</v>
+        <v>2.35</v>
       </c>
       <c r="J44">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="K44">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2339,31 +2973,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>44100</v>
+        <v>25000</v>
       </c>
       <c r="D45" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>4.12</v>
+        <v>19.78</v>
       </c>
       <c r="F45">
-        <v>3.45</v>
+        <v>13.61</v>
       </c>
       <c r="G45">
-        <v>11.01</v>
+        <v>23.29</v>
       </c>
       <c r="H45" s="4">
-        <v>148026.10999999999</v>
+        <v>31476.26</v>
       </c>
       <c r="I45">
-        <v>6.12</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2374,31 +3008,31 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>169100</v>
+        <v>40950</v>
       </c>
       <c r="D46" s="3">
-        <v>-1.6899999999999998E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="E46">
-        <v>13.24</v>
+        <v>7.3</v>
       </c>
       <c r="F46">
-        <v>17.97</v>
+        <v>11.86</v>
       </c>
       <c r="G46">
-        <v>15.51</v>
+        <v>10.77</v>
       </c>
       <c r="H46" s="4">
-        <v>119232.22</v>
+        <v>12631</v>
       </c>
       <c r="I46">
-        <v>2.19</v>
+        <v>0.73</v>
       </c>
       <c r="J46">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K46">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2409,31 +3043,31 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>82300</v>
+        <v>154700</v>
       </c>
       <c r="D47" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E47">
-        <v>9.11</v>
+        <v>8.16</v>
       </c>
       <c r="F47">
-        <v>10.47</v>
+        <v>6.08</v>
       </c>
       <c r="G47">
-        <v>9.4</v>
+        <v>9.14</v>
       </c>
       <c r="H47" s="4">
-        <v>153124.29</v>
+        <v>115453.7</v>
       </c>
       <c r="I47">
-        <v>4.37</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J47">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2444,31 +3078,31 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>230000</v>
+        <v>41850</v>
       </c>
       <c r="D48" s="3">
-        <v>6.6E-3</v>
+        <v>-4.7800000000000002E-2</v>
       </c>
       <c r="E48">
-        <v>1.97</v>
+        <v>43.59</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>22.49</v>
       </c>
       <c r="G48">
-        <v>5.59</v>
+        <v>4.82</v>
       </c>
       <c r="H48" s="4">
-        <v>484489.5</v>
+        <v>28103.97</v>
       </c>
       <c r="I48">
-        <v>2.61</v>
+        <v>20.38</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2479,31 +3113,31 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>108400</v>
+        <v>75000</v>
       </c>
       <c r="D49" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="E49">
-        <v>8.86</v>
+        <v>19.43</v>
       </c>
       <c r="F49">
-        <v>11.69</v>
+        <v>21.29</v>
       </c>
       <c r="G49">
-        <v>8.51</v>
+        <v>15.2</v>
       </c>
       <c r="H49" s="4">
-        <v>152301.9</v>
+        <v>49563.94</v>
       </c>
       <c r="I49">
-        <v>2.93</v>
+        <v>0.87</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K49">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2514,31 +3148,31 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>56600</v>
+        <v>360500</v>
       </c>
       <c r="D50" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E50">
-        <v>12.32</v>
+        <v>11.16</v>
       </c>
       <c r="F50">
-        <v>9.67</v>
+        <v>14.75</v>
       </c>
       <c r="G50">
-        <v>18.72</v>
+        <v>3.73</v>
       </c>
       <c r="H50" s="4">
-        <v>84441.54</v>
+        <v>169623.88</v>
       </c>
       <c r="I50">
-        <v>2.4700000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="J50">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2549,31 +3183,31 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>129000</v>
+        <v>121300</v>
       </c>
       <c r="D51" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E51">
-        <v>23.44</v>
+        <v>13.17</v>
       </c>
       <c r="F51">
-        <v>24.59</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G51">
-        <v>27.89</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H51" s="4">
-        <v>55646.89</v>
+        <v>201114.72</v>
       </c>
       <c r="I51">
-        <v>1.05</v>
+        <v>4.41</v>
       </c>
       <c r="J51">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2584,31 +3218,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>14330</v>
+        <v>281500</v>
       </c>
       <c r="D52" s="3">
-        <v>-1.4E-3</v>
+        <v>6.83E-2</v>
       </c>
       <c r="E52">
-        <v>6.96</v>
+        <v>13.44</v>
       </c>
       <c r="F52">
-        <v>6.28</v>
+        <v>15.22</v>
       </c>
       <c r="G52">
-        <v>7.18</v>
+        <v>10.67</v>
       </c>
       <c r="H52" s="4">
-        <v>33008.75</v>
+        <v>61485.71</v>
       </c>
       <c r="I52">
-        <v>4.54</v>
+        <v>1.03</v>
       </c>
       <c r="J52">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2619,31 +3253,31 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>13930</v>
+        <v>811000</v>
       </c>
       <c r="D53" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>2.92E-2</v>
       </c>
       <c r="E53">
-        <v>3.6</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F53">
-        <v>10.34</v>
+        <v>8.83</v>
       </c>
       <c r="G53">
-        <v>5.91</v>
+        <v>5.79</v>
       </c>
       <c r="H53" s="4">
-        <v>35883.14</v>
+        <v>457097.14</v>
       </c>
       <c r="I53">
-        <v>3.59</v>
+        <v>2.16</v>
       </c>
       <c r="J53">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K53">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2654,31 +3288,31 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>40100</v>
+        <v>158700</v>
       </c>
       <c r="D54" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E54">
-        <v>10.79</v>
+        <v>8.92</v>
       </c>
       <c r="F54">
-        <v>11.5</v>
+        <v>2.9</v>
       </c>
       <c r="G54">
-        <v>8.93</v>
+        <v>15.79</v>
       </c>
       <c r="H54" s="4">
-        <v>90358.17</v>
+        <v>222886.92</v>
       </c>
       <c r="I54">
-        <v>4.99</v>
+        <v>1.32</v>
       </c>
       <c r="J54">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K54">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2689,31 +3323,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>22750</v>
-      </c>
-      <c r="D55" s="3">
-        <v>-1.09E-2</v>
+        <v>22600</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>12.8</v>
+        <v>15.35</v>
       </c>
       <c r="F55">
-        <v>11.61</v>
+        <v>8.93</v>
       </c>
       <c r="G55">
-        <v>12.93</v>
+        <v>28.31</v>
       </c>
       <c r="H55" s="4">
-        <v>29151.87</v>
+        <v>25749.07</v>
       </c>
       <c r="I55">
-        <v>4.37</v>
+        <v>2.65</v>
       </c>
       <c r="J55">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="K55">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2724,31 +3358,31 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>18620</v>
+        <v>50600</v>
       </c>
       <c r="D56" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E56">
-        <v>10.48</v>
+        <v>3.45</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>6.05</v>
       </c>
       <c r="G56">
-        <v>10.17</v>
+        <v>2.72</v>
       </c>
       <c r="H56" s="4">
-        <v>24686.55</v>
+        <v>134393.74</v>
       </c>
       <c r="I56">
-        <v>6.31</v>
+        <v>2.17</v>
       </c>
       <c r="J56">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2759,31 +3393,31 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>490000</v>
+        <v>110000</v>
       </c>
       <c r="D57" s="3">
-        <v>6.8699999999999997E-2</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="E57">
-        <v>39.340000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="F57">
-        <v>41.01</v>
+        <v>8.24</v>
       </c>
       <c r="G57">
-        <v>29.72</v>
+        <v>10.87</v>
       </c>
       <c r="H57" s="4">
-        <v>42149.47</v>
+        <v>207745.28</v>
       </c>
       <c r="I57">
-        <v>1.0900000000000001</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="K57">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2794,31 +3428,3741 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
+        <v>299500</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E58">
+        <v>9.35</v>
+      </c>
+      <c r="F58">
+        <v>8.9</v>
+      </c>
+      <c r="G58">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H58" s="4">
+        <v>509344.58</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>51</v>
+      </c>
+      <c r="K58">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>891000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6.83E-2</v>
+      </c>
+      <c r="E59">
+        <v>53.94</v>
+      </c>
+      <c r="F59">
+        <v>10.83</v>
+      </c>
+      <c r="G59">
+        <v>28.78</v>
+      </c>
+      <c r="H59" s="4">
+        <v>116255.06</v>
+      </c>
+      <c r="I59">
+        <v>0.39</v>
+      </c>
+      <c r="J59">
+        <v>86</v>
+      </c>
+      <c r="K59">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>20150</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="E60">
+        <v>5.65</v>
+      </c>
+      <c r="F60">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G60">
+        <v>3.33</v>
+      </c>
+      <c r="H60" s="4">
+        <v>48692.32</v>
+      </c>
+      <c r="I60">
+        <v>1.74</v>
+      </c>
+      <c r="J60">
+        <v>74</v>
+      </c>
+      <c r="K60">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>77400</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="E61">
+        <v>10.85</v>
+      </c>
+      <c r="F61">
+        <v>11.33</v>
+      </c>
+      <c r="G61">
+        <v>11.06</v>
+      </c>
+      <c r="H61" s="4">
+        <v>47834.19</v>
+      </c>
+      <c r="I61">
+        <v>3.49</v>
+      </c>
+      <c r="J61">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>167100</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>13.48</v>
+      </c>
+      <c r="F62">
+        <v>14.82</v>
+      </c>
+      <c r="G62">
+        <v>15.98</v>
+      </c>
+      <c r="H62" s="4">
+        <v>90006.399999999994</v>
+      </c>
+      <c r="I62">
+        <v>1.26</v>
+      </c>
+      <c r="J62">
+        <v>26</v>
+      </c>
+      <c r="K62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>29500</v>
+      </c>
+      <c r="D63" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E63">
+        <v>9.01</v>
+      </c>
+      <c r="F63">
+        <v>6.32</v>
+      </c>
+      <c r="G63">
+        <v>9.32</v>
+      </c>
+      <c r="H63" s="4">
+        <v>28565.41</v>
+      </c>
+      <c r="I63">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J63">
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>67100</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E64">
+        <v>12.89</v>
+      </c>
+      <c r="F64">
+        <v>13.62</v>
+      </c>
+      <c r="G64">
+        <v>9.44</v>
+      </c>
+      <c r="H64" s="4">
+        <v>81376.7</v>
+      </c>
+      <c r="I64">
+        <v>5.22</v>
+      </c>
+      <c r="J64">
+        <v>73</v>
+      </c>
+      <c r="K64">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>55500</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>10.83</v>
+      </c>
+      <c r="F65">
+        <v>7.71</v>
+      </c>
+      <c r="G65">
+        <v>9.48</v>
+      </c>
+      <c r="H65" s="4">
+        <v>55591.17</v>
+      </c>
+      <c r="I65">
+        <v>6.38</v>
+      </c>
+      <c r="J65">
+        <v>71</v>
+      </c>
+      <c r="K65">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>79100</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>14.42</v>
+      </c>
+      <c r="F66">
+        <v>11.9</v>
+      </c>
+      <c r="G66">
+        <v>15.82</v>
+      </c>
+      <c r="H66" s="4">
+        <v>32483.7</v>
+      </c>
+      <c r="I66">
+        <v>6.95</v>
+      </c>
+      <c r="J66">
+        <v>82</v>
+      </c>
+      <c r="K66">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>30050</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E67">
+        <v>4.38</v>
+      </c>
+      <c r="F67">
+        <v>20.49</v>
+      </c>
+      <c r="G67">
+        <v>2.12</v>
+      </c>
+      <c r="H67" s="4">
+        <v>10485.26</v>
+      </c>
+      <c r="I67">
+        <v>0.43</v>
+      </c>
+      <c r="J67">
+        <v>88</v>
+      </c>
+      <c r="K67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>147700</v>
+      </c>
+      <c r="D68" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E68">
+        <v>8.42</v>
+      </c>
+      <c r="F68">
+        <v>9.06</v>
+      </c>
+      <c r="G68">
+        <v>10.29</v>
+      </c>
+      <c r="H68" s="4">
+        <v>120847.71</v>
+      </c>
+      <c r="I68">
+        <v>1.96</v>
+      </c>
+      <c r="J68">
+        <v>32</v>
+      </c>
+      <c r="K68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>241000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E69">
+        <v>6.74</v>
+      </c>
+      <c r="F69">
+        <v>10.02</v>
+      </c>
+      <c r="G69">
+        <v>10.37</v>
+      </c>
+      <c r="H69" s="4">
+        <v>304848.84999999998</v>
+      </c>
+      <c r="I69">
+        <v>3.32</v>
+      </c>
+      <c r="J69">
+        <v>72</v>
+      </c>
+      <c r="K69">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>105000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E70">
+        <v>19.38</v>
+      </c>
+      <c r="F70">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G70">
+        <v>20.04</v>
+      </c>
+      <c r="H70" s="4">
+        <v>43969.66</v>
+      </c>
+      <c r="I70">
+        <v>2.5</v>
+      </c>
+      <c r="J70">
+        <v>87</v>
+      </c>
+      <c r="K70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>23250</v>
+      </c>
+      <c r="D71" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E71">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F71">
+        <v>13.31</v>
+      </c>
+      <c r="G71">
+        <v>16.95</v>
+      </c>
+      <c r="H71" s="4">
+        <v>3631.16</v>
+      </c>
+      <c r="I71">
+        <v>0.54</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>19160</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="E72">
+        <v>8.06</v>
+      </c>
+      <c r="F72">
+        <v>9.52</v>
+      </c>
+      <c r="G72">
+        <v>8.77</v>
+      </c>
+      <c r="H72" s="4">
+        <v>42663.82</v>
+      </c>
+      <c r="I72">
+        <v>5.56</v>
+      </c>
+      <c r="J72">
+        <v>78</v>
+      </c>
+      <c r="K72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>27200</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="E73">
+        <v>9.52</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H73" s="4">
+        <v>16999.45</v>
+      </c>
+      <c r="I73">
+        <v>3.27</v>
+      </c>
+      <c r="J73">
+        <v>39</v>
+      </c>
+      <c r="K73">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>28550</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E74">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F74">
+        <v>14.14</v>
+      </c>
+      <c r="G74">
+        <v>24.14</v>
+      </c>
+      <c r="H74" s="4">
+        <v>21889.49</v>
+      </c>
+      <c r="I74">
+        <v>2.31</v>
+      </c>
+      <c r="J74">
+        <v>67</v>
+      </c>
+      <c r="K74">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2">
+        <v>167200</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E75">
+        <v>6.83</v>
+      </c>
+      <c r="F75">
+        <v>6.62</v>
+      </c>
+      <c r="G75">
+        <v>7.09</v>
+      </c>
+      <c r="H75" s="4">
+        <v>205138.29</v>
+      </c>
+      <c r="I75">
+        <v>1.56</v>
+      </c>
+      <c r="J75">
+        <v>76</v>
+      </c>
+      <c r="K75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4005</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="E76">
+        <v>5.17</v>
+      </c>
+      <c r="F76">
+        <v>7.1</v>
+      </c>
+      <c r="G76">
+        <v>9.08</v>
+      </c>
+      <c r="H76" s="4">
+        <v>9942.2800000000007</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>50300</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>8.75</v>
+      </c>
+      <c r="G77">
+        <v>7.9</v>
+      </c>
+      <c r="H77" s="4">
+        <v>75767.48</v>
+      </c>
+      <c r="I77">
+        <v>5.57</v>
+      </c>
+      <c r="J77">
+        <v>71</v>
+      </c>
+      <c r="K77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>19570</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>15.12</v>
+      </c>
+      <c r="F78">
+        <v>7.98</v>
+      </c>
+      <c r="G78">
+        <v>15.58</v>
+      </c>
+      <c r="H78" s="4">
+        <v>14481.01</v>
+      </c>
+      <c r="I78">
+        <v>6.29</v>
+      </c>
+      <c r="J78">
+        <v>31</v>
+      </c>
+      <c r="K78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>15990</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="E79">
+        <v>19.48</v>
+      </c>
+      <c r="F79">
+        <v>19.66</v>
+      </c>
+      <c r="G79">
+        <v>17.21</v>
+      </c>
+      <c r="H79" s="4">
+        <v>7311.99</v>
+      </c>
+      <c r="I79">
+        <v>2.88</v>
+      </c>
+      <c r="J79">
+        <v>36</v>
+      </c>
+      <c r="K79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="E80">
+        <v>2.85</v>
+      </c>
+      <c r="F80">
+        <v>13.16</v>
+      </c>
+      <c r="G80">
+        <v>5.63</v>
+      </c>
+      <c r="H80" s="4">
+        <v>66926.62</v>
+      </c>
+      <c r="I80">
+        <v>3.64</v>
+      </c>
+      <c r="J80">
+        <v>89</v>
+      </c>
+      <c r="K80">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2">
+        <v>31150</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E81">
+        <v>24.8</v>
+      </c>
+      <c r="F81">
+        <v>14.49</v>
+      </c>
+      <c r="G81">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="H81" s="4">
+        <v>20020.86</v>
+      </c>
+      <c r="I81">
+        <v>2.25</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2">
+        <v>14960</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="E82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F82">
+        <v>7.75</v>
+      </c>
+      <c r="G82">
+        <v>6.75</v>
+      </c>
+      <c r="H82" s="4">
+        <v>19799.21</v>
+      </c>
+      <c r="I82">
+        <v>4.34</v>
+      </c>
+      <c r="J82">
+        <v>81</v>
+      </c>
+      <c r="K82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>139400</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>5.76</v>
+      </c>
+      <c r="F83">
+        <v>8.44</v>
+      </c>
+      <c r="G83">
+        <v>5.33</v>
+      </c>
+      <c r="H83" s="4">
+        <v>158106.71</v>
+      </c>
+      <c r="I83">
+        <v>3.23</v>
+      </c>
+      <c r="J83">
+        <v>92</v>
+      </c>
+      <c r="K83">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>34950</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E84">
+        <v>49.72</v>
+      </c>
+      <c r="F84">
+        <v>29.33</v>
+      </c>
+      <c r="G84">
+        <v>42.19</v>
+      </c>
+      <c r="H84" s="4">
+        <v>13104.16</v>
+      </c>
+      <c r="I84">
+        <v>2.86</v>
+      </c>
+      <c r="J84">
+        <v>32</v>
+      </c>
+      <c r="K84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2">
+        <v>136900</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="E85">
+        <v>12.66</v>
+      </c>
+      <c r="F85">
+        <v>11.17</v>
+      </c>
+      <c r="G85">
+        <v>11.14</v>
+      </c>
+      <c r="H85" s="4">
+        <v>81115.86</v>
+      </c>
+      <c r="I85">
+        <v>3.94</v>
+      </c>
+      <c r="J85">
+        <v>83</v>
+      </c>
+      <c r="K85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2">
+        <v>17990</v>
+      </c>
+      <c r="D86" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E86">
+        <v>12.08</v>
+      </c>
+      <c r="F86">
+        <v>7.85</v>
+      </c>
+      <c r="G86">
+        <v>8.39</v>
+      </c>
+      <c r="H86" s="4">
+        <v>18381.900000000001</v>
+      </c>
+      <c r="I86">
+        <v>6.5</v>
+      </c>
+      <c r="J86">
+        <v>29</v>
+      </c>
+      <c r="K86">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>222000</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="E87">
+        <v>7.9</v>
+      </c>
+      <c r="F87">
+        <v>6.55</v>
+      </c>
+      <c r="G87">
+        <v>5.2</v>
+      </c>
+      <c r="H87" s="4">
+        <v>172550.7</v>
+      </c>
+      <c r="I87">
+        <v>0.51</v>
+      </c>
+      <c r="J87">
+        <v>23</v>
+      </c>
+      <c r="K87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2">
+        <v>63600</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="E88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F88">
+        <v>6.7</v>
+      </c>
+      <c r="G88">
+        <v>1.31</v>
+      </c>
+      <c r="H88" s="4">
+        <v>23415.79</v>
+      </c>
+      <c r="I88">
+        <v>0.11</v>
+      </c>
+      <c r="J88">
+        <v>22</v>
+      </c>
+      <c r="K88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>77000</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+      <c r="E89">
+        <v>22.41</v>
+      </c>
+      <c r="F89">
+        <v>54.89</v>
+      </c>
+      <c r="G89">
+        <v>25.82</v>
+      </c>
+      <c r="H89" s="4">
+        <v>15316.08</v>
+      </c>
+      <c r="I89">
+        <v>0.69</v>
+      </c>
+      <c r="J89">
+        <v>40</v>
+      </c>
+      <c r="K89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="2">
+        <v>40200</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E90">
+        <v>11.21</v>
+      </c>
+      <c r="F90">
+        <v>13.43</v>
+      </c>
+      <c r="G90">
+        <v>6.4</v>
+      </c>
+      <c r="H90" s="4">
+        <v>121076.78</v>
+      </c>
+      <c r="I90">
+        <v>3.62</v>
+      </c>
+      <c r="J90">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2">
+        <v>197300</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E91">
+        <v>2.99</v>
+      </c>
+      <c r="F91">
+        <v>4.97</v>
+      </c>
+      <c r="G91">
+        <v>7.77</v>
+      </c>
+      <c r="H91" s="4">
+        <v>170798.55</v>
+      </c>
+      <c r="I91">
+        <v>0.74</v>
+      </c>
+      <c r="J91">
+        <v>7</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2">
+        <v>26500</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E92">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="F92">
+        <v>19.32</v>
+      </c>
+      <c r="G92">
+        <v>17.14</v>
+      </c>
+      <c r="H92" s="4">
+        <v>13347.02</v>
+      </c>
+      <c r="I92">
+        <v>1.08</v>
+      </c>
+      <c r="J92">
+        <v>54</v>
+      </c>
+      <c r="K92">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2">
+        <v>52900</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="E93">
+        <v>47.19</v>
+      </c>
+      <c r="F93">
+        <v>24.19</v>
+      </c>
+      <c r="G93">
+        <v>5.07</v>
+      </c>
+      <c r="H93" s="4">
+        <v>10229.18</v>
+      </c>
+      <c r="I93">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J93">
+        <v>31</v>
+      </c>
+      <c r="K93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2">
+        <v>199200</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="E94">
+        <v>15.98</v>
+      </c>
+      <c r="F94">
+        <v>18.79</v>
+      </c>
+      <c r="G94">
+        <v>12.25</v>
+      </c>
+      <c r="H94" s="4">
+        <v>224185.76</v>
+      </c>
+      <c r="I94">
+        <v>3.77</v>
+      </c>
+      <c r="J94">
+        <v>74</v>
+      </c>
+      <c r="K94">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2">
+        <v>14370</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E95">
+        <v>5.91</v>
+      </c>
+      <c r="F95">
+        <v>7.15</v>
+      </c>
+      <c r="G95">
+        <v>11.52</v>
+      </c>
+      <c r="H95" s="4">
+        <v>10081.620000000001</v>
+      </c>
+      <c r="I95">
+        <v>0.49</v>
+      </c>
+      <c r="J95">
+        <v>75</v>
+      </c>
+      <c r="K95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="2">
+        <v>86800</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="E96">
+        <v>27.43</v>
+      </c>
+      <c r="F96">
+        <v>41.22</v>
+      </c>
+      <c r="G96">
+        <v>36</v>
+      </c>
+      <c r="H96" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I96">
+        <v>0.83</v>
+      </c>
+      <c r="J96">
+        <v>43</v>
+      </c>
+      <c r="K96">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>49000</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>8.14</v>
+      </c>
+      <c r="F97">
+        <v>12.3</v>
+      </c>
+      <c r="G97">
+        <v>12.43</v>
+      </c>
+      <c r="H97" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I97">
+        <v>3.16</v>
+      </c>
+      <c r="J97">
+        <v>43</v>
+      </c>
+      <c r="K97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="2">
+        <v>92400</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E98">
+        <v>10.42</v>
+      </c>
+      <c r="F98">
+        <v>10.02</v>
+      </c>
+      <c r="G98">
+        <v>11.34</v>
+      </c>
+      <c r="H98" s="4">
+        <v>17885.689999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.54</v>
+      </c>
+      <c r="J98">
+        <v>85</v>
+      </c>
+      <c r="K98">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="E99">
+        <v>13.26</v>
+      </c>
+      <c r="F99">
+        <v>9.59</v>
+      </c>
+      <c r="G99">
+        <v>11.65</v>
+      </c>
+      <c r="H99" s="4">
+        <v>28057.11</v>
+      </c>
+      <c r="I99">
+        <v>4.82</v>
+      </c>
+      <c r="J99">
+        <v>63</v>
+      </c>
+      <c r="K99">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="E100">
+        <v>3.44</v>
+      </c>
+      <c r="F100">
+        <v>7.02</v>
+      </c>
+      <c r="G100">
+        <v>3.5</v>
+      </c>
+      <c r="H100" s="4">
+        <v>321747.28999999998</v>
+      </c>
+      <c r="I100">
+        <v>1.17</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2">
+        <v>99900</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E101">
+        <v>10.4</v>
+      </c>
+      <c r="F101">
+        <v>44.75</v>
+      </c>
+      <c r="G101">
+        <v>6.6</v>
+      </c>
+      <c r="H101" s="4">
+        <v>15982.9</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>79</v>
+      </c>
+      <c r="K101">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2">
+        <v>66700</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="E102">
+        <v>8.11</v>
+      </c>
+      <c r="F102">
+        <v>10.55</v>
+      </c>
+      <c r="G102">
+        <v>8.66</v>
+      </c>
+      <c r="H102" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I102">
+        <v>3.24</v>
+      </c>
+      <c r="J102">
+        <v>85</v>
+      </c>
+      <c r="K102">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44950</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E103">
+        <v>19.2</v>
+      </c>
+      <c r="F103">
+        <v>22.19</v>
+      </c>
+      <c r="G103">
+        <v>21.81</v>
+      </c>
+      <c r="H103" s="4">
+        <v>8528.24</v>
+      </c>
+      <c r="I103">
+        <v>1.33</v>
+      </c>
+      <c r="J103">
+        <v>58</v>
+      </c>
+      <c r="K103">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2">
+        <v>181000</v>
+      </c>
+      <c r="D104" s="3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E104">
+        <v>21.85</v>
+      </c>
+      <c r="F104">
+        <v>29.41</v>
+      </c>
+      <c r="G104">
+        <v>15.32</v>
+      </c>
+      <c r="H104" s="4">
+        <v>24748.62</v>
+      </c>
+      <c r="I104">
+        <v>0.11</v>
+      </c>
+      <c r="J104">
+        <v>81</v>
+      </c>
+      <c r="K104">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="2">
+        <v>108300</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+      <c r="E105">
+        <v>14.78</v>
+      </c>
+      <c r="F105">
+        <v>15.24</v>
+      </c>
+      <c r="G105">
+        <v>17.88</v>
+      </c>
+      <c r="H105" s="4">
+        <v>44480.68</v>
+      </c>
+      <c r="I105">
+        <v>1.3</v>
+      </c>
+      <c r="J105">
+        <v>23</v>
+      </c>
+      <c r="K105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="2">
+        <v>75300</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="E106">
+        <v>1.81</v>
+      </c>
+      <c r="F106">
+        <v>14.87</v>
+      </c>
+      <c r="G106">
+        <v>4.04</v>
+      </c>
+      <c r="H106" s="4">
+        <v>121832.79</v>
+      </c>
+      <c r="I106">
+        <v>1.33</v>
+      </c>
+      <c r="J106">
+        <v>9</v>
+      </c>
+      <c r="K106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>79000</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E107">
+        <v>30.21</v>
+      </c>
+      <c r="F107">
+        <v>27.79</v>
+      </c>
+      <c r="G107">
+        <v>28.25</v>
+      </c>
+      <c r="H107" s="4">
+        <v>38455.24</v>
+      </c>
+      <c r="I107">
+        <v>1.9</v>
+      </c>
+      <c r="J107">
+        <v>14</v>
+      </c>
+      <c r="K107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2">
+        <v>173800</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E108">
+        <v>2.46</v>
+      </c>
+      <c r="F108">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G108">
+        <v>6.96</v>
+      </c>
+      <c r="H108" s="4">
+        <v>81251.899999999994</v>
+      </c>
+      <c r="I108">
+        <v>0.43</v>
+      </c>
+      <c r="J108">
+        <v>24</v>
+      </c>
+      <c r="K108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2">
+        <v>53000</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E109">
+        <v>5.68</v>
+      </c>
+      <c r="F109">
+        <v>7.33</v>
+      </c>
+      <c r="G109">
+        <v>6.34</v>
+      </c>
+      <c r="H109" s="4">
+        <v>9756.76</v>
+      </c>
+      <c r="I109">
+        <v>0.05</v>
+      </c>
+      <c r="J109">
+        <v>5</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="2">
+        <v>17300</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E110">
+        <v>9.09</v>
+      </c>
+      <c r="F110">
+        <v>6.72</v>
+      </c>
+      <c r="G110">
+        <v>12.5</v>
+      </c>
+      <c r="H110" s="4">
+        <v>21975.55</v>
+      </c>
+      <c r="I110">
+        <v>5.78</v>
+      </c>
+      <c r="J110">
+        <v>19</v>
+      </c>
+      <c r="K110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="2">
+        <v>134000</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>3.17</v>
+      </c>
+      <c r="F111">
+        <v>10.95</v>
+      </c>
+      <c r="G111">
+        <v>9.35</v>
+      </c>
+      <c r="H111" s="4">
+        <v>69657.210000000006</v>
+      </c>
+      <c r="I111">
+        <v>0.45</v>
+      </c>
+      <c r="J111">
+        <v>23</v>
+      </c>
+      <c r="K111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="2">
+        <v>127200</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E112">
+        <v>11.54</v>
+      </c>
+      <c r="F112">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G112">
+        <v>9.6</v>
+      </c>
+      <c r="H112" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I112">
+        <v>3.13</v>
+      </c>
+      <c r="J112">
+        <v>69</v>
+      </c>
+      <c r="K112">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="2">
+        <v>78600</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E113">
+        <v>9.65</v>
+      </c>
+      <c r="F113">
+        <v>18.07</v>
+      </c>
+      <c r="G113">
+        <v>3.24</v>
+      </c>
+      <c r="H113" s="4">
+        <v>209327.89</v>
+      </c>
+      <c r="I113">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J113">
+        <v>77</v>
+      </c>
+      <c r="K113">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44100</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E114">
+        <v>4.12</v>
+      </c>
+      <c r="F114">
+        <v>3.45</v>
+      </c>
+      <c r="G114">
+        <v>11.01</v>
+      </c>
+      <c r="H114" s="4">
+        <v>148026.10999999999</v>
+      </c>
+      <c r="I114">
+        <v>6.12</v>
+      </c>
+      <c r="J114">
+        <v>51</v>
+      </c>
+      <c r="K114">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="2">
+        <v>524000</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="E115">
+        <v>19.59</v>
+      </c>
+      <c r="F115">
+        <v>29.63</v>
+      </c>
+      <c r="G115">
+        <v>17.23</v>
+      </c>
+      <c r="H115" s="4">
+        <v>61380.67</v>
+      </c>
+      <c r="I115">
+        <v>0.46</v>
+      </c>
+      <c r="J115">
+        <v>80</v>
+      </c>
+      <c r="K115">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2">
+        <v>39900</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="E116">
+        <v>4.3</v>
+      </c>
+      <c r="F116">
+        <v>17.16</v>
+      </c>
+      <c r="G116">
+        <v>8.75</v>
+      </c>
+      <c r="H116" s="4">
+        <v>34979.550000000003</v>
+      </c>
+      <c r="I116">
+        <v>3.01</v>
+      </c>
+      <c r="J116">
+        <v>40</v>
+      </c>
+      <c r="K116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="2">
+        <v>169100</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="E117">
+        <v>13.24</v>
+      </c>
+      <c r="F117">
+        <v>17.97</v>
+      </c>
+      <c r="G117">
+        <v>15.51</v>
+      </c>
+      <c r="H117" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I117">
+        <v>2.19</v>
+      </c>
+      <c r="J117">
+        <v>90</v>
+      </c>
+      <c r="K117">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="2">
+        <v>82300</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="E118">
+        <v>9.11</v>
+      </c>
+      <c r="F118">
+        <v>10.47</v>
+      </c>
+      <c r="G118">
+        <v>9.4</v>
+      </c>
+      <c r="H118" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I118">
+        <v>4.37</v>
+      </c>
+      <c r="J118">
+        <v>79</v>
+      </c>
+      <c r="K118">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="2">
+        <v>122200</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="E119">
+        <v>11.69</v>
+      </c>
+      <c r="F119">
+        <v>8.41</v>
+      </c>
+      <c r="G119">
+        <v>6.07</v>
+      </c>
+      <c r="H119" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I119">
+        <v>0.92</v>
+      </c>
+      <c r="J119">
+        <v>17</v>
+      </c>
+      <c r="K119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="2">
+        <v>230000</v>
+      </c>
+      <c r="D120" s="3">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E120">
+        <v>1.97</v>
+      </c>
+      <c r="F120">
+        <v>0.9</v>
+      </c>
+      <c r="G120">
+        <v>5.59</v>
+      </c>
+      <c r="H120" s="4">
+        <v>484489.5</v>
+      </c>
+      <c r="I120">
+        <v>2.61</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="2">
+        <v>119200</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2.58E-2</v>
+      </c>
+      <c r="E121">
+        <v>11.33</v>
+      </c>
+      <c r="F121">
+        <v>7.61</v>
+      </c>
+      <c r="G121">
+        <v>9.83</v>
+      </c>
+      <c r="H121" s="4">
+        <v>78257.240000000005</v>
+      </c>
+      <c r="I121">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J121">
+        <v>65</v>
+      </c>
+      <c r="K121">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="2">
+        <v>108400</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E122">
+        <v>8.86</v>
+      </c>
+      <c r="F122">
+        <v>11.69</v>
+      </c>
+      <c r="G122">
+        <v>8.51</v>
+      </c>
+      <c r="H122" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I122">
+        <v>2.93</v>
+      </c>
+      <c r="J122">
+        <v>80</v>
+      </c>
+      <c r="K122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="2">
+        <v>56600</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E123">
+        <v>12.32</v>
+      </c>
+      <c r="F123">
+        <v>9.67</v>
+      </c>
+      <c r="G123">
+        <v>18.72</v>
+      </c>
+      <c r="H123" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I123">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J123">
+        <v>73</v>
+      </c>
+      <c r="K123">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E124">
+        <v>13.92</v>
+      </c>
+      <c r="F124">
+        <v>22.71</v>
+      </c>
+      <c r="G124">
+        <v>5.44</v>
+      </c>
+      <c r="H124" s="4">
+        <v>29308.97</v>
+      </c>
+      <c r="I124">
+        <v>2.34</v>
+      </c>
+      <c r="J124">
+        <v>16</v>
+      </c>
+      <c r="K124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="2">
+        <v>16550</v>
+      </c>
+      <c r="D125" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E125">
+        <v>8.01</v>
+      </c>
+      <c r="F125">
+        <v>15.62</v>
+      </c>
+      <c r="G125">
+        <v>4.37</v>
+      </c>
+      <c r="H125" s="4">
+        <v>7000.14</v>
+      </c>
+      <c r="I125">
+        <v>1.7</v>
+      </c>
+      <c r="J125">
+        <v>58</v>
+      </c>
+      <c r="K125">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="E126">
+        <v>3.06</v>
+      </c>
+      <c r="F126">
+        <v>1.78</v>
+      </c>
+      <c r="G126">
+        <v>3.92</v>
+      </c>
+      <c r="H126" s="4">
+        <v>121115.98</v>
+      </c>
+      <c r="I126">
+        <v>3.71</v>
+      </c>
+      <c r="J126">
+        <v>10</v>
+      </c>
+      <c r="K126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="2">
+        <v>283000</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E127">
+        <v>11.89</v>
+      </c>
+      <c r="F127">
+        <v>15.5</v>
+      </c>
+      <c r="G127">
+        <v>12.6</v>
+      </c>
+      <c r="H127" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I127">
+        <v>0.44</v>
+      </c>
+      <c r="J127">
+        <v>36</v>
+      </c>
+      <c r="K127">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="2">
+        <v>129000</v>
+      </c>
+      <c r="D128" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E128">
+        <v>23.44</v>
+      </c>
+      <c r="F128">
+        <v>24.59</v>
+      </c>
+      <c r="G128">
+        <v>27.89</v>
+      </c>
+      <c r="H128" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I128">
+        <v>1.05</v>
+      </c>
+      <c r="J128">
+        <v>98</v>
+      </c>
+      <c r="K128">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="2">
+        <v>14330</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="E129">
+        <v>6.96</v>
+      </c>
+      <c r="F129">
+        <v>6.28</v>
+      </c>
+      <c r="G129">
+        <v>7.18</v>
+      </c>
+      <c r="H129" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I129">
+        <v>4.54</v>
+      </c>
+      <c r="J129">
+        <v>85</v>
+      </c>
+      <c r="K129">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="2">
+        <v>13930</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="E130">
+        <v>3.6</v>
+      </c>
+      <c r="F130">
+        <v>10.34</v>
+      </c>
+      <c r="G130">
+        <v>5.91</v>
+      </c>
+      <c r="H130" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I130">
+        <v>3.59</v>
+      </c>
+      <c r="J130">
+        <v>84</v>
+      </c>
+      <c r="K130">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="2">
+        <v>243000</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E131">
+        <v>25.83</v>
+      </c>
+      <c r="F131">
+        <v>30.8</v>
+      </c>
+      <c r="G131">
+        <v>23.74</v>
+      </c>
+      <c r="H131" s="4">
+        <v>29011.61</v>
+      </c>
+      <c r="I131">
+        <v>0.21</v>
+      </c>
+      <c r="J131">
+        <v>74</v>
+      </c>
+      <c r="K131">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="2">
+        <v>57900</v>
+      </c>
+      <c r="D132" s="3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="E132">
+        <v>14.27</v>
+      </c>
+      <c r="F132">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G132">
+        <v>21.05</v>
+      </c>
+      <c r="H132" s="4">
+        <v>52443.47</v>
+      </c>
+      <c r="I132">
+        <v>1.04</v>
+      </c>
+      <c r="J132">
+        <v>16</v>
+      </c>
+      <c r="K132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="2">
+        <v>40100</v>
+      </c>
+      <c r="D133" s="3">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="E133">
+        <v>10.79</v>
+      </c>
+      <c r="F133">
+        <v>11.5</v>
+      </c>
+      <c r="G133">
+        <v>8.93</v>
+      </c>
+      <c r="H133" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I133">
+        <v>4.99</v>
+      </c>
+      <c r="J133">
+        <v>32</v>
+      </c>
+      <c r="K133">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2">
+        <v>79100</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="E134">
+        <v>12.5</v>
+      </c>
+      <c r="F134">
+        <v>6.7</v>
+      </c>
+      <c r="G134">
+        <v>3.34</v>
+      </c>
+      <c r="H134" s="4">
+        <v>33456.339999999997</v>
+      </c>
+      <c r="I134">
+        <v>0.91</v>
+      </c>
+      <c r="J134">
+        <v>60</v>
+      </c>
+      <c r="K134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="2">
+        <v>22750</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="E135">
+        <v>12.8</v>
+      </c>
+      <c r="F135">
+        <v>11.61</v>
+      </c>
+      <c r="G135">
+        <v>12.93</v>
+      </c>
+      <c r="H135" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I135">
+        <v>4.37</v>
+      </c>
+      <c r="J135">
+        <v>84</v>
+      </c>
+      <c r="K135">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="2">
+        <v>112300</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="E136">
+        <v>16.75</v>
+      </c>
+      <c r="F136">
+        <v>8.9</v>
+      </c>
+      <c r="G136">
+        <v>21.73</v>
+      </c>
+      <c r="H136" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I136">
+        <v>0.32</v>
+      </c>
+      <c r="J136">
+        <v>60</v>
+      </c>
+      <c r="K136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="2">
+        <v>74000</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>23.36</v>
+      </c>
+      <c r="F137">
+        <v>18.75</v>
+      </c>
+      <c r="G137">
+        <v>18.11</v>
+      </c>
+      <c r="H137" s="4">
+        <v>27078.44</v>
+      </c>
+      <c r="I137">
+        <v>1.35</v>
+      </c>
+      <c r="J137">
+        <v>64</v>
+      </c>
+      <c r="K137">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="2">
+        <v>81200</v>
+      </c>
+      <c r="D138" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E138">
+        <v>12.76</v>
+      </c>
+      <c r="F138">
+        <v>5.28</v>
+      </c>
+      <c r="G138">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H138" s="4">
+        <v>69277.95</v>
+      </c>
+      <c r="I138">
+        <v>1.35</v>
+      </c>
+      <c r="J138">
+        <v>11</v>
+      </c>
+      <c r="K138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="2">
+        <v>52100</v>
+      </c>
+      <c r="D139" s="3">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="E139">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F139">
+        <v>12.02</v>
+      </c>
+      <c r="G139">
+        <v>6.83</v>
+      </c>
+      <c r="H139" s="4">
+        <v>56007.39</v>
+      </c>
+      <c r="I139">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J139">
+        <v>50</v>
+      </c>
+      <c r="K139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" s="2">
+        <v>6040</v>
+      </c>
+      <c r="D140" s="5">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0.95</v>
+      </c>
+      <c r="F140">
+        <v>1.46</v>
+      </c>
+      <c r="G140">
+        <v>7.31</v>
+      </c>
+      <c r="H140" s="4">
+        <v>5894.87</v>
+      </c>
+      <c r="I140">
+        <v>3.31</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="2">
+        <v>213000</v>
+      </c>
+      <c r="D141" s="3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E141">
+        <v>20.53</v>
+      </c>
+      <c r="F141">
+        <v>12.77</v>
+      </c>
+      <c r="G141">
+        <v>12.1</v>
+      </c>
+      <c r="H141" s="4">
+        <v>38535.49</v>
+      </c>
+      <c r="I141">
+        <v>1.08</v>
+      </c>
+      <c r="J141">
+        <v>70</v>
+      </c>
+      <c r="K141">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="2">
+        <v>35300</v>
+      </c>
+      <c r="D142" s="3">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="E142">
+        <v>5.47</v>
+      </c>
+      <c r="F142">
+        <v>4.53</v>
+      </c>
+      <c r="G142">
+        <v>5.48</v>
+      </c>
+      <c r="H142" s="4">
+        <v>51318.41</v>
+      </c>
+      <c r="I142">
+        <v>1.98</v>
+      </c>
+      <c r="J142">
+        <v>10</v>
+      </c>
+      <c r="K142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="2">
+        <v>53800</v>
+      </c>
+      <c r="D143" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E143">
+        <v>26.54</v>
+      </c>
+      <c r="F143">
+        <v>25.87</v>
+      </c>
+      <c r="G143">
+        <v>31.27</v>
+      </c>
+      <c r="H143" s="4">
+        <v>7150.69</v>
+      </c>
+      <c r="I143">
+        <v>0.48</v>
+      </c>
+      <c r="J143">
+        <v>67</v>
+      </c>
+      <c r="K143">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="2">
+        <v>700000</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="E144">
+        <v>18.93</v>
+      </c>
+      <c r="F144">
+        <v>26.22</v>
+      </c>
+      <c r="G144">
+        <v>17.05</v>
+      </c>
+      <c r="H144" s="4">
+        <v>48689.31</v>
+      </c>
+      <c r="I144">
+        <v>0.16</v>
+      </c>
+      <c r="J144">
+        <v>100</v>
+      </c>
+      <c r="K144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" s="2">
+        <v>47900</v>
+      </c>
+      <c r="D145" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E145">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F145">
+        <v>18.93</v>
+      </c>
+      <c r="G145">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="H145" s="4">
+        <v>42209.02</v>
+      </c>
+      <c r="I145">
+        <v>3.13</v>
+      </c>
+      <c r="J145">
+        <v>25</v>
+      </c>
+      <c r="K145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="2">
+        <v>54000</v>
+      </c>
+      <c r="D146" s="3">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="E146">
+        <v>8.77</v>
+      </c>
+      <c r="F146">
+        <v>6.92</v>
+      </c>
+      <c r="G146">
+        <v>13.11</v>
+      </c>
+      <c r="H146" s="4">
+        <v>69949.570000000007</v>
+      </c>
+      <c r="I146">
+        <v>2.96</v>
+      </c>
+      <c r="J146">
+        <v>59</v>
+      </c>
+      <c r="K146">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="2">
+        <v>128400</v>
+      </c>
+      <c r="D147" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E147">
+        <v>6.36</v>
+      </c>
+      <c r="F147">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G147">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H147" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I147">
+        <v>2.8</v>
+      </c>
+      <c r="J147">
+        <v>78</v>
+      </c>
+      <c r="K147">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="2">
+        <v>490000</v>
+      </c>
+      <c r="D148" s="3">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="E148">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F148">
+        <v>41.01</v>
+      </c>
+      <c r="G148">
+        <v>29.72</v>
+      </c>
+      <c r="H148" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I148">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J148">
+        <v>94</v>
+      </c>
+      <c r="K148">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="2">
+        <v>141000</v>
+      </c>
+      <c r="D149" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>16.05</v>
+      </c>
+      <c r="G149">
+        <v>12.44</v>
+      </c>
+      <c r="H149" s="4">
+        <v>86463.38</v>
+      </c>
+      <c r="I149">
+        <v>1.77</v>
+      </c>
+      <c r="J149">
+        <v>35</v>
+      </c>
+      <c r="K149">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="2">
+        <v>106300</v>
+      </c>
+      <c r="D150" s="3">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="E150">
+        <v>16.57</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>15.65</v>
+      </c>
+      <c r="H150" s="4">
+        <v>88351.47</v>
+      </c>
+      <c r="I150">
+        <v>2.35</v>
+      </c>
+      <c r="J150">
+        <v>37</v>
+      </c>
+      <c r="K150">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" s="2">
+        <v>53300</v>
+      </c>
+      <c r="D151" s="3">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="E151">
+        <v>19.62</v>
+      </c>
+      <c r="F151">
+        <v>5.18</v>
+      </c>
+      <c r="G151">
+        <v>10.95</v>
+      </c>
+      <c r="H151" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I151">
+        <v>0.66</v>
+      </c>
+      <c r="J151">
+        <v>72</v>
+      </c>
+      <c r="K151">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="2">
+        <v>23050</v>
+      </c>
+      <c r="D152" s="3">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E152">
+        <v>16.27</v>
+      </c>
+      <c r="F152">
+        <v>17.22</v>
+      </c>
+      <c r="G152">
+        <v>16.46</v>
+      </c>
+      <c r="H152" s="4">
+        <v>25489.200000000001</v>
+      </c>
+      <c r="I152">
+        <v>1.52</v>
+      </c>
+      <c r="J152">
+        <v>12</v>
+      </c>
+      <c r="K152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" s="2">
+        <v>116300</v>
+      </c>
+      <c r="D153" s="3">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="E153">
+        <v>4.04</v>
+      </c>
+      <c r="F153">
+        <v>3.89</v>
+      </c>
+      <c r="G153">
+        <v>3.46</v>
+      </c>
+      <c r="H153" s="4">
+        <v>228945.25</v>
+      </c>
+      <c r="I153">
+        <v>2.84</v>
+      </c>
+      <c r="J153">
+        <v>22</v>
+      </c>
+      <c r="K153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="2">
+        <v>118600</v>
+      </c>
+      <c r="D154" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E154">
+        <v>17.29</v>
+      </c>
+      <c r="F154">
+        <v>11.2</v>
+      </c>
+      <c r="G154">
+        <v>19.45</v>
+      </c>
+      <c r="H154" s="4">
+        <v>68308.19</v>
+      </c>
+      <c r="I154">
+        <v>3.46</v>
+      </c>
+      <c r="J154">
+        <v>17</v>
+      </c>
+      <c r="K154">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" s="2">
+        <v>60300</v>
+      </c>
+      <c r="D155" s="3">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E155">
+        <v>0.41</v>
+      </c>
+      <c r="F155">
+        <v>3.07</v>
+      </c>
+      <c r="G155">
+        <v>3.8</v>
+      </c>
+      <c r="H155" s="4">
+        <v>115225.57</v>
+      </c>
+      <c r="I155">
+        <v>1.91</v>
+      </c>
+      <c r="J155">
+        <v>10</v>
+      </c>
+      <c r="K155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="2">
+        <v>218500</v>
+      </c>
+      <c r="D156" s="3">
+        <v>-2.24E-2</v>
+      </c>
+      <c r="E156">
+        <v>9.84</v>
+      </c>
+      <c r="F156">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G156">
+        <v>6.06</v>
+      </c>
+      <c r="H156" s="4">
+        <v>321167.96999999997</v>
+      </c>
+      <c r="I156">
+        <v>4.58</v>
+      </c>
+      <c r="J156">
+        <v>14</v>
+      </c>
+      <c r="K156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1199000</v>
+      </c>
+      <c r="D157" s="3">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="E157">
+        <v>14.9</v>
+      </c>
+      <c r="F157">
+        <v>21.1</v>
+      </c>
+      <c r="G157">
+        <v>9.09</v>
+      </c>
+      <c r="H157" s="4">
+        <v>210765.09</v>
+      </c>
+      <c r="I157">
+        <v>0.42</v>
+      </c>
+      <c r="J157">
+        <v>88</v>
+      </c>
+      <c r="K157">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" s="2">
+        <v>181200</v>
+      </c>
+      <c r="D158" s="3">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="E158">
+        <v>5.46</v>
+      </c>
+      <c r="F158">
+        <v>0.94</v>
+      </c>
+      <c r="G158">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H158" s="4">
+        <v>226756.47</v>
+      </c>
+      <c r="I158">
+        <v>3.59</v>
+      </c>
+      <c r="J158">
+        <v>8</v>
+      </c>
+      <c r="K158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="2">
+        <v>19490</v>
+      </c>
+      <c r="D159" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="E159">
+        <v>11.13</v>
+      </c>
+      <c r="F159">
+        <v>3.55</v>
+      </c>
+      <c r="G159">
+        <v>9.31</v>
+      </c>
+      <c r="H159" s="4">
+        <v>24422.63</v>
+      </c>
+      <c r="I159">
+        <v>5.13</v>
+      </c>
+      <c r="J159">
+        <v>62</v>
+      </c>
+      <c r="K159">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="2">
+        <v>151300</v>
+      </c>
+      <c r="D160" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E160">
+        <v>10.4</v>
+      </c>
+      <c r="F160">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G160">
+        <v>9.14</v>
+      </c>
+      <c r="H160" s="4">
+        <v>63208.46</v>
+      </c>
+      <c r="I160">
+        <v>1.18</v>
+      </c>
+      <c r="J160">
+        <v>49</v>
+      </c>
+      <c r="K160">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="2">
         <v>24900</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D161" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E58">
+      <c r="E161">
         <v>9.39</v>
       </c>
-      <c r="F58">
+      <c r="F161">
         <v>7.27</v>
       </c>
-      <c r="G58">
+      <c r="G161">
         <v>9.73</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H161" s="4">
         <v>45501.38</v>
       </c>
-      <c r="I58">
+      <c r="I161">
         <v>4.82</v>
       </c>
-      <c r="J58">
+      <c r="J161">
         <v>88</v>
       </c>
-      <c r="K58">
+      <c r="K161">
         <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="2">
+        <v>19780</v>
+      </c>
+      <c r="D162" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E162">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F162">
+        <v>16.78</v>
+      </c>
+      <c r="G162">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="H162" s="4">
+        <v>16554.88</v>
+      </c>
+      <c r="I162">
+        <v>2.02</v>
+      </c>
+      <c r="J162">
+        <v>29</v>
+      </c>
+      <c r="K162">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D163" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="E163">
+        <v>25.76</v>
+      </c>
+      <c r="F163">
+        <v>30.62</v>
+      </c>
+      <c r="G163">
+        <v>35.93</v>
+      </c>
+      <c r="H163" s="4">
+        <v>1654.52</v>
+      </c>
+      <c r="I163">
+        <v>0.5</v>
+      </c>
+      <c r="J163">
+        <v>60</v>
+      </c>
+      <c r="K163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B164" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="2">
+        <v>221500</v>
+      </c>
+      <c r="D164" s="3">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="E164">
+        <v>12.47</v>
+      </c>
+      <c r="F164">
+        <v>12.08</v>
+      </c>
+      <c r="G164">
+        <v>17.04</v>
+      </c>
+      <c r="H164" s="4">
+        <v>135475.57999999999</v>
+      </c>
+      <c r="I164">
+        <v>1.04</v>
+      </c>
+      <c r="J164">
+        <v>31</v>
+      </c>
+      <c r="K164">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE20D0F-5E82-4BFA-AEBA-C5EAED01E88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E39A0D4-25F3-4D41-87EA-633EB643216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{25C47C86-46D2-4A87-903F-4E11ECB93C9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{944335C1-7D01-4C81-B1A4-B3AB5862E8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,70 +54,400 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>DB손해보험</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>001120</t>
+  </si>
+  <si>
+    <t>LX인터내셔널</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
+    <t>003540</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>183190</t>
+  </si>
+  <si>
+    <t>아세아시멘트</t>
+  </si>
+  <si>
+    <t>002310</t>
+  </si>
+  <si>
+    <t>아세아제지</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>316140</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>214320</t>
+  </si>
+  <si>
+    <t>이노션</t>
+  </si>
+  <si>
+    <t>007660</t>
+  </si>
+  <si>
+    <t>이수페타시스</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>183300</t>
+  </si>
+  <si>
+    <t>코미코</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>214450</t>
+  </si>
+  <si>
+    <t>파마리서치</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
     <t>한국앤컴퍼니</t>
   </si>
   <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>000660</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>000810</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
-  </si>
-  <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
-  </si>
-  <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>003230</t>
-  </si>
-  <si>
-    <t>삼양식품</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>현대엘리베이터</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>현대차</t>
   </si>
   <si>
     <t>004800</t>
@@ -126,274 +456,10 @@
     <t>효성</t>
   </si>
   <si>
-    <t>005380</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>005830</t>
-  </si>
-  <si>
-    <t>DB손해보험</t>
-  </si>
-  <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
-    <t>005930</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>006800</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>009540</t>
-  </si>
-  <si>
-    <t>HD한국조선해양</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
-  </si>
-  <si>
-    <t>012450</t>
-  </si>
-  <si>
-    <t>한화에어로스페이스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
-    <t>016360</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>017800</t>
-  </si>
-  <si>
-    <t>현대엘리베이터</t>
-  </si>
-  <si>
-    <t>018260</t>
-  </si>
-  <si>
-    <t>삼성에스디에스</t>
-  </si>
-  <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
-    <t>024110</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>029780</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>033780</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
-    <t>052690</t>
-  </si>
-  <si>
-    <t>한전기술</t>
-  </si>
-  <si>
-    <t>055550</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>071050</t>
-  </si>
-  <si>
-    <t>한국금융지주</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>086280</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>097950</t>
-  </si>
-  <si>
-    <t>CJ제일제당</t>
-  </si>
-  <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
-    <t>138040</t>
-  </si>
-  <si>
-    <t>메리츠금융지주</t>
-  </si>
-  <si>
-    <t>138930</t>
-  </si>
-  <si>
-    <t>BNK금융지주</t>
-  </si>
-  <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
-  </si>
-  <si>
-    <t>175330</t>
-  </si>
-  <si>
-    <t>JB금융지주</t>
-  </si>
-  <si>
-    <t>214320</t>
-  </si>
-  <si>
-    <t>이노션</t>
-  </si>
-  <si>
-    <t>267260</t>
-  </si>
-  <si>
-    <t>HD현대일렉트릭</t>
-  </si>
-  <si>
-    <t>316140</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
   </si>
 </sst>
 </file>
@@ -771,12 +837,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357BA16E-8D10-42DA-8E0B-C89751AC2CD8}">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3428DF-9A09-40D8-BD57-9BB9D02252B7}">
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -834,31 +898,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>21300</v>
+        <v>14330</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.52E-2</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>6.96</v>
       </c>
       <c r="F2">
-        <v>7.78</v>
+        <v>6.28</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>7.18</v>
       </c>
       <c r="H2" s="4">
-        <v>46238.98</v>
+        <v>33008.75</v>
       </c>
       <c r="I2">
-        <v>4.6900000000000004</v>
+        <v>4.54</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -869,31 +933,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104800</v>
+        <v>131300</v>
       </c>
       <c r="D3" s="3">
-        <v>8.6999999999999994E-3</v>
+        <v>1.47E-2</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>18.96</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>19.86</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>18.8</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>115980.87</v>
       </c>
       <c r="I3">
-        <v>6.2</v>
+        <v>5.18</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -904,25 +968,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>251000</v>
+        <v>25000</v>
       </c>
       <c r="D4" s="3">
-        <v>2.4500000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>31.06</v>
+        <v>19.78</v>
       </c>
       <c r="F4">
-        <v>41.75</v>
+        <v>13.61</v>
       </c>
       <c r="G4">
-        <v>6.34</v>
+        <v>23.29</v>
       </c>
       <c r="H4" s="4">
-        <v>114794.74</v>
+        <v>31476.26</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>76</v>
@@ -939,31 +1003,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>443000</v>
+        <v>44100</v>
       </c>
       <c r="D5" s="3">
-        <v>2.3E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>13.09</v>
+        <v>4.12</v>
       </c>
       <c r="F5">
-        <v>15.71</v>
+        <v>3.45</v>
       </c>
       <c r="G5">
-        <v>12.47</v>
+        <v>11.01</v>
       </c>
       <c r="H5" s="4">
-        <v>333812.02</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I5">
-        <v>4.29</v>
+        <v>6.12</v>
       </c>
       <c r="J5">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -974,31 +1038,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>29700</v>
+        <v>490000</v>
       </c>
       <c r="D6" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>7.12</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="F6">
-        <v>14.97</v>
+        <v>41.01</v>
       </c>
       <c r="G6">
-        <v>12.61</v>
+        <v>29.72</v>
       </c>
       <c r="H6" s="4">
-        <v>70348.56</v>
+        <v>42149.47</v>
       </c>
       <c r="I6">
-        <v>6.73</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1009,31 +1073,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>27300</v>
+        <v>13930</v>
       </c>
       <c r="D7" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E7">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="F7">
-        <v>1.27</v>
+        <v>10.34</v>
       </c>
       <c r="G7">
-        <v>4.21</v>
+        <v>5.91</v>
       </c>
       <c r="H7" s="4">
-        <v>52692.43</v>
+        <v>35883.14</v>
       </c>
       <c r="I7">
-        <v>4.4000000000000004</v>
+        <v>3.59</v>
       </c>
       <c r="J7">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1044,31 +1108,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1438000</v>
+        <v>22750</v>
       </c>
       <c r="D8" s="3">
-        <v>3.7499999999999999E-2</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E8">
-        <v>39.369999999999997</v>
+        <v>12.8</v>
       </c>
       <c r="F8">
-        <v>40.79</v>
+        <v>11.61</v>
       </c>
       <c r="G8">
-        <v>27.7</v>
+        <v>12.93</v>
       </c>
       <c r="H8" s="4">
-        <v>131565.21</v>
+        <v>29151.87</v>
       </c>
       <c r="I8">
-        <v>0.23</v>
+        <v>4.37</v>
       </c>
       <c r="J8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K8">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1079,31 +1143,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>24750</v>
+        <v>108400</v>
       </c>
       <c r="D9" s="3">
-        <v>-2E-3</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>4.57</v>
+        <v>8.86</v>
       </c>
       <c r="F9">
-        <v>9.2899999999999991</v>
+        <v>11.69</v>
       </c>
       <c r="G9">
-        <v>4.55</v>
+        <v>8.51</v>
       </c>
       <c r="H9" s="4">
-        <v>38894.53</v>
+        <v>152301.9</v>
       </c>
       <c r="I9">
-        <v>4.8499999999999996</v>
+        <v>2.93</v>
       </c>
       <c r="J9">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1114,31 +1178,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>72100</v>
+        <v>55000</v>
       </c>
       <c r="D10" s="3">
-        <v>-6.8999999999999999E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E10">
-        <v>2.16</v>
+        <v>2.85</v>
       </c>
       <c r="F10">
-        <v>8.5</v>
+        <v>13.16</v>
       </c>
       <c r="G10">
-        <v>5.18</v>
+        <v>5.63</v>
       </c>
       <c r="H10" s="4">
-        <v>174674.22</v>
+        <v>66926.62</v>
       </c>
       <c r="I10">
-        <v>4.3</v>
+        <v>3.64</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1149,31 +1213,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>59700</v>
+        <v>136900</v>
       </c>
       <c r="D11" s="3">
-        <v>4.0099999999999997E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="E11">
-        <v>12.89</v>
+        <v>12.66</v>
       </c>
       <c r="F11">
-        <v>11.42</v>
+        <v>11.17</v>
       </c>
       <c r="G11">
-        <v>7.9</v>
+        <v>11.14</v>
       </c>
       <c r="H11" s="4">
-        <v>26995.84</v>
+        <v>81115.86</v>
       </c>
       <c r="I11">
-        <v>2.1800000000000002</v>
+        <v>3.94</v>
       </c>
       <c r="J11">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1184,31 +1248,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>10630</v>
+        <v>72100</v>
       </c>
       <c r="D12" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>9.44</v>
+        <v>2.16</v>
       </c>
       <c r="F12">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="G12">
-        <v>9.86</v>
+        <v>5.18</v>
       </c>
       <c r="H12" s="4">
-        <v>18178.189999999999</v>
+        <v>174674.22</v>
       </c>
       <c r="I12">
-        <v>4.84</v>
+        <v>4.3</v>
       </c>
       <c r="J12">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1219,31 +1283,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>84000</v>
+        <v>14960</v>
       </c>
       <c r="D13" s="3">
-        <v>2.8199999999999999E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E13">
-        <v>19.62</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F13">
-        <v>12.01</v>
+        <v>7.75</v>
       </c>
       <c r="G13">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="H13" s="4">
-        <v>130022.16</v>
+        <v>19799.21</v>
       </c>
       <c r="I13">
-        <v>3.57</v>
+        <v>4.34</v>
       </c>
       <c r="J13">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1254,31 +1318,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>220000</v>
+        <v>524000</v>
       </c>
       <c r="D14" s="3">
-        <v>-6.7999999999999996E-3</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E14">
-        <v>12.43</v>
+        <v>19.59</v>
       </c>
       <c r="F14">
-        <v>11.52</v>
+        <v>29.63</v>
       </c>
       <c r="G14">
-        <v>11.82</v>
+        <v>17.23</v>
       </c>
       <c r="H14" s="4">
-        <v>411868.79</v>
+        <v>61380.67</v>
       </c>
       <c r="I14">
-        <v>5.45</v>
+        <v>0.46</v>
       </c>
       <c r="J14">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1289,31 +1353,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>131300</v>
+        <v>160400</v>
       </c>
       <c r="D15" s="3">
-        <v>1.47E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="E15">
-        <v>18.96</v>
+        <v>5.09</v>
       </c>
       <c r="F15">
-        <v>19.86</v>
+        <v>7.34</v>
       </c>
       <c r="G15">
-        <v>18.8</v>
+        <v>11.63</v>
       </c>
       <c r="H15" s="4">
-        <v>115980.87</v>
+        <v>154845.78</v>
       </c>
       <c r="I15">
-        <v>5.18</v>
+        <v>1.03</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1324,31 +1388,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>33800</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
+        <v>281500</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6.83E-2</v>
       </c>
       <c r="E16">
-        <v>17.420000000000002</v>
+        <v>13.44</v>
       </c>
       <c r="F16">
-        <v>17.22</v>
+        <v>15.22</v>
       </c>
       <c r="G16">
-        <v>15.37</v>
+        <v>10.67</v>
       </c>
       <c r="H16" s="4">
-        <v>50552.95</v>
+        <v>61485.71</v>
       </c>
       <c r="I16">
-        <v>3.55</v>
+        <v>1.03</v>
       </c>
       <c r="J16">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1359,31 +1423,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>71400</v>
+        <v>29700</v>
       </c>
       <c r="D17" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E17">
-        <v>9.0299999999999994</v>
+        <v>7.12</v>
       </c>
       <c r="F17">
-        <v>6.64</v>
+        <v>14.97</v>
       </c>
       <c r="G17">
-        <v>10.08</v>
+        <v>12.61</v>
       </c>
       <c r="H17" s="4">
-        <v>58114.39</v>
+        <v>70348.56</v>
       </c>
       <c r="I17">
-        <v>2.0299999999999998</v>
+        <v>6.73</v>
       </c>
       <c r="J17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1429,31 +1493,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>17790</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-5.5999999999999999E-3</v>
+        <v>55500</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>7.94</v>
+        <v>10.83</v>
       </c>
       <c r="F19">
-        <v>8.5299999999999994</v>
+        <v>7.71</v>
       </c>
       <c r="G19">
-        <v>5.75</v>
+        <v>9.48</v>
       </c>
       <c r="H19" s="4">
-        <v>17214.37</v>
+        <v>55591.17</v>
       </c>
       <c r="I19">
-        <v>1.41</v>
+        <v>6.38</v>
       </c>
       <c r="J19">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1464,25 +1528,25 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>25000</v>
+        <v>251000</v>
       </c>
       <c r="D20" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="E20">
-        <v>19.78</v>
+        <v>31.06</v>
       </c>
       <c r="F20">
-        <v>13.61</v>
+        <v>41.75</v>
       </c>
       <c r="G20">
-        <v>23.29</v>
+        <v>6.34</v>
       </c>
       <c r="H20" s="4">
-        <v>31476.26</v>
+        <v>114794.74</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0.88</v>
       </c>
       <c r="J20">
         <v>76</v>
@@ -1499,31 +1563,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>360500</v>
+        <v>59700</v>
       </c>
       <c r="D21" s="3">
-        <v>1.41E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="E21">
-        <v>11.16</v>
+        <v>12.89</v>
       </c>
       <c r="F21">
-        <v>14.75</v>
+        <v>11.42</v>
       </c>
       <c r="G21">
-        <v>3.73</v>
+        <v>7.9</v>
       </c>
       <c r="H21" s="4">
-        <v>169623.88</v>
+        <v>26995.84</v>
       </c>
       <c r="I21">
-        <v>1.41</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J21">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1534,31 +1598,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>121300</v>
+        <v>17990</v>
       </c>
       <c r="D22" s="3">
-        <v>3.3E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E22">
-        <v>13.17</v>
+        <v>12.08</v>
       </c>
       <c r="F22">
-        <v>10.220000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="G22">
-        <v>18.010000000000002</v>
+        <v>8.39</v>
       </c>
       <c r="H22" s="4">
-        <v>201114.72</v>
+        <v>18381.900000000001</v>
       </c>
       <c r="I22">
-        <v>4.41</v>
+        <v>6.5</v>
       </c>
       <c r="J22">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1569,31 +1633,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>891000</v>
+        <v>104800</v>
       </c>
       <c r="D23" s="3">
-        <v>6.83E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E23">
-        <v>53.94</v>
+        <v>19.09</v>
       </c>
       <c r="F23">
-        <v>10.83</v>
+        <v>17.12</v>
       </c>
       <c r="G23">
-        <v>28.78</v>
+        <v>18.03</v>
       </c>
       <c r="H23" s="4">
-        <v>116255.06</v>
+        <v>141851.03</v>
       </c>
       <c r="I23">
-        <v>0.39</v>
+        <v>6.2</v>
       </c>
       <c r="J23">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1604,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>77400</v>
+        <v>19160</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="E24">
-        <v>10.85</v>
+        <v>8.06</v>
       </c>
       <c r="F24">
-        <v>11.33</v>
+        <v>9.52</v>
       </c>
       <c r="G24">
-        <v>11.06</v>
+        <v>8.77</v>
       </c>
       <c r="H24" s="4">
-        <v>47834.19</v>
+        <v>42663.82</v>
       </c>
       <c r="I24">
-        <v>3.49</v>
+        <v>5.56</v>
       </c>
       <c r="J24">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1639,31 +1703,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67100</v>
+        <v>31600</v>
       </c>
       <c r="D25" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E25">
-        <v>12.89</v>
+        <v>13.16</v>
       </c>
       <c r="F25">
-        <v>13.62</v>
+        <v>16.53</v>
       </c>
       <c r="G25">
-        <v>9.44</v>
+        <v>13.29</v>
       </c>
       <c r="H25" s="4">
-        <v>81376.7</v>
+        <v>70038.45</v>
       </c>
       <c r="I25">
-        <v>5.22</v>
+        <v>4.43</v>
       </c>
       <c r="J25">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1674,31 +1738,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
+        <v>24750</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-2E-3</v>
       </c>
       <c r="E26">
-        <v>10.83</v>
+        <v>4.57</v>
       </c>
       <c r="F26">
-        <v>7.71</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G26">
-        <v>9.48</v>
+        <v>4.55</v>
       </c>
       <c r="H26" s="4">
-        <v>55591.17</v>
+        <v>38894.53</v>
       </c>
       <c r="I26">
-        <v>6.38</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J26">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1709,31 +1773,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>79100</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
+        <v>24850</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>14.42</v>
+        <v>13.17</v>
       </c>
       <c r="F27">
-        <v>11.9</v>
+        <v>10.87</v>
       </c>
       <c r="G27">
-        <v>15.82</v>
+        <v>15.53</v>
       </c>
       <c r="H27" s="4">
-        <v>32483.7</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I27">
-        <v>6.95</v>
+        <v>3.02</v>
       </c>
       <c r="J27">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1744,31 +1808,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>147700</v>
+        <v>129000</v>
       </c>
       <c r="D28" s="3">
-        <v>6.7999999999999996E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E28">
-        <v>8.42</v>
+        <v>23.44</v>
       </c>
       <c r="F28">
-        <v>9.06</v>
+        <v>24.59</v>
       </c>
       <c r="G28">
-        <v>10.29</v>
+        <v>27.89</v>
       </c>
       <c r="H28" s="4">
-        <v>120847.71</v>
+        <v>55646.89</v>
       </c>
       <c r="I28">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="J28">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1779,31 +1843,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>105000</v>
+        <v>17790</v>
       </c>
       <c r="D29" s="3">
-        <v>7.7000000000000002E-3</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>19.38</v>
+        <v>7.94</v>
       </c>
       <c r="F29">
-        <v>17.489999999999998</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G29">
-        <v>20.04</v>
+        <v>5.75</v>
       </c>
       <c r="H29" s="4">
-        <v>43969.66</v>
+        <v>17214.37</v>
       </c>
       <c r="I29">
-        <v>2.5</v>
+        <v>1.41</v>
       </c>
       <c r="J29">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1814,31 +1878,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>31600</v>
-      </c>
-      <c r="D30" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>139400</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>13.16</v>
+        <v>5.76</v>
       </c>
       <c r="F30">
-        <v>16.53</v>
+        <v>8.44</v>
       </c>
       <c r="G30">
-        <v>13.29</v>
+        <v>5.33</v>
       </c>
       <c r="H30" s="4">
-        <v>70038.45</v>
+        <v>158106.71</v>
       </c>
       <c r="I30">
-        <v>4.43</v>
+        <v>3.23</v>
       </c>
       <c r="J30">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1849,31 +1913,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>19160</v>
+        <v>71400</v>
       </c>
       <c r="D31" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>8.06</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F31">
-        <v>9.52</v>
+        <v>6.64</v>
       </c>
       <c r="G31">
-        <v>8.77</v>
+        <v>10.08</v>
       </c>
       <c r="H31" s="4">
-        <v>42663.82</v>
+        <v>58114.39</v>
       </c>
       <c r="I31">
-        <v>5.56</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J31">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1884,31 +1948,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>50300</v>
+        <v>67100</v>
       </c>
       <c r="D32" s="3">
-        <v>1.11E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>12.89</v>
       </c>
       <c r="F32">
-        <v>8.75</v>
+        <v>13.62</v>
       </c>
       <c r="G32">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H32" s="4">
-        <v>75767.48</v>
+        <v>81376.7</v>
       </c>
       <c r="I32">
-        <v>5.57</v>
+        <v>5.22</v>
       </c>
       <c r="J32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1919,31 +1983,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>19570</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
+        <v>50300</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.11E-2</v>
       </c>
       <c r="E33">
-        <v>15.12</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>7.98</v>
+        <v>8.75</v>
       </c>
       <c r="G33">
-        <v>15.58</v>
+        <v>7.9</v>
       </c>
       <c r="H33" s="4">
-        <v>14481.01</v>
+        <v>75767.48</v>
       </c>
       <c r="I33">
-        <v>6.29</v>
+        <v>5.57</v>
       </c>
       <c r="J33">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -1954,31 +2018,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>55000</v>
+        <v>443000</v>
       </c>
       <c r="D34" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E34">
-        <v>2.85</v>
+        <v>13.09</v>
       </c>
       <c r="F34">
-        <v>13.16</v>
+        <v>15.71</v>
       </c>
       <c r="G34">
-        <v>5.63</v>
+        <v>12.47</v>
       </c>
       <c r="H34" s="4">
-        <v>66926.62</v>
+        <v>333812.02</v>
       </c>
       <c r="I34">
-        <v>3.64</v>
+        <v>4.29</v>
       </c>
       <c r="J34">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -1989,31 +2053,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>14960</v>
+        <v>1438000</v>
       </c>
       <c r="D35" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E35">
-        <v>4.4000000000000004</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F35">
-        <v>7.75</v>
+        <v>40.79</v>
       </c>
       <c r="G35">
-        <v>6.75</v>
+        <v>27.7</v>
       </c>
       <c r="H35" s="4">
-        <v>19799.21</v>
+        <v>131565.21</v>
       </c>
       <c r="I35">
-        <v>4.34</v>
+        <v>0.23</v>
       </c>
       <c r="J35">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2024,31 +2088,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>139400</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
+        <v>27300</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>5.76</v>
+        <v>1.04</v>
       </c>
       <c r="F36">
-        <v>8.44</v>
+        <v>1.27</v>
       </c>
       <c r="G36">
-        <v>5.33</v>
+        <v>4.21</v>
       </c>
       <c r="H36" s="4">
-        <v>158106.71</v>
+        <v>52692.43</v>
       </c>
       <c r="I36">
-        <v>3.23</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J36">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2059,31 +2123,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>136900</v>
+        <v>66700</v>
       </c>
       <c r="D37" s="3">
-        <v>-1.5E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E37">
-        <v>12.66</v>
+        <v>8.11</v>
       </c>
       <c r="F37">
-        <v>11.17</v>
+        <v>10.55</v>
       </c>
       <c r="G37">
-        <v>11.14</v>
+        <v>8.66</v>
       </c>
       <c r="H37" s="4">
-        <v>81115.86</v>
+        <v>113903.42</v>
       </c>
       <c r="I37">
-        <v>3.94</v>
+        <v>3.24</v>
       </c>
       <c r="J37">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2094,31 +2158,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>17990</v>
+        <v>13710</v>
       </c>
       <c r="D38" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>-1.01E-2</v>
       </c>
       <c r="E38">
-        <v>12.08</v>
+        <v>7.65</v>
       </c>
       <c r="F38">
-        <v>7.85</v>
+        <v>4.43</v>
       </c>
       <c r="G38">
-        <v>8.39</v>
+        <v>7.8</v>
       </c>
       <c r="H38" s="4">
-        <v>18381.900000000001</v>
+        <v>29805.78</v>
       </c>
       <c r="I38">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="J38">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2129,31 +2193,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>40200</v>
+        <v>7620</v>
       </c>
       <c r="D39" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E39">
-        <v>11.21</v>
+        <v>2.84</v>
       </c>
       <c r="F39">
-        <v>13.43</v>
+        <v>5.74</v>
       </c>
       <c r="G39">
-        <v>6.4</v>
+        <v>8.36</v>
       </c>
       <c r="H39" s="4">
-        <v>121076.78</v>
+        <v>20517.7</v>
       </c>
       <c r="I39">
-        <v>3.62</v>
+        <v>2.89</v>
       </c>
       <c r="J39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2164,31 +2228,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>199200</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>33800</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>15.98</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F40">
-        <v>18.79</v>
+        <v>17.22</v>
       </c>
       <c r="G40">
-        <v>12.25</v>
+        <v>15.37</v>
       </c>
       <c r="H40" s="4">
-        <v>224185.76</v>
+        <v>50552.95</v>
       </c>
       <c r="I40">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="J40">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2199,31 +2263,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>51200</v>
+        <v>77400</v>
       </c>
       <c r="D41" s="3">
-        <v>-2.4799999999999999E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>13.26</v>
+        <v>10.85</v>
       </c>
       <c r="F41">
-        <v>9.59</v>
+        <v>11.33</v>
       </c>
       <c r="G41">
-        <v>11.65</v>
+        <v>11.06</v>
       </c>
       <c r="H41" s="4">
-        <v>28057.11</v>
+        <v>47834.19</v>
       </c>
       <c r="I41">
-        <v>4.82</v>
+        <v>3.49</v>
       </c>
       <c r="J41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2234,31 +2298,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>99900</v>
+        <v>56600</v>
       </c>
       <c r="D42" s="3">
-        <v>-4.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E42">
-        <v>10.4</v>
+        <v>12.32</v>
       </c>
       <c r="F42">
-        <v>44.75</v>
+        <v>9.67</v>
       </c>
       <c r="G42">
-        <v>6.6</v>
+        <v>18.72</v>
       </c>
       <c r="H42" s="4">
-        <v>15982.9</v>
+        <v>84441.54</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J42">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2269,31 +2333,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>66700</v>
+        <v>121300</v>
       </c>
       <c r="D43" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E43">
-        <v>8.11</v>
+        <v>13.17</v>
       </c>
       <c r="F43">
-        <v>10.55</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G43">
-        <v>8.66</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H43" s="4">
-        <v>113903.42</v>
+        <v>201114.72</v>
       </c>
       <c r="I43">
-        <v>3.24</v>
+        <v>4.41</v>
       </c>
       <c r="J43">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2304,31 +2368,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>127200</v>
+        <v>24900</v>
       </c>
       <c r="D44" s="3">
-        <v>1.52E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E44">
-        <v>11.54</v>
+        <v>9.39</v>
       </c>
       <c r="F44">
-        <v>18.760000000000002</v>
+        <v>7.27</v>
       </c>
       <c r="G44">
-        <v>9.6</v>
+        <v>9.73</v>
       </c>
       <c r="H44" s="4">
-        <v>161615.43</v>
+        <v>45501.38</v>
       </c>
       <c r="I44">
-        <v>3.13</v>
+        <v>4.82</v>
       </c>
       <c r="J44">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2339,31 +2403,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>44100</v>
+        <v>18620</v>
       </c>
       <c r="D45" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>4.12</v>
+        <v>10.48</v>
       </c>
       <c r="F45">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>11.01</v>
+        <v>10.17</v>
       </c>
       <c r="H45" s="4">
-        <v>148026.10999999999</v>
+        <v>24686.55</v>
       </c>
       <c r="I45">
-        <v>6.12</v>
+        <v>6.31</v>
       </c>
       <c r="J45">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2374,31 +2438,31 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>169100</v>
+        <v>59100</v>
       </c>
       <c r="D46" s="3">
-        <v>-1.6899999999999998E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="E46">
-        <v>13.24</v>
+        <v>24.91</v>
       </c>
       <c r="F46">
-        <v>17.97</v>
+        <v>44.8</v>
       </c>
       <c r="G46">
-        <v>15.51</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H46" s="4">
-        <v>119232.22</v>
+        <v>5514.68</v>
       </c>
       <c r="I46">
-        <v>2.19</v>
+        <v>0.25</v>
       </c>
       <c r="J46">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2409,31 +2473,31 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>82300</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>19570</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>9.11</v>
+        <v>15.12</v>
       </c>
       <c r="F47">
-        <v>10.47</v>
+        <v>7.98</v>
       </c>
       <c r="G47">
-        <v>9.4</v>
+        <v>15.58</v>
       </c>
       <c r="H47" s="4">
-        <v>153124.29</v>
+        <v>14481.01</v>
       </c>
       <c r="I47">
-        <v>4.37</v>
+        <v>6.29</v>
       </c>
       <c r="J47">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="K47">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2444,31 +2508,31 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>230000</v>
+        <v>10630</v>
       </c>
       <c r="D48" s="3">
-        <v>6.6E-3</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E48">
-        <v>1.97</v>
+        <v>9.44</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>11.1</v>
       </c>
       <c r="G48">
-        <v>5.59</v>
+        <v>9.86</v>
       </c>
       <c r="H48" s="4">
-        <v>484489.5</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I48">
-        <v>2.61</v>
+        <v>4.84</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2479,31 +2543,31 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>108400</v>
-      </c>
-      <c r="D49" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>74000</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>8.86</v>
+        <v>23.36</v>
       </c>
       <c r="F49">
-        <v>11.69</v>
+        <v>18.75</v>
       </c>
       <c r="G49">
-        <v>8.51</v>
+        <v>18.11</v>
       </c>
       <c r="H49" s="4">
-        <v>152301.9</v>
+        <v>27078.44</v>
       </c>
       <c r="I49">
-        <v>2.93</v>
+        <v>1.35</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2514,31 +2578,31 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>56600</v>
+        <v>105000</v>
       </c>
       <c r="D50" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E50">
-        <v>12.32</v>
+        <v>19.38</v>
       </c>
       <c r="F50">
-        <v>9.67</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G50">
-        <v>18.72</v>
+        <v>20.04</v>
       </c>
       <c r="H50" s="4">
-        <v>84441.54</v>
+        <v>43969.66</v>
       </c>
       <c r="I50">
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="J50">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2549,31 +2613,31 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>129000</v>
+        <v>199200</v>
       </c>
       <c r="D51" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>23.44</v>
+        <v>15.98</v>
       </c>
       <c r="F51">
-        <v>24.59</v>
+        <v>18.79</v>
       </c>
       <c r="G51">
-        <v>27.89</v>
+        <v>12.25</v>
       </c>
       <c r="H51" s="4">
-        <v>55646.89</v>
+        <v>224185.76</v>
       </c>
       <c r="I51">
-        <v>1.05</v>
+        <v>3.77</v>
       </c>
       <c r="J51">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2584,31 +2648,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>14330</v>
+        <v>700000</v>
       </c>
       <c r="D52" s="3">
-        <v>-1.4E-3</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E52">
-        <v>6.96</v>
+        <v>18.93</v>
       </c>
       <c r="F52">
-        <v>6.28</v>
+        <v>26.22</v>
       </c>
       <c r="G52">
-        <v>7.18</v>
+        <v>17.05</v>
       </c>
       <c r="H52" s="4">
-        <v>33008.75</v>
+        <v>48689.31</v>
       </c>
       <c r="I52">
-        <v>4.54</v>
+        <v>0.16</v>
       </c>
       <c r="J52">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2619,31 +2683,31 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>13930</v>
+        <v>82300</v>
       </c>
       <c r="D53" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E53">
-        <v>3.6</v>
+        <v>9.11</v>
       </c>
       <c r="F53">
-        <v>10.34</v>
+        <v>10.47</v>
       </c>
       <c r="G53">
-        <v>5.91</v>
+        <v>9.4</v>
       </c>
       <c r="H53" s="4">
-        <v>35883.14</v>
+        <v>153124.29</v>
       </c>
       <c r="I53">
-        <v>3.59</v>
+        <v>4.37</v>
       </c>
       <c r="J53">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2654,31 +2718,31 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="D54" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E54">
-        <v>10.79</v>
+        <v>11.21</v>
       </c>
       <c r="F54">
-        <v>11.5</v>
+        <v>13.43</v>
       </c>
       <c r="G54">
-        <v>8.93</v>
+        <v>6.4</v>
       </c>
       <c r="H54" s="4">
-        <v>90358.17</v>
+        <v>121076.78</v>
       </c>
       <c r="I54">
-        <v>4.99</v>
+        <v>3.62</v>
       </c>
       <c r="J54">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2689,31 +2753,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>22750</v>
+        <v>127200</v>
       </c>
       <c r="D55" s="3">
-        <v>-1.09E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="E55">
-        <v>12.8</v>
+        <v>11.54</v>
       </c>
       <c r="F55">
-        <v>11.61</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="G55">
-        <v>12.93</v>
+        <v>9.6</v>
       </c>
       <c r="H55" s="4">
-        <v>29151.87</v>
+        <v>161615.43</v>
       </c>
       <c r="I55">
-        <v>4.37</v>
+        <v>3.13</v>
       </c>
       <c r="J55">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2724,31 +2788,31 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>18620</v>
+        <v>21300</v>
       </c>
       <c r="D56" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>-2.52E-2</v>
       </c>
       <c r="E56">
-        <v>10.48</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>7.78</v>
       </c>
       <c r="G56">
-        <v>10.17</v>
+        <v>5.8</v>
       </c>
       <c r="H56" s="4">
-        <v>24686.55</v>
+        <v>46238.98</v>
       </c>
       <c r="I56">
-        <v>6.31</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J56">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2759,31 +2823,31 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>490000</v>
+        <v>40100</v>
       </c>
       <c r="D57" s="3">
-        <v>6.8699999999999997E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E57">
-        <v>39.340000000000003</v>
+        <v>10.79</v>
       </c>
       <c r="F57">
-        <v>41.01</v>
+        <v>11.5</v>
       </c>
       <c r="G57">
-        <v>29.72</v>
+        <v>8.93</v>
       </c>
       <c r="H57" s="4">
-        <v>42149.47</v>
+        <v>90358.17</v>
       </c>
       <c r="I57">
-        <v>1.0900000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="J57">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2794,30 +2858,415 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>24900</v>
+        <v>51200</v>
       </c>
       <c r="D58" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-2.4799999999999999E-2</v>
       </c>
       <c r="E58">
-        <v>9.39</v>
+        <v>13.26</v>
       </c>
       <c r="F58">
-        <v>7.27</v>
+        <v>9.59</v>
       </c>
       <c r="G58">
-        <v>9.73</v>
+        <v>11.65</v>
       </c>
       <c r="H58" s="4">
-        <v>45501.38</v>
+        <v>28057.11</v>
       </c>
       <c r="I58">
         <v>4.82</v>
       </c>
       <c r="J58">
+        <v>63</v>
+      </c>
+      <c r="K58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2">
+        <v>112300</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="E59">
+        <v>16.75</v>
+      </c>
+      <c r="F59">
+        <v>8.9</v>
+      </c>
+      <c r="G59">
+        <v>21.73</v>
+      </c>
+      <c r="H59" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I59">
+        <v>0.32</v>
+      </c>
+      <c r="J59">
+        <v>60</v>
+      </c>
+      <c r="K59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2">
+        <v>80900</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="E60">
+        <v>7.19</v>
+      </c>
+      <c r="F60">
+        <v>3.32</v>
+      </c>
+      <c r="G60">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="H60" s="4">
+        <v>106654.47</v>
+      </c>
+      <c r="I60">
+        <v>0.99</v>
+      </c>
+      <c r="J60">
+        <v>65</v>
+      </c>
+      <c r="K60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2">
+        <v>53300</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="E61">
+        <v>19.62</v>
+      </c>
+      <c r="F61">
+        <v>5.18</v>
+      </c>
+      <c r="G61">
+        <v>10.95</v>
+      </c>
+      <c r="H61" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I61">
+        <v>0.66</v>
+      </c>
+      <c r="J61">
+        <v>72</v>
+      </c>
+      <c r="K61">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2">
+        <v>891000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6.83E-2</v>
+      </c>
+      <c r="E62">
+        <v>53.94</v>
+      </c>
+      <c r="F62">
+        <v>10.83</v>
+      </c>
+      <c r="G62">
+        <v>28.78</v>
+      </c>
+      <c r="H62" s="4">
+        <v>116255.06</v>
+      </c>
+      <c r="I62">
+        <v>0.39</v>
+      </c>
+      <c r="J62">
+        <v>86</v>
+      </c>
+      <c r="K62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>169100</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="E63">
+        <v>13.24</v>
+      </c>
+      <c r="F63">
+        <v>17.97</v>
+      </c>
+      <c r="G63">
+        <v>15.51</v>
+      </c>
+      <c r="H63" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I63">
+        <v>2.19</v>
+      </c>
+      <c r="J63">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2">
+        <v>181000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E64">
+        <v>21.85</v>
+      </c>
+      <c r="F64">
+        <v>29.41</v>
+      </c>
+      <c r="G64">
+        <v>15.32</v>
+      </c>
+      <c r="H64" s="4">
+        <v>24748.62</v>
+      </c>
+      <c r="I64">
+        <v>0.11</v>
+      </c>
+      <c r="J64">
+        <v>81</v>
+      </c>
+      <c r="K64">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2">
+        <v>299500</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E65">
+        <v>9.35</v>
+      </c>
+      <c r="F65">
+        <v>8.9</v>
+      </c>
+      <c r="G65">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H65" s="4">
+        <v>509344.58</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>51</v>
+      </c>
+      <c r="K65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2">
+        <v>79100</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>14.42</v>
+      </c>
+      <c r="F66">
+        <v>11.9</v>
+      </c>
+      <c r="G66">
+        <v>15.82</v>
+      </c>
+      <c r="H66" s="4">
+        <v>32483.7</v>
+      </c>
+      <c r="I66">
+        <v>6.95</v>
+      </c>
+      <c r="J66">
+        <v>82</v>
+      </c>
+      <c r="K66">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="2">
+        <v>220000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="E67">
+        <v>12.43</v>
+      </c>
+      <c r="F67">
+        <v>11.52</v>
+      </c>
+      <c r="G67">
+        <v>11.82</v>
+      </c>
+      <c r="H67" s="4">
+        <v>411868.79</v>
+      </c>
+      <c r="I67">
+        <v>5.45</v>
+      </c>
+      <c r="J67">
+        <v>47</v>
+      </c>
+      <c r="K67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>84000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="E68">
+        <v>19.62</v>
+      </c>
+      <c r="F68">
+        <v>12.01</v>
+      </c>
+      <c r="G68">
+        <v>6.74</v>
+      </c>
+      <c r="H68" s="4">
+        <v>130022.16</v>
+      </c>
+      <c r="I68">
+        <v>3.57</v>
+      </c>
+      <c r="J68">
+        <v>75</v>
+      </c>
+      <c r="K68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1199000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="E69">
+        <v>14.9</v>
+      </c>
+      <c r="F69">
+        <v>21.1</v>
+      </c>
+      <c r="G69">
+        <v>9.09</v>
+      </c>
+      <c r="H69" s="4">
+        <v>210765.09</v>
+      </c>
+      <c r="I69">
+        <v>0.42</v>
+      </c>
+      <c r="J69">
         <v>88</v>
       </c>
-      <c r="K58">
+      <c r="K69">
         <v>88</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E39A0D4-25F3-4D41-87EA-633EB643216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9405E4EE-DF5C-49F3-B65A-CA20E1098198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{944335C1-7D01-4C81-B1A4-B3AB5862E8D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{52E44E3A-45B7-4C76-9AA9-1867776C02CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,28 +54,646 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>000240</t>
+  </si>
+  <si>
+    <t>한국앤컴퍼니</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>000990</t>
+  </si>
+  <si>
+    <t>DB하이텍</t>
+  </si>
+  <si>
+    <t>001060</t>
+  </si>
+  <si>
+    <t>JW중외제약</t>
+  </si>
+  <si>
+    <t>001120</t>
+  </si>
+  <si>
+    <t>LX인터내셔널</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>002310</t>
+  </si>
+  <si>
+    <t>아세아제지</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>미원상사</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>삼양식품</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>003540</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>효성</t>
+  </si>
+  <si>
+    <t>005180</t>
+  </si>
+  <si>
+    <t>빙그레</t>
+  </si>
+  <si>
+    <t>005290</t>
+  </si>
+  <si>
+    <t>동진쎄미켐</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>DB손해보험</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>DN오토모티브</t>
+  </si>
+  <si>
+    <t>007660</t>
+  </si>
+  <si>
+    <t>이수페타시스</t>
+  </si>
+  <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>009450</t>
+  </si>
+  <si>
+    <t>경동나비엔</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>영원무역홀딩스</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>현대엘리베이터</t>
+  </si>
+  <si>
+    <t>018670</t>
+  </si>
+  <si>
+    <t>SK가스</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>포스코DX</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>다우기술</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>030190</t>
+  </si>
+  <si>
+    <t>NICE평가정보</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>031980</t>
+  </si>
+  <si>
+    <t>피에스케이홀딩스</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>033100</t>
+  </si>
+  <si>
+    <t>제룡전기</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>035900</t>
+  </si>
+  <si>
+    <t>JYP Ent.</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>036930</t>
+  </si>
+  <si>
+    <t>주성엔지니어링</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>HD현대인프라코어</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>한미반도체</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>058470</t>
+  </si>
+  <si>
+    <t>리노공업</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>064760</t>
+  </si>
+  <si>
+    <t>티씨케이</t>
+  </si>
+  <si>
+    <t>067160</t>
+  </si>
+  <si>
+    <t>SOOP</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+  </si>
+  <si>
+    <t>103140</t>
+  </si>
+  <si>
+    <t>풍산</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
     <t>BNK금융지주</t>
   </si>
   <si>
-    <t>005830</t>
-  </si>
-  <si>
-    <t>DB손해보험</t>
-  </si>
-  <si>
-    <t>007340</t>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>140860</t>
+  </si>
+  <si>
+    <t>파크시스템스</t>
+  </si>
+  <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>덴티움</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>183190</t>
+  </si>
+  <si>
+    <t>아세아시멘트</t>
+  </si>
+  <si>
+    <t>183300</t>
+  </si>
+  <si>
+    <t>코미코</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>더블유게임즈</t>
+  </si>
+  <si>
+    <t>192650</t>
+  </si>
+  <si>
+    <t>드림텍</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>코스맥스</t>
+  </si>
+  <si>
+    <t>214150</t>
+  </si>
+  <si>
+    <t>클래시스</t>
+  </si>
+  <si>
+    <t>214320</t>
+  </si>
+  <si>
+    <t>이노션</t>
+  </si>
+  <si>
+    <t>215200</t>
+  </si>
+  <si>
+    <t>메가스터디교육</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
   </si>
   <si>
     <t>267260</t>
@@ -84,226 +702,40 @@
     <t>HD현대일렉트릭</t>
   </si>
   <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>175330</t>
-  </si>
-  <si>
-    <t>JB금융지주</t>
-  </si>
-  <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>033780</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>003550</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>079550</t>
-  </si>
-  <si>
-    <t>LIG넥스원</t>
-  </si>
-  <si>
-    <t>006260</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>010120</t>
-  </si>
-  <si>
-    <t>LS ELECTRIC</t>
-  </si>
-  <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>000660</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
-  </si>
-  <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>024110</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>023590</t>
-  </si>
-  <si>
-    <t>다우기술</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003490</t>
-  </si>
-  <si>
-    <t>대한항공</t>
-  </si>
-  <si>
-    <t>138040</t>
-  </si>
-  <si>
-    <t>메리츠금융지주</t>
-  </si>
-  <si>
-    <t>006800</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>005930</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>016360</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>029780</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>000810</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
-  </si>
-  <si>
-    <t>003230</t>
-  </si>
-  <si>
-    <t>삼양식품</t>
-  </si>
-  <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>055550</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>183190</t>
-  </si>
-  <si>
-    <t>아세아시멘트</t>
-  </si>
-  <si>
-    <t>002310</t>
-  </si>
-  <si>
-    <t>아세아제지</t>
-  </si>
-  <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
-    <t>009970</t>
-  </si>
-  <si>
-    <t>영원무역홀딩스</t>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>한화시스템</t>
+  </si>
+  <si>
+    <t>272290</t>
+  </si>
+  <si>
+    <t>이녹스첨단소재</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>BGF리테일</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
   </si>
   <si>
     <t>316140</t>
@@ -312,154 +744,22 @@
     <t>우리금융지주</t>
   </si>
   <si>
-    <t>214320</t>
-  </si>
-  <si>
-    <t>이노션</t>
-  </si>
-  <si>
-    <t>007660</t>
-  </si>
-  <si>
-    <t>이수페타시스</t>
-  </si>
-  <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>183300</t>
-  </si>
-  <si>
-    <t>코미코</t>
-  </si>
-  <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>코웨이</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>214450</t>
-  </si>
-  <si>
-    <t>파마리서치</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>071050</t>
-  </si>
-  <si>
-    <t>한국금융지주</t>
-  </si>
-  <si>
-    <t>000240</t>
-  </si>
-  <si>
-    <t>한국앤컴퍼니</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로</t>
-  </si>
-  <si>
-    <t>051600</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
-    <t>180640</t>
-  </si>
-  <si>
-    <t>한진칼</t>
-  </si>
-  <si>
-    <t>000880</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>272210</t>
-  </si>
-  <si>
-    <t>한화시스템</t>
-  </si>
-  <si>
-    <t>012450</t>
-  </si>
-  <si>
-    <t>한화에어로스페이스</t>
-  </si>
-  <si>
-    <t>086280</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
-    <t>064350</t>
-  </si>
-  <si>
-    <t>현대로템</t>
-  </si>
-  <si>
-    <t>012330</t>
-  </si>
-  <si>
-    <t>현대모비스</t>
-  </si>
-  <si>
-    <t>017800</t>
-  </si>
-  <si>
-    <t>현대엘리베이터</t>
-  </si>
-  <si>
-    <t>005380</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
-  </si>
-  <si>
-    <t>298040</t>
-  </si>
-  <si>
-    <t>효성중공업</t>
+    <t>319660</t>
+  </si>
+  <si>
+    <t>피에스케이</t>
+  </si>
+  <si>
+    <t>336570</t>
+  </si>
+  <si>
+    <t>원텍</t>
+  </si>
+  <si>
+    <t>357780</t>
+  </si>
+  <si>
+    <t>솔브레인</t>
   </si>
 </sst>
 </file>
@@ -837,10 +1137,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3428DF-9A09-40D8-BD57-9BB9D02252B7}">
-  <dimension ref="A1:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA52382-C3B1-4DA6-B492-595A3C7FAA58}">
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -898,31 +1198,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>14330</v>
+        <v>22450</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.4E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>6.96</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F2">
-        <v>6.28</v>
+        <v>7.78</v>
       </c>
       <c r="G2">
-        <v>7.18</v>
+        <v>5.8</v>
       </c>
       <c r="H2" s="4">
-        <v>33008.75</v>
+        <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.54</v>
+        <v>4.45</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -933,31 +1233,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>131300</v>
+        <v>104700</v>
       </c>
       <c r="D3" s="3">
-        <v>1.47E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="E3">
-        <v>18.96</v>
+        <v>19.09</v>
       </c>
       <c r="F3">
-        <v>19.86</v>
+        <v>17.12</v>
       </c>
       <c r="G3">
-        <v>18.8</v>
+        <v>18.03</v>
       </c>
       <c r="H3" s="4">
-        <v>115980.87</v>
+        <v>141851.03</v>
       </c>
       <c r="I3">
-        <v>5.18</v>
+        <v>6.21</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -968,31 +1268,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>25000</v>
+        <v>259500</v>
       </c>
       <c r="D4" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>3.39E-2</v>
       </c>
       <c r="E4">
-        <v>19.78</v>
+        <v>31.06</v>
       </c>
       <c r="F4">
-        <v>13.61</v>
+        <v>41.75</v>
       </c>
       <c r="G4">
-        <v>23.29</v>
+        <v>6.34</v>
       </c>
       <c r="H4" s="4">
-        <v>31476.26</v>
+        <v>114794.74</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -1003,31 +1303,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>44100</v>
+        <v>441000</v>
       </c>
       <c r="D5" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="E5">
-        <v>4.12</v>
+        <v>13.09</v>
       </c>
       <c r="F5">
-        <v>3.45</v>
+        <v>15.71</v>
       </c>
       <c r="G5">
-        <v>11.01</v>
+        <v>12.47</v>
       </c>
       <c r="H5" s="4">
-        <v>148026.10999999999</v>
+        <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>6.12</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J5">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1038,31 +1338,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>490000</v>
+        <v>82400</v>
       </c>
       <c r="D6" s="3">
-        <v>6.8699999999999997E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>39.340000000000003</v>
+        <v>7.19</v>
       </c>
       <c r="F6">
-        <v>41.01</v>
+        <v>3.32</v>
       </c>
       <c r="G6">
-        <v>29.72</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H6" s="4">
-        <v>42149.47</v>
+        <v>106654.47</v>
       </c>
       <c r="I6">
-        <v>1.0900000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="J6">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1073,31 +1373,31 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>13930</v>
+        <v>44350</v>
       </c>
       <c r="D7" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="E7">
-        <v>3.6</v>
+        <v>12.44</v>
       </c>
       <c r="F7">
-        <v>10.34</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="G7">
-        <v>5.91</v>
+        <v>22.89</v>
       </c>
       <c r="H7" s="4">
-        <v>35883.14</v>
+        <v>46869.37</v>
       </c>
       <c r="I7">
-        <v>3.59</v>
+        <v>2.77</v>
       </c>
       <c r="J7">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1108,31 +1408,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>22750</v>
+        <v>21750</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.09E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E8">
-        <v>12.8</v>
+        <v>21.86</v>
       </c>
       <c r="F8">
-        <v>11.61</v>
+        <v>21.16</v>
       </c>
       <c r="G8">
-        <v>12.93</v>
+        <v>16.98</v>
       </c>
       <c r="H8" s="4">
-        <v>29151.87</v>
+        <v>13971.64</v>
       </c>
       <c r="I8">
-        <v>4.37</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J8">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1143,31 +1443,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>108400</v>
+        <v>29900</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E9">
-        <v>8.86</v>
+        <v>7.12</v>
       </c>
       <c r="F9">
-        <v>11.69</v>
+        <v>14.97</v>
       </c>
       <c r="G9">
-        <v>8.51</v>
+        <v>12.61</v>
       </c>
       <c r="H9" s="4">
-        <v>152301.9</v>
+        <v>70348.56</v>
       </c>
       <c r="I9">
-        <v>2.93</v>
+        <v>6.69</v>
       </c>
       <c r="J9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1178,31 +1478,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>55000</v>
+        <v>27750</v>
       </c>
       <c r="D10" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>2.85</v>
+        <v>1.04</v>
       </c>
       <c r="F10">
-        <v>13.16</v>
+        <v>1.27</v>
       </c>
       <c r="G10">
-        <v>5.63</v>
+        <v>4.21</v>
       </c>
       <c r="H10" s="4">
-        <v>66926.62</v>
+        <v>52692.43</v>
       </c>
       <c r="I10">
-        <v>3.64</v>
+        <v>4.32</v>
       </c>
       <c r="J10">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1213,31 +1513,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>136900</v>
+        <v>7730</v>
       </c>
       <c r="D11" s="3">
-        <v>-1.5E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="E11">
-        <v>12.66</v>
+        <v>2.84</v>
       </c>
       <c r="F11">
-        <v>11.17</v>
+        <v>5.74</v>
       </c>
       <c r="G11">
-        <v>11.14</v>
+        <v>8.36</v>
       </c>
       <c r="H11" s="4">
-        <v>81115.86</v>
+        <v>20517.7</v>
       </c>
       <c r="I11">
-        <v>3.94</v>
+        <v>2.85</v>
       </c>
       <c r="J11">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1248,31 +1548,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>72100</v>
+        <v>145800</v>
       </c>
       <c r="D12" s="3">
-        <v>-6.8999999999999999E-3</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>2.16</v>
+        <v>12.99</v>
       </c>
       <c r="F12">
-        <v>8.5</v>
+        <v>12.99</v>
       </c>
       <c r="G12">
-        <v>5.18</v>
+        <v>17.53</v>
       </c>
       <c r="H12" s="4">
-        <v>174674.22</v>
+        <v>89747.12</v>
       </c>
       <c r="I12">
-        <v>4.3</v>
+        <v>1.37</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1283,31 +1583,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>14960</v>
+        <v>1431000</v>
       </c>
       <c r="D13" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E13">
-        <v>4.4000000000000004</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="F13">
-        <v>7.75</v>
+        <v>40.79</v>
       </c>
       <c r="G13">
-        <v>6.75</v>
+        <v>27.7</v>
       </c>
       <c r="H13" s="4">
-        <v>19799.21</v>
+        <v>131565.21</v>
       </c>
       <c r="I13">
-        <v>4.34</v>
+        <v>0.23</v>
       </c>
       <c r="J13">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1318,31 +1618,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>524000</v>
+        <v>25600</v>
       </c>
       <c r="D14" s="3">
-        <v>5.7500000000000002E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>19.59</v>
+        <v>13.17</v>
       </c>
       <c r="F14">
-        <v>29.63</v>
+        <v>10.87</v>
       </c>
       <c r="G14">
-        <v>17.23</v>
+        <v>15.53</v>
       </c>
       <c r="H14" s="4">
-        <v>61380.67</v>
+        <v>28386.639999999999</v>
       </c>
       <c r="I14">
-        <v>0.46</v>
+        <v>2.93</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1353,31 +1653,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>160400</v>
+        <v>25900</v>
       </c>
       <c r="D15" s="3">
-        <v>6.3700000000000007E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="E15">
-        <v>5.09</v>
+        <v>4.57</v>
       </c>
       <c r="F15">
-        <v>7.34</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G15">
-        <v>11.63</v>
+        <v>4.55</v>
       </c>
       <c r="H15" s="4">
-        <v>154845.78</v>
+        <v>38894.53</v>
       </c>
       <c r="I15">
-        <v>1.03</v>
+        <v>4.63</v>
       </c>
       <c r="J15">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1388,31 +1688,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>281500</v>
+        <v>72900</v>
       </c>
       <c r="D16" s="3">
-        <v>6.83E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E16">
-        <v>13.44</v>
+        <v>2.16</v>
       </c>
       <c r="F16">
-        <v>15.22</v>
+        <v>8.5</v>
       </c>
       <c r="G16">
-        <v>10.67</v>
+        <v>5.18</v>
       </c>
       <c r="H16" s="4">
-        <v>61485.71</v>
+        <v>174674.22</v>
       </c>
       <c r="I16">
-        <v>1.03</v>
+        <v>4.25</v>
       </c>
       <c r="J16">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1423,31 +1723,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>29700</v>
+        <v>62800</v>
       </c>
       <c r="D17" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="E17">
-        <v>7.12</v>
+        <v>12.89</v>
       </c>
       <c r="F17">
-        <v>14.97</v>
+        <v>11.42</v>
       </c>
       <c r="G17">
-        <v>12.61</v>
+        <v>7.9</v>
       </c>
       <c r="H17" s="4">
-        <v>70348.56</v>
+        <v>26995.84</v>
       </c>
       <c r="I17">
-        <v>6.73</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J17">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="K17">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1458,31 +1758,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>19120</v>
+        <v>10560</v>
       </c>
       <c r="D18" s="3">
-        <v>1.43E-2</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="E18">
-        <v>8.73</v>
+        <v>9.44</v>
       </c>
       <c r="F18">
-        <v>10.35</v>
+        <v>11.1</v>
       </c>
       <c r="G18">
-        <v>6.85</v>
+        <v>9.86</v>
       </c>
       <c r="H18" s="4">
-        <v>23121.599999999999</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I18">
-        <v>4.97</v>
+        <v>4.88</v>
       </c>
       <c r="J18">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1493,31 +1793,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
+        <v>83700</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E19">
-        <v>10.83</v>
+        <v>19.62</v>
       </c>
       <c r="F19">
-        <v>7.71</v>
+        <v>12.01</v>
       </c>
       <c r="G19">
-        <v>9.48</v>
+        <v>6.74</v>
       </c>
       <c r="H19" s="4">
-        <v>55591.17</v>
+        <v>130022.16</v>
       </c>
       <c r="I19">
-        <v>6.38</v>
+        <v>3.58</v>
       </c>
       <c r="J19">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1528,31 +1828,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>251000</v>
+        <v>69600</v>
       </c>
       <c r="D20" s="3">
-        <v>2.4500000000000001E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E20">
-        <v>31.06</v>
+        <v>15.14</v>
       </c>
       <c r="F20">
-        <v>41.75</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G20">
-        <v>6.34</v>
+        <v>11.28</v>
       </c>
       <c r="H20" s="4">
-        <v>114794.74</v>
+        <v>77961.67</v>
       </c>
       <c r="I20">
-        <v>0.88</v>
+        <v>4.74</v>
       </c>
       <c r="J20">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1563,31 +1863,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>59700</v>
+        <v>30000</v>
       </c>
       <c r="D21" s="3">
-        <v>4.0099999999999997E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E21">
-        <v>12.89</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="F21">
-        <v>11.42</v>
+        <v>14.85</v>
       </c>
       <c r="G21">
-        <v>7.9</v>
+        <v>19.88</v>
       </c>
       <c r="H21" s="4">
-        <v>26995.84</v>
+        <v>19885.900000000001</v>
       </c>
       <c r="I21">
-        <v>2.1800000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="J21">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1598,25 +1898,25 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>17990</v>
+        <v>121000</v>
       </c>
       <c r="D22" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>12.08</v>
+        <v>3.99</v>
       </c>
       <c r="F22">
-        <v>7.85</v>
+        <v>4.26</v>
       </c>
       <c r="G22">
-        <v>8.39</v>
+        <v>8.24</v>
       </c>
       <c r="H22" s="4">
-        <v>18381.900000000001</v>
+        <v>147945.78</v>
       </c>
       <c r="I22">
-        <v>6.5</v>
+        <v>2.81</v>
       </c>
       <c r="J22">
         <v>29</v>
@@ -1633,31 +1933,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>104800</v>
+        <v>222000</v>
       </c>
       <c r="D23" s="3">
-        <v>8.6999999999999994E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E23">
-        <v>19.09</v>
+        <v>12.43</v>
       </c>
       <c r="F23">
-        <v>17.12</v>
+        <v>11.52</v>
       </c>
       <c r="G23">
-        <v>18.03</v>
+        <v>11.82</v>
       </c>
       <c r="H23" s="4">
-        <v>141851.03</v>
+        <v>411868.79</v>
       </c>
       <c r="I23">
-        <v>6.2</v>
+        <v>5.41</v>
       </c>
       <c r="J23">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1668,31 +1968,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>19160</v>
+        <v>131600</v>
       </c>
       <c r="D24" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E24">
-        <v>8.06</v>
+        <v>18.96</v>
       </c>
       <c r="F24">
-        <v>9.52</v>
+        <v>19.86</v>
       </c>
       <c r="G24">
-        <v>8.77</v>
+        <v>18.8</v>
       </c>
       <c r="H24" s="4">
-        <v>42663.82</v>
+        <v>115980.87</v>
       </c>
       <c r="I24">
-        <v>5.56</v>
+        <v>5.17</v>
       </c>
       <c r="J24">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1703,31 +2003,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>31600</v>
+        <v>33550</v>
       </c>
       <c r="D25" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="E25">
-        <v>13.16</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F25">
-        <v>16.53</v>
+        <v>17.22</v>
       </c>
       <c r="G25">
-        <v>13.29</v>
+        <v>15.37</v>
       </c>
       <c r="H25" s="4">
-        <v>70038.45</v>
+        <v>50552.95</v>
       </c>
       <c r="I25">
-        <v>4.43</v>
+        <v>3.58</v>
       </c>
       <c r="J25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1738,31 +2038,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>24750</v>
+        <v>71500</v>
       </c>
       <c r="D26" s="3">
-        <v>-2E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E26">
-        <v>4.57</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F26">
-        <v>9.2899999999999991</v>
+        <v>6.64</v>
       </c>
       <c r="G26">
-        <v>4.55</v>
+        <v>10.08</v>
       </c>
       <c r="H26" s="4">
-        <v>38894.53</v>
+        <v>58114.39</v>
       </c>
       <c r="I26">
-        <v>4.8499999999999996</v>
+        <v>2.02</v>
       </c>
       <c r="J26">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1773,31 +2073,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>24850</v>
+        <v>19450</v>
       </c>
       <c r="D27" s="3">
-        <v>-4.0000000000000001E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>13.17</v>
+        <v>8.73</v>
       </c>
       <c r="F27">
-        <v>10.87</v>
+        <v>10.35</v>
       </c>
       <c r="G27">
-        <v>15.53</v>
+        <v>6.85</v>
       </c>
       <c r="H27" s="4">
-        <v>28386.639999999999</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I27">
-        <v>3.02</v>
+        <v>4.88</v>
       </c>
       <c r="J27">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1808,31 +2108,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>129000</v>
+        <v>166200</v>
       </c>
       <c r="D28" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="E28">
-        <v>23.44</v>
+        <v>5.09</v>
       </c>
       <c r="F28">
-        <v>24.59</v>
+        <v>7.34</v>
       </c>
       <c r="G28">
-        <v>27.89</v>
+        <v>11.63</v>
       </c>
       <c r="H28" s="4">
-        <v>55646.89</v>
+        <v>154845.78</v>
       </c>
       <c r="I28">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="J28">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1843,10 +2143,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>17790</v>
+        <v>18300</v>
       </c>
       <c r="D29" s="3">
-        <v>-5.5999999999999999E-3</v>
+        <v>2.87E-2</v>
       </c>
       <c r="E29">
         <v>7.94</v>
@@ -1861,13 +2161,13 @@
         <v>17214.37</v>
       </c>
       <c r="I29">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="J29">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1878,31 +2178,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>139400</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
+        <v>25300</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.2E-2</v>
       </c>
       <c r="E30">
-        <v>5.76</v>
+        <v>19.78</v>
       </c>
       <c r="F30">
-        <v>8.44</v>
+        <v>13.61</v>
       </c>
       <c r="G30">
-        <v>5.33</v>
+        <v>23.29</v>
       </c>
       <c r="H30" s="4">
-        <v>158106.71</v>
+        <v>31476.26</v>
       </c>
       <c r="I30">
-        <v>3.23</v>
+        <v>3.95</v>
       </c>
       <c r="J30">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1913,31 +2213,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>71400</v>
+        <v>63200</v>
       </c>
       <c r="D31" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E31">
-        <v>9.0299999999999994</v>
+        <v>24.91</v>
       </c>
       <c r="F31">
-        <v>6.64</v>
+        <v>44.8</v>
       </c>
       <c r="G31">
-        <v>10.08</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H31" s="4">
-        <v>58114.39</v>
+        <v>5514.68</v>
       </c>
       <c r="I31">
-        <v>2.0299999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="J31">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1948,31 +2248,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>67100</v>
+        <v>41050</v>
       </c>
       <c r="D32" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E32">
-        <v>12.89</v>
+        <v>7.3</v>
       </c>
       <c r="F32">
-        <v>13.62</v>
+        <v>11.86</v>
       </c>
       <c r="G32">
-        <v>9.44</v>
+        <v>10.77</v>
       </c>
       <c r="H32" s="4">
-        <v>81376.7</v>
+        <v>12631</v>
       </c>
       <c r="I32">
-        <v>5.22</v>
+        <v>0.73</v>
       </c>
       <c r="J32">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="K32">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1983,31 +2283,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>50300</v>
+        <v>42200</v>
       </c>
       <c r="D33" s="3">
-        <v>1.11E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>43.59</v>
       </c>
       <c r="F33">
-        <v>8.75</v>
+        <v>22.49</v>
       </c>
       <c r="G33">
-        <v>7.9</v>
+        <v>4.82</v>
       </c>
       <c r="H33" s="4">
-        <v>75767.48</v>
+        <v>28103.97</v>
       </c>
       <c r="I33">
-        <v>5.57</v>
+        <v>20.21</v>
       </c>
       <c r="J33">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -2018,31 +2318,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>443000</v>
+        <v>77300</v>
       </c>
       <c r="D34" s="3">
-        <v>2.3E-3</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="E34">
-        <v>13.09</v>
+        <v>19.43</v>
       </c>
       <c r="F34">
-        <v>15.71</v>
+        <v>21.29</v>
       </c>
       <c r="G34">
-        <v>12.47</v>
+        <v>15.2</v>
       </c>
       <c r="H34" s="4">
-        <v>333812.02</v>
+        <v>49563.94</v>
       </c>
       <c r="I34">
-        <v>4.29</v>
+        <v>0.84</v>
       </c>
       <c r="J34">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2053,31 +2353,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>1438000</v>
+        <v>122400</v>
       </c>
       <c r="D35" s="3">
-        <v>3.7499999999999999E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E35">
-        <v>39.369999999999997</v>
+        <v>13.17</v>
       </c>
       <c r="F35">
-        <v>40.79</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G35">
-        <v>27.7</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H35" s="4">
-        <v>131565.21</v>
+        <v>201114.72</v>
       </c>
       <c r="I35">
-        <v>0.23</v>
+        <v>4.37</v>
       </c>
       <c r="J35">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2088,31 +2388,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>27300</v>
+        <v>286500</v>
       </c>
       <c r="D36" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="E36">
-        <v>1.04</v>
+        <v>13.44</v>
       </c>
       <c r="F36">
-        <v>1.27</v>
+        <v>15.22</v>
       </c>
       <c r="G36">
-        <v>4.21</v>
+        <v>10.67</v>
       </c>
       <c r="H36" s="4">
-        <v>52692.43</v>
+        <v>61485.71</v>
       </c>
       <c r="I36">
-        <v>4.4000000000000004</v>
+        <v>1.01</v>
       </c>
       <c r="J36">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2123,31 +2423,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>66700</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>158700</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>8.11</v>
+        <v>8.92</v>
       </c>
       <c r="F37">
-        <v>10.55</v>
+        <v>2.9</v>
       </c>
       <c r="G37">
-        <v>8.66</v>
+        <v>15.79</v>
       </c>
       <c r="H37" s="4">
-        <v>113903.42</v>
+        <v>222886.92</v>
       </c>
       <c r="I37">
-        <v>3.24</v>
+        <v>1.32</v>
       </c>
       <c r="J37">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="K37">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2158,31 +2458,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>13710</v>
+        <v>22450</v>
       </c>
       <c r="D38" s="3">
-        <v>-1.01E-2</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="E38">
-        <v>7.65</v>
+        <v>15.35</v>
       </c>
       <c r="F38">
-        <v>4.43</v>
+        <v>8.93</v>
       </c>
       <c r="G38">
-        <v>7.8</v>
+        <v>28.31</v>
       </c>
       <c r="H38" s="4">
-        <v>29805.78</v>
+        <v>25749.07</v>
       </c>
       <c r="I38">
-        <v>1.9</v>
+        <v>2.67</v>
       </c>
       <c r="J38">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="K38">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2193,31 +2493,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>7620</v>
+        <v>113300</v>
       </c>
       <c r="D39" s="3">
-        <v>-2.5999999999999999E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E39">
-        <v>2.84</v>
+        <v>5.88</v>
       </c>
       <c r="F39">
-        <v>5.74</v>
+        <v>8.24</v>
       </c>
       <c r="G39">
-        <v>8.36</v>
+        <v>10.87</v>
       </c>
       <c r="H39" s="4">
-        <v>20517.7</v>
+        <v>207745.28</v>
       </c>
       <c r="I39">
-        <v>2.89</v>
+        <v>1.94</v>
       </c>
       <c r="J39">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K39">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2228,31 +2528,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>33800</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
+        <v>299000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>17.420000000000002</v>
+        <v>9.35</v>
       </c>
       <c r="F40">
-        <v>17.22</v>
+        <v>8.9</v>
       </c>
       <c r="G40">
-        <v>15.37</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H40" s="4">
-        <v>50552.95</v>
+        <v>509344.58</v>
       </c>
       <c r="I40">
-        <v>3.55</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J40">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2263,31 +2563,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>77400</v>
+        <v>903000</v>
       </c>
       <c r="D41" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E41">
-        <v>10.85</v>
+        <v>53.94</v>
       </c>
       <c r="F41">
-        <v>11.33</v>
+        <v>10.83</v>
       </c>
       <c r="G41">
-        <v>11.06</v>
+        <v>28.78</v>
       </c>
       <c r="H41" s="4">
-        <v>47834.19</v>
+        <v>116255.06</v>
       </c>
       <c r="I41">
-        <v>3.49</v>
+        <v>0.39</v>
       </c>
       <c r="J41">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2298,31 +2598,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>56600</v>
+        <v>78800</v>
       </c>
       <c r="D42" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E42">
-        <v>12.32</v>
+        <v>10.85</v>
       </c>
       <c r="F42">
-        <v>9.67</v>
+        <v>11.33</v>
       </c>
       <c r="G42">
-        <v>18.72</v>
+        <v>11.06</v>
       </c>
       <c r="H42" s="4">
-        <v>84441.54</v>
+        <v>47834.19</v>
       </c>
       <c r="I42">
-        <v>2.4700000000000002</v>
+        <v>3.43</v>
       </c>
       <c r="J42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2333,31 +2633,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>121300</v>
+        <v>171500</v>
       </c>
       <c r="D43" s="3">
-        <v>3.3E-3</v>
+        <v>2.63E-2</v>
       </c>
       <c r="E43">
-        <v>13.17</v>
+        <v>13.48</v>
       </c>
       <c r="F43">
-        <v>10.220000000000001</v>
+        <v>14.82</v>
       </c>
       <c r="G43">
-        <v>18.010000000000002</v>
+        <v>15.98</v>
       </c>
       <c r="H43" s="4">
-        <v>201114.72</v>
+        <v>90006.399999999994</v>
       </c>
       <c r="I43">
-        <v>4.41</v>
+        <v>1.22</v>
       </c>
       <c r="J43">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="K43">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2368,31 +2668,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>24900</v>
+        <v>29650</v>
       </c>
       <c r="D44" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E44">
-        <v>9.39</v>
+        <v>9.01</v>
       </c>
       <c r="F44">
-        <v>7.27</v>
+        <v>6.32</v>
       </c>
       <c r="G44">
-        <v>9.73</v>
+        <v>9.32</v>
       </c>
       <c r="H44" s="4">
-        <v>45501.38</v>
+        <v>28565.41</v>
       </c>
       <c r="I44">
-        <v>4.82</v>
+        <v>2.02</v>
       </c>
       <c r="J44">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K44">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2403,31 +2703,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>18620</v>
+        <v>68900</v>
       </c>
       <c r="D45" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E45">
-        <v>10.48</v>
+        <v>12.89</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>13.62</v>
       </c>
       <c r="G45">
-        <v>10.17</v>
+        <v>9.44</v>
       </c>
       <c r="H45" s="4">
-        <v>24686.55</v>
+        <v>81376.7</v>
       </c>
       <c r="I45">
-        <v>6.31</v>
+        <v>5.08</v>
       </c>
       <c r="J45">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2438,31 +2738,31 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>59100</v>
+        <v>55200</v>
       </c>
       <c r="D46" s="3">
-        <v>4.2299999999999997E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="E46">
-        <v>24.91</v>
+        <v>10.83</v>
       </c>
       <c r="F46">
-        <v>44.8</v>
+        <v>7.71</v>
       </c>
       <c r="G46">
-        <v>34.450000000000003</v>
+        <v>9.48</v>
       </c>
       <c r="H46" s="4">
-        <v>5514.68</v>
+        <v>55591.17</v>
       </c>
       <c r="I46">
-        <v>0.25</v>
+        <v>6.41</v>
       </c>
       <c r="J46">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2473,31 +2773,31 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>19570</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
+        <v>81200</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="E47">
-        <v>15.12</v>
+        <v>14.42</v>
       </c>
       <c r="F47">
-        <v>7.98</v>
+        <v>11.9</v>
       </c>
       <c r="G47">
-        <v>15.58</v>
+        <v>15.82</v>
       </c>
       <c r="H47" s="4">
-        <v>14481.01</v>
+        <v>32483.7</v>
       </c>
       <c r="I47">
-        <v>6.29</v>
+        <v>6.77</v>
       </c>
       <c r="J47">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2508,31 +2808,31 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>10630</v>
+        <v>240500</v>
       </c>
       <c r="D48" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>9.44</v>
+        <v>6.74</v>
       </c>
       <c r="F48">
-        <v>11.1</v>
+        <v>10.02</v>
       </c>
       <c r="G48">
-        <v>9.86</v>
+        <v>10.37</v>
       </c>
       <c r="H48" s="4">
-        <v>18178.189999999999</v>
+        <v>304848.84999999998</v>
       </c>
       <c r="I48">
-        <v>4.84</v>
+        <v>3.33</v>
       </c>
       <c r="J48">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2543,31 +2843,31 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>74000</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
+        <v>106600</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.52E-2</v>
       </c>
       <c r="E49">
-        <v>23.36</v>
+        <v>19.38</v>
       </c>
       <c r="F49">
-        <v>18.75</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="G49">
-        <v>18.11</v>
+        <v>20.04</v>
       </c>
       <c r="H49" s="4">
-        <v>27078.44</v>
+        <v>43969.66</v>
       </c>
       <c r="I49">
-        <v>1.35</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J49">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2578,31 +2878,31 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>105000</v>
+        <v>23850</v>
       </c>
       <c r="D50" s="3">
-        <v>7.7000000000000002E-3</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E50">
-        <v>19.38</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="F50">
-        <v>17.489999999999998</v>
+        <v>13.31</v>
       </c>
       <c r="G50">
-        <v>20.04</v>
+        <v>16.95</v>
       </c>
       <c r="H50" s="4">
-        <v>43969.66</v>
+        <v>3631.16</v>
       </c>
       <c r="I50">
-        <v>2.5</v>
+        <v>0.52</v>
       </c>
       <c r="J50">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="K50">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2613,31 +2913,31 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>199200</v>
+        <v>32350</v>
       </c>
       <c r="D51" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>15.98</v>
+        <v>13.16</v>
       </c>
       <c r="F51">
-        <v>18.79</v>
+        <v>16.53</v>
       </c>
       <c r="G51">
-        <v>12.25</v>
+        <v>13.29</v>
       </c>
       <c r="H51" s="4">
-        <v>224185.76</v>
+        <v>70038.45</v>
       </c>
       <c r="I51">
-        <v>3.77</v>
+        <v>4.33</v>
       </c>
       <c r="J51">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2648,31 +2948,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>700000</v>
+        <v>19340</v>
       </c>
       <c r="D52" s="3">
-        <v>2.9399999999999999E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E52">
-        <v>18.93</v>
+        <v>8.06</v>
       </c>
       <c r="F52">
-        <v>26.22</v>
+        <v>9.52</v>
       </c>
       <c r="G52">
-        <v>17.05</v>
+        <v>8.77</v>
       </c>
       <c r="H52" s="4">
-        <v>48689.31</v>
+        <v>42663.82</v>
       </c>
       <c r="I52">
-        <v>0.16</v>
+        <v>5.51</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2683,31 +2983,31 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>82300</v>
+        <v>27550</v>
       </c>
       <c r="D53" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E53">
-        <v>9.11</v>
+        <v>9.52</v>
       </c>
       <c r="F53">
-        <v>10.47</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>9.4</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="H53" s="4">
-        <v>153124.29</v>
+        <v>16999.45</v>
       </c>
       <c r="I53">
-        <v>4.37</v>
+        <v>3.23</v>
       </c>
       <c r="J53">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2718,31 +3018,31 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>40200</v>
+        <v>50600</v>
       </c>
       <c r="D54" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E54">
-        <v>11.21</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>13.43</v>
+        <v>8.75</v>
       </c>
       <c r="G54">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="H54" s="4">
-        <v>121076.78</v>
+        <v>75767.48</v>
       </c>
       <c r="I54">
-        <v>3.62</v>
+        <v>5.53</v>
       </c>
       <c r="J54">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2753,31 +3053,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>127200</v>
+        <v>19630</v>
       </c>
       <c r="D55" s="3">
-        <v>1.52E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>11.54</v>
+        <v>15.12</v>
       </c>
       <c r="F55">
-        <v>18.760000000000002</v>
+        <v>7.98</v>
       </c>
       <c r="G55">
-        <v>9.6</v>
+        <v>15.58</v>
       </c>
       <c r="H55" s="4">
-        <v>161615.43</v>
+        <v>14481.01</v>
       </c>
       <c r="I55">
-        <v>3.13</v>
+        <v>6.27</v>
       </c>
       <c r="J55">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="K55">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2788,31 +3088,31 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>21300</v>
+        <v>15530</v>
       </c>
       <c r="D56" s="3">
-        <v>-2.52E-2</v>
+        <v>-2.8799999999999999E-2</v>
       </c>
       <c r="E56">
-        <v>8.2799999999999994</v>
+        <v>19.48</v>
       </c>
       <c r="F56">
-        <v>7.78</v>
+        <v>19.66</v>
       </c>
       <c r="G56">
-        <v>5.8</v>
+        <v>17.21</v>
       </c>
       <c r="H56" s="4">
-        <v>46238.98</v>
+        <v>7311.99</v>
       </c>
       <c r="I56">
-        <v>4.6900000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="J56">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K56">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2823,31 +3123,31 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>40100</v>
+        <v>55100</v>
       </c>
       <c r="D57" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E57">
-        <v>10.79</v>
+        <v>2.85</v>
       </c>
       <c r="F57">
-        <v>11.5</v>
+        <v>13.16</v>
       </c>
       <c r="G57">
-        <v>8.93</v>
+        <v>5.63</v>
       </c>
       <c r="H57" s="4">
-        <v>90358.17</v>
+        <v>66926.62</v>
       </c>
       <c r="I57">
-        <v>4.99</v>
+        <v>3.63</v>
       </c>
       <c r="J57">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2858,31 +3158,31 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>51200</v>
+        <v>31900</v>
       </c>
       <c r="D58" s="3">
-        <v>-2.4799999999999999E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="E58">
-        <v>13.26</v>
+        <v>24.8</v>
       </c>
       <c r="F58">
-        <v>9.59</v>
+        <v>14.49</v>
       </c>
       <c r="G58">
-        <v>11.65</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="H58" s="4">
-        <v>28057.11</v>
+        <v>20020.86</v>
       </c>
       <c r="I58">
-        <v>4.82</v>
+        <v>2.19</v>
       </c>
       <c r="J58">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="K58">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -2893,31 +3193,31 @@
         <v>124</v>
       </c>
       <c r="C59" s="2">
-        <v>112300</v>
+        <v>15060</v>
       </c>
       <c r="D59" s="3">
-        <v>1.9099999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E59">
-        <v>16.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F59">
-        <v>8.9</v>
+        <v>7.75</v>
       </c>
       <c r="G59">
-        <v>21.73</v>
+        <v>6.75</v>
       </c>
       <c r="H59" s="4">
-        <v>48385.21</v>
+        <v>19799.21</v>
       </c>
       <c r="I59">
-        <v>0.32</v>
+        <v>4.32</v>
       </c>
       <c r="J59">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K59">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -2928,31 +3228,31 @@
         <v>126</v>
       </c>
       <c r="C60" s="2">
-        <v>80900</v>
+        <v>141000</v>
       </c>
       <c r="D60" s="3">
-        <v>3.4500000000000003E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E60">
-        <v>7.19</v>
+        <v>5.76</v>
       </c>
       <c r="F60">
-        <v>3.32</v>
+        <v>8.44</v>
       </c>
       <c r="G60">
-        <v>8.3699999999999992</v>
+        <v>5.33</v>
       </c>
       <c r="H60" s="4">
-        <v>106654.47</v>
+        <v>158106.71</v>
       </c>
       <c r="I60">
-        <v>0.99</v>
+        <v>3.19</v>
       </c>
       <c r="J60">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="K60">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -2963,31 +3263,31 @@
         <v>128</v>
       </c>
       <c r="C61" s="2">
-        <v>53300</v>
+        <v>35250</v>
       </c>
       <c r="D61" s="3">
-        <v>4.3099999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E61">
-        <v>19.62</v>
+        <v>49.72</v>
       </c>
       <c r="F61">
-        <v>5.18</v>
+        <v>29.33</v>
       </c>
       <c r="G61">
-        <v>10.95</v>
+        <v>42.19</v>
       </c>
       <c r="H61" s="4">
-        <v>17954.61</v>
+        <v>13104.16</v>
       </c>
       <c r="I61">
-        <v>0.66</v>
+        <v>2.84</v>
       </c>
       <c r="J61">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K61">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -2998,31 +3298,31 @@
         <v>130</v>
       </c>
       <c r="C62" s="2">
-        <v>891000</v>
+        <v>137900</v>
       </c>
       <c r="D62" s="3">
-        <v>6.83E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E62">
-        <v>53.94</v>
+        <v>12.66</v>
       </c>
       <c r="F62">
-        <v>10.83</v>
+        <v>11.17</v>
       </c>
       <c r="G62">
-        <v>28.78</v>
+        <v>11.14</v>
       </c>
       <c r="H62" s="4">
-        <v>116255.06</v>
+        <v>81115.86</v>
       </c>
       <c r="I62">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="J62">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K62">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -3033,31 +3333,31 @@
         <v>132</v>
       </c>
       <c r="C63" s="2">
-        <v>169100</v>
+        <v>18120</v>
       </c>
       <c r="D63" s="3">
-        <v>-1.6899999999999998E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E63">
-        <v>13.24</v>
+        <v>12.08</v>
       </c>
       <c r="F63">
-        <v>17.97</v>
+        <v>7.85</v>
       </c>
       <c r="G63">
-        <v>15.51</v>
+        <v>8.39</v>
       </c>
       <c r="H63" s="4">
-        <v>119232.22</v>
+        <v>18381.900000000001</v>
       </c>
       <c r="I63">
-        <v>2.19</v>
+        <v>6.46</v>
       </c>
       <c r="J63">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="K63">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3068,31 +3368,31 @@
         <v>134</v>
       </c>
       <c r="C64" s="2">
-        <v>181000</v>
+        <v>77500</v>
       </c>
       <c r="D64" s="3">
-        <v>4.1399999999999999E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="E64">
-        <v>21.85</v>
+        <v>22.41</v>
       </c>
       <c r="F64">
-        <v>29.41</v>
+        <v>54.89</v>
       </c>
       <c r="G64">
-        <v>15.32</v>
+        <v>25.82</v>
       </c>
       <c r="H64" s="4">
-        <v>24748.62</v>
+        <v>15316.08</v>
       </c>
       <c r="I64">
-        <v>0.11</v>
+        <v>0.69</v>
       </c>
       <c r="J64">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -3103,31 +3403,31 @@
         <v>136</v>
       </c>
       <c r="C65" s="2">
-        <v>299500</v>
+        <v>40800</v>
       </c>
       <c r="D65" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="E65">
-        <v>9.35</v>
+        <v>11.21</v>
       </c>
       <c r="F65">
-        <v>8.9</v>
+        <v>13.43</v>
       </c>
       <c r="G65">
-        <v>8.2899999999999991</v>
+        <v>6.4</v>
       </c>
       <c r="H65" s="4">
-        <v>509344.58</v>
+        <v>121076.78</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3.57</v>
       </c>
       <c r="J65">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -3138,31 +3438,31 @@
         <v>138</v>
       </c>
       <c r="C66" s="2">
-        <v>79100</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0</v>
+        <v>26900</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E66">
-        <v>14.42</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="F66">
-        <v>11.9</v>
+        <v>19.32</v>
       </c>
       <c r="G66">
-        <v>15.82</v>
+        <v>17.14</v>
       </c>
       <c r="H66" s="4">
-        <v>32483.7</v>
+        <v>13347.02</v>
       </c>
       <c r="I66">
-        <v>6.95</v>
+        <v>1.07</v>
       </c>
       <c r="J66">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -3173,31 +3473,31 @@
         <v>140</v>
       </c>
       <c r="C67" s="2">
-        <v>220000</v>
-      </c>
-      <c r="D67" s="3">
-        <v>-6.7999999999999996E-3</v>
+        <v>52900</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>12.43</v>
+        <v>47.19</v>
       </c>
       <c r="F67">
-        <v>11.52</v>
+        <v>24.19</v>
       </c>
       <c r="G67">
-        <v>11.82</v>
+        <v>5.07</v>
       </c>
       <c r="H67" s="4">
-        <v>411868.79</v>
+        <v>10229.18</v>
       </c>
       <c r="I67">
-        <v>5.45</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J67">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K67">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -3208,31 +3508,31 @@
         <v>142</v>
       </c>
       <c r="C68" s="2">
-        <v>84000</v>
+        <v>205000</v>
       </c>
       <c r="D68" s="3">
-        <v>2.8199999999999999E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="E68">
-        <v>19.62</v>
+        <v>15.98</v>
       </c>
       <c r="F68">
-        <v>12.01</v>
+        <v>18.79</v>
       </c>
       <c r="G68">
-        <v>6.74</v>
+        <v>12.25</v>
       </c>
       <c r="H68" s="4">
-        <v>130022.16</v>
+        <v>224185.76</v>
       </c>
       <c r="I68">
-        <v>3.57</v>
+        <v>3.66</v>
       </c>
       <c r="J68">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -3243,31 +3543,1781 @@
         <v>144</v>
       </c>
       <c r="C69" s="2">
-        <v>1199000</v>
+        <v>14620</v>
       </c>
       <c r="D69" s="3">
-        <v>5.6399999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E69">
+        <v>5.91</v>
+      </c>
+      <c r="F69">
+        <v>7.15</v>
+      </c>
+      <c r="G69">
+        <v>11.52</v>
+      </c>
+      <c r="H69" s="4">
+        <v>10081.620000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.48</v>
+      </c>
+      <c r="J69">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>89000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2.53E-2</v>
+      </c>
+      <c r="E70">
+        <v>27.43</v>
+      </c>
+      <c r="F70">
+        <v>41.22</v>
+      </c>
+      <c r="G70">
+        <v>36</v>
+      </c>
+      <c r="H70" s="4">
+        <v>7025.39</v>
+      </c>
+      <c r="I70">
+        <v>0.81</v>
+      </c>
+      <c r="J70">
+        <v>44</v>
+      </c>
+      <c r="K70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>51800</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="E71">
+        <v>8.14</v>
+      </c>
+      <c r="F71">
+        <v>12.3</v>
+      </c>
+      <c r="G71">
+        <v>12.43</v>
+      </c>
+      <c r="H71" s="4">
+        <v>36778.730000000003</v>
+      </c>
+      <c r="I71">
+        <v>2.99</v>
+      </c>
+      <c r="J71">
+        <v>46</v>
+      </c>
+      <c r="K71">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>94200</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E72">
+        <v>10.42</v>
+      </c>
+      <c r="F72">
+        <v>10.02</v>
+      </c>
+      <c r="G72">
+        <v>11.34</v>
+      </c>
+      <c r="H72" s="4">
+        <v>17885.689999999999</v>
+      </c>
+      <c r="I72">
+        <v>0.53</v>
+      </c>
+      <c r="J72">
+        <v>88</v>
+      </c>
+      <c r="K72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>51500</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E73">
+        <v>13.26</v>
+      </c>
+      <c r="F73">
+        <v>9.59</v>
+      </c>
+      <c r="G73">
+        <v>11.65</v>
+      </c>
+      <c r="H73" s="4">
+        <v>28057.11</v>
+      </c>
+      <c r="I73">
+        <v>4.79</v>
+      </c>
+      <c r="J73">
+        <v>64</v>
+      </c>
+      <c r="K73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>101200</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>10.4</v>
+      </c>
+      <c r="F74">
+        <v>44.75</v>
+      </c>
+      <c r="G74">
+        <v>6.6</v>
+      </c>
+      <c r="H74" s="4">
+        <v>15982.9</v>
+      </c>
+      <c r="I74">
+        <v>0.99</v>
+      </c>
+      <c r="J74">
+        <v>81</v>
+      </c>
+      <c r="K74">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2">
+        <v>66700</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>8.11</v>
+      </c>
+      <c r="F75">
+        <v>10.55</v>
+      </c>
+      <c r="G75">
+        <v>8.66</v>
+      </c>
+      <c r="H75" s="4">
+        <v>113903.42</v>
+      </c>
+      <c r="I75">
+        <v>3.24</v>
+      </c>
+      <c r="J75">
+        <v>85</v>
+      </c>
+      <c r="K75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>46750</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E76">
+        <v>19.2</v>
+      </c>
+      <c r="F76">
+        <v>22.19</v>
+      </c>
+      <c r="G76">
+        <v>21.81</v>
+      </c>
+      <c r="H76" s="4">
+        <v>8528.24</v>
+      </c>
+      <c r="I76">
+        <v>1.28</v>
+      </c>
+      <c r="J76">
+        <v>62</v>
+      </c>
+      <c r="K76">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>183100</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E77">
+        <v>21.85</v>
+      </c>
+      <c r="F77">
+        <v>29.41</v>
+      </c>
+      <c r="G77">
+        <v>15.32</v>
+      </c>
+      <c r="H77" s="4">
+        <v>24748.62</v>
+      </c>
+      <c r="I77">
+        <v>0.11</v>
+      </c>
+      <c r="J77">
+        <v>82</v>
+      </c>
+      <c r="K77">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>109200</v>
+      </c>
+      <c r="D78" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E78">
+        <v>14.78</v>
+      </c>
+      <c r="F78">
+        <v>15.24</v>
+      </c>
+      <c r="G78">
+        <v>17.88</v>
+      </c>
+      <c r="H78" s="4">
+        <v>44480.68</v>
+      </c>
+      <c r="I78">
+        <v>1.29</v>
+      </c>
+      <c r="J78">
+        <v>24</v>
+      </c>
+      <c r="K78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>79200</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E79">
+        <v>30.21</v>
+      </c>
+      <c r="F79">
+        <v>27.79</v>
+      </c>
+      <c r="G79">
+        <v>28.25</v>
+      </c>
+      <c r="H79" s="4">
+        <v>38455.24</v>
+      </c>
+      <c r="I79">
+        <v>1.89</v>
+      </c>
+      <c r="J79">
+        <v>14</v>
+      </c>
+      <c r="K79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2">
+        <v>132400</v>
+      </c>
+      <c r="D80" s="3">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="E80">
+        <v>11.54</v>
+      </c>
+      <c r="F80">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="G80">
+        <v>9.6</v>
+      </c>
+      <c r="H80" s="4">
+        <v>161615.43</v>
+      </c>
+      <c r="I80">
+        <v>3.01</v>
+      </c>
+      <c r="J80">
+        <v>73</v>
+      </c>
+      <c r="K80">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44500</v>
+      </c>
+      <c r="D81" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E81">
+        <v>4.12</v>
+      </c>
+      <c r="F81">
+        <v>3.45</v>
+      </c>
+      <c r="G81">
+        <v>11.01</v>
+      </c>
+      <c r="H81" s="4">
+        <v>148026.10999999999</v>
+      </c>
+      <c r="I81">
+        <v>6.07</v>
+      </c>
+      <c r="J81">
+        <v>52</v>
+      </c>
+      <c r="K81">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2">
+        <v>521000</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="E82">
+        <v>19.59</v>
+      </c>
+      <c r="F82">
+        <v>29.63</v>
+      </c>
+      <c r="G82">
+        <v>17.23</v>
+      </c>
+      <c r="H82" s="4">
+        <v>61380.67</v>
+      </c>
+      <c r="I82">
+        <v>0.46</v>
+      </c>
+      <c r="J82">
+        <v>79</v>
+      </c>
+      <c r="K82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>171900</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E83">
+        <v>13.24</v>
+      </c>
+      <c r="F83">
+        <v>17.97</v>
+      </c>
+      <c r="G83">
+        <v>15.51</v>
+      </c>
+      <c r="H83" s="4">
+        <v>119232.22</v>
+      </c>
+      <c r="I83">
+        <v>2.15</v>
+      </c>
+      <c r="J83">
+        <v>93</v>
+      </c>
+      <c r="K83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>82600</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E84">
+        <v>9.11</v>
+      </c>
+      <c r="F84">
+        <v>10.47</v>
+      </c>
+      <c r="G84">
+        <v>9.4</v>
+      </c>
+      <c r="H84" s="4">
+        <v>153124.29</v>
+      </c>
+      <c r="I84">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J84">
+        <v>79</v>
+      </c>
+      <c r="K84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2">
+        <v>122900</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E85">
+        <v>11.69</v>
+      </c>
+      <c r="F85">
+        <v>8.41</v>
+      </c>
+      <c r="G85">
+        <v>6.07</v>
+      </c>
+      <c r="H85" s="4">
+        <v>76683.350000000006</v>
+      </c>
+      <c r="I85">
+        <v>0.92</v>
+      </c>
+      <c r="J85">
+        <v>17</v>
+      </c>
+      <c r="K85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2">
+        <v>121500</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>11.33</v>
+      </c>
+      <c r="F86">
+        <v>7.61</v>
+      </c>
+      <c r="G86">
+        <v>9.83</v>
+      </c>
+      <c r="H86" s="4">
+        <v>78257.240000000005</v>
+      </c>
+      <c r="I86">
+        <v>2.14</v>
+      </c>
+      <c r="J86">
+        <v>66</v>
+      </c>
+      <c r="K86">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2">
+        <v>110300</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E87">
+        <v>8.86</v>
+      </c>
+      <c r="F87">
+        <v>11.69</v>
+      </c>
+      <c r="G87">
+        <v>8.51</v>
+      </c>
+      <c r="H87" s="4">
+        <v>152301.9</v>
+      </c>
+      <c r="I87">
+        <v>2.88</v>
+      </c>
+      <c r="J87">
+        <v>82</v>
+      </c>
+      <c r="K87">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2">
+        <v>57800</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2.12E-2</v>
+      </c>
+      <c r="E88">
+        <v>12.32</v>
+      </c>
+      <c r="F88">
+        <v>9.67</v>
+      </c>
+      <c r="G88">
+        <v>18.72</v>
+      </c>
+      <c r="H88" s="4">
+        <v>84441.54</v>
+      </c>
+      <c r="I88">
+        <v>2.42</v>
+      </c>
+      <c r="J88">
+        <v>76</v>
+      </c>
+      <c r="K88">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2">
+        <v>290000</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E89">
+        <v>11.89</v>
+      </c>
+      <c r="F89">
+        <v>15.5</v>
+      </c>
+      <c r="G89">
+        <v>12.6</v>
+      </c>
+      <c r="H89" s="4">
+        <v>90364.13</v>
+      </c>
+      <c r="I89">
+        <v>0.43</v>
+      </c>
+      <c r="J89">
+        <v>40</v>
+      </c>
+      <c r="K89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="2">
+        <v>128700</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E90">
+        <v>23.44</v>
+      </c>
+      <c r="F90">
+        <v>24.59</v>
+      </c>
+      <c r="G90">
+        <v>27.89</v>
+      </c>
+      <c r="H90" s="4">
+        <v>55646.89</v>
+      </c>
+      <c r="I90">
+        <v>1.05</v>
+      </c>
+      <c r="J90">
+        <v>98</v>
+      </c>
+      <c r="K90">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2">
+        <v>14300</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="E91">
+        <v>6.96</v>
+      </c>
+      <c r="F91">
+        <v>6.28</v>
+      </c>
+      <c r="G91">
+        <v>7.18</v>
+      </c>
+      <c r="H91" s="4">
+        <v>33008.75</v>
+      </c>
+      <c r="I91">
+        <v>4.55</v>
+      </c>
+      <c r="J91">
+        <v>84</v>
+      </c>
+      <c r="K91">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2">
+        <v>14010</v>
+      </c>
+      <c r="D92" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E92">
+        <v>3.6</v>
+      </c>
+      <c r="F92">
+        <v>10.34</v>
+      </c>
+      <c r="G92">
+        <v>5.91</v>
+      </c>
+      <c r="H92" s="4">
+        <v>35883.14</v>
+      </c>
+      <c r="I92">
+        <v>3.57</v>
+      </c>
+      <c r="J92">
+        <v>85</v>
+      </c>
+      <c r="K92">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2">
+        <v>245500</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E93">
+        <v>25.83</v>
+      </c>
+      <c r="F93">
+        <v>30.8</v>
+      </c>
+      <c r="G93">
+        <v>23.74</v>
+      </c>
+      <c r="H93" s="4">
+        <v>29011.61</v>
+      </c>
+      <c r="I93">
+        <v>0.2</v>
+      </c>
+      <c r="J93">
+        <v>75</v>
+      </c>
+      <c r="K93">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2">
+        <v>57100</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="E94">
+        <v>14.27</v>
+      </c>
+      <c r="F94">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G94">
+        <v>21.05</v>
+      </c>
+      <c r="H94" s="4">
+        <v>52443.47</v>
+      </c>
+      <c r="I94">
+        <v>1.05</v>
+      </c>
+      <c r="J94">
+        <v>16</v>
+      </c>
+      <c r="K94">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2">
+        <v>40250</v>
+      </c>
+      <c r="D95" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E95">
+        <v>10.79</v>
+      </c>
+      <c r="F95">
+        <v>11.5</v>
+      </c>
+      <c r="G95">
+        <v>8.93</v>
+      </c>
+      <c r="H95" s="4">
+        <v>90358.17</v>
+      </c>
+      <c r="I95">
+        <v>4.97</v>
+      </c>
+      <c r="J95">
+        <v>33</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="2">
+        <v>23050</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.32E-2</v>
+      </c>
+      <c r="E96">
+        <v>12.8</v>
+      </c>
+      <c r="F96">
+        <v>11.61</v>
+      </c>
+      <c r="G96">
+        <v>12.93</v>
+      </c>
+      <c r="H96" s="4">
+        <v>29151.87</v>
+      </c>
+      <c r="I96">
+        <v>4.32</v>
+      </c>
+      <c r="J96">
+        <v>85</v>
+      </c>
+      <c r="K96">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>113200</v>
+      </c>
+      <c r="D97" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E97">
+        <v>16.75</v>
+      </c>
+      <c r="F97">
+        <v>8.9</v>
+      </c>
+      <c r="G97">
+        <v>21.73</v>
+      </c>
+      <c r="H97" s="4">
+        <v>48385.21</v>
+      </c>
+      <c r="I97">
+        <v>0.32</v>
+      </c>
+      <c r="J97">
+        <v>60</v>
+      </c>
+      <c r="K97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="2">
+        <v>13400</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-2.2599999999999999E-2</v>
+      </c>
+      <c r="E98">
+        <v>7.65</v>
+      </c>
+      <c r="F98">
+        <v>4.43</v>
+      </c>
+      <c r="G98">
+        <v>7.8</v>
+      </c>
+      <c r="H98" s="4">
+        <v>29805.78</v>
+      </c>
+      <c r="I98">
+        <v>1.94</v>
+      </c>
+      <c r="J98">
+        <v>66</v>
+      </c>
+      <c r="K98">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2">
+        <v>76200</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E99">
+        <v>23.36</v>
+      </c>
+      <c r="F99">
+        <v>18.75</v>
+      </c>
+      <c r="G99">
+        <v>18.11</v>
+      </c>
+      <c r="H99" s="4">
+        <v>27078.44</v>
+      </c>
+      <c r="I99">
+        <v>1.31</v>
+      </c>
+      <c r="J99">
+        <v>67</v>
+      </c>
+      <c r="K99">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2">
+        <v>81100</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="E100">
+        <v>12.76</v>
+      </c>
+      <c r="F100">
+        <v>5.28</v>
+      </c>
+      <c r="G100">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H100" s="4">
+        <v>69277.95</v>
+      </c>
+      <c r="I100">
+        <v>1.36</v>
+      </c>
+      <c r="J100">
+        <v>11</v>
+      </c>
+      <c r="K100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2">
+        <v>52300</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E101">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F101">
+        <v>12.02</v>
+      </c>
+      <c r="G101">
+        <v>6.83</v>
+      </c>
+      <c r="H101" s="4">
+        <v>56007.39</v>
+      </c>
+      <c r="I101">
+        <v>2.29</v>
+      </c>
+      <c r="J101">
+        <v>51</v>
+      </c>
+      <c r="K101">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6180</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.95</v>
+      </c>
+      <c r="F102">
+        <v>1.46</v>
+      </c>
+      <c r="G102">
+        <v>7.31</v>
+      </c>
+      <c r="H102" s="4">
+        <v>5894.87</v>
+      </c>
+      <c r="I102">
+        <v>3.24</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2">
+        <v>216000</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1.41E-2</v>
+      </c>
+      <c r="E103">
+        <v>20.53</v>
+      </c>
+      <c r="F103">
+        <v>12.77</v>
+      </c>
+      <c r="G103">
+        <v>12.1</v>
+      </c>
+      <c r="H103" s="4">
+        <v>38535.49</v>
+      </c>
+      <c r="I103">
+        <v>1.06</v>
+      </c>
+      <c r="J103">
+        <v>71</v>
+      </c>
+      <c r="K103">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="2">
+        <v>53900</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E104">
+        <v>26.54</v>
+      </c>
+      <c r="F104">
+        <v>25.87</v>
+      </c>
+      <c r="G104">
+        <v>31.27</v>
+      </c>
+      <c r="H104" s="4">
+        <v>7150.69</v>
+      </c>
+      <c r="I104">
+        <v>0.48</v>
+      </c>
+      <c r="J104">
+        <v>67</v>
+      </c>
+      <c r="K104">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="2">
+        <v>18520</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E105">
+        <v>10.48</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>10.17</v>
+      </c>
+      <c r="H105" s="4">
+        <v>24686.55</v>
+      </c>
+      <c r="I105">
+        <v>6.34</v>
+      </c>
+      <c r="J105">
+        <v>12</v>
+      </c>
+      <c r="K105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="2">
+        <v>47400</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="E106">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F106">
+        <v>18.93</v>
+      </c>
+      <c r="G106">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="H106" s="4">
+        <v>42209.02</v>
+      </c>
+      <c r="I106">
+        <v>3.16</v>
+      </c>
+      <c r="J106">
+        <v>25</v>
+      </c>
+      <c r="K106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2">
+        <v>57200</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="E107">
+        <v>8.77</v>
+      </c>
+      <c r="F107">
+        <v>6.92</v>
+      </c>
+      <c r="G107">
+        <v>13.11</v>
+      </c>
+      <c r="H107" s="4">
+        <v>69949.570000000007</v>
+      </c>
+      <c r="I107">
+        <v>2.8</v>
+      </c>
+      <c r="J107">
+        <v>65</v>
+      </c>
+      <c r="K107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="2">
+        <v>131000</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="E108">
+        <v>6.36</v>
+      </c>
+      <c r="F108">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G108">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H108" s="4">
+        <v>123365.06</v>
+      </c>
+      <c r="I108">
+        <v>2.75</v>
+      </c>
+      <c r="J108">
+        <v>81</v>
+      </c>
+      <c r="K108">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="F109">
+        <v>41.01</v>
+      </c>
+      <c r="G109">
+        <v>29.72</v>
+      </c>
+      <c r="H109" s="4">
+        <v>42149.47</v>
+      </c>
+      <c r="I109">
+        <v>1.07</v>
+      </c>
+      <c r="J109">
+        <v>96</v>
+      </c>
+      <c r="K109">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="2">
+        <v>106100</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="E110">
+        <v>16.57</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>15.65</v>
+      </c>
+      <c r="H110" s="4">
+        <v>88351.47</v>
+      </c>
+      <c r="I110">
+        <v>2.36</v>
+      </c>
+      <c r="J110">
+        <v>36</v>
+      </c>
+      <c r="K110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="2">
+        <v>53200</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="E111">
+        <v>19.62</v>
+      </c>
+      <c r="F111">
+        <v>5.18</v>
+      </c>
+      <c r="G111">
+        <v>10.95</v>
+      </c>
+      <c r="H111" s="4">
+        <v>17954.61</v>
+      </c>
+      <c r="I111">
+        <v>0.66</v>
+      </c>
+      <c r="J111">
+        <v>72</v>
+      </c>
+      <c r="K111">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="2">
+        <v>24100</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E112">
+        <v>16.27</v>
+      </c>
+      <c r="F112">
+        <v>17.22</v>
+      </c>
+      <c r="G112">
+        <v>16.46</v>
+      </c>
+      <c r="H112" s="4">
+        <v>25489.200000000001</v>
+      </c>
+      <c r="I112">
+        <v>1.45</v>
+      </c>
+      <c r="J112">
+        <v>15</v>
+      </c>
+      <c r="K112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="2">
+        <v>120100</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E113">
+        <v>17.29</v>
+      </c>
+      <c r="F113">
+        <v>11.2</v>
+      </c>
+      <c r="G113">
+        <v>19.45</v>
+      </c>
+      <c r="H113" s="4">
+        <v>68308.19</v>
+      </c>
+      <c r="I113">
+        <v>3.41</v>
+      </c>
+      <c r="J113">
+        <v>18</v>
+      </c>
+      <c r="K113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="2">
+        <v>224000</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E114">
+        <v>9.84</v>
+      </c>
+      <c r="F114">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G114">
+        <v>6.06</v>
+      </c>
+      <c r="H114" s="4">
+        <v>321167.96999999997</v>
+      </c>
+      <c r="I114">
+        <v>4.46</v>
+      </c>
+      <c r="J114">
+        <v>15</v>
+      </c>
+      <c r="K114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1244000</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E115">
         <v>14.9</v>
       </c>
-      <c r="F69">
+      <c r="F115">
         <v>21.1</v>
       </c>
-      <c r="G69">
+      <c r="G115">
         <v>9.09</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H115" s="4">
         <v>210765.09</v>
       </c>
-      <c r="I69">
-        <v>0.42</v>
-      </c>
-      <c r="J69">
-        <v>88</v>
-      </c>
-      <c r="K69">
-        <v>88</v>
+      <c r="I115">
+        <v>0.4</v>
+      </c>
+      <c r="J115">
+        <v>91</v>
+      </c>
+      <c r="K115">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D116" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E116">
+        <v>9.39</v>
+      </c>
+      <c r="F116">
+        <v>7.27</v>
+      </c>
+      <c r="G116">
+        <v>9.73</v>
+      </c>
+      <c r="H116" s="4">
+        <v>45501.38</v>
+      </c>
+      <c r="I116">
+        <v>4.8</v>
+      </c>
+      <c r="J116">
+        <v>89</v>
+      </c>
+      <c r="K116">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="2">
+        <v>20150</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="E117">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F117">
+        <v>16.78</v>
+      </c>
+      <c r="G117">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="H117" s="4">
+        <v>16554.88</v>
+      </c>
+      <c r="I117">
+        <v>1.99</v>
+      </c>
+      <c r="J117">
+        <v>30</v>
+      </c>
+      <c r="K117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>25.76</v>
+      </c>
+      <c r="F118">
+        <v>30.62</v>
+      </c>
+      <c r="G118">
+        <v>35.93</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1654.52</v>
+      </c>
+      <c r="I118">
+        <v>0.5</v>
+      </c>
+      <c r="J118">
+        <v>60</v>
+      </c>
+      <c r="K118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="2">
+        <v>220500</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="E119">
+        <v>12.47</v>
+      </c>
+      <c r="F119">
+        <v>12.08</v>
+      </c>
+      <c r="G119">
+        <v>17.04</v>
+      </c>
+      <c r="H119" s="4">
+        <v>135475.57999999999</v>
+      </c>
+      <c r="I119">
+        <v>1.04</v>
+      </c>
+      <c r="J119">
+        <v>30</v>
+      </c>
+      <c r="K119">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562CF3DC-C42E-4EA4-8779-5D22009F6A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62115386-C42A-42A4-A320-F2DE4CFD108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1FEA575E-836C-455E-9F03-610CD99E127C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C9BAC08-75B6-4522-BEB4-3676519FD2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DBA08-4017-41B3-BC24-C73C8CD0C40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C273CE-4407-4C68-93FC-10B06E5CDD2B}">
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -892,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>22450</v>
+        <v>24400</v>
       </c>
       <c r="D2" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -910,13 +910,13 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.45</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K2">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -927,31 +927,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104700</v>
+        <v>105800</v>
       </c>
       <c r="D3" s="3">
-        <v>-1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E3">
         <v>19.09</v>
       </c>
       <c r="F3">
-        <v>17.12</v>
+        <v>16.54</v>
       </c>
       <c r="G3">
         <v>18.03</v>
       </c>
       <c r="H3" s="4">
-        <v>141851.03</v>
+        <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -962,31 +962,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>259500</v>
+        <v>269000</v>
       </c>
       <c r="D4" s="3">
-        <v>3.39E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E4">
         <v>31.06</v>
       </c>
       <c r="F4">
-        <v>41.75</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="G4">
         <v>6.34</v>
       </c>
       <c r="H4" s="4">
-        <v>114794.74</v>
+        <v>122623.42</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -997,10 +997,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>441000</v>
+        <v>444000</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.4999999999999997E-3</v>
+        <v>-1.77E-2</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -1015,13 +1015,13 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.3099999999999996</v>
+        <v>4.28</v>
       </c>
       <c r="J5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1032,31 +1032,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>82400</v>
+        <v>83800</v>
       </c>
       <c r="D6" s="3">
-        <v>1.8499999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E6">
         <v>7.19</v>
       </c>
       <c r="F6">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
       <c r="G6">
         <v>8.3699999999999992</v>
       </c>
       <c r="H6" s="4">
-        <v>106654.47</v>
+        <v>111662.12</v>
       </c>
       <c r="I6">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1067,25 +1067,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>29900</v>
+        <v>29700</v>
       </c>
       <c r="D7" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="E7">
         <v>7.12</v>
       </c>
       <c r="F7">
-        <v>14.97</v>
+        <v>11.44</v>
       </c>
       <c r="G7">
         <v>12.61</v>
       </c>
       <c r="H7" s="4">
-        <v>70348.56</v>
+        <v>70084.75</v>
       </c>
       <c r="I7">
-        <v>6.69</v>
+        <v>6.73</v>
       </c>
       <c r="J7">
         <v>43</v>
@@ -1102,31 +1102,31 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>27750</v>
+        <v>27900</v>
       </c>
       <c r="D8" s="3">
-        <v>1.6500000000000001E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="E8">
         <v>1.04</v>
       </c>
       <c r="F8">
-        <v>1.27</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G8">
         <v>4.21</v>
       </c>
       <c r="H8" s="4">
-        <v>52692.43</v>
+        <v>52631.05</v>
       </c>
       <c r="I8">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="J8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1137,31 +1137,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>7730</v>
+        <v>7930</v>
       </c>
       <c r="D9" s="3">
-        <v>1.44E-2</v>
+        <v>-1.7299999999999999E-2</v>
       </c>
       <c r="E9">
         <v>2.84</v>
       </c>
       <c r="F9">
-        <v>5.74</v>
+        <v>5.21</v>
       </c>
       <c r="G9">
         <v>8.36</v>
       </c>
       <c r="H9" s="4">
-        <v>20517.7</v>
+        <v>20755.32</v>
       </c>
       <c r="I9">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1172,10 +1172,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>1431000</v>
+        <v>1566000</v>
       </c>
       <c r="D10" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
       <c r="E10">
         <v>39.369999999999997</v>
@@ -1190,13 +1190,13 @@
         <v>131565.21</v>
       </c>
       <c r="I10">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="J10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1207,31 +1207,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>25600</v>
+        <v>23750</v>
       </c>
       <c r="D11" s="3">
-        <v>3.0200000000000001E-2</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
       <c r="E11">
         <v>13.17</v>
       </c>
       <c r="F11">
-        <v>10.87</v>
+        <v>14.4</v>
       </c>
       <c r="G11">
         <v>15.53</v>
       </c>
       <c r="H11" s="4">
-        <v>28386.639999999999</v>
+        <v>29540.06</v>
       </c>
       <c r="I11">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>25900</v>
+        <v>27900</v>
       </c>
       <c r="D12" s="3">
-        <v>4.65E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E12">
         <v>4.57</v>
@@ -1260,13 +1260,13 @@
         <v>38894.53</v>
       </c>
       <c r="I12">
-        <v>4.63</v>
+        <v>4.3</v>
       </c>
       <c r="J12">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1277,31 +1277,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>72900</v>
+        <v>74500</v>
       </c>
       <c r="D13" s="3">
-        <v>1.11E-2</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E13">
         <v>2.16</v>
       </c>
       <c r="F13">
-        <v>8.5</v>
+        <v>5.79</v>
       </c>
       <c r="G13">
         <v>5.18</v>
       </c>
       <c r="H13" s="4">
-        <v>174674.22</v>
+        <v>172209.34</v>
       </c>
       <c r="I13">
-        <v>4.25</v>
+        <v>4.16</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1312,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>62800</v>
+        <v>62500</v>
       </c>
       <c r="D14" s="3">
-        <v>5.1900000000000002E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E14">
         <v>12.89</v>
@@ -1330,13 +1330,13 @@
         <v>26995.84</v>
       </c>
       <c r="I14">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="J14">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1347,10 +1347,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>10560</v>
+        <v>10840</v>
       </c>
       <c r="D15" s="3">
-        <v>-6.6E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E15">
         <v>9.44</v>
@@ -1365,13 +1365,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I15">
-        <v>4.88</v>
+        <v>4.75</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1382,31 +1382,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>83700</v>
+        <v>86800</v>
       </c>
       <c r="D16" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>2.12E-2</v>
       </c>
       <c r="E16">
         <v>19.62</v>
       </c>
       <c r="F16">
-        <v>12.01</v>
+        <v>12.5</v>
       </c>
       <c r="G16">
         <v>6.74</v>
       </c>
       <c r="H16" s="4">
-        <v>130022.16</v>
+        <v>132483.99</v>
       </c>
       <c r="I16">
-        <v>3.58</v>
+        <v>3.46</v>
       </c>
       <c r="J16">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1417,31 +1417,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>222000</v>
+        <v>220000</v>
       </c>
       <c r="D17" s="3">
-        <v>9.1000000000000004E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E17">
         <v>12.43</v>
       </c>
       <c r="F17">
-        <v>11.52</v>
+        <v>11.22</v>
       </c>
       <c r="G17">
         <v>11.82</v>
       </c>
       <c r="H17" s="4">
-        <v>411868.79</v>
+        <v>417937.43</v>
       </c>
       <c r="I17">
-        <v>5.41</v>
+        <v>5.45</v>
       </c>
       <c r="J17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1452,10 +1452,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>131600</v>
+        <v>131900</v>
       </c>
       <c r="D18" s="3">
-        <v>2.3E-3</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="E18">
         <v>18.96</v>
@@ -1470,7 +1470,7 @@
         <v>115980.87</v>
       </c>
       <c r="I18">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="J18">
         <v>85</v>
@@ -1487,31 +1487,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>33550</v>
+        <v>34000</v>
       </c>
       <c r="D19" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E19">
         <v>17.420000000000002</v>
       </c>
       <c r="F19">
-        <v>17.22</v>
+        <v>14.49</v>
       </c>
       <c r="G19">
         <v>15.37</v>
       </c>
       <c r="H19" s="4">
-        <v>50552.95</v>
+        <v>51134.58</v>
       </c>
       <c r="I19">
-        <v>3.58</v>
+        <v>3.53</v>
       </c>
       <c r="J19">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1522,7 +1522,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>71500</v>
+        <v>69700</v>
       </c>
       <c r="D20" s="3">
         <v>1.4E-3</v>
@@ -1540,13 +1540,13 @@
         <v>58114.39</v>
       </c>
       <c r="I20">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1557,10 +1557,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>19450</v>
+        <v>19430</v>
       </c>
       <c r="D21" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="E21">
         <v>8.73</v>
@@ -1575,7 +1575,7 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I21">
-        <v>4.88</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="J21">
         <v>73</v>
@@ -1592,31 +1592,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>166200</v>
+        <v>177600</v>
       </c>
       <c r="D22" s="3">
-        <v>3.6200000000000003E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="E22">
         <v>5.09</v>
       </c>
       <c r="F22">
-        <v>7.34</v>
+        <v>7.91</v>
       </c>
       <c r="G22">
         <v>11.63</v>
       </c>
       <c r="H22" s="4">
-        <v>154845.78</v>
+        <v>154595.06</v>
       </c>
       <c r="I22">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="J22">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1627,10 +1627,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>18300</v>
+        <v>19150</v>
       </c>
       <c r="D23" s="3">
-        <v>2.87E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E23">
         <v>7.94</v>
@@ -1645,13 +1645,13 @@
         <v>17214.37</v>
       </c>
       <c r="I23">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="J23">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1662,10 +1662,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>25300</v>
+        <v>26600</v>
       </c>
       <c r="D24" s="3">
-        <v>1.2E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E24">
         <v>19.78</v>
@@ -1680,13 +1680,13 @@
         <v>31476.26</v>
       </c>
       <c r="I24">
-        <v>3.95</v>
+        <v>3.76</v>
       </c>
       <c r="J24">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1697,31 +1697,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>63200</v>
+        <v>66600</v>
       </c>
       <c r="D25" s="3">
-        <v>6.9400000000000003E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E25">
         <v>24.91</v>
       </c>
       <c r="F25">
-        <v>44.8</v>
+        <v>28.07</v>
       </c>
       <c r="G25">
         <v>34.450000000000003</v>
       </c>
       <c r="H25" s="4">
-        <v>5514.68</v>
+        <v>9061.27</v>
       </c>
       <c r="I25">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J25">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K25">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1732,31 +1732,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>122400</v>
+        <v>132000</v>
       </c>
       <c r="D26" s="3">
-        <v>9.1000000000000004E-3</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="E26">
         <v>13.17</v>
       </c>
       <c r="F26">
-        <v>10.220000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G26">
         <v>18.010000000000002</v>
       </c>
       <c r="H26" s="4">
-        <v>201114.72</v>
+        <v>199986.9</v>
       </c>
       <c r="I26">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="J26">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1767,31 +1767,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>286500</v>
+        <v>284500</v>
       </c>
       <c r="D27" s="3">
-        <v>1.78E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E27">
         <v>13.44</v>
       </c>
       <c r="F27">
-        <v>15.22</v>
+        <v>14.66</v>
       </c>
       <c r="G27">
         <v>10.67</v>
       </c>
       <c r="H27" s="4">
-        <v>61485.71</v>
+        <v>63619.839999999997</v>
       </c>
       <c r="I27">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1802,31 +1802,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>299000</v>
+        <v>318500</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.6999999999999999E-3</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="E28">
         <v>9.35</v>
       </c>
       <c r="F28">
-        <v>8.9</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G28">
         <v>8.2899999999999991</v>
       </c>
       <c r="H28" s="4">
-        <v>509344.58</v>
+        <v>514552.46</v>
       </c>
       <c r="I28">
-        <v>2.0099999999999998</v>
+        <v>1.88</v>
       </c>
       <c r="J28">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1837,10 +1837,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>903000</v>
+        <v>884000</v>
       </c>
       <c r="D29" s="3">
-        <v>1.35E-2</v>
+        <v>-2.64E-2</v>
       </c>
       <c r="E29">
         <v>53.94</v>
@@ -1855,13 +1855,13 @@
         <v>116255.06</v>
       </c>
       <c r="I29">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="J29">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1872,10 +1872,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>78800</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.8100000000000002E-2</v>
+        <v>80100</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
       <c r="E30">
         <v>10.85</v>
@@ -1890,13 +1890,13 @@
         <v>47834.19</v>
       </c>
       <c r="I30">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="J30">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1907,10 +1907,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D31" s="3">
-        <v>2.6800000000000001E-2</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E31">
         <v>12.89</v>
@@ -1925,7 +1925,7 @@
         <v>81376.7</v>
       </c>
       <c r="I31">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="J31">
         <v>77</v>
@@ -1942,10 +1942,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>55200</v>
+        <v>54200</v>
       </c>
       <c r="D32" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>-1.2800000000000001E-2</v>
       </c>
       <c r="E32">
         <v>10.83</v>
@@ -1960,13 +1960,13 @@
         <v>55591.17</v>
       </c>
       <c r="I32">
-        <v>6.41</v>
+        <v>6.53</v>
       </c>
       <c r="J32">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1977,31 +1977,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>81200</v>
+        <v>78400</v>
       </c>
       <c r="D33" s="3">
-        <v>2.6499999999999999E-2</v>
+        <v>-2.9700000000000001E-2</v>
       </c>
       <c r="E33">
         <v>14.42</v>
       </c>
       <c r="F33">
-        <v>11.9</v>
+        <v>13.87</v>
       </c>
       <c r="G33">
         <v>15.82</v>
       </c>
       <c r="H33" s="4">
-        <v>32483.7</v>
+        <v>33518.75</v>
       </c>
       <c r="I33">
-        <v>6.77</v>
+        <v>7.02</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -2012,31 +2012,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>106600</v>
+        <v>104200</v>
       </c>
       <c r="D34" s="3">
-        <v>1.52E-2</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="E34">
         <v>19.38</v>
       </c>
       <c r="F34">
-        <v>17.489999999999998</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G34">
         <v>20.04</v>
       </c>
       <c r="H34" s="4">
-        <v>43969.66</v>
+        <v>45508.23</v>
       </c>
       <c r="I34">
-        <v>2.4700000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="J34">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2047,10 +2047,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>32350</v>
+        <v>34150</v>
       </c>
       <c r="D35" s="3">
-        <v>2.3699999999999999E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E35">
         <v>13.16</v>
@@ -2065,13 +2065,13 @@
         <v>70038.45</v>
       </c>
       <c r="I35">
-        <v>4.33</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J35">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2082,10 +2082,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>19340</v>
+        <v>19020</v>
       </c>
       <c r="D36" s="3">
-        <v>9.4000000000000004E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E36">
         <v>8.06</v>
@@ -2100,13 +2100,13 @@
         <v>42663.82</v>
       </c>
       <c r="I36">
-        <v>5.51</v>
+        <v>5.6</v>
       </c>
       <c r="J36">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2117,10 +2117,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="D37" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -2135,13 +2135,13 @@
         <v>75767.48</v>
       </c>
       <c r="I37">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="J37">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2152,31 +2152,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>19630</v>
+        <v>19800</v>
       </c>
       <c r="D38" s="3">
-        <v>3.0999999999999999E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E38">
         <v>15.12</v>
       </c>
       <c r="F38">
-        <v>7.98</v>
+        <v>11.12</v>
       </c>
       <c r="G38">
         <v>15.58</v>
       </c>
       <c r="H38" s="4">
-        <v>14481.01</v>
+        <v>14528.71</v>
       </c>
       <c r="I38">
-        <v>6.27</v>
+        <v>6.21</v>
       </c>
       <c r="J38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K38">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2187,31 +2187,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>55100</v>
+        <v>54100</v>
       </c>
       <c r="D39" s="3">
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E39">
         <v>2.85</v>
       </c>
       <c r="F39">
-        <v>13.16</v>
+        <v>14.73</v>
       </c>
       <c r="G39">
         <v>5.63</v>
       </c>
       <c r="H39" s="4">
-        <v>66926.62</v>
+        <v>69574.75</v>
       </c>
       <c r="I39">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="J39">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K39">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2222,31 +2222,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>15060</v>
+        <v>14850</v>
       </c>
       <c r="D40" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E40">
         <v>4.4000000000000004</v>
       </c>
       <c r="F40">
-        <v>7.75</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G40">
         <v>6.75</v>
       </c>
       <c r="H40" s="4">
-        <v>19799.21</v>
+        <v>20401.09</v>
       </c>
       <c r="I40">
-        <v>4.32</v>
+        <v>4.38</v>
       </c>
       <c r="J40">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2257,10 +2257,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>141000</v>
+        <v>143100</v>
       </c>
       <c r="D41" s="3">
-        <v>1.15E-2</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="E41">
         <v>5.76</v>
@@ -2275,13 +2275,13 @@
         <v>158106.71</v>
       </c>
       <c r="I41">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="J41">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K41">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2292,31 +2292,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>137900</v>
+        <v>134700</v>
       </c>
       <c r="D42" s="3">
-        <v>7.3000000000000001E-3</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E42">
         <v>12.66</v>
       </c>
       <c r="F42">
-        <v>11.17</v>
+        <v>8.66</v>
       </c>
       <c r="G42">
         <v>11.14</v>
       </c>
       <c r="H42" s="4">
-        <v>81115.86</v>
+        <v>82141.36</v>
       </c>
       <c r="I42">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="J42">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2327,25 +2327,25 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>18120</v>
+        <v>18050</v>
       </c>
       <c r="D43" s="3">
-        <v>7.1999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E43">
         <v>12.08</v>
       </c>
       <c r="F43">
-        <v>7.85</v>
+        <v>7.17</v>
       </c>
       <c r="G43">
         <v>8.39</v>
       </c>
       <c r="H43" s="4">
-        <v>18381.900000000001</v>
+        <v>18676.03</v>
       </c>
       <c r="I43">
-        <v>6.46</v>
+        <v>6.48</v>
       </c>
       <c r="J43">
         <v>29</v>
@@ -2362,31 +2362,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>40800</v>
+        <v>39550</v>
       </c>
       <c r="D44" s="3">
-        <v>1.49E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E44">
         <v>11.21</v>
       </c>
       <c r="F44">
-        <v>13.43</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G44">
         <v>6.4</v>
       </c>
       <c r="H44" s="4">
-        <v>121076.78</v>
+        <v>120400.44</v>
       </c>
       <c r="I44">
-        <v>3.57</v>
+        <v>3.68</v>
       </c>
       <c r="J44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2397,10 +2397,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>205000</v>
+        <v>205500</v>
       </c>
       <c r="D45" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="E45">
         <v>15.98</v>
@@ -2415,7 +2415,7 @@
         <v>224185.76</v>
       </c>
       <c r="I45">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="J45">
         <v>78</v>
@@ -2432,10 +2432,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="D46" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="E46">
         <v>13.26</v>
@@ -2450,13 +2450,13 @@
         <v>28057.11</v>
       </c>
       <c r="I46">
-        <v>4.79</v>
+        <v>4.91</v>
       </c>
       <c r="J46">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2467,10 +2467,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>66700</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
+        <v>65300</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1.21E-2</v>
       </c>
       <c r="E47">
         <v>8.11</v>
@@ -2485,13 +2485,13 @@
         <v>113903.42</v>
       </c>
       <c r="I47">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="J47">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2502,10 +2502,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>183100</v>
+        <v>192100</v>
       </c>
       <c r="D48" s="3">
-        <v>1.1599999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E48">
         <v>21.85</v>
@@ -2520,13 +2520,13 @@
         <v>24748.62</v>
       </c>
       <c r="I48">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J48">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2537,10 +2537,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>132400</v>
+        <v>134400</v>
       </c>
       <c r="D49" s="3">
-        <v>4.0899999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E49">
         <v>11.54</v>
@@ -2555,13 +2555,13 @@
         <v>161615.43</v>
       </c>
       <c r="I49">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="J49">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2572,10 +2572,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="D50" s="3">
-        <v>9.1000000000000004E-3</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E50">
         <v>4.12</v>
@@ -2590,13 +2590,13 @@
         <v>148026.10999999999</v>
       </c>
       <c r="I50">
-        <v>6.07</v>
+        <v>5.93</v>
       </c>
       <c r="J50">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K50">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2607,10 +2607,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>521000</v>
+        <v>489500</v>
       </c>
       <c r="D51" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="E51">
         <v>19.59</v>
@@ -2625,13 +2625,13 @@
         <v>61380.67</v>
       </c>
       <c r="I51">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="J51">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2642,31 +2642,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>171900</v>
+        <v>184400</v>
       </c>
       <c r="D52" s="3">
-        <v>1.66E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="E52">
         <v>13.24</v>
       </c>
       <c r="F52">
-        <v>17.97</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G52">
         <v>15.51</v>
       </c>
       <c r="H52" s="4">
-        <v>119232.22</v>
+        <v>124598.82</v>
       </c>
       <c r="I52">
-        <v>2.15</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J52">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2677,10 +2677,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>82600</v>
+        <v>82200</v>
       </c>
       <c r="D53" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="E53">
         <v>9.11</v>
@@ -2695,7 +2695,7 @@
         <v>153124.29</v>
       </c>
       <c r="I53">
-        <v>4.3600000000000003</v>
+        <v>4.38</v>
       </c>
       <c r="J53">
         <v>79</v>
@@ -2712,10 +2712,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>110300</v>
+        <v>108200</v>
       </c>
       <c r="D54" s="3">
-        <v>1.7500000000000002E-2</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="E54">
         <v>8.86</v>
@@ -2730,13 +2730,13 @@
         <v>152301.9</v>
       </c>
       <c r="I54">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="J54">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -2747,31 +2747,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>57800</v>
+        <v>58700</v>
       </c>
       <c r="D55" s="3">
-        <v>2.12E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E55">
         <v>12.32</v>
       </c>
       <c r="F55">
-        <v>9.67</v>
+        <v>11.43</v>
       </c>
       <c r="G55">
         <v>18.72</v>
       </c>
       <c r="H55" s="4">
-        <v>84441.54</v>
+        <v>82777.13</v>
       </c>
       <c r="I55">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="J55">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2782,10 +2782,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>128700</v>
+        <v>126500</v>
       </c>
       <c r="D56" s="3">
-        <v>-2.3E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E56">
         <v>23.44</v>
@@ -2800,13 +2800,13 @@
         <v>55646.89</v>
       </c>
       <c r="I56">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J56">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2817,10 +2817,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="D57" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>-3.0300000000000001E-2</v>
       </c>
       <c r="E57">
         <v>6.96</v>
@@ -2835,13 +2835,13 @@
         <v>33008.75</v>
       </c>
       <c r="I57">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="J57">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2852,10 +2852,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>14010</v>
+        <v>13710</v>
       </c>
       <c r="D58" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>-2.35E-2</v>
       </c>
       <c r="E58">
         <v>3.6</v>
@@ -2870,13 +2870,13 @@
         <v>35883.14</v>
       </c>
       <c r="I58">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="J58">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K58">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -2887,31 +2887,31 @@
         <v>124</v>
       </c>
       <c r="C59" s="2">
-        <v>40250</v>
+        <v>40150</v>
       </c>
       <c r="D59" s="3">
-        <v>3.7000000000000002E-3</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="E59">
         <v>10.79</v>
       </c>
       <c r="F59">
-        <v>11.5</v>
+        <v>9.16</v>
       </c>
       <c r="G59">
         <v>8.93</v>
       </c>
       <c r="H59" s="4">
-        <v>90358.17</v>
+        <v>87602.81</v>
       </c>
       <c r="I59">
-        <v>4.97</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J59">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K59">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -2922,10 +2922,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="2">
-        <v>23050</v>
+        <v>23500</v>
       </c>
       <c r="D60" s="3">
-        <v>1.32E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E60">
         <v>12.8</v>
@@ -2940,13 +2940,13 @@
         <v>29151.87</v>
       </c>
       <c r="I60">
-        <v>4.32</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J60">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -2957,31 +2957,31 @@
         <v>128</v>
       </c>
       <c r="C61" s="2">
-        <v>113200</v>
+        <v>111800</v>
       </c>
       <c r="D61" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E61">
         <v>16.75</v>
       </c>
       <c r="F61">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="G61">
         <v>21.73</v>
       </c>
       <c r="H61" s="4">
-        <v>48385.21</v>
+        <v>49600.29</v>
       </c>
       <c r="I61">
         <v>0.32</v>
       </c>
       <c r="J61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K61">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -2992,10 +2992,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="2">
-        <v>13400</v>
+        <v>13730</v>
       </c>
       <c r="D62" s="3">
-        <v>-2.2599999999999999E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E62">
         <v>7.65</v>
@@ -3010,13 +3010,13 @@
         <v>29805.78</v>
       </c>
       <c r="I62">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="J62">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K62">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -3027,10 +3027,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="2">
-        <v>76200</v>
+        <v>82500</v>
       </c>
       <c r="D63" s="3">
-        <v>2.9700000000000001E-2</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E63">
         <v>23.36</v>
@@ -3045,13 +3045,13 @@
         <v>27078.44</v>
       </c>
       <c r="I63">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="J63">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3062,31 +3062,31 @@
         <v>134</v>
       </c>
       <c r="C64" s="2">
-        <v>18520</v>
+        <v>18360</v>
       </c>
       <c r="D64" s="3">
-        <v>-5.4000000000000003E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E64">
         <v>10.48</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>6.48</v>
       </c>
       <c r="G64">
         <v>10.17</v>
       </c>
       <c r="H64" s="4">
-        <v>24686.55</v>
+        <v>24471.72</v>
       </c>
       <c r="I64">
-        <v>6.34</v>
+        <v>6.4</v>
       </c>
       <c r="J64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -3097,31 +3097,31 @@
         <v>136</v>
       </c>
       <c r="C65" s="2">
-        <v>500000</v>
+        <v>492500</v>
       </c>
       <c r="D65" s="3">
-        <v>2.0400000000000001E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E65">
         <v>39.340000000000003</v>
       </c>
       <c r="F65">
-        <v>41.01</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="G65">
         <v>29.72</v>
       </c>
       <c r="H65" s="4">
-        <v>42149.47</v>
+        <v>45878.62</v>
       </c>
       <c r="I65">
-        <v>1.07</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J65">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K65">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -3132,31 +3132,31 @@
         <v>138</v>
       </c>
       <c r="C66" s="2">
-        <v>53200</v>
+        <v>50900</v>
       </c>
       <c r="D66" s="3">
-        <v>-1.9E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="E66">
         <v>19.62</v>
       </c>
       <c r="F66">
-        <v>5.18</v>
+        <v>5.07</v>
       </c>
       <c r="G66">
         <v>10.95</v>
       </c>
       <c r="H66" s="4">
-        <v>17954.61</v>
+        <v>19879.12</v>
       </c>
       <c r="I66">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="J66">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K66">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -3167,22 +3167,22 @@
         <v>140</v>
       </c>
       <c r="C67" s="2">
-        <v>1244000</v>
+        <v>1240000</v>
       </c>
       <c r="D67" s="3">
-        <v>3.7499999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E67">
         <v>14.9</v>
       </c>
       <c r="F67">
-        <v>21.1</v>
+        <v>19.77</v>
       </c>
       <c r="G67">
         <v>9.09</v>
       </c>
       <c r="H67" s="4">
-        <v>210765.09</v>
+        <v>217740.32</v>
       </c>
       <c r="I67">
         <v>0.4</v>
@@ -3202,10 +3202,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="2">
-        <v>25000</v>
-      </c>
-      <c r="D68" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>24800</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
       </c>
       <c r="E68">
         <v>9.39</v>
@@ -3220,13 +3220,13 @@
         <v>45501.38</v>
       </c>
       <c r="I68">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
       <c r="J68">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62115386-C42A-42A4-A320-F2DE4CFD108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B3DEC8-12EA-4B46-A70B-ADD6B4E3A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C9BAC08-75B6-4522-BEB4-3676519FD2BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4E75E4ED-64E5-4179-B807-F2EC062222FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,10 +831,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C273CE-4407-4C68-93FC-10B06E5CDD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA1945-CEDD-47C7-BB3B-22E8BCA8ABAB}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -892,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24400</v>
+        <v>23450</v>
       </c>
       <c r="D2" s="3">
-        <v>8.3000000000000001E-3</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -910,13 +912,13 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.0999999999999996</v>
+        <v>4.26</v>
       </c>
       <c r="J2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -927,10 +929,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>105800</v>
+        <v>107200</v>
       </c>
       <c r="D3" s="3">
-        <v>8.9999999999999998E-4</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -945,13 +947,13 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.14</v>
+        <v>6.06</v>
       </c>
       <c r="J3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -962,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>269000</v>
+        <v>260500</v>
       </c>
       <c r="D4" s="3">
-        <v>1.9E-3</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -980,13 +982,13 @@
         <v>122623.42</v>
       </c>
       <c r="I4">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="J4">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -997,10 +999,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>444000</v>
+        <v>459500</v>
       </c>
       <c r="D5" s="3">
-        <v>-1.77E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -1015,13 +1017,13 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.28</v>
+        <v>4.13</v>
       </c>
       <c r="J5">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1032,10 +1034,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>83800</v>
+        <v>85100</v>
       </c>
       <c r="D6" s="3">
-        <v>2.3999999999999998E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E6">
         <v>7.19</v>
@@ -1050,13 +1052,13 @@
         <v>111662.12</v>
       </c>
       <c r="I6">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="J6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1067,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="D7" s="3">
         <v>-3.3999999999999998E-3</v>
@@ -1085,13 +1087,13 @@
         <v>70084.75</v>
       </c>
       <c r="I7">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="J7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1102,10 +1104,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>27900</v>
+        <v>26400</v>
       </c>
       <c r="D8" s="3">
-        <v>1.09E-2</v>
+        <v>-2.9399999999999999E-2</v>
       </c>
       <c r="E8">
         <v>1.04</v>
@@ -1120,13 +1122,13 @@
         <v>52631.05</v>
       </c>
       <c r="I8">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="J8">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1137,10 +1139,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>7930</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1.7299999999999999E-2</v>
+        <v>7900</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
       </c>
       <c r="E9">
         <v>2.84</v>
@@ -1155,13 +1157,13 @@
         <v>20755.32</v>
       </c>
       <c r="I9">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="J9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1172,10 +1174,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>1566000</v>
+        <v>1551000</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.9400000000000001E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E10">
         <v>39.369999999999997</v>
@@ -1193,10 +1195,10 @@
         <v>0.21</v>
       </c>
       <c r="J10">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1207,10 +1209,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>23750</v>
+        <v>23450</v>
       </c>
       <c r="D11" s="3">
-        <v>-4.1999999999999997E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E11">
         <v>13.17</v>
@@ -1225,13 +1227,13 @@
         <v>29540.06</v>
       </c>
       <c r="I11">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="J11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1242,10 +1244,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>27900</v>
+        <v>27250</v>
       </c>
       <c r="D12" s="3">
-        <v>1.8200000000000001E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E12">
         <v>4.57</v>
@@ -1260,13 +1262,13 @@
         <v>38894.53</v>
       </c>
       <c r="I12">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J12">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1277,10 +1279,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>74500</v>
+        <v>75000</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.32E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E13">
         <v>2.16</v>
@@ -1295,13 +1297,13 @@
         <v>172209.34</v>
       </c>
       <c r="I13">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1312,10 +1314,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>62500</v>
+        <v>66100</v>
       </c>
       <c r="D14" s="3">
-        <v>8.0999999999999996E-3</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="E14">
         <v>12.89</v>
@@ -1330,13 +1332,13 @@
         <v>26995.84</v>
       </c>
       <c r="I14">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="J14">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K14">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1347,10 +1349,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>10840</v>
+        <v>11040</v>
       </c>
       <c r="D15" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E15">
         <v>9.44</v>
@@ -1365,13 +1367,13 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I15">
-        <v>4.75</v>
+        <v>4.66</v>
       </c>
       <c r="J15">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1382,10 +1384,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>86800</v>
+        <v>85200</v>
       </c>
       <c r="D16" s="3">
-        <v>2.12E-2</v>
+        <v>-2.07E-2</v>
       </c>
       <c r="E16">
         <v>19.62</v>
@@ -1400,13 +1402,13 @@
         <v>132483.99</v>
       </c>
       <c r="I16">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1420,7 +1422,7 @@
         <v>220000</v>
       </c>
       <c r="D17" s="3">
-        <v>-8.9999999999999993E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="E17">
         <v>12.43</v>
@@ -1452,10 +1454,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>131900</v>
+        <v>139000</v>
       </c>
       <c r="D18" s="3">
-        <v>-8.0000000000000004E-4</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E18">
         <v>18.96</v>
@@ -1470,13 +1472,13 @@
         <v>115980.87</v>
       </c>
       <c r="I18">
-        <v>5.16</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="J18">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K18">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1487,10 +1489,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>34000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.5E-3</v>
+        <v>33800</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
       </c>
       <c r="E19">
         <v>17.420000000000002</v>
@@ -1505,13 +1507,13 @@
         <v>51134.58</v>
       </c>
       <c r="I19">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="J19">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1522,10 +1524,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>69700</v>
+        <v>69100</v>
       </c>
       <c r="D20" s="3">
-        <v>1.4E-3</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E20">
         <v>9.0299999999999994</v>
@@ -1540,13 +1542,13 @@
         <v>58114.39</v>
       </c>
       <c r="I20">
-        <v>2.0699999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="J20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1557,10 +1559,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>19430</v>
+        <v>19090</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.4200000000000001E-2</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E21">
         <v>8.73</v>
@@ -1575,13 +1577,13 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I21">
-        <v>4.8899999999999997</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J21">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1592,10 +1594,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>177600</v>
+        <v>172300</v>
       </c>
       <c r="D22" s="3">
-        <v>2.5399999999999999E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E22">
         <v>5.09</v>
@@ -1610,13 +1612,13 @@
         <v>154595.06</v>
       </c>
       <c r="I22">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="J22">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1627,10 +1629,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>19150</v>
+        <v>18720</v>
       </c>
       <c r="D23" s="3">
-        <v>3.0999999999999999E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E23">
         <v>7.94</v>
@@ -1645,13 +1647,13 @@
         <v>17214.37</v>
       </c>
       <c r="I23">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="J23">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1662,10 +1664,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="D24" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.5299999999999999E-2</v>
       </c>
       <c r="E24">
         <v>19.78</v>
@@ -1680,13 +1682,13 @@
         <v>31476.26</v>
       </c>
       <c r="I24">
-        <v>3.76</v>
+        <v>3.89</v>
       </c>
       <c r="J24">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1697,10 +1699,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>66600</v>
+        <v>65000</v>
       </c>
       <c r="D25" s="3">
-        <v>1.9900000000000001E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E25">
         <v>24.91</v>
@@ -1718,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="J25">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1732,10 +1734,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>132000</v>
+        <v>128700</v>
       </c>
       <c r="D26" s="3">
-        <v>4.6800000000000001E-2</v>
+        <v>-3.1600000000000003E-2</v>
       </c>
       <c r="E26">
         <v>13.17</v>
@@ -1750,13 +1752,13 @@
         <v>199986.9</v>
       </c>
       <c r="I26">
-        <v>4.05</v>
+        <v>4.16</v>
       </c>
       <c r="J26">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1767,10 +1769,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>284500</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>274000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
       </c>
       <c r="E27">
         <v>13.44</v>
@@ -1785,13 +1787,13 @@
         <v>63619.839999999997</v>
       </c>
       <c r="I27">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="J27">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1802,10 +1804,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>318500</v>
+        <v>323500</v>
       </c>
       <c r="D28" s="3">
-        <v>5.2900000000000003E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E28">
         <v>9.35</v>
@@ -1820,13 +1822,13 @@
         <v>514552.46</v>
       </c>
       <c r="I28">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J28">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1837,10 +1839,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>884000</v>
+        <v>933000</v>
       </c>
       <c r="D29" s="3">
-        <v>-2.64E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E29">
         <v>53.94</v>
@@ -1855,13 +1857,13 @@
         <v>116255.06</v>
       </c>
       <c r="I29">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="J29">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1872,10 +1874,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>80100</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
+        <v>79700</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E30">
         <v>10.85</v>
@@ -1890,13 +1892,13 @@
         <v>47834.19</v>
       </c>
       <c r="I30">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="J30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1907,10 +1909,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="D31" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E31">
         <v>12.89</v>
@@ -1925,13 +1927,13 @@
         <v>81376.7</v>
       </c>
       <c r="I31">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="J31">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1942,10 +1944,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>54200</v>
+        <v>54700</v>
       </c>
       <c r="D32" s="3">
-        <v>-1.2800000000000001E-2</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="E32">
         <v>10.83</v>
@@ -1960,13 +1962,13 @@
         <v>55591.17</v>
       </c>
       <c r="I32">
-        <v>6.53</v>
+        <v>6.47</v>
       </c>
       <c r="J32">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1977,10 +1979,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>78400</v>
+        <v>76700</v>
       </c>
       <c r="D33" s="3">
-        <v>-2.9700000000000001E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E33">
         <v>14.42</v>
@@ -1995,13 +1997,13 @@
         <v>33518.75</v>
       </c>
       <c r="I33">
-        <v>7.02</v>
+        <v>7.17</v>
       </c>
       <c r="J33">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -2012,10 +2014,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>104200</v>
+        <v>100000</v>
       </c>
       <c r="D34" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-4.6699999999999998E-2</v>
       </c>
       <c r="E34">
         <v>19.38</v>
@@ -2030,13 +2032,13 @@
         <v>45508.23</v>
       </c>
       <c r="I34">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="J34">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2047,10 +2049,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>34150</v>
+        <v>33650</v>
       </c>
       <c r="D35" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="E35">
         <v>13.16</v>
@@ -2065,13 +2067,13 @@
         <v>70038.45</v>
       </c>
       <c r="I35">
-        <v>4.0999999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="J35">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2082,10 +2084,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>19020</v>
+        <v>19090</v>
       </c>
       <c r="D36" s="3">
-        <v>-8.8999999999999999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E36">
         <v>8.06</v>
@@ -2100,7 +2102,7 @@
         <v>42663.82</v>
       </c>
       <c r="I36">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="J36">
         <v>77</v>
@@ -2117,10 +2119,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>50500</v>
+        <v>51300</v>
       </c>
       <c r="D37" s="3">
-        <v>2E-3</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -2135,13 +2137,13 @@
         <v>75767.48</v>
       </c>
       <c r="I37">
-        <v>5.54</v>
+        <v>5.46</v>
       </c>
       <c r="J37">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2152,10 +2154,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>19800</v>
+        <v>19670</v>
       </c>
       <c r="D38" s="3">
-        <v>1.0200000000000001E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="E38">
         <v>15.12</v>
@@ -2170,13 +2172,13 @@
         <v>14528.71</v>
       </c>
       <c r="I38">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="J38">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K38">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2187,10 +2189,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>54100</v>
+        <v>52100</v>
       </c>
       <c r="D39" s="3">
-        <v>1.9E-3</v>
+        <v>-2.2499999999999999E-2</v>
       </c>
       <c r="E39">
         <v>2.85</v>
@@ -2205,13 +2207,13 @@
         <v>69574.75</v>
       </c>
       <c r="I39">
-        <v>3.7</v>
+        <v>3.84</v>
       </c>
       <c r="J39">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2222,10 +2224,10 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>14850</v>
+        <v>13900</v>
       </c>
       <c r="D40" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>-3.7400000000000003E-2</v>
       </c>
       <c r="E40">
         <v>4.4000000000000004</v>
@@ -2240,13 +2242,13 @@
         <v>20401.09</v>
       </c>
       <c r="I40">
-        <v>4.38</v>
+        <v>4.68</v>
       </c>
       <c r="J40">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2257,10 +2259,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>143100</v>
+        <v>151700</v>
       </c>
       <c r="D41" s="3">
-        <v>-6.8999999999999999E-3</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="E41">
         <v>5.76</v>
@@ -2275,13 +2277,13 @@
         <v>158106.71</v>
       </c>
       <c r="I41">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="J41">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2292,10 +2294,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>134700</v>
+        <v>135600</v>
       </c>
       <c r="D42" s="3">
-        <v>-9.5999999999999992E-3</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E42">
         <v>12.66</v>
@@ -2310,13 +2312,13 @@
         <v>82141.36</v>
       </c>
       <c r="I42">
-        <v>4.01</v>
+        <v>3.98</v>
       </c>
       <c r="J42">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2327,10 +2329,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>18050</v>
+        <v>17860</v>
       </c>
       <c r="D43" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="E43">
         <v>12.08</v>
@@ -2345,13 +2347,13 @@
         <v>18676.03</v>
       </c>
       <c r="I43">
-        <v>6.48</v>
+        <v>6.55</v>
       </c>
       <c r="J43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K43">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2362,10 +2364,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>39550</v>
+        <v>39300</v>
       </c>
       <c r="D44" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E44">
         <v>11.21</v>
@@ -2380,7 +2382,7 @@
         <v>120400.44</v>
       </c>
       <c r="I44">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="J44">
         <v>40</v>
@@ -2397,10 +2399,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>205500</v>
+        <v>201000</v>
       </c>
       <c r="D45" s="3">
-        <v>-1.9099999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E45">
         <v>15.98</v>
@@ -2415,13 +2417,13 @@
         <v>224185.76</v>
       </c>
       <c r="I45">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="J45">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2432,10 +2434,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="D46" s="3">
-        <v>-7.9000000000000008E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E46">
         <v>13.26</v>
@@ -2450,7 +2452,7 @@
         <v>28057.11</v>
       </c>
       <c r="I46">
-        <v>4.91</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="J46">
         <v>61</v>
@@ -2467,10 +2469,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="D47" s="3">
-        <v>-1.21E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E47">
         <v>8.11</v>
@@ -2485,13 +2487,13 @@
         <v>113903.42</v>
       </c>
       <c r="I47">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="J47">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2502,10 +2504,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>192100</v>
+        <v>198800</v>
       </c>
       <c r="D48" s="3">
-        <v>2.29E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="E48">
         <v>21.85</v>
@@ -2523,10 +2525,10 @@
         <v>0.1</v>
       </c>
       <c r="J48">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2537,10 +2539,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>134400</v>
+        <v>128900</v>
       </c>
       <c r="D49" s="3">
-        <v>1.5900000000000001E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E49">
         <v>11.54</v>
@@ -2555,13 +2557,13 @@
         <v>161615.43</v>
       </c>
       <c r="I49">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="J49">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2572,10 +2574,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>45500</v>
+        <v>44850</v>
       </c>
       <c r="D50" s="3">
-        <v>-1.09E-2</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E50">
         <v>4.12</v>
@@ -2590,13 +2592,13 @@
         <v>148026.10999999999</v>
       </c>
       <c r="I50">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="J50">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K50">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2607,10 +2609,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>489500</v>
+        <v>502000</v>
       </c>
       <c r="D51" s="3">
-        <v>-1.5100000000000001E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E51">
         <v>19.59</v>
@@ -2625,13 +2627,13 @@
         <v>61380.67</v>
       </c>
       <c r="I51">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="J51">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2642,10 +2644,10 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>184400</v>
+        <v>190100</v>
       </c>
       <c r="D52" s="3">
-        <v>5.1900000000000002E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="E52">
         <v>13.24</v>
@@ -2660,13 +2662,13 @@
         <v>124598.82</v>
       </c>
       <c r="I52">
-        <v>2.0099999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="J52">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K52">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2680,7 +2682,7 @@
         <v>82200</v>
       </c>
       <c r="D53" s="3">
-        <v>-8.3999999999999995E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E53">
         <v>9.11</v>
@@ -2712,10 +2714,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>108200</v>
+        <v>108800</v>
       </c>
       <c r="D54" s="3">
-        <v>-8.2000000000000007E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E54">
         <v>8.86</v>
@@ -2730,7 +2732,7 @@
         <v>152301.9</v>
       </c>
       <c r="I54">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="J54">
         <v>80</v>
@@ -2750,7 +2752,7 @@
         <v>58700</v>
       </c>
       <c r="D55" s="3">
-        <v>2.0899999999999998E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E55">
         <v>12.32</v>
@@ -2768,10 +2770,10 @@
         <v>2.39</v>
       </c>
       <c r="J55">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K55">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2782,10 +2784,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>126500</v>
+        <v>125800</v>
       </c>
       <c r="D56" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E56">
         <v>23.44</v>
@@ -2817,10 +2819,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>14400</v>
+        <v>14710</v>
       </c>
       <c r="D57" s="3">
-        <v>-3.0300000000000001E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E57">
         <v>6.96</v>
@@ -2835,13 +2837,13 @@
         <v>33008.75</v>
       </c>
       <c r="I57">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="J57">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2852,10 +2854,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>13710</v>
+        <v>13790</v>
       </c>
       <c r="D58" s="3">
-        <v>-2.35E-2</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E58">
         <v>3.6</v>
@@ -2870,7 +2872,7 @@
         <v>35883.14</v>
       </c>
       <c r="I58">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="J58">
         <v>82</v>
@@ -2887,10 +2889,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="2">
-        <v>40150</v>
+        <v>40250</v>
       </c>
       <c r="D59" s="3">
-        <v>-1.7100000000000001E-2</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="E59">
         <v>10.79</v>
@@ -2905,13 +2907,13 @@
         <v>87602.81</v>
       </c>
       <c r="I59">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="J59">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K59">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -2922,10 +2924,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="2">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="D60" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E60">
         <v>12.8</v>
@@ -2940,13 +2942,13 @@
         <v>29151.87</v>
       </c>
       <c r="I60">
-        <v>4.2300000000000004</v>
+        <v>4.16</v>
       </c>
       <c r="J60">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -2957,10 +2959,10 @@
         <v>128</v>
       </c>
       <c r="C61" s="2">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="D61" s="3">
-        <v>6.3E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="E61">
         <v>16.75</v>
@@ -2975,13 +2977,13 @@
         <v>49600.29</v>
       </c>
       <c r="I61">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="J61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K61">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -2992,10 +2994,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="2">
-        <v>13730</v>
+        <v>13390</v>
       </c>
       <c r="D62" s="3">
-        <v>-4.4000000000000003E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="E62">
         <v>7.65</v>
@@ -3010,13 +3012,13 @@
         <v>29805.78</v>
       </c>
       <c r="I62">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="J62">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K62">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -3027,10 +3029,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="2">
-        <v>82500</v>
+        <v>80100</v>
       </c>
       <c r="D63" s="3">
-        <v>-9.5999999999999992E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E63">
         <v>23.36</v>
@@ -3045,13 +3047,13 @@
         <v>27078.44</v>
       </c>
       <c r="I63">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="J63">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3062,10 +3064,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="2">
-        <v>18360</v>
+        <v>18550</v>
       </c>
       <c r="D64" s="3">
-        <v>6.6E-3</v>
+        <v>-4.3E-3</v>
       </c>
       <c r="E64">
         <v>10.48</v>
@@ -3080,13 +3082,13 @@
         <v>24471.72</v>
       </c>
       <c r="I64">
-        <v>6.4</v>
+        <v>6.33</v>
       </c>
       <c r="J64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K64">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -3097,10 +3099,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="2">
-        <v>492500</v>
+        <v>494500</v>
       </c>
       <c r="D65" s="3">
-        <v>-3.0000000000000001E-3</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E65">
         <v>39.340000000000003</v>
@@ -3115,7 +3117,7 @@
         <v>45878.62</v>
       </c>
       <c r="I65">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J65">
         <v>95</v>
@@ -3132,10 +3134,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="2">
-        <v>50900</v>
+        <v>54400</v>
       </c>
       <c r="D66" s="3">
-        <v>-9.7000000000000003E-3</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="E66">
         <v>19.62</v>
@@ -3150,13 +3152,13 @@
         <v>19879.12</v>
       </c>
       <c r="I66">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="J66">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K66">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -3167,10 +3169,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="2">
-        <v>1240000</v>
+        <v>1233000</v>
       </c>
       <c r="D67" s="3">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E67">
         <v>14.9</v>
@@ -3185,7 +3187,7 @@
         <v>217740.32</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="J67">
         <v>91</v>
@@ -3202,10 +3204,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="2">
-        <v>24800</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0</v>
+        <v>24750</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E68">
         <v>9.39</v>
@@ -3220,13 +3222,13 @@
         <v>45501.38</v>
       </c>
       <c r="I68">
-        <v>4.84</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J68">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B3DEC8-12EA-4B46-A70B-ADD6B4E3A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D3662D-3EC4-4B5C-B88D-522F008F8343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4E75E4ED-64E5-4179-B807-F2EC062222FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{36BE12F5-0CF7-49D1-92F4-69ABC007A013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>종목코드</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>LG</t>
-  </si>
-  <si>
-    <t>003570</t>
-  </si>
-  <si>
-    <t>SNT다이내믹스</t>
   </si>
   <si>
     <t>003690</t>
@@ -831,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA1945-CEDD-47C7-BB3B-22E8BCA8ABAB}">
-  <dimension ref="A1:K68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29C0C45-F41B-4A1D-B1B0-934FB2944983}">
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -894,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23450</v>
+        <v>24100</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -912,13 +906,13 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.26</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -929,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>107200</v>
+        <v>106600</v>
       </c>
       <c r="D3" s="3">
-        <v>6.6E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -947,13 +941,13 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.06</v>
+        <v>6.1</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -964,10 +958,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>260500</v>
+        <v>273500</v>
       </c>
       <c r="D4" s="3">
-        <v>1.7600000000000001E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E4">
         <v>31.06</v>
@@ -982,13 +976,13 @@
         <v>122623.42</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -999,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>459500</v>
+        <v>457500</v>
       </c>
       <c r="D5" s="3">
-        <v>1.21E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="E5">
         <v>13.09</v>
@@ -1017,13 +1011,13 @@
         <v>333812.02</v>
       </c>
       <c r="I5">
-        <v>4.13</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -1034,10 +1028,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>85100</v>
+        <v>86100</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="E6">
         <v>7.19</v>
@@ -1052,13 +1046,13 @@
         <v>111662.12</v>
       </c>
       <c r="I6">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1069,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="D7" s="3">
-        <v>-3.3999999999999998E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E7">
         <v>7.12</v>
@@ -1087,13 +1081,13 @@
         <v>70084.75</v>
       </c>
       <c r="I7">
-        <v>6.78</v>
+        <v>6.71</v>
       </c>
       <c r="J7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1104,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>26400</v>
+        <v>27350</v>
       </c>
       <c r="D8" s="3">
-        <v>-2.9399999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E8">
         <v>1.04</v>
@@ -1122,13 +1116,13 @@
         <v>52631.05</v>
       </c>
       <c r="I8">
-        <v>4.55</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1139,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>7900</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
+        <v>7850</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="E9">
         <v>2.84</v>
@@ -1157,13 +1151,13 @@
         <v>20755.32</v>
       </c>
       <c r="I9">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1174,10 +1168,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>1551000</v>
+        <v>1552000</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="E10">
         <v>39.369999999999997</v>
@@ -1209,10 +1203,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>23450</v>
+        <v>23650</v>
       </c>
       <c r="D11" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E11">
         <v>13.17</v>
@@ -1227,13 +1221,13 @@
         <v>29540.06</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="J11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1244,10 +1238,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>27250</v>
+        <v>26950</v>
       </c>
       <c r="D12" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E12">
         <v>4.57</v>
@@ -1262,13 +1256,13 @@
         <v>38894.53</v>
       </c>
       <c r="I12">
-        <v>4.4000000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="J12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1279,10 +1273,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>75000</v>
+        <v>75600</v>
       </c>
       <c r="D13" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E13">
         <v>2.16</v>
@@ -1297,13 +1291,13 @@
         <v>172209.34</v>
       </c>
       <c r="I13">
-        <v>4.13</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1314,31 +1308,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>66100</v>
+        <v>10910</v>
       </c>
       <c r="D14" s="3">
-        <v>4.0899999999999999E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>12.89</v>
+        <v>9.44</v>
       </c>
       <c r="F14">
-        <v>11.42</v>
+        <v>11.1</v>
       </c>
       <c r="G14">
-        <v>7.9</v>
+        <v>9.86</v>
       </c>
       <c r="H14" s="4">
-        <v>26995.84</v>
+        <v>18178.189999999999</v>
       </c>
       <c r="I14">
-        <v>1.97</v>
+        <v>4.72</v>
       </c>
       <c r="J14">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1349,31 +1343,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>11040</v>
+        <v>84500</v>
       </c>
       <c r="D15" s="3">
-        <v>7.3000000000000001E-3</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>9.44</v>
+        <v>19.62</v>
       </c>
       <c r="F15">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="G15">
-        <v>9.86</v>
+        <v>6.74</v>
       </c>
       <c r="H15" s="4">
-        <v>18178.189999999999</v>
+        <v>132483.99</v>
       </c>
       <c r="I15">
-        <v>4.66</v>
+        <v>3.55</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1384,31 +1378,31 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>85200</v>
+        <v>220000</v>
       </c>
       <c r="D16" s="3">
-        <v>-2.07E-2</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="E16">
-        <v>19.62</v>
+        <v>12.43</v>
       </c>
       <c r="F16">
-        <v>12.5</v>
+        <v>11.22</v>
       </c>
       <c r="G16">
-        <v>6.74</v>
+        <v>11.82</v>
       </c>
       <c r="H16" s="4">
-        <v>132483.99</v>
+        <v>417937.43</v>
       </c>
       <c r="I16">
-        <v>3.52</v>
+        <v>5.45</v>
       </c>
       <c r="J16">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1419,31 +1413,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>220000</v>
+        <v>138600</v>
       </c>
       <c r="D17" s="3">
-        <v>-2.3E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E17">
-        <v>12.43</v>
+        <v>18.96</v>
       </c>
       <c r="F17">
-        <v>11.22</v>
+        <v>19.86</v>
       </c>
       <c r="G17">
-        <v>11.82</v>
+        <v>18.8</v>
       </c>
       <c r="H17" s="4">
-        <v>417937.43</v>
+        <v>115980.87</v>
       </c>
       <c r="I17">
-        <v>5.45</v>
+        <v>4.91</v>
       </c>
       <c r="J17">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1454,31 +1448,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>139000</v>
+        <v>33700</v>
       </c>
       <c r="D18" s="3">
-        <v>9.4000000000000004E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E18">
-        <v>18.96</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F18">
-        <v>19.86</v>
+        <v>14.49</v>
       </c>
       <c r="G18">
-        <v>18.8</v>
+        <v>15.37</v>
       </c>
       <c r="H18" s="4">
-        <v>115980.87</v>
+        <v>51134.58</v>
       </c>
       <c r="I18">
-        <v>4.8899999999999997</v>
+        <v>3.56</v>
       </c>
       <c r="J18">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1489,31 +1483,31 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>33800</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
+        <v>69500</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-8.6E-3</v>
       </c>
       <c r="E19">
-        <v>17.420000000000002</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F19">
-        <v>14.49</v>
+        <v>6.64</v>
       </c>
       <c r="G19">
-        <v>15.37</v>
+        <v>10.08</v>
       </c>
       <c r="H19" s="4">
-        <v>51134.58</v>
+        <v>58114.39</v>
       </c>
       <c r="I19">
-        <v>3.55</v>
+        <v>2.08</v>
       </c>
       <c r="J19">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1524,31 +1518,31 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>69100</v>
+        <v>19240</v>
       </c>
       <c r="D20" s="3">
-        <v>2.2200000000000001E-2</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>9.0299999999999994</v>
+        <v>8.73</v>
       </c>
       <c r="F20">
-        <v>6.64</v>
+        <v>10.35</v>
       </c>
       <c r="G20">
-        <v>10.08</v>
+        <v>6.85</v>
       </c>
       <c r="H20" s="4">
-        <v>58114.39</v>
+        <v>23121.599999999999</v>
       </c>
       <c r="I20">
-        <v>2.09</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J20">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1559,31 +1553,31 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>19090</v>
+        <v>178900</v>
       </c>
       <c r="D21" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>8.73</v>
+        <v>5.09</v>
       </c>
       <c r="F21">
-        <v>10.35</v>
+        <v>7.91</v>
       </c>
       <c r="G21">
-        <v>6.85</v>
+        <v>11.63</v>
       </c>
       <c r="H21" s="4">
-        <v>23121.599999999999</v>
+        <v>154595.06</v>
       </c>
       <c r="I21">
-        <v>4.9800000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="J21">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1594,31 +1588,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>172300</v>
+        <v>19010</v>
       </c>
       <c r="D22" s="3">
-        <v>-2.1000000000000001E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="E22">
-        <v>5.09</v>
+        <v>7.94</v>
       </c>
       <c r="F22">
-        <v>7.91</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G22">
-        <v>11.63</v>
+        <v>5.75</v>
       </c>
       <c r="H22" s="4">
-        <v>154595.06</v>
+        <v>17214.37</v>
       </c>
       <c r="I22">
-        <v>0.96</v>
+        <v>1.32</v>
       </c>
       <c r="J22">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1629,31 +1623,31 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>18720</v>
+        <v>25200</v>
       </c>
       <c r="D23" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>7.94</v>
+        <v>19.78</v>
       </c>
       <c r="F23">
-        <v>8.5299999999999994</v>
+        <v>13.61</v>
       </c>
       <c r="G23">
-        <v>5.75</v>
+        <v>23.29</v>
       </c>
       <c r="H23" s="4">
-        <v>17214.37</v>
+        <v>31476.26</v>
       </c>
       <c r="I23">
-        <v>1.34</v>
+        <v>3.97</v>
       </c>
       <c r="J23">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1664,31 +1658,31 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>25700</v>
+        <v>63200</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.5299999999999999E-2</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>19.78</v>
+        <v>24.91</v>
       </c>
       <c r="F24">
-        <v>13.61</v>
+        <v>28.07</v>
       </c>
       <c r="G24">
-        <v>23.29</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H24" s="4">
-        <v>31476.26</v>
+        <v>9061.27</v>
       </c>
       <c r="I24">
-        <v>3.89</v>
+        <v>0.24</v>
       </c>
       <c r="J24">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1699,31 +1693,31 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>65000</v>
+        <v>131700</v>
       </c>
       <c r="D25" s="3">
-        <v>4.5999999999999999E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E25">
-        <v>24.91</v>
+        <v>13.17</v>
       </c>
       <c r="F25">
-        <v>28.07</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G25">
-        <v>34.450000000000003</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H25" s="4">
-        <v>9061.27</v>
+        <v>199986.9</v>
       </c>
       <c r="I25">
-        <v>0.23</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J25">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1734,31 +1728,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>128700</v>
+        <v>293000</v>
       </c>
       <c r="D26" s="3">
-        <v>-3.1600000000000003E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E26">
-        <v>13.17</v>
+        <v>13.44</v>
       </c>
       <c r="F26">
-        <v>9.9600000000000009</v>
+        <v>14.66</v>
       </c>
       <c r="G26">
-        <v>18.010000000000002</v>
+        <v>10.67</v>
       </c>
       <c r="H26" s="4">
-        <v>199986.9</v>
+        <v>63619.839999999997</v>
       </c>
       <c r="I26">
-        <v>4.16</v>
+        <v>0.99</v>
       </c>
       <c r="J26">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1769,31 +1763,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>274000</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
+        <v>323000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E27">
-        <v>13.44</v>
+        <v>9.35</v>
       </c>
       <c r="F27">
-        <v>14.66</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G27">
-        <v>10.67</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H27" s="4">
-        <v>63619.839999999997</v>
+        <v>514552.46</v>
       </c>
       <c r="I27">
-        <v>1.06</v>
+        <v>1.86</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1804,31 +1798,31 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>323500</v>
+        <v>920000</v>
       </c>
       <c r="D28" s="3">
-        <v>6.1999999999999998E-3</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="E28">
-        <v>9.35</v>
+        <v>53.94</v>
       </c>
       <c r="F28">
-        <v>8.4700000000000006</v>
+        <v>10.83</v>
       </c>
       <c r="G28">
-        <v>8.2899999999999991</v>
+        <v>28.78</v>
       </c>
       <c r="H28" s="4">
-        <v>514552.46</v>
+        <v>116255.06</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>0.38</v>
       </c>
       <c r="J28">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -1839,31 +1833,31 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>933000</v>
+        <v>80700</v>
       </c>
       <c r="D29" s="3">
-        <v>1.8599999999999998E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E29">
-        <v>53.94</v>
+        <v>10.85</v>
       </c>
       <c r="F29">
-        <v>10.83</v>
+        <v>11.33</v>
       </c>
       <c r="G29">
-        <v>28.78</v>
+        <v>11.06</v>
       </c>
       <c r="H29" s="4">
-        <v>116255.06</v>
+        <v>47834.19</v>
       </c>
       <c r="I29">
-        <v>0.38</v>
+        <v>3.35</v>
       </c>
       <c r="J29">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -1874,31 +1868,31 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>79700</v>
+        <v>68400</v>
       </c>
       <c r="D30" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E30">
-        <v>10.85</v>
+        <v>12.89</v>
       </c>
       <c r="F30">
-        <v>11.33</v>
+        <v>13.62</v>
       </c>
       <c r="G30">
-        <v>11.06</v>
+        <v>9.44</v>
       </c>
       <c r="H30" s="4">
-        <v>47834.19</v>
+        <v>81376.7</v>
       </c>
       <c r="I30">
-        <v>3.39</v>
+        <v>5.12</v>
       </c>
       <c r="J30">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1909,31 +1903,31 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>68100</v>
+        <v>54800</v>
       </c>
       <c r="D31" s="3">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E31">
-        <v>12.89</v>
+        <v>10.83</v>
       </c>
       <c r="F31">
-        <v>13.62</v>
+        <v>7.71</v>
       </c>
       <c r="G31">
-        <v>9.44</v>
+        <v>9.48</v>
       </c>
       <c r="H31" s="4">
-        <v>81376.7</v>
+        <v>55591.17</v>
       </c>
       <c r="I31">
-        <v>5.14</v>
+        <v>6.46</v>
       </c>
       <c r="J31">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1944,31 +1938,31 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>54700</v>
+        <v>78700</v>
       </c>
       <c r="D32" s="3">
-        <v>-1.8E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E32">
-        <v>10.83</v>
+        <v>14.42</v>
       </c>
       <c r="F32">
-        <v>7.71</v>
+        <v>13.87</v>
       </c>
       <c r="G32">
-        <v>9.48</v>
+        <v>15.82</v>
       </c>
       <c r="H32" s="4">
-        <v>55591.17</v>
+        <v>33518.75</v>
       </c>
       <c r="I32">
-        <v>6.47</v>
+        <v>6.99</v>
       </c>
       <c r="J32">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1979,31 +1973,31 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>76700</v>
+        <v>102500</v>
       </c>
       <c r="D33" s="3">
-        <v>-7.7999999999999996E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E33">
-        <v>14.42</v>
+        <v>19.38</v>
       </c>
       <c r="F33">
-        <v>13.87</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G33">
-        <v>15.82</v>
+        <v>20.04</v>
       </c>
       <c r="H33" s="4">
-        <v>33518.75</v>
+        <v>45508.23</v>
       </c>
       <c r="I33">
-        <v>7.17</v>
+        <v>2.57</v>
       </c>
       <c r="J33">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -2014,31 +2008,31 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-4.6699999999999998E-2</v>
+        <v>33950</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>19.38</v>
+        <v>13.16</v>
       </c>
       <c r="F34">
-        <v>18.239999999999998</v>
+        <v>16.53</v>
       </c>
       <c r="G34">
-        <v>20.04</v>
+        <v>13.29</v>
       </c>
       <c r="H34" s="4">
-        <v>45508.23</v>
+        <v>70038.45</v>
       </c>
       <c r="I34">
-        <v>2.63</v>
+        <v>4.12</v>
       </c>
       <c r="J34">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2049,31 +2043,31 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>33650</v>
+        <v>19010</v>
       </c>
       <c r="D35" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E35">
-        <v>13.16</v>
+        <v>8.06</v>
       </c>
       <c r="F35">
-        <v>16.53</v>
+        <v>9.52</v>
       </c>
       <c r="G35">
-        <v>13.29</v>
+        <v>8.77</v>
       </c>
       <c r="H35" s="4">
-        <v>70038.45</v>
+        <v>42663.82</v>
       </c>
       <c r="I35">
-        <v>4.16</v>
+        <v>5.6</v>
       </c>
       <c r="J35">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2084,31 +2078,31 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>19090</v>
+        <v>50600</v>
       </c>
       <c r="D36" s="3">
-        <v>8.9999999999999993E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E36">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>9.52</v>
+        <v>8.75</v>
       </c>
       <c r="G36">
-        <v>8.77</v>
+        <v>7.9</v>
       </c>
       <c r="H36" s="4">
-        <v>42663.82</v>
+        <v>75767.48</v>
       </c>
       <c r="I36">
-        <v>5.58</v>
+        <v>5.53</v>
       </c>
       <c r="J36">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -2119,31 +2113,31 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>51300</v>
+        <v>19700</v>
       </c>
       <c r="D37" s="3">
-        <v>1.38E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>15.12</v>
       </c>
       <c r="F37">
-        <v>8.75</v>
+        <v>11.12</v>
       </c>
       <c r="G37">
-        <v>7.9</v>
+        <v>15.58</v>
       </c>
       <c r="H37" s="4">
-        <v>75767.48</v>
+        <v>14528.71</v>
       </c>
       <c r="I37">
-        <v>5.46</v>
+        <v>6.24</v>
       </c>
       <c r="J37">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K37">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2154,31 +2148,31 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>19670</v>
+        <v>53500</v>
       </c>
       <c r="D38" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>15.12</v>
+        <v>2.85</v>
       </c>
       <c r="F38">
-        <v>11.12</v>
+        <v>14.73</v>
       </c>
       <c r="G38">
-        <v>15.58</v>
+        <v>5.63</v>
       </c>
       <c r="H38" s="4">
-        <v>14528.71</v>
+        <v>69574.75</v>
       </c>
       <c r="I38">
-        <v>6.25</v>
+        <v>3.74</v>
       </c>
       <c r="J38">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2189,31 +2183,31 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>52100</v>
+        <v>14370</v>
       </c>
       <c r="D39" s="3">
-        <v>-2.2499999999999999E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E39">
-        <v>2.85</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F39">
-        <v>14.73</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G39">
-        <v>5.63</v>
+        <v>6.75</v>
       </c>
       <c r="H39" s="4">
-        <v>69574.75</v>
+        <v>20401.09</v>
       </c>
       <c r="I39">
-        <v>3.84</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J39">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2224,31 +2218,31 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>13900</v>
+        <v>149900</v>
       </c>
       <c r="D40" s="3">
-        <v>-3.7400000000000003E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E40">
-        <v>4.4000000000000004</v>
+        <v>5.76</v>
       </c>
       <c r="F40">
-        <v>8.8699999999999992</v>
+        <v>8.44</v>
       </c>
       <c r="G40">
-        <v>6.75</v>
+        <v>5.33</v>
       </c>
       <c r="H40" s="4">
-        <v>20401.09</v>
+        <v>158106.71</v>
       </c>
       <c r="I40">
-        <v>4.68</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2259,31 +2253,31 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>151700</v>
+        <v>135200</v>
       </c>
       <c r="D41" s="3">
-        <v>5.4899999999999997E-2</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>5.76</v>
+        <v>12.66</v>
       </c>
       <c r="F41">
-        <v>8.44</v>
+        <v>8.66</v>
       </c>
       <c r="G41">
-        <v>5.33</v>
+        <v>11.14</v>
       </c>
       <c r="H41" s="4">
-        <v>158106.71</v>
+        <v>82141.36</v>
       </c>
       <c r="I41">
-        <v>2.97</v>
+        <v>3.99</v>
       </c>
       <c r="J41">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2294,31 +2288,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>135600</v>
+        <v>17800</v>
       </c>
       <c r="D42" s="3">
-        <v>-1.09E-2</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>12.66</v>
+        <v>12.08</v>
       </c>
       <c r="F42">
-        <v>8.66</v>
+        <v>7.17</v>
       </c>
       <c r="G42">
-        <v>11.14</v>
+        <v>8.39</v>
       </c>
       <c r="H42" s="4">
-        <v>82141.36</v>
+        <v>18676.03</v>
       </c>
       <c r="I42">
-        <v>3.98</v>
+        <v>6.57</v>
       </c>
       <c r="J42">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="K42">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2329,31 +2323,31 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>17860</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-5.5999999999999999E-3</v>
+        <v>39300</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>12.08</v>
+        <v>11.21</v>
       </c>
       <c r="F43">
-        <v>7.17</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G43">
-        <v>8.39</v>
+        <v>6.4</v>
       </c>
       <c r="H43" s="4">
-        <v>18676.03</v>
+        <v>120400.44</v>
       </c>
       <c r="I43">
-        <v>6.55</v>
+        <v>3.7</v>
       </c>
       <c r="J43">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K43">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2364,31 +2358,31 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>39300</v>
+        <v>206500</v>
       </c>
       <c r="D44" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E44">
-        <v>11.21</v>
+        <v>15.98</v>
       </c>
       <c r="F44">
-        <v>8.3000000000000007</v>
+        <v>18.79</v>
       </c>
       <c r="G44">
-        <v>6.4</v>
+        <v>12.25</v>
       </c>
       <c r="H44" s="4">
-        <v>120400.44</v>
+        <v>224185.76</v>
       </c>
       <c r="I44">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="J44">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2399,31 +2393,31 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>201000</v>
+        <v>51400</v>
       </c>
       <c r="D45" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="E45">
-        <v>15.98</v>
+        <v>13.26</v>
       </c>
       <c r="F45">
-        <v>18.79</v>
+        <v>9.59</v>
       </c>
       <c r="G45">
-        <v>12.25</v>
+        <v>11.65</v>
       </c>
       <c r="H45" s="4">
-        <v>224185.76</v>
+        <v>28057.11</v>
       </c>
       <c r="I45">
-        <v>3.73</v>
+        <v>4.8</v>
       </c>
       <c r="J45">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -2434,31 +2428,31 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>50500</v>
+        <v>64600</v>
       </c>
       <c r="D46" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>13.26</v>
+        <v>8.11</v>
       </c>
       <c r="F46">
-        <v>9.59</v>
+        <v>10.55</v>
       </c>
       <c r="G46">
-        <v>11.65</v>
+        <v>8.66</v>
       </c>
       <c r="H46" s="4">
-        <v>28057.11</v>
+        <v>113903.42</v>
       </c>
       <c r="I46">
-        <v>4.8899999999999997</v>
+        <v>3.34</v>
       </c>
       <c r="J46">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -2469,31 +2463,31 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>64900</v>
+        <v>205000</v>
       </c>
       <c r="D47" s="3">
-        <v>1.41E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E47">
-        <v>8.11</v>
+        <v>21.85</v>
       </c>
       <c r="F47">
-        <v>10.55</v>
+        <v>29.41</v>
       </c>
       <c r="G47">
-        <v>8.66</v>
+        <v>15.32</v>
       </c>
       <c r="H47" s="4">
-        <v>113903.42</v>
+        <v>24748.62</v>
       </c>
       <c r="I47">
-        <v>3.33</v>
+        <v>0.1</v>
       </c>
       <c r="J47">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -2504,31 +2498,31 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>198800</v>
+        <v>131200</v>
       </c>
       <c r="D48" s="3">
-        <v>3.5400000000000001E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>21.85</v>
+        <v>11.54</v>
       </c>
       <c r="F48">
-        <v>29.41</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="G48">
-        <v>15.32</v>
+        <v>9.6</v>
       </c>
       <c r="H48" s="4">
-        <v>24748.62</v>
+        <v>161615.43</v>
       </c>
       <c r="I48">
-        <v>0.1</v>
+        <v>3.03</v>
       </c>
       <c r="J48">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -2539,31 +2533,31 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>128900</v>
+        <v>45450</v>
       </c>
       <c r="D49" s="3">
-        <v>3.0999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E49">
-        <v>11.54</v>
+        <v>4.12</v>
       </c>
       <c r="F49">
-        <v>18.760000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="G49">
-        <v>9.6</v>
+        <v>11.01</v>
       </c>
       <c r="H49" s="4">
-        <v>161615.43</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I49">
-        <v>3.09</v>
+        <v>5.94</v>
       </c>
       <c r="J49">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K49">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -2574,31 +2568,31 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>44850</v>
+        <v>476000</v>
       </c>
       <c r="D50" s="3">
-        <v>-1.32E-2</v>
+        <v>-3.6400000000000002E-2</v>
       </c>
       <c r="E50">
-        <v>4.12</v>
+        <v>19.59</v>
       </c>
       <c r="F50">
-        <v>3.45</v>
+        <v>29.63</v>
       </c>
       <c r="G50">
-        <v>11.01</v>
+        <v>17.23</v>
       </c>
       <c r="H50" s="4">
-        <v>148026.10999999999</v>
+        <v>61380.67</v>
       </c>
       <c r="I50">
-        <v>6.02</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -2609,31 +2603,31 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>502000</v>
+        <v>185800</v>
       </c>
       <c r="D51" s="3">
-        <v>1.83E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E51">
-        <v>19.59</v>
+        <v>13.24</v>
       </c>
       <c r="F51">
-        <v>29.63</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G51">
-        <v>17.23</v>
+        <v>15.51</v>
       </c>
       <c r="H51" s="4">
-        <v>61380.67</v>
+        <v>124598.82</v>
       </c>
       <c r="I51">
-        <v>0.48</v>
+        <v>1.99</v>
       </c>
       <c r="J51">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K51">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -2644,31 +2638,31 @@
         <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>190100</v>
+        <v>81200</v>
       </c>
       <c r="D52" s="3">
-        <v>2.3699999999999999E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E52">
-        <v>13.24</v>
+        <v>9.11</v>
       </c>
       <c r="F52">
-        <v>19.899999999999999</v>
+        <v>10.47</v>
       </c>
       <c r="G52">
-        <v>15.51</v>
+        <v>9.4</v>
       </c>
       <c r="H52" s="4">
-        <v>124598.82</v>
+        <v>153124.29</v>
       </c>
       <c r="I52">
-        <v>1.95</v>
+        <v>4.43</v>
       </c>
       <c r="J52">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="K52">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -2679,31 +2673,31 @@
         <v>112</v>
       </c>
       <c r="C53" s="2">
-        <v>82200</v>
+        <v>108600</v>
       </c>
       <c r="D53" s="3">
-        <v>1.11E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E53">
-        <v>9.11</v>
+        <v>8.86</v>
       </c>
       <c r="F53">
-        <v>10.47</v>
+        <v>11.69</v>
       </c>
       <c r="G53">
-        <v>9.4</v>
+        <v>8.51</v>
       </c>
       <c r="H53" s="4">
-        <v>153124.29</v>
+        <v>152301.9</v>
       </c>
       <c r="I53">
-        <v>4.38</v>
+        <v>2.92</v>
       </c>
       <c r="J53">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -2714,25 +2708,25 @@
         <v>114</v>
       </c>
       <c r="C54" s="2">
-        <v>108800</v>
+        <v>59800</v>
       </c>
       <c r="D54" s="3">
-        <v>1.5900000000000001E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="E54">
-        <v>8.86</v>
+        <v>12.32</v>
       </c>
       <c r="F54">
-        <v>11.69</v>
+        <v>11.43</v>
       </c>
       <c r="G54">
-        <v>8.51</v>
+        <v>18.72</v>
       </c>
       <c r="H54" s="4">
-        <v>152301.9</v>
+        <v>82777.13</v>
       </c>
       <c r="I54">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="J54">
         <v>80</v>
@@ -2749,31 +2743,31 @@
         <v>116</v>
       </c>
       <c r="C55" s="2">
-        <v>58700</v>
+        <v>123100</v>
       </c>
       <c r="D55" s="3">
-        <v>8.6E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="E55">
-        <v>12.32</v>
+        <v>23.44</v>
       </c>
       <c r="F55">
-        <v>11.43</v>
+        <v>24.59</v>
       </c>
       <c r="G55">
-        <v>18.72</v>
+        <v>27.89</v>
       </c>
       <c r="H55" s="4">
-        <v>82777.13</v>
+        <v>55646.89</v>
       </c>
       <c r="I55">
-        <v>2.39</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J55">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K55">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -2784,31 +2778,31 @@
         <v>118</v>
       </c>
       <c r="C56" s="2">
-        <v>125800</v>
+        <v>14490</v>
       </c>
       <c r="D56" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E56">
-        <v>23.44</v>
+        <v>6.96</v>
       </c>
       <c r="F56">
-        <v>24.59</v>
+        <v>6.28</v>
       </c>
       <c r="G56">
-        <v>27.89</v>
+        <v>7.18</v>
       </c>
       <c r="H56" s="4">
-        <v>55646.89</v>
+        <v>33008.75</v>
       </c>
       <c r="I56">
-        <v>1.07</v>
+        <v>4.49</v>
       </c>
       <c r="J56">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -2819,31 +2813,31 @@
         <v>120</v>
       </c>
       <c r="C57" s="2">
-        <v>14710</v>
+        <v>13590</v>
       </c>
       <c r="D57" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E57">
-        <v>6.96</v>
+        <v>3.6</v>
       </c>
       <c r="F57">
-        <v>6.28</v>
+        <v>10.34</v>
       </c>
       <c r="G57">
-        <v>7.18</v>
+        <v>5.91</v>
       </c>
       <c r="H57" s="4">
-        <v>33008.75</v>
+        <v>35883.14</v>
       </c>
       <c r="I57">
-        <v>4.42</v>
+        <v>3.68</v>
       </c>
       <c r="J57">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K57">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2854,31 +2848,31 @@
         <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>13790</v>
+        <v>39300</v>
       </c>
       <c r="D58" s="3">
-        <v>-2.8999999999999998E-3</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="E58">
-        <v>3.6</v>
+        <v>10.79</v>
       </c>
       <c r="F58">
-        <v>10.34</v>
+        <v>9.16</v>
       </c>
       <c r="G58">
-        <v>5.91</v>
+        <v>8.93</v>
       </c>
       <c r="H58" s="4">
-        <v>35883.14</v>
+        <v>87602.81</v>
       </c>
       <c r="I58">
-        <v>3.63</v>
+        <v>5.09</v>
       </c>
       <c r="J58">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K58">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -2889,31 +2883,31 @@
         <v>124</v>
       </c>
       <c r="C59" s="2">
-        <v>40250</v>
+        <v>23550</v>
       </c>
       <c r="D59" s="3">
-        <v>-2.5000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E59">
-        <v>10.79</v>
+        <v>12.8</v>
       </c>
       <c r="F59">
-        <v>9.16</v>
+        <v>11.61</v>
       </c>
       <c r="G59">
-        <v>8.93</v>
+        <v>12.93</v>
       </c>
       <c r="H59" s="4">
-        <v>87602.81</v>
+        <v>29151.87</v>
       </c>
       <c r="I59">
-        <v>4.97</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J59">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -2924,31 +2918,31 @@
         <v>126</v>
       </c>
       <c r="C60" s="2">
-        <v>23900</v>
+        <v>109200</v>
       </c>
       <c r="D60" s="3">
-        <v>1.06E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="E60">
-        <v>12.8</v>
+        <v>16.75</v>
       </c>
       <c r="F60">
-        <v>11.61</v>
+        <v>11.2</v>
       </c>
       <c r="G60">
-        <v>12.93</v>
+        <v>21.73</v>
       </c>
       <c r="H60" s="4">
-        <v>29151.87</v>
+        <v>49600.29</v>
       </c>
       <c r="I60">
-        <v>4.16</v>
+        <v>0.33</v>
       </c>
       <c r="J60">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K60">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -2959,31 +2953,31 @@
         <v>128</v>
       </c>
       <c r="C61" s="2">
-        <v>109500</v>
+        <v>13330</v>
       </c>
       <c r="D61" s="3">
-        <v>-6.4000000000000003E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E61">
-        <v>16.75</v>
+        <v>7.65</v>
       </c>
       <c r="F61">
-        <v>11.2</v>
+        <v>4.43</v>
       </c>
       <c r="G61">
-        <v>21.73</v>
+        <v>7.8</v>
       </c>
       <c r="H61" s="4">
-        <v>49600.29</v>
+        <v>29805.78</v>
       </c>
       <c r="I61">
-        <v>0.33</v>
+        <v>1.95</v>
       </c>
       <c r="J61">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K61">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -2994,31 +2988,31 @@
         <v>130</v>
       </c>
       <c r="C62" s="2">
-        <v>13390</v>
+        <v>81900</v>
       </c>
       <c r="D62" s="3">
-        <v>-6.7000000000000002E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E62">
-        <v>7.65</v>
+        <v>23.36</v>
       </c>
       <c r="F62">
-        <v>4.43</v>
+        <v>18.75</v>
       </c>
       <c r="G62">
-        <v>7.8</v>
+        <v>18.11</v>
       </c>
       <c r="H62" s="4">
-        <v>29805.78</v>
+        <v>27078.44</v>
       </c>
       <c r="I62">
-        <v>1.94</v>
+        <v>1.22</v>
       </c>
       <c r="J62">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -3029,31 +3023,31 @@
         <v>132</v>
       </c>
       <c r="C63" s="2">
-        <v>80100</v>
+        <v>18300</v>
       </c>
       <c r="D63" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>23.36</v>
+        <v>10.48</v>
       </c>
       <c r="F63">
-        <v>18.75</v>
+        <v>6.48</v>
       </c>
       <c r="G63">
-        <v>18.11</v>
+        <v>10.17</v>
       </c>
       <c r="H63" s="4">
-        <v>27078.44</v>
+        <v>24471.72</v>
       </c>
       <c r="I63">
-        <v>1.25</v>
+        <v>6.42</v>
       </c>
       <c r="J63">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="K63">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3064,31 +3058,31 @@
         <v>134</v>
       </c>
       <c r="C64" s="2">
-        <v>18550</v>
+        <v>517000</v>
       </c>
       <c r="D64" s="3">
-        <v>-4.3E-3</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E64">
-        <v>10.48</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="F64">
-        <v>6.48</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="G64">
-        <v>10.17</v>
+        <v>29.72</v>
       </c>
       <c r="H64" s="4">
-        <v>24471.72</v>
+        <v>45878.62</v>
       </c>
       <c r="I64">
-        <v>6.33</v>
+        <v>1.03</v>
       </c>
       <c r="J64">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -3099,31 +3093,31 @@
         <v>136</v>
       </c>
       <c r="C65" s="2">
-        <v>494500</v>
+        <v>52400</v>
       </c>
       <c r="D65" s="3">
-        <v>1.54E-2</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
       <c r="E65">
-        <v>39.340000000000003</v>
+        <v>19.62</v>
       </c>
       <c r="F65">
-        <v>37.770000000000003</v>
+        <v>5.07</v>
       </c>
       <c r="G65">
-        <v>29.72</v>
+        <v>10.95</v>
       </c>
       <c r="H65" s="4">
-        <v>45878.62</v>
+        <v>19879.12</v>
       </c>
       <c r="I65">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="J65">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K65">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -3134,31 +3128,31 @@
         <v>138</v>
       </c>
       <c r="C66" s="2">
-        <v>54400</v>
+        <v>1232000</v>
       </c>
       <c r="D66" s="3">
-        <v>6.4600000000000005E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E66">
-        <v>19.62</v>
+        <v>14.9</v>
       </c>
       <c r="F66">
-        <v>5.07</v>
+        <v>19.77</v>
       </c>
       <c r="G66">
-        <v>10.95</v>
+        <v>9.09</v>
       </c>
       <c r="H66" s="4">
-        <v>19879.12</v>
+        <v>217740.32</v>
       </c>
       <c r="I66">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="J66">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K66">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -3169,66 +3163,31 @@
         <v>140</v>
       </c>
       <c r="C67" s="2">
-        <v>1233000</v>
+        <v>24300</v>
       </c>
       <c r="D67" s="3">
-        <v>1.4E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E67">
-        <v>14.9</v>
+        <v>9.39</v>
       </c>
       <c r="F67">
-        <v>19.77</v>
+        <v>7.27</v>
       </c>
       <c r="G67">
-        <v>9.09</v>
+        <v>9.73</v>
       </c>
       <c r="H67" s="4">
-        <v>217740.32</v>
+        <v>45501.38</v>
       </c>
       <c r="I67">
-        <v>0.41</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J67">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="2">
-        <v>24750</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E68">
-        <v>9.39</v>
-      </c>
-      <c r="F68">
-        <v>7.27</v>
-      </c>
-      <c r="G68">
-        <v>9.73</v>
-      </c>
-      <c r="H68" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I68">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="J68">
-        <v>87</v>
-      </c>
-      <c r="K68">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E33B1C-4B91-4485-9402-52E36ED95089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920346F8-D635-41B1-98DB-AB75BC3A6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{94C5E500-B352-4BA4-BB02-6EC24FFE4AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC7ACE05-D0F2-493D-976B-0BAA8F1BC9AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>종목코드</t>
   </si>
@@ -627,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA73C5E-0134-46DD-97A0-59E50188ECCC}">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FCD8B-DF31-4D8F-9107-B4BA87A8AB25}">
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -645,9 +645,11 @@
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +683,14 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -690,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="D2" s="3">
-        <v>-8.3000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -708,7 +716,7 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="J2">
         <v>83</v>
@@ -716,8 +724,14 @@
       <c r="K2">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2">
+        <v>83</v>
+      </c>
+      <c r="M2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,10 +739,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104900</v>
+        <v>105600</v>
       </c>
       <c r="D3" s="3">
-        <v>-1.5900000000000001E-2</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -743,16 +757,22 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="L3">
+        <v>62</v>
+      </c>
+      <c r="M3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -760,10 +780,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>460000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>472000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -778,16 +798,22 @@
         <v>333812.02</v>
       </c>
       <c r="I4">
-        <v>4.13</v>
+        <v>4.03</v>
       </c>
       <c r="J4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,10 +821,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="D5" s="3">
-        <v>1.01E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -813,16 +839,22 @@
         <v>70084.75</v>
       </c>
       <c r="I5">
-        <v>6.64</v>
+        <v>6.49</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -830,10 +862,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>27900</v>
+        <v>26950</v>
       </c>
       <c r="D6" s="3">
-        <v>2.01E-2</v>
+        <v>-1.6400000000000001E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -848,16 +880,22 @@
         <v>52631.05</v>
       </c>
       <c r="I6">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="J6">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -865,10 +903,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="D7" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="E7">
         <v>2.84</v>
@@ -883,16 +921,22 @@
         <v>20755.32</v>
       </c>
       <c r="I7">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="J7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>81</v>
+      </c>
+      <c r="M7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -900,10 +944,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>27300</v>
+        <v>28450</v>
       </c>
       <c r="D8" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="E8">
         <v>4.57</v>
@@ -918,16 +962,22 @@
         <v>38894.53</v>
       </c>
       <c r="I8">
-        <v>4.4000000000000004</v>
+        <v>4.22</v>
       </c>
       <c r="J8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="L8">
+        <v>85</v>
+      </c>
+      <c r="M8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -935,10 +985,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>11000</v>
+        <v>11160</v>
       </c>
       <c r="D9" s="3">
-        <v>8.2000000000000007E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="E9">
         <v>9.44</v>
@@ -953,16 +1003,22 @@
         <v>18178.189999999999</v>
       </c>
       <c r="I9">
-        <v>4.68</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J9">
+        <v>93</v>
+      </c>
+      <c r="K9">
+        <v>93</v>
+      </c>
+      <c r="L9">
         <v>91</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -970,10 +1026,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>84500</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
+        <v>88600</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1.01E-2</v>
       </c>
       <c r="E10">
         <v>19.62</v>
@@ -988,16 +1044,22 @@
         <v>132483.99</v>
       </c>
       <c r="I10">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="J10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="L10">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1005,10 +1067,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>218500</v>
+        <v>221000</v>
       </c>
       <c r="D11" s="3">
-        <v>-6.7999999999999996E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E11">
         <v>12.43</v>
@@ -1023,16 +1085,22 @@
         <v>417937.43</v>
       </c>
       <c r="I11">
-        <v>5.49</v>
+        <v>5.43</v>
       </c>
       <c r="J11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1040,10 +1108,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>139100</v>
+        <v>143300</v>
       </c>
       <c r="D12" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="E12">
         <v>18.96</v>
@@ -1058,16 +1126,22 @@
         <v>115980.87</v>
       </c>
       <c r="I12">
-        <v>4.8899999999999997</v>
+        <v>4.75</v>
       </c>
       <c r="J12">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="L12">
+        <v>83</v>
+      </c>
+      <c r="M12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1075,10 +1149,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>19350</v>
+        <v>20600</v>
       </c>
       <c r="D13" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E13">
         <v>8.73</v>
@@ -1093,16 +1167,22 @@
         <v>23121.599999999999</v>
       </c>
       <c r="I13">
-        <v>4.91</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J13">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1110,10 +1190,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>69500</v>
+        <v>73200</v>
       </c>
       <c r="D14" s="3">
-        <v>1.61E-2</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="E14">
         <v>12.89</v>
@@ -1128,16 +1208,22 @@
         <v>81376.7</v>
       </c>
       <c r="I14">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="J14">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="L14">
+        <v>84</v>
+      </c>
+      <c r="M14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1145,10 +1231,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>54100</v>
+        <v>54900</v>
       </c>
       <c r="D15" s="3">
-        <v>-1.2800000000000001E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E15">
         <v>10.83</v>
@@ -1163,16 +1249,22 @@
         <v>55591.17</v>
       </c>
       <c r="I15">
-        <v>6.54</v>
+        <v>6.45</v>
       </c>
       <c r="J15">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1180,10 +1272,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>78900</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>79300</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>14.42</v>
@@ -1198,7 +1290,7 @@
         <v>33518.75</v>
       </c>
       <c r="I16">
-        <v>6.97</v>
+        <v>6.94</v>
       </c>
       <c r="J16">
         <v>82</v>
@@ -1206,8 +1298,14 @@
       <c r="K16">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16">
+        <v>33</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1215,10 +1313,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>19000</v>
+        <v>19760</v>
       </c>
       <c r="D17" s="3">
-        <v>-5.0000000000000001E-4</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="E17">
         <v>8.06</v>
@@ -1233,16 +1331,22 @@
         <v>42663.82</v>
       </c>
       <c r="I17">
-        <v>5.61</v>
+        <v>5.39</v>
       </c>
       <c r="J17">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1250,10 +1354,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>50800</v>
+        <v>53600</v>
       </c>
       <c r="D18" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1268,16 +1372,22 @@
         <v>75767.48</v>
       </c>
       <c r="I18">
-        <v>5.51</v>
+        <v>5.22</v>
       </c>
       <c r="J18">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="L18">
+        <v>96</v>
+      </c>
+      <c r="M18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1285,10 +1395,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>19770</v>
+        <v>20150</v>
       </c>
       <c r="D19" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>1.26E-2</v>
       </c>
       <c r="E19">
         <v>15.12</v>
@@ -1303,16 +1413,22 @@
         <v>14528.71</v>
       </c>
       <c r="I19">
-        <v>6.22</v>
+        <v>6.1</v>
       </c>
       <c r="J19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="L19">
+        <v>95</v>
+      </c>
+      <c r="M19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1320,10 +1436,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>53100</v>
+        <v>51300</v>
       </c>
       <c r="D20" s="3">
-        <v>-7.4999999999999997E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E20">
         <v>2.85</v>
@@ -1338,16 +1454,22 @@
         <v>69574.75</v>
       </c>
       <c r="I20">
-        <v>3.77</v>
+        <v>3.9</v>
       </c>
       <c r="J20">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1355,10 +1477,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>14450</v>
+        <v>14970</v>
       </c>
       <c r="D21" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E21">
         <v>4.4000000000000004</v>
@@ -1373,16 +1495,22 @@
         <v>20401.09</v>
       </c>
       <c r="I21">
-        <v>4.5</v>
+        <v>4.34</v>
       </c>
       <c r="J21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="L21">
+        <v>71</v>
+      </c>
+      <c r="M21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1390,10 +1518,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>134700</v>
+        <v>133100</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E22">
         <v>12.66</v>
@@ -1408,16 +1536,22 @@
         <v>82141.36</v>
       </c>
       <c r="I22">
-        <v>4.01</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J22">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1425,10 +1559,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>39650</v>
+        <v>40100</v>
       </c>
       <c r="D23" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>-1.11E-2</v>
       </c>
       <c r="E23">
         <v>11.21</v>
@@ -1443,16 +1577,22 @@
         <v>120400.44</v>
       </c>
       <c r="I23">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="J23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="L23">
+        <v>58</v>
+      </c>
+      <c r="M23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1460,10 +1600,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>212500</v>
+        <v>248000</v>
       </c>
       <c r="D24" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E24">
         <v>15.98</v>
@@ -1478,16 +1618,22 @@
         <v>224185.76</v>
       </c>
       <c r="I24">
-        <v>3.53</v>
+        <v>3.02</v>
       </c>
       <c r="J24">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K24">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+      <c r="L24">
+        <v>91</v>
+      </c>
+      <c r="M24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1495,10 +1641,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>64400</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-3.0999999999999999E-3</v>
+        <v>67500</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
       </c>
       <c r="E25">
         <v>8.11</v>
@@ -1513,16 +1659,22 @@
         <v>113903.42</v>
       </c>
       <c r="I25">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J25">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="L25">
+        <v>52</v>
+      </c>
+      <c r="M25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1530,10 +1682,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>45600</v>
+        <v>46600</v>
       </c>
       <c r="D26" s="3">
-        <v>3.3E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E26">
         <v>4.12</v>
@@ -1548,16 +1700,22 @@
         <v>148026.10999999999</v>
       </c>
       <c r="I26">
-        <v>5.92</v>
+        <v>5.79</v>
       </c>
       <c r="J26">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="L26">
+        <v>90</v>
+      </c>
+      <c r="M26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1565,10 +1723,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>81500</v>
+        <v>87600</v>
       </c>
       <c r="D27" s="3">
-        <v>3.7000000000000002E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="E27">
         <v>9.11</v>
@@ -1583,16 +1741,22 @@
         <v>153124.29</v>
       </c>
       <c r="I27">
-        <v>4.42</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J27">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="L27">
+        <v>87</v>
+      </c>
+      <c r="M27">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1600,10 +1764,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>106700</v>
+        <v>116400</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.7500000000000002E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E28">
         <v>8.86</v>
@@ -1618,16 +1782,22 @@
         <v>152301.9</v>
       </c>
       <c r="I28">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="J28">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+      <c r="L28">
+        <v>87</v>
+      </c>
+      <c r="M28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1635,10 +1805,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>14560</v>
+        <v>15340</v>
       </c>
       <c r="D29" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="E29">
         <v>6.96</v>
@@ -1653,16 +1823,22 @@
         <v>33008.75</v>
       </c>
       <c r="I29">
-        <v>4.46</v>
+        <v>4.24</v>
       </c>
       <c r="J29">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+      <c r="L29">
+        <v>81</v>
+      </c>
+      <c r="M29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1670,10 +1846,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>13660</v>
+        <v>14220</v>
       </c>
       <c r="D30" s="3">
-        <v>5.1999999999999998E-3</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="E30">
         <v>3.6</v>
@@ -1688,16 +1864,22 @@
         <v>35883.14</v>
       </c>
       <c r="I30">
-        <v>3.66</v>
+        <v>3.52</v>
       </c>
       <c r="J30">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="L30">
+        <v>65</v>
+      </c>
+      <c r="M30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1705,10 +1887,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>23700</v>
+        <v>24650</v>
       </c>
       <c r="D31" s="3">
-        <v>6.4000000000000003E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E31">
         <v>12.8</v>
@@ -1723,16 +1905,22 @@
         <v>29151.87</v>
       </c>
       <c r="I31">
-        <v>4.2</v>
+        <v>4.04</v>
       </c>
       <c r="J31">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+      <c r="L31">
+        <v>89</v>
+      </c>
+      <c r="M31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1740,10 +1928,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>13710</v>
+        <v>14210</v>
       </c>
       <c r="D32" s="3">
-        <v>2.8500000000000001E-2</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="E32">
         <v>7.65</v>
@@ -1758,16 +1946,22 @@
         <v>29805.78</v>
       </c>
       <c r="I32">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J32">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="L32">
+        <v>76</v>
+      </c>
+      <c r="M32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1775,10 +1969,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>18270</v>
+        <v>18360</v>
       </c>
       <c r="D33" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E33">
         <v>10.48</v>
@@ -1793,16 +1987,22 @@
         <v>24471.72</v>
       </c>
       <c r="I33">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -1810,10 +2010,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>24250</v>
+        <v>25350</v>
       </c>
       <c r="D34" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>-1.55E-2</v>
       </c>
       <c r="E34">
         <v>9.39</v>
@@ -1828,13 +2028,19 @@
         <v>45501.38</v>
       </c>
       <c r="I34">
-        <v>4.95</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J34">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="L34">
+        <v>74</v>
+      </c>
+      <c r="M34">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920346F8-D635-41B1-98DB-AB75BC3A6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2B21C9-1174-4B81-81F0-FA3DF7099ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC7ACE05-D0F2-493D-976B-0BAA8F1BC9AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{12C0B8A9-878D-4AB4-9E59-6E8EB144ACA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>종목코드</t>
   </si>
@@ -84,6 +84,12 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
+    <t>001740</t>
+  </si>
+  <si>
+    <t>SK네트웍스</t>
+  </si>
+  <si>
     <t>002310</t>
   </si>
   <si>
@@ -102,6 +108,12 @@
     <t>코리안리</t>
   </si>
   <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
     <t>004800</t>
   </si>
   <si>
@@ -126,6 +138,18 @@
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>006120</t>
+  </si>
+  <si>
+    <t>SK디스커버리</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
@@ -180,6 +204,12 @@
     <t>KT&amp;G</t>
   </si>
   <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
     <t>036460</t>
   </si>
   <si>
@@ -198,12 +228,24 @@
     <t>신한지주</t>
   </si>
   <si>
+    <t>064960</t>
+  </si>
+  <si>
+    <t>SNT모티브</t>
+  </si>
+  <si>
     <t>078930</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
     <t>086790</t>
   </si>
   <si>
@@ -216,6 +258,12 @@
     <t>KB금융</t>
   </si>
   <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>138930</t>
   </si>
   <si>
@@ -244,6 +292,12 @@
   </si>
   <si>
     <t>이노션</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
   </si>
   <si>
     <t>316140</t>
@@ -627,19 +681,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FCD8B-DF31-4D8F-9107-B4BA87A8AB25}">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790BEB4-39C2-4269-838C-30D593385DC9}">
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -698,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>24000</v>
+        <v>23650</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>-1.46E-2</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -716,19 +770,19 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.17</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -739,10 +793,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>105600</v>
+        <v>105900</v>
       </c>
       <c r="D3" s="3">
-        <v>-3.8E-3</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -757,7 +811,7 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.16</v>
+        <v>6.14</v>
       </c>
       <c r="J3">
         <v>68</v>
@@ -766,10 +820,10 @@
         <v>68</v>
       </c>
       <c r="L3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M3">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -780,37 +834,37 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>472000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
+        <v>470000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-6.3E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
       </c>
       <c r="F4">
-        <v>15.71</v>
+        <v>15.48</v>
       </c>
       <c r="G4">
         <v>12.47</v>
       </c>
       <c r="H4" s="4">
-        <v>333812.02</v>
+        <v>363062.08</v>
       </c>
       <c r="I4">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="J4">
+        <v>84</v>
+      </c>
+      <c r="K4">
+        <v>84</v>
+      </c>
+      <c r="L4">
         <v>85</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>85</v>
-      </c>
-      <c r="L4">
-        <v>91</v>
-      </c>
-      <c r="M4">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -821,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="D5" s="3">
-        <v>3.3E-3</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -839,19 +893,19 @@
         <v>70084.75</v>
       </c>
       <c r="I5">
-        <v>6.49</v>
+        <v>6.39</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M5">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -862,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>26950</v>
+        <v>26700</v>
       </c>
       <c r="D6" s="3">
-        <v>-1.6400000000000001E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -880,19 +934,19 @@
         <v>52631.05</v>
       </c>
       <c r="I6">
-        <v>4.45</v>
+        <v>4.49</v>
       </c>
       <c r="J6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -903,37 +957,37 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>8000</v>
+        <v>4490</v>
       </c>
       <c r="D7" s="3">
-        <v>-1.23E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E7">
-        <v>2.84</v>
+        <v>2.29</v>
       </c>
       <c r="F7">
-        <v>5.21</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>8.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H7" s="4">
-        <v>20755.32</v>
+        <v>9686.4500000000007</v>
       </c>
       <c r="I7">
-        <v>2.75</v>
+        <v>6.68</v>
       </c>
       <c r="J7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -944,37 +998,37 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>28450</v>
+        <v>8200</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.5599999999999999E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>4.57</v>
+        <v>2.84</v>
       </c>
       <c r="F8">
-        <v>9.2899999999999991</v>
+        <v>5.21</v>
       </c>
       <c r="G8">
-        <v>4.55</v>
+        <v>8.36</v>
       </c>
       <c r="H8" s="4">
-        <v>38894.53</v>
+        <v>20755.32</v>
       </c>
       <c r="I8">
-        <v>4.22</v>
+        <v>2.68</v>
       </c>
       <c r="J8">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L8">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -985,37 +1039,37 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>11160</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-2.7000000000000001E-3</v>
+        <v>28750</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>9.44</v>
+        <v>4.57</v>
       </c>
       <c r="F9">
-        <v>11.1</v>
+        <v>8.74</v>
       </c>
       <c r="G9">
-        <v>9.86</v>
+        <v>4.55</v>
       </c>
       <c r="H9" s="4">
-        <v>18178.189999999999</v>
+        <v>41863.9</v>
       </c>
       <c r="I9">
-        <v>4.6100000000000003</v>
+        <v>4.17</v>
       </c>
       <c r="J9">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1026,37 +1080,37 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>88600</v>
+        <v>10990</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.01E-2</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>19.62</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>12.5</v>
+        <v>11.61</v>
       </c>
       <c r="G10">
-        <v>6.74</v>
+        <v>9.86</v>
       </c>
       <c r="H10" s="4">
-        <v>132483.99</v>
+        <v>17946.82</v>
       </c>
       <c r="I10">
-        <v>3.39</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1067,37 +1121,37 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>221000</v>
+        <v>176600</v>
       </c>
       <c r="D11" s="3">
-        <v>2.3E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E11">
-        <v>12.43</v>
+        <v>2.54</v>
       </c>
       <c r="F11">
-        <v>11.22</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G11">
-        <v>11.82</v>
+        <v>6.1</v>
       </c>
       <c r="H11" s="4">
-        <v>417937.43</v>
+        <v>473072.35</v>
       </c>
       <c r="I11">
-        <v>5.43</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L11">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1108,37 +1162,37 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>143300</v>
+        <v>89200</v>
       </c>
       <c r="D12" s="3">
-        <v>-1.5100000000000001E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E12">
-        <v>18.96</v>
+        <v>19.62</v>
       </c>
       <c r="F12">
-        <v>19.86</v>
+        <v>12.5</v>
       </c>
       <c r="G12">
-        <v>18.8</v>
+        <v>6.74</v>
       </c>
       <c r="H12" s="4">
-        <v>115980.87</v>
+        <v>132483.99</v>
       </c>
       <c r="I12">
-        <v>4.75</v>
+        <v>3.36</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1149,37 +1203,37 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>20600</v>
+        <v>223500</v>
       </c>
       <c r="D13" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>8.73</v>
+        <v>12.43</v>
       </c>
       <c r="F13">
-        <v>10.35</v>
+        <v>11.22</v>
       </c>
       <c r="G13">
-        <v>6.85</v>
+        <v>11.82</v>
       </c>
       <c r="H13" s="4">
-        <v>23121.599999999999</v>
+        <v>417937.43</v>
       </c>
       <c r="I13">
-        <v>4.6100000000000003</v>
+        <v>5.37</v>
       </c>
       <c r="J13">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1190,37 +1244,37 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>73200</v>
+        <v>145000</v>
       </c>
       <c r="D14" s="3">
-        <v>-1.35E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>12.89</v>
+        <v>18.96</v>
       </c>
       <c r="F14">
-        <v>13.62</v>
+        <v>23.71</v>
       </c>
       <c r="G14">
-        <v>9.44</v>
+        <v>18.8</v>
       </c>
       <c r="H14" s="4">
-        <v>81376.7</v>
+        <v>128511.34</v>
       </c>
       <c r="I14">
-        <v>4.78</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J14">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1231,37 +1285,37 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>54900</v>
+        <v>20550</v>
       </c>
       <c r="D15" s="3">
-        <v>1.8E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="E15">
-        <v>10.83</v>
+        <v>8.73</v>
       </c>
       <c r="F15">
-        <v>7.71</v>
+        <v>11.44</v>
       </c>
       <c r="G15">
-        <v>9.48</v>
+        <v>6.85</v>
       </c>
       <c r="H15" s="4">
-        <v>55591.17</v>
+        <v>23779.51</v>
       </c>
       <c r="I15">
-        <v>6.45</v>
+        <v>4.62</v>
       </c>
       <c r="J15">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1272,37 +1326,37 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>79300</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
+        <v>53400</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.9E-3</v>
       </c>
       <c r="E16">
-        <v>14.42</v>
+        <v>0.88</v>
       </c>
       <c r="F16">
-        <v>13.87</v>
+        <v>4.49</v>
       </c>
       <c r="G16">
-        <v>15.82</v>
+        <v>7.95</v>
       </c>
       <c r="H16" s="4">
-        <v>33518.75</v>
+        <v>146082.85999999999</v>
       </c>
       <c r="I16">
-        <v>6.94</v>
+        <v>3.18</v>
       </c>
       <c r="J16">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1313,37 +1367,37 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>19760</v>
+        <v>1042000</v>
       </c>
       <c r="D17" s="3">
-        <v>-6.4999999999999997E-3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E17">
-        <v>8.06</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F17">
-        <v>9.52</v>
+        <v>13.22</v>
       </c>
       <c r="G17">
-        <v>8.77</v>
+        <v>5.79</v>
       </c>
       <c r="H17" s="4">
-        <v>42663.82</v>
+        <v>455146.14</v>
       </c>
       <c r="I17">
-        <v>5.39</v>
+        <v>1.68</v>
       </c>
       <c r="J17">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="L17">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1354,37 +1408,37 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>53600</v>
+        <v>74000</v>
       </c>
       <c r="D18" s="3">
-        <v>9.4000000000000004E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>12.89</v>
       </c>
       <c r="F18">
-        <v>8.75</v>
+        <v>13.03</v>
       </c>
       <c r="G18">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H18" s="4">
-        <v>75767.48</v>
+        <v>84023.37</v>
       </c>
       <c r="I18">
-        <v>5.22</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J18">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L18">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1395,37 +1449,37 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>20150</v>
+        <v>55100</v>
       </c>
       <c r="D19" s="3">
-        <v>1.26E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E19">
-        <v>15.12</v>
+        <v>10.83</v>
       </c>
       <c r="F19">
-        <v>11.12</v>
+        <v>7.71</v>
       </c>
       <c r="G19">
-        <v>15.58</v>
+        <v>9.48</v>
       </c>
       <c r="H19" s="4">
-        <v>14528.71</v>
+        <v>55591.17</v>
       </c>
       <c r="I19">
-        <v>6.1</v>
+        <v>6.42</v>
       </c>
       <c r="J19">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L19">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1436,37 +1490,37 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>51300</v>
+        <v>79300</v>
       </c>
       <c r="D20" s="3">
-        <v>3.8999999999999998E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>2.85</v>
+        <v>14.42</v>
       </c>
       <c r="F20">
-        <v>14.73</v>
+        <v>13.87</v>
       </c>
       <c r="G20">
-        <v>5.63</v>
+        <v>15.82</v>
       </c>
       <c r="H20" s="4">
-        <v>69574.75</v>
+        <v>33518.75</v>
       </c>
       <c r="I20">
-        <v>3.9</v>
+        <v>6.94</v>
       </c>
       <c r="J20">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1477,25 +1531,25 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>14970</v>
+        <v>19760</v>
       </c>
       <c r="D21" s="3">
-        <v>3.1E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E21">
-        <v>4.4000000000000004</v>
+        <v>8.06</v>
       </c>
       <c r="F21">
-        <v>8.8699999999999992</v>
+        <v>8.73</v>
       </c>
       <c r="G21">
-        <v>6.75</v>
+        <v>8.77</v>
       </c>
       <c r="H21" s="4">
-        <v>20401.09</v>
+        <v>43741.23</v>
       </c>
       <c r="I21">
-        <v>4.34</v>
+        <v>5.39</v>
       </c>
       <c r="J21">
         <v>82</v>
@@ -1504,10 +1558,10 @@
         <v>82</v>
       </c>
       <c r="L21">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1518,25 +1572,25 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>133100</v>
+        <v>52800</v>
       </c>
       <c r="D22" s="3">
-        <v>1.29E-2</v>
+        <v>-1.6799999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>12.66</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>8.66</v>
+        <v>7.89</v>
       </c>
       <c r="G22">
-        <v>11.14</v>
+        <v>7.9</v>
       </c>
       <c r="H22" s="4">
-        <v>82141.36</v>
+        <v>77080.960000000006</v>
       </c>
       <c r="I22">
-        <v>4.0599999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="J22">
         <v>78</v>
@@ -1545,10 +1599,10 @@
         <v>78</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1559,37 +1613,37 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>40100</v>
+        <v>20150</v>
       </c>
       <c r="D23" s="3">
-        <v>-1.11E-2</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>11.21</v>
+        <v>15.12</v>
       </c>
       <c r="F23">
-        <v>8.3000000000000007</v>
+        <v>11.12</v>
       </c>
       <c r="G23">
-        <v>6.4</v>
+        <v>15.58</v>
       </c>
       <c r="H23" s="4">
-        <v>120400.44</v>
+        <v>14528.71</v>
       </c>
       <c r="I23">
-        <v>3.63</v>
+        <v>6.1</v>
       </c>
       <c r="J23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1600,37 +1654,37 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>248000</v>
+        <v>51300</v>
       </c>
       <c r="D24" s="3">
-        <v>-4.0000000000000001E-3</v>
+        <v>-1.72E-2</v>
       </c>
       <c r="E24">
-        <v>15.98</v>
+        <v>2.85</v>
       </c>
       <c r="F24">
-        <v>18.79</v>
+        <v>14.73</v>
       </c>
       <c r="G24">
-        <v>12.25</v>
+        <v>5.63</v>
       </c>
       <c r="H24" s="4">
-        <v>224185.76</v>
+        <v>69574.75</v>
       </c>
       <c r="I24">
-        <v>3.02</v>
+        <v>3.9</v>
       </c>
       <c r="J24">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L24">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1641,37 +1695,37 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>67500</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
+        <v>15160</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="E25">
-        <v>8.11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F25">
-        <v>10.55</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G25">
-        <v>8.66</v>
+        <v>6.75</v>
       </c>
       <c r="H25" s="4">
-        <v>113903.42</v>
+        <v>20401.09</v>
       </c>
       <c r="I25">
-        <v>3.2</v>
+        <v>4.29</v>
       </c>
       <c r="J25">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1682,37 +1736,37 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>46600</v>
+        <v>133700</v>
       </c>
       <c r="D26" s="3">
-        <v>5.4000000000000003E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E26">
-        <v>4.12</v>
+        <v>12.66</v>
       </c>
       <c r="F26">
-        <v>3.45</v>
+        <v>8.66</v>
       </c>
       <c r="G26">
-        <v>11.01</v>
+        <v>11.14</v>
       </c>
       <c r="H26" s="4">
-        <v>148026.10999999999</v>
+        <v>82141.36</v>
       </c>
       <c r="I26">
-        <v>5.79</v>
+        <v>4.04</v>
       </c>
       <c r="J26">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L26">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1723,37 +1777,37 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>87600</v>
+        <v>18010</v>
       </c>
       <c r="D27" s="3">
-        <v>5.7000000000000002E-3</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="E27">
-        <v>9.11</v>
+        <v>12.08</v>
       </c>
       <c r="F27">
-        <v>10.47</v>
+        <v>7.17</v>
       </c>
       <c r="G27">
-        <v>9.4</v>
+        <v>8.39</v>
       </c>
       <c r="H27" s="4">
-        <v>153124.29</v>
+        <v>18676.03</v>
       </c>
       <c r="I27">
-        <v>4.1100000000000003</v>
+        <v>6.5</v>
       </c>
       <c r="J27">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1764,37 +1818,37 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>116400</v>
+        <v>40250</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.0200000000000001E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>8.86</v>
+        <v>11.21</v>
       </c>
       <c r="F28">
-        <v>11.69</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G28">
-        <v>8.51</v>
+        <v>6.4</v>
       </c>
       <c r="H28" s="4">
-        <v>152301.9</v>
+        <v>120400.44</v>
       </c>
       <c r="I28">
-        <v>2.73</v>
+        <v>3.61</v>
       </c>
       <c r="J28">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="L28">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1805,37 +1859,37 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>15340</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-7.7999999999999996E-3</v>
+        <v>249500</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>6.96</v>
+        <v>15.98</v>
       </c>
       <c r="F29">
-        <v>6.28</v>
+        <v>18.79</v>
       </c>
       <c r="G29">
-        <v>7.18</v>
+        <v>12.25</v>
       </c>
       <c r="H29" s="4">
-        <v>33008.75</v>
+        <v>224185.76</v>
       </c>
       <c r="I29">
-        <v>4.24</v>
+        <v>3.01</v>
       </c>
       <c r="J29">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1846,37 +1900,37 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>14220</v>
+        <v>69300</v>
       </c>
       <c r="D30" s="3">
-        <v>-8.3999999999999995E-3</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="E30">
-        <v>3.6</v>
+        <v>8.11</v>
       </c>
       <c r="F30">
-        <v>10.34</v>
+        <v>10.73</v>
       </c>
       <c r="G30">
-        <v>5.91</v>
+        <v>8.66</v>
       </c>
       <c r="H30" s="4">
-        <v>35883.14</v>
+        <v>117797.1</v>
       </c>
       <c r="I30">
-        <v>3.52</v>
+        <v>3.12</v>
       </c>
       <c r="J30">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L30">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1887,37 +1941,37 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>24650</v>
+        <v>36700</v>
       </c>
       <c r="D31" s="3">
-        <v>1.0200000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E31">
-        <v>12.8</v>
+        <v>10.82</v>
       </c>
       <c r="F31">
-        <v>11.61</v>
+        <v>7.15</v>
       </c>
       <c r="G31">
-        <v>12.93</v>
+        <v>10.15</v>
       </c>
       <c r="H31" s="4">
-        <v>29151.87</v>
+        <v>41860.639999999999</v>
       </c>
       <c r="I31">
-        <v>4.04</v>
+        <v>4.63</v>
       </c>
       <c r="J31">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="L31">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M31">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -1928,37 +1982,37 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>14210</v>
+        <v>46450</v>
       </c>
       <c r="D32" s="3">
-        <v>-1.18E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>7.65</v>
+        <v>4.12</v>
       </c>
       <c r="F32">
-        <v>4.43</v>
+        <v>3.45</v>
       </c>
       <c r="G32">
-        <v>7.8</v>
+        <v>11.01</v>
       </c>
       <c r="H32" s="4">
-        <v>29805.78</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I32">
-        <v>1.83</v>
+        <v>5.81</v>
       </c>
       <c r="J32">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L32">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -1969,37 +2023,37 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>18360</v>
+        <v>40300</v>
       </c>
       <c r="D33" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>-4.2799999999999998E-2</v>
       </c>
       <c r="E33">
-        <v>10.48</v>
+        <v>4.3</v>
       </c>
       <c r="F33">
-        <v>6.48</v>
+        <v>17.16</v>
       </c>
       <c r="G33">
-        <v>10.17</v>
+        <v>8.75</v>
       </c>
       <c r="H33" s="4">
-        <v>24471.72</v>
+        <v>34979.550000000003</v>
       </c>
       <c r="I33">
-        <v>6.4</v>
+        <v>2.98</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2010,37 +2064,406 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>25350</v>
+        <v>88700</v>
       </c>
       <c r="D34" s="3">
-        <v>-1.55E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E34">
+        <v>9.11</v>
+      </c>
+      <c r="F34">
+        <v>10.72</v>
+      </c>
+      <c r="G34">
+        <v>9.4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>153891.85</v>
+      </c>
+      <c r="I34">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J34">
+        <v>88</v>
+      </c>
+      <c r="K34">
+        <v>88</v>
+      </c>
+      <c r="L34">
+        <v>92</v>
+      </c>
+      <c r="M34">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>119300</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>8.86</v>
+      </c>
+      <c r="F35">
+        <v>11.75</v>
+      </c>
+      <c r="G35">
+        <v>8.51</v>
+      </c>
+      <c r="H35" s="4">
+        <v>158104.75</v>
+      </c>
+      <c r="I35">
+        <v>2.66</v>
+      </c>
+      <c r="J35">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>92</v>
+      </c>
+      <c r="L35">
+        <v>96</v>
+      </c>
+      <c r="M35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>126800</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>23.44</v>
+      </c>
+      <c r="F36">
+        <v>26.3</v>
+      </c>
+      <c r="G36">
+        <v>27.89</v>
+      </c>
+      <c r="H36" s="4">
+        <v>56704.02</v>
+      </c>
+      <c r="I36">
+        <v>1.06</v>
+      </c>
+      <c r="J36">
+        <v>97</v>
+      </c>
+      <c r="K36">
+        <v>97</v>
+      </c>
+      <c r="L36">
+        <v>72</v>
+      </c>
+      <c r="M36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15510</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="E37">
+        <v>6.96</v>
+      </c>
+      <c r="F37">
+        <v>8.93</v>
+      </c>
+      <c r="G37">
+        <v>7.18</v>
+      </c>
+      <c r="H37" s="4">
+        <v>33449.870000000003</v>
+      </c>
+      <c r="I37">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J37">
+        <v>95</v>
+      </c>
+      <c r="K37">
+        <v>95</v>
+      </c>
+      <c r="L37">
+        <v>88</v>
+      </c>
+      <c r="M37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>14290</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E38">
+        <v>3.6</v>
+      </c>
+      <c r="F38">
+        <v>10.25</v>
+      </c>
+      <c r="G38">
+        <v>5.91</v>
+      </c>
+      <c r="H38" s="4">
+        <v>36784.92</v>
+      </c>
+      <c r="I38">
+        <v>3.5</v>
+      </c>
+      <c r="J38">
+        <v>87</v>
+      </c>
+      <c r="K38">
+        <v>87</v>
+      </c>
+      <c r="L38">
+        <v>84</v>
+      </c>
+      <c r="M38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2">
+        <v>24900</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E39">
+        <v>12.8</v>
+      </c>
+      <c r="F39">
+        <v>13.12</v>
+      </c>
+      <c r="G39">
+        <v>12.93</v>
+      </c>
+      <c r="H39" s="4">
+        <v>29884.63</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>94</v>
+      </c>
+      <c r="K39">
+        <v>94</v>
+      </c>
+      <c r="L39">
+        <v>91</v>
+      </c>
+      <c r="M39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14130</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>7.65</v>
+      </c>
+      <c r="F40">
+        <v>4.43</v>
+      </c>
+      <c r="G40">
+        <v>7.8</v>
+      </c>
+      <c r="H40" s="4">
+        <v>29805.78</v>
+      </c>
+      <c r="I40">
+        <v>1.84</v>
+      </c>
+      <c r="J40">
+        <v>72</v>
+      </c>
+      <c r="K40">
+        <v>72</v>
+      </c>
+      <c r="L40">
+        <v>71</v>
+      </c>
+      <c r="M40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>18520</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E41">
+        <v>10.48</v>
+      </c>
+      <c r="F41">
+        <v>6.48</v>
+      </c>
+      <c r="G41">
+        <v>10.17</v>
+      </c>
+      <c r="H41" s="4">
+        <v>24471.72</v>
+      </c>
+      <c r="I41">
+        <v>6.34</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>48</v>
+      </c>
+      <c r="M41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2">
+        <v>54200</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E42">
+        <v>8.77</v>
+      </c>
+      <c r="F42">
+        <v>6.92</v>
+      </c>
+      <c r="G42">
+        <v>13.11</v>
+      </c>
+      <c r="H42" s="4">
+        <v>69949.570000000007</v>
+      </c>
+      <c r="I42">
+        <v>2.95</v>
+      </c>
+      <c r="J42">
+        <v>58</v>
+      </c>
+      <c r="K42">
+        <v>58</v>
+      </c>
+      <c r="L42">
+        <v>43</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2">
+        <v>25650</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E43">
         <v>9.39</v>
       </c>
-      <c r="F34">
-        <v>7.27</v>
-      </c>
-      <c r="G34">
+      <c r="F43">
+        <v>9.09</v>
+      </c>
+      <c r="G43">
         <v>9.73</v>
       </c>
-      <c r="H34" s="4">
-        <v>45501.38</v>
-      </c>
-      <c r="I34">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="J34">
-        <v>91</v>
-      </c>
-      <c r="K34">
-        <v>91</v>
-      </c>
-      <c r="L34">
-        <v>74</v>
-      </c>
-      <c r="M34">
-        <v>74</v>
+      <c r="H43" s="4">
+        <v>46271.74</v>
+      </c>
+      <c r="I43">
+        <v>4.68</v>
+      </c>
+      <c r="J43">
+        <v>92</v>
+      </c>
+      <c r="K43">
+        <v>92</v>
+      </c>
+      <c r="L43">
+        <v>88</v>
+      </c>
+      <c r="M43">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2B21C9-1174-4B81-81F0-FA3DF7099ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC02320-72B6-4DCB-B901-7745939E8319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{12C0B8A9-878D-4AB4-9E59-6E8EB144ACA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A9273F73-91E0-4A48-A888-1234A898435F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>종목코드</t>
   </si>
@@ -54,256 +54,262 @@
     <t>Stochastic Fast %D</t>
   </si>
   <si>
+    <t>003570</t>
+  </si>
+  <si>
+    <t>SNT다이내믹스</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>316140</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>현대엘리베이터</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>DB손해보험</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>001120</t>
+  </si>
+  <si>
+    <t>LX인터내셔널</t>
+  </si>
+  <si>
+    <t>003540</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>JB금융지주</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>001740</t>
+  </si>
+  <si>
+    <t>SK네트웍스</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>세아베스틸지주</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>iM금융지주</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>214320</t>
+  </si>
+  <si>
+    <t>이노션</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
+    <t>006120</t>
+  </si>
+  <si>
+    <t>SK디스커버리</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>미스토홀딩스</t>
+  </si>
+  <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>효성</t>
+  </si>
+  <si>
+    <t>002310</t>
+  </si>
+  <si>
+    <t>아세아제지</t>
+  </si>
+  <si>
+    <t>183190</t>
+  </si>
+  <si>
+    <t>아세아시멘트</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
     <t>000240</t>
   </si>
   <si>
     <t>한국앤컴퍼니</t>
   </si>
   <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>000810</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
-  </si>
-  <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>LX인터내셔널</t>
-  </si>
-  <si>
-    <t>001430</t>
-  </si>
-  <si>
-    <t>세아베스틸지주</t>
-  </si>
-  <si>
-    <t>001740</t>
-  </si>
-  <si>
-    <t>SK네트웍스</t>
-  </si>
-  <si>
-    <t>002310</t>
-  </si>
-  <si>
-    <t>아세아제지</t>
-  </si>
-  <si>
-    <t>003540</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>003690</t>
-  </si>
-  <si>
-    <t>코리안리</t>
-  </si>
-  <si>
-    <t>004170</t>
-  </si>
-  <si>
-    <t>신세계</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
-  </si>
-  <si>
-    <t>005380</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>005830</t>
-  </si>
-  <si>
-    <t>DB손해보험</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>006120</t>
-  </si>
-  <si>
-    <t>SK디스커버리</t>
-  </si>
-  <si>
     <t>010130</t>
   </si>
   <si>
     <t>고려아연</t>
   </si>
   <si>
-    <t>016360</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>017800</t>
-  </si>
-  <si>
-    <t>현대엘리베이터</t>
-  </si>
-  <si>
-    <t>024110</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
     <t>029780</t>
   </si>
   <si>
     <t>삼성카드</t>
   </si>
   <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>제일기획</t>
-  </si>
-  <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>033780</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>055550</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
     <t>064960</t>
   </si>
   <si>
     <t>SNT모티브</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>081660</t>
-  </si>
-  <si>
-    <t>미스토홀딩스</t>
-  </si>
-  <si>
-    <t>086790</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>105560</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>138040</t>
-  </si>
-  <si>
-    <t>메리츠금융지주</t>
-  </si>
-  <si>
-    <t>138930</t>
-  </si>
-  <si>
-    <t>BNK금융지주</t>
-  </si>
-  <si>
-    <t>139130</t>
-  </si>
-  <si>
-    <t>iM금융지주</t>
-  </si>
-  <si>
-    <t>175330</t>
-  </si>
-  <si>
-    <t>JB금융지주</t>
-  </si>
-  <si>
-    <t>183190</t>
-  </si>
-  <si>
-    <t>아세아시멘트</t>
-  </si>
-  <si>
-    <t>214320</t>
-  </si>
-  <si>
-    <t>이노션</t>
-  </si>
-  <si>
-    <t>241560</t>
-  </si>
-  <si>
-    <t>두산밥캣</t>
-  </si>
-  <si>
-    <t>316140</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
   </si>
 </sst>
 </file>
@@ -681,19 +687,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790BEB4-39C2-4269-838C-30D593385DC9}">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EBBC1E-9C32-4788-99A0-29C4E7D4090C}">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -752,37 +758,37 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23650</v>
+        <v>71300</v>
       </c>
       <c r="D2" s="3">
-        <v>-1.46E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>8.2799999999999994</v>
+        <v>12.89</v>
       </c>
       <c r="F2">
-        <v>7.78</v>
+        <v>11.42</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="H2" s="4">
-        <v>46238.98</v>
+        <v>26995.84</v>
       </c>
       <c r="I2">
-        <v>4.2300000000000004</v>
+        <v>1.82</v>
       </c>
       <c r="J2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M2">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -793,37 +799,37 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>105900</v>
+        <v>205500</v>
       </c>
       <c r="D3" s="3">
-        <v>-6.6E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>19.09</v>
+        <v>2.54</v>
       </c>
       <c r="F3">
-        <v>16.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G3">
-        <v>18.03</v>
+        <v>6.1</v>
       </c>
       <c r="H3" s="4">
-        <v>144845.18</v>
+        <v>473072.35</v>
       </c>
       <c r="I3">
-        <v>6.14</v>
+        <v>2.19</v>
       </c>
       <c r="J3">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L3">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -834,37 +840,37 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>470000</v>
+        <v>11300</v>
       </c>
       <c r="D4" s="3">
-        <v>-6.3E-3</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>13.09</v>
+        <v>9.44</v>
       </c>
       <c r="F4">
-        <v>15.48</v>
+        <v>11.61</v>
       </c>
       <c r="G4">
-        <v>12.47</v>
+        <v>9.86</v>
       </c>
       <c r="H4" s="4">
-        <v>363062.08</v>
+        <v>17946.82</v>
       </c>
       <c r="I4">
-        <v>4.04</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="J4">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -875,37 +881,37 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>31300</v>
+        <v>26850</v>
       </c>
       <c r="D5" s="3">
-        <v>1.46E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="E5">
-        <v>7.12</v>
+        <v>9.39</v>
       </c>
       <c r="F5">
-        <v>11.44</v>
+        <v>9.09</v>
       </c>
       <c r="G5">
-        <v>12.61</v>
+        <v>9.73</v>
       </c>
       <c r="H5" s="4">
-        <v>70084.75</v>
+        <v>46271.74</v>
       </c>
       <c r="I5">
-        <v>6.39</v>
+        <v>4.47</v>
       </c>
       <c r="J5">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M5">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -916,37 +922,37 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>26700</v>
+        <v>56200</v>
       </c>
       <c r="D6" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>1.04</v>
+        <v>8.77</v>
       </c>
       <c r="F6">
-        <v>2.5099999999999998</v>
+        <v>6.92</v>
       </c>
       <c r="G6">
-        <v>4.21</v>
+        <v>13.11</v>
       </c>
       <c r="H6" s="4">
-        <v>52631.05</v>
+        <v>69949.570000000007</v>
       </c>
       <c r="I6">
-        <v>4.49</v>
+        <v>2.85</v>
       </c>
       <c r="J6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -957,37 +963,37 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>4490</v>
+        <v>80200</v>
       </c>
       <c r="D7" s="3">
-        <v>1.01E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E7">
-        <v>2.29</v>
+        <v>14.42</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>13.87</v>
       </c>
       <c r="G7">
-        <v>2.0499999999999998</v>
+        <v>15.82</v>
       </c>
       <c r="H7" s="4">
-        <v>9686.4500000000007</v>
+        <v>33518.75</v>
       </c>
       <c r="I7">
-        <v>6.68</v>
+        <v>6.86</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -998,37 +1004,37 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>8200</v>
+        <v>15180</v>
       </c>
       <c r="D8" s="3">
-        <v>1.3599999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>2.84</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F8">
-        <v>5.21</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G8">
-        <v>8.36</v>
+        <v>6.75</v>
       </c>
       <c r="H8" s="4">
-        <v>20755.32</v>
+        <v>20401.09</v>
       </c>
       <c r="I8">
-        <v>2.68</v>
+        <v>4.28</v>
       </c>
       <c r="J8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="L8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M8">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1039,37 +1045,37 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>28750</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
+        <v>140800</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.37E-2</v>
       </c>
       <c r="E9">
-        <v>4.57</v>
+        <v>18.96</v>
       </c>
       <c r="F9">
-        <v>8.74</v>
+        <v>23.71</v>
       </c>
       <c r="G9">
-        <v>4.55</v>
+        <v>18.8</v>
       </c>
       <c r="H9" s="4">
-        <v>41863.9</v>
+        <v>128511.34</v>
       </c>
       <c r="I9">
-        <v>4.17</v>
+        <v>4.83</v>
       </c>
       <c r="J9">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K9">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1080,37 +1086,37 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>10990</v>
+        <v>20200</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.8800000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>9.44</v>
+        <v>15.12</v>
       </c>
       <c r="F10">
-        <v>11.61</v>
+        <v>11.12</v>
       </c>
       <c r="G10">
-        <v>9.86</v>
+        <v>15.58</v>
       </c>
       <c r="H10" s="4">
-        <v>17946.82</v>
+        <v>14528.71</v>
       </c>
       <c r="I10">
-        <v>4.6900000000000004</v>
+        <v>6.09</v>
       </c>
       <c r="J10">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M10">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1121,37 +1127,37 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>176600</v>
+        <v>69800</v>
       </c>
       <c r="D11" s="3">
-        <v>1.2E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>2.54</v>
+        <v>8.11</v>
       </c>
       <c r="F11">
-        <v>2.5499999999999998</v>
+        <v>10.73</v>
       </c>
       <c r="G11">
-        <v>6.1</v>
+        <v>8.66</v>
       </c>
       <c r="H11" s="4">
-        <v>473072.35</v>
+        <v>117797.1</v>
       </c>
       <c r="I11">
-        <v>2.5499999999999998</v>
+        <v>3.09</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1162,37 +1168,37 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>89200</v>
+        <v>140400</v>
       </c>
       <c r="D12" s="3">
-        <v>6.7999999999999996E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E12">
-        <v>19.62</v>
+        <v>12.66</v>
       </c>
       <c r="F12">
-        <v>12.5</v>
+        <v>8.66</v>
       </c>
       <c r="G12">
-        <v>6.74</v>
+        <v>11.14</v>
       </c>
       <c r="H12" s="4">
-        <v>132483.99</v>
+        <v>82141.36</v>
       </c>
       <c r="I12">
-        <v>3.36</v>
+        <v>3.85</v>
       </c>
       <c r="J12">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K12">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1203,25 +1209,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>223500</v>
+        <v>32100</v>
       </c>
       <c r="D13" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E13">
-        <v>12.43</v>
+        <v>7.12</v>
       </c>
       <c r="F13">
-        <v>11.22</v>
+        <v>11.44</v>
       </c>
       <c r="G13">
-        <v>11.82</v>
+        <v>12.61</v>
       </c>
       <c r="H13" s="4">
-        <v>417937.43</v>
+        <v>70084.75</v>
       </c>
       <c r="I13">
-        <v>5.37</v>
+        <v>6.23</v>
       </c>
       <c r="J13">
         <v>49</v>
@@ -1230,10 +1236,10 @@
         <v>49</v>
       </c>
       <c r="L13">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1244,37 +1250,37 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>145000</v>
+        <v>28100</v>
       </c>
       <c r="D14" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>18.96</v>
+        <v>4.57</v>
       </c>
       <c r="F14">
-        <v>23.71</v>
+        <v>8.74</v>
       </c>
       <c r="G14">
-        <v>18.8</v>
+        <v>4.55</v>
       </c>
       <c r="H14" s="4">
-        <v>128511.34</v>
+        <v>41863.9</v>
       </c>
       <c r="I14">
-        <v>4.6900000000000004</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J14">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1285,37 +1291,37 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>20550</v>
+        <v>18210</v>
       </c>
       <c r="D15" s="3">
-        <v>-4.7999999999999996E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>8.73</v>
+        <v>12.08</v>
       </c>
       <c r="F15">
-        <v>11.44</v>
+        <v>7.17</v>
       </c>
       <c r="G15">
-        <v>6.85</v>
+        <v>8.39</v>
       </c>
       <c r="H15" s="4">
-        <v>23779.51</v>
+        <v>18676.03</v>
       </c>
       <c r="I15">
-        <v>4.62</v>
+        <v>6.43</v>
       </c>
       <c r="J15">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1326,37 +1332,37 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>53400</v>
+        <v>24150</v>
       </c>
       <c r="D16" s="3">
-        <v>1.9E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="E16">
-        <v>0.88</v>
+        <v>12.8</v>
       </c>
       <c r="F16">
-        <v>4.49</v>
+        <v>13.12</v>
       </c>
       <c r="G16">
-        <v>7.95</v>
+        <v>12.93</v>
       </c>
       <c r="H16" s="4">
-        <v>146082.85999999999</v>
+        <v>29884.63</v>
       </c>
       <c r="I16">
-        <v>3.18</v>
+        <v>4.12</v>
       </c>
       <c r="J16">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1367,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>1042000</v>
+        <v>277500</v>
       </c>
       <c r="D17" s="3">
-        <v>0.14000000000000001</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E17">
-        <v>2.2799999999999998</v>
+        <v>15.98</v>
       </c>
       <c r="F17">
-        <v>13.22</v>
+        <v>18.79</v>
       </c>
       <c r="G17">
-        <v>5.79</v>
+        <v>12.25</v>
       </c>
       <c r="H17" s="4">
-        <v>455146.14</v>
+        <v>224185.76</v>
       </c>
       <c r="I17">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="J17">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1408,37 +1414,37 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>74000</v>
+        <v>4595</v>
       </c>
       <c r="D18" s="3">
-        <v>4.1000000000000003E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E18">
-        <v>12.89</v>
+        <v>2.29</v>
       </c>
       <c r="F18">
-        <v>13.03</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>9.44</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H18" s="4">
-        <v>84023.37</v>
+        <v>9686.4500000000007</v>
       </c>
       <c r="I18">
-        <v>4.7300000000000004</v>
+        <v>6.53</v>
       </c>
       <c r="J18">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1449,37 +1455,37 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>55100</v>
+        <v>90700</v>
       </c>
       <c r="D19" s="3">
-        <v>3.5999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>10.83</v>
+        <v>9.11</v>
       </c>
       <c r="F19">
-        <v>7.71</v>
+        <v>10.72</v>
       </c>
       <c r="G19">
-        <v>9.48</v>
+        <v>9.4</v>
       </c>
       <c r="H19" s="4">
-        <v>55591.17</v>
+        <v>153891.85</v>
       </c>
       <c r="I19">
-        <v>6.42</v>
+        <v>3.97</v>
       </c>
       <c r="J19">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1490,25 +1496,25 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>79300</v>
+        <v>19760</v>
       </c>
       <c r="D20" s="3">
-        <v>-1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E20">
-        <v>14.42</v>
+        <v>8.06</v>
       </c>
       <c r="F20">
-        <v>13.87</v>
+        <v>8.73</v>
       </c>
       <c r="G20">
-        <v>15.82</v>
+        <v>8.77</v>
       </c>
       <c r="H20" s="4">
-        <v>33518.75</v>
+        <v>43741.23</v>
       </c>
       <c r="I20">
-        <v>6.94</v>
+        <v>5.39</v>
       </c>
       <c r="J20">
         <v>82</v>
@@ -1517,10 +1523,10 @@
         <v>82</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1531,37 +1537,37 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>19760</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.5E-3</v>
+        <v>26100</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>8.06</v>
+        <v>1.04</v>
       </c>
       <c r="F21">
-        <v>8.73</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G21">
-        <v>8.77</v>
+        <v>4.21</v>
       </c>
       <c r="H21" s="4">
-        <v>43741.23</v>
+        <v>52631.05</v>
       </c>
       <c r="I21">
-        <v>5.39</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J21">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L21">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1572,37 +1578,37 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>52800</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-1.6799999999999999E-2</v>
+        <v>75400</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>12.89</v>
       </c>
       <c r="F22">
-        <v>7.89</v>
+        <v>13.03</v>
       </c>
       <c r="G22">
-        <v>7.9</v>
+        <v>9.44</v>
       </c>
       <c r="H22" s="4">
-        <v>77080.960000000006</v>
+        <v>84023.37</v>
       </c>
       <c r="I22">
-        <v>5.3</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J22">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K22">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L22">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M22">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1613,37 +1619,37 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>20150</v>
+        <v>454500</v>
       </c>
       <c r="D23" s="3">
-        <v>-2.5000000000000001E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>15.12</v>
+        <v>13.09</v>
       </c>
       <c r="F23">
-        <v>11.12</v>
+        <v>15.48</v>
       </c>
       <c r="G23">
-        <v>15.58</v>
+        <v>12.47</v>
       </c>
       <c r="H23" s="4">
-        <v>14528.71</v>
+        <v>363062.08</v>
       </c>
       <c r="I23">
-        <v>6.1</v>
+        <v>4.18</v>
       </c>
       <c r="J23">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="L23">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1654,37 +1660,37 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51300</v>
+        <v>14270</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.72E-2</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="E24">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="F24">
-        <v>14.73</v>
+        <v>10.25</v>
       </c>
       <c r="G24">
-        <v>5.63</v>
+        <v>5.91</v>
       </c>
       <c r="H24" s="4">
-        <v>69574.75</v>
+        <v>36784.92</v>
       </c>
       <c r="I24">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J24">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1695,37 +1701,37 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>15160</v>
+        <v>55500</v>
       </c>
       <c r="D25" s="3">
-        <v>-7.1999999999999998E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>4.4000000000000004</v>
+        <v>10.83</v>
       </c>
       <c r="F25">
-        <v>8.8699999999999992</v>
+        <v>7.71</v>
       </c>
       <c r="G25">
-        <v>6.75</v>
+        <v>9.48</v>
       </c>
       <c r="H25" s="4">
-        <v>20401.09</v>
+        <v>55591.17</v>
       </c>
       <c r="I25">
-        <v>4.29</v>
+        <v>6.38</v>
       </c>
       <c r="J25">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M25">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1736,37 +1742,37 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>133700</v>
+        <v>101600</v>
       </c>
       <c r="D26" s="3">
-        <v>7.4999999999999997E-3</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="E26">
-        <v>12.66</v>
+        <v>19.09</v>
       </c>
       <c r="F26">
-        <v>8.66</v>
+        <v>16.54</v>
       </c>
       <c r="G26">
-        <v>11.14</v>
+        <v>18.03</v>
       </c>
       <c r="H26" s="4">
-        <v>82141.36</v>
+        <v>144845.18</v>
       </c>
       <c r="I26">
-        <v>4.04</v>
+        <v>6.4</v>
       </c>
       <c r="J26">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1777,37 +1783,37 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>18010</v>
+        <v>18210</v>
       </c>
       <c r="D27" s="3">
-        <v>1.7500000000000002E-2</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="E27">
-        <v>12.08</v>
+        <v>10.48</v>
       </c>
       <c r="F27">
-        <v>7.17</v>
+        <v>6.48</v>
       </c>
       <c r="G27">
-        <v>8.39</v>
+        <v>10.17</v>
       </c>
       <c r="H27" s="4">
-        <v>18676.03</v>
+        <v>24471.72</v>
       </c>
       <c r="I27">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="J27">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1818,37 +1824,37 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>40250</v>
+        <v>116500</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
       <c r="E28">
-        <v>11.21</v>
+        <v>8.86</v>
       </c>
       <c r="F28">
-        <v>8.3000000000000007</v>
+        <v>11.75</v>
       </c>
       <c r="G28">
-        <v>6.4</v>
+        <v>8.51</v>
       </c>
       <c r="H28" s="4">
-        <v>120400.44</v>
+        <v>158104.75</v>
       </c>
       <c r="I28">
-        <v>3.61</v>
+        <v>2.72</v>
       </c>
       <c r="J28">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1859,37 +1865,37 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>249500</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
+        <v>54100</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="E29">
-        <v>15.98</v>
+        <v>0.88</v>
       </c>
       <c r="F29">
-        <v>18.79</v>
+        <v>4.49</v>
       </c>
       <c r="G29">
-        <v>12.25</v>
+        <v>7.95</v>
       </c>
       <c r="H29" s="4">
-        <v>224185.76</v>
+        <v>146082.85999999999</v>
       </c>
       <c r="I29">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
       <c r="J29">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="L29">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1900,37 +1906,37 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>69300</v>
+        <v>20600</v>
       </c>
       <c r="D30" s="3">
-        <v>2.2100000000000002E-2</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
       <c r="E30">
-        <v>8.11</v>
+        <v>8.73</v>
       </c>
       <c r="F30">
-        <v>10.73</v>
+        <v>11.44</v>
       </c>
       <c r="G30">
-        <v>8.66</v>
+        <v>6.85</v>
       </c>
       <c r="H30" s="4">
-        <v>117797.1</v>
+        <v>23779.51</v>
       </c>
       <c r="I30">
-        <v>3.12</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J30">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K30">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L30">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1941,37 +1947,37 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>36700</v>
+        <v>50800</v>
       </c>
       <c r="D31" s="3">
-        <v>2.0899999999999998E-2</v>
+        <v>-1.17E-2</v>
       </c>
       <c r="E31">
-        <v>10.82</v>
+        <v>2.85</v>
       </c>
       <c r="F31">
-        <v>7.15</v>
+        <v>14.73</v>
       </c>
       <c r="G31">
-        <v>10.15</v>
+        <v>5.63</v>
       </c>
       <c r="H31" s="4">
-        <v>41860.639999999999</v>
+        <v>69574.75</v>
       </c>
       <c r="I31">
-        <v>4.63</v>
+        <v>3.94</v>
       </c>
       <c r="J31">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L31">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -1982,37 +1988,37 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>46450</v>
+        <v>40400</v>
       </c>
       <c r="D32" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="E32">
-        <v>4.12</v>
+        <v>4.3</v>
       </c>
       <c r="F32">
-        <v>3.45</v>
+        <v>17.16</v>
       </c>
       <c r="G32">
-        <v>11.01</v>
+        <v>8.75</v>
       </c>
       <c r="H32" s="4">
-        <v>148026.10999999999</v>
+        <v>34979.550000000003</v>
       </c>
       <c r="I32">
-        <v>5.81</v>
+        <v>2.97</v>
       </c>
       <c r="J32">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L32">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2023,37 +2029,37 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>40300</v>
+        <v>89500</v>
       </c>
       <c r="D33" s="3">
-        <v>-4.2799999999999998E-2</v>
+        <v>-1.32E-2</v>
       </c>
       <c r="E33">
-        <v>4.3</v>
+        <v>19.62</v>
       </c>
       <c r="F33">
-        <v>17.16</v>
+        <v>12.5</v>
       </c>
       <c r="G33">
-        <v>8.75</v>
+        <v>6.74</v>
       </c>
       <c r="H33" s="4">
-        <v>34979.550000000003</v>
+        <v>132483.99</v>
       </c>
       <c r="I33">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="J33">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2064,37 +2070,37 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>88700</v>
+        <v>8130</v>
       </c>
       <c r="D34" s="3">
-        <v>1.14E-2</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="E34">
-        <v>9.11</v>
+        <v>2.84</v>
       </c>
       <c r="F34">
-        <v>10.72</v>
+        <v>5.21</v>
       </c>
       <c r="G34">
-        <v>9.4</v>
+        <v>8.36</v>
       </c>
       <c r="H34" s="4">
-        <v>153891.85</v>
+        <v>20755.32</v>
       </c>
       <c r="I34">
-        <v>4.0599999999999996</v>
+        <v>2.71</v>
       </c>
       <c r="J34">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L34">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M34">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2105,37 +2111,37 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>119300</v>
+        <v>12940</v>
       </c>
       <c r="D35" s="3">
-        <v>1.4500000000000001E-2</v>
+        <v>-1.8200000000000001E-2</v>
       </c>
       <c r="E35">
-        <v>8.86</v>
+        <v>7.65</v>
       </c>
       <c r="F35">
-        <v>11.75</v>
+        <v>4.43</v>
       </c>
       <c r="G35">
-        <v>8.51</v>
+        <v>7.8</v>
       </c>
       <c r="H35" s="4">
-        <v>158104.75</v>
+        <v>29805.78</v>
       </c>
       <c r="I35">
-        <v>2.66</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J35">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="L35">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -2146,37 +2152,37 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>126800</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
+        <v>39550</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E36">
-        <v>23.44</v>
+        <v>11.21</v>
       </c>
       <c r="F36">
-        <v>26.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G36">
-        <v>27.89</v>
+        <v>6.4</v>
       </c>
       <c r="H36" s="4">
-        <v>56704.02</v>
+        <v>120400.44</v>
       </c>
       <c r="I36">
-        <v>1.06</v>
+        <v>3.68</v>
       </c>
       <c r="J36">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="L36">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2187,10 +2193,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>15510</v>
+        <v>14880</v>
       </c>
       <c r="D37" s="3">
-        <v>7.1000000000000004E-3</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="E37">
         <v>6.96</v>
@@ -2205,19 +2211,19 @@
         <v>33449.870000000003</v>
       </c>
       <c r="I37">
-        <v>4.1900000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="J37">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L37">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2228,37 +2234,37 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>14290</v>
+        <v>214000</v>
       </c>
       <c r="D38" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>-2.06E-2</v>
       </c>
       <c r="E38">
-        <v>3.6</v>
+        <v>12.43</v>
       </c>
       <c r="F38">
-        <v>10.25</v>
+        <v>11.22</v>
       </c>
       <c r="G38">
-        <v>5.91</v>
+        <v>11.82</v>
       </c>
       <c r="H38" s="4">
-        <v>36784.92</v>
+        <v>417937.43</v>
       </c>
       <c r="I38">
-        <v>3.5</v>
+        <v>5.61</v>
       </c>
       <c r="J38">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="L38">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -2269,37 +2275,37 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>24900</v>
+        <v>46000</v>
       </c>
       <c r="D39" s="3">
-        <v>2E-3</v>
+        <v>-2.1299999999999999E-2</v>
       </c>
       <c r="E39">
-        <v>12.8</v>
+        <v>4.12</v>
       </c>
       <c r="F39">
-        <v>13.12</v>
+        <v>3.45</v>
       </c>
       <c r="G39">
-        <v>12.93</v>
+        <v>11.01</v>
       </c>
       <c r="H39" s="4">
-        <v>29884.63</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5.87</v>
       </c>
       <c r="J39">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2310,37 +2316,37 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>14130</v>
+        <v>119300</v>
       </c>
       <c r="D40" s="3">
-        <v>-1.1900000000000001E-2</v>
+        <v>-2.29E-2</v>
       </c>
       <c r="E40">
-        <v>7.65</v>
+        <v>23.44</v>
       </c>
       <c r="F40">
-        <v>4.43</v>
+        <v>26.3</v>
       </c>
       <c r="G40">
-        <v>7.8</v>
+        <v>27.89</v>
       </c>
       <c r="H40" s="4">
-        <v>29805.78</v>
+        <v>58453.26</v>
       </c>
       <c r="I40">
-        <v>1.84</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J40">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L40">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -2351,37 +2357,37 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>18520</v>
+        <v>22950</v>
       </c>
       <c r="D41" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>-2.9600000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>10.48</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F41">
-        <v>6.48</v>
+        <v>7.78</v>
       </c>
       <c r="G41">
-        <v>10.17</v>
+        <v>5.8</v>
       </c>
       <c r="H41" s="4">
-        <v>24471.72</v>
+        <v>46238.98</v>
       </c>
       <c r="I41">
-        <v>6.34</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="L41">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2392,37 +2398,37 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>54200</v>
+        <v>940000</v>
       </c>
       <c r="D42" s="3">
-        <v>3.7000000000000002E-3</v>
+        <v>-3.09E-2</v>
       </c>
       <c r="E42">
-        <v>8.77</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F42">
-        <v>6.92</v>
+        <v>13.22</v>
       </c>
       <c r="G42">
-        <v>13.11</v>
+        <v>5.79</v>
       </c>
       <c r="H42" s="4">
-        <v>69949.570000000007</v>
+        <v>455146.14</v>
       </c>
       <c r="I42">
-        <v>2.95</v>
+        <v>1.86</v>
       </c>
       <c r="J42">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="K42">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -2433,37 +2439,78 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>25650</v>
+        <v>51500</v>
       </c>
       <c r="D43" s="3">
-        <v>7.9000000000000008E-3</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="E43">
-        <v>9.39</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>9.09</v>
+        <v>7.89</v>
       </c>
       <c r="G43">
-        <v>9.73</v>
+        <v>7.9</v>
       </c>
       <c r="H43" s="4">
-        <v>46271.74</v>
+        <v>77080.960000000006</v>
       </c>
       <c r="I43">
-        <v>4.68</v>
+        <v>5.44</v>
       </c>
       <c r="J43">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L43">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>88</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>35100</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-6.6500000000000004E-2</v>
+      </c>
+      <c r="E44">
+        <v>10.82</v>
+      </c>
+      <c r="F44">
+        <v>7.15</v>
+      </c>
+      <c r="G44">
+        <v>10.15</v>
+      </c>
+      <c r="H44" s="4">
+        <v>41860.639999999999</v>
+      </c>
+      <c r="I44">
+        <v>4.84</v>
+      </c>
+      <c r="J44">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>58</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8146BA4D-04BD-4BB9-A87E-B435C3BEC77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE48B39-818F-411F-93F5-350F168C8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{968FBB80-A841-4EFE-8EBD-277DEE4A6C42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7D6FE89-84A3-43E2-A41D-ED6D7B60E21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,13 +407,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,17 +726,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A79E30-32B7-4FF3-B586-131237DACD30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C76210-1EB2-46ED-870D-07A906720B95}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -801,7 +800,7 @@
         <v>23300</v>
       </c>
       <c r="D2" s="3">
-        <v>1.5299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -839,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>102600</v>
+        <v>103000</v>
       </c>
       <c r="D3" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -857,7 +856,7 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.34</v>
+        <v>6.31</v>
       </c>
       <c r="J3">
         <v>65</v>
@@ -866,10 +865,10 @@
         <v>65</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -880,10 +879,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>456500</v>
+        <v>453000</v>
       </c>
       <c r="D4" s="3">
-        <v>-2.2000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -898,19 +897,19 @@
         <v>363062.08</v>
       </c>
       <c r="I4">
-        <v>4.16</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -921,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>32150</v>
+        <v>32000</v>
       </c>
       <c r="D5" s="3">
-        <v>-4.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -939,7 +938,7 @@
         <v>70084.75</v>
       </c>
       <c r="I5">
-        <v>6.22</v>
+        <v>6.25</v>
       </c>
       <c r="J5">
         <v>49</v>
@@ -948,10 +947,10 @@
         <v>49</v>
       </c>
       <c r="L5">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -962,10 +961,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="D6" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -980,19 +979,19 @@
         <v>52631.05</v>
       </c>
       <c r="I6">
-        <v>4.6500000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="J6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1003,10 +1002,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>4550</v>
+        <v>4495</v>
       </c>
       <c r="D7" s="3">
-        <v>-6.6E-3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>2.29</v>
@@ -1021,19 +1020,19 @@
         <v>9686.4500000000007</v>
       </c>
       <c r="I7">
-        <v>6.59</v>
+        <v>6.67</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -1044,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>8050</v>
+        <v>8110</v>
       </c>
       <c r="D8" s="3">
-        <v>-1.11E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>2.84</v>
@@ -1062,19 +1061,19 @@
         <v>20755.32</v>
       </c>
       <c r="I8">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="J8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1085,10 +1084,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>27750</v>
+        <v>26700</v>
       </c>
       <c r="D9" s="3">
-        <v>-1.4200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>4.57</v>
@@ -1103,19 +1102,19 @@
         <v>41863.9</v>
       </c>
       <c r="I9">
-        <v>4.32</v>
+        <v>4.49</v>
       </c>
       <c r="J9">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1126,10 +1125,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>75500</v>
+        <v>74300</v>
       </c>
       <c r="D10" s="3">
-        <v>-6.6E-3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>2.16</v>
@@ -1144,19 +1143,19 @@
         <v>172209.34</v>
       </c>
       <c r="I10">
-        <v>4.1100000000000003</v>
+        <v>4.17</v>
       </c>
       <c r="J10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L10">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1167,10 +1166,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>11270</v>
+        <v>11220</v>
       </c>
       <c r="D11" s="3">
-        <v>5.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>9.44</v>
@@ -1185,7 +1184,7 @@
         <v>17946.82</v>
       </c>
       <c r="I11">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="J11">
         <v>94</v>
@@ -1194,10 +1193,10 @@
         <v>94</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1208,10 +1207,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>199200</v>
+        <v>193400</v>
       </c>
       <c r="D12" s="3">
-        <v>-6.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>2.54</v>
@@ -1226,19 +1225,19 @@
         <v>473072.35</v>
       </c>
       <c r="I12">
-        <v>2.2599999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="J12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1249,9 +1248,9 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>89600</v>
-      </c>
-      <c r="D13" s="5">
+        <v>87000</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13">
@@ -1267,19 +1266,19 @@
         <v>132483.99</v>
       </c>
       <c r="I13">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J13">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1290,10 +1289,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>219500</v>
+        <v>217500</v>
       </c>
       <c r="D14" s="3">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>12.43</v>
@@ -1308,19 +1307,19 @@
         <v>417937.43</v>
       </c>
       <c r="I14">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="J14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1331,10 +1330,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>141800</v>
+        <v>139900</v>
       </c>
       <c r="D15" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>18.96</v>
@@ -1349,19 +1348,19 @@
         <v>128511.34</v>
       </c>
       <c r="I15">
-        <v>4.8</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J15">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L15">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1372,10 +1371,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>20100</v>
+        <v>19810</v>
       </c>
       <c r="D16" s="3">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>8.73</v>
@@ -1390,19 +1389,19 @@
         <v>23779.51</v>
       </c>
       <c r="I16">
-        <v>4.7300000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="J16">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1413,10 +1412,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>54400</v>
+        <v>54000</v>
       </c>
       <c r="D17" s="3">
-        <v>-1.9800000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.88</v>
@@ -1431,19 +1430,19 @@
         <v>146082.85999999999</v>
       </c>
       <c r="I17">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1454,10 +1453,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="D18" s="3">
-        <v>-1.0699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>19.78</v>
@@ -1472,19 +1471,19 @@
         <v>31476.26</v>
       </c>
       <c r="I18">
-        <v>4.33</v>
+        <v>4.37</v>
       </c>
       <c r="J18">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1495,10 +1494,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>141900</v>
+        <v>141400</v>
       </c>
       <c r="D19" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>13.17</v>
@@ -1513,19 +1512,19 @@
         <v>199638.85</v>
       </c>
       <c r="I19">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="J19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1536,10 +1535,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>944000</v>
+        <v>935000</v>
       </c>
       <c r="D20" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>2.2799999999999998</v>
@@ -1554,7 +1553,7 @@
         <v>455146.14</v>
       </c>
       <c r="I20">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J20">
         <v>28</v>
@@ -1563,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1577,10 +1576,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>74600</v>
+        <v>72900</v>
       </c>
       <c r="D21" s="3">
-        <v>-2.23E-2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>12.89</v>
@@ -1595,19 +1594,19 @@
         <v>84023.37</v>
       </c>
       <c r="I21">
-        <v>4.6900000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="J21">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K21">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L21">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1618,10 +1617,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>54900</v>
+        <v>55100</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>10.83</v>
@@ -1636,19 +1635,19 @@
         <v>55591.17</v>
       </c>
       <c r="I22">
-        <v>6.45</v>
+        <v>6.42</v>
       </c>
       <c r="J22">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1659,10 +1658,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>82300</v>
+        <v>81000</v>
       </c>
       <c r="D23" s="3">
-        <v>1.8599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>14.42</v>
@@ -1677,19 +1676,19 @@
         <v>33518.75</v>
       </c>
       <c r="I23">
-        <v>6.68</v>
+        <v>6.79</v>
       </c>
       <c r="J23">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1700,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>38400</v>
+        <v>37650</v>
       </c>
       <c r="D24" s="3">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>13.16</v>
@@ -1718,19 +1717,19 @@
         <v>70038.45</v>
       </c>
       <c r="I24">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="J24">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1741,10 +1740,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>19710</v>
+        <v>19600</v>
       </c>
       <c r="D25" s="3">
-        <v>-2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>8.06</v>
@@ -1759,19 +1758,19 @@
         <v>43741.23</v>
       </c>
       <c r="I25">
-        <v>5.4</v>
+        <v>5.43</v>
       </c>
       <c r="J25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1785,7 +1784,7 @@
         <v>51500</v>
       </c>
       <c r="D26" s="3">
-        <v>-5.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -1809,10 +1808,10 @@
         <v>74</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1823,10 +1822,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>20850</v>
+        <v>20500</v>
       </c>
       <c r="D27" s="3">
-        <v>2.46E-2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>15.12</v>
@@ -1841,19 +1840,19 @@
         <v>14528.71</v>
       </c>
       <c r="I27">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L27">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1864,10 +1863,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>49800</v>
+        <v>50800</v>
       </c>
       <c r="D28" s="3">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>2.85</v>
@@ -1882,19 +1881,19 @@
         <v>69574.75</v>
       </c>
       <c r="I28">
-        <v>4.0199999999999996</v>
+        <v>3.94</v>
       </c>
       <c r="J28">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1905,10 +1904,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>14780</v>
+        <v>14990</v>
       </c>
       <c r="D29" s="3">
-        <v>-3.3999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>4.4000000000000004</v>
@@ -1923,19 +1922,19 @@
         <v>20401.09</v>
       </c>
       <c r="I29">
-        <v>4.4000000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="J29">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L29">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1946,10 +1945,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>157100</v>
+        <v>152800</v>
       </c>
       <c r="D30" s="3">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>5.76</v>
@@ -1964,19 +1963,19 @@
         <v>168759.44</v>
       </c>
       <c r="I30">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="J30">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L30">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1987,10 +1986,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>144100</v>
+        <v>140700</v>
       </c>
       <c r="D31" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>12.66</v>
@@ -2005,19 +2004,19 @@
         <v>82141.36</v>
       </c>
       <c r="I31">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="J31">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K31">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L31">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -2028,10 +2027,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>18170</v>
+        <v>17980</v>
       </c>
       <c r="D32" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>12.08</v>
@@ -2046,19 +2045,19 @@
         <v>18676.03</v>
       </c>
       <c r="I32">
-        <v>6.44</v>
+        <v>6.51</v>
       </c>
       <c r="J32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L32">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2069,10 +2068,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>38600</v>
+        <v>38550</v>
       </c>
       <c r="D33" s="3">
-        <v>-1.78E-2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>11.21</v>
@@ -2096,10 +2095,10 @@
         <v>38</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2110,9 +2109,9 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>278000</v>
-      </c>
-      <c r="D34" s="5">
+        <v>263500</v>
+      </c>
+      <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34">
@@ -2128,19 +2127,19 @@
         <v>224185.76</v>
       </c>
       <c r="I34">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="J34">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L34">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M34">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2151,10 +2150,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>49850</v>
+        <v>49350</v>
       </c>
       <c r="D35" s="3">
-        <v>7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>13.26</v>
@@ -2169,19 +2168,19 @@
         <v>28057.11</v>
       </c>
       <c r="I35">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -2192,10 +2191,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>70100</v>
+        <v>69100</v>
       </c>
       <c r="D36" s="3">
-        <v>8.6E-3</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>8.11</v>
@@ -2210,19 +2209,19 @@
         <v>117797.1</v>
       </c>
       <c r="I36">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="J36">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L36">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M36">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2233,10 +2232,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>52700</v>
+        <v>53400</v>
       </c>
       <c r="D37" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>19.2</v>
@@ -2251,19 +2250,19 @@
         <v>8528.24</v>
       </c>
       <c r="I37">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J37">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L37">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M37">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2274,10 +2273,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>35550</v>
+        <v>35400</v>
       </c>
       <c r="D38" s="3">
-        <v>-5.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>10.82</v>
@@ -2292,19 +2291,19 @@
         <v>41860.639999999999</v>
       </c>
       <c r="I38">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="J38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -2315,10 +2314,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>154000</v>
+        <v>149600</v>
       </c>
       <c r="D39" s="3">
-        <v>-2.53E-2</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>11.54</v>
@@ -2333,19 +2332,19 @@
         <v>167913.36</v>
       </c>
       <c r="I39">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J39">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K39">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L39">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M39">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2356,10 +2355,10 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>45450</v>
+        <v>45300</v>
       </c>
       <c r="D40" s="3">
-        <v>-1.41E-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>4.12</v>
@@ -2374,7 +2373,7 @@
         <v>148026.10999999999</v>
       </c>
       <c r="I40">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="J40">
         <v>55</v>
@@ -2383,10 +2382,10 @@
         <v>55</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -2397,10 +2396,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>39600</v>
+        <v>39700</v>
       </c>
       <c r="D41" s="3">
-        <v>-3.8E-3</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>4.3</v>
@@ -2415,19 +2414,19 @@
         <v>34979.550000000003</v>
       </c>
       <c r="I41">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="J41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2438,10 +2437,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>89700</v>
+        <v>89100</v>
       </c>
       <c r="D42" s="3">
-        <v>-7.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>9.11</v>
@@ -2456,19 +2455,19 @@
         <v>153891.85</v>
       </c>
       <c r="I42">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="J42">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L42">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M42">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -2479,10 +2478,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>115700</v>
+        <v>115300</v>
       </c>
       <c r="D43" s="3">
-        <v>-1.03E-2</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>8.86</v>
@@ -2497,19 +2496,19 @@
         <v>158104.75</v>
       </c>
       <c r="I43">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="J43">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -2520,10 +2519,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="2">
-        <v>117400</v>
+        <v>116200</v>
       </c>
       <c r="D44" s="3">
-        <v>-1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>23.44</v>
@@ -2538,19 +2537,19 @@
         <v>58453.26</v>
       </c>
       <c r="I44">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J44">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -2561,10 +2560,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <v>14890</v>
+        <v>14630</v>
       </c>
       <c r="D45" s="3">
-        <v>-3.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>6.96</v>
@@ -2579,19 +2578,19 @@
         <v>33449.870000000003</v>
       </c>
       <c r="I45">
-        <v>4.3600000000000003</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J45">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -2602,10 +2601,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="2">
-        <v>14090</v>
+        <v>13810</v>
       </c>
       <c r="D46" s="3">
-        <v>-4.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>3.6</v>
@@ -2620,19 +2619,19 @@
         <v>36784.92</v>
       </c>
       <c r="I46">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="J46">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -2643,10 +2642,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="2">
-        <v>23650</v>
+        <v>23500</v>
       </c>
       <c r="D47" s="3">
-        <v>-1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>12.8</v>
@@ -2661,19 +2660,19 @@
         <v>29884.63</v>
       </c>
       <c r="I47">
-        <v>4.21</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J47">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -2684,10 +2683,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="2">
-        <v>12490</v>
+        <v>12360</v>
       </c>
       <c r="D48" s="3">
-        <v>-1.03E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>7.65</v>
@@ -2702,19 +2701,19 @@
         <v>29805.78</v>
       </c>
       <c r="I48">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J48">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -2725,10 +2724,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="2">
-        <v>18490</v>
+        <v>18310</v>
       </c>
       <c r="D49" s="3">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>10.48</v>
@@ -2743,19 +2742,19 @@
         <v>24471.72</v>
       </c>
       <c r="I49">
-        <v>6.35</v>
+        <v>6.42</v>
       </c>
       <c r="J49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
@@ -2766,10 +2765,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="2">
-        <v>54400</v>
+        <v>55300</v>
       </c>
       <c r="D50" s="3">
-        <v>-2.3300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>8.77</v>
@@ -2784,19 +2783,19 @@
         <v>69949.570000000007</v>
       </c>
       <c r="I50">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="J50">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L50">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="M50">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -2807,10 +2806,10 @@
         <v>108</v>
       </c>
       <c r="C51" s="2">
-        <v>26400</v>
+        <v>26650</v>
       </c>
       <c r="D51" s="3">
-        <v>1.9E-3</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>9.39</v>
@@ -2825,19 +2824,19 @@
         <v>46271.74</v>
       </c>
       <c r="I51">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L51">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M51">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE48B39-818F-411F-93F5-350F168C8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80B206C-9809-47E7-83F5-F1D3AABE952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7D6FE89-84A3-43E2-A41D-ED6D7B60E21F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{32B3B6C6-D64F-4202-AB94-BB781B619208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>종목코드</t>
   </si>
@@ -84,12 +84,6 @@
     <t>세아베스틸지주</t>
   </si>
   <si>
-    <t>001740</t>
-  </si>
-  <si>
-    <t>SK네트웍스</t>
-  </si>
-  <si>
     <t>002310</t>
   </si>
   <si>
@@ -114,12 +108,6 @@
     <t>코리안리</t>
   </si>
   <si>
-    <t>004170</t>
-  </si>
-  <si>
-    <t>신세계</t>
-  </si>
-  <si>
     <t>004800</t>
   </si>
   <si>
@@ -144,12 +132,6 @@
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>006120</t>
-  </si>
-  <si>
-    <t>SK디스커버리</t>
-  </si>
-  <si>
     <t>007340</t>
   </si>
   <si>
@@ -162,12 +144,6 @@
     <t>영원무역홀딩스</t>
   </si>
   <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>고려아연</t>
-  </si>
-  <si>
     <t>016360</t>
   </si>
   <si>
@@ -270,12 +246,6 @@
     <t>리노공업</t>
   </si>
   <si>
-    <t>064960</t>
-  </si>
-  <si>
-    <t>SNT모티브</t>
-  </si>
-  <si>
     <t>071050</t>
   </si>
   <si>
@@ -288,12 +258,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>081660</t>
-  </si>
-  <si>
-    <t>미스토홀딩스</t>
-  </si>
-  <si>
     <t>086790</t>
   </si>
   <si>
@@ -306,12 +270,6 @@
     <t>KB금융</t>
   </si>
   <si>
-    <t>138040</t>
-  </si>
-  <si>
-    <t>메리츠금융지주</t>
-  </si>
-  <si>
     <t>138930</t>
   </si>
   <si>
@@ -340,12 +298,6 @@
   </si>
   <si>
     <t>이노션</t>
-  </si>
-  <si>
-    <t>241560</t>
-  </si>
-  <si>
-    <t>두산밥캣</t>
   </si>
   <si>
     <t>316140</t>
@@ -397,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,10 +359,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C76210-1EB2-46ED-870D-07A906720B95}">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8B2FF-0B37-4621-9BFC-7C4058643D77}">
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -738,7 +693,7 @@
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -797,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>23300</v>
+        <v>22850</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -815,19 +770,19 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.29</v>
+        <v>4.38</v>
       </c>
       <c r="J2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -838,10 +793,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>103000</v>
+        <v>104200</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -856,19 +811,19 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.31</v>
+        <v>6.24</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M3">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -879,10 +834,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>453000</v>
+        <v>450000</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>-3.3E-3</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -897,19 +852,19 @@
         <v>363062.08</v>
       </c>
       <c r="I4">
-        <v>4.1900000000000004</v>
+        <v>4.22</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -920,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>32000</v>
+        <v>30350</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>-2.8799999999999999E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -938,19 +893,19 @@
         <v>70084.75</v>
       </c>
       <c r="I5">
-        <v>6.25</v>
+        <v>6.59</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -961,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>25700</v>
+        <v>25450</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -979,19 +934,19 @@
         <v>52631.05</v>
       </c>
       <c r="I6">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="J6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1002,37 +957,37 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>4495</v>
+        <v>7910</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E7">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5.21</v>
       </c>
       <c r="G7">
-        <v>2.0499999999999998</v>
+        <v>8.36</v>
       </c>
       <c r="H7" s="4">
-        <v>9686.4500000000007</v>
+        <v>20755.32</v>
       </c>
       <c r="I7">
-        <v>6.67</v>
+        <v>2.78</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -1043,37 +998,37 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>8110</v>
+        <v>26650</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>2.84</v>
+        <v>4.57</v>
       </c>
       <c r="F8">
-        <v>5.21</v>
+        <v>8.74</v>
       </c>
       <c r="G8">
-        <v>8.36</v>
+        <v>4.55</v>
       </c>
       <c r="H8" s="4">
-        <v>20755.32</v>
+        <v>41863.9</v>
       </c>
       <c r="I8">
-        <v>2.71</v>
+        <v>4.5</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1084,31 +1039,31 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>26700</v>
+        <v>72000</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E9">
-        <v>4.57</v>
+        <v>2.16</v>
       </c>
       <c r="F9">
-        <v>8.74</v>
+        <v>5.79</v>
       </c>
       <c r="G9">
-        <v>4.55</v>
+        <v>5.18</v>
       </c>
       <c r="H9" s="4">
-        <v>41863.9</v>
+        <v>172209.34</v>
       </c>
       <c r="I9">
-        <v>4.49</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>14</v>
@@ -1125,37 +1080,37 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>74300</v>
+        <v>10890</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="E10">
-        <v>2.16</v>
+        <v>9.44</v>
       </c>
       <c r="F10">
-        <v>5.79</v>
+        <v>11.61</v>
       </c>
       <c r="G10">
-        <v>5.18</v>
+        <v>9.86</v>
       </c>
       <c r="H10" s="4">
-        <v>172209.34</v>
+        <v>17946.82</v>
       </c>
       <c r="I10">
-        <v>4.17</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1166,37 +1121,37 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>11220</v>
+        <v>86000</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E11">
-        <v>9.44</v>
+        <v>19.62</v>
       </c>
       <c r="F11">
-        <v>11.61</v>
+        <v>12.5</v>
       </c>
       <c r="G11">
-        <v>9.86</v>
+        <v>6.74</v>
       </c>
       <c r="H11" s="4">
-        <v>17946.82</v>
+        <v>132483.99</v>
       </c>
       <c r="I11">
-        <v>4.59</v>
+        <v>3.49</v>
       </c>
       <c r="J11">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L11">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1207,37 +1162,37 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>193400</v>
+        <v>220000</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E12">
-        <v>2.54</v>
+        <v>12.43</v>
       </c>
       <c r="F12">
-        <v>2.5499999999999998</v>
+        <v>11.22</v>
       </c>
       <c r="G12">
-        <v>6.1</v>
+        <v>11.82</v>
       </c>
       <c r="H12" s="4">
-        <v>473072.35</v>
+        <v>417937.43</v>
       </c>
       <c r="I12">
-        <v>2.33</v>
+        <v>5.45</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1248,37 +1203,37 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>87000</v>
+        <v>135500</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="E13">
-        <v>19.62</v>
+        <v>18.96</v>
       </c>
       <c r="F13">
-        <v>12.5</v>
+        <v>23.71</v>
       </c>
       <c r="G13">
-        <v>6.74</v>
+        <v>18.8</v>
       </c>
       <c r="H13" s="4">
-        <v>132483.99</v>
+        <v>128511.34</v>
       </c>
       <c r="I13">
-        <v>3.45</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1289,37 +1244,37 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>217500</v>
+        <v>19630</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>12.43</v>
+        <v>8.73</v>
       </c>
       <c r="F14">
-        <v>11.22</v>
+        <v>11.44</v>
       </c>
       <c r="G14">
-        <v>11.82</v>
+        <v>6.85</v>
       </c>
       <c r="H14" s="4">
-        <v>417937.43</v>
+        <v>23779.51</v>
       </c>
       <c r="I14">
-        <v>5.52</v>
+        <v>4.84</v>
       </c>
       <c r="J14">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1330,37 +1285,37 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>139900</v>
+        <v>22550</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="E15">
-        <v>18.96</v>
+        <v>19.78</v>
       </c>
       <c r="F15">
-        <v>23.71</v>
+        <v>13.61</v>
       </c>
       <c r="G15">
-        <v>18.8</v>
+        <v>23.29</v>
       </c>
       <c r="H15" s="4">
-        <v>128511.34</v>
+        <v>31476.26</v>
       </c>
       <c r="I15">
-        <v>4.8600000000000003</v>
+        <v>4.43</v>
       </c>
       <c r="J15">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1371,37 +1326,37 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>19810</v>
+        <v>137100</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E16">
-        <v>8.73</v>
+        <v>13.17</v>
       </c>
       <c r="F16">
-        <v>11.44</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G16">
-        <v>6.85</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="H16" s="4">
-        <v>23779.51</v>
+        <v>199638.85</v>
       </c>
       <c r="I16">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="J16">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1412,37 +1367,37 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>54000</v>
+        <v>72400</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="E17">
-        <v>0.88</v>
+        <v>12.89</v>
       </c>
       <c r="F17">
-        <v>4.49</v>
+        <v>13.03</v>
       </c>
       <c r="G17">
-        <v>7.95</v>
+        <v>9.44</v>
       </c>
       <c r="H17" s="4">
-        <v>146082.85999999999</v>
+        <v>84023.37</v>
       </c>
       <c r="I17">
-        <v>3.15</v>
+        <v>4.83</v>
       </c>
       <c r="J17">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1453,37 +1408,37 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>22900</v>
-      </c>
-      <c r="D18" s="3">
+        <v>54400</v>
+      </c>
+      <c r="D18" s="5">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.78</v>
+        <v>10.83</v>
       </c>
       <c r="F18">
-        <v>13.61</v>
+        <v>7.71</v>
       </c>
       <c r="G18">
-        <v>23.29</v>
+        <v>9.48</v>
       </c>
       <c r="H18" s="4">
-        <v>31476.26</v>
+        <v>55591.17</v>
       </c>
       <c r="I18">
-        <v>4.37</v>
+        <v>6.51</v>
       </c>
       <c r="J18">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1494,37 +1449,37 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>141400</v>
+        <v>78100</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="E19">
-        <v>13.17</v>
+        <v>14.42</v>
       </c>
       <c r="F19">
-        <v>9.9600000000000009</v>
+        <v>13.87</v>
       </c>
       <c r="G19">
-        <v>18.010000000000002</v>
+        <v>15.82</v>
       </c>
       <c r="H19" s="4">
-        <v>199638.85</v>
+        <v>33518.75</v>
       </c>
       <c r="I19">
-        <v>3.78</v>
+        <v>7.04</v>
       </c>
       <c r="J19">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1535,37 +1490,37 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>935000</v>
+        <v>35900</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>2.2799999999999998</v>
+        <v>13.16</v>
       </c>
       <c r="F20">
-        <v>13.22</v>
+        <v>16.53</v>
       </c>
       <c r="G20">
-        <v>5.79</v>
+        <v>13.29</v>
       </c>
       <c r="H20" s="4">
-        <v>455146.14</v>
+        <v>70038.45</v>
       </c>
       <c r="I20">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="J20">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1576,37 +1531,37 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>72900</v>
+        <v>19350</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E21">
-        <v>12.89</v>
+        <v>8.06</v>
       </c>
       <c r="F21">
-        <v>13.03</v>
+        <v>8.73</v>
       </c>
       <c r="G21">
-        <v>9.44</v>
+        <v>8.77</v>
       </c>
       <c r="H21" s="4">
-        <v>84023.37</v>
+        <v>43741.23</v>
       </c>
       <c r="I21">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1617,37 +1572,37 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>55100</v>
+        <v>50600</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
       <c r="E22">
-        <v>10.83</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>7.71</v>
+        <v>7.89</v>
       </c>
       <c r="G22">
-        <v>9.48</v>
+        <v>7.9</v>
       </c>
       <c r="H22" s="4">
-        <v>55591.17</v>
+        <v>77080.960000000006</v>
       </c>
       <c r="I22">
-        <v>6.42</v>
+        <v>5.53</v>
       </c>
       <c r="J22">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1658,37 +1613,37 @@
         <v>52</v>
       </c>
       <c r="C23" s="2">
-        <v>81000</v>
+        <v>20250</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>14.42</v>
+        <v>15.12</v>
       </c>
       <c r="F23">
-        <v>13.87</v>
+        <v>11.12</v>
       </c>
       <c r="G23">
-        <v>15.82</v>
+        <v>15.58</v>
       </c>
       <c r="H23" s="4">
-        <v>33518.75</v>
+        <v>14528.71</v>
       </c>
       <c r="I23">
-        <v>6.79</v>
+        <v>6.07</v>
       </c>
       <c r="J23">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1699,37 +1654,37 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>37650</v>
+        <v>51200</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>13.16</v>
+        <v>2.85</v>
       </c>
       <c r="F24">
-        <v>16.53</v>
+        <v>14.73</v>
       </c>
       <c r="G24">
-        <v>13.29</v>
+        <v>5.63</v>
       </c>
       <c r="H24" s="4">
-        <v>70038.45</v>
+        <v>69574.75</v>
       </c>
       <c r="I24">
-        <v>3.72</v>
+        <v>3.91</v>
       </c>
       <c r="J24">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L24">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1740,37 +1695,37 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>19600</v>
+        <v>15200</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E25">
-        <v>8.06</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F25">
-        <v>8.73</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G25">
-        <v>8.77</v>
+        <v>6.75</v>
       </c>
       <c r="H25" s="4">
-        <v>43741.23</v>
+        <v>20401.09</v>
       </c>
       <c r="I25">
-        <v>5.43</v>
+        <v>4.28</v>
       </c>
       <c r="J25">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K25">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1781,37 +1736,37 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>51500</v>
+        <v>159100</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>5.76</v>
       </c>
       <c r="F26">
-        <v>7.89</v>
+        <v>8.94</v>
       </c>
       <c r="G26">
-        <v>7.9</v>
+        <v>5.33</v>
       </c>
       <c r="H26" s="4">
-        <v>77080.960000000006</v>
+        <v>168759.44</v>
       </c>
       <c r="I26">
-        <v>5.44</v>
+        <v>2.83</v>
       </c>
       <c r="J26">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1822,37 +1777,37 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>20500</v>
+        <v>134000</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="E27">
-        <v>15.12</v>
+        <v>12.66</v>
       </c>
       <c r="F27">
-        <v>11.12</v>
+        <v>8.66</v>
       </c>
       <c r="G27">
-        <v>15.58</v>
+        <v>11.14</v>
       </c>
       <c r="H27" s="4">
-        <v>14528.71</v>
+        <v>82141.36</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>4.03</v>
       </c>
       <c r="J27">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1863,37 +1818,37 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>50800</v>
+        <v>17970</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>2.85</v>
+        <v>12.08</v>
       </c>
       <c r="F28">
-        <v>14.73</v>
+        <v>7.17</v>
       </c>
       <c r="G28">
-        <v>5.63</v>
+        <v>8.39</v>
       </c>
       <c r="H28" s="4">
-        <v>69574.75</v>
+        <v>18676.03</v>
       </c>
       <c r="I28">
-        <v>3.94</v>
+        <v>6.51</v>
       </c>
       <c r="J28">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="K28">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1904,37 +1859,37 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>14990</v>
+        <v>38800</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="E29">
-        <v>4.4000000000000004</v>
+        <v>11.21</v>
       </c>
       <c r="F29">
-        <v>8.8699999999999992</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G29">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="H29" s="4">
-        <v>20401.09</v>
+        <v>120400.44</v>
       </c>
       <c r="I29">
-        <v>4.34</v>
+        <v>3.75</v>
       </c>
       <c r="J29">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="L29">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1945,37 +1900,37 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>152800</v>
+        <v>253000</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E30">
-        <v>5.76</v>
+        <v>15.98</v>
       </c>
       <c r="F30">
-        <v>8.94</v>
+        <v>18.79</v>
       </c>
       <c r="G30">
-        <v>5.33</v>
+        <v>12.25</v>
       </c>
       <c r="H30" s="4">
-        <v>168759.44</v>
+        <v>224185.76</v>
       </c>
       <c r="I30">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="J30">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1986,37 +1941,37 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>140700</v>
+        <v>48000</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>12.66</v>
+        <v>13.26</v>
       </c>
       <c r="F31">
-        <v>8.66</v>
+        <v>9.59</v>
       </c>
       <c r="G31">
-        <v>11.14</v>
+        <v>11.65</v>
       </c>
       <c r="H31" s="4">
-        <v>82141.36</v>
+        <v>28057.11</v>
       </c>
       <c r="I31">
-        <v>3.84</v>
+        <v>5.14</v>
       </c>
       <c r="J31">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -2027,37 +1982,37 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>17980</v>
+        <v>71400</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="E32">
-        <v>12.08</v>
+        <v>8.11</v>
       </c>
       <c r="F32">
-        <v>7.17</v>
+        <v>10.73</v>
       </c>
       <c r="G32">
-        <v>8.39</v>
+        <v>8.66</v>
       </c>
       <c r="H32" s="4">
-        <v>18676.03</v>
+        <v>117797.1</v>
       </c>
       <c r="I32">
-        <v>6.51</v>
+        <v>3.03</v>
       </c>
       <c r="J32">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="K32">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2068,37 +2023,37 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>38550</v>
+        <v>53600</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>11.21</v>
+        <v>19.2</v>
       </c>
       <c r="F33">
-        <v>8.3000000000000007</v>
+        <v>22.19</v>
       </c>
       <c r="G33">
-        <v>6.4</v>
+        <v>21.81</v>
       </c>
       <c r="H33" s="4">
-        <v>120400.44</v>
+        <v>8528.24</v>
       </c>
       <c r="I33">
-        <v>3.77</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J33">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2109,37 +2064,37 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>263500</v>
+        <v>144700</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E34">
-        <v>15.98</v>
+        <v>11.54</v>
       </c>
       <c r="F34">
-        <v>18.79</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="G34">
-        <v>12.25</v>
+        <v>9.6</v>
       </c>
       <c r="H34" s="4">
-        <v>224185.76</v>
+        <v>167913.36</v>
       </c>
       <c r="I34">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="J34">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L34">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2150,37 +2105,37 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>49350</v>
+        <v>45300</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="E35">
-        <v>13.26</v>
+        <v>4.12</v>
       </c>
       <c r="F35">
-        <v>9.59</v>
+        <v>3.45</v>
       </c>
       <c r="G35">
-        <v>11.65</v>
+        <v>11.01</v>
       </c>
       <c r="H35" s="4">
-        <v>28057.11</v>
+        <v>148026.10999999999</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>5.96</v>
       </c>
       <c r="J35">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -2191,37 +2146,37 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>69100</v>
+        <v>88400</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>8.11</v>
+        <v>9.11</v>
       </c>
       <c r="F36">
-        <v>10.73</v>
+        <v>10.72</v>
       </c>
       <c r="G36">
-        <v>8.66</v>
+        <v>9.4</v>
       </c>
       <c r="H36" s="4">
-        <v>117797.1</v>
+        <v>153891.85</v>
       </c>
       <c r="I36">
-        <v>3.13</v>
+        <v>4.07</v>
       </c>
       <c r="J36">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K36">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L36">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M36">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2232,37 +2187,37 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>53400</v>
+        <v>116800</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>4.3E-3</v>
       </c>
       <c r="E37">
-        <v>19.2</v>
+        <v>8.86</v>
       </c>
       <c r="F37">
-        <v>22.19</v>
+        <v>11.75</v>
       </c>
       <c r="G37">
-        <v>21.81</v>
+        <v>8.51</v>
       </c>
       <c r="H37" s="4">
-        <v>8528.24</v>
+        <v>158104.75</v>
       </c>
       <c r="I37">
-        <v>1.1200000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="J37">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L37">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M37">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2273,37 +2228,37 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>35400</v>
+        <v>14690</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>10.82</v>
+        <v>6.96</v>
       </c>
       <c r="F38">
-        <v>7.15</v>
+        <v>8.93</v>
       </c>
       <c r="G38">
-        <v>10.15</v>
+        <v>7.18</v>
       </c>
       <c r="H38" s="4">
-        <v>41860.639999999999</v>
+        <v>33449.870000000003</v>
       </c>
       <c r="I38">
-        <v>4.8</v>
+        <v>4.42</v>
       </c>
       <c r="J38">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -2314,37 +2269,37 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>149600</v>
+        <v>13640</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E39">
-        <v>11.54</v>
+        <v>3.6</v>
       </c>
       <c r="F39">
-        <v>20.010000000000002</v>
+        <v>10.25</v>
       </c>
       <c r="G39">
-        <v>9.6</v>
+        <v>5.91</v>
       </c>
       <c r="H39" s="4">
-        <v>167913.36</v>
+        <v>36784.92</v>
       </c>
       <c r="I39">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="J39">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L39">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2355,37 +2310,37 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>45300</v>
+        <v>23350</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E40">
-        <v>4.12</v>
+        <v>12.8</v>
       </c>
       <c r="F40">
-        <v>3.45</v>
+        <v>13.12</v>
       </c>
       <c r="G40">
-        <v>11.01</v>
+        <v>12.93</v>
       </c>
       <c r="H40" s="4">
-        <v>148026.10999999999</v>
+        <v>29884.63</v>
       </c>
       <c r="I40">
-        <v>5.96</v>
+        <v>4.26</v>
       </c>
       <c r="J40">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -2396,37 +2351,37 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>39700</v>
+        <v>12080</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>4.3</v>
+        <v>7.65</v>
       </c>
       <c r="F41">
-        <v>17.16</v>
+        <v>4.43</v>
       </c>
       <c r="G41">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="H41" s="4">
-        <v>34979.550000000003</v>
+        <v>29805.78</v>
       </c>
       <c r="I41">
-        <v>3.02</v>
+        <v>2.15</v>
       </c>
       <c r="J41">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2437,37 +2392,37 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>89100</v>
+        <v>18200</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E42">
-        <v>9.11</v>
+        <v>10.48</v>
       </c>
       <c r="F42">
-        <v>10.72</v>
+        <v>6.48</v>
       </c>
       <c r="G42">
-        <v>9.4</v>
+        <v>10.17</v>
       </c>
       <c r="H42" s="4">
-        <v>153891.85</v>
+        <v>24471.72</v>
       </c>
       <c r="I42">
-        <v>4.04</v>
+        <v>6.46</v>
       </c>
       <c r="J42">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="L42">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -2478,365 +2433,37 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>115300</v>
-      </c>
-      <c r="D43" s="3">
+        <v>26050</v>
+      </c>
+      <c r="D43" s="5">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>8.86</v>
+        <v>9.39</v>
       </c>
       <c r="F43">
-        <v>11.75</v>
+        <v>9.09</v>
       </c>
       <c r="G43">
-        <v>8.51</v>
+        <v>9.73</v>
       </c>
       <c r="H43" s="4">
-        <v>158104.75</v>
+        <v>46271.74</v>
       </c>
       <c r="I43">
-        <v>2.75</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J43">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K43">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M43">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="2">
-        <v>116200</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>23.44</v>
-      </c>
-      <c r="F44">
-        <v>26.3</v>
-      </c>
-      <c r="G44">
-        <v>27.89</v>
-      </c>
-      <c r="H44" s="4">
-        <v>58453.26</v>
-      </c>
-      <c r="I44">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="J44">
-        <v>88</v>
-      </c>
-      <c r="K44">
-        <v>88</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2">
-        <v>14630</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>6.96</v>
-      </c>
-      <c r="F45">
-        <v>8.93</v>
-      </c>
-      <c r="G45">
-        <v>7.18</v>
-      </c>
-      <c r="H45" s="4">
-        <v>33449.870000000003</v>
-      </c>
-      <c r="I45">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="J45">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>87</v>
-      </c>
-      <c r="L45">
-        <v>21</v>
-      </c>
-      <c r="M45">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="2">
-        <v>13810</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>3.6</v>
-      </c>
-      <c r="F46">
-        <v>10.25</v>
-      </c>
-      <c r="G46">
-        <v>5.91</v>
-      </c>
-      <c r="H46" s="4">
-        <v>36784.92</v>
-      </c>
-      <c r="I46">
-        <v>3.62</v>
-      </c>
-      <c r="J46">
-        <v>82</v>
-      </c>
-      <c r="K46">
-        <v>82</v>
-      </c>
-      <c r="L46">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="2">
-        <v>23500</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>12.8</v>
-      </c>
-      <c r="F47">
-        <v>13.12</v>
-      </c>
-      <c r="G47">
-        <v>12.93</v>
-      </c>
-      <c r="H47" s="4">
-        <v>29884.63</v>
-      </c>
-      <c r="I47">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="J47">
-        <v>87</v>
-      </c>
-      <c r="K47">
-        <v>87</v>
-      </c>
-      <c r="L47">
-        <v>23</v>
-      </c>
-      <c r="M47">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="2">
-        <v>12360</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>7.65</v>
-      </c>
-      <c r="F48">
-        <v>4.43</v>
-      </c>
-      <c r="G48">
-        <v>7.8</v>
-      </c>
-      <c r="H48" s="4">
-        <v>29805.78</v>
-      </c>
-      <c r="I48">
-        <v>2.1</v>
-      </c>
-      <c r="J48">
-        <v>57</v>
-      </c>
-      <c r="K48">
-        <v>57</v>
-      </c>
-      <c r="L48">
-        <v>6</v>
-      </c>
-      <c r="M48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="2">
-        <v>18310</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>10.48</v>
-      </c>
-      <c r="F49">
-        <v>6.48</v>
-      </c>
-      <c r="G49">
-        <v>10.17</v>
-      </c>
-      <c r="H49" s="4">
-        <v>24471.72</v>
-      </c>
-      <c r="I49">
-        <v>6.42</v>
-      </c>
-      <c r="J49">
-        <v>11</v>
-      </c>
-      <c r="K49">
-        <v>11</v>
-      </c>
-      <c r="L49">
-        <v>31</v>
-      </c>
-      <c r="M49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="2">
-        <v>55300</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>8.77</v>
-      </c>
-      <c r="F50">
-        <v>6.92</v>
-      </c>
-      <c r="G50">
-        <v>13.11</v>
-      </c>
-      <c r="H50" s="4">
-        <v>69949.570000000007</v>
-      </c>
-      <c r="I50">
-        <v>2.89</v>
-      </c>
-      <c r="J50">
-        <v>61</v>
-      </c>
-      <c r="K50">
-        <v>61</v>
-      </c>
-      <c r="L50">
-        <v>76</v>
-      </c>
-      <c r="M50">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="2">
-        <v>26650</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>9.39</v>
-      </c>
-      <c r="F51">
-        <v>9.09</v>
-      </c>
-      <c r="G51">
-        <v>9.73</v>
-      </c>
-      <c r="H51" s="4">
-        <v>46271.74</v>
-      </c>
-      <c r="I51">
-        <v>4.5</v>
-      </c>
-      <c r="J51">
-        <v>98</v>
-      </c>
-      <c r="K51">
-        <v>98</v>
-      </c>
-      <c r="L51">
-        <v>91</v>
-      </c>
-      <c r="M51">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80B206C-9809-47E7-83F5-F1D3AABE952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5083DC-56C2-42BA-8932-E84FE1579ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{32B3B6C6-D64F-4202-AB94-BB781B619208}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0DF547F1-E769-4A4B-8DB8-91A746910B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,12 +681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8B2FF-0B37-4621-9BFC-7C4058643D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA24176-984A-4D8C-B202-F84E1C5B71CF}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -752,10 +750,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>22850</v>
+        <v>22750</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.2000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="E2">
         <v>8.2799999999999994</v>
@@ -770,7 +768,7 @@
         <v>46238.98</v>
       </c>
       <c r="I2">
-        <v>4.38</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J2">
         <v>76</v>
@@ -779,10 +777,10 @@
         <v>76</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -793,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>104200</v>
+        <v>110500</v>
       </c>
       <c r="D3" s="3">
-        <v>3.5799999999999998E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="E3">
         <v>19.09</v>
@@ -811,19 +809,19 @@
         <v>144845.18</v>
       </c>
       <c r="I3">
-        <v>6.24</v>
+        <v>5.88</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L3">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -834,10 +832,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>450000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-3.3E-3</v>
+        <v>447500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>13.09</v>
@@ -852,19 +850,19 @@
         <v>363062.08</v>
       </c>
       <c r="I4">
-        <v>4.22</v>
+        <v>4.25</v>
       </c>
       <c r="J4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -875,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>30350</v>
+        <v>30600</v>
       </c>
       <c r="D5" s="3">
-        <v>-2.8799999999999999E-2</v>
+        <v>-2.5499999999999998E-2</v>
       </c>
       <c r="E5">
         <v>7.12</v>
@@ -893,19 +891,19 @@
         <v>70084.75</v>
       </c>
       <c r="I5">
-        <v>6.59</v>
+        <v>6.54</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -916,10 +914,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>25450</v>
+        <v>25600</v>
       </c>
       <c r="D6" s="3">
-        <v>1.3899999999999999E-2</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="E6">
         <v>1.04</v>
@@ -934,19 +932,19 @@
         <v>52631.05</v>
       </c>
       <c r="I6">
-        <v>4.72</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -957,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>7910</v>
+        <v>7720</v>
       </c>
       <c r="D7" s="3">
-        <v>8.8999999999999999E-3</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E7">
         <v>2.84</v>
@@ -975,19 +973,19 @@
         <v>20755.32</v>
       </c>
       <c r="I7">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -998,10 +996,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>26650</v>
+        <v>27450</v>
       </c>
       <c r="D8" s="3">
-        <v>2.9000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E8">
         <v>4.57</v>
@@ -1016,19 +1014,19 @@
         <v>41863.9</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>4.37</v>
       </c>
       <c r="J8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1039,10 +1037,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>72000</v>
+        <v>73900</v>
       </c>
       <c r="D9" s="3">
-        <v>9.7999999999999997E-3</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E9">
         <v>2.16</v>
@@ -1057,19 +1055,19 @@
         <v>172209.34</v>
       </c>
       <c r="I9">
-        <v>4.3099999999999996</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1080,10 +1078,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>10890</v>
+        <v>10910</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.09E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E10">
         <v>9.44</v>
@@ -1098,7 +1096,7 @@
         <v>17946.82</v>
       </c>
       <c r="I10">
-        <v>4.7300000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="J10">
         <v>89</v>
@@ -1107,10 +1105,10 @@
         <v>89</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1121,10 +1119,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>86000</v>
+        <v>103800</v>
       </c>
       <c r="D11" s="3">
-        <v>2.3E-3</v>
+        <v>3.49E-2</v>
       </c>
       <c r="E11">
         <v>19.62</v>
@@ -1139,19 +1137,19 @@
         <v>132483.99</v>
       </c>
       <c r="I11">
-        <v>3.49</v>
+        <v>2.89</v>
       </c>
       <c r="J11">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1162,10 +1160,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>220000</v>
+        <v>239000</v>
       </c>
       <c r="D12" s="3">
-        <v>2.0899999999999998E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E12">
         <v>12.43</v>
@@ -1180,19 +1178,19 @@
         <v>417937.43</v>
       </c>
       <c r="I12">
-        <v>5.45</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="J12">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1203,10 +1201,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>135500</v>
+        <v>133900</v>
       </c>
       <c r="D13" s="3">
-        <v>-6.6E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E13">
         <v>18.96</v>
@@ -1221,19 +1219,19 @@
         <v>128511.34</v>
       </c>
       <c r="I13">
-        <v>5.0199999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1244,10 +1242,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>19630</v>
+        <v>20350</v>
       </c>
       <c r="D14" s="3">
-        <v>1.8700000000000001E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E14">
         <v>8.73</v>
@@ -1262,19 +1260,19 @@
         <v>23779.51</v>
       </c>
       <c r="I14">
-        <v>4.84</v>
+        <v>4.67</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1285,10 +1283,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>22550</v>
+        <v>23700</v>
       </c>
       <c r="D15" s="3">
-        <v>-8.8000000000000005E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E15">
         <v>19.78</v>
@@ -1303,19 +1301,19 @@
         <v>31476.26</v>
       </c>
       <c r="I15">
-        <v>4.43</v>
+        <v>4.22</v>
       </c>
       <c r="J15">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1326,10 +1324,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>137100</v>
+        <v>131800</v>
       </c>
       <c r="D16" s="3">
-        <v>9.5999999999999992E-3</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="E16">
         <v>13.17</v>
@@ -1344,19 +1342,19 @@
         <v>199638.85</v>
       </c>
       <c r="I16">
-        <v>3.9</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J16">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1367,10 +1365,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>72400</v>
+        <v>75500</v>
       </c>
       <c r="D17" s="3">
-        <v>1.6899999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E17">
         <v>12.89</v>
@@ -1385,19 +1383,19 @@
         <v>84023.37</v>
       </c>
       <c r="I17">
-        <v>4.83</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J17">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1408,10 +1406,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>54400</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
+        <v>54500</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E18">
         <v>10.83</v>
@@ -1426,7 +1424,7 @@
         <v>55591.17</v>
       </c>
       <c r="I18">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="J18">
         <v>67</v>
@@ -1435,10 +1433,10 @@
         <v>67</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1449,10 +1447,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>78100</v>
+        <v>80900</v>
       </c>
       <c r="D19" s="3">
-        <v>-7.6E-3</v>
+        <v>-2.06E-2</v>
       </c>
       <c r="E19">
         <v>14.42</v>
@@ -1467,19 +1465,19 @@
         <v>33518.75</v>
       </c>
       <c r="I19">
-        <v>7.04</v>
+        <v>6.8</v>
       </c>
       <c r="J19">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1490,10 +1488,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>35900</v>
+        <v>35450</v>
       </c>
       <c r="D20" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="E20">
         <v>13.16</v>
@@ -1508,13 +1506,13 @@
         <v>70038.45</v>
       </c>
       <c r="I20">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J20">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L20">
         <v>39</v>
@@ -1531,10 +1529,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="2">
-        <v>19350</v>
+        <v>19260</v>
       </c>
       <c r="D21" s="3">
-        <v>6.1999999999999998E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E21">
         <v>8.06</v>
@@ -1549,19 +1547,19 @@
         <v>43741.23</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="J21">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1572,10 +1570,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>50600</v>
+        <v>49550</v>
       </c>
       <c r="D22" s="3">
-        <v>-2E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1590,19 +1588,19 @@
         <v>77080.960000000006</v>
       </c>
       <c r="I22">
-        <v>5.53</v>
+        <v>5.65</v>
       </c>
       <c r="J22">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1616,7 +1614,7 @@
         <v>20250</v>
       </c>
       <c r="D23" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E23">
         <v>15.12</v>
@@ -1640,10 +1638,10 @@
         <v>38</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1654,10 +1652,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>51200</v>
+        <v>49450</v>
       </c>
       <c r="D24" s="3">
-        <v>1.3899999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E24">
         <v>2.85</v>
@@ -1672,19 +1670,19 @@
         <v>69574.75</v>
       </c>
       <c r="I24">
-        <v>3.91</v>
+        <v>4.04</v>
       </c>
       <c r="J24">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1695,10 +1693,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>15200</v>
+        <v>15040</v>
       </c>
       <c r="D25" s="3">
-        <v>-8.5000000000000006E-3</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="E25">
         <v>4.4000000000000004</v>
@@ -1713,19 +1711,19 @@
         <v>20401.09</v>
       </c>
       <c r="I25">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="J25">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1736,10 +1734,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <v>159100</v>
+        <v>164100</v>
       </c>
       <c r="D26" s="3">
-        <v>2.58E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E26">
         <v>5.76</v>
@@ -1754,19 +1752,19 @@
         <v>168759.44</v>
       </c>
       <c r="I26">
-        <v>2.83</v>
+        <v>2.74</v>
       </c>
       <c r="J26">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1777,10 +1775,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="2">
-        <v>134000</v>
+        <v>138400</v>
       </c>
       <c r="D27" s="3">
-        <v>-3.7000000000000002E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E27">
         <v>12.66</v>
@@ -1795,19 +1793,19 @@
         <v>82141.36</v>
       </c>
       <c r="I27">
-        <v>4.03</v>
+        <v>3.9</v>
       </c>
       <c r="J27">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1818,10 +1816,10 @@
         <v>62</v>
       </c>
       <c r="C28" s="2">
-        <v>17970</v>
+        <v>17700</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.1000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="E28">
         <v>12.08</v>
@@ -1836,19 +1834,19 @@
         <v>18676.03</v>
       </c>
       <c r="I28">
-        <v>6.51</v>
+        <v>6.61</v>
       </c>
       <c r="J28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1859,10 +1857,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="2">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="D29" s="3">
-        <v>6.4999999999999997E-3</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="E29">
         <v>11.21</v>
@@ -1877,19 +1875,19 @@
         <v>120400.44</v>
       </c>
       <c r="I29">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="J29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1900,10 +1898,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="2">
-        <v>253000</v>
+        <v>252500</v>
       </c>
       <c r="D30" s="3">
-        <v>3.9E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E30">
         <v>15.98</v>
@@ -1918,7 +1916,7 @@
         <v>224185.76</v>
       </c>
       <c r="I30">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="J30">
         <v>86</v>
@@ -1927,10 +1925,10 @@
         <v>86</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1941,10 +1939,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>48000</v>
+        <v>49950</v>
       </c>
       <c r="D31" s="3">
-        <v>3.0999999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E31">
         <v>13.26</v>
@@ -1959,19 +1957,19 @@
         <v>28057.11</v>
       </c>
       <c r="I31">
-        <v>5.14</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -1982,10 +1980,10 @@
         <v>70</v>
       </c>
       <c r="C32" s="2">
-        <v>71400</v>
+        <v>72300</v>
       </c>
       <c r="D32" s="3">
-        <v>1.2800000000000001E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="E32">
         <v>8.11</v>
@@ -2000,19 +1998,19 @@
         <v>117797.1</v>
       </c>
       <c r="I32">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="J32">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L32">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M32">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2023,10 +2021,10 @@
         <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>53600</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.7100000000000001E-2</v>
+        <v>57900</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
       </c>
       <c r="E33">
         <v>19.2</v>
@@ -2041,19 +2039,19 @@
         <v>8528.24</v>
       </c>
       <c r="I33">
-        <v>1.1200000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="J33">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L33">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M33">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2064,10 +2062,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>144700</v>
+        <v>156200</v>
       </c>
       <c r="D34" s="3">
-        <v>1.1900000000000001E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="E34">
         <v>11.54</v>
@@ -2082,19 +2080,19 @@
         <v>167913.36</v>
       </c>
       <c r="I34">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J34">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2105,10 +2103,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>45300</v>
+        <v>46000</v>
       </c>
       <c r="D35" s="3">
-        <v>-4.4000000000000003E-3</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E35">
         <v>4.12</v>
@@ -2123,19 +2121,19 @@
         <v>148026.10999999999</v>
       </c>
       <c r="I35">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -2146,10 +2144,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="2">
-        <v>88400</v>
+        <v>86700</v>
       </c>
       <c r="D36" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E36">
         <v>9.11</v>
@@ -2164,19 +2162,19 @@
         <v>153891.85</v>
       </c>
       <c r="I36">
-        <v>4.07</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J36">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L36">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2187,10 +2185,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2">
-        <v>116800</v>
+        <v>114500</v>
       </c>
       <c r="D37" s="3">
-        <v>4.3E-3</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="E37">
         <v>8.86</v>
@@ -2205,19 +2203,19 @@
         <v>158104.75</v>
       </c>
       <c r="I37">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="J37">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2228,10 +2226,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>14690</v>
+        <v>14440</v>
       </c>
       <c r="D38" s="3">
-        <v>1.4500000000000001E-2</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="E38">
         <v>6.96</v>
@@ -2246,19 +2244,19 @@
         <v>33449.870000000003</v>
       </c>
       <c r="I38">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="J38">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -2269,10 +2267,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>13640</v>
+        <v>13730</v>
       </c>
       <c r="D39" s="3">
-        <v>1.04E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="E39">
         <v>3.6</v>
@@ -2287,19 +2285,19 @@
         <v>36784.92</v>
       </c>
       <c r="I39">
-        <v>3.67</v>
+        <v>3.64</v>
       </c>
       <c r="J39">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2310,10 +2308,10 @@
         <v>86</v>
       </c>
       <c r="C40" s="2">
-        <v>23350</v>
+        <v>23075</v>
       </c>
       <c r="D40" s="3">
-        <v>1.0800000000000001E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="E40">
         <v>12.8</v>
@@ -2328,19 +2326,19 @@
         <v>29884.63</v>
       </c>
       <c r="I40">
-        <v>4.26</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J40">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L40">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -2351,10 +2349,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="2">
-        <v>12080</v>
+        <v>12410</v>
       </c>
       <c r="D41" s="3">
-        <v>-1.6999999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="E41">
         <v>7.65</v>
@@ -2369,19 +2367,19 @@
         <v>29805.78</v>
       </c>
       <c r="I41">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J41">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2392,10 +2390,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="2">
-        <v>18200</v>
+        <v>17620</v>
       </c>
       <c r="D42" s="3">
-        <v>-5.0000000000000001E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E42">
         <v>10.48</v>
@@ -2410,19 +2408,19 @@
         <v>24471.72</v>
       </c>
       <c r="I42">
-        <v>6.46</v>
+        <v>6.67</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -2433,10 +2431,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>26050</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0</v>
+        <v>25600</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2E-3</v>
       </c>
       <c r="E43">
         <v>9.39</v>
@@ -2451,19 +2449,19 @@
         <v>46271.74</v>
       </c>
       <c r="I43">
-        <v>4.6100000000000003</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J43">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K43">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L43">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E46441E-F76D-4594-B879-5A64E0C8AC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51298E1-3A00-4FDA-AE44-87B1CAB3F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{78BB7B02-DB9F-4577-A493-DF5A2AEA56E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D697C960-8A06-4D1A-89B5-6475A7ED18EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>종목코드</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>현재가</t>
+  </si>
+  <si>
+    <t>등락률</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>BPS</t>
   </si>
   <si>
     <t>배당수익률</t>
@@ -316,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +333,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D249B9C2-91DF-4E3B-9307-64524F7982F6}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A63A7D6-80BB-483F-B170-0B41ACFFA729}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -651,15 +666,17 @@
     <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,1127 +686,1597 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>73600</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
+      <c r="D2" s="3">
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="E2">
+        <v>2.16</v>
+      </c>
+      <c r="F2">
+        <v>5.79</v>
+      </c>
+      <c r="G2">
+        <v>5.18</v>
+      </c>
+      <c r="H2" s="4">
+        <v>172209.34</v>
+      </c>
+      <c r="I2">
         <v>4.21</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>24</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>45</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>17590</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
+      <c r="D3" s="3">
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E3">
+        <v>12.08</v>
+      </c>
+      <c r="F3">
+        <v>7.17</v>
+      </c>
+      <c r="G3">
+        <v>8.39</v>
+      </c>
+      <c r="H3" s="4">
+        <v>18676.03</v>
+      </c>
+      <c r="I3">
         <v>6.65</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>20100</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
+      <c r="D4" s="3">
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="E4">
+        <v>15.12</v>
+      </c>
+      <c r="F4">
+        <v>11.12</v>
+      </c>
+      <c r="G4">
+        <v>15.58</v>
+      </c>
+      <c r="H4" s="4">
+        <v>14528.71</v>
+      </c>
+      <c r="I4">
         <v>6.12</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>36</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>36</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>29650</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
+      <c r="D5" s="3">
+        <v>-2.3099999999999999E-2</v>
       </c>
       <c r="E5">
+        <v>7.12</v>
+      </c>
+      <c r="F5">
+        <v>11.44</v>
+      </c>
+      <c r="G5">
+        <v>12.61</v>
+      </c>
+      <c r="H5" s="4">
+        <v>70084.75</v>
+      </c>
+      <c r="I5">
         <v>6.75</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>41</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>41</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>40450</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
+      <c r="D6" s="3">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E6">
+        <v>11.21</v>
+      </c>
+      <c r="F6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G6">
+        <v>6.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>120400.44</v>
+      </c>
+      <c r="I6">
         <v>3.6</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>42</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>42</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>75</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>45500</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
+      <c r="D7" s="3">
+        <v>-1.6199999999999999E-2</v>
       </c>
       <c r="E7">
+        <v>4.12</v>
+      </c>
+      <c r="F7">
+        <v>3.45</v>
+      </c>
+      <c r="G7">
+        <v>11.01</v>
+      </c>
+      <c r="H7" s="4">
+        <v>148026.10999999999</v>
+      </c>
+      <c r="I7">
         <v>5.93</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>51</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>51</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>25200</v>
       </c>
-      <c r="D8" s="2">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>-1.18E-2</v>
       </c>
       <c r="E8">
+        <v>1.04</v>
+      </c>
+      <c r="F8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G8">
+        <v>4.21</v>
+      </c>
+      <c r="H8" s="4">
+        <v>52631.05</v>
+      </c>
+      <c r="I8">
         <v>4.76</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>58</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>58</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>48</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>49850</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="E9">
+        <v>13.26</v>
+      </c>
+      <c r="F9">
+        <v>9.59</v>
+      </c>
+      <c r="G9">
+        <v>11.65</v>
+      </c>
+      <c r="H9" s="4">
+        <v>28057.11</v>
+      </c>
+      <c r="I9">
         <v>4.95</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>60</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>73</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>243000</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
+      <c r="D10" s="3">
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="E10">
+        <v>12.43</v>
+      </c>
+      <c r="F10">
+        <v>11.22</v>
+      </c>
+      <c r="G10">
+        <v>11.82</v>
+      </c>
+      <c r="H10" s="4">
+        <v>417937.43</v>
+      </c>
+      <c r="I10">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>62</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>62</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>91</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>54500</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
+      <c r="D11" s="3">
+        <v>-5.4999999999999997E-3</v>
       </c>
       <c r="E11">
+        <v>10.83</v>
+      </c>
+      <c r="F11">
+        <v>7.71</v>
+      </c>
+      <c r="G11">
+        <v>9.48</v>
+      </c>
+      <c r="H11" s="4">
+        <v>55591.17</v>
+      </c>
+      <c r="I11">
         <v>6.5</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>67</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>67</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>43</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>49450</v>
       </c>
-      <c r="D12" s="2">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>7.89</v>
+      </c>
+      <c r="G12">
+        <v>7.9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>77080.960000000006</v>
+      </c>
+      <c r="I12">
         <v>5.66</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <v>68</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>68</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>34500</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
+      <c r="D13" s="3">
+        <v>-2.1299999999999999E-2</v>
       </c>
       <c r="E13">
+        <v>13.16</v>
+      </c>
+      <c r="F13">
+        <v>16.53</v>
+      </c>
+      <c r="G13">
+        <v>13.29</v>
+      </c>
+      <c r="H13" s="4">
+        <v>70038.45</v>
+      </c>
+      <c r="I13">
         <v>4.0599999999999996</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>70</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>70</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>25</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>23650</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E14">
+        <v>19.78</v>
+      </c>
+      <c r="F14">
+        <v>13.61</v>
+      </c>
+      <c r="G14">
+        <v>23.29</v>
+      </c>
+      <c r="H14" s="4">
+        <v>31476.26</v>
+      </c>
+      <c r="I14">
         <v>4.2300000000000004</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>71</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>71</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>44</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+       